--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4173463</v>
+        <v>4142844</v>
       </c>
       <c r="F2" t="n">
-        <v>141.4926950881688</v>
+        <v>1376.977593676227</v>
       </c>
       <c r="G2" t="n">
-        <v>1212.382478926946</v>
+        <v>1482.579465069026</v>
       </c>
       <c r="H2" t="n">
-        <v>0.31</v>
+        <v>2.13</v>
       </c>
       <c r="I2" t="n">
-        <v>57466</v>
+        <v>58482</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>594030472</v>
+        <v>593146789</v>
       </c>
       <c r="E3" t="n">
-        <v>1152583716</v>
+        <v>1150875158</v>
       </c>
       <c r="F3" t="n">
-        <v>68178.53815343691</v>
+        <v>63615.78512321332</v>
       </c>
       <c r="G3" t="n">
-        <v>90242.23695074103</v>
+        <v>75818.27894270838</v>
       </c>
       <c r="H3" t="n">
         <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>20067899</v>
+        <v>19763547</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>239231600</v>
+        <v>239290805</v>
       </c>
       <c r="E4" t="n">
-        <v>1500187737</v>
+        <v>1500559006</v>
       </c>
       <c r="F4" t="n">
-        <v>211050.4700651916</v>
+        <v>287523.7723028909</v>
       </c>
       <c r="G4" t="n">
-        <v>228724.3100755352</v>
+        <v>257946.7674770399</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>14447424</v>
+        <v>14223271</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138426707</v>
+        <v>138507516</v>
       </c>
       <c r="E5" t="n">
-        <v>153398902</v>
+        <v>153488451</v>
       </c>
       <c r="F5" t="n">
-        <v>8164.289254489979</v>
+        <v>7832.975435044501</v>
       </c>
       <c r="G5" t="n">
-        <v>366.544370494799</v>
+        <v>590.6615069701485</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>30732559</v>
+        <v>30560624</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48368845</v>
+        <v>48181981</v>
       </c>
       <c r="E6" t="n">
-        <v>60508184</v>
+        <v>60274423</v>
       </c>
       <c r="F6" t="n">
-        <v>5364.243321095472</v>
+        <v>5120.345577517554</v>
       </c>
       <c r="G6" t="n">
-        <v>3309.348815870534</v>
+        <v>3500.091738851831</v>
       </c>
       <c r="H6" t="n">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="I6" t="n">
-        <v>603196</v>
+        <v>574008</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>70437330</v>
+        <v>70230197</v>
       </c>
       <c r="E7" t="n">
-        <v>140310961</v>
+        <v>139898351</v>
       </c>
       <c r="F7" t="n">
-        <v>11627.94730496233</v>
+        <v>10829.60137170231</v>
       </c>
       <c r="G7" t="n">
-        <v>11935.7474212718</v>
+        <v>11585.02811714671</v>
       </c>
       <c r="H7" t="n">
-        <v>0.15</v>
+        <v>0.44</v>
       </c>
       <c r="I7" t="n">
-        <v>1918296</v>
+        <v>1694164</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39050959</v>
+        <v>39046626</v>
       </c>
       <c r="E8" t="n">
-        <v>43703648</v>
+        <v>43698798</v>
       </c>
       <c r="F8" t="n">
-        <v>6535.645960996905</v>
+        <v>6506.172836471116</v>
       </c>
       <c r="G8" t="n">
-        <v>6461.047879489329</v>
+        <v>6237.905188372602</v>
       </c>
       <c r="H8" t="n">
         <v>0.41</v>
       </c>
       <c r="I8" t="n">
-        <v>237387</v>
+        <v>236218</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14131821</v>
+        <v>14254311</v>
       </c>
       <c r="E9" t="n">
-        <v>41645564</v>
+        <v>42006533</v>
       </c>
       <c r="F9" t="n">
-        <v>5022.848830791155</v>
+        <v>5009.652787452365</v>
       </c>
       <c r="G9" t="n">
-        <v>4768.949119084044</v>
+        <v>4711.174751271762</v>
       </c>
       <c r="H9" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="I9" t="n">
-        <v>831997</v>
+        <v>854570</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7607500</v>
+        <v>7554992</v>
       </c>
       <c r="E10" t="n">
-        <v>32708318</v>
+        <v>32482561</v>
       </c>
       <c r="F10" t="n">
-        <v>735.4316715495377</v>
+        <v>2163.261814076693</v>
       </c>
       <c r="G10" t="n">
-        <v>718.1326346482126</v>
+        <v>2566.019043502914</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>0.92</v>
       </c>
       <c r="I10" t="n">
-        <v>980125</v>
+        <v>1114766</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>540412138</v>
+        <v>539589356</v>
       </c>
       <c r="E11" t="n">
-        <v>675975264</v>
+        <v>674946086</v>
       </c>
       <c r="F11" t="n">
-        <v>333553.4841675574</v>
+        <v>349155.7962808984</v>
       </c>
       <c r="G11" t="n">
-        <v>252846.8424618612</v>
+        <v>281969.0076287857</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>60518806</v>
+        <v>59832037</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3464446</v>
+        <v>3455104</v>
       </c>
       <c r="E12" t="n">
-        <v>28610075</v>
+        <v>28532928</v>
       </c>
       <c r="F12" t="n">
-        <v>7155.186174920774</v>
+        <v>9900.837131469189</v>
       </c>
       <c r="G12" t="n">
-        <v>7692.359979849213</v>
+        <v>7876.080517675102</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I12" t="n">
-        <v>504689</v>
+        <v>494073</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22672489</v>
+        <v>22647813</v>
       </c>
       <c r="E13" t="n">
-        <v>22714976</v>
+        <v>22690217</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>857830</v>
+        <v>840557</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78501632</v>
+        <v>78735571</v>
       </c>
       <c r="E14" t="n">
-        <v>242984041</v>
+        <v>243708145</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>446723</v>
+        <v>440785</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>441265500</v>
+        <v>435852305</v>
       </c>
       <c r="E15" t="n">
-        <v>441265506</v>
+        <v>435852311</v>
       </c>
       <c r="F15" t="n">
-        <v>13289.30088019541</v>
+        <v>15274.26024264533</v>
       </c>
       <c r="G15" t="n">
-        <v>22331.92361537272</v>
+        <v>19762.8988674381</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I15" t="n">
-        <v>40711834</v>
+        <v>41214918</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4637156</v>
+        <v>4630372</v>
       </c>
       <c r="E16" t="n">
-        <v>4637156</v>
+        <v>4630372</v>
       </c>
       <c r="F16" t="n">
-        <v>210.5479628908207</v>
+        <v>5530.429350288414</v>
       </c>
       <c r="G16" t="n">
-        <v>1009.948786013633</v>
+        <v>5812.328838583906</v>
       </c>
       <c r="H16" t="n">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2077529</v>
+        <v>2084189</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3354490</v>
+        <v>3359231</v>
       </c>
       <c r="E17" t="n">
-        <v>3354490</v>
+        <v>3359231</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>469059</v>
+        <v>467513</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166564277</v>
+        <v>166482062</v>
       </c>
       <c r="E18" t="n">
-        <v>206213511</v>
+        <v>206111726</v>
       </c>
       <c r="F18" t="n">
-        <v>8714.404761558817</v>
+        <v>10976.37707326832</v>
       </c>
       <c r="G18" t="n">
-        <v>7231.389798182602</v>
+        <v>8145.40679920925</v>
       </c>
       <c r="H18" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="I18" t="n">
-        <v>400404</v>
+        <v>402414</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7504847</v>
+        <v>7390970</v>
       </c>
       <c r="E19" t="n">
-        <v>10336092</v>
+        <v>10179254</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1233541</v>
+        <v>1185846</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>918014</v>
+        <v>924293</v>
       </c>
       <c r="E20" t="n">
-        <v>6426095</v>
+        <v>6470053</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>642633</v>
+        <v>630895</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>106680666</v>
+        <v>106833392</v>
       </c>
       <c r="E21" t="n">
-        <v>415557697</v>
+        <v>416128583</v>
       </c>
       <c r="F21" t="n">
-        <v>34045.74629196445</v>
+        <v>40185.34037680074</v>
       </c>
       <c r="G21" t="n">
-        <v>62888.52826205057</v>
+        <v>76160.89260350728</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>6546446</v>
+        <v>6463597</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1703622</v>
+        <v>1703094</v>
       </c>
       <c r="E22" t="n">
-        <v>12271047</v>
+        <v>12267241</v>
       </c>
       <c r="F22" t="n">
-        <v>3019.918706632548</v>
+        <v>2961.689711373839</v>
       </c>
       <c r="G22" t="n">
-        <v>3118.592832446165</v>
+        <v>2981.386966612848</v>
       </c>
       <c r="H22" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="I22" t="n">
-        <v>186075</v>
+        <v>185821</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>133793191</v>
+        <v>133536397</v>
       </c>
       <c r="E23" t="n">
-        <v>133793191</v>
+        <v>133536397</v>
       </c>
       <c r="F23" t="n">
-        <v>951965.5017152745</v>
+        <v>995571.0148310802</v>
       </c>
       <c r="G23" t="n">
-        <v>1191659.711735374</v>
+        <v>1336536.162379768</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>66090798</v>
+        <v>63782713</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63606414</v>
+        <v>63731375</v>
       </c>
       <c r="E24" t="n">
-        <v>326186737</v>
+        <v>326827565</v>
       </c>
       <c r="F24" t="n">
-        <v>93082.4946430718</v>
+        <v>70742.44544704912</v>
       </c>
       <c r="G24" t="n">
-        <v>109400.1354041009</v>
+        <v>122538.7307735376</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>13844129</v>
+        <v>13797140</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>247149290</v>
+        <v>247864607</v>
       </c>
       <c r="E25" t="n">
-        <v>247149290</v>
+        <v>247864607</v>
       </c>
       <c r="F25" t="n">
-        <v>334071.1102895689</v>
+        <v>389514.268612</v>
       </c>
       <c r="G25" t="n">
-        <v>362384.2103201423</v>
+        <v>391789.5605998673</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>13253888</v>
+        <v>13298723</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1119801</v>
+        <v>1109689</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>188774</v>
+        <v>186746</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3890432</v>
+        <v>3883702</v>
       </c>
       <c r="E28" t="n">
-        <v>3891113</v>
+        <v>3884346</v>
       </c>
       <c r="F28" t="n">
-        <v>751.6070907586321</v>
+        <v>2833.1784539693</v>
       </c>
       <c r="G28" t="n">
-        <v>1967.010480240514</v>
+        <v>3884.693047734745</v>
       </c>
       <c r="H28" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="I28" t="n">
-        <v>262598</v>
+        <v>267066</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5951153</v>
+        <v>6173503</v>
       </c>
       <c r="E29" t="n">
-        <v>14454893</v>
+        <v>14994964</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>416249</v>
+        <v>413461</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99974361</v>
+        <v>99643468</v>
       </c>
       <c r="E30" t="n">
-        <v>124656308</v>
+        <v>124243725</v>
       </c>
       <c r="F30" t="n">
-        <v>123393.9599764356</v>
+        <v>121396.6508465977</v>
       </c>
       <c r="G30" t="n">
-        <v>120586.2358707573</v>
+        <v>103826.3519135322</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12975234</v>
+        <v>12653553</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1118370</v>
+        <v>1106683</v>
       </c>
       <c r="E31" t="n">
-        <v>12154030</v>
+        <v>12027015</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>313.31</v>
+        <v>808.14</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>70414538</v>
+        <v>70006353</v>
       </c>
       <c r="E32" t="n">
-        <v>197132506</v>
+        <v>195989751</v>
       </c>
       <c r="F32" t="n">
-        <v>66008.80788443974</v>
+        <v>63859.46602214939</v>
       </c>
       <c r="G32" t="n">
-        <v>67343.65850622824</v>
+        <v>60375.31149245513</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>19629063</v>
+        <v>19896067</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4550939</v>
+        <v>4491855</v>
       </c>
       <c r="E33" t="n">
-        <v>8974834</v>
+        <v>8858317</v>
       </c>
       <c r="F33" t="n">
-        <v>3328.176569842171</v>
+        <v>9799.824792530886</v>
       </c>
       <c r="G33" t="n">
-        <v>6429.886754341966</v>
+        <v>7477.174821896552</v>
       </c>
       <c r="H33" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="I33" t="n">
-        <v>1728301</v>
+        <v>1719625</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37454839</v>
+        <v>37464670</v>
       </c>
       <c r="F34" t="n">
-        <v>987.9380062437591</v>
+        <v>909.5509826253619</v>
       </c>
       <c r="G34" t="n">
-        <v>884.3540143655104</v>
+        <v>990.6091886128295</v>
       </c>
       <c r="H34" t="n">
-        <v>1.71</v>
+        <v>0.53</v>
       </c>
       <c r="I34" t="n">
-        <v>65657</v>
+        <v>66166</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7525426</v>
+        <v>7517142</v>
       </c>
       <c r="E35" t="n">
-        <v>17723875</v>
+        <v>17704363</v>
       </c>
       <c r="F35" t="n">
-        <v>3387.594757363847</v>
+        <v>3387.579114069316</v>
       </c>
       <c r="G35" t="n">
-        <v>2626.714949409091</v>
+        <v>2568.364085357599</v>
       </c>
       <c r="H35" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="I35" t="n">
-        <v>16419.74</v>
+        <v>27818</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23804748</v>
+        <v>23828847</v>
       </c>
       <c r="F36" t="n">
-        <v>5070.731703397937</v>
+        <v>5041.369378846803</v>
       </c>
       <c r="G36" t="n">
-        <v>5560.729926781251</v>
+        <v>5561.353486146828</v>
       </c>
       <c r="H36" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>122743</v>
+        <v>122407</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>69157304</v>
+        <v>69603668</v>
       </c>
       <c r="E37" t="n">
-        <v>144228099</v>
+        <v>145158995</v>
       </c>
       <c r="F37" t="n">
-        <v>51937.85319923862</v>
+        <v>45847.12739596159</v>
       </c>
       <c r="G37" t="n">
-        <v>104458.4887495167</v>
+        <v>121680.7524394051</v>
       </c>
       <c r="H37" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>12950106</v>
+        <v>12227308</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>285020735</v>
+        <v>285404710</v>
       </c>
       <c r="E38" t="n">
-        <v>285020735</v>
+        <v>285404710</v>
       </c>
       <c r="F38" t="n">
-        <v>23836.34218403501</v>
+        <v>29211.23343810687</v>
       </c>
       <c r="G38" t="n">
-        <v>141617.1318215312</v>
+        <v>34012.80654679444</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>16464074</v>
+        <v>16455011</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>193371243</v>
+        <v>194705936</v>
       </c>
       <c r="E39" t="n">
-        <v>671789174</v>
+        <v>676426017</v>
       </c>
       <c r="F39" t="n">
-        <v>114504.0331875368</v>
+        <v>181773.5538362305</v>
       </c>
       <c r="G39" t="n">
-        <v>338408.564547071</v>
+        <v>333298.8602156086</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>25368636</v>
+        <v>25392051</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4142288</v>
+        <v>4058587</v>
       </c>
       <c r="E40" t="n">
-        <v>4142288</v>
+        <v>4058587</v>
       </c>
       <c r="F40" t="n">
-        <v>5904.940158150258</v>
+        <v>4845.334508940492</v>
       </c>
       <c r="G40" t="n">
-        <v>1019.154299105398</v>
+        <v>4703.258552183627</v>
       </c>
       <c r="H40" t="n">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="I40" t="n">
-        <v>4736250</v>
+        <v>4724749</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>109734026</v>
+        <v>109610828</v>
       </c>
       <c r="E41" t="n">
-        <v>467285594</v>
+        <v>466710590</v>
       </c>
       <c r="F41" t="n">
-        <v>5465.319603328247</v>
+        <v>3815.522300832079</v>
       </c>
       <c r="G41" t="n">
-        <v>6553.290732029589</v>
+        <v>6835.274490766159</v>
       </c>
       <c r="H41" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I41" t="n">
-        <v>8590974</v>
+        <v>8500718</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>521939</v>
+        <v>519058</v>
       </c>
       <c r="E42" t="n">
-        <v>6330606</v>
+        <v>6295674</v>
       </c>
       <c r="F42" t="n">
-        <v>1040.584774966828</v>
+        <v>344.2785474833381</v>
       </c>
       <c r="G42" t="n">
-        <v>258.7601587272933</v>
+        <v>991.8722255013691</v>
       </c>
       <c r="H42" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>2892010</v>
+        <v>2930270</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1257494438</v>
+        <v>1255565662</v>
       </c>
       <c r="E43" t="n">
-        <v>6029943360</v>
+        <v>6020694485</v>
       </c>
       <c r="F43" t="n">
-        <v>49302.97675371115</v>
+        <v>50128.13608685957</v>
       </c>
       <c r="G43" t="n">
-        <v>65773.83042952494</v>
+        <v>66064.47262789967</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I43" t="n">
-        <v>193607504</v>
+        <v>191608736</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6042801640</v>
+        <v>6037153594</v>
       </c>
       <c r="E44" t="n">
-        <v>6042801640</v>
+        <v>6037153594</v>
       </c>
       <c r="F44" t="n">
-        <v>185082.5790287454</v>
+        <v>264508.0610985385</v>
       </c>
       <c r="G44" t="n">
-        <v>484744.9669010478</v>
+        <v>263004.8961494334</v>
       </c>
       <c r="H44" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I44" t="n">
-        <v>107843754</v>
+        <v>116032118</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>265219250</v>
+        <v>266130543</v>
       </c>
       <c r="E45" t="n">
-        <v>1144833515</v>
+        <v>1148767162</v>
       </c>
       <c r="F45" t="n">
-        <v>100172.3208595788</v>
+        <v>96503.37600119796</v>
       </c>
       <c r="G45" t="n">
-        <v>89095.85263817519</v>
+        <v>92897.8864001054</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I45" t="n">
-        <v>109279524</v>
+        <v>108094475</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>112343800</v>
+        <v>112091252</v>
       </c>
       <c r="E46" t="n">
-        <v>112343800</v>
+        <v>112091252</v>
       </c>
       <c r="F46" t="n">
-        <v>34398.81801594534</v>
+        <v>31416.3510549798</v>
       </c>
       <c r="G46" t="n">
-        <v>32642.55434967736</v>
+        <v>35438.96821268059</v>
       </c>
       <c r="H46" t="n">
         <v>0.35</v>
       </c>
       <c r="I46" t="n">
-        <v>5803531</v>
+        <v>5788199</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2001922004</v>
+        <v>2000344033</v>
       </c>
       <c r="E47" t="n">
-        <v>2001922004</v>
+        <v>2000344033</v>
       </c>
       <c r="F47" t="n">
-        <v>220026.8207293585</v>
+        <v>220011.5629324982</v>
       </c>
       <c r="G47" t="n">
-        <v>200868.8463249156</v>
+        <v>200768.7092253209</v>
       </c>
       <c r="H47" t="n">
         <v>0.05</v>
       </c>
       <c r="I47" t="n">
-        <v>4596244524</v>
+        <v>4524676287</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9905995</v>
+        <v>9906126</v>
       </c>
       <c r="F48" t="n">
-        <v>6571.196971140756</v>
+        <v>7870.039155346373</v>
       </c>
       <c r="G48" t="n">
-        <v>5991.544241898868</v>
+        <v>6079.902954071433</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>226255</v>
+        <v>212216</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4152203</v>
+        <v>4106892</v>
       </c>
       <c r="E49" t="n">
-        <v>5451300</v>
+        <v>5391814</v>
       </c>
       <c r="F49" t="n">
-        <v>8389.6669168016</v>
+        <v>15168.15896115821</v>
       </c>
       <c r="G49" t="n">
-        <v>15484.47272112631</v>
+        <v>15324.35395754523</v>
       </c>
       <c r="H49" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>803426</v>
+        <v>749006</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11774873</v>
+        <v>11753647</v>
       </c>
       <c r="E50" t="n">
-        <v>17314729</v>
+        <v>17283516</v>
       </c>
       <c r="F50" t="n">
-        <v>5691.954218342303</v>
+        <v>6374.7488524685</v>
       </c>
       <c r="G50" t="n">
-        <v>21100.2085891506</v>
+        <v>21121.09772349178</v>
       </c>
       <c r="H50" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I50" t="n">
-        <v>1176777</v>
+        <v>1159816</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22677899</v>
+        <v>22630034</v>
       </c>
       <c r="E51" t="n">
-        <v>29418423</v>
+        <v>29356331</v>
       </c>
       <c r="F51" t="n">
-        <v>13602.61107352532</v>
+        <v>13150.91434037868</v>
       </c>
       <c r="G51" t="n">
-        <v>10807.53072655633</v>
+        <v>11289.82990993677</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>174658</v>
+        <v>175776</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13259413</v>
+        <v>13301534</v>
       </c>
       <c r="E52" t="n">
-        <v>13259413</v>
+        <v>13301534</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4345252</v>
+        <v>4316245</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98888905</v>
+        <v>99358911</v>
       </c>
       <c r="E53" t="n">
-        <v>122322036</v>
+        <v>122903416</v>
       </c>
       <c r="F53" t="n">
-        <v>748.205417506426</v>
+        <v>681.9468621631769</v>
       </c>
       <c r="G53" t="n">
-        <v>1205.750367430548</v>
+        <v>1140.827210239507</v>
       </c>
       <c r="H53" t="n">
         <v>0.37</v>
       </c>
       <c r="I53" t="n">
-        <v>730472</v>
+        <v>738945</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5478504</v>
+        <v>5489412</v>
       </c>
       <c r="E54" t="n">
-        <v>7665221</v>
+        <v>7680483</v>
       </c>
       <c r="F54" t="n">
-        <v>145.6078864405214</v>
+        <v>238.6884042631399</v>
       </c>
       <c r="G54" t="n">
-        <v>737.5470205938166</v>
+        <v>81.29293992716762</v>
       </c>
       <c r="H54" t="n">
-        <v>1.91</v>
+        <v>2.11</v>
       </c>
       <c r="I54" t="n">
-        <v>115833</v>
+        <v>108256</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14077482</v>
+        <v>14019914</v>
       </c>
       <c r="E55" t="n">
-        <v>68179494</v>
+        <v>67900682</v>
       </c>
       <c r="F55" t="n">
-        <v>19728.96025439236</v>
+        <v>27556.57904091272</v>
       </c>
       <c r="G55" t="n">
-        <v>25392.36804710635</v>
+        <v>21843.50946949295</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="I55" t="n">
-        <v>3580292</v>
+        <v>3551805</v>
       </c>
     </row>
     <row r="56">
@@ -2366,7 +2366,7 @@
         <v>57873</v>
       </c>
       <c r="E56" t="n">
-        <v>138618</v>
+        <v>138617</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4898.41</v>
+        <v>5245.27</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1847034929</v>
+        <v>1846450785</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>24877348</v>
+        <v>24848288</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12547421</v>
+        <v>12073673</v>
       </c>
       <c r="E58" t="n">
-        <v>18191950</v>
+        <v>17505084</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2130101</v>
+        <v>1669999</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123860892</v>
+        <v>122769707</v>
       </c>
       <c r="E59" t="n">
-        <v>329399365</v>
+        <v>326497435</v>
       </c>
       <c r="F59" t="n">
-        <v>1798.673691826247</v>
+        <v>4045.365705346829</v>
       </c>
       <c r="G59" t="n">
-        <v>10859.9255951494</v>
+        <v>8465.191490067773</v>
       </c>
       <c r="H59" t="n">
-        <v>0.31</v>
+        <v>0.95</v>
       </c>
       <c r="I59" t="n">
-        <v>1156340</v>
+        <v>1156078</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31634862</v>
+        <v>32253471</v>
       </c>
       <c r="E60" t="n">
-        <v>98500811</v>
+        <v>100426960</v>
       </c>
       <c r="F60" t="n">
-        <v>8185.825079732038</v>
+        <v>7344.801604192127</v>
       </c>
       <c r="G60" t="n">
-        <v>4706.665871351063</v>
+        <v>5361.617281666544</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I60" t="n">
-        <v>11718895</v>
+        <v>11934617</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1921816</v>
+        <v>1927126</v>
       </c>
       <c r="E61" t="n">
-        <v>13781151</v>
+        <v>13819230</v>
       </c>
       <c r="F61" t="n">
-        <v>5172.84747178539</v>
+        <v>5173.745614395239</v>
       </c>
       <c r="G61" t="n">
-        <v>5192.723620578648</v>
+        <v>5275.648757634022</v>
       </c>
       <c r="H61" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="I61" t="n">
-        <v>1894848</v>
+        <v>1886348</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>189419068</v>
+        <v>189876328</v>
       </c>
       <c r="E62" t="n">
-        <v>1072607148</v>
+        <v>1075196436</v>
       </c>
       <c r="F62" t="n">
-        <v>760195.1478908475</v>
+        <v>674449.7091184394</v>
       </c>
       <c r="G62" t="n">
-        <v>777443.5916822066</v>
+        <v>880606.6433171883</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>57938459</v>
+        <v>56930683</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>518857</v>
+        <v>517368</v>
       </c>
       <c r="E63" t="n">
-        <v>1746399</v>
+        <v>1741390</v>
       </c>
       <c r="F63" t="n">
-        <v>4843.992973970111</v>
+        <v>4801.165693476627</v>
       </c>
       <c r="G63" t="n">
-        <v>450.4417345317379</v>
+        <v>521.5157760424859</v>
       </c>
       <c r="H63" t="n">
         <v>0.46</v>
       </c>
       <c r="I63" t="n">
-        <v>632652</v>
+        <v>632877</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>348576</v>
+        <v>346649</v>
       </c>
       <c r="E64" t="n">
-        <v>348576</v>
+        <v>346649</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4585.13</v>
+        <v>2857.86</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>134906254</v>
+        <v>135165389</v>
       </c>
       <c r="E65" t="n">
-        <v>999305582</v>
+        <v>1001225102</v>
       </c>
       <c r="F65" t="n">
-        <v>35868.97475891465</v>
+        <v>32311.12811923262</v>
       </c>
       <c r="G65" t="n">
-        <v>40223.63533295821</v>
+        <v>30849.77662000874</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>12434894</v>
+        <v>12012906</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8386264</v>
+        <v>8364664</v>
       </c>
       <c r="E66" t="n">
-        <v>11235256</v>
+        <v>11206318</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>50053</v>
+        <v>48630</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25704154</v>
+        <v>25789385</v>
       </c>
       <c r="E67" t="n">
-        <v>25704154</v>
+        <v>25789385</v>
       </c>
       <c r="F67" t="n">
-        <v>8402.679947956447</v>
+        <v>8422.524369375309</v>
       </c>
       <c r="G67" t="n">
-        <v>4126.46227118656</v>
+        <v>4094.502873414469</v>
       </c>
       <c r="H67" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="I67" t="n">
-        <v>371990</v>
+        <v>367615</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1614944</v>
+        <v>1609555</v>
       </c>
       <c r="E68" t="n">
-        <v>12578050</v>
+        <v>12536077</v>
       </c>
       <c r="F68" t="n">
-        <v>677.9766379816887</v>
+        <v>679.8812641552752</v>
       </c>
       <c r="G68" t="n">
-        <v>14278.18862107505</v>
+        <v>18282.01541738398</v>
       </c>
       <c r="H68" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="I68" t="n">
-        <v>543811</v>
+        <v>536611</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>327208235</v>
+        <v>326373478</v>
       </c>
       <c r="E69" t="n">
-        <v>2943768176</v>
+        <v>2936258182</v>
       </c>
       <c r="F69" t="n">
-        <v>1184539.74042021</v>
+        <v>1348305.585000319</v>
       </c>
       <c r="G69" t="n">
-        <v>1666300.305281268</v>
+        <v>1491043.000112839</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>34667833</v>
+        <v>33875815</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>246289</v>
+        <v>244166</v>
       </c>
       <c r="E70" t="n">
-        <v>2173682</v>
+        <v>2154951</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>85885</v>
+        <v>89810</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1578360</v>
+        <v>1570993</v>
       </c>
       <c r="E71" t="n">
-        <v>13153002</v>
+        <v>13091605</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>75606</v>
+        <v>53478</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8486623</v>
+        <v>8505661</v>
       </c>
       <c r="E72" t="n">
-        <v>39335984</v>
+        <v>39424229</v>
       </c>
       <c r="F72" t="n">
-        <v>6223.773265154773</v>
+        <v>4985.112378796517</v>
       </c>
       <c r="G72" t="n">
-        <v>8423.579466391177</v>
+        <v>6559.862173661361</v>
       </c>
       <c r="H72" t="n">
-        <v>1.15</v>
+        <v>0.9</v>
       </c>
       <c r="I72" t="n">
-        <v>64463</v>
+        <v>67485</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>41467331</v>
+        <v>41419121</v>
       </c>
       <c r="E73" t="n">
-        <v>240078710</v>
+        <v>239799595</v>
       </c>
       <c r="F73" t="n">
-        <v>96373.29792336545</v>
+        <v>89394.36367803121</v>
       </c>
       <c r="G73" t="n">
-        <v>163495.3029920859</v>
+        <v>170652.1836783895</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>9714101</v>
+        <v>9070660</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40524584</v>
+        <v>40390353</v>
       </c>
       <c r="E74" t="n">
-        <v>55970221</v>
+        <v>55784830</v>
       </c>
       <c r="F74" t="n">
-        <v>532.2990817661707</v>
+        <v>4414.748701268842</v>
       </c>
       <c r="G74" t="n">
-        <v>660.2588216173378</v>
+        <v>10851.17343843367</v>
       </c>
       <c r="H74" t="n">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
       <c r="I74" t="n">
-        <v>346921</v>
+        <v>332088</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>96039</v>
+        <v>96045</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>816.88</v>
+        <v>816.9400000000001</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13399052</v>
+        <v>13358593</v>
       </c>
       <c r="E76" t="n">
-        <v>13444650</v>
+        <v>13404054</v>
       </c>
       <c r="F76" t="n">
-        <v>1947.936883860617</v>
+        <v>2022.395308600391</v>
       </c>
       <c r="G76" t="n">
-        <v>5295.275994471318</v>
+        <v>4601.709399140436</v>
       </c>
       <c r="H76" t="n">
         <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>5700704</v>
+        <v>5666964</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42898086</v>
+        <v>42879960</v>
       </c>
       <c r="E77" t="n">
-        <v>72830971</v>
+        <v>72800197</v>
       </c>
       <c r="F77" t="n">
-        <v>7868.410209849482</v>
+        <v>14483.48694809921</v>
       </c>
       <c r="G77" t="n">
-        <v>4980.292139955695</v>
+        <v>5669.10102591301</v>
       </c>
       <c r="H77" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>1179380</v>
+        <v>1172507</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>24053257</v>
+        <v>24058227</v>
       </c>
       <c r="E78" t="n">
-        <v>72102168</v>
+        <v>72117068</v>
       </c>
       <c r="F78" t="n">
-        <v>145272.5806430076</v>
+        <v>152193.1746531074</v>
       </c>
       <c r="G78" t="n">
-        <v>138564.9591608401</v>
+        <v>124524.7181908431</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I78" t="n">
-        <v>2077541</v>
+        <v>2081429</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101199310</v>
+        <v>101247730</v>
       </c>
       <c r="E79" t="n">
-        <v>107584012</v>
+        <v>107635488</v>
       </c>
       <c r="F79" t="n">
-        <v>3344.734321643846</v>
+        <v>3379.163125311804</v>
       </c>
       <c r="G79" t="n">
-        <v>4328.794642023881</v>
+        <v>4291.963308225597</v>
       </c>
       <c r="H79" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="I79" t="n">
-        <v>975402</v>
+        <v>973865</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10751609</v>
+        <v>10786370</v>
       </c>
       <c r="E80" t="n">
-        <v>46833871</v>
+        <v>46930228</v>
       </c>
       <c r="F80" t="n">
-        <v>5532.186964198663</v>
+        <v>5467.882483023111</v>
       </c>
       <c r="G80" t="n">
-        <v>4665.357365613716</v>
+        <v>3693.611439635671</v>
       </c>
       <c r="H80" t="n">
         <v>0.57</v>
       </c>
       <c r="I80" t="n">
-        <v>99134</v>
+        <v>100018</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15048689</v>
+        <v>15070349</v>
       </c>
       <c r="E81" t="n">
-        <v>92238361</v>
+        <v>92371127</v>
       </c>
       <c r="F81" t="n">
-        <v>4201.310150437385</v>
+        <v>3959.713601726312</v>
       </c>
       <c r="G81" t="n">
-        <v>15592.07772581871</v>
+        <v>6094.83003388959</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>12375677</v>
+        <v>12178917</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1460888</v>
+        <v>1460005</v>
       </c>
       <c r="E82" t="n">
-        <v>1501981</v>
+        <v>1501073</v>
       </c>
       <c r="F82" t="n">
-        <v>1462.250306138697</v>
+        <v>5222.167397566104</v>
       </c>
       <c r="G82" t="n">
-        <v>216.4813313991592</v>
+        <v>4443.836758997186</v>
       </c>
       <c r="H82" t="n">
-        <v>1.1</v>
+        <v>0.68</v>
       </c>
       <c r="I82" t="n">
-        <v>137517</v>
+        <v>83456</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>45603630</v>
+        <v>45998982</v>
       </c>
       <c r="E83" t="n">
-        <v>196455451</v>
+        <v>198158584</v>
       </c>
       <c r="F83" t="n">
-        <v>3364.005912526365</v>
+        <v>3369.80374076792</v>
       </c>
       <c r="G83" t="n">
-        <v>4476.978378628482</v>
+        <v>4774.396261105225</v>
       </c>
       <c r="H83" t="n">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="I83" t="n">
-        <v>8453211</v>
+        <v>8487723</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1804870</v>
+        <v>1683651</v>
       </c>
       <c r="E84" t="n">
-        <v>6559623</v>
+        <v>6119039</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>136254</v>
+        <v>136491</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8998115</v>
+        <v>9118894</v>
       </c>
       <c r="E85" t="n">
-        <v>19993292</v>
+        <v>20261656</v>
       </c>
       <c r="F85" t="n">
-        <v>6613.552846156964</v>
+        <v>6020.881207035251</v>
       </c>
       <c r="G85" t="n">
-        <v>5818.185300875111</v>
+        <v>5519.794487850943</v>
       </c>
       <c r="H85" t="n">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="I85" t="n">
-        <v>432971</v>
+        <v>440707</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2454673</v>
+        <v>2453388</v>
       </c>
       <c r="E86" t="n">
-        <v>18472518</v>
+        <v>18462849</v>
       </c>
       <c r="F86" t="n">
-        <v>6230.692260916758</v>
+        <v>6335.539476518151</v>
       </c>
       <c r="G86" t="n">
-        <v>12726.1127443632</v>
+        <v>12836.02186938174</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>163702</v>
+        <v>163484</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20270306</v>
+        <v>20433604</v>
       </c>
       <c r="E87" t="n">
-        <v>81081224</v>
+        <v>81734414</v>
       </c>
       <c r="F87" t="n">
-        <v>28083.43720255926</v>
+        <v>27931.80827928613</v>
       </c>
       <c r="G87" t="n">
-        <v>1747.053557109001</v>
+        <v>1013.126613134715</v>
       </c>
       <c r="H87" t="n">
-        <v>0.99</v>
+        <v>1.34</v>
       </c>
       <c r="I87" t="n">
-        <v>6402905</v>
+        <v>6355998</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4265999</v>
+        <v>4314965</v>
       </c>
       <c r="E88" t="n">
-        <v>4265999</v>
+        <v>4314965</v>
       </c>
       <c r="F88" t="n">
-        <v>712.8868225361118</v>
+        <v>2269.642510079326</v>
       </c>
       <c r="G88" t="n">
-        <v>348.3219369018448</v>
+        <v>2254.151035955188</v>
       </c>
       <c r="H88" t="n">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="I88" t="n">
-        <v>2333665</v>
+        <v>2358329</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12549181</v>
+        <v>12597798</v>
       </c>
       <c r="E89" t="n">
-        <v>39703437</v>
+        <v>39857253</v>
       </c>
       <c r="F89" t="n">
-        <v>18516.43157368218</v>
+        <v>19969.68157118548</v>
       </c>
       <c r="G89" t="n">
-        <v>10301.98502375885</v>
+        <v>8964.151566410934</v>
       </c>
       <c r="H89" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I89" t="n">
-        <v>1746922</v>
+        <v>1688253</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24357</v>
+        <v>24637</v>
       </c>
       <c r="E90" t="n">
-        <v>191559</v>
+        <v>193766</v>
       </c>
       <c r="F90" t="n">
-        <v>522.1534688277156</v>
+        <v>6037.357956147202</v>
       </c>
       <c r="G90" t="n">
-        <v>249.339754771149</v>
+        <v>200.0407359637944</v>
       </c>
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>124246</v>
+        <v>124075</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7989690</v>
+        <v>8005052</v>
       </c>
       <c r="E91" t="n">
-        <v>7989690</v>
+        <v>8005052</v>
       </c>
       <c r="F91" t="n">
-        <v>4159.383743719458</v>
+        <v>4272.766839264324</v>
       </c>
       <c r="G91" t="n">
-        <v>4028.93434024726</v>
+        <v>3722.389519422267</v>
       </c>
       <c r="H91" t="n">
         <v>0.49</v>
       </c>
       <c r="I91" t="n">
-        <v>3766430</v>
+        <v>3772969</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8862247</v>
+        <v>8799528</v>
       </c>
       <c r="E92" t="n">
-        <v>8862247</v>
+        <v>8799528</v>
       </c>
       <c r="F92" t="n">
-        <v>4135.100555992609</v>
+        <v>3155.386391957592</v>
       </c>
       <c r="G92" t="n">
-        <v>6399.432860505591</v>
+        <v>6453.802199638535</v>
       </c>
       <c r="H92" t="n">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="I92" t="n">
-        <v>2077268</v>
+        <v>2174837</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>34851770</v>
+        <v>34696808</v>
       </c>
       <c r="E93" t="n">
-        <v>87879432</v>
+        <v>87488693</v>
       </c>
       <c r="F93" t="n">
-        <v>5183.306496996382</v>
+        <v>5519.643417162619</v>
       </c>
       <c r="G93" t="n">
-        <v>5905.869098707452</v>
+        <v>5838.194222751596</v>
       </c>
       <c r="H93" t="n">
-        <v>0.34</v>
+        <v>0.79</v>
       </c>
       <c r="I93" t="n">
-        <v>2761364</v>
+        <v>2721122</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>290587769</v>
+        <v>289919008</v>
       </c>
       <c r="E94" t="n">
-        <v>295128070</v>
+        <v>294448495</v>
       </c>
       <c r="F94" t="n">
-        <v>44128.29004299641</v>
+        <v>44118.00128179415</v>
       </c>
       <c r="G94" t="n">
-        <v>24553.90788514724</v>
+        <v>47353.69124810334</v>
       </c>
       <c r="H94" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I94" t="n">
-        <v>11494067</v>
+        <v>11564901</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>5903.58474361081</v>
+        <v>5936.721310060769</v>
       </c>
       <c r="G95" t="n">
-        <v>6550.973259061791</v>
+        <v>6522.931526246844</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>249863</v>
+        <v>231729</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>70367948</v>
+        <v>71061146</v>
       </c>
       <c r="E96" t="n">
-        <v>70367948</v>
+        <v>71061146</v>
       </c>
       <c r="F96" t="n">
-        <v>14691.65920386987</v>
+        <v>16326.46753166044</v>
       </c>
       <c r="G96" t="n">
-        <v>3234.881728902541</v>
+        <v>3264.82461725718</v>
       </c>
       <c r="H96" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I96" t="n">
-        <v>5628831</v>
+        <v>5600936</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>290699880</v>
+        <v>290351366</v>
       </c>
       <c r="E97" t="n">
-        <v>290699880</v>
+        <v>290351366</v>
       </c>
       <c r="F97" t="n">
-        <v>368423.7307339785</v>
+        <v>320940.0934966592</v>
       </c>
       <c r="G97" t="n">
-        <v>329521.8264174812</v>
+        <v>518838.4932572923</v>
       </c>
       <c r="H97" t="n">
         <v>0.04</v>
       </c>
       <c r="I97" t="n">
-        <v>54369574</v>
+        <v>44846503</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4180853</v>
+        <v>4066887</v>
       </c>
       <c r="E98" t="n">
-        <v>28567474</v>
+        <v>27788752</v>
       </c>
       <c r="F98" t="n">
-        <v>2523.424294578652</v>
+        <v>2649.742141232984</v>
       </c>
       <c r="G98" t="n">
-        <v>1323.875991085118</v>
+        <v>328.213210999483</v>
       </c>
       <c r="H98" t="n">
-        <v>1.72</v>
+        <v>1.07</v>
       </c>
       <c r="I98" t="n">
-        <v>2737313</v>
+        <v>2750899</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>85696570</v>
+        <v>85978005</v>
       </c>
       <c r="E99" t="n">
-        <v>493820601</v>
+        <v>495442351</v>
       </c>
       <c r="F99" t="n">
-        <v>127547.3451504482</v>
+        <v>144645.03686345</v>
       </c>
       <c r="G99" t="n">
-        <v>146358.0120992093</v>
+        <v>144426.7113957522</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I99" t="n">
-        <v>15427718</v>
+        <v>15328641</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>105862149</v>
+        <v>105739846</v>
       </c>
       <c r="E100" t="n">
-        <v>260462247</v>
+        <v>260161333</v>
       </c>
       <c r="F100" t="n">
-        <v>31845.75486521289</v>
+        <v>27706.98297974919</v>
       </c>
       <c r="G100" t="n">
-        <v>46951.39800563864</v>
+        <v>46572.74468320041</v>
       </c>
       <c r="H100" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I100" t="n">
-        <v>2461914</v>
+        <v>2430575</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>243128468</v>
+        <v>244917089</v>
       </c>
       <c r="E101" t="n">
-        <v>243130884</v>
+        <v>244919522</v>
       </c>
       <c r="F101" t="n">
-        <v>10754.11335350392</v>
+        <v>41744.64419819934</v>
       </c>
       <c r="G101" t="n">
-        <v>22283.02423480808</v>
+        <v>18171.92036517261</v>
       </c>
       <c r="H101" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="I101" t="n">
-        <v>2396776</v>
+        <v>2538729</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>29967293</v>
+        <v>29790779</v>
       </c>
       <c r="E102" t="n">
-        <v>134175866</v>
+        <v>133385538</v>
       </c>
       <c r="F102" t="n">
-        <v>84645.02815517574</v>
+        <v>106063.2143756486</v>
       </c>
       <c r="G102" t="n">
-        <v>139760.3118503781</v>
+        <v>134992.6521419611</v>
       </c>
       <c r="H102" t="n">
         <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>9876696</v>
+        <v>9888012</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2885483</v>
+        <v>2908453</v>
       </c>
       <c r="E103" t="n">
-        <v>2885483</v>
+        <v>2908453</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>392175</v>
+        <v>390509</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6251271</v>
+        <v>6228817</v>
       </c>
       <c r="E104" t="n">
-        <v>16406505</v>
+        <v>16347574</v>
       </c>
       <c r="F104" t="n">
-        <v>8732.434358048264</v>
+        <v>8516.895319465095</v>
       </c>
       <c r="G104" t="n">
-        <v>3409.60243624022</v>
+        <v>3593.520098678197</v>
       </c>
       <c r="H104" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I104" t="n">
-        <v>2095638</v>
+        <v>2089473</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16892909</v>
+        <v>16841561</v>
       </c>
       <c r="E105" t="n">
-        <v>77974072</v>
+        <v>77737098</v>
       </c>
       <c r="F105" t="n">
-        <v>96613.38192029066</v>
+        <v>51671.71265277417</v>
       </c>
       <c r="G105" t="n">
-        <v>73598.16580917737</v>
+        <v>57069.29405633763</v>
       </c>
       <c r="H105" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="I105" t="n">
-        <v>1497171</v>
+        <v>1411324</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>46526692</v>
+        <v>46620401</v>
       </c>
       <c r="E106" t="n">
-        <v>301713216</v>
+        <v>302320890</v>
       </c>
       <c r="F106" t="n">
-        <v>96380.97616975721</v>
+        <v>97291.94876036758</v>
       </c>
       <c r="G106" t="n">
-        <v>149235.5093941154</v>
+        <v>160890.4926118542</v>
       </c>
       <c r="H106" t="n">
         <v>0.17</v>
       </c>
       <c r="I106" t="n">
-        <v>15844748</v>
+        <v>15691351</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2491180</v>
+        <v>2524344</v>
       </c>
       <c r="E107" t="n">
-        <v>4513241</v>
+        <v>4573324</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>111821</v>
+        <v>114058</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125136865</v>
+        <v>125024124</v>
       </c>
       <c r="E108" t="n">
-        <v>2072368982</v>
+        <v>2070501891</v>
       </c>
       <c r="F108" t="n">
-        <v>120945.890795514</v>
+        <v>163648.3428495028</v>
       </c>
       <c r="G108" t="n">
-        <v>88738.92281552013</v>
+        <v>97561.79964708049</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5990485</v>
+        <v>5875908</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23011861</v>
+        <v>22974127</v>
       </c>
       <c r="E109" t="n">
-        <v>137684589</v>
+        <v>137458822</v>
       </c>
       <c r="F109" t="n">
-        <v>39469.08397898565</v>
+        <v>39527.74855746228</v>
       </c>
       <c r="G109" t="n">
-        <v>39333.72366604616</v>
+        <v>39208.38487235824</v>
       </c>
       <c r="H109" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I109" t="n">
-        <v>14405336</v>
+        <v>14321789</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>985705</v>
+        <v>1005510</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>66816</v>
+        <v>69814</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2290713</v>
+        <v>2290625</v>
       </c>
       <c r="F111" t="n">
-        <v>3849.179592487723</v>
+        <v>7826.381033130975</v>
       </c>
       <c r="G111" t="n">
-        <v>187.573442404831</v>
+        <v>187.6104101240059</v>
       </c>
       <c r="H111" t="n">
         <v>0.49</v>
       </c>
       <c r="I111" t="n">
-        <v>212847</v>
+        <v>212317</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142218375</v>
+        <v>142190941</v>
       </c>
       <c r="F112" t="n">
-        <v>3251.194785331586</v>
+        <v>3144.550801520505</v>
       </c>
       <c r="G112" t="n">
-        <v>466.6281299923513</v>
+        <v>922.3981356136638</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>82983</v>
+        <v>80678</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6663109</v>
+        <v>6621396</v>
       </c>
       <c r="E113" t="n">
-        <v>34279669</v>
+        <v>34065071</v>
       </c>
       <c r="F113" t="n">
-        <v>233.1294187943701</v>
+        <v>1534.889797599776</v>
       </c>
       <c r="G113" t="n">
-        <v>978.2799121924483</v>
+        <v>316.0491663440655</v>
       </c>
       <c r="H113" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I113" t="n">
-        <v>859178</v>
+        <v>858272</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>28721184</v>
+        <v>28834405</v>
       </c>
       <c r="E114" t="n">
-        <v>39472692</v>
+        <v>39628297</v>
       </c>
       <c r="F114" t="n">
-        <v>5197.555010569025</v>
+        <v>4143.556682097993</v>
       </c>
       <c r="G114" t="n">
-        <v>6096.18194270626</v>
+        <v>4921.522110295178</v>
       </c>
       <c r="H114" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I114" t="n">
-        <v>319675</v>
+        <v>319680</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8056087</v>
+        <v>8052776</v>
       </c>
       <c r="F115" t="n">
-        <v>743.9370084718228</v>
+        <v>599.4481694994095</v>
       </c>
       <c r="G115" t="n">
-        <v>6478.783553963424</v>
+        <v>6442.141500354133</v>
       </c>
       <c r="H115" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>729677</v>
+        <v>709344</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3333082</v>
+        <v>3308699</v>
       </c>
       <c r="E116" t="n">
-        <v>4464874</v>
+        <v>4432211</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149668</v>
+        <v>148591</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32694906</v>
+        <v>32854728</v>
       </c>
       <c r="E117" t="n">
-        <v>163162652</v>
+        <v>163960239</v>
       </c>
       <c r="F117" t="n">
-        <v>74171.75231920784</v>
+        <v>72933.23658726581</v>
       </c>
       <c r="G117" t="n">
-        <v>64782.19101846517</v>
+        <v>62307.03885020307</v>
       </c>
       <c r="H117" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I117" t="n">
-        <v>8326817</v>
+        <v>8348126</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3397784</v>
+        <v>3421755</v>
       </c>
       <c r="E118" t="n">
-        <v>4881241</v>
+        <v>4915678</v>
       </c>
       <c r="F118" t="n">
-        <v>726.8978924492445</v>
+        <v>725.2255176799385</v>
       </c>
       <c r="G118" t="n">
-        <v>815.8699034895139</v>
+        <v>891.2604924844396</v>
       </c>
       <c r="H118" t="n">
         <v>0.61</v>
       </c>
       <c r="I118" t="n">
-        <v>187394</v>
+        <v>185857</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>307972423</v>
+        <v>308058602</v>
       </c>
       <c r="E119" t="n">
-        <v>569819214</v>
+        <v>569978666</v>
       </c>
       <c r="F119" t="n">
-        <v>141419.1323403545</v>
+        <v>126035.984600711</v>
       </c>
       <c r="G119" t="n">
-        <v>143569.6769897515</v>
+        <v>151163.08520021</v>
       </c>
       <c r="H119" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I119" t="n">
-        <v>13624325</v>
+        <v>13623855</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>68511119</v>
+        <v>68414752</v>
       </c>
       <c r="E120" t="n">
-        <v>653729320</v>
+        <v>652804919</v>
       </c>
       <c r="F120" t="n">
-        <v>2466.391391595624</v>
+        <v>3371.269858294728</v>
       </c>
       <c r="G120" t="n">
-        <v>41404.54925331564</v>
+        <v>42786.06022797547</v>
       </c>
       <c r="H120" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>17851531</v>
+        <v>17760994</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37715823</v>
+        <v>37678757</v>
       </c>
       <c r="E121" t="n">
-        <v>49315699</v>
+        <v>49267151</v>
       </c>
       <c r="F121" t="n">
-        <v>199.1143446182409</v>
+        <v>197.8161986046603</v>
       </c>
       <c r="G121" t="n">
-        <v>6117.18100865679</v>
+        <v>5645.00222151181</v>
       </c>
       <c r="H121" t="n">
         <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>354741</v>
+        <v>445650</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8203089</v>
+        <v>8519293</v>
       </c>
       <c r="E122" t="n">
-        <v>24463113</v>
+        <v>25406090</v>
       </c>
       <c r="F122" t="n">
-        <v>1882.705258666952</v>
+        <v>1995.780990885736</v>
       </c>
       <c r="G122" t="n">
-        <v>4749.620138007112</v>
+        <v>4427.438667649766</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="I122" t="n">
-        <v>3537515</v>
+        <v>3706003</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2289421</v>
+        <v>2279275</v>
       </c>
       <c r="E123" t="n">
-        <v>7782482</v>
+        <v>7747991</v>
       </c>
       <c r="F123" t="n">
-        <v>765.8912040662439</v>
+        <v>656.6762992738441</v>
       </c>
       <c r="G123" t="n">
-        <v>1101.399446753605</v>
+        <v>1065.878849845966</v>
       </c>
       <c r="H123" t="n">
-        <v>1.02</v>
+        <v>0.64</v>
       </c>
       <c r="I123" t="n">
-        <v>724252</v>
+        <v>742703</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7275279</v>
+        <v>7230878</v>
       </c>
       <c r="E124" t="n">
-        <v>7275290</v>
+        <v>7230889</v>
       </c>
       <c r="F124" t="n">
-        <v>816.1686106159804</v>
+        <v>393.6753504379545</v>
       </c>
       <c r="G124" t="n">
-        <v>247.7713318969709</v>
+        <v>392.9964413747101</v>
       </c>
       <c r="H124" t="n">
-        <v>0.99</v>
+        <v>1.49</v>
       </c>
       <c r="I124" t="n">
-        <v>324829</v>
+        <v>327244</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5715221</v>
+        <v>5685815</v>
       </c>
       <c r="E125" t="n">
-        <v>5715221</v>
+        <v>5685815</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>459234</v>
+        <v>460546</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6167038</v>
+        <v>6187424</v>
       </c>
       <c r="E126" t="n">
-        <v>22525802</v>
+        <v>22600267</v>
       </c>
       <c r="F126" t="n">
-        <v>6005.481252276664</v>
+        <v>6027.46913224139</v>
       </c>
       <c r="G126" t="n">
-        <v>7572.416199628452</v>
+        <v>7734.522344062337</v>
       </c>
       <c r="H126" t="n">
         <v>0.86</v>
       </c>
       <c r="I126" t="n">
-        <v>444258</v>
+        <v>442608</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43764514</v>
+        <v>43912413</v>
       </c>
       <c r="E127" t="n">
-        <v>43764514</v>
+        <v>43912413</v>
       </c>
       <c r="F127" t="n">
-        <v>69129.63334591968</v>
+        <v>56983.27995217374</v>
       </c>
       <c r="G127" t="n">
-        <v>85733.01889127454</v>
+        <v>88845.17362468071</v>
       </c>
       <c r="H127" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="I127" t="n">
-        <v>8350454</v>
+        <v>7517387</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>149635536</v>
+        <v>149651804</v>
       </c>
       <c r="F128" t="n">
-        <v>5699.913999612739</v>
+        <v>5636.529696520164</v>
       </c>
       <c r="G128" t="n">
-        <v>490.06955361221</v>
+        <v>493.1044958481469</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1269076</v>
+        <v>1199883</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3066808</v>
+        <v>3060149</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>78418</v>
+        <v>77800</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20143643</v>
+        <v>20041937</v>
       </c>
       <c r="F130" t="n">
-        <v>256.3488447716007</v>
+        <v>1184.361402630678</v>
       </c>
       <c r="G130" t="n">
-        <v>1403.742814094045</v>
+        <v>837.5724061134752</v>
       </c>
       <c r="H130" t="n">
-        <v>1.62</v>
+        <v>0.79</v>
       </c>
       <c r="I130" t="n">
-        <v>2777914</v>
+        <v>2779063</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1234382</v>
+        <v>1234133</v>
       </c>
       <c r="E131" t="n">
-        <v>3735609</v>
+        <v>3734324</v>
       </c>
       <c r="F131" t="n">
-        <v>794.897533768161</v>
+        <v>789.9486212857798</v>
       </c>
       <c r="G131" t="n">
-        <v>726.3628808645137</v>
+        <v>723.0478277177913</v>
       </c>
       <c r="H131" t="n">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="I131" t="n">
-        <v>21964</v>
+        <v>21569</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>586780332</v>
+        <v>584106742</v>
       </c>
       <c r="E132" t="n">
-        <v>2272513653</v>
+        <v>2262159233</v>
       </c>
       <c r="F132" t="n">
-        <v>554354.4420981578</v>
+        <v>501116.0391989925</v>
       </c>
       <c r="G132" t="n">
-        <v>695484.7273518225</v>
+        <v>740541.1755435333</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>28517750</v>
+        <v>28001934</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3668931</v>
+        <v>3671604</v>
       </c>
       <c r="E133" t="n">
-        <v>6254191</v>
+        <v>6258747</v>
       </c>
       <c r="F133" t="n">
-        <v>5427.482564033976</v>
+        <v>5633.932871848089</v>
       </c>
       <c r="G133" t="n">
-        <v>5661.651419174379</v>
+        <v>5668.630173657198</v>
       </c>
       <c r="H133" t="n">
         <v>0.32</v>
       </c>
       <c r="I133" t="n">
-        <v>941089</v>
+        <v>930577</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>115103463</v>
+        <v>115155981</v>
       </c>
       <c r="E134" t="n">
-        <v>1000753869</v>
+        <v>1001210481</v>
       </c>
       <c r="F134" t="n">
-        <v>124127.693635005</v>
+        <v>133337.5669546162</v>
       </c>
       <c r="G134" t="n">
-        <v>118386.9462157642</v>
+        <v>103609.3036144039</v>
       </c>
       <c r="H134" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I134" t="n">
-        <v>9734543</v>
+        <v>9653078</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1065577571</v>
+        <v>1064498183</v>
       </c>
       <c r="E135" t="n">
-        <v>1170539882</v>
+        <v>1169354172</v>
       </c>
       <c r="F135" t="n">
-        <v>15654.88383686288</v>
+        <v>11582.99171863018</v>
       </c>
       <c r="G135" t="n">
-        <v>20343.13605760539</v>
+        <v>17019.78274804242</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="I135" t="n">
-        <v>15745570</v>
+        <v>15666830</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1094890</v>
+        <v>1128658</v>
       </c>
       <c r="E136" t="n">
-        <v>4239655</v>
+        <v>4370410</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>383093</v>
+        <v>393046</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>111454067</v>
+        <v>110882264</v>
       </c>
       <c r="E137" t="n">
-        <v>427555739</v>
+        <v>425362211</v>
       </c>
       <c r="F137" t="n">
-        <v>163964.01885836</v>
+        <v>143519.2900373314</v>
       </c>
       <c r="G137" t="n">
-        <v>235029.0970355874</v>
+        <v>287658.1946331226</v>
       </c>
       <c r="H137" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I137" t="n">
-        <v>17702600</v>
+        <v>17994106</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3383320</v>
+        <v>3359133</v>
       </c>
       <c r="E138" t="n">
-        <v>32057458</v>
+        <v>31828286</v>
       </c>
       <c r="F138" t="n">
-        <v>180.5413050891901</v>
+        <v>4305.493780965764</v>
       </c>
       <c r="G138" t="n">
-        <v>245.3960058009034</v>
+        <v>4904.753953088929</v>
       </c>
       <c r="H138" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="I138" t="n">
-        <v>204637</v>
+        <v>219124</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>23993237</v>
+        <v>24272926</v>
       </c>
       <c r="E139" t="n">
-        <v>23993237</v>
+        <v>24272926</v>
       </c>
       <c r="F139" t="n">
-        <v>1476.280533472768</v>
+        <v>1406.454231609706</v>
       </c>
       <c r="G139" t="n">
-        <v>1263.728201167734</v>
+        <v>1141.909633792663</v>
       </c>
       <c r="H139" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="I139" t="n">
-        <v>340720</v>
+        <v>350213</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494352413</v>
+        <v>494186935</v>
       </c>
       <c r="E140" t="n">
-        <v>494352413</v>
+        <v>494186935</v>
       </c>
       <c r="F140" t="n">
-        <v>1093314.497142102</v>
+        <v>793388.5992082179</v>
       </c>
       <c r="G140" t="n">
-        <v>1027266.138454306</v>
+        <v>832974.2300105796</v>
       </c>
       <c r="H140" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>30582186</v>
+        <v>31140776</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31475582</v>
+        <v>32263563</v>
       </c>
       <c r="F141" t="n">
-        <v>53787.34464385667</v>
+        <v>65111.23841693807</v>
       </c>
       <c r="G141" t="n">
-        <v>52179.83502865957</v>
+        <v>48530.01261685792</v>
       </c>
       <c r="H141" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I141" t="n">
-        <v>8693596</v>
+        <v>7466023</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>732978</v>
+        <v>733110</v>
       </c>
       <c r="E142" t="n">
-        <v>11690734</v>
+        <v>11692849</v>
       </c>
       <c r="F142" t="n">
-        <v>119.3827611771212</v>
+        <v>144.5752993015344</v>
       </c>
       <c r="G142" t="n">
-        <v>111.4532085106673</v>
+        <v>399.7220230920786</v>
       </c>
       <c r="H142" t="n">
-        <v>3.46</v>
+        <v>2.28</v>
       </c>
       <c r="I142" t="n">
-        <v>70401</v>
+        <v>69421</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2600458120</v>
+        <v>2602081422</v>
       </c>
       <c r="E143" t="n">
-        <v>2761009876</v>
+        <v>2762733401</v>
       </c>
       <c r="F143" t="n">
-        <v>7437.920387233809</v>
+        <v>5316.152154918472</v>
       </c>
       <c r="G143" t="n">
-        <v>22536.77267633762</v>
+        <v>21835.14332245366</v>
       </c>
       <c r="H143" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I143" t="n">
-        <v>37358831</v>
+        <v>37097696</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1686101</v>
+        <v>1687209</v>
       </c>
       <c r="E144" t="n">
-        <v>1692052</v>
+        <v>1693164</v>
       </c>
       <c r="F144" t="n">
-        <v>645.7938469281185</v>
+        <v>739.758895210945</v>
       </c>
       <c r="G144" t="n">
-        <v>1000.044535079679</v>
+        <v>737.9884456348314</v>
       </c>
       <c r="H144" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="I144" t="n">
-        <v>366941</v>
+        <v>363002</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60372994</v>
+        <v>60238276</v>
       </c>
       <c r="E145" t="n">
-        <v>148090863</v>
+        <v>147760409</v>
       </c>
       <c r="F145" t="n">
-        <v>4412.135256559423</v>
+        <v>4129.06403426505</v>
       </c>
       <c r="G145" t="n">
-        <v>5858.11596471657</v>
+        <v>6147.183599149044</v>
       </c>
       <c r="H145" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="I145" t="n">
-        <v>22522696</v>
+        <v>22505253</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>656145522</v>
+        <v>657965437</v>
       </c>
       <c r="E146" t="n">
-        <v>1011834326</v>
+        <v>1014640797</v>
       </c>
       <c r="F146" t="n">
-        <v>131015.4489318463</v>
+        <v>156349.944764529</v>
       </c>
       <c r="G146" t="n">
-        <v>140557.5367896901</v>
+        <v>165462.6803482432</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>155510522</v>
+        <v>171113684</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21997644</v>
+        <v>22478822</v>
       </c>
       <c r="E147" t="n">
-        <v>21997644</v>
+        <v>22478822</v>
       </c>
       <c r="F147" t="n">
-        <v>4305.685320236987</v>
+        <v>4385.412062305575</v>
       </c>
       <c r="G147" t="n">
-        <v>6758.19152574706</v>
+        <v>6573.135897515479</v>
       </c>
       <c r="H147" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I147" t="n">
-        <v>5560659</v>
+        <v>5689422</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3973886</v>
+        <v>3914239</v>
       </c>
       <c r="E148" t="n">
-        <v>8679438</v>
+        <v>8549163</v>
       </c>
       <c r="F148" t="n">
-        <v>5823.885603105149</v>
+        <v>5638.714033883115</v>
       </c>
       <c r="G148" t="n">
-        <v>5706.159204338317</v>
+        <v>5749.795626454566</v>
       </c>
       <c r="H148" t="n">
-        <v>0.12</v>
+        <v>0.59</v>
       </c>
       <c r="I148" t="n">
-        <v>1151185</v>
+        <v>1096772</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9349710</v>
+        <v>9350213</v>
       </c>
       <c r="E149" t="n">
-        <v>9349710</v>
+        <v>9350213</v>
       </c>
       <c r="F149" t="n">
-        <v>88109.04211234876</v>
+        <v>97107.30022564027</v>
       </c>
       <c r="G149" t="n">
-        <v>88629.67852727319</v>
+        <v>78919.21485715063</v>
       </c>
       <c r="H149" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>3602823</v>
+        <v>2729901</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>475686625</v>
+        <v>477567827</v>
       </c>
       <c r="E150" t="n">
-        <v>1656665617</v>
+        <v>1663217245</v>
       </c>
       <c r="F150" t="n">
-        <v>595542.9677603745</v>
+        <v>773549.7670143163</v>
       </c>
       <c r="G150" t="n">
-        <v>974836.345300867</v>
+        <v>796752.5484485705</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31273472</v>
+        <v>30693547</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48010657</v>
+        <v>47998893</v>
       </c>
       <c r="E151" t="n">
-        <v>118490666</v>
+        <v>118461637</v>
       </c>
       <c r="F151" t="n">
-        <v>8617.580272420673</v>
+        <v>8295.123257329802</v>
       </c>
       <c r="G151" t="n">
-        <v>8472.488820845729</v>
+        <v>8138.562061939646</v>
       </c>
       <c r="H151" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>52462</v>
+        <v>57389</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7698855</v>
+        <v>7665641</v>
       </c>
       <c r="E152" t="n">
-        <v>20000797</v>
+        <v>19914511</v>
       </c>
       <c r="F152" t="n">
-        <v>2429.825761631913</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>5496.125632886115</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>0.99</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I152" t="n">
-        <v>691243</v>
+        <v>688184</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19239891643</v>
+        <v>19196066061</v>
       </c>
       <c r="F153" t="n">
-        <v>52430.67449310979</v>
+        <v>52427.16249882066</v>
       </c>
       <c r="G153" t="n">
-        <v>49913.55934207659</v>
+        <v>49975.49718146137</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>49400276</v>
+        <v>49016907</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2678838</v>
+        <v>2664885</v>
       </c>
       <c r="E154" t="n">
-        <v>10715352</v>
+        <v>10659541</v>
       </c>
       <c r="F154" t="n">
-        <v>27308.38652130635</v>
+        <v>26657.50211863165</v>
       </c>
       <c r="G154" t="n">
-        <v>2969.722632962944</v>
+        <v>4924.149359920372</v>
       </c>
       <c r="H154" t="n">
-        <v>0.09</v>
+        <v>0.84</v>
       </c>
       <c r="I154" t="n">
-        <v>4992274</v>
+        <v>5008138</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>209285476</v>
+        <v>209072289</v>
       </c>
       <c r="E155" t="n">
-        <v>643474078</v>
+        <v>642818611</v>
       </c>
       <c r="F155" t="n">
-        <v>125889.1775241854</v>
+        <v>143747.7821338304</v>
       </c>
       <c r="G155" t="n">
-        <v>112254.2225851204</v>
+        <v>168894.5798080117</v>
       </c>
       <c r="H155" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>10830133</v>
+        <v>10906354</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>394658382</v>
+        <v>394096204</v>
       </c>
       <c r="E156" t="n">
-        <v>2255190752</v>
+        <v>2251978308</v>
       </c>
       <c r="F156" t="n">
-        <v>233525.8520426443</v>
+        <v>178486.3817976147</v>
       </c>
       <c r="G156" t="n">
-        <v>196966.8487641761</v>
+        <v>307145.1279634219</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>39853579</v>
+        <v>39246031</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4105112</v>
+        <v>4126548</v>
       </c>
       <c r="F2" t="n">
-        <v>1299.340550382749</v>
+        <v>1149.995362299555</v>
       </c>
       <c r="G2" t="n">
-        <v>1262.040022105947</v>
+        <v>1062.648299034833</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="I2" t="n">
-        <v>63613</v>
+        <v>70222</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>610457884</v>
+        <v>607549787</v>
       </c>
       <c r="E3" t="n">
-        <v>1184507730</v>
+        <v>1178776997</v>
       </c>
       <c r="F3" t="n">
-        <v>67295.91957359824</v>
+        <v>88399.88465618147</v>
       </c>
       <c r="G3" t="n">
-        <v>81463.70040739591</v>
+        <v>65699.99517771851</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>21291127</v>
+        <v>22015210</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244809306</v>
+        <v>243754382</v>
       </c>
       <c r="E4" t="n">
-        <v>1535164750</v>
+        <v>1528549467</v>
       </c>
       <c r="F4" t="n">
-        <v>234878.7897099895</v>
+        <v>309765.3125778327</v>
       </c>
       <c r="G4" t="n">
-        <v>271575.4595495791</v>
+        <v>236222.5133524679</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>15304373</v>
+        <v>15614091</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140458558</v>
+        <v>140290115</v>
       </c>
       <c r="E5" t="n">
-        <v>155650517</v>
+        <v>155463856</v>
       </c>
       <c r="F5" t="n">
-        <v>8810.878565496649</v>
+        <v>8970.622624561825</v>
       </c>
       <c r="G5" t="n">
-        <v>154.8096070574093</v>
+        <v>622.8698643277853</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>30850501</v>
+        <v>31744350</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48300080</v>
+        <v>49545404</v>
       </c>
       <c r="E6" t="n">
-        <v>60422162</v>
+        <v>61980030</v>
       </c>
       <c r="F6" t="n">
-        <v>4441.592883253606</v>
+        <v>5598.89193328165</v>
       </c>
       <c r="G6" t="n">
-        <v>3105.616298744784</v>
+        <v>3572.269533606741</v>
       </c>
       <c r="H6" t="n">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>584387</v>
+        <v>616518</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>70218593</v>
+        <v>68815121</v>
       </c>
       <c r="E7" t="n">
-        <v>139875238</v>
+        <v>137079525</v>
       </c>
       <c r="F7" t="n">
-        <v>10813.61149095961</v>
+        <v>10035.29535283671</v>
       </c>
       <c r="G7" t="n">
-        <v>11515.32777119024</v>
+        <v>12677.93565167108</v>
       </c>
       <c r="H7" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1917216</v>
+        <v>1740155</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39045032</v>
+        <v>39536848</v>
       </c>
       <c r="E8" t="n">
-        <v>43697015</v>
+        <v>44247428</v>
       </c>
       <c r="F8" t="n">
-        <v>6486.524111508391</v>
+        <v>6500.25391731982</v>
       </c>
       <c r="G8" t="n">
-        <v>6436.471858051822</v>
+        <v>6364.323314980609</v>
       </c>
       <c r="H8" t="n">
         <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>235954</v>
+        <v>236017</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14285991</v>
+        <v>14242391</v>
       </c>
       <c r="E9" t="n">
-        <v>42099894</v>
+        <v>41971405</v>
       </c>
       <c r="F9" t="n">
-        <v>5229.867265803804</v>
+        <v>5010.538089951357</v>
       </c>
       <c r="G9" t="n">
-        <v>4590.424483248999</v>
+        <v>4749.15452292274</v>
       </c>
       <c r="H9" t="n">
-        <v>0.96</v>
+        <v>1.18</v>
       </c>
       <c r="I9" t="n">
-        <v>834194</v>
+        <v>818099</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7607471</v>
+        <v>7622070</v>
       </c>
       <c r="E10" t="n">
-        <v>32708191</v>
+        <v>32770842</v>
       </c>
       <c r="F10" t="n">
-        <v>1959.95103258146</v>
+        <v>1617.833736830314</v>
       </c>
       <c r="G10" t="n">
-        <v>731.0104359280997</v>
+        <v>1629.318821967752</v>
       </c>
       <c r="H10" t="n">
-        <v>1.76</v>
+        <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>1038172</v>
+        <v>943491</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>547861611</v>
+        <v>545890428</v>
       </c>
       <c r="E11" t="n">
-        <v>685293449</v>
+        <v>682827791</v>
       </c>
       <c r="F11" t="n">
-        <v>334681.6714390203</v>
+        <v>309282.7725920182</v>
       </c>
       <c r="G11" t="n">
-        <v>274575.3296228534</v>
+        <v>280870.5147535072</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>60343503</v>
+        <v>61170935</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4691540</v>
+        <v>4683938</v>
       </c>
       <c r="E12" t="n">
-        <v>28817601</v>
+        <v>28770904</v>
       </c>
       <c r="F12" t="n">
-        <v>11848.14777362511</v>
+        <v>8912.699785062707</v>
       </c>
       <c r="G12" t="n">
-        <v>7437.794528701531</v>
+        <v>7981.42516051799</v>
       </c>
       <c r="H12" t="n">
         <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>396469</v>
+        <v>492131</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22689993</v>
+        <v>22648055</v>
       </c>
       <c r="E13" t="n">
-        <v>22732477</v>
+        <v>22690460</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>821485</v>
+        <v>842723</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>83091796</v>
+        <v>82324462</v>
       </c>
       <c r="E14" t="n">
-        <v>244561765</v>
+        <v>242303293</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>407833</v>
+        <v>398645</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>469059984</v>
+        <v>466473491</v>
       </c>
       <c r="E15" t="n">
-        <v>469059987</v>
+        <v>466473491</v>
       </c>
       <c r="F15" t="n">
-        <v>13540.69028590672</v>
+        <v>12057.75804095049</v>
       </c>
       <c r="G15" t="n">
-        <v>28148.92503011114</v>
+        <v>23229.57814545516</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>47088451</v>
+        <v>54118130</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4688005</v>
+        <v>4693889</v>
       </c>
       <c r="E16" t="n">
-        <v>4688005</v>
+        <v>4693889</v>
       </c>
       <c r="F16" t="n">
-        <v>577.4097569622867</v>
+        <v>315.1935159711216</v>
       </c>
       <c r="G16" t="n">
-        <v>1257.218966567249</v>
+        <v>1383.596152020101</v>
       </c>
       <c r="H16" t="n">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="I16" t="n">
-        <v>1976088</v>
+        <v>1936256</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3657818</v>
+        <v>3509151</v>
       </c>
       <c r="E17" t="n">
-        <v>3657818</v>
+        <v>3509151</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>521840</v>
+        <v>504750</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166201006</v>
+        <v>167395454</v>
       </c>
       <c r="E18" t="n">
-        <v>205763766</v>
+        <v>207242543</v>
       </c>
       <c r="F18" t="n">
-        <v>8174.207375716906</v>
+        <v>9705.090928561531</v>
       </c>
       <c r="G18" t="n">
-        <v>7841.05750266611</v>
+        <v>9362.362865146226</v>
       </c>
       <c r="H18" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>383416</v>
+        <v>383180</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7308409</v>
+        <v>7128213</v>
       </c>
       <c r="E19" t="n">
-        <v>10065546</v>
+        <v>9817371</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1120678</v>
+        <v>1060536</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>915699</v>
+        <v>920440</v>
       </c>
       <c r="E20" t="n">
-        <v>6409891</v>
+        <v>6443082</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>601591</v>
+        <v>581569</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>108015316</v>
+        <v>107263362</v>
       </c>
       <c r="E21" t="n">
-        <v>420683550</v>
+        <v>417711945</v>
       </c>
       <c r="F21" t="n">
-        <v>30983.62825511243</v>
+        <v>33257.31091676113</v>
       </c>
       <c r="G21" t="n">
-        <v>103277.9940593097</v>
+        <v>79631.24032339531</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>6417158</v>
+        <v>6559956</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1689161</v>
+        <v>1690884</v>
       </c>
       <c r="E22" t="n">
-        <v>12166882</v>
+        <v>12179295</v>
       </c>
       <c r="F22" t="n">
-        <v>3138.371186904058</v>
+        <v>6135.177733922888</v>
       </c>
       <c r="G22" t="n">
-        <v>2707.164404763359</v>
+        <v>3024.823919401355</v>
       </c>
       <c r="H22" t="n">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>186716</v>
+        <v>184852</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>135593348</v>
+        <v>134542892</v>
       </c>
       <c r="E23" t="n">
-        <v>135593348</v>
+        <v>134542892</v>
       </c>
       <c r="F23" t="n">
-        <v>1087114.878048809</v>
+        <v>932826.7282595208</v>
       </c>
       <c r="G23" t="n">
-        <v>1460038.174625446</v>
+        <v>1530272.367966338</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>65733685</v>
+        <v>66572081</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65969462</v>
+        <v>64425180</v>
       </c>
       <c r="E24" t="n">
-        <v>338304932</v>
+        <v>330385537</v>
       </c>
       <c r="F24" t="n">
-        <v>81671.68666974368</v>
+        <v>89960.11896189938</v>
       </c>
       <c r="G24" t="n">
-        <v>125682.7743233684</v>
+        <v>144560.0552054081</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>15953520</v>
+        <v>16774534</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>253473698</v>
+        <v>251194359</v>
       </c>
       <c r="E25" t="n">
-        <v>253473698</v>
+        <v>251194359</v>
       </c>
       <c r="F25" t="n">
-        <v>379988.3194147579</v>
+        <v>286442.8266778649</v>
       </c>
       <c r="G25" t="n">
-        <v>426640.3817460878</v>
+        <v>476692.1848748854</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>14068277</v>
+        <v>14382393</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1126174</v>
+        <v>1120401</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>190151</v>
+        <v>190039</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3963088</v>
+        <v>3963476</v>
       </c>
       <c r="E28" t="n">
-        <v>3963765</v>
+        <v>3964170</v>
       </c>
       <c r="F28" t="n">
-        <v>866.2273592668108</v>
+        <v>410.5486029512887</v>
       </c>
       <c r="G28" t="n">
-        <v>2585.757913624251</v>
+        <v>3774.664805171617</v>
       </c>
       <c r="H28" t="n">
-        <v>0.16</v>
+        <v>0.78</v>
       </c>
       <c r="I28" t="n">
-        <v>274737</v>
+        <v>272220</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6004758</v>
+        <v>6382360</v>
       </c>
       <c r="E29" t="n">
-        <v>14585095</v>
+        <v>15502260</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>412049</v>
+        <v>432020</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100707547</v>
+        <v>99800544</v>
       </c>
       <c r="E30" t="n">
-        <v>125570506</v>
+        <v>124439580</v>
       </c>
       <c r="F30" t="n">
-        <v>128784.6491121271</v>
+        <v>108953.2356183502</v>
       </c>
       <c r="G30" t="n">
-        <v>109554.0444771258</v>
+        <v>104516.868326413</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12662956</v>
+        <v>12366204</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1119794</v>
+        <v>1123634</v>
       </c>
       <c r="E31" t="n">
-        <v>12169504</v>
+        <v>12211238</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>17329.06</v>
+        <v>25868</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>75839567</v>
+        <v>75649656</v>
       </c>
       <c r="E32" t="n">
-        <v>212267655</v>
+        <v>211698025</v>
       </c>
       <c r="F32" t="n">
-        <v>47027.26740697533</v>
+        <v>63792.67822030886</v>
       </c>
       <c r="G32" t="n">
-        <v>67860.4350758503</v>
+        <v>71178.18296956662</v>
       </c>
       <c r="H32" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>23589230</v>
+        <v>29285307</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4527180</v>
+        <v>4434108</v>
       </c>
       <c r="E33" t="n">
-        <v>8927979</v>
+        <v>8744433</v>
       </c>
       <c r="F33" t="n">
-        <v>8682.713550589489</v>
+        <v>7640.334276652837</v>
       </c>
       <c r="G33" t="n">
-        <v>7018.136112823712</v>
+        <v>6541.013963605427</v>
       </c>
       <c r="H33" t="n">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="I33" t="n">
-        <v>1712108</v>
+        <v>1698661</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37533434</v>
+        <v>37559232</v>
       </c>
       <c r="F34" t="n">
-        <v>888.2682994568446</v>
+        <v>900.5582104468103</v>
       </c>
       <c r="G34" t="n">
-        <v>666.4371040580628</v>
+        <v>692.1207034335113</v>
       </c>
       <c r="H34" t="n">
-        <v>0.66</v>
+        <v>0.45</v>
       </c>
       <c r="I34" t="n">
-        <v>66314</v>
+        <v>66416</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7534589</v>
+        <v>7536531</v>
       </c>
       <c r="E35" t="n">
-        <v>17745454</v>
+        <v>17750028</v>
       </c>
       <c r="F35" t="n">
-        <v>3405.712457078344</v>
+        <v>3404.439252775365</v>
       </c>
       <c r="G35" t="n">
-        <v>2626.163504220094</v>
+        <v>2622.81446873947</v>
       </c>
       <c r="H35" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="I35" t="n">
-        <v>27783</v>
+        <v>28034</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23464409</v>
+        <v>23452482</v>
       </c>
       <c r="F36" t="n">
-        <v>154.7961190322247</v>
+        <v>155.4293949839795</v>
       </c>
       <c r="G36" t="n">
-        <v>5155.078679460049</v>
+        <v>5178.152620677125</v>
       </c>
       <c r="H36" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="I36" t="n">
-        <v>127363</v>
+        <v>125350</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>72309422</v>
+        <v>71900741</v>
       </c>
       <c r="E37" t="n">
-        <v>150801866</v>
+        <v>149949558</v>
       </c>
       <c r="F37" t="n">
-        <v>43510.31263017018</v>
+        <v>57326.14739478116</v>
       </c>
       <c r="G37" t="n">
-        <v>111791.339841156</v>
+        <v>117367.1836295978</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="I37" t="n">
-        <v>13785713</v>
+        <v>14061446</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>283242698</v>
+        <v>281281577</v>
       </c>
       <c r="E38" t="n">
-        <v>283242698</v>
+        <v>281281577</v>
       </c>
       <c r="F38" t="n">
-        <v>28548.09731463767</v>
+        <v>40807.62536206336</v>
       </c>
       <c r="G38" t="n">
-        <v>133886.8596691729</v>
+        <v>23572.19965680015</v>
       </c>
       <c r="H38" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>16457014</v>
+        <v>16697056</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>198884846</v>
+        <v>196114298</v>
       </c>
       <c r="E39" t="n">
-        <v>690943931</v>
+        <v>681318796</v>
       </c>
       <c r="F39" t="n">
-        <v>152376.429127928</v>
+        <v>127974.6552296108</v>
       </c>
       <c r="G39" t="n">
-        <v>375909.3005197451</v>
+        <v>340563.1000017114</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>25734595</v>
+        <v>26048343</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4240363</v>
+        <v>4145190</v>
       </c>
       <c r="E40" t="n">
-        <v>4240363</v>
+        <v>4145190</v>
       </c>
       <c r="F40" t="n">
-        <v>680.0787893035451</v>
+        <v>2499.444661360247</v>
       </c>
       <c r="G40" t="n">
-        <v>2640.263881163036</v>
+        <v>627.2593771266278</v>
       </c>
       <c r="H40" t="n">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="I40" t="n">
-        <v>4464850</v>
+        <v>4193347</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>113761233</v>
+        <v>115215393</v>
       </c>
       <c r="E41" t="n">
-        <v>484272317</v>
+        <v>490368026</v>
       </c>
       <c r="F41" t="n">
-        <v>5613.545082499368</v>
+        <v>5689.800934075313</v>
       </c>
       <c r="G41" t="n">
-        <v>6262.576127357183</v>
+        <v>6250.109642414479</v>
       </c>
       <c r="H41" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I41" t="n">
-        <v>11008294</v>
+        <v>11427971</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>522316</v>
+        <v>532290</v>
       </c>
       <c r="E42" t="n">
-        <v>6335181</v>
+        <v>6456163</v>
       </c>
       <c r="F42" t="n">
-        <v>536.7198801526507</v>
+        <v>772.3235948977978</v>
       </c>
       <c r="G42" t="n">
-        <v>615.936731064774</v>
+        <v>1474.692837438765</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="I42" t="n">
-        <v>2870175</v>
+        <v>2925172</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1277327196</v>
+        <v>1275163528</v>
       </c>
       <c r="E43" t="n">
-        <v>6125045494</v>
+        <v>6114670266</v>
       </c>
       <c r="F43" t="n">
-        <v>12401.32142949992</v>
+        <v>53354.97931124382</v>
       </c>
       <c r="G43" t="n">
-        <v>42113.82211808833</v>
+        <v>66513.65621322322</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>192984637</v>
+        <v>196660542</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6046442568</v>
+        <v>6046479153</v>
       </c>
       <c r="E44" t="n">
-        <v>6046442568</v>
+        <v>6046479153</v>
       </c>
       <c r="F44" t="n">
-        <v>266689.6540557936</v>
+        <v>264289.467685701</v>
       </c>
       <c r="G44" t="n">
-        <v>206762.6968735986</v>
+        <v>263619.1555779339</v>
       </c>
       <c r="H44" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I44" t="n">
-        <v>116444754</v>
+        <v>115783191</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>273025964</v>
+        <v>268120972</v>
       </c>
       <c r="E45" t="n">
-        <v>1178531630</v>
+        <v>1157358961</v>
       </c>
       <c r="F45" t="n">
-        <v>120736.2392202967</v>
+        <v>97758.44800583729</v>
       </c>
       <c r="G45" t="n">
-        <v>98302.36380221219</v>
+        <v>93568.54044682867</v>
       </c>
       <c r="H45" t="n">
         <v>0.05</v>
       </c>
       <c r="I45" t="n">
-        <v>110551473</v>
+        <v>111008984</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113235282</v>
+        <v>113432245</v>
       </c>
       <c r="E46" t="n">
-        <v>113235282</v>
+        <v>113432245</v>
       </c>
       <c r="F46" t="n">
-        <v>42572.96130808386</v>
+        <v>36877.58203433429</v>
       </c>
       <c r="G46" t="n">
-        <v>28762.13252287993</v>
+        <v>35888.49397884684</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="I46" t="n">
-        <v>5951717</v>
+        <v>6002746</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2037319954</v>
+        <v>2047329802</v>
       </c>
       <c r="E47" t="n">
-        <v>2037319954</v>
+        <v>2047329802</v>
       </c>
       <c r="F47" t="n">
-        <v>219868.2841266729</v>
+        <v>219457.8502826364</v>
       </c>
       <c r="G47" t="n">
-        <v>201245.9347473938</v>
+        <v>201689.7627108394</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>4553354282</v>
+        <v>4672617964</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9909505</v>
+        <v>9876813</v>
       </c>
       <c r="F48" t="n">
-        <v>7568.621689179397</v>
+        <v>7531.091176748948</v>
       </c>
       <c r="G48" t="n">
-        <v>5976.674638327628</v>
+        <v>6097.673410971373</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>203093</v>
+        <v>190176</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4212096</v>
+        <v>4337543</v>
       </c>
       <c r="E49" t="n">
-        <v>5529932</v>
+        <v>5694628</v>
       </c>
       <c r="F49" t="n">
-        <v>15010.7258018129</v>
+        <v>10130.63901137303</v>
       </c>
       <c r="G49" t="n">
-        <v>16069.1154927976</v>
+        <v>16604.77991528798</v>
       </c>
       <c r="H49" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I49" t="n">
-        <v>663778</v>
+        <v>669579</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11726506</v>
+        <v>11720125</v>
       </c>
       <c r="E50" t="n">
-        <v>17243606</v>
+        <v>17234223</v>
       </c>
       <c r="F50" t="n">
-        <v>6398.597955120107</v>
+        <v>6349.459444390845</v>
       </c>
       <c r="G50" t="n">
-        <v>11956.17949489988</v>
+        <v>30278.5748868575</v>
       </c>
       <c r="H50" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I50" t="n">
-        <v>1135763</v>
+        <v>890254</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22694077</v>
+        <v>22770101</v>
       </c>
       <c r="E51" t="n">
-        <v>29439409</v>
+        <v>29538030</v>
       </c>
       <c r="F51" t="n">
-        <v>13291.01526071849</v>
+        <v>13839.56112697142</v>
       </c>
       <c r="G51" t="n">
-        <v>11676.27664771077</v>
+        <v>10599.92034241618</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>179686</v>
+        <v>181747</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13656198</v>
+        <v>13651852</v>
       </c>
       <c r="E52" t="n">
-        <v>13656198</v>
+        <v>13651852</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4186718</v>
+        <v>4364283</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98843043</v>
+        <v>99511795</v>
       </c>
       <c r="E53" t="n">
-        <v>122265306</v>
+        <v>123092528</v>
       </c>
       <c r="F53" t="n">
-        <v>375.4366710078608</v>
+        <v>604.3628920057176</v>
       </c>
       <c r="G53" t="n">
-        <v>4132.686736470211</v>
+        <v>4251.894182462484</v>
       </c>
       <c r="H53" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>735568</v>
+        <v>731036</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5533594</v>
+        <v>5414522</v>
       </c>
       <c r="E54" t="n">
-        <v>7742301</v>
+        <v>7575702</v>
       </c>
       <c r="F54" t="n">
-        <v>175.9310953400307</v>
+        <v>34.23878529660116</v>
       </c>
       <c r="G54" t="n">
-        <v>753.826080628016</v>
+        <v>107.0725053535806</v>
       </c>
       <c r="H54" t="n">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="I54" t="n">
-        <v>107388</v>
+        <v>104216</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14228630</v>
+        <v>14060412</v>
       </c>
       <c r="E55" t="n">
-        <v>68911525</v>
+        <v>68096821</v>
       </c>
       <c r="F55" t="n">
-        <v>32210.17146818946</v>
+        <v>25235.16289138093</v>
       </c>
       <c r="G55" t="n">
-        <v>28975.46005540085</v>
+        <v>25069.0629268266</v>
       </c>
       <c r="H55" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="I55" t="n">
-        <v>3544501</v>
+        <v>3546171</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>58778</v>
+        <v>57884</v>
       </c>
       <c r="E56" t="n">
-        <v>140786</v>
+        <v>138645</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4946.08</v>
+        <v>4534.21</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1855617533</v>
+        <v>1864442747</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>25013090</v>
+        <v>25593792</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11962472</v>
+        <v>11992076</v>
       </c>
       <c r="E58" t="n">
-        <v>17343858</v>
+        <v>17386780</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2325412</v>
+        <v>2361728</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123789519</v>
+        <v>123258469</v>
       </c>
       <c r="E59" t="n">
-        <v>329209553</v>
+        <v>327797262</v>
       </c>
       <c r="F59" t="n">
-        <v>701.9249546202692</v>
+        <v>184.402816435412</v>
       </c>
       <c r="G59" t="n">
-        <v>10358.17484857739</v>
+        <v>8446.537540722691</v>
       </c>
       <c r="H59" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="I59" t="n">
-        <v>1393110</v>
+        <v>1387558</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32578095</v>
+        <v>31539872</v>
       </c>
       <c r="E60" t="n">
-        <v>101437736</v>
+        <v>98205040</v>
       </c>
       <c r="F60" t="n">
-        <v>5751.937521502969</v>
+        <v>4692.166366504494</v>
       </c>
       <c r="G60" t="n">
-        <v>5702.646128667063</v>
+        <v>6061.530186232721</v>
       </c>
       <c r="H60" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="I60" t="n">
-        <v>11731230</v>
+        <v>12133443</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1929265</v>
+        <v>1926512</v>
       </c>
       <c r="E61" t="n">
-        <v>13834569</v>
+        <v>13814828</v>
       </c>
       <c r="F61" t="n">
-        <v>5122.694903623708</v>
+        <v>5152.415577042487</v>
       </c>
       <c r="G61" t="n">
-        <v>2581.241012191713</v>
+        <v>1250.613173311235</v>
       </c>
       <c r="H61" t="n">
-        <v>1.93</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1881078</v>
+        <v>1860788</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>199498839</v>
+        <v>195291880</v>
       </c>
       <c r="E62" t="n">
-        <v>1129685009</v>
+        <v>1105862619</v>
       </c>
       <c r="F62" t="n">
-        <v>440274.637972019</v>
+        <v>744657.2436787696</v>
       </c>
       <c r="G62" t="n">
-        <v>696010.1694163004</v>
+        <v>695850.1231744271</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>58404931</v>
+        <v>59534235</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>508374</v>
+        <v>507413</v>
       </c>
       <c r="E63" t="n">
-        <v>1711115</v>
+        <v>1707882</v>
       </c>
       <c r="F63" t="n">
-        <v>4797.410926719956</v>
+        <v>4641.033995545317</v>
       </c>
       <c r="G63" t="n">
-        <v>514.506204645719</v>
+        <v>575.6610626720166</v>
       </c>
       <c r="H63" t="n">
         <v>0.53</v>
       </c>
       <c r="I63" t="n">
-        <v>634877</v>
+        <v>631184</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>361236</v>
+        <v>342143</v>
       </c>
       <c r="E64" t="n">
-        <v>361236</v>
+        <v>342143</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3306.83</v>
+        <v>5113.06</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>137450422</v>
+        <v>137331411</v>
       </c>
       <c r="E65" t="n">
-        <v>1018151274</v>
+        <v>1017269713</v>
       </c>
       <c r="F65" t="n">
-        <v>32368.14045244599</v>
+        <v>40075.40758553558</v>
       </c>
       <c r="G65" t="n">
-        <v>34294.27010907685</v>
+        <v>35713.18521960694</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>12833355</v>
+        <v>12482398</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8354865</v>
+        <v>8199835</v>
       </c>
       <c r="E66" t="n">
-        <v>11193191</v>
+        <v>10985494</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>52814</v>
+        <v>58444</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26555215</v>
+        <v>26364991</v>
       </c>
       <c r="E67" t="n">
-        <v>26555215</v>
+        <v>26364991</v>
       </c>
       <c r="F67" t="n">
-        <v>8747.923820923805</v>
+        <v>6049.159978866523</v>
       </c>
       <c r="G67" t="n">
-        <v>4129.27718793697</v>
+        <v>6694.396402246453</v>
       </c>
       <c r="H67" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="I67" t="n">
-        <v>363778</v>
+        <v>357468</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1597288</v>
+        <v>1613382</v>
       </c>
       <c r="E68" t="n">
-        <v>12440535</v>
+        <v>12565883</v>
       </c>
       <c r="F68" t="n">
-        <v>699.0465492457681</v>
+        <v>769.3999581194616</v>
       </c>
       <c r="G68" t="n">
-        <v>22744.06754226909</v>
+        <v>18242.40037634907</v>
       </c>
       <c r="H68" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I68" t="n">
-        <v>509080</v>
+        <v>461645</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>334008119</v>
+        <v>333844664</v>
       </c>
       <c r="E69" t="n">
-        <v>3004944150</v>
+        <v>3003473605</v>
       </c>
       <c r="F69" t="n">
-        <v>1333179.632626408</v>
+        <v>1171370.626387607</v>
       </c>
       <c r="G69" t="n">
-        <v>1351191.978198701</v>
+        <v>1848772.999460589</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>36592268</v>
+        <v>38119134</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>249724</v>
+        <v>252877</v>
       </c>
       <c r="E70" t="n">
-        <v>2204000</v>
+        <v>2231827</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>86082</v>
+        <v>86694</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1606079</v>
+        <v>1588906</v>
       </c>
       <c r="E71" t="n">
-        <v>13383993</v>
+        <v>13240881</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>46698</v>
+        <v>49070</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8703015</v>
+        <v>8852335</v>
       </c>
       <c r="E72" t="n">
-        <v>40338976</v>
+        <v>41031081</v>
       </c>
       <c r="F72" t="n">
-        <v>6219.217104398081</v>
+        <v>6247.680102115868</v>
       </c>
       <c r="G72" t="n">
-        <v>8782.784605040164</v>
+        <v>9958.512320643384</v>
       </c>
       <c r="H72" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="I72" t="n">
-        <v>38766</v>
+        <v>90957</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42644817</v>
+        <v>42321340</v>
       </c>
       <c r="E73" t="n">
-        <v>246895867</v>
+        <v>245023069</v>
       </c>
       <c r="F73" t="n">
-        <v>151867.1862713799</v>
+        <v>110334.4325169346</v>
       </c>
       <c r="G73" t="n">
-        <v>180947.0342036917</v>
+        <v>185872.1395881207</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>10330377</v>
+        <v>10785222</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40406116</v>
+        <v>40476813</v>
       </c>
       <c r="E74" t="n">
-        <v>55806601</v>
+        <v>55904243</v>
       </c>
       <c r="F74" t="n">
-        <v>4556.756618285034</v>
+        <v>4470.124666462415</v>
       </c>
       <c r="G74" t="n">
-        <v>4409.556413435749</v>
+        <v>4393.481571282642</v>
       </c>
       <c r="H74" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="I74" t="n">
-        <v>337689</v>
+        <v>343773</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95164</v>
+        <v>95185</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>944.01</v>
+        <v>940.85</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13631627</v>
+        <v>13538478</v>
       </c>
       <c r="E76" t="n">
-        <v>13678016</v>
+        <v>13584551</v>
       </c>
       <c r="F76" t="n">
-        <v>2600.743124255667</v>
+        <v>2129.76646871069</v>
       </c>
       <c r="G76" t="n">
-        <v>7052.192935713932</v>
+        <v>6774.836929665039</v>
       </c>
       <c r="H76" t="n">
-        <v>1.29</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>5580781</v>
+        <v>5768788</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42858164</v>
+        <v>42881442</v>
       </c>
       <c r="E77" t="n">
-        <v>72763191</v>
+        <v>72802712</v>
       </c>
       <c r="F77" t="n">
-        <v>9610.53464897853</v>
+        <v>9247.163261967198</v>
       </c>
       <c r="G77" t="n">
-        <v>5146.97006906981</v>
+        <v>3915.831778468505</v>
       </c>
       <c r="H77" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I77" t="n">
-        <v>1161042</v>
+        <v>1148577</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>25177239</v>
+        <v>25626304</v>
       </c>
       <c r="E78" t="n">
-        <v>75470950</v>
+        <v>76816629</v>
       </c>
       <c r="F78" t="n">
-        <v>171359.462391669</v>
+        <v>75071.07325132166</v>
       </c>
       <c r="G78" t="n">
-        <v>114847.9864773687</v>
+        <v>101111.9289807575</v>
       </c>
       <c r="H78" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="I78" t="n">
-        <v>2158820</v>
+        <v>2249655</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100936039</v>
+        <v>101122981</v>
       </c>
       <c r="E79" t="n">
-        <v>107304132</v>
+        <v>107502867</v>
       </c>
       <c r="F79" t="n">
-        <v>2447.063353967867</v>
+        <v>1537.701539915509</v>
       </c>
       <c r="G79" t="n">
-        <v>5263.391186378999</v>
+        <v>3939.181651037464</v>
       </c>
       <c r="H79" t="n">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="I79" t="n">
-        <v>941900</v>
+        <v>984414</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10727769</v>
+        <v>10681375</v>
       </c>
       <c r="E80" t="n">
-        <v>46835995</v>
+        <v>46565529</v>
       </c>
       <c r="F80" t="n">
-        <v>6150.46043971701</v>
+        <v>6695.345757573632</v>
       </c>
       <c r="G80" t="n">
-        <v>5736.828893792439</v>
+        <v>5633.466572649292</v>
       </c>
       <c r="H80" t="n">
-        <v>0.09</v>
+        <v>0.58</v>
       </c>
       <c r="I80" t="n">
-        <v>104251</v>
+        <v>111027</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15278493</v>
+        <v>15187187</v>
       </c>
       <c r="E81" t="n">
-        <v>93646905</v>
+        <v>93087261</v>
       </c>
       <c r="F81" t="n">
-        <v>3910.271707081307</v>
+        <v>4212.543678731047</v>
       </c>
       <c r="G81" t="n">
-        <v>6123.018522878008</v>
+        <v>5984.085390559193</v>
       </c>
       <c r="H81" t="n">
         <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>11654447</v>
+        <v>11683773</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1468986</v>
+        <v>1484598</v>
       </c>
       <c r="E82" t="n">
-        <v>1510308</v>
+        <v>1526358</v>
       </c>
       <c r="F82" t="n">
-        <v>4529.824937998738</v>
+        <v>29.00983069752099</v>
       </c>
       <c r="G82" t="n">
-        <v>4441.596969961236</v>
+        <v>196.1903405596437</v>
       </c>
       <c r="H82" t="n">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="I82" t="n">
-        <v>136189</v>
+        <v>136628</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>46404249</v>
+        <v>45861192</v>
       </c>
       <c r="E83" t="n">
-        <v>199904431</v>
+        <v>197565001</v>
       </c>
       <c r="F83" t="n">
-        <v>3334.503014117492</v>
+        <v>3354.56084516037</v>
       </c>
       <c r="G83" t="n">
-        <v>4615.459185693297</v>
+        <v>4553.73229408321</v>
       </c>
       <c r="H83" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I83" t="n">
-        <v>8289401</v>
+        <v>8561211</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1733470</v>
+        <v>1721233</v>
       </c>
       <c r="E84" t="n">
-        <v>6299745</v>
+        <v>6255006</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>129932</v>
+        <v>135517</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9046956</v>
+        <v>9147791</v>
       </c>
       <c r="E85" t="n">
-        <v>20098510</v>
+        <v>20322523</v>
       </c>
       <c r="F85" t="n">
-        <v>8768.870333059713</v>
+        <v>3374.448414437943</v>
       </c>
       <c r="G85" t="n">
-        <v>7558.798771638239</v>
+        <v>5700.53102360611</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I85" t="n">
-        <v>436539</v>
+        <v>433937</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2457168</v>
+        <v>2450802</v>
       </c>
       <c r="E86" t="n">
-        <v>18491294</v>
+        <v>18443389</v>
       </c>
       <c r="F86" t="n">
-        <v>6267.629461792669</v>
+        <v>6321.877043933368</v>
       </c>
       <c r="G86" t="n">
-        <v>12790.94062478911</v>
+        <v>12723.57058433672</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161819</v>
+        <v>163690</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21068339</v>
+        <v>20664452</v>
       </c>
       <c r="E87" t="n">
-        <v>84273356</v>
+        <v>82657809</v>
       </c>
       <c r="F87" t="n">
-        <v>10162.04462556695</v>
+        <v>27216.73007714429</v>
       </c>
       <c r="G87" t="n">
-        <v>2286.853406567049</v>
+        <v>1392.656969316843</v>
       </c>
       <c r="H87" t="n">
-        <v>1.31</v>
+        <v>0.24</v>
       </c>
       <c r="I87" t="n">
-        <v>6012236</v>
+        <v>5773972</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4336696</v>
+        <v>4285116</v>
       </c>
       <c r="E88" t="n">
-        <v>4336696</v>
+        <v>4285116</v>
       </c>
       <c r="F88" t="n">
-        <v>2304.598948551171</v>
+        <v>164.0182365262853</v>
       </c>
       <c r="G88" t="n">
-        <v>3043.673932147234</v>
+        <v>1169.519694961948</v>
       </c>
       <c r="H88" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I88" t="n">
-        <v>2370747</v>
+        <v>2393702</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12733849</v>
+        <v>12703428</v>
       </c>
       <c r="E89" t="n">
-        <v>40286436</v>
+        <v>40190083</v>
       </c>
       <c r="F89" t="n">
-        <v>18261.18817762619</v>
+        <v>15266.36662208412</v>
       </c>
       <c r="G89" t="n">
-        <v>17553.03924938464</v>
+        <v>13316.15658508301</v>
       </c>
       <c r="H89" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>1526513</v>
+        <v>1597303</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25334</v>
+        <v>26545</v>
       </c>
       <c r="E90" t="n">
-        <v>199247</v>
+        <v>208765</v>
       </c>
       <c r="F90" t="n">
-        <v>6014.723438902342</v>
+        <v>10828.07096593703</v>
       </c>
       <c r="G90" t="n">
-        <v>1103.169006981063</v>
+        <v>257.6830497320442</v>
       </c>
       <c r="H90" t="n">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="I90" t="n">
-        <v>119957</v>
+        <v>126118</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8174205</v>
+        <v>7978234</v>
       </c>
       <c r="E91" t="n">
-        <v>8174205</v>
+        <v>7978234</v>
       </c>
       <c r="F91" t="n">
-        <v>4322.544018328021</v>
+        <v>3976.00624383956</v>
       </c>
       <c r="G91" t="n">
-        <v>4527.318594041809</v>
+        <v>4164.699319509381</v>
       </c>
       <c r="H91" t="n">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="I91" t="n">
-        <v>3817216</v>
+        <v>3783340</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9597567</v>
+        <v>9510426</v>
       </c>
       <c r="E92" t="n">
-        <v>9597567</v>
+        <v>9510426</v>
       </c>
       <c r="F92" t="n">
-        <v>6774.903169317483</v>
+        <v>6536.403917197946</v>
       </c>
       <c r="G92" t="n">
-        <v>2714.346514974735</v>
+        <v>1464.929216790931</v>
       </c>
       <c r="H92" t="n">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="I92" t="n">
-        <v>2046225</v>
+        <v>2350339</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>35400953</v>
+        <v>35421715</v>
       </c>
       <c r="E93" t="n">
-        <v>89264209</v>
+        <v>89316559</v>
       </c>
       <c r="F93" t="n">
-        <v>5302.610885018174</v>
+        <v>5187.156952387375</v>
       </c>
       <c r="G93" t="n">
-        <v>5503.998191516208</v>
+        <v>5837.671413095618</v>
       </c>
       <c r="H93" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="I93" t="n">
-        <v>2732702</v>
+        <v>2748501</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>294351450</v>
+        <v>294135899</v>
       </c>
       <c r="E94" t="n">
-        <v>298949838</v>
+        <v>298732040</v>
       </c>
       <c r="F94" t="n">
-        <v>47202.19318581127</v>
+        <v>24056.63673183515</v>
       </c>
       <c r="G94" t="n">
-        <v>54648.73146946347</v>
+        <v>36000.87110533788</v>
       </c>
       <c r="H94" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I94" t="n">
-        <v>11527282</v>
+        <v>11617807</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>887.6932738543609</v>
+        <v>952.7021739387143</v>
       </c>
       <c r="G95" t="n">
-        <v>6834.781389436814</v>
+        <v>6708.188040223313</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>225478</v>
+        <v>225987</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>71328553</v>
+        <v>72216961</v>
       </c>
       <c r="E96" t="n">
-        <v>71328553</v>
+        <v>72216961</v>
       </c>
       <c r="F96" t="n">
-        <v>11693.58886535841</v>
+        <v>11758.57783569737</v>
       </c>
       <c r="G96" t="n">
-        <v>3608.662885356234</v>
+        <v>3532.85677004049</v>
       </c>
       <c r="H96" t="n">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="I96" t="n">
-        <v>3692103</v>
+        <v>3713607</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>300156988</v>
+        <v>299245420</v>
       </c>
       <c r="E97" t="n">
-        <v>300156988</v>
+        <v>299245420</v>
       </c>
       <c r="F97" t="n">
-        <v>389995.0841487417</v>
+        <v>284569.227566072</v>
       </c>
       <c r="G97" t="n">
-        <v>433182.9759583509</v>
+        <v>448763.1682955676</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>52869267</v>
+        <v>52475961</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4088264</v>
+        <v>4081744</v>
       </c>
       <c r="E98" t="n">
-        <v>27934821</v>
+        <v>27890270</v>
       </c>
       <c r="F98" t="n">
-        <v>4528.076416874812</v>
+        <v>4532.080787681746</v>
       </c>
       <c r="G98" t="n">
-        <v>21119.37153046378</v>
+        <v>4427.238886531951</v>
       </c>
       <c r="H98" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="I98" t="n">
-        <v>2603520</v>
+        <v>2542851</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>88022781</v>
+        <v>87309809</v>
       </c>
       <c r="E99" t="n">
-        <v>507225231</v>
+        <v>503116776</v>
       </c>
       <c r="F99" t="n">
-        <v>140281.9364636118</v>
+        <v>151134.58090344</v>
       </c>
       <c r="G99" t="n">
-        <v>141835.4805802828</v>
+        <v>156227.3198796384</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>15526807</v>
+        <v>15619467</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107008214</v>
+        <v>106954154</v>
       </c>
       <c r="E100" t="n">
-        <v>263282013</v>
+        <v>263149006</v>
       </c>
       <c r="F100" t="n">
-        <v>27854.89873103554</v>
+        <v>24855.63147941096</v>
       </c>
       <c r="G100" t="n">
-        <v>39519.9376201609</v>
+        <v>39683.62566487725</v>
       </c>
       <c r="H100" t="n">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="I100" t="n">
-        <v>2420065</v>
+        <v>2410686</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>246171073</v>
+        <v>244200008</v>
       </c>
       <c r="E101" t="n">
-        <v>246173519</v>
+        <v>244202435</v>
       </c>
       <c r="F101" t="n">
-        <v>24426.95126543344</v>
+        <v>4822.176579585092</v>
       </c>
       <c r="G101" t="n">
-        <v>10858.18378569834</v>
+        <v>13546.68219053889</v>
       </c>
       <c r="H101" t="n">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="I101" t="n">
-        <v>2467317</v>
+        <v>1590357</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30372815</v>
+        <v>30107135</v>
       </c>
       <c r="E102" t="n">
-        <v>135991552</v>
+        <v>134801995</v>
       </c>
       <c r="F102" t="n">
-        <v>98959.99507951291</v>
+        <v>110181.1724681929</v>
       </c>
       <c r="G102" t="n">
-        <v>152710.2193078487</v>
+        <v>128589.4997197629</v>
       </c>
       <c r="H102" t="n">
         <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>10098463</v>
+        <v>9950597</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2984464</v>
+        <v>2946035</v>
       </c>
       <c r="E103" t="n">
-        <v>2984464</v>
+        <v>2946035</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>386197</v>
+        <v>374963</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6269728</v>
+        <v>6028469</v>
       </c>
       <c r="E104" t="n">
-        <v>16454946</v>
+        <v>15821758</v>
       </c>
       <c r="F104" t="n">
-        <v>8409.243482830518</v>
+        <v>8799.206711968725</v>
       </c>
       <c r="G104" t="n">
-        <v>3831.306918478638</v>
+        <v>3685.786814654951</v>
       </c>
       <c r="H104" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="I104" t="n">
-        <v>2094304</v>
+        <v>73868</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17561299</v>
+        <v>17683815</v>
       </c>
       <c r="E105" t="n">
-        <v>81059538</v>
+        <v>81625192</v>
       </c>
       <c r="F105" t="n">
-        <v>86388.34901606715</v>
+        <v>107549.3340586195</v>
       </c>
       <c r="G105" t="n">
-        <v>36881.45086369298</v>
+        <v>32287.51932180652</v>
       </c>
       <c r="H105" t="n">
         <v>0.49</v>
       </c>
       <c r="I105" t="n">
-        <v>1296331</v>
+        <v>1254936</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47689909</v>
+        <v>47276084</v>
       </c>
       <c r="E106" t="n">
-        <v>309256370</v>
+        <v>306572825</v>
       </c>
       <c r="F106" t="n">
-        <v>119144.0429228127</v>
+        <v>119082.6184772819</v>
       </c>
       <c r="G106" t="n">
-        <v>156948.7184877704</v>
+        <v>175167.8971136954</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>16497575</v>
+        <v>17214140</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2497810</v>
+        <v>2455081</v>
       </c>
       <c r="E107" t="n">
-        <v>4525252</v>
+        <v>4447842</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>116888</v>
+        <v>106848</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125052284</v>
+        <v>125005363</v>
       </c>
       <c r="E108" t="n">
-        <v>2070968244</v>
+        <v>2070191190</v>
       </c>
       <c r="F108" t="n">
-        <v>450941.1708953406</v>
+        <v>452940.8370040953</v>
       </c>
       <c r="G108" t="n">
-        <v>209857.6561614798</v>
+        <v>219335.8687851861</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5464152</v>
+        <v>5177149</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23458909</v>
+        <v>23369213</v>
       </c>
       <c r="E109" t="n">
-        <v>140359369</v>
+        <v>139822700</v>
       </c>
       <c r="F109" t="n">
-        <v>40439.01717883677</v>
+        <v>39453.82913463229</v>
       </c>
       <c r="G109" t="n">
-        <v>39903.34508504582</v>
+        <v>37969.91822007842</v>
       </c>
       <c r="H109" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="I109" t="n">
-        <v>14303832</v>
+        <v>13522470</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1004143</v>
+        <v>994083</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>69929</v>
+        <v>69700</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2292065</v>
+        <v>2295593</v>
       </c>
       <c r="F111" t="n">
-        <v>3949.22291024968</v>
+        <v>3772.067291319737</v>
       </c>
       <c r="G111" t="n">
-        <v>210.0040259643946</v>
+        <v>159.729984152847</v>
       </c>
       <c r="H111" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>213223</v>
+        <v>213870</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142213012</v>
+        <v>142234961</v>
       </c>
       <c r="F112" t="n">
-        <v>3148.513582581811</v>
+        <v>3148.823040900245</v>
       </c>
       <c r="G112" t="n">
-        <v>909.5453438987824</v>
+        <v>909.6347404871344</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>73097</v>
+        <v>66259</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6776994</v>
+        <v>6809882</v>
       </c>
       <c r="E113" t="n">
-        <v>34865573</v>
+        <v>35034772</v>
       </c>
       <c r="F113" t="n">
-        <v>422.9929325470423</v>
+        <v>899.8368593093876</v>
       </c>
       <c r="G113" t="n">
-        <v>1143.430893593651</v>
+        <v>1292.809389297503</v>
       </c>
       <c r="H113" t="n">
-        <v>0.29</v>
+        <v>0.85</v>
       </c>
       <c r="I113" t="n">
-        <v>895560</v>
+        <v>893831</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>28764624</v>
+        <v>28873094</v>
       </c>
       <c r="E114" t="n">
-        <v>39532395</v>
+        <v>39681469</v>
       </c>
       <c r="F114" t="n">
-        <v>5309.464879797835</v>
+        <v>5421.918900878405</v>
       </c>
       <c r="G114" t="n">
-        <v>3839.83527959025</v>
+        <v>3962.301382109633</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>320854</v>
+        <v>334056</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8055801</v>
+        <v>8067938</v>
       </c>
       <c r="F115" t="n">
-        <v>765.4023584360264</v>
+        <v>678.5303049661444</v>
       </c>
       <c r="G115" t="n">
-        <v>6399.341175333885</v>
+        <v>6511.145483721206</v>
       </c>
       <c r="H115" t="n">
         <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>719640</v>
+        <v>710627</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3343762</v>
+        <v>3349008</v>
       </c>
       <c r="E116" t="n">
-        <v>4479181</v>
+        <v>4486207</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149035</v>
+        <v>149757</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34306223</v>
+        <v>33802035</v>
       </c>
       <c r="E117" t="n">
-        <v>171203866</v>
+        <v>168687735</v>
       </c>
       <c r="F117" t="n">
-        <v>91208.12680391567</v>
+        <v>95126.88991689566</v>
       </c>
       <c r="G117" t="n">
-        <v>74455.23249639585</v>
+        <v>76204.10500169406</v>
       </c>
       <c r="H117" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>9328161</v>
+        <v>9573957</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3425235</v>
+        <v>3436934</v>
       </c>
       <c r="E118" t="n">
-        <v>4920677</v>
+        <v>4937484</v>
       </c>
       <c r="F118" t="n">
-        <v>572.2258430474778</v>
+        <v>819.1452456035619</v>
       </c>
       <c r="G118" t="n">
-        <v>652.5266540728857</v>
+        <v>567.1119383270637</v>
       </c>
       <c r="H118" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I118" t="n">
-        <v>182873</v>
+        <v>181393</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>313787011</v>
+        <v>312641955</v>
       </c>
       <c r="E119" t="n">
-        <v>580577529</v>
+        <v>578458914</v>
       </c>
       <c r="F119" t="n">
-        <v>141892.0938088414</v>
+        <v>125085.7556104175</v>
       </c>
       <c r="G119" t="n">
-        <v>140217.8563001308</v>
+        <v>146834.5317626519</v>
       </c>
       <c r="H119" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I119" t="n">
-        <v>12976006</v>
+        <v>12076674</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70770120</v>
+        <v>72352570</v>
       </c>
       <c r="E120" t="n">
-        <v>675261931</v>
+        <v>690348051</v>
       </c>
       <c r="F120" t="n">
-        <v>1772.582519080452</v>
+        <v>2828.179264531649</v>
       </c>
       <c r="G120" t="n">
-        <v>40366.83271824475</v>
+        <v>40603.93439489496</v>
       </c>
       <c r="H120" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I120" t="n">
-        <v>18816793</v>
+        <v>20500309</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37494134</v>
+        <v>37745033</v>
       </c>
       <c r="E121" t="n">
-        <v>49024678</v>
+        <v>49352305</v>
       </c>
       <c r="F121" t="n">
-        <v>5677.181002425361</v>
+        <v>5677.7389951384</v>
       </c>
       <c r="G121" t="n">
-        <v>508.1121404038498</v>
+        <v>509.8305462709708</v>
       </c>
       <c r="H121" t="n">
         <v>2.41</v>
       </c>
       <c r="I121" t="n">
-        <v>451723</v>
+        <v>377581</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9349076</v>
+        <v>9464376</v>
       </c>
       <c r="E122" t="n">
-        <v>27880655</v>
+        <v>28224501</v>
       </c>
       <c r="F122" t="n">
-        <v>976.4472776412255</v>
+        <v>1662.822685803653</v>
       </c>
       <c r="G122" t="n">
-        <v>4968.695058413212</v>
+        <v>4445.649717687997</v>
       </c>
       <c r="H122" t="n">
-        <v>0.72</v>
+        <v>0.35</v>
       </c>
       <c r="I122" t="n">
-        <v>3927709</v>
+        <v>4824158</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2325816</v>
+        <v>2328812</v>
       </c>
       <c r="E123" t="n">
-        <v>7958592</v>
+        <v>7968843</v>
       </c>
       <c r="F123" t="n">
-        <v>622.895333423611</v>
+        <v>1167.955263964618</v>
       </c>
       <c r="G123" t="n">
-        <v>1274.974213261597</v>
+        <v>792.9517324930688</v>
       </c>
       <c r="H123" t="n">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="I123" t="n">
-        <v>775641</v>
+        <v>761854</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7277131</v>
+        <v>7195603</v>
       </c>
       <c r="E124" t="n">
-        <v>7277142</v>
+        <v>7195614</v>
       </c>
       <c r="F124" t="n">
-        <v>3069.446462456689</v>
+        <v>729.7315639212177</v>
       </c>
       <c r="G124" t="n">
-        <v>427.7100278895595</v>
+        <v>225.9661244200324</v>
       </c>
       <c r="H124" t="n">
-        <v>0.99</v>
+        <v>0.76</v>
       </c>
       <c r="I124" t="n">
-        <v>284713</v>
+        <v>301998</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5787961</v>
+        <v>5848264</v>
       </c>
       <c r="E125" t="n">
-        <v>5787961</v>
+        <v>5848264</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>436492</v>
+        <v>391332</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6194186</v>
+        <v>6179699</v>
       </c>
       <c r="E126" t="n">
-        <v>22624966</v>
+        <v>22572051</v>
       </c>
       <c r="F126" t="n">
-        <v>6014.200568517421</v>
+        <v>1022.35022353595</v>
       </c>
       <c r="G126" t="n">
-        <v>7736.375156309432</v>
+        <v>7828.838412578511</v>
       </c>
       <c r="H126" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I126" t="n">
-        <v>427247</v>
+        <v>446746</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44668103</v>
+        <v>44414741</v>
       </c>
       <c r="E127" t="n">
-        <v>44668103</v>
+        <v>44414741</v>
       </c>
       <c r="F127" t="n">
-        <v>64644.70565071319</v>
+        <v>62647.8483517612</v>
       </c>
       <c r="G127" t="n">
-        <v>82908.74434604726</v>
+        <v>98987.54301466305</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>7673321</v>
+        <v>8593064</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>149504595</v>
+        <v>151112431</v>
       </c>
       <c r="F128" t="n">
-        <v>5441.208086440502</v>
+        <v>5406.81539040221</v>
       </c>
       <c r="G128" t="n">
-        <v>490.0570667391429</v>
+        <v>490.1052329455924</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1303596</v>
+        <v>1044568</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3033246</v>
+        <v>3045421</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73933</v>
+        <v>73664</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20122496</v>
+        <v>20154240</v>
       </c>
       <c r="F130" t="n">
-        <v>479.739718501863</v>
+        <v>792.1834452555188</v>
       </c>
       <c r="G130" t="n">
-        <v>1257.464150613093</v>
+        <v>882.9789897709539</v>
       </c>
       <c r="H130" t="n">
-        <v>0.84</v>
+        <v>1.23</v>
       </c>
       <c r="I130" t="n">
-        <v>2784032</v>
+        <v>2801522</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1253274</v>
+        <v>1257862</v>
       </c>
       <c r="E131" t="n">
-        <v>3791636</v>
+        <v>3805797</v>
       </c>
       <c r="F131" t="n">
-        <v>801.7574699221897</v>
+        <v>806.2856207706116</v>
       </c>
       <c r="G131" t="n">
-        <v>690.0792476918224</v>
+        <v>693.6658648426851</v>
       </c>
       <c r="H131" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="I131" t="n">
-        <v>21471</v>
+        <v>22461</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>596479550</v>
+        <v>594712736</v>
       </c>
       <c r="E132" t="n">
-        <v>2310077291</v>
+        <v>2303234683</v>
       </c>
       <c r="F132" t="n">
-        <v>564842.4190036657</v>
+        <v>450583.8874229307</v>
       </c>
       <c r="G132" t="n">
-        <v>666026.6107313193</v>
+        <v>717591.6602482602</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>28708152</v>
+        <v>30295634</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3674979</v>
+        <v>3672307</v>
       </c>
       <c r="E133" t="n">
-        <v>6264501</v>
+        <v>6259947</v>
       </c>
       <c r="F133" t="n">
-        <v>5403.501392364236</v>
+        <v>5616.012654640955</v>
       </c>
       <c r="G133" t="n">
-        <v>5675.118872090403</v>
+        <v>5595.715023702749</v>
       </c>
       <c r="H133" t="n">
         <v>0.32</v>
       </c>
       <c r="I133" t="n">
-        <v>921632</v>
+        <v>909322</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>117020554</v>
+        <v>117090272</v>
       </c>
       <c r="E134" t="n">
-        <v>1017421796</v>
+        <v>1018027951</v>
       </c>
       <c r="F134" t="n">
-        <v>138423.1524418038</v>
+        <v>117034.1645250772</v>
       </c>
       <c r="G134" t="n">
-        <v>107108.9583067161</v>
+        <v>113545.6219056711</v>
       </c>
       <c r="H134" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I134" t="n">
-        <v>9536133</v>
+        <v>9699070</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1059605644</v>
+        <v>1003202570</v>
       </c>
       <c r="E135" t="n">
-        <v>1163979704</v>
+        <v>1102020773</v>
       </c>
       <c r="F135" t="n">
-        <v>16438.20660136677</v>
+        <v>18024.02612497504</v>
       </c>
       <c r="G135" t="n">
-        <v>12933.67185686335</v>
+        <v>14446.18648301794</v>
       </c>
       <c r="H135" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="I135" t="n">
-        <v>14041987</v>
+        <v>14570129</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1135436</v>
+        <v>1133508</v>
       </c>
       <c r="E136" t="n">
-        <v>4396655</v>
+        <v>4389190</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>411545</v>
+        <v>424326</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>111552611</v>
+        <v>107662446</v>
       </c>
       <c r="E137" t="n">
-        <v>427933770</v>
+        <v>413010474</v>
       </c>
       <c r="F137" t="n">
-        <v>147092.0308754185</v>
+        <v>163496.2103869071</v>
       </c>
       <c r="G137" t="n">
-        <v>234316.9117171464</v>
+        <v>180680.4953325167</v>
       </c>
       <c r="H137" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I137" t="n">
-        <v>18143989</v>
+        <v>18557447</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3320783</v>
+        <v>3212789</v>
       </c>
       <c r="E138" t="n">
-        <v>31464906</v>
+        <v>30441649</v>
       </c>
       <c r="F138" t="n">
-        <v>2982.016426038437</v>
+        <v>201.0285873239771</v>
       </c>
       <c r="G138" t="n">
-        <v>4913.242491418761</v>
+        <v>142.729205737843</v>
       </c>
       <c r="H138" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="I138" t="n">
-        <v>219951</v>
+        <v>205167</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>23613545</v>
+        <v>22702963</v>
       </c>
       <c r="E139" t="n">
-        <v>23613545</v>
+        <v>22702963</v>
       </c>
       <c r="F139" t="n">
-        <v>2444.557438015729</v>
+        <v>1984.806241767491</v>
       </c>
       <c r="G139" t="n">
-        <v>839.3927950953841</v>
+        <v>571.5458355417292</v>
       </c>
       <c r="H139" t="n">
-        <v>1.22</v>
+        <v>2.18</v>
       </c>
       <c r="I139" t="n">
-        <v>506307</v>
+        <v>526792</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>495085585</v>
+        <v>495016016</v>
       </c>
       <c r="E140" t="n">
-        <v>495085585</v>
+        <v>495016016</v>
       </c>
       <c r="F140" t="n">
-        <v>960988.4804174227</v>
+        <v>951642.3415321386</v>
       </c>
       <c r="G140" t="n">
-        <v>1040438.625856716</v>
+        <v>1062733.92882674</v>
       </c>
       <c r="H140" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>31001271</v>
+        <v>31261589</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31562715</v>
+        <v>30255677</v>
       </c>
       <c r="F141" t="n">
-        <v>67696.16520853229</v>
+        <v>76673.69426538193</v>
       </c>
       <c r="G141" t="n">
-        <v>59513.60031617683</v>
+        <v>67369.34229054402</v>
       </c>
       <c r="H141" t="n">
-        <v>0.22</v>
+        <v>0.46</v>
       </c>
       <c r="I141" t="n">
-        <v>7382123</v>
+        <v>6474925</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>794463</v>
+        <v>743554</v>
       </c>
       <c r="E142" t="n">
-        <v>12671410</v>
+        <v>11859417</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>87.00180570417942</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>7.225479571429982</v>
       </c>
       <c r="H142" t="n">
-        <v>4.95</v>
+        <v>3.43</v>
       </c>
       <c r="I142" t="n">
-        <v>71931</v>
+        <v>70644</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2641557597</v>
+        <v>2624150695</v>
       </c>
       <c r="E143" t="n">
-        <v>2804646827</v>
+        <v>2786165227</v>
       </c>
       <c r="F143" t="n">
-        <v>2968.289619144028</v>
+        <v>2631.994995215659</v>
       </c>
       <c r="G143" t="n">
-        <v>24624.65112395601</v>
+        <v>25610.39443859831</v>
       </c>
       <c r="H143" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I143" t="n">
-        <v>36522717</v>
+        <v>37066187</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1660432</v>
+        <v>1649557</v>
       </c>
       <c r="E144" t="n">
-        <v>1666293</v>
+        <v>1655379</v>
       </c>
       <c r="F144" t="n">
-        <v>439.9294189933059</v>
+        <v>1296.538889730775</v>
       </c>
       <c r="G144" t="n">
-        <v>607.017163977865</v>
+        <v>881.3035723218899</v>
       </c>
       <c r="H144" t="n">
-        <v>1.77</v>
+        <v>1.39</v>
       </c>
       <c r="I144" t="n">
-        <v>396283</v>
+        <v>390882</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60688862</v>
+        <v>60600808</v>
       </c>
       <c r="E145" t="n">
-        <v>148865665</v>
+        <v>148649674</v>
       </c>
       <c r="F145" t="n">
-        <v>6867.378806816545</v>
+        <v>3403.169098061012</v>
       </c>
       <c r="G145" t="n">
-        <v>5020.112628384181</v>
+        <v>5237.914512289972</v>
       </c>
       <c r="H145" t="n">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="I145" t="n">
-        <v>22458222</v>
+        <v>22519206</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>677348179</v>
+        <v>663256379</v>
       </c>
       <c r="E146" t="n">
-        <v>1044530695</v>
+        <v>1022799897</v>
       </c>
       <c r="F146" t="n">
-        <v>143844.9054309691</v>
+        <v>140856.0626142042</v>
       </c>
       <c r="G146" t="n">
-        <v>179632.7167103692</v>
+        <v>164534.8119481789</v>
       </c>
       <c r="H146" t="n">
         <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>189170468</v>
+        <v>160313188</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23434644</v>
+        <v>23465744</v>
       </c>
       <c r="E147" t="n">
-        <v>23434644</v>
+        <v>23465744</v>
       </c>
       <c r="F147" t="n">
-        <v>5013.834075557465</v>
+        <v>6187.562672901548</v>
       </c>
       <c r="G147" t="n">
-        <v>7261.242252697235</v>
+        <v>2296.695325974296</v>
       </c>
       <c r="H147" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="I147" t="n">
-        <v>5650239</v>
+        <v>5925468</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3844136</v>
+        <v>3839030</v>
       </c>
       <c r="E148" t="n">
-        <v>8387855</v>
+        <v>8376714</v>
       </c>
       <c r="F148" t="n">
-        <v>5676.042374502325</v>
+        <v>5640.705082801397</v>
       </c>
       <c r="G148" t="n">
-        <v>5770.430877395032</v>
+        <v>6002.288973007958</v>
       </c>
       <c r="H148" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>1038557</v>
+        <v>1021530</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9352838</v>
+        <v>9352921</v>
       </c>
       <c r="E149" t="n">
-        <v>9352838</v>
+        <v>9352921</v>
       </c>
       <c r="F149" t="n">
-        <v>98439.79147321307</v>
+        <v>90350.21341620277</v>
       </c>
       <c r="G149" t="n">
-        <v>84946.07184932435</v>
+        <v>78081.83463328581</v>
       </c>
       <c r="H149" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>3439020</v>
+        <v>3362210</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>485618026</v>
+        <v>481785813</v>
       </c>
       <c r="E150" t="n">
-        <v>1691253536</v>
+        <v>1677907156</v>
       </c>
       <c r="F150" t="n">
-        <v>554390.36533122</v>
+        <v>761237.1141739329</v>
       </c>
       <c r="G150" t="n">
-        <v>852155.5377922404</v>
+        <v>694804.0983732663</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>30400829</v>
+        <v>30870208</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48061202</v>
+        <v>48074526</v>
       </c>
       <c r="E151" t="n">
-        <v>118615430</v>
+        <v>118648321</v>
       </c>
       <c r="F151" t="n">
-        <v>8531.646247737401</v>
+        <v>8531.068965303153</v>
       </c>
       <c r="G151" t="n">
-        <v>8524.186518828315</v>
+        <v>8373.38833390491</v>
       </c>
       <c r="H151" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="I151" t="n">
-        <v>57349</v>
+        <v>51577</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7653457</v>
+        <v>7508449</v>
       </c>
       <c r="E152" t="n">
-        <v>19882858</v>
+        <v>19506143</v>
       </c>
       <c r="F152" t="n">
-        <v>11.14128277355243</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>3057.346372595387</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>2.02</v>
+        <v>5.61</v>
       </c>
       <c r="I152" t="n">
-        <v>682881</v>
+        <v>681395</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19237017394</v>
+        <v>19255968546</v>
       </c>
       <c r="F153" t="n">
-        <v>52430.7149500361</v>
+        <v>52435.86820424256</v>
       </c>
       <c r="G153" t="n">
-        <v>49986.41387249836</v>
+        <v>49990.48802984255</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>49475017</v>
+        <v>49113581</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2673201</v>
+        <v>2647681</v>
       </c>
       <c r="E154" t="n">
-        <v>10692802</v>
+        <v>10590725</v>
       </c>
       <c r="F154" t="n">
-        <v>14424.37483613744</v>
+        <v>27603.49910089031</v>
       </c>
       <c r="G154" t="n">
-        <v>5951.081015073441</v>
+        <v>2967.618686018077</v>
       </c>
       <c r="H154" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I154" t="n">
-        <v>5092273</v>
+        <v>4933951</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>212854299</v>
+        <v>211101955</v>
       </c>
       <c r="E155" t="n">
-        <v>654446866</v>
+        <v>649059069</v>
       </c>
       <c r="F155" t="n">
-        <v>166833.1193167953</v>
+        <v>171311.7986457934</v>
       </c>
       <c r="G155" t="n">
-        <v>161223.020235448</v>
+        <v>192122.8674565153</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>10977657</v>
+        <v>11171393</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>402883705</v>
+        <v>400385178</v>
       </c>
       <c r="E156" t="n">
-        <v>2302192599</v>
+        <v>2287915304</v>
       </c>
       <c r="F156" t="n">
-        <v>276990.1481968116</v>
+        <v>148499.0455651104</v>
       </c>
       <c r="G156" t="n">
-        <v>229286.1215659534</v>
+        <v>275174.1905218539</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>39082990</v>
+        <v>37887527</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4126548</v>
+        <v>4091066</v>
       </c>
       <c r="F2" t="n">
-        <v>1149.995362299555</v>
+        <v>1097.587578204811</v>
       </c>
       <c r="G2" t="n">
-        <v>1062.648299034833</v>
+        <v>585.6383303005312</v>
       </c>
       <c r="H2" t="n">
-        <v>2.15</v>
+        <v>1.61</v>
       </c>
       <c r="I2" t="n">
-        <v>70222</v>
+        <v>65715</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>607549787</v>
+        <v>612281908</v>
       </c>
       <c r="E3" t="n">
-        <v>1178776997</v>
+        <v>1187976556</v>
       </c>
       <c r="F3" t="n">
-        <v>88399.88465618147</v>
+        <v>74500.73818810243</v>
       </c>
       <c r="G3" t="n">
-        <v>65699.99517771851</v>
+        <v>68037.3987035195</v>
       </c>
       <c r="H3" t="n">
         <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>22015210</v>
+        <v>22723499</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243754382</v>
+        <v>246021739</v>
       </c>
       <c r="E4" t="n">
-        <v>1528549467</v>
+        <v>1542767746</v>
       </c>
       <c r="F4" t="n">
-        <v>309765.3125778327</v>
+        <v>321097.5293799001</v>
       </c>
       <c r="G4" t="n">
-        <v>236222.5133524679</v>
+        <v>225078.0932910588</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15614091</v>
+        <v>15778677</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140290115</v>
+        <v>141395497</v>
       </c>
       <c r="E5" t="n">
-        <v>155463856</v>
+        <v>156688795</v>
       </c>
       <c r="F5" t="n">
-        <v>8970.622624561825</v>
+        <v>8882.33377447943</v>
       </c>
       <c r="G5" t="n">
-        <v>622.8698643277853</v>
+        <v>1618.029341792929</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I5" t="n">
-        <v>31744350</v>
+        <v>31985402</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49545404</v>
+        <v>49544070</v>
       </c>
       <c r="E6" t="n">
-        <v>61980030</v>
+        <v>61978362</v>
       </c>
       <c r="F6" t="n">
-        <v>5598.89193328165</v>
+        <v>5373.330742008367</v>
       </c>
       <c r="G6" t="n">
-        <v>3572.269533606741</v>
+        <v>5498.827892878355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="I6" t="n">
-        <v>616518</v>
+        <v>610694</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68815121</v>
+        <v>68720025</v>
       </c>
       <c r="E7" t="n">
-        <v>137079525</v>
+        <v>136890094</v>
       </c>
       <c r="F7" t="n">
-        <v>10035.29535283671</v>
+        <v>9658.828625746262</v>
       </c>
       <c r="G7" t="n">
-        <v>12677.93565167108</v>
+        <v>11732.17741364517</v>
       </c>
       <c r="H7" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="I7" t="n">
-        <v>1740155</v>
+        <v>1696407</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39536848</v>
+        <v>39622420</v>
       </c>
       <c r="E8" t="n">
-        <v>44247428</v>
+        <v>44343195</v>
       </c>
       <c r="F8" t="n">
-        <v>6500.25391731982</v>
+        <v>6529.724733477246</v>
       </c>
       <c r="G8" t="n">
-        <v>6364.323314980609</v>
+        <v>6545.740602526924</v>
       </c>
       <c r="H8" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I8" t="n">
-        <v>236017</v>
+        <v>236323</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14242391</v>
+        <v>14332967</v>
       </c>
       <c r="E9" t="n">
-        <v>41971405</v>
+        <v>42238327</v>
       </c>
       <c r="F9" t="n">
-        <v>5010.538089951357</v>
+        <v>5010.63239423404</v>
       </c>
       <c r="G9" t="n">
-        <v>4749.15452292274</v>
+        <v>4631.949037700456</v>
       </c>
       <c r="H9" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="I9" t="n">
-        <v>818099</v>
+        <v>819949</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7622070</v>
+        <v>7652573</v>
       </c>
       <c r="E10" t="n">
-        <v>32770842</v>
+        <v>32901987</v>
       </c>
       <c r="F10" t="n">
-        <v>1617.833736830314</v>
+        <v>1624.02306239474</v>
       </c>
       <c r="G10" t="n">
-        <v>1629.318821967752</v>
+        <v>2038.708551957782</v>
       </c>
       <c r="H10" t="n">
-        <v>2.22</v>
+        <v>1.12</v>
       </c>
       <c r="I10" t="n">
-        <v>943491</v>
+        <v>860210</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>545890428</v>
+        <v>548755582</v>
       </c>
       <c r="E11" t="n">
-        <v>682827791</v>
+        <v>686411673</v>
       </c>
       <c r="F11" t="n">
-        <v>309282.7725920182</v>
+        <v>269633.1873119743</v>
       </c>
       <c r="G11" t="n">
-        <v>280870.5147535072</v>
+        <v>307320.1263751906</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>61170935</v>
+        <v>59189731</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4683938</v>
+        <v>4707764</v>
       </c>
       <c r="E12" t="n">
-        <v>28770904</v>
+        <v>28917253</v>
       </c>
       <c r="F12" t="n">
-        <v>8912.699785062707</v>
+        <v>12643.06224186119</v>
       </c>
       <c r="G12" t="n">
-        <v>7981.42516051799</v>
+        <v>7630.559303815976</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>492131</v>
+        <v>481124</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22648055</v>
+        <v>22765311</v>
       </c>
       <c r="E13" t="n">
-        <v>22690460</v>
+        <v>22807936</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>842723</v>
+        <v>845522</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82324462</v>
+        <v>83001405</v>
       </c>
       <c r="E14" t="n">
-        <v>242303293</v>
+        <v>244295719</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>398645</v>
+        <v>406039</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>466473491</v>
+        <v>468572439</v>
       </c>
       <c r="E15" t="n">
-        <v>466473491</v>
+        <v>468572443</v>
       </c>
       <c r="F15" t="n">
-        <v>12057.75804095049</v>
+        <v>10435.4552616266</v>
       </c>
       <c r="G15" t="n">
-        <v>23229.57814545516</v>
+        <v>59961.99523316965</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>54118130</v>
+        <v>55707582</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4693889</v>
+        <v>4697666</v>
       </c>
       <c r="E16" t="n">
-        <v>4693889</v>
+        <v>4697666</v>
       </c>
       <c r="F16" t="n">
-        <v>315.1935159711216</v>
+        <v>216.0491643932815</v>
       </c>
       <c r="G16" t="n">
-        <v>1383.596152020101</v>
+        <v>1293.098385002764</v>
       </c>
       <c r="H16" t="n">
-        <v>0.64</v>
+        <v>1.46</v>
       </c>
       <c r="I16" t="n">
-        <v>1936256</v>
+        <v>1957845</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3509151</v>
+        <v>3408191</v>
       </c>
       <c r="E17" t="n">
-        <v>3509151</v>
+        <v>3408191</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>504750</v>
+        <v>500732</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167395454</v>
+        <v>167134152</v>
       </c>
       <c r="E18" t="n">
-        <v>207242543</v>
+        <v>206919040</v>
       </c>
       <c r="F18" t="n">
-        <v>9705.090928561531</v>
+        <v>9019.095679447079</v>
       </c>
       <c r="G18" t="n">
-        <v>9362.362865146226</v>
+        <v>8129.156543761747</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="I18" t="n">
-        <v>383180</v>
+        <v>384170</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7128213</v>
+        <v>6973975</v>
       </c>
       <c r="E19" t="n">
-        <v>9817371</v>
+        <v>9604945</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1060536</v>
+        <v>1049004</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>920440</v>
+        <v>920556</v>
       </c>
       <c r="E20" t="n">
-        <v>6443082</v>
+        <v>6443895</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>581569</v>
+        <v>535413</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>107263362</v>
+        <v>107995824</v>
       </c>
       <c r="E21" t="n">
-        <v>417711945</v>
+        <v>420550196</v>
       </c>
       <c r="F21" t="n">
-        <v>33257.31091676113</v>
+        <v>32532.13218222064</v>
       </c>
       <c r="G21" t="n">
-        <v>79631.24032339531</v>
+        <v>80546.01242565126</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>6559956</v>
+        <v>6575269</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1690884</v>
+        <v>1690043</v>
       </c>
       <c r="E22" t="n">
-        <v>12179295</v>
+        <v>12173238</v>
       </c>
       <c r="F22" t="n">
-        <v>6135.177733922888</v>
+        <v>2999.139647252253</v>
       </c>
       <c r="G22" t="n">
-        <v>3024.823919401355</v>
+        <v>2955.453477930371</v>
       </c>
       <c r="H22" t="n">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="I22" t="n">
-        <v>184852</v>
+        <v>174913</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>134542892</v>
+        <v>135421734</v>
       </c>
       <c r="E23" t="n">
-        <v>134542892</v>
+        <v>135421734</v>
       </c>
       <c r="F23" t="n">
-        <v>932826.7282595208</v>
+        <v>928728.6819834335</v>
       </c>
       <c r="G23" t="n">
-        <v>1530272.367966338</v>
+        <v>1407304.655604533</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>66572081</v>
+        <v>67159343</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64425180</v>
+        <v>65071347</v>
       </c>
       <c r="E24" t="n">
-        <v>330385537</v>
+        <v>333699215</v>
       </c>
       <c r="F24" t="n">
-        <v>89960.11896189938</v>
+        <v>82339.43570198068</v>
       </c>
       <c r="G24" t="n">
-        <v>144560.0552054081</v>
+        <v>172819.475607879</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>16774534</v>
+        <v>17021805</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>251194359</v>
+        <v>254851429</v>
       </c>
       <c r="E25" t="n">
-        <v>251194359</v>
+        <v>254851429</v>
       </c>
       <c r="F25" t="n">
-        <v>286442.8266778649</v>
+        <v>339281.149879162</v>
       </c>
       <c r="G25" t="n">
-        <v>476692.1848748854</v>
+        <v>449569.2726526679</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>14382393</v>
+        <v>14407252</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1120401</v>
+        <v>1118792</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>190039</v>
+        <v>191172</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3963476</v>
+        <v>4005074</v>
       </c>
       <c r="E28" t="n">
-        <v>3964170</v>
+        <v>4005898</v>
       </c>
       <c r="F28" t="n">
-        <v>410.5486029512887</v>
+        <v>789.3224520970966</v>
       </c>
       <c r="G28" t="n">
-        <v>3774.664805171617</v>
+        <v>3596.21844930976</v>
       </c>
       <c r="H28" t="n">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="I28" t="n">
-        <v>272220</v>
+        <v>276598</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6382360</v>
+        <v>6941435</v>
       </c>
       <c r="E29" t="n">
-        <v>15502260</v>
+        <v>16860210</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>432020</v>
+        <v>436642</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99800544</v>
+        <v>100680757</v>
       </c>
       <c r="E30" t="n">
-        <v>124439580</v>
+        <v>125537102</v>
       </c>
       <c r="F30" t="n">
-        <v>108953.2356183502</v>
+        <v>95938.96328919186</v>
       </c>
       <c r="G30" t="n">
-        <v>104516.868326413</v>
+        <v>109582.5513809156</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12366204</v>
+        <v>12327376</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1123634</v>
+        <v>1123440</v>
       </c>
       <c r="E31" t="n">
-        <v>12211238</v>
+        <v>12209127</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>25868</v>
+        <v>28572</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>75649656</v>
+        <v>75224473</v>
       </c>
       <c r="E32" t="n">
-        <v>211698025</v>
+        <v>210576789</v>
       </c>
       <c r="F32" t="n">
-        <v>63792.67822030886</v>
+        <v>48201.92477507189</v>
       </c>
       <c r="G32" t="n">
-        <v>71178.18296956662</v>
+        <v>62111.01619882486</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>29285307</v>
+        <v>30807444</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4434108</v>
+        <v>4423604</v>
       </c>
       <c r="E33" t="n">
-        <v>8744433</v>
+        <v>8723720</v>
       </c>
       <c r="F33" t="n">
-        <v>7640.334276652837</v>
+        <v>7303.74903139236</v>
       </c>
       <c r="G33" t="n">
-        <v>6541.013963605427</v>
+        <v>7519.609602478519</v>
       </c>
       <c r="H33" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="I33" t="n">
-        <v>1698661</v>
+        <v>1692920</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37559232</v>
+        <v>37474358</v>
       </c>
       <c r="F34" t="n">
-        <v>900.5582104468103</v>
+        <v>906.7295413774108</v>
       </c>
       <c r="G34" t="n">
-        <v>692.1207034335113</v>
+        <v>712.0072778040595</v>
       </c>
       <c r="H34" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I34" t="n">
-        <v>66416</v>
+        <v>67702</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7536531</v>
+        <v>7548791</v>
       </c>
       <c r="E35" t="n">
-        <v>17750028</v>
+        <v>17778904</v>
       </c>
       <c r="F35" t="n">
-        <v>3404.439252775365</v>
+        <v>3406.04188371505</v>
       </c>
       <c r="G35" t="n">
-        <v>2622.81446873947</v>
+        <v>2823.095482344076</v>
       </c>
       <c r="H35" t="n">
         <v>1.22</v>
       </c>
       <c r="I35" t="n">
-        <v>28034</v>
+        <v>28173</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23452482</v>
+        <v>23308272</v>
       </c>
       <c r="F36" t="n">
-        <v>155.4293949839795</v>
+        <v>191.4077939328433</v>
       </c>
       <c r="G36" t="n">
-        <v>5178.152620677125</v>
+        <v>5051.577553008864</v>
       </c>
       <c r="H36" t="n">
-        <v>1.11</v>
+        <v>1.46</v>
       </c>
       <c r="I36" t="n">
-        <v>125350</v>
+        <v>124542</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>71900741</v>
+        <v>72858715</v>
       </c>
       <c r="E37" t="n">
-        <v>149949558</v>
+        <v>151947419</v>
       </c>
       <c r="F37" t="n">
-        <v>57326.14739478116</v>
+        <v>52460.72356366515</v>
       </c>
       <c r="G37" t="n">
-        <v>117367.1836295978</v>
+        <v>118524.9730925713</v>
       </c>
       <c r="H37" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I37" t="n">
-        <v>14061446</v>
+        <v>13990635</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>281281577</v>
+        <v>281724928</v>
       </c>
       <c r="E38" t="n">
-        <v>281281577</v>
+        <v>281724928</v>
       </c>
       <c r="F38" t="n">
-        <v>40807.62536206336</v>
+        <v>30940.75770638859</v>
       </c>
       <c r="G38" t="n">
-        <v>23572.19965680015</v>
+        <v>28816.6805202852</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>16697056</v>
+        <v>16627989</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>196114298</v>
+        <v>197646611</v>
       </c>
       <c r="E39" t="n">
-        <v>681318796</v>
+        <v>686642190</v>
       </c>
       <c r="F39" t="n">
-        <v>127974.6552296108</v>
+        <v>166363.7444282413</v>
       </c>
       <c r="G39" t="n">
-        <v>340563.1000017114</v>
+        <v>291689.8572113154</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I39" t="n">
-        <v>26048343</v>
+        <v>25893287</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4145190</v>
+        <v>4351073</v>
       </c>
       <c r="E40" t="n">
-        <v>4145190</v>
+        <v>4351067</v>
       </c>
       <c r="F40" t="n">
-        <v>2499.444661360247</v>
+        <v>890.9246665508406</v>
       </c>
       <c r="G40" t="n">
-        <v>627.2593771266278</v>
+        <v>2185.054308035091</v>
       </c>
       <c r="H40" t="n">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
       <c r="I40" t="n">
-        <v>4193347</v>
+        <v>4093301</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>115215393</v>
+        <v>114869477</v>
       </c>
       <c r="E41" t="n">
-        <v>490368026</v>
+        <v>488865888</v>
       </c>
       <c r="F41" t="n">
-        <v>5689.800934075313</v>
+        <v>4728.805333544699</v>
       </c>
       <c r="G41" t="n">
-        <v>6250.109642414479</v>
+        <v>6567.733547080037</v>
       </c>
       <c r="H41" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I41" t="n">
-        <v>11427971</v>
+        <v>11700613</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>532290</v>
+        <v>530177</v>
       </c>
       <c r="E42" t="n">
-        <v>6456163</v>
+        <v>6430531</v>
       </c>
       <c r="F42" t="n">
-        <v>772.3235948977978</v>
+        <v>792.2893624108997</v>
       </c>
       <c r="G42" t="n">
-        <v>1474.692837438765</v>
+        <v>1066.077931723234</v>
       </c>
       <c r="H42" t="n">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>2925172</v>
+        <v>2908596</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1275163528</v>
+        <v>1294522002</v>
       </c>
       <c r="E43" t="n">
-        <v>6114670266</v>
+        <v>6207498112</v>
       </c>
       <c r="F43" t="n">
-        <v>53354.97931124382</v>
+        <v>35045.84644864505</v>
       </c>
       <c r="G43" t="n">
-        <v>66513.65621322322</v>
+        <v>68137.67185051103</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>196660542</v>
+        <v>200288236</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6046479153</v>
+        <v>6049638897</v>
       </c>
       <c r="E44" t="n">
-        <v>6046479153</v>
+        <v>6049638897</v>
       </c>
       <c r="F44" t="n">
-        <v>264289.467685701</v>
+        <v>260848.1088349222</v>
       </c>
       <c r="G44" t="n">
-        <v>263619.1555779339</v>
+        <v>259594.4769605888</v>
       </c>
       <c r="H44" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I44" t="n">
-        <v>115783191</v>
+        <v>114630433</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>268120972</v>
+        <v>271796284</v>
       </c>
       <c r="E45" t="n">
-        <v>1157358961</v>
+        <v>1173223645</v>
       </c>
       <c r="F45" t="n">
-        <v>97758.44800583729</v>
+        <v>101951.3767085228</v>
       </c>
       <c r="G45" t="n">
-        <v>93568.54044682867</v>
+        <v>87322.28403360104</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I45" t="n">
-        <v>111008984</v>
+        <v>111961341</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113432245</v>
+        <v>113616413</v>
       </c>
       <c r="E46" t="n">
-        <v>113432245</v>
+        <v>113616413</v>
       </c>
       <c r="F46" t="n">
-        <v>36877.58203433429</v>
+        <v>37133.89034089069</v>
       </c>
       <c r="G46" t="n">
-        <v>35888.49397884684</v>
+        <v>39866.19155320327</v>
       </c>
       <c r="H46" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="I46" t="n">
-        <v>6002746</v>
+        <v>6025190</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2047329802</v>
+        <v>2053044405</v>
       </c>
       <c r="E47" t="n">
-        <v>2047329802</v>
+        <v>2053044405</v>
       </c>
       <c r="F47" t="n">
-        <v>219457.8502826364</v>
+        <v>220212.5146254059</v>
       </c>
       <c r="G47" t="n">
-        <v>201689.7627108394</v>
+        <v>201473.1462492307</v>
       </c>
       <c r="H47" t="n">
         <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>4672617964</v>
+        <v>4787415600</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9876813</v>
+        <v>9883309</v>
       </c>
       <c r="F48" t="n">
-        <v>7531.091176748948</v>
+        <v>7572.052141477145</v>
       </c>
       <c r="G48" t="n">
-        <v>6097.673410971373</v>
+        <v>5939.748327464724</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>190176</v>
+        <v>183086</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4337543</v>
+        <v>4362241</v>
       </c>
       <c r="E49" t="n">
-        <v>5694628</v>
+        <v>5727054</v>
       </c>
       <c r="F49" t="n">
-        <v>10130.63901137303</v>
+        <v>11046.10568135248</v>
       </c>
       <c r="G49" t="n">
-        <v>16604.77991528798</v>
+        <v>10122.19987510136</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I49" t="n">
-        <v>669579</v>
+        <v>663700</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11720125</v>
+        <v>11725143</v>
       </c>
       <c r="E50" t="n">
-        <v>17234223</v>
+        <v>17241602</v>
       </c>
       <c r="F50" t="n">
-        <v>6349.459444390845</v>
+        <v>6359.06495084121</v>
       </c>
       <c r="G50" t="n">
-        <v>30278.5748868575</v>
+        <v>30258.24210490729</v>
       </c>
       <c r="H50" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I50" t="n">
-        <v>890254</v>
+        <v>944062</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22770101</v>
+        <v>22748141</v>
       </c>
       <c r="E51" t="n">
-        <v>29538030</v>
+        <v>29509542</v>
       </c>
       <c r="F51" t="n">
-        <v>13839.56112697142</v>
+        <v>13446.96418921924</v>
       </c>
       <c r="G51" t="n">
-        <v>10599.92034241618</v>
+        <v>12646.13296397353</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>181747</v>
+        <v>313994</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13651852</v>
+        <v>13786182</v>
       </c>
       <c r="E52" t="n">
-        <v>13651852</v>
+        <v>13786182</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4364283</v>
+        <v>4402099</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99511795</v>
+        <v>99698143</v>
       </c>
       <c r="E53" t="n">
-        <v>123092528</v>
+        <v>123323034</v>
       </c>
       <c r="F53" t="n">
-        <v>604.3628920057176</v>
+        <v>489.7567814683255</v>
       </c>
       <c r="G53" t="n">
-        <v>4251.894182462484</v>
+        <v>3999.631775863767</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="I53" t="n">
-        <v>731036</v>
+        <v>743921</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5414522</v>
+        <v>5338239</v>
       </c>
       <c r="E54" t="n">
-        <v>7575702</v>
+        <v>7468970</v>
       </c>
       <c r="F54" t="n">
-        <v>34.23878529660116</v>
+        <v>71.78707416049718</v>
       </c>
       <c r="G54" t="n">
-        <v>107.0725053535806</v>
+        <v>106.1405691734632</v>
       </c>
       <c r="H54" t="n">
-        <v>2.45</v>
+        <v>3.08</v>
       </c>
       <c r="I54" t="n">
-        <v>104216</v>
+        <v>109935</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14060412</v>
+        <v>14119998</v>
       </c>
       <c r="E55" t="n">
-        <v>68096821</v>
+        <v>68385405</v>
       </c>
       <c r="F55" t="n">
-        <v>25235.16289138093</v>
+        <v>30349.65794095913</v>
       </c>
       <c r="G55" t="n">
-        <v>25069.0629268266</v>
+        <v>28101.61052257761</v>
       </c>
       <c r="H55" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="I55" t="n">
-        <v>3546171</v>
+        <v>3552099</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>57884</v>
+        <v>59658</v>
       </c>
       <c r="E56" t="n">
-        <v>138645</v>
+        <v>142893</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4534.21</v>
+        <v>4555.78</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1864442747</v>
+        <v>1869855799</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>25593792</v>
+        <v>25567597</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11992076</v>
+        <v>12292114</v>
       </c>
       <c r="E58" t="n">
-        <v>17386780</v>
+        <v>17821792</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2361728</v>
+        <v>2215553</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123258469</v>
+        <v>125100253</v>
       </c>
       <c r="E59" t="n">
-        <v>327797262</v>
+        <v>332695358</v>
       </c>
       <c r="F59" t="n">
-        <v>184.402816435412</v>
+        <v>1644.656295535058</v>
       </c>
       <c r="G59" t="n">
-        <v>8446.537540722691</v>
+        <v>7875.417164962063</v>
       </c>
       <c r="H59" t="n">
-        <v>0.18</v>
+        <v>1.11</v>
       </c>
       <c r="I59" t="n">
-        <v>1387558</v>
+        <v>1407592</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31539872</v>
+        <v>31817189</v>
       </c>
       <c r="E60" t="n">
-        <v>98205040</v>
+        <v>99068519</v>
       </c>
       <c r="F60" t="n">
-        <v>4692.166366504494</v>
+        <v>4389.044331443966</v>
       </c>
       <c r="G60" t="n">
-        <v>6061.530186232721</v>
+        <v>5580.742807678588</v>
       </c>
       <c r="H60" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="I60" t="n">
-        <v>12133443</v>
+        <v>12219075</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1926512</v>
+        <v>1933366</v>
       </c>
       <c r="E61" t="n">
-        <v>13814828</v>
+        <v>13863975</v>
       </c>
       <c r="F61" t="n">
-        <v>5152.415577042487</v>
+        <v>5155.29696620526</v>
       </c>
       <c r="G61" t="n">
-        <v>1250.613173311235</v>
+        <v>1250.637002735477</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="I61" t="n">
-        <v>1860788</v>
+        <v>1856101</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>195291880</v>
+        <v>199197380</v>
       </c>
       <c r="E62" t="n">
-        <v>1105862619</v>
+        <v>1127977962</v>
       </c>
       <c r="F62" t="n">
-        <v>744657.2436787696</v>
+        <v>529135.4300601471</v>
       </c>
       <c r="G62" t="n">
-        <v>695850.1231744271</v>
+        <v>623698.7844834216</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>59534235</v>
+        <v>59589818</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>507413</v>
+        <v>503589</v>
       </c>
       <c r="E63" t="n">
-        <v>1707882</v>
+        <v>1695010</v>
       </c>
       <c r="F63" t="n">
-        <v>4641.033995545317</v>
+        <v>4645.768284703428</v>
       </c>
       <c r="G63" t="n">
-        <v>575.6610626720166</v>
+        <v>519.1717480011524</v>
       </c>
       <c r="H63" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="I63" t="n">
-        <v>631184</v>
+        <v>631844</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>342143</v>
+        <v>344608</v>
       </c>
       <c r="E64" t="n">
-        <v>342143</v>
+        <v>344608</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5113.06</v>
+        <v>5131.39</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>137331411</v>
+        <v>138479315</v>
       </c>
       <c r="E65" t="n">
-        <v>1017269713</v>
+        <v>1025772706</v>
       </c>
       <c r="F65" t="n">
-        <v>40075.40758553558</v>
+        <v>39968.44582663657</v>
       </c>
       <c r="G65" t="n">
-        <v>35713.18521960694</v>
+        <v>38116.06988971318</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>12482398</v>
+        <v>12506827</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8199835</v>
+        <v>8232070</v>
       </c>
       <c r="E66" t="n">
-        <v>10985494</v>
+        <v>11028679</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>58444</v>
+        <v>60672</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26364991</v>
+        <v>25982154</v>
       </c>
       <c r="E67" t="n">
-        <v>26364991</v>
+        <v>25982154</v>
       </c>
       <c r="F67" t="n">
-        <v>6049.159978866523</v>
+        <v>7585.953451319506</v>
       </c>
       <c r="G67" t="n">
-        <v>6694.396402246453</v>
+        <v>6487.323443704004</v>
       </c>
       <c r="H67" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="I67" t="n">
-        <v>357468</v>
+        <v>351251</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1613382</v>
+        <v>1633163</v>
       </c>
       <c r="E68" t="n">
-        <v>12565883</v>
+        <v>12719948</v>
       </c>
       <c r="F68" t="n">
-        <v>769.3999581194616</v>
+        <v>934.9317634301684</v>
       </c>
       <c r="G68" t="n">
-        <v>18242.40037634907</v>
+        <v>14251.35972714013</v>
       </c>
       <c r="H68" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I68" t="n">
-        <v>461645</v>
+        <v>517049</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>333844664</v>
+        <v>338250371</v>
       </c>
       <c r="E69" t="n">
-        <v>3003473605</v>
+        <v>3043110076</v>
       </c>
       <c r="F69" t="n">
-        <v>1171370.626387607</v>
+        <v>1279270.44997659</v>
       </c>
       <c r="G69" t="n">
-        <v>1848772.999460589</v>
+        <v>1466161.552339402</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>38119134</v>
+        <v>38454523</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>252877</v>
+        <v>254573</v>
       </c>
       <c r="E70" t="n">
-        <v>2231827</v>
+        <v>2246802</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>86694</v>
+        <v>89983</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1588906</v>
+        <v>1577210</v>
       </c>
       <c r="E71" t="n">
-        <v>13240881</v>
+        <v>13143414</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>49070</v>
+        <v>48129</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8852335</v>
+        <v>8875039</v>
       </c>
       <c r="E72" t="n">
-        <v>41031081</v>
+        <v>41136314</v>
       </c>
       <c r="F72" t="n">
-        <v>6247.680102115868</v>
+        <v>6254.183915692047</v>
       </c>
       <c r="G72" t="n">
-        <v>9958.512320643384</v>
+        <v>6822.128986910739</v>
       </c>
       <c r="H72" t="n">
-        <v>1.1</v>
+        <v>0.87</v>
       </c>
       <c r="I72" t="n">
-        <v>90957</v>
+        <v>95849</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42321340</v>
+        <v>42890312</v>
       </c>
       <c r="E73" t="n">
-        <v>245023069</v>
+        <v>248317186</v>
       </c>
       <c r="F73" t="n">
-        <v>110334.4325169346</v>
+        <v>105806.5899241288</v>
       </c>
       <c r="G73" t="n">
-        <v>185872.1395881207</v>
+        <v>164515.9946057571</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>10785222</v>
+        <v>11126504</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40476813</v>
+        <v>39773653</v>
       </c>
       <c r="E74" t="n">
-        <v>55904243</v>
+        <v>54933078</v>
       </c>
       <c r="F74" t="n">
-        <v>4470.124666462415</v>
+        <v>616.2896092567844</v>
       </c>
       <c r="G74" t="n">
-        <v>4393.481571282642</v>
+        <v>397.4366488526937</v>
       </c>
       <c r="H74" t="n">
-        <v>0.45</v>
+        <v>1.45</v>
       </c>
       <c r="I74" t="n">
-        <v>343773</v>
+        <v>349174</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95185</v>
+        <v>95183</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>940.85</v>
+        <v>940.91</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13538478</v>
+        <v>13702439</v>
       </c>
       <c r="E76" t="n">
-        <v>13584551</v>
+        <v>13749070</v>
       </c>
       <c r="F76" t="n">
-        <v>2129.76646871069</v>
+        <v>3312.796406993344</v>
       </c>
       <c r="G76" t="n">
-        <v>6774.836929665039</v>
+        <v>7178.342046647719</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>1.28</v>
       </c>
       <c r="I76" t="n">
-        <v>5768788</v>
+        <v>5795423</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42881442</v>
+        <v>42891332</v>
       </c>
       <c r="E77" t="n">
-        <v>72802712</v>
+        <v>72819503</v>
       </c>
       <c r="F77" t="n">
-        <v>9247.163261967198</v>
+        <v>9360.964042596443</v>
       </c>
       <c r="G77" t="n">
-        <v>3915.831778468505</v>
+        <v>5048.149259431148</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I77" t="n">
-        <v>1148577</v>
+        <v>1139893</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>25626304</v>
+        <v>26197587</v>
       </c>
       <c r="E78" t="n">
-        <v>76816629</v>
+        <v>78529087</v>
       </c>
       <c r="F78" t="n">
-        <v>75071.07325132166</v>
+        <v>56434.71059158035</v>
       </c>
       <c r="G78" t="n">
-        <v>101111.9289807575</v>
+        <v>68799.76204351119</v>
       </c>
       <c r="H78" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="I78" t="n">
-        <v>2249655</v>
+        <v>2346909</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101122981</v>
+        <v>101435953</v>
       </c>
       <c r="E79" t="n">
-        <v>107502867</v>
+        <v>107835585</v>
       </c>
       <c r="F79" t="n">
-        <v>1537.701539915509</v>
+        <v>2456.233391775012</v>
       </c>
       <c r="G79" t="n">
-        <v>3939.181651037464</v>
+        <v>4238.363546035111</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="I79" t="n">
-        <v>984414</v>
+        <v>942247</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10681375</v>
+        <v>10663922</v>
       </c>
       <c r="E80" t="n">
-        <v>46565529</v>
+        <v>46488641</v>
       </c>
       <c r="F80" t="n">
-        <v>6695.345757573632</v>
+        <v>5787.739270949189</v>
       </c>
       <c r="G80" t="n">
-        <v>5633.466572649292</v>
+        <v>5802.503230318479</v>
       </c>
       <c r="H80" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>111027</v>
+        <v>111023</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15187187</v>
+        <v>15215944</v>
       </c>
       <c r="E81" t="n">
-        <v>93087261</v>
+        <v>93263523</v>
       </c>
       <c r="F81" t="n">
-        <v>4212.543678731047</v>
+        <v>4019.013686399454</v>
       </c>
       <c r="G81" t="n">
-        <v>5984.085390559193</v>
+        <v>6433.958494838805</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="I81" t="n">
-        <v>11683773</v>
+        <v>11872533</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1484598</v>
+        <v>1494830</v>
       </c>
       <c r="E82" t="n">
-        <v>1526358</v>
+        <v>1536878</v>
       </c>
       <c r="F82" t="n">
-        <v>29.00983069752099</v>
+        <v>15.28445529702405</v>
       </c>
       <c r="G82" t="n">
-        <v>196.1903405596437</v>
+        <v>418.0792869876711</v>
       </c>
       <c r="H82" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="I82" t="n">
-        <v>136628</v>
+        <v>139560</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>45861192</v>
+        <v>46340609</v>
       </c>
       <c r="E83" t="n">
-        <v>197565001</v>
+        <v>199630278</v>
       </c>
       <c r="F83" t="n">
-        <v>3354.56084516037</v>
+        <v>3371.326858228044</v>
       </c>
       <c r="G83" t="n">
-        <v>4553.73229408321</v>
+        <v>4483.289053758327</v>
       </c>
       <c r="H83" t="n">
         <v>0.14</v>
       </c>
       <c r="I83" t="n">
-        <v>8561211</v>
+        <v>8303246</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1721233</v>
+        <v>1724858</v>
       </c>
       <c r="E84" t="n">
-        <v>6255006</v>
+        <v>6268069</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>135517</v>
+        <v>135616</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9147791</v>
+        <v>9082616</v>
       </c>
       <c r="E85" t="n">
-        <v>20322523</v>
+        <v>20177730</v>
       </c>
       <c r="F85" t="n">
-        <v>3374.448414437943</v>
+        <v>7626.832025240886</v>
       </c>
       <c r="G85" t="n">
-        <v>5700.53102360611</v>
+        <v>5781.063165144785</v>
       </c>
       <c r="H85" t="n">
-        <v>0.99</v>
+        <v>1.38</v>
       </c>
       <c r="I85" t="n">
-        <v>433937</v>
+        <v>417102</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2450802</v>
+        <v>2450966</v>
       </c>
       <c r="E86" t="n">
-        <v>18443389</v>
+        <v>18444621</v>
       </c>
       <c r="F86" t="n">
-        <v>6321.877043933368</v>
+        <v>6235.656760178908</v>
       </c>
       <c r="G86" t="n">
-        <v>12723.57058433672</v>
+        <v>13078.20482792287</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>163690</v>
+        <v>163461</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20664452</v>
+        <v>21037837</v>
       </c>
       <c r="E87" t="n">
-        <v>82657809</v>
+        <v>84151347</v>
       </c>
       <c r="F87" t="n">
-        <v>27216.73007714429</v>
+        <v>17319.93227383922</v>
       </c>
       <c r="G87" t="n">
-        <v>1392.656969316843</v>
+        <v>3100.885180283797</v>
       </c>
       <c r="H87" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I87" t="n">
-        <v>5773972</v>
+        <v>5813982</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4285116</v>
+        <v>4318083</v>
       </c>
       <c r="E88" t="n">
-        <v>4285116</v>
+        <v>4318083</v>
       </c>
       <c r="F88" t="n">
-        <v>164.0182365262853</v>
+        <v>954.5179006301449</v>
       </c>
       <c r="G88" t="n">
-        <v>1169.519694961948</v>
+        <v>1943.948214914322</v>
       </c>
       <c r="H88" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I88" t="n">
-        <v>2393702</v>
+        <v>2435132</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12703428</v>
+        <v>12754544</v>
       </c>
       <c r="E89" t="n">
-        <v>40190083</v>
+        <v>40351799</v>
       </c>
       <c r="F89" t="n">
-        <v>15266.36662208412</v>
+        <v>16201.67333029082</v>
       </c>
       <c r="G89" t="n">
-        <v>13316.15658508301</v>
+        <v>11933.81953342209</v>
       </c>
       <c r="H89" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I89" t="n">
-        <v>1597303</v>
+        <v>1619289</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26545</v>
+        <v>26561</v>
       </c>
       <c r="E90" t="n">
-        <v>208765</v>
+        <v>208895</v>
       </c>
       <c r="F90" t="n">
-        <v>10828.07096593703</v>
+        <v>6045.863742967616</v>
       </c>
       <c r="G90" t="n">
-        <v>257.6830497320442</v>
+        <v>202.496453027245</v>
       </c>
       <c r="H90" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I90" t="n">
-        <v>126118</v>
+        <v>126841</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7978234</v>
+        <v>8105247</v>
       </c>
       <c r="E91" t="n">
-        <v>7978234</v>
+        <v>8105247</v>
       </c>
       <c r="F91" t="n">
-        <v>3976.00624383956</v>
+        <v>3853.158509158848</v>
       </c>
       <c r="G91" t="n">
-        <v>4164.699319509381</v>
+        <v>2359.654667520348</v>
       </c>
       <c r="H91" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>3783340</v>
+        <v>3810086</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9510426</v>
+        <v>9764009</v>
       </c>
       <c r="E92" t="n">
-        <v>9510426</v>
+        <v>9764009</v>
       </c>
       <c r="F92" t="n">
-        <v>6536.403917197946</v>
+        <v>7537.387248745588</v>
       </c>
       <c r="G92" t="n">
-        <v>1464.929216790931</v>
+        <v>3455.205968690195</v>
       </c>
       <c r="H92" t="n">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I92" t="n">
-        <v>2350339</v>
+        <v>2394975</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>35421715</v>
+        <v>36194388</v>
       </c>
       <c r="E93" t="n">
-        <v>89316559</v>
+        <v>91264871</v>
       </c>
       <c r="F93" t="n">
-        <v>5187.156952387375</v>
+        <v>4967.342705300567</v>
       </c>
       <c r="G93" t="n">
-        <v>5837.671413095618</v>
+        <v>5832.040456126983</v>
       </c>
       <c r="H93" t="n">
-        <v>0.89</v>
+        <v>0.11</v>
       </c>
       <c r="I93" t="n">
-        <v>2748501</v>
+        <v>2816163</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>294135899</v>
+        <v>296131962</v>
       </c>
       <c r="E94" t="n">
-        <v>298732040</v>
+        <v>300760439</v>
       </c>
       <c r="F94" t="n">
-        <v>24056.63673183515</v>
+        <v>46550.64972377005</v>
       </c>
       <c r="G94" t="n">
-        <v>36000.87110533788</v>
+        <v>43322.633737753</v>
       </c>
       <c r="H94" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I94" t="n">
-        <v>11617807</v>
+        <v>11677714</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>952.7021739387143</v>
+        <v>3404.35600748069</v>
       </c>
       <c r="G95" t="n">
-        <v>6708.188040223313</v>
+        <v>6477.574836829972</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I95" t="n">
-        <v>225987</v>
+        <v>225567</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>72216961</v>
+        <v>75101489</v>
       </c>
       <c r="E96" t="n">
-        <v>72216961</v>
+        <v>75101489</v>
       </c>
       <c r="F96" t="n">
-        <v>11758.57783569737</v>
+        <v>9737.682108757725</v>
       </c>
       <c r="G96" t="n">
-        <v>3532.85677004049</v>
+        <v>2720.344289273178</v>
       </c>
       <c r="H96" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="I96" t="n">
-        <v>3713607</v>
+        <v>4440091</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>299245420</v>
+        <v>301107177</v>
       </c>
       <c r="E97" t="n">
-        <v>299245420</v>
+        <v>301107177</v>
       </c>
       <c r="F97" t="n">
-        <v>284569.227566072</v>
+        <v>293798.5751666619</v>
       </c>
       <c r="G97" t="n">
-        <v>448763.1682955676</v>
+        <v>440456.2655396409</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>52475961</v>
+        <v>52257432</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4081744</v>
+        <v>4110392</v>
       </c>
       <c r="E98" t="n">
-        <v>27890270</v>
+        <v>28086021</v>
       </c>
       <c r="F98" t="n">
-        <v>4532.080787681746</v>
+        <v>4604.606171665423</v>
       </c>
       <c r="G98" t="n">
-        <v>4427.238886531951</v>
+        <v>6923.840490279504</v>
       </c>
       <c r="H98" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="I98" t="n">
-        <v>2542851</v>
+        <v>2540396</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>87309809</v>
+        <v>89121237</v>
       </c>
       <c r="E99" t="n">
-        <v>503116776</v>
+        <v>513555006</v>
       </c>
       <c r="F99" t="n">
-        <v>151134.58090344</v>
+        <v>126844.9170862783</v>
       </c>
       <c r="G99" t="n">
-        <v>156227.3198796384</v>
+        <v>137668.9542667822</v>
       </c>
       <c r="H99" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I99" t="n">
-        <v>15619467</v>
+        <v>15898195</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>106954154</v>
+        <v>107856512</v>
       </c>
       <c r="E100" t="n">
-        <v>263149006</v>
+        <v>265369158</v>
       </c>
       <c r="F100" t="n">
-        <v>24855.63147941096</v>
+        <v>24609.11422666041</v>
       </c>
       <c r="G100" t="n">
-        <v>39683.62566487725</v>
+        <v>27115.32586618522</v>
       </c>
       <c r="H100" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="I100" t="n">
-        <v>2410686</v>
+        <v>2434010</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>244200008</v>
+        <v>247299973</v>
       </c>
       <c r="E101" t="n">
-        <v>244202435</v>
+        <v>247302430</v>
       </c>
       <c r="F101" t="n">
-        <v>4822.176579585092</v>
+        <v>38087.47015815022</v>
       </c>
       <c r="G101" t="n">
-        <v>13546.68219053889</v>
+        <v>4555.55002685645</v>
       </c>
       <c r="H101" t="n">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="I101" t="n">
-        <v>1590357</v>
+        <v>2446059</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30107135</v>
+        <v>30400952</v>
       </c>
       <c r="E102" t="n">
-        <v>134801995</v>
+        <v>136117534</v>
       </c>
       <c r="F102" t="n">
-        <v>110181.1724681929</v>
+        <v>98717.67511752502</v>
       </c>
       <c r="G102" t="n">
-        <v>128589.4997197629</v>
+        <v>128794.9732115633</v>
       </c>
       <c r="H102" t="n">
         <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>9950597</v>
+        <v>9453676</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2946035</v>
+        <v>2973759</v>
       </c>
       <c r="E103" t="n">
-        <v>2946035</v>
+        <v>2973759</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>374963</v>
+        <v>374823</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6028469</v>
+        <v>6064639</v>
       </c>
       <c r="E104" t="n">
-        <v>15821758</v>
+        <v>15916688</v>
       </c>
       <c r="F104" t="n">
-        <v>8799.206711968725</v>
+        <v>9000.189222033894</v>
       </c>
       <c r="G104" t="n">
-        <v>3685.786814654951</v>
+        <v>3543.140443996583</v>
       </c>
       <c r="H104" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="I104" t="n">
-        <v>73868</v>
+        <v>73994</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17683815</v>
+        <v>17367321</v>
       </c>
       <c r="E105" t="n">
-        <v>81625192</v>
+        <v>80164289</v>
       </c>
       <c r="F105" t="n">
-        <v>107549.3340586195</v>
+        <v>53812.2698173416</v>
       </c>
       <c r="G105" t="n">
-        <v>32287.51932180652</v>
+        <v>100196.3325987162</v>
       </c>
       <c r="H105" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="I105" t="n">
-        <v>1254936</v>
+        <v>1253028</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47276084</v>
+        <v>47710257</v>
       </c>
       <c r="E106" t="n">
-        <v>306572825</v>
+        <v>309388321</v>
       </c>
       <c r="F106" t="n">
-        <v>119082.6184772819</v>
+        <v>113984.5793393318</v>
       </c>
       <c r="G106" t="n">
-        <v>175167.8971136954</v>
+        <v>166196.9047606718</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17214140</v>
+        <v>16897001</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2455081</v>
+        <v>2431730</v>
       </c>
       <c r="E107" t="n">
-        <v>4447842</v>
+        <v>4405536</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>106848</v>
+        <v>105604</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125005363</v>
+        <v>125421942</v>
       </c>
       <c r="E108" t="n">
-        <v>2070191190</v>
+        <v>2077090089</v>
       </c>
       <c r="F108" t="n">
-        <v>452940.8370040953</v>
+        <v>452373.133686178</v>
       </c>
       <c r="G108" t="n">
-        <v>219335.8687851861</v>
+        <v>128480.9421190128</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5177149</v>
+        <v>5148995</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23369213</v>
+        <v>23531725</v>
       </c>
       <c r="E109" t="n">
-        <v>139822700</v>
+        <v>140795039</v>
       </c>
       <c r="F109" t="n">
-        <v>39453.82913463229</v>
+        <v>40852.08829206441</v>
       </c>
       <c r="G109" t="n">
-        <v>37969.91822007842</v>
+        <v>39886.39161440201</v>
       </c>
       <c r="H109" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I109" t="n">
-        <v>13522470</v>
+        <v>13159808</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>994083</v>
+        <v>994060</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>69700</v>
+        <v>70891</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2295593</v>
+        <v>2279018</v>
       </c>
       <c r="F111" t="n">
-        <v>3772.067291319737</v>
+        <v>3848.6643270281</v>
       </c>
       <c r="G111" t="n">
-        <v>159.729984152847</v>
+        <v>326.224559302045</v>
       </c>
       <c r="H111" t="n">
         <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>213870</v>
+        <v>214403</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142234961</v>
+        <v>142292489</v>
       </c>
       <c r="F112" t="n">
-        <v>3148.823040900245</v>
+        <v>3148.9035376201</v>
       </c>
       <c r="G112" t="n">
-        <v>909.6347404871344</v>
+        <v>909.6579944496227</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>66259</v>
+        <v>64523</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6809882</v>
+        <v>6908032</v>
       </c>
       <c r="E113" t="n">
-        <v>35034772</v>
+        <v>35539723</v>
       </c>
       <c r="F113" t="n">
-        <v>899.8368593093876</v>
+        <v>751.776311298609</v>
       </c>
       <c r="G113" t="n">
-        <v>1292.809389297503</v>
+        <v>951.4854402717448</v>
       </c>
       <c r="H113" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I113" t="n">
-        <v>893831</v>
+        <v>915788</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>28873094</v>
+        <v>28892212</v>
       </c>
       <c r="E114" t="n">
-        <v>39681469</v>
+        <v>39707741</v>
       </c>
       <c r="F114" t="n">
-        <v>5421.918900878405</v>
+        <v>3946.641023361606</v>
       </c>
       <c r="G114" t="n">
-        <v>3962.301382109633</v>
+        <v>5639.008058436877</v>
       </c>
       <c r="H114" t="n">
         <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>334056</v>
+        <v>335608</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8067938</v>
+        <v>8068331</v>
       </c>
       <c r="F115" t="n">
-        <v>678.5303049661444</v>
+        <v>656.3387176371202</v>
       </c>
       <c r="G115" t="n">
-        <v>6511.145483721206</v>
+        <v>6517.667002422716</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>710627</v>
+        <v>710474</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3349008</v>
+        <v>3347849</v>
       </c>
       <c r="E116" t="n">
-        <v>4486207</v>
+        <v>4484656</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149757</v>
+        <v>149331</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33802035</v>
+        <v>34231384</v>
       </c>
       <c r="E117" t="n">
-        <v>168687735</v>
+        <v>170830384</v>
       </c>
       <c r="F117" t="n">
-        <v>95126.88991689566</v>
+        <v>74606.49677824111</v>
       </c>
       <c r="G117" t="n">
-        <v>76204.10500169406</v>
+        <v>66565.50772205066</v>
       </c>
       <c r="H117" t="n">
         <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>9573957</v>
+        <v>9797843</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3436934</v>
+        <v>3439242</v>
       </c>
       <c r="E118" t="n">
-        <v>4937484</v>
+        <v>4940800</v>
       </c>
       <c r="F118" t="n">
-        <v>819.1452456035619</v>
+        <v>819.166186286636</v>
       </c>
       <c r="G118" t="n">
-        <v>567.1119383270637</v>
+        <v>567.1264360140513</v>
       </c>
       <c r="H118" t="n">
         <v>0.8</v>
       </c>
       <c r="I118" t="n">
-        <v>181393</v>
+        <v>181396</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>312641955</v>
+        <v>313621187</v>
       </c>
       <c r="E119" t="n">
-        <v>578458914</v>
+        <v>580270716</v>
       </c>
       <c r="F119" t="n">
-        <v>125085.7556104175</v>
+        <v>125191.6603744756</v>
       </c>
       <c r="G119" t="n">
-        <v>146834.5317626519</v>
+        <v>126676.0998444983</v>
       </c>
       <c r="H119" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I119" t="n">
-        <v>12076674</v>
+        <v>12235082</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>72352570</v>
+        <v>71989090</v>
       </c>
       <c r="E120" t="n">
-        <v>690348051</v>
+        <v>686876653</v>
       </c>
       <c r="F120" t="n">
-        <v>2828.179264531649</v>
+        <v>3195.690915919036</v>
       </c>
       <c r="G120" t="n">
-        <v>40603.93439489496</v>
+        <v>41422.15578507722</v>
       </c>
       <c r="H120" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>20500309</v>
+        <v>20936489</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37745033</v>
+        <v>38181148</v>
       </c>
       <c r="E121" t="n">
-        <v>49352305</v>
+        <v>49922519</v>
       </c>
       <c r="F121" t="n">
-        <v>5677.7389951384</v>
+        <v>261.3661114211947</v>
       </c>
       <c r="G121" t="n">
-        <v>509.8305462709708</v>
+        <v>7264.384736644619</v>
       </c>
       <c r="H121" t="n">
-        <v>2.41</v>
+        <v>1.8</v>
       </c>
       <c r="I121" t="n">
-        <v>377581</v>
+        <v>536045</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9464376</v>
+        <v>10061201</v>
       </c>
       <c r="E122" t="n">
-        <v>28224501</v>
+        <v>30000420</v>
       </c>
       <c r="F122" t="n">
-        <v>1662.822685803653</v>
+        <v>4030.016475879602</v>
       </c>
       <c r="G122" t="n">
-        <v>4445.649717687997</v>
+        <v>6316.031079046356</v>
       </c>
       <c r="H122" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="I122" t="n">
-        <v>4824158</v>
+        <v>5248749</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2328812</v>
+        <v>2337415</v>
       </c>
       <c r="E123" t="n">
-        <v>7968843</v>
+        <v>7998283</v>
       </c>
       <c r="F123" t="n">
-        <v>1167.955263964618</v>
+        <v>961.2871003667069</v>
       </c>
       <c r="G123" t="n">
-        <v>792.9517324930688</v>
+        <v>1111.269044499339</v>
       </c>
       <c r="H123" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="I123" t="n">
-        <v>761854</v>
+        <v>745087</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7195603</v>
+        <v>7279259</v>
       </c>
       <c r="E124" t="n">
-        <v>7195614</v>
+        <v>7279270</v>
       </c>
       <c r="F124" t="n">
-        <v>729.7315639212177</v>
+        <v>542.7594744216265</v>
       </c>
       <c r="G124" t="n">
-        <v>225.9661244200324</v>
+        <v>305.4783406467182</v>
       </c>
       <c r="H124" t="n">
-        <v>0.76</v>
+        <v>2.46</v>
       </c>
       <c r="I124" t="n">
-        <v>301998</v>
+        <v>325033</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5848264</v>
+        <v>5860418</v>
       </c>
       <c r="E125" t="n">
-        <v>5848264</v>
+        <v>5860418</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>391332</v>
+        <v>382381</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6179699</v>
+        <v>6196235</v>
       </c>
       <c r="E126" t="n">
-        <v>22572051</v>
+        <v>22632449</v>
       </c>
       <c r="F126" t="n">
-        <v>1022.35022353595</v>
+        <v>5894.991560949694</v>
       </c>
       <c r="G126" t="n">
-        <v>7828.838412578511</v>
+        <v>2247.005109368759</v>
       </c>
       <c r="H126" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="I126" t="n">
-        <v>446746</v>
+        <v>456753</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44414741</v>
+        <v>44810210</v>
       </c>
       <c r="E127" t="n">
-        <v>44414741</v>
+        <v>44810210</v>
       </c>
       <c r="F127" t="n">
-        <v>62647.8483517612</v>
+        <v>60520.90718735172</v>
       </c>
       <c r="G127" t="n">
-        <v>98987.54301466305</v>
+        <v>85883.92031012537</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>8593064</v>
+        <v>8767025</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>151112431</v>
+        <v>151333693</v>
       </c>
       <c r="F128" t="n">
-        <v>5406.81539040221</v>
+        <v>169.2773636186121</v>
       </c>
       <c r="G128" t="n">
-        <v>490.1052329455924</v>
+        <v>224.3156060733022</v>
       </c>
       <c r="H128" t="n">
-        <v>0.13</v>
+        <v>3.51</v>
       </c>
       <c r="I128" t="n">
-        <v>1044568</v>
+        <v>1013418</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3045421</v>
+        <v>3052824</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73664</v>
+        <v>74083</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20154240</v>
+        <v>20381780</v>
       </c>
       <c r="F130" t="n">
-        <v>792.1834452555188</v>
+        <v>518.7960121501484</v>
       </c>
       <c r="G130" t="n">
-        <v>882.9789897709539</v>
+        <v>1113.410121438453</v>
       </c>
       <c r="H130" t="n">
-        <v>1.23</v>
+        <v>1.03</v>
       </c>
       <c r="I130" t="n">
-        <v>2801522</v>
+        <v>2800548</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1257862</v>
+        <v>1256867</v>
       </c>
       <c r="E131" t="n">
-        <v>3805797</v>
+        <v>3802464</v>
       </c>
       <c r="F131" t="n">
-        <v>806.2856207706116</v>
+        <v>809.5464691623931</v>
       </c>
       <c r="G131" t="n">
-        <v>693.6658648426851</v>
+        <v>695.4870975934775</v>
       </c>
       <c r="H131" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="I131" t="n">
-        <v>22461</v>
+        <v>22456</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>594712736</v>
+        <v>599108149</v>
       </c>
       <c r="E132" t="n">
-        <v>2303234683</v>
+        <v>2320257469</v>
       </c>
       <c r="F132" t="n">
-        <v>450583.8874229307</v>
+        <v>496116.8341326455</v>
       </c>
       <c r="G132" t="n">
-        <v>717591.6602482602</v>
+        <v>655981.5197293856</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>30295634</v>
+        <v>30673618</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3672307</v>
+        <v>3680314</v>
       </c>
       <c r="E133" t="n">
-        <v>6259947</v>
+        <v>6273595</v>
       </c>
       <c r="F133" t="n">
-        <v>5616.012654640955</v>
+        <v>5420.335741320132</v>
       </c>
       <c r="G133" t="n">
-        <v>5595.715023702749</v>
+        <v>5340.987662973869</v>
       </c>
       <c r="H133" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="I133" t="n">
-        <v>909322</v>
+        <v>916937</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>117090272</v>
+        <v>118273350</v>
       </c>
       <c r="E134" t="n">
-        <v>1018027951</v>
+        <v>1028314087</v>
       </c>
       <c r="F134" t="n">
-        <v>117034.1645250772</v>
+        <v>108754.5825837127</v>
       </c>
       <c r="G134" t="n">
-        <v>113545.6219056711</v>
+        <v>104125.3998530279</v>
       </c>
       <c r="H134" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I134" t="n">
-        <v>9699070</v>
+        <v>9642873</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1003202570</v>
+        <v>1013476555</v>
       </c>
       <c r="E135" t="n">
-        <v>1102020773</v>
+        <v>1113306773</v>
       </c>
       <c r="F135" t="n">
-        <v>18024.02612497504</v>
+        <v>12836.90813344293</v>
       </c>
       <c r="G135" t="n">
-        <v>14446.18648301794</v>
+        <v>21001.15557428224</v>
       </c>
       <c r="H135" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="I135" t="n">
-        <v>14570129</v>
+        <v>13446226</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1133508</v>
+        <v>1132084</v>
       </c>
       <c r="E136" t="n">
-        <v>4389190</v>
+        <v>4383677</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>424326</v>
+        <v>429887</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>107662446</v>
+        <v>108402978</v>
       </c>
       <c r="E137" t="n">
-        <v>413010474</v>
+        <v>415851272</v>
       </c>
       <c r="F137" t="n">
-        <v>163496.2103869071</v>
+        <v>165618.7843083804</v>
       </c>
       <c r="G137" t="n">
-        <v>180680.4953325167</v>
+        <v>209867.7846554007</v>
       </c>
       <c r="H137" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I137" t="n">
-        <v>18557447</v>
+        <v>18884868</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3212789</v>
+        <v>3176502</v>
       </c>
       <c r="E138" t="n">
-        <v>30441649</v>
+        <v>30097831</v>
       </c>
       <c r="F138" t="n">
-        <v>201.0285873239771</v>
+        <v>4507.285214630106</v>
       </c>
       <c r="G138" t="n">
-        <v>142.729205737843</v>
+        <v>98.52032506909462</v>
       </c>
       <c r="H138" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="I138" t="n">
-        <v>205167</v>
+        <v>279087</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22702963</v>
+        <v>22708654</v>
       </c>
       <c r="E139" t="n">
-        <v>22702963</v>
+        <v>22708654</v>
       </c>
       <c r="F139" t="n">
-        <v>1984.806241767491</v>
+        <v>4517.707317926443</v>
       </c>
       <c r="G139" t="n">
-        <v>571.5458355417292</v>
+        <v>1582.920267323026</v>
       </c>
       <c r="H139" t="n">
-        <v>2.18</v>
+        <v>2.31</v>
       </c>
       <c r="I139" t="n">
-        <v>526792</v>
+        <v>552358</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>495016016</v>
+        <v>495025008</v>
       </c>
       <c r="E140" t="n">
-        <v>495016016</v>
+        <v>495025008</v>
       </c>
       <c r="F140" t="n">
-        <v>951642.3415321386</v>
+        <v>750706.776538122</v>
       </c>
       <c r="G140" t="n">
-        <v>1062733.92882674</v>
+        <v>831784.8515308165</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>31261589</v>
+        <v>31515937</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>30255677</v>
+        <v>31287735</v>
       </c>
       <c r="F141" t="n">
-        <v>76673.69426538193</v>
+        <v>52558.05003595124</v>
       </c>
       <c r="G141" t="n">
-        <v>67369.34229054402</v>
+        <v>77464.95080747902</v>
       </c>
       <c r="H141" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I141" t="n">
-        <v>6474925</v>
+        <v>6124313</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>743554</v>
+        <v>735181</v>
       </c>
       <c r="E142" t="n">
-        <v>11859417</v>
+        <v>11725880</v>
       </c>
       <c r="F142" t="n">
-        <v>87.00180570417942</v>
+        <v>89.66531117009822</v>
       </c>
       <c r="G142" t="n">
-        <v>7.225479571429982</v>
+        <v>24.24860441461015</v>
       </c>
       <c r="H142" t="n">
-        <v>3.43</v>
+        <v>1.18</v>
       </c>
       <c r="I142" t="n">
-        <v>70644</v>
+        <v>70258</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2624150695</v>
+        <v>2654207006</v>
       </c>
       <c r="E143" t="n">
-        <v>2786165227</v>
+        <v>2818077208</v>
       </c>
       <c r="F143" t="n">
-        <v>2631.994995215659</v>
+        <v>3018.613821853389</v>
       </c>
       <c r="G143" t="n">
-        <v>25610.39443859831</v>
+        <v>26938.08148769147</v>
       </c>
       <c r="H143" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I143" t="n">
-        <v>37066187</v>
+        <v>37230222</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1649557</v>
+        <v>1644824</v>
       </c>
       <c r="E144" t="n">
-        <v>1655379</v>
+        <v>1650630</v>
       </c>
       <c r="F144" t="n">
-        <v>1296.538889730775</v>
+        <v>865.5663390402832</v>
       </c>
       <c r="G144" t="n">
-        <v>881.3035723218899</v>
+        <v>595.2348741801161</v>
       </c>
       <c r="H144" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="I144" t="n">
-        <v>390882</v>
+        <v>392010</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60600808</v>
+        <v>60708602</v>
       </c>
       <c r="E145" t="n">
-        <v>148649674</v>
+        <v>148914086</v>
       </c>
       <c r="F145" t="n">
-        <v>3403.169098061012</v>
+        <v>3187.020727553106</v>
       </c>
       <c r="G145" t="n">
-        <v>5237.914512289972</v>
+        <v>4051.165997131146</v>
       </c>
       <c r="H145" t="n">
         <v>0.45</v>
       </c>
       <c r="I145" t="n">
-        <v>22519206</v>
+        <v>22448760</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>663256379</v>
+        <v>682546292</v>
       </c>
       <c r="E146" t="n">
-        <v>1022799897</v>
+        <v>1052546645</v>
       </c>
       <c r="F146" t="n">
-        <v>140856.0626142042</v>
+        <v>100160.7662139463</v>
       </c>
       <c r="G146" t="n">
-        <v>164534.8119481789</v>
+        <v>144708.6523937173</v>
       </c>
       <c r="H146" t="n">
         <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>160313188</v>
+        <v>178668772</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23465744</v>
+        <v>23477585</v>
       </c>
       <c r="E147" t="n">
-        <v>23465744</v>
+        <v>23477585</v>
       </c>
       <c r="F147" t="n">
-        <v>6187.562672901548</v>
+        <v>3855.246025245219</v>
       </c>
       <c r="G147" t="n">
-        <v>2296.695325974296</v>
+        <v>7565.998121906079</v>
       </c>
       <c r="H147" t="n">
         <v>0.31</v>
       </c>
       <c r="I147" t="n">
-        <v>5925468</v>
+        <v>6016002</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3839030</v>
+        <v>3846462</v>
       </c>
       <c r="E148" t="n">
-        <v>8376714</v>
+        <v>8392930</v>
       </c>
       <c r="F148" t="n">
-        <v>5640.705082801397</v>
+        <v>5601.926739815673</v>
       </c>
       <c r="G148" t="n">
-        <v>6002.288973007958</v>
+        <v>5964.205669148729</v>
       </c>
       <c r="H148" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1021530</v>
+        <v>1007695</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9352921</v>
+        <v>9346379</v>
       </c>
       <c r="E149" t="n">
-        <v>9352921</v>
+        <v>9346379</v>
       </c>
       <c r="F149" t="n">
-        <v>90350.21341620277</v>
+        <v>85924.09590533299</v>
       </c>
       <c r="G149" t="n">
-        <v>78081.83463328581</v>
+        <v>75104.67584038769</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>3362210</v>
+        <v>3353125</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>481785813</v>
+        <v>487600815</v>
       </c>
       <c r="E150" t="n">
-        <v>1677907156</v>
+        <v>1698158962</v>
       </c>
       <c r="F150" t="n">
-        <v>761237.1141739329</v>
+        <v>794226.3691917382</v>
       </c>
       <c r="G150" t="n">
-        <v>694804.0983732663</v>
+        <v>867663.0477651935</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>30870208</v>
+        <v>31071038</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48074526</v>
+        <v>48072995</v>
       </c>
       <c r="E151" t="n">
-        <v>118648321</v>
+        <v>118644548</v>
       </c>
       <c r="F151" t="n">
-        <v>8531.068965303153</v>
+        <v>8326.647609936801</v>
       </c>
       <c r="G151" t="n">
-        <v>8373.38833390491</v>
+        <v>8579.875821402147</v>
       </c>
       <c r="H151" t="n">
         <v>0.5</v>
       </c>
       <c r="I151" t="n">
-        <v>51577</v>
+        <v>51966</v>
       </c>
     </row>
     <row r="152">
@@ -5681,10 +5681,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7508449</v>
+        <v>7476012</v>
       </c>
       <c r="E152" t="n">
-        <v>19506143</v>
+        <v>19421875</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>5.61</v>
       </c>
       <c r="I152" t="n">
-        <v>681395</v>
+        <v>678359</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19255968546</v>
+        <v>19265080492</v>
       </c>
       <c r="F153" t="n">
-        <v>52435.86820424256</v>
+        <v>52437.94560040157</v>
       </c>
       <c r="G153" t="n">
-        <v>49990.48802984255</v>
+        <v>49992.58102151549</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>49113581</v>
+        <v>49022540</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2647681</v>
+        <v>2644713</v>
       </c>
       <c r="E154" t="n">
-        <v>10590725</v>
+        <v>10578852</v>
       </c>
       <c r="F154" t="n">
-        <v>27603.49910089031</v>
+        <v>16326.43771348541</v>
       </c>
       <c r="G154" t="n">
-        <v>2967.618686018077</v>
+        <v>5502.85223064315</v>
       </c>
       <c r="H154" t="n">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="I154" t="n">
-        <v>4933951</v>
+        <v>4936033</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>211101955</v>
+        <v>213226220</v>
       </c>
       <c r="E155" t="n">
-        <v>649059069</v>
+        <v>655590384</v>
       </c>
       <c r="F155" t="n">
-        <v>171311.7986457934</v>
+        <v>152860.992854778</v>
       </c>
       <c r="G155" t="n">
-        <v>192122.8674565153</v>
+        <v>168384.1876699998</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>11171393</v>
+        <v>11064410</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>400385178</v>
+        <v>405536580</v>
       </c>
       <c r="E156" t="n">
-        <v>2287915304</v>
+        <v>2317351884</v>
       </c>
       <c r="F156" t="n">
-        <v>148499.0455651104</v>
+        <v>193095.1308588339</v>
       </c>
       <c r="G156" t="n">
-        <v>275174.1905218539</v>
+        <v>228495.2758109983</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>37887527</v>
+        <v>37149296</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4091066</v>
+        <v>4054076</v>
       </c>
       <c r="F2" t="n">
-        <v>1097.587578204811</v>
+        <v>1113.537241851388</v>
       </c>
       <c r="G2" t="n">
-        <v>585.6383303005312</v>
+        <v>1112.03100176525</v>
       </c>
       <c r="H2" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
-        <v>65715</v>
+        <v>77330</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>612281908</v>
+        <v>605817508</v>
       </c>
       <c r="E3" t="n">
-        <v>1187976556</v>
+        <v>1175454378</v>
       </c>
       <c r="F3" t="n">
-        <v>74500.73818810243</v>
+        <v>75671.05997936342</v>
       </c>
       <c r="G3" t="n">
-        <v>68037.3987035195</v>
+        <v>82854.54782585075</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>22723499</v>
+        <v>22149280</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246021739</v>
+        <v>243167289</v>
       </c>
       <c r="E4" t="n">
-        <v>1542767746</v>
+        <v>1524867892</v>
       </c>
       <c r="F4" t="n">
-        <v>321097.5293799001</v>
+        <v>294799.40171572</v>
       </c>
       <c r="G4" t="n">
-        <v>225078.0932910588</v>
+        <v>268234.1642705232</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>15778677</v>
+        <v>15364754</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141395497</v>
+        <v>138943050</v>
       </c>
       <c r="E5" t="n">
-        <v>156688795</v>
+        <v>153971092</v>
       </c>
       <c r="F5" t="n">
-        <v>8882.33377447943</v>
+        <v>8842.805850250699</v>
       </c>
       <c r="G5" t="n">
-        <v>1618.029341792929</v>
+        <v>4709.033654713887</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>31985402</v>
+        <v>31729384</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49544070</v>
+        <v>49304488</v>
       </c>
       <c r="E6" t="n">
-        <v>61978362</v>
+        <v>61678651</v>
       </c>
       <c r="F6" t="n">
-        <v>5373.330742008367</v>
+        <v>5107.256322890177</v>
       </c>
       <c r="G6" t="n">
-        <v>5498.827892878355</v>
+        <v>4803.97557845702</v>
       </c>
       <c r="H6" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>610694</v>
+        <v>613001</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68720025</v>
+        <v>68554808</v>
       </c>
       <c r="E7" t="n">
-        <v>136890094</v>
+        <v>136560982</v>
       </c>
       <c r="F7" t="n">
-        <v>9658.828625746262</v>
+        <v>10753.50738414153</v>
       </c>
       <c r="G7" t="n">
-        <v>11732.17741364517</v>
+        <v>11277.80181922077</v>
       </c>
       <c r="H7" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1696407</v>
+        <v>1626412</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39622420</v>
+        <v>39648875</v>
       </c>
       <c r="E8" t="n">
-        <v>44343195</v>
+        <v>44372802</v>
       </c>
       <c r="F8" t="n">
-        <v>6529.724733477246</v>
+        <v>6482.687419678326</v>
       </c>
       <c r="G8" t="n">
-        <v>6545.740602526924</v>
+        <v>6545.705011423294</v>
       </c>
       <c r="H8" t="n">
         <v>0.27</v>
       </c>
       <c r="I8" t="n">
-        <v>236323</v>
+        <v>234175</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14332967</v>
+        <v>14287111</v>
       </c>
       <c r="E9" t="n">
-        <v>42238327</v>
+        <v>42103194</v>
       </c>
       <c r="F9" t="n">
-        <v>5010.63239423404</v>
+        <v>5002.534066155895</v>
       </c>
       <c r="G9" t="n">
-        <v>4631.949037700456</v>
+        <v>4896.843467311533</v>
       </c>
       <c r="H9" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="I9" t="n">
-        <v>819949</v>
+        <v>809368</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7652573</v>
+        <v>7768631</v>
       </c>
       <c r="E10" t="n">
-        <v>32901987</v>
+        <v>33400977</v>
       </c>
       <c r="F10" t="n">
-        <v>1624.02306239474</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2038.708551957782</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.12</v>
+        <v>4.11</v>
       </c>
       <c r="I10" t="n">
-        <v>860210</v>
+        <v>854385</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>548755582</v>
+        <v>541914242</v>
       </c>
       <c r="E11" t="n">
-        <v>686411673</v>
+        <v>677854173</v>
       </c>
       <c r="F11" t="n">
-        <v>269633.1873119743</v>
+        <v>312662.454987902</v>
       </c>
       <c r="G11" t="n">
-        <v>307320.1263751906</v>
+        <v>277189.1394735835</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>59189731</v>
+        <v>54560331</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4707764</v>
+        <v>4796770</v>
       </c>
       <c r="E12" t="n">
-        <v>28917253</v>
+        <v>29463972</v>
       </c>
       <c r="F12" t="n">
-        <v>12643.06224186119</v>
+        <v>11766.57654259503</v>
       </c>
       <c r="G12" t="n">
-        <v>7630.559303815976</v>
+        <v>7990.742231723983</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="I12" t="n">
-        <v>481124</v>
+        <v>483688</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22765311</v>
+        <v>22673060</v>
       </c>
       <c r="E13" t="n">
-        <v>22807936</v>
+        <v>22715512</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>845522</v>
+        <v>848431</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>83001405</v>
+        <v>81694453</v>
       </c>
       <c r="E14" t="n">
-        <v>244295719</v>
+        <v>240449004</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>406039</v>
+        <v>362939</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>468572439</v>
+        <v>460609201</v>
       </c>
       <c r="E15" t="n">
-        <v>468572443</v>
+        <v>460609203</v>
       </c>
       <c r="F15" t="n">
-        <v>10435.4552616266</v>
+        <v>15615.50291448354</v>
       </c>
       <c r="G15" t="n">
-        <v>59961.99523316965</v>
+        <v>26579.05849551533</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>55707582</v>
+        <v>56054937</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4697666</v>
+        <v>4672687</v>
       </c>
       <c r="E16" t="n">
-        <v>4697666</v>
+        <v>4672687</v>
       </c>
       <c r="F16" t="n">
-        <v>216.0491643932815</v>
+        <v>6789.959072040327</v>
       </c>
       <c r="G16" t="n">
-        <v>1293.098385002764</v>
+        <v>7094.278157660918</v>
       </c>
       <c r="H16" t="n">
-        <v>1.46</v>
+        <v>0.55</v>
       </c>
       <c r="I16" t="n">
-        <v>1957845</v>
+        <v>1296780</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3408191</v>
+        <v>3321599</v>
       </c>
       <c r="E17" t="n">
-        <v>3408191</v>
+        <v>3321599</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>500732</v>
+        <v>498510</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167134152</v>
+        <v>166934393</v>
       </c>
       <c r="E18" t="n">
-        <v>206919040</v>
+        <v>206671730</v>
       </c>
       <c r="F18" t="n">
-        <v>9019.095679447079</v>
+        <v>7968.346558157733</v>
       </c>
       <c r="G18" t="n">
-        <v>8129.156543761747</v>
+        <v>7849.194582981885</v>
       </c>
       <c r="H18" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="I18" t="n">
-        <v>384170</v>
+        <v>392036</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6973975</v>
+        <v>6670151</v>
       </c>
       <c r="E19" t="n">
-        <v>9604945</v>
+        <v>9186502</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1049004</v>
+        <v>1010057</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>920556</v>
+        <v>912807</v>
       </c>
       <c r="E20" t="n">
-        <v>6443895</v>
+        <v>6389647</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>535413</v>
+        <v>511456</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>107995824</v>
+        <v>106901828</v>
       </c>
       <c r="E21" t="n">
-        <v>420550196</v>
+        <v>416265966</v>
       </c>
       <c r="F21" t="n">
-        <v>32532.13218222064</v>
+        <v>35578.84240256181</v>
       </c>
       <c r="G21" t="n">
-        <v>80546.01242565126</v>
+        <v>64580.71707341167</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>6575269</v>
+        <v>6574682</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1690043</v>
+        <v>1680593</v>
       </c>
       <c r="E22" t="n">
-        <v>12173238</v>
+        <v>12105168</v>
       </c>
       <c r="F22" t="n">
-        <v>2999.139647252253</v>
+        <v>4911.109729935598</v>
       </c>
       <c r="G22" t="n">
-        <v>2955.453477930371</v>
+        <v>4376.42997408617</v>
       </c>
       <c r="H22" t="n">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>174913</v>
+        <v>148888</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>135421734</v>
+        <v>133095859</v>
       </c>
       <c r="E23" t="n">
-        <v>135421734</v>
+        <v>133095859</v>
       </c>
       <c r="F23" t="n">
-        <v>928728.6819834335</v>
+        <v>1122000.567778579</v>
       </c>
       <c r="G23" t="n">
-        <v>1407304.655604533</v>
+        <v>1211609.782742932</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>67159343</v>
+        <v>63286076</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65071347</v>
+        <v>63477004</v>
       </c>
       <c r="E24" t="n">
-        <v>333699215</v>
+        <v>325523097</v>
       </c>
       <c r="F24" t="n">
-        <v>82339.43570198068</v>
+        <v>95749.28320804494</v>
       </c>
       <c r="G24" t="n">
-        <v>172819.475607879</v>
+        <v>153193.2584335893</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>17021805</v>
+        <v>16819661</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>254851429</v>
+        <v>249826839</v>
       </c>
       <c r="E25" t="n">
-        <v>254851429</v>
+        <v>249826839</v>
       </c>
       <c r="F25" t="n">
-        <v>339281.149879162</v>
+        <v>374019.3167105339</v>
       </c>
       <c r="G25" t="n">
-        <v>449569.2726526679</v>
+        <v>393117.0958777124</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>14407252</v>
+        <v>14580460</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1118792</v>
+        <v>1119307</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>191172</v>
+        <v>191865</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4005074</v>
+        <v>3950444</v>
       </c>
       <c r="E28" t="n">
-        <v>4005898</v>
+        <v>3951253</v>
       </c>
       <c r="F28" t="n">
-        <v>789.3224520970966</v>
+        <v>784.8886942652762</v>
       </c>
       <c r="G28" t="n">
-        <v>3596.21844930976</v>
+        <v>2833.865380266847</v>
       </c>
       <c r="H28" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="I28" t="n">
-        <v>276598</v>
+        <v>270499</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6941435</v>
+        <v>6545510</v>
       </c>
       <c r="E29" t="n">
-        <v>16860210</v>
+        <v>15898539</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>436642</v>
+        <v>442772</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100680757</v>
+        <v>99270329</v>
       </c>
       <c r="E30" t="n">
-        <v>125537102</v>
+        <v>123778464</v>
       </c>
       <c r="F30" t="n">
-        <v>95938.96328919186</v>
+        <v>125630.7321464018</v>
       </c>
       <c r="G30" t="n">
-        <v>109582.5513809156</v>
+        <v>90378.01013109495</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12327376</v>
+        <v>12236996</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1123440</v>
+        <v>1129204</v>
       </c>
       <c r="E31" t="n">
-        <v>12209127</v>
+        <v>12271768</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>28572</v>
+        <v>29689</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>75224473</v>
+        <v>72566614</v>
       </c>
       <c r="E32" t="n">
-        <v>210576789</v>
+        <v>203124425</v>
       </c>
       <c r="F32" t="n">
-        <v>48201.92477507189</v>
+        <v>63603.55749549262</v>
       </c>
       <c r="G32" t="n">
-        <v>62111.01619882486</v>
+        <v>92071.42099454362</v>
       </c>
       <c r="H32" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I32" t="n">
-        <v>30807444</v>
+        <v>31324879</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4423604</v>
+        <v>4306616</v>
       </c>
       <c r="E33" t="n">
-        <v>8723720</v>
+        <v>8493010</v>
       </c>
       <c r="F33" t="n">
-        <v>7303.74903139236</v>
+        <v>7561.744492083601</v>
       </c>
       <c r="G33" t="n">
-        <v>7519.609602478519</v>
+        <v>8205.35317331327</v>
       </c>
       <c r="H33" t="n">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
       <c r="I33" t="n">
-        <v>1692920</v>
+        <v>1676352</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37474358</v>
+        <v>37416881</v>
       </c>
       <c r="F34" t="n">
-        <v>906.7295413774108</v>
+        <v>943.8009860076418</v>
       </c>
       <c r="G34" t="n">
-        <v>712.0072778040595</v>
+        <v>916.6321548604795</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="I34" t="n">
-        <v>67702</v>
+        <v>66952</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7548791</v>
+        <v>7555717</v>
       </c>
       <c r="E35" t="n">
-        <v>17778904</v>
+        <v>17795214</v>
       </c>
       <c r="F35" t="n">
-        <v>3406.04188371505</v>
+        <v>3405.930919318931</v>
       </c>
       <c r="G35" t="n">
-        <v>2823.095482344076</v>
+        <v>2821.600889409829</v>
       </c>
       <c r="H35" t="n">
         <v>1.22</v>
       </c>
       <c r="I35" t="n">
-        <v>28173</v>
+        <v>28202</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23308272</v>
+        <v>23258043</v>
       </c>
       <c r="F36" t="n">
-        <v>191.4077939328433</v>
+        <v>5308.637899335239</v>
       </c>
       <c r="G36" t="n">
-        <v>5051.577553008864</v>
+        <v>5154.306700527117</v>
       </c>
       <c r="H36" t="n">
-        <v>1.46</v>
+        <v>1.11</v>
       </c>
       <c r="I36" t="n">
-        <v>124542</v>
+        <v>123146</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>72858715</v>
+        <v>71316077</v>
       </c>
       <c r="E37" t="n">
-        <v>151947419</v>
+        <v>148730236</v>
       </c>
       <c r="F37" t="n">
-        <v>52460.72356366515</v>
+        <v>47188.91287359613</v>
       </c>
       <c r="G37" t="n">
-        <v>118524.9730925713</v>
+        <v>98601.47960085777</v>
       </c>
       <c r="H37" t="n">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>13990635</v>
+        <v>13504422</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>281724928</v>
+        <v>275315135</v>
       </c>
       <c r="E38" t="n">
-        <v>281724928</v>
+        <v>275315135</v>
       </c>
       <c r="F38" t="n">
-        <v>30940.75770638859</v>
+        <v>32075.83467727118</v>
       </c>
       <c r="G38" t="n">
-        <v>28816.6805202852</v>
+        <v>28191.8686279837</v>
       </c>
       <c r="H38" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I38" t="n">
-        <v>16627989</v>
+        <v>14988358</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>197646611</v>
+        <v>194796129</v>
       </c>
       <c r="E39" t="n">
-        <v>686642190</v>
+        <v>676739357</v>
       </c>
       <c r="F39" t="n">
-        <v>166363.7444282413</v>
+        <v>128138.5199385719</v>
       </c>
       <c r="G39" t="n">
-        <v>291689.8572113154</v>
+        <v>376327.2601397412</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>25893287</v>
+        <v>26224779</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4351073</v>
+        <v>4185490</v>
       </c>
       <c r="E40" t="n">
-        <v>4351067</v>
+        <v>4185490</v>
       </c>
       <c r="F40" t="n">
-        <v>890.9246665508406</v>
+        <v>1176.507138499947</v>
       </c>
       <c r="G40" t="n">
-        <v>2185.054308035091</v>
+        <v>1617.522705055988</v>
       </c>
       <c r="H40" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>4093301</v>
+        <v>4095156</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>114869477</v>
+        <v>112851451</v>
       </c>
       <c r="E41" t="n">
-        <v>488865888</v>
+        <v>480227319</v>
       </c>
       <c r="F41" t="n">
-        <v>4728.805333544699</v>
+        <v>4823.075274433001</v>
       </c>
       <c r="G41" t="n">
-        <v>6567.733547080037</v>
+        <v>6867.649382229823</v>
       </c>
       <c r="H41" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="I41" t="n">
-        <v>11700613</v>
+        <v>11522941</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>530177</v>
+        <v>532549</v>
       </c>
       <c r="E42" t="n">
-        <v>6430531</v>
+        <v>6459300</v>
       </c>
       <c r="F42" t="n">
-        <v>792.2893624108997</v>
+        <v>606.0933563959946</v>
       </c>
       <c r="G42" t="n">
-        <v>1066.077931723234</v>
+        <v>1115.461767964923</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="I42" t="n">
-        <v>2908596</v>
+        <v>2858708</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1294522002</v>
+        <v>1264330886</v>
       </c>
       <c r="E43" t="n">
-        <v>6207498112</v>
+        <v>6062725528</v>
       </c>
       <c r="F43" t="n">
-        <v>35045.84644864505</v>
+        <v>9849.263290139637</v>
       </c>
       <c r="G43" t="n">
-        <v>68137.67185051103</v>
+        <v>40006.05940133268</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>200288236</v>
+        <v>189627280</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6049638897</v>
+        <v>6046293554</v>
       </c>
       <c r="E44" t="n">
-        <v>6049638897</v>
+        <v>6046293554</v>
       </c>
       <c r="F44" t="n">
-        <v>260848.1088349222</v>
+        <v>808474.390090521</v>
       </c>
       <c r="G44" t="n">
-        <v>259594.4769605888</v>
+        <v>1729376.850861454</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>114630433</v>
+        <v>99005575</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>271796284</v>
+        <v>266040449</v>
       </c>
       <c r="E45" t="n">
-        <v>1173223645</v>
+        <v>1148378270</v>
       </c>
       <c r="F45" t="n">
-        <v>101951.3767085228</v>
+        <v>102200.7971412988</v>
       </c>
       <c r="G45" t="n">
-        <v>87322.28403360104</v>
+        <v>103691.1982427962</v>
       </c>
       <c r="H45" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>111961341</v>
+        <v>109131500</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113616413</v>
+        <v>112445546</v>
       </c>
       <c r="E46" t="n">
-        <v>113616413</v>
+        <v>112445546</v>
       </c>
       <c r="F46" t="n">
-        <v>37133.89034089069</v>
+        <v>42344.22764067687</v>
       </c>
       <c r="G46" t="n">
-        <v>39866.19155320327</v>
+        <v>29654.59384886907</v>
       </c>
       <c r="H46" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="I46" t="n">
-        <v>6025190</v>
+        <v>5869124</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2053044405</v>
+        <v>2044511245</v>
       </c>
       <c r="E47" t="n">
-        <v>2053044405</v>
+        <v>2044511245</v>
       </c>
       <c r="F47" t="n">
-        <v>220212.5146254059</v>
+        <v>220205.2410456732</v>
       </c>
       <c r="G47" t="n">
-        <v>201473.1462492307</v>
+        <v>201487.3352586357</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I47" t="n">
-        <v>4787415600</v>
+        <v>5119828713</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9883309</v>
+        <v>9866426</v>
       </c>
       <c r="F48" t="n">
-        <v>7572.052141477145</v>
+        <v>7594.738742644903</v>
       </c>
       <c r="G48" t="n">
-        <v>5939.748327464724</v>
+        <v>5982.792365470406</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>183086</v>
+        <v>181230</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4362241</v>
+        <v>4404862</v>
       </c>
       <c r="E49" t="n">
-        <v>5727054</v>
+        <v>5783010</v>
       </c>
       <c r="F49" t="n">
-        <v>11046.10568135248</v>
+        <v>13522.4408819898</v>
       </c>
       <c r="G49" t="n">
-        <v>10122.19987510136</v>
+        <v>10192.86039181413</v>
       </c>
       <c r="H49" t="n">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>663700</v>
+        <v>629368</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11725143</v>
+        <v>11767369</v>
       </c>
       <c r="E50" t="n">
-        <v>17241602</v>
+        <v>17303694</v>
       </c>
       <c r="F50" t="n">
-        <v>6359.06495084121</v>
+        <v>7943.263979832678</v>
       </c>
       <c r="G50" t="n">
-        <v>30258.24210490729</v>
+        <v>25693.37080873986</v>
       </c>
       <c r="H50" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I50" t="n">
-        <v>944062</v>
+        <v>1014095</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22748141</v>
+        <v>22563501</v>
       </c>
       <c r="E51" t="n">
-        <v>29509542</v>
+        <v>29270023</v>
       </c>
       <c r="F51" t="n">
-        <v>13446.96418921924</v>
+        <v>15393.27295111977</v>
       </c>
       <c r="G51" t="n">
-        <v>12646.13296397353</v>
+        <v>12540.63541149189</v>
       </c>
       <c r="H51" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>313994</v>
+        <v>164922</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13786182</v>
+        <v>13628244</v>
       </c>
       <c r="E52" t="n">
-        <v>13786182</v>
+        <v>13628244</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4402099</v>
+        <v>4366994</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99698143</v>
+        <v>98941582</v>
       </c>
       <c r="E53" t="n">
-        <v>123323034</v>
+        <v>122387196</v>
       </c>
       <c r="F53" t="n">
-        <v>489.7567814683255</v>
+        <v>607.0317155892646</v>
       </c>
       <c r="G53" t="n">
-        <v>3999.631775863767</v>
+        <v>3914.037706199416</v>
       </c>
       <c r="H53" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>743921</v>
+        <v>752714</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5338239</v>
+        <v>5222489</v>
       </c>
       <c r="E54" t="n">
-        <v>7468970</v>
+        <v>7307020</v>
       </c>
       <c r="F54" t="n">
-        <v>71.78707416049718</v>
+        <v>78.53477533629659</v>
       </c>
       <c r="G54" t="n">
-        <v>106.1405691734632</v>
+        <v>129.5412359933156</v>
       </c>
       <c r="H54" t="n">
-        <v>3.08</v>
+        <v>2.22</v>
       </c>
       <c r="I54" t="n">
-        <v>109935</v>
+        <v>106030</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14119998</v>
+        <v>13941693</v>
       </c>
       <c r="E55" t="n">
-        <v>68385405</v>
+        <v>67521846</v>
       </c>
       <c r="F55" t="n">
-        <v>30349.65794095913</v>
+        <v>31350.96088501772</v>
       </c>
       <c r="G55" t="n">
-        <v>28101.61052257761</v>
+        <v>27958.48893373977</v>
       </c>
       <c r="H55" t="n">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="I55" t="n">
-        <v>3552099</v>
+        <v>3506263</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>59658</v>
+        <v>56993</v>
       </c>
       <c r="E56" t="n">
-        <v>142893</v>
+        <v>136510</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4555.78</v>
+        <v>4571.71</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1869855799</v>
+        <v>1859611012</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>25567597</v>
+        <v>25738653</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12292114</v>
+        <v>12142054</v>
       </c>
       <c r="E58" t="n">
-        <v>17821792</v>
+        <v>17604226</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2215553</v>
+        <v>1597979</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>125100253</v>
+        <v>123257278</v>
       </c>
       <c r="E59" t="n">
-        <v>332695358</v>
+        <v>327794096</v>
       </c>
       <c r="F59" t="n">
-        <v>1644.656295535058</v>
+        <v>142.2121398989571</v>
       </c>
       <c r="G59" t="n">
-        <v>7875.417164962063</v>
+        <v>10019.22759575278</v>
       </c>
       <c r="H59" t="n">
-        <v>1.11</v>
+        <v>0.67</v>
       </c>
       <c r="I59" t="n">
-        <v>1407592</v>
+        <v>1388407</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31817189</v>
+        <v>31622892</v>
       </c>
       <c r="E60" t="n">
-        <v>99068519</v>
+        <v>98463540</v>
       </c>
       <c r="F60" t="n">
-        <v>4389.044331443966</v>
+        <v>4808.659856866534</v>
       </c>
       <c r="G60" t="n">
-        <v>5580.742807678588</v>
+        <v>6101.48076974619</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I60" t="n">
-        <v>12219075</v>
+        <v>12143435</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1933366</v>
+        <v>1927731</v>
       </c>
       <c r="E61" t="n">
-        <v>13863975</v>
+        <v>13823568</v>
       </c>
       <c r="F61" t="n">
-        <v>5155.29696620526</v>
+        <v>5142.814193908283</v>
       </c>
       <c r="G61" t="n">
-        <v>1250.637002735477</v>
+        <v>1194.431665719573</v>
       </c>
       <c r="H61" t="n">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="I61" t="n">
-        <v>1856101</v>
+        <v>1843944</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>199197380</v>
+        <v>194847906</v>
       </c>
       <c r="E62" t="n">
-        <v>1127977962</v>
+        <v>1103348569</v>
       </c>
       <c r="F62" t="n">
-        <v>529135.4300601471</v>
+        <v>492079.7799697135</v>
       </c>
       <c r="G62" t="n">
-        <v>623698.7844834216</v>
+        <v>829799.4926289254</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>59589818</v>
+        <v>58765170</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>503589</v>
+        <v>500941</v>
       </c>
       <c r="E63" t="n">
-        <v>1695010</v>
+        <v>1686098</v>
       </c>
       <c r="F63" t="n">
-        <v>4645.768284703428</v>
+        <v>4701.170804096591</v>
       </c>
       <c r="G63" t="n">
-        <v>519.1717480011524</v>
+        <v>541.5668548728471</v>
       </c>
       <c r="H63" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="I63" t="n">
-        <v>631844</v>
+        <v>631768</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>344608</v>
+        <v>336708</v>
       </c>
       <c r="E64" t="n">
-        <v>344608</v>
+        <v>336708</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5131.39</v>
+        <v>5989.89</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>138479315</v>
+        <v>137447133</v>
       </c>
       <c r="E65" t="n">
-        <v>1025772706</v>
+        <v>1018126914</v>
       </c>
       <c r="F65" t="n">
-        <v>39968.44582663657</v>
+        <v>38633.37432249374</v>
       </c>
       <c r="G65" t="n">
-        <v>38116.06988971318</v>
+        <v>41875.25192423572</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I65" t="n">
-        <v>12506827</v>
+        <v>12272055</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8232070</v>
+        <v>8080557</v>
       </c>
       <c r="E66" t="n">
-        <v>11028679</v>
+        <v>10825694</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>60672</v>
+        <v>59944</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25982154</v>
+        <v>26009245</v>
       </c>
       <c r="E67" t="n">
-        <v>25982154</v>
+        <v>26009245</v>
       </c>
       <c r="F67" t="n">
-        <v>7585.953451319506</v>
+        <v>7569.257585547062</v>
       </c>
       <c r="G67" t="n">
-        <v>6487.323443704004</v>
+        <v>6400.79756903387</v>
       </c>
       <c r="H67" t="n">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="I67" t="n">
-        <v>351251</v>
+        <v>347590</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1633163</v>
+        <v>1570243</v>
       </c>
       <c r="E68" t="n">
-        <v>12719948</v>
+        <v>12195683</v>
       </c>
       <c r="F68" t="n">
-        <v>934.9317634301684</v>
+        <v>3293.371711921636</v>
       </c>
       <c r="G68" t="n">
-        <v>14251.35972714013</v>
+        <v>10584.27215947664</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="I68" t="n">
-        <v>517049</v>
+        <v>522516</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>338250371</v>
+        <v>330589161</v>
       </c>
       <c r="E69" t="n">
-        <v>3043110076</v>
+        <v>2974185084</v>
       </c>
       <c r="F69" t="n">
-        <v>1279270.44997659</v>
+        <v>920799.8236019209</v>
       </c>
       <c r="G69" t="n">
-        <v>1466161.552339402</v>
+        <v>1927862.161179018</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>38454523</v>
+        <v>37171806</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>254573</v>
+        <v>257931</v>
       </c>
       <c r="E70" t="n">
-        <v>2246802</v>
+        <v>2276433</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>89983</v>
+        <v>94275</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1577210</v>
+        <v>1584235</v>
       </c>
       <c r="E71" t="n">
-        <v>13143414</v>
+        <v>13201955</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>48129</v>
+        <v>48655</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8875039</v>
+        <v>8888099</v>
       </c>
       <c r="E72" t="n">
-        <v>41136314</v>
+        <v>41196850</v>
       </c>
       <c r="F72" t="n">
-        <v>6254.183915692047</v>
+        <v>5595.067171993306</v>
       </c>
       <c r="G72" t="n">
-        <v>6822.128986910739</v>
+        <v>9247.924155240315</v>
       </c>
       <c r="H72" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I72" t="n">
-        <v>95849</v>
+        <v>91935</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42890312</v>
+        <v>42569067</v>
       </c>
       <c r="E73" t="n">
-        <v>248317186</v>
+        <v>246457310</v>
       </c>
       <c r="F73" t="n">
-        <v>105806.5899241288</v>
+        <v>121768.8641143746</v>
       </c>
       <c r="G73" t="n">
-        <v>164515.9946057571</v>
+        <v>186141.1194959744</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>11126504</v>
+        <v>11241475</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39773653</v>
+        <v>39575563</v>
       </c>
       <c r="E74" t="n">
-        <v>54933078</v>
+        <v>54659488</v>
       </c>
       <c r="F74" t="n">
-        <v>616.2896092567844</v>
+        <v>4370.433590748835</v>
       </c>
       <c r="G74" t="n">
-        <v>397.4366488526937</v>
+        <v>11031.13436398839</v>
       </c>
       <c r="H74" t="n">
-        <v>1.45</v>
+        <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>349174</v>
+        <v>329128</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95183</v>
+        <v>95156</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>940.91</v>
+        <v>844.12</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13702439</v>
+        <v>13503417</v>
       </c>
       <c r="E76" t="n">
-        <v>13749070</v>
+        <v>13549371</v>
       </c>
       <c r="F76" t="n">
-        <v>3312.796406993344</v>
+        <v>2685.53128247808</v>
       </c>
       <c r="G76" t="n">
-        <v>7178.342046647719</v>
+        <v>6468.086950339262</v>
       </c>
       <c r="H76" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="I76" t="n">
-        <v>5795423</v>
+        <v>5746944</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42891332</v>
+        <v>42850534</v>
       </c>
       <c r="E77" t="n">
-        <v>72819503</v>
+        <v>72750238</v>
       </c>
       <c r="F77" t="n">
-        <v>9360.964042596443</v>
+        <v>10146.67296281166</v>
       </c>
       <c r="G77" t="n">
-        <v>5048.149259431148</v>
+        <v>6406.337237087127</v>
       </c>
       <c r="H77" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I77" t="n">
-        <v>1139893</v>
+        <v>1156535</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>26197587</v>
+        <v>26077357</v>
       </c>
       <c r="E78" t="n">
-        <v>78529087</v>
+        <v>78167614</v>
       </c>
       <c r="F78" t="n">
-        <v>56434.71059158035</v>
+        <v>101477.141768722</v>
       </c>
       <c r="G78" t="n">
-        <v>68799.76204351119</v>
+        <v>144552.9111675019</v>
       </c>
       <c r="H78" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I78" t="n">
-        <v>2346909</v>
+        <v>2414906</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101435953</v>
+        <v>100943033</v>
       </c>
       <c r="E79" t="n">
-        <v>107835585</v>
+        <v>107311566</v>
       </c>
       <c r="F79" t="n">
-        <v>2456.233391775012</v>
+        <v>1543.320558045031</v>
       </c>
       <c r="G79" t="n">
-        <v>4238.363546035111</v>
+        <v>5086.433089515716</v>
       </c>
       <c r="H79" t="n">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="I79" t="n">
-        <v>942247</v>
+        <v>977659</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10663922</v>
+        <v>10657913</v>
       </c>
       <c r="E80" t="n">
-        <v>46488641</v>
+        <v>46360059</v>
       </c>
       <c r="F80" t="n">
-        <v>5787.739270949189</v>
+        <v>5758.406652460854</v>
       </c>
       <c r="G80" t="n">
-        <v>5802.503230318479</v>
+        <v>9155.763895146305</v>
       </c>
       <c r="H80" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="I80" t="n">
-        <v>111023</v>
+        <v>112136</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15215944</v>
+        <v>15144515</v>
       </c>
       <c r="E81" t="n">
-        <v>93263523</v>
+        <v>92825715</v>
       </c>
       <c r="F81" t="n">
-        <v>4019.013686399454</v>
+        <v>4061.912488476891</v>
       </c>
       <c r="G81" t="n">
-        <v>6433.958494838805</v>
+        <v>6269.986467589038</v>
       </c>
       <c r="H81" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>11872533</v>
+        <v>12073906</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1494830</v>
+        <v>1487710</v>
       </c>
       <c r="E82" t="n">
-        <v>1536878</v>
+        <v>1529558</v>
       </c>
       <c r="F82" t="n">
-        <v>15.28445529702405</v>
+        <v>5258.011328805964</v>
       </c>
       <c r="G82" t="n">
-        <v>418.0792869876711</v>
+        <v>4644.291755067493</v>
       </c>
       <c r="H82" t="n">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="I82" t="n">
-        <v>139560</v>
+        <v>136814</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>46340609</v>
+        <v>45811089</v>
       </c>
       <c r="E83" t="n">
-        <v>199630278</v>
+        <v>197349164</v>
       </c>
       <c r="F83" t="n">
-        <v>3371.326858228044</v>
+        <v>3398.572837121313</v>
       </c>
       <c r="G83" t="n">
-        <v>4483.289053758327</v>
+        <v>4380.789887217847</v>
       </c>
       <c r="H83" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I83" t="n">
-        <v>8303246</v>
+        <v>8178016</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1724858</v>
+        <v>1728609</v>
       </c>
       <c r="E84" t="n">
-        <v>6268069</v>
+        <v>6281647</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>135616</v>
+        <v>130038</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9082616</v>
+        <v>9028558</v>
       </c>
       <c r="E85" t="n">
-        <v>20177730</v>
+        <v>20052454</v>
       </c>
       <c r="F85" t="n">
-        <v>7626.832025240886</v>
+        <v>6444.149483888182</v>
       </c>
       <c r="G85" t="n">
-        <v>5781.063165144785</v>
+        <v>7385.665623977294</v>
       </c>
       <c r="H85" t="n">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>417102</v>
+        <v>311291</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2450966</v>
+        <v>2450807</v>
       </c>
       <c r="E86" t="n">
-        <v>18444621</v>
+        <v>18443431</v>
       </c>
       <c r="F86" t="n">
-        <v>6235.656760178908</v>
+        <v>6404.213648370881</v>
       </c>
       <c r="G86" t="n">
-        <v>13078.20482792287</v>
+        <v>12839.02654159607</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>163461</v>
+        <v>162380</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21037837</v>
+        <v>20906854</v>
       </c>
       <c r="E87" t="n">
-        <v>84151347</v>
+        <v>83627416</v>
       </c>
       <c r="F87" t="n">
-        <v>17319.93227383922</v>
+        <v>10223.40902364094</v>
       </c>
       <c r="G87" t="n">
-        <v>3100.885180283797</v>
+        <v>2643.492538689195</v>
       </c>
       <c r="H87" t="n">
-        <v>0.12</v>
+        <v>1.54</v>
       </c>
       <c r="I87" t="n">
-        <v>5813982</v>
+        <v>5864964</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4318083</v>
+        <v>4312745</v>
       </c>
       <c r="E88" t="n">
-        <v>4318083</v>
+        <v>4312745</v>
       </c>
       <c r="F88" t="n">
-        <v>954.5179006301449</v>
+        <v>1391.323796517589</v>
       </c>
       <c r="G88" t="n">
-        <v>1943.948214914322</v>
+        <v>787.3997820570016</v>
       </c>
       <c r="H88" t="n">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="I88" t="n">
-        <v>2435132</v>
+        <v>2445058</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12754544</v>
+        <v>12644006</v>
       </c>
       <c r="E89" t="n">
-        <v>40351799</v>
+        <v>40002090</v>
       </c>
       <c r="F89" t="n">
-        <v>16201.67333029082</v>
+        <v>17693.6121855914</v>
       </c>
       <c r="G89" t="n">
-        <v>11933.81953342209</v>
+        <v>11333.26705103261</v>
       </c>
       <c r="H89" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="I89" t="n">
-        <v>1619289</v>
+        <v>1580287</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26561</v>
+        <v>26746</v>
       </c>
       <c r="E90" t="n">
-        <v>208895</v>
+        <v>210347</v>
       </c>
       <c r="F90" t="n">
-        <v>6045.863742967616</v>
+        <v>6002.817151338995</v>
       </c>
       <c r="G90" t="n">
-        <v>202.496453027245</v>
+        <v>306.0599067905529</v>
       </c>
       <c r="H90" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="I90" t="n">
-        <v>126841</v>
+        <v>127146</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8105247</v>
+        <v>7976933</v>
       </c>
       <c r="E91" t="n">
-        <v>8105247</v>
+        <v>7976933</v>
       </c>
       <c r="F91" t="n">
-        <v>3853.158509158848</v>
+        <v>3795.219866529978</v>
       </c>
       <c r="G91" t="n">
-        <v>2359.654667520348</v>
+        <v>4197.853232264016</v>
       </c>
       <c r="H91" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="I91" t="n">
-        <v>3810086</v>
+        <v>3469887</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9764009</v>
+        <v>9764810</v>
       </c>
       <c r="E92" t="n">
-        <v>9764009</v>
+        <v>9764810</v>
       </c>
       <c r="F92" t="n">
-        <v>7537.387248745588</v>
+        <v>2867.435244202227</v>
       </c>
       <c r="G92" t="n">
-        <v>3455.205968690195</v>
+        <v>4793.811570772599</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="I92" t="n">
-        <v>2394975</v>
+        <v>2356806</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>36194388</v>
+        <v>35743966</v>
       </c>
       <c r="E93" t="n">
-        <v>91264871</v>
+        <v>90129121</v>
       </c>
       <c r="F93" t="n">
-        <v>4967.342705300567</v>
+        <v>5675.936948228275</v>
       </c>
       <c r="G93" t="n">
-        <v>5832.040456126983</v>
+        <v>6037.987491999727</v>
       </c>
       <c r="H93" t="n">
-        <v>0.11</v>
+        <v>0.77</v>
       </c>
       <c r="I93" t="n">
-        <v>2816163</v>
+        <v>2818826</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>296131962</v>
+        <v>293179313</v>
       </c>
       <c r="E94" t="n">
-        <v>300760439</v>
+        <v>297761626</v>
       </c>
       <c r="F94" t="n">
-        <v>46550.64972377005</v>
+        <v>46565.56964883688</v>
       </c>
       <c r="G94" t="n">
-        <v>43322.633737753</v>
+        <v>50269.71215555195</v>
       </c>
       <c r="H94" t="n">
         <v>0.19</v>
       </c>
       <c r="I94" t="n">
-        <v>11677714</v>
+        <v>11439994</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3404.35600748069</v>
+        <v>903.4555695830327</v>
       </c>
       <c r="G95" t="n">
-        <v>6477.574836829972</v>
+        <v>6570.308973072982</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>225567</v>
+        <v>223770</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>75101489</v>
+        <v>75549902</v>
       </c>
       <c r="E96" t="n">
-        <v>75101489</v>
+        <v>75549902</v>
       </c>
       <c r="F96" t="n">
-        <v>9737.682108757725</v>
+        <v>15063.97305692429</v>
       </c>
       <c r="G96" t="n">
-        <v>2720.344289273178</v>
+        <v>4158.187838469813</v>
       </c>
       <c r="H96" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="I96" t="n">
-        <v>4440091</v>
+        <v>4645282</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>301107177</v>
+        <v>297534368</v>
       </c>
       <c r="E97" t="n">
-        <v>301107177</v>
+        <v>297534368</v>
       </c>
       <c r="F97" t="n">
-        <v>293798.5751666619</v>
+        <v>298524.0421426775</v>
       </c>
       <c r="G97" t="n">
-        <v>440456.2655396409</v>
+        <v>398146.5025005762</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>52257432</v>
+        <v>50461701</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4110392</v>
+        <v>4109295</v>
       </c>
       <c r="E98" t="n">
-        <v>28086021</v>
+        <v>28078525</v>
       </c>
       <c r="F98" t="n">
-        <v>4604.606171665423</v>
+        <v>4565.977145189521</v>
       </c>
       <c r="G98" t="n">
-        <v>6923.840490279504</v>
+        <v>4480.312385130762</v>
       </c>
       <c r="H98" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="I98" t="n">
-        <v>2540396</v>
+        <v>2526522</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>89121237</v>
+        <v>88643188</v>
       </c>
       <c r="E99" t="n">
-        <v>513555006</v>
+        <v>510800286</v>
       </c>
       <c r="F99" t="n">
-        <v>126844.9170862783</v>
+        <v>136553.3693674954</v>
       </c>
       <c r="G99" t="n">
-        <v>137668.9542667822</v>
+        <v>156314.2354497224</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>15898195</v>
+        <v>15865540</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107856512</v>
+        <v>106780074</v>
       </c>
       <c r="E100" t="n">
-        <v>265369158</v>
+        <v>262720700</v>
       </c>
       <c r="F100" t="n">
-        <v>24609.11422666041</v>
+        <v>25870.07988118026</v>
       </c>
       <c r="G100" t="n">
-        <v>27115.32586618522</v>
+        <v>35908.99027124755</v>
       </c>
       <c r="H100" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="I100" t="n">
-        <v>2434010</v>
+        <v>2400369</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>247299973</v>
+        <v>244824428</v>
       </c>
       <c r="E101" t="n">
-        <v>247302430</v>
+        <v>244826860</v>
       </c>
       <c r="F101" t="n">
-        <v>38087.47015815022</v>
+        <v>42386.86810575074</v>
       </c>
       <c r="G101" t="n">
-        <v>4555.55002685645</v>
+        <v>7177.56554908692</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>2446059</v>
+        <v>2530556</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30400952</v>
+        <v>29892346</v>
       </c>
       <c r="E102" t="n">
-        <v>136117534</v>
+        <v>133840294</v>
       </c>
       <c r="F102" t="n">
-        <v>98717.67511752502</v>
+        <v>104357.7252922442</v>
       </c>
       <c r="G102" t="n">
-        <v>128794.9732115633</v>
+        <v>144637.4206779942</v>
       </c>
       <c r="H102" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I102" t="n">
-        <v>9453676</v>
+        <v>8988929</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2973759</v>
+        <v>2903337</v>
       </c>
       <c r="E103" t="n">
-        <v>2973759</v>
+        <v>2903337</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>374823</v>
+        <v>363893</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6064639</v>
+        <v>6109005</v>
       </c>
       <c r="E104" t="n">
-        <v>15916688</v>
+        <v>16033120</v>
       </c>
       <c r="F104" t="n">
-        <v>9000.189222033894</v>
+        <v>9224.17477929839</v>
       </c>
       <c r="G104" t="n">
-        <v>3543.140443996583</v>
+        <v>3559.647889133266</v>
       </c>
       <c r="H104" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="I104" t="n">
-        <v>73994</v>
+        <v>74375</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17367321</v>
+        <v>17156305</v>
       </c>
       <c r="E105" t="n">
-        <v>80164289</v>
+        <v>79190422</v>
       </c>
       <c r="F105" t="n">
-        <v>53812.2698173416</v>
+        <v>56337.18571230427</v>
       </c>
       <c r="G105" t="n">
-        <v>100196.3325987162</v>
+        <v>62631.43908754454</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I105" t="n">
-        <v>1253028</v>
+        <v>1210747</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47710257</v>
+        <v>46682526</v>
       </c>
       <c r="E106" t="n">
-        <v>309388321</v>
+        <v>302723760</v>
       </c>
       <c r="F106" t="n">
-        <v>113984.5793393318</v>
+        <v>109686.7934148123</v>
       </c>
       <c r="G106" t="n">
-        <v>166196.9047606718</v>
+        <v>164074.7247064846</v>
       </c>
       <c r="H106" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I106" t="n">
-        <v>16897001</v>
+        <v>17297420</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2431730</v>
+        <v>2523896</v>
       </c>
       <c r="E107" t="n">
-        <v>4405536</v>
+        <v>4572512</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>105604</v>
+        <v>104292</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125421942</v>
+        <v>125114755</v>
       </c>
       <c r="E108" t="n">
-        <v>2077090089</v>
+        <v>2072002816</v>
       </c>
       <c r="F108" t="n">
-        <v>452373.133686178</v>
+        <v>441293.5576956338</v>
       </c>
       <c r="G108" t="n">
-        <v>128480.9421190128</v>
+        <v>131715.9540092258</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5148995</v>
+        <v>5046968</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23531725</v>
+        <v>23099025</v>
       </c>
       <c r="E109" t="n">
-        <v>140795039</v>
+        <v>138206111</v>
       </c>
       <c r="F109" t="n">
-        <v>40852.08829206441</v>
+        <v>37625.87137936529</v>
       </c>
       <c r="G109" t="n">
-        <v>39886.39161440201</v>
+        <v>37203.2889512297</v>
       </c>
       <c r="H109" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I109" t="n">
-        <v>13159808</v>
+        <v>12666386</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>994060</v>
+        <v>1013663</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>70891</v>
+        <v>73233</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2279018</v>
+        <v>2287911</v>
       </c>
       <c r="F111" t="n">
-        <v>3848.6643270281</v>
+        <v>3908.563100577435</v>
       </c>
       <c r="G111" t="n">
-        <v>326.224559302045</v>
+        <v>220.5642243494598</v>
       </c>
       <c r="H111" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I111" t="n">
-        <v>214403</v>
+        <v>214175</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142292489</v>
+        <v>142426192</v>
       </c>
       <c r="F112" t="n">
-        <v>3148.9035376201</v>
+        <v>3146.888017783478</v>
       </c>
       <c r="G112" t="n">
-        <v>909.6579944496227</v>
+        <v>909.6533773715075</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>64523</v>
+        <v>61259</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6908032</v>
+        <v>6923329</v>
       </c>
       <c r="E113" t="n">
-        <v>35539723</v>
+        <v>35618426</v>
       </c>
       <c r="F113" t="n">
-        <v>751.776311298609</v>
+        <v>1040.701780435615</v>
       </c>
       <c r="G113" t="n">
-        <v>951.4854402717448</v>
+        <v>585.2346274921476</v>
       </c>
       <c r="H113" t="n">
         <v>0.84</v>
       </c>
       <c r="I113" t="n">
-        <v>915788</v>
+        <v>910244</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>28892212</v>
+        <v>28923857</v>
       </c>
       <c r="E114" t="n">
-        <v>39707741</v>
+        <v>39751232</v>
       </c>
       <c r="F114" t="n">
-        <v>3946.641023361606</v>
+        <v>3952.35280312742</v>
       </c>
       <c r="G114" t="n">
-        <v>5639.008058436877</v>
+        <v>5198.217678910119</v>
       </c>
       <c r="H114" t="n">
         <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>335608</v>
+        <v>352531</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8068331</v>
+        <v>8058806</v>
       </c>
       <c r="F115" t="n">
-        <v>656.3387176371202</v>
+        <v>684.7840118028743</v>
       </c>
       <c r="G115" t="n">
-        <v>6517.667002422716</v>
+        <v>6691.193060758508</v>
       </c>
       <c r="H115" t="n">
         <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>710474</v>
+        <v>698215</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3347849</v>
+        <v>3329658</v>
       </c>
       <c r="E116" t="n">
-        <v>4484656</v>
+        <v>4460287</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149331</v>
+        <v>148268</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34231384</v>
+        <v>33576269</v>
       </c>
       <c r="E117" t="n">
-        <v>170830384</v>
+        <v>167561061</v>
       </c>
       <c r="F117" t="n">
-        <v>74606.49677824111</v>
+        <v>85334.44665765451</v>
       </c>
       <c r="G117" t="n">
-        <v>66565.50772205066</v>
+        <v>76061.73069059118</v>
       </c>
       <c r="H117" t="n">
         <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>9797843</v>
+        <v>9812917</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3439242</v>
+        <v>3450444</v>
       </c>
       <c r="E118" t="n">
-        <v>4940800</v>
+        <v>4956893</v>
       </c>
       <c r="F118" t="n">
-        <v>819.166186286636</v>
+        <v>702.3638337159097</v>
       </c>
       <c r="G118" t="n">
-        <v>567.1264360140513</v>
+        <v>657.6170943207952</v>
       </c>
       <c r="H118" t="n">
         <v>0.8</v>
       </c>
       <c r="I118" t="n">
-        <v>181396</v>
+        <v>181035</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>313621187</v>
+        <v>309257759</v>
       </c>
       <c r="E119" t="n">
-        <v>580270716</v>
+        <v>572197380</v>
       </c>
       <c r="F119" t="n">
-        <v>125191.6603744756</v>
+        <v>123668.5203710205</v>
       </c>
       <c r="G119" t="n">
-        <v>126676.0998444983</v>
+        <v>138512.5475334972</v>
       </c>
       <c r="H119" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>12235082</v>
+        <v>12421171</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71989090</v>
+        <v>70473072</v>
       </c>
       <c r="E120" t="n">
-        <v>686876653</v>
+        <v>672407696</v>
       </c>
       <c r="F120" t="n">
-        <v>3195.690915919036</v>
+        <v>2010.970179656249</v>
       </c>
       <c r="G120" t="n">
-        <v>41422.15578507722</v>
+        <v>41346.59015001804</v>
       </c>
       <c r="H120" t="n">
         <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>20936489</v>
+        <v>20833554</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38181148</v>
+        <v>37558971</v>
       </c>
       <c r="E121" t="n">
-        <v>49922519</v>
+        <v>49108729</v>
       </c>
       <c r="F121" t="n">
-        <v>261.3661114211947</v>
+        <v>5706.515927745825</v>
       </c>
       <c r="G121" t="n">
-        <v>7264.384736644619</v>
+        <v>214.3806792427934</v>
       </c>
       <c r="H121" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I121" t="n">
-        <v>536045</v>
+        <v>544100</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>10061201</v>
+        <v>10022002</v>
       </c>
       <c r="E122" t="n">
-        <v>30000420</v>
+        <v>29883536</v>
       </c>
       <c r="F122" t="n">
-        <v>4030.016475879602</v>
+        <v>2476.475939533525</v>
       </c>
       <c r="G122" t="n">
-        <v>6316.031079046356</v>
+        <v>2759.770602709941</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I122" t="n">
-        <v>5248749</v>
+        <v>5380980</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2337415</v>
+        <v>2311678</v>
       </c>
       <c r="E123" t="n">
-        <v>7998283</v>
+        <v>7910214</v>
       </c>
       <c r="F123" t="n">
-        <v>961.2871003667069</v>
+        <v>1279.315136809898</v>
       </c>
       <c r="G123" t="n">
-        <v>1111.269044499339</v>
+        <v>734.8316550336909</v>
       </c>
       <c r="H123" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="I123" t="n">
-        <v>745087</v>
+        <v>734880</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7279259</v>
+        <v>7221114</v>
       </c>
       <c r="E124" t="n">
-        <v>7279270</v>
+        <v>7221124</v>
       </c>
       <c r="F124" t="n">
-        <v>542.7594744216265</v>
+        <v>507.3686232971394</v>
       </c>
       <c r="G124" t="n">
-        <v>305.4783406467182</v>
+        <v>356.5227831142311</v>
       </c>
       <c r="H124" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="I124" t="n">
-        <v>325033</v>
+        <v>338070</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5860418</v>
+        <v>5823436</v>
       </c>
       <c r="E125" t="n">
-        <v>5860418</v>
+        <v>5823436</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>382381</v>
+        <v>395460</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6196235</v>
+        <v>6228788</v>
       </c>
       <c r="E126" t="n">
-        <v>22632449</v>
+        <v>22751354</v>
       </c>
       <c r="F126" t="n">
-        <v>5894.991560949694</v>
+        <v>899.5879837064771</v>
       </c>
       <c r="G126" t="n">
-        <v>2247.005109368759</v>
+        <v>6712.95977102615</v>
       </c>
       <c r="H126" t="n">
-        <v>0.45</v>
+        <v>1.29</v>
       </c>
       <c r="I126" t="n">
-        <v>456753</v>
+        <v>468924</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44810210</v>
+        <v>44109295</v>
       </c>
       <c r="E127" t="n">
-        <v>44810210</v>
+        <v>44109295</v>
       </c>
       <c r="F127" t="n">
-        <v>60520.90718735172</v>
+        <v>66610.19288466526</v>
       </c>
       <c r="G127" t="n">
-        <v>85883.92031012537</v>
+        <v>66684.89732208783</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="I127" t="n">
-        <v>8767025</v>
+        <v>7975629</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>151333693</v>
+        <v>146372270</v>
       </c>
       <c r="F128" t="n">
-        <v>169.2773636186121</v>
+        <v>165.494323195349</v>
       </c>
       <c r="G128" t="n">
-        <v>224.3156060733022</v>
+        <v>234.4661511065555</v>
       </c>
       <c r="H128" t="n">
-        <v>3.51</v>
+        <v>3.31</v>
       </c>
       <c r="I128" t="n">
-        <v>1013418</v>
+        <v>1270794</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3052824</v>
+        <v>3105474</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>74083</v>
+        <v>75144</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20381780</v>
+        <v>20153678</v>
       </c>
       <c r="F130" t="n">
-        <v>518.7960121501484</v>
+        <v>561.4577595438602</v>
       </c>
       <c r="G130" t="n">
-        <v>1113.410121438453</v>
+        <v>1115.748834087175</v>
       </c>
       <c r="H130" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="I130" t="n">
-        <v>2800548</v>
+        <v>2821649</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1256867</v>
+        <v>1241214</v>
       </c>
       <c r="E131" t="n">
-        <v>3802464</v>
+        <v>3754885</v>
       </c>
       <c r="F131" t="n">
-        <v>809.5464691623931</v>
+        <v>801.2605902016594</v>
       </c>
       <c r="G131" t="n">
-        <v>695.4870975934775</v>
+        <v>709.7639731775238</v>
       </c>
       <c r="H131" t="n">
         <v>1.31</v>
       </c>
       <c r="I131" t="n">
-        <v>22456</v>
+        <v>16281.62</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>599108149</v>
+        <v>590994998</v>
       </c>
       <c r="E132" t="n">
-        <v>2320257469</v>
+        <v>2288836430</v>
       </c>
       <c r="F132" t="n">
-        <v>496116.8341326455</v>
+        <v>405235.5649288194</v>
       </c>
       <c r="G132" t="n">
-        <v>655981.5197293856</v>
+        <v>673240.5221375604</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>30673618</v>
+        <v>29805060</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3680314</v>
+        <v>3679063</v>
       </c>
       <c r="E133" t="n">
-        <v>6273595</v>
+        <v>6271462</v>
       </c>
       <c r="F133" t="n">
-        <v>5420.335741320132</v>
+        <v>5317.002831006781</v>
       </c>
       <c r="G133" t="n">
-        <v>5340.987662973869</v>
+        <v>5645.886888555819</v>
       </c>
       <c r="H133" t="n">
         <v>0.64</v>
       </c>
       <c r="I133" t="n">
-        <v>916937</v>
+        <v>993000</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118273350</v>
+        <v>116347155</v>
       </c>
       <c r="E134" t="n">
-        <v>1028314087</v>
+        <v>1011567001</v>
       </c>
       <c r="F134" t="n">
-        <v>108754.5825837127</v>
+        <v>104752.5392852113</v>
       </c>
       <c r="G134" t="n">
-        <v>104125.3998530279</v>
+        <v>91135.2895680449</v>
       </c>
       <c r="H134" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I134" t="n">
-        <v>9642873</v>
+        <v>9409886</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1013476555</v>
+        <v>1003040493</v>
       </c>
       <c r="E135" t="n">
-        <v>1113306773</v>
+        <v>1101842730</v>
       </c>
       <c r="F135" t="n">
-        <v>12836.90813344293</v>
+        <v>13022.73634490083</v>
       </c>
       <c r="G135" t="n">
-        <v>21001.15557428224</v>
+        <v>17251.34714908849</v>
       </c>
       <c r="H135" t="n">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="I135" t="n">
-        <v>13446226</v>
+        <v>13367539</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1132084</v>
+        <v>1123257</v>
       </c>
       <c r="E136" t="n">
-        <v>4383677</v>
+        <v>4349498</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>429887</v>
+        <v>429517</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>108402978</v>
+        <v>106769232</v>
       </c>
       <c r="E137" t="n">
-        <v>415851272</v>
+        <v>409583960</v>
       </c>
       <c r="F137" t="n">
-        <v>165618.7843083804</v>
+        <v>149343.764452006</v>
       </c>
       <c r="G137" t="n">
-        <v>209867.7846554007</v>
+        <v>220062.7476994978</v>
       </c>
       <c r="H137" t="n">
         <v>0.12</v>
       </c>
       <c r="I137" t="n">
-        <v>18884868</v>
+        <v>18632001</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3176502</v>
+        <v>3186978</v>
       </c>
       <c r="E138" t="n">
-        <v>30097831</v>
+        <v>30197091</v>
       </c>
       <c r="F138" t="n">
-        <v>4507.285214630106</v>
+        <v>4458.445252242635</v>
       </c>
       <c r="G138" t="n">
-        <v>98.52032506909462</v>
+        <v>181.4361820147055</v>
       </c>
       <c r="H138" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I138" t="n">
-        <v>279087</v>
+        <v>240051</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22708654</v>
+        <v>22775220</v>
       </c>
       <c r="E139" t="n">
-        <v>22708654</v>
+        <v>22775220</v>
       </c>
       <c r="F139" t="n">
-        <v>4517.707317926443</v>
+        <v>7100.71168233749</v>
       </c>
       <c r="G139" t="n">
-        <v>1582.920267323026</v>
+        <v>770.9554685653112</v>
       </c>
       <c r="H139" t="n">
-        <v>2.31</v>
+        <v>1.48</v>
       </c>
       <c r="I139" t="n">
-        <v>552358</v>
+        <v>531059</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>495025008</v>
+        <v>494434586</v>
       </c>
       <c r="E140" t="n">
-        <v>495025008</v>
+        <v>494434586</v>
       </c>
       <c r="F140" t="n">
-        <v>750706.776538122</v>
+        <v>852775.20542571</v>
       </c>
       <c r="G140" t="n">
-        <v>831784.8515308165</v>
+        <v>680992.1295456789</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>31515937</v>
+        <v>32231145</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31287735</v>
+        <v>30783272</v>
       </c>
       <c r="F141" t="n">
-        <v>52558.05003595124</v>
+        <v>44552.3090588351</v>
       </c>
       <c r="G141" t="n">
-        <v>77464.95080747902</v>
+        <v>86854.2286342201</v>
       </c>
       <c r="H141" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="I141" t="n">
-        <v>6124313</v>
+        <v>5980672</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>735181</v>
+        <v>759023</v>
       </c>
       <c r="E142" t="n">
-        <v>11725880</v>
+        <v>12106141</v>
       </c>
       <c r="F142" t="n">
-        <v>89.66531117009822</v>
+        <v>100.2110007199755</v>
       </c>
       <c r="G142" t="n">
-        <v>24.24860441461015</v>
+        <v>42.75329012996534</v>
       </c>
       <c r="H142" t="n">
-        <v>1.18</v>
+        <v>0.48</v>
       </c>
       <c r="I142" t="n">
-        <v>70258</v>
+        <v>71133</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2654207006</v>
+        <v>2614372676</v>
       </c>
       <c r="E143" t="n">
-        <v>2818077208</v>
+        <v>2775783515</v>
       </c>
       <c r="F143" t="n">
-        <v>3018.613821853389</v>
+        <v>2340.10960257942</v>
       </c>
       <c r="G143" t="n">
-        <v>26938.08148769147</v>
+        <v>23395.12188584758</v>
       </c>
       <c r="H143" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I143" t="n">
-        <v>37230222</v>
+        <v>37016305</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1644824</v>
+        <v>1620584</v>
       </c>
       <c r="E144" t="n">
-        <v>1650630</v>
+        <v>1626304</v>
       </c>
       <c r="F144" t="n">
-        <v>865.5663390402832</v>
+        <v>327.4299728461839</v>
       </c>
       <c r="G144" t="n">
-        <v>595.2348741801161</v>
+        <v>360.3758828646936</v>
       </c>
       <c r="H144" t="n">
-        <v>1.5</v>
+        <v>2.03</v>
       </c>
       <c r="I144" t="n">
-        <v>392010</v>
+        <v>400916</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60708602</v>
+        <v>60270830</v>
       </c>
       <c r="E145" t="n">
-        <v>148914086</v>
+        <v>147840261</v>
       </c>
       <c r="F145" t="n">
-        <v>3187.020727553106</v>
+        <v>3476.719990447314</v>
       </c>
       <c r="G145" t="n">
-        <v>4051.165997131146</v>
+        <v>5524.28934757723</v>
       </c>
       <c r="H145" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="I145" t="n">
-        <v>22448760</v>
+        <v>22493902</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>682546292</v>
+        <v>659172379</v>
       </c>
       <c r="E146" t="n">
-        <v>1052546645</v>
+        <v>1016502008</v>
       </c>
       <c r="F146" t="n">
-        <v>100160.7662139463</v>
+        <v>137149.7548739879</v>
       </c>
       <c r="G146" t="n">
-        <v>144708.6523937173</v>
+        <v>143798.6025260181</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I146" t="n">
-        <v>178668772</v>
+        <v>158244360</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23477585</v>
+        <v>23220836</v>
       </c>
       <c r="E147" t="n">
-        <v>23477585</v>
+        <v>23220836</v>
       </c>
       <c r="F147" t="n">
-        <v>3855.246025245219</v>
+        <v>4493.261660134954</v>
       </c>
       <c r="G147" t="n">
-        <v>7565.998121906079</v>
+        <v>8123.004532116612</v>
       </c>
       <c r="H147" t="n">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="I147" t="n">
-        <v>6016002</v>
+        <v>6286680</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3846462</v>
+        <v>3832281</v>
       </c>
       <c r="E148" t="n">
-        <v>8392930</v>
+        <v>8361987</v>
       </c>
       <c r="F148" t="n">
-        <v>5601.926739815673</v>
+        <v>5702.123754128134</v>
       </c>
       <c r="G148" t="n">
-        <v>5964.205669148729</v>
+        <v>5873.810339681692</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>1007695</v>
+        <v>995443</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9346379</v>
+        <v>9350030</v>
       </c>
       <c r="E149" t="n">
-        <v>9346379</v>
+        <v>9350030</v>
       </c>
       <c r="F149" t="n">
-        <v>85924.09590533299</v>
+        <v>84800.2678043496</v>
       </c>
       <c r="G149" t="n">
-        <v>75104.67584038769</v>
+        <v>79226.78316680595</v>
       </c>
       <c r="H149" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I149" t="n">
-        <v>3353125</v>
+        <v>3183720</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>487600815</v>
+        <v>480964723</v>
       </c>
       <c r="E150" t="n">
-        <v>1698158962</v>
+        <v>1675047557</v>
       </c>
       <c r="F150" t="n">
-        <v>794226.3691917382</v>
+        <v>577462.5728392687</v>
       </c>
       <c r="G150" t="n">
-        <v>867663.0477651935</v>
+        <v>844037.1356348579</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31071038</v>
+        <v>30559277</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48072995</v>
+        <v>48080037</v>
       </c>
       <c r="E151" t="n">
-        <v>118644548</v>
+        <v>118661934</v>
       </c>
       <c r="F151" t="n">
-        <v>8326.647609936801</v>
+        <v>8576.399671147859</v>
       </c>
       <c r="G151" t="n">
-        <v>8579.875821402147</v>
+        <v>8414.200581448864</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>51966</v>
+        <v>42816</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7476012</v>
+        <v>7611605</v>
       </c>
       <c r="E152" t="n">
-        <v>19421875</v>
+        <v>19774132</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>2206.203591208668</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>8003.101673543616</v>
       </c>
       <c r="H152" t="n">
-        <v>5.61</v>
+        <v>1.01</v>
       </c>
       <c r="I152" t="n">
-        <v>678359</v>
+        <v>676604</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19265080492</v>
+        <v>19258971351</v>
       </c>
       <c r="F153" t="n">
-        <v>52437.94560040157</v>
+        <v>52444.39902589472</v>
       </c>
       <c r="G153" t="n">
-        <v>49992.58102151549</v>
+        <v>49982.47440965348</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>49022540</v>
+        <v>48879375</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2644713</v>
+        <v>2659491</v>
       </c>
       <c r="E154" t="n">
-        <v>10578852</v>
+        <v>10637965</v>
       </c>
       <c r="F154" t="n">
-        <v>16326.43771348541</v>
+        <v>25761.81440444435</v>
       </c>
       <c r="G154" t="n">
-        <v>5502.85223064315</v>
+        <v>5681.55848031398</v>
       </c>
       <c r="H154" t="n">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I154" t="n">
-        <v>4936033</v>
+        <v>4947174</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>213226220</v>
+        <v>210903044</v>
       </c>
       <c r="E155" t="n">
-        <v>655590384</v>
+        <v>648447492</v>
       </c>
       <c r="F155" t="n">
-        <v>152860.992854778</v>
+        <v>166883.3146101532</v>
       </c>
       <c r="G155" t="n">
-        <v>168384.1876699998</v>
+        <v>181392.055652845</v>
       </c>
       <c r="H155" t="n">
         <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>11064410</v>
+        <v>11212788</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>405536580</v>
+        <v>397645866</v>
       </c>
       <c r="E156" t="n">
-        <v>2317351884</v>
+        <v>2272262093</v>
       </c>
       <c r="F156" t="n">
-        <v>193095.1308588339</v>
+        <v>163555.3639071991</v>
       </c>
       <c r="G156" t="n">
-        <v>228495.2758109983</v>
+        <v>210991.6715086717</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>37149296</v>
+        <v>36223295</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4054076</v>
+        <v>4016458</v>
       </c>
       <c r="F2" t="n">
-        <v>1113.537241851388</v>
+        <v>2138.56581576354</v>
       </c>
       <c r="G2" t="n">
-        <v>1112.03100176525</v>
+        <v>1511.459790129002</v>
       </c>
       <c r="H2" t="n">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="I2" t="n">
-        <v>77330</v>
+        <v>81665</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>605817508</v>
+        <v>603718968</v>
       </c>
       <c r="E3" t="n">
-        <v>1175454378</v>
+        <v>1171364242</v>
       </c>
       <c r="F3" t="n">
-        <v>75671.05997936342</v>
+        <v>74759.32850750728</v>
       </c>
       <c r="G3" t="n">
-        <v>82854.54782585075</v>
+        <v>70089.36667236731</v>
       </c>
       <c r="H3" t="n">
         <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>22149280</v>
+        <v>22240229</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243167289</v>
+        <v>243452124</v>
       </c>
       <c r="E4" t="n">
-        <v>1524867892</v>
+        <v>1526654052</v>
       </c>
       <c r="F4" t="n">
-        <v>294799.40171572</v>
+        <v>283815.2866749521</v>
       </c>
       <c r="G4" t="n">
-        <v>268234.1642705232</v>
+        <v>234165.7781621855</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>15364754</v>
+        <v>15488470</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138943050</v>
+        <v>139243652</v>
       </c>
       <c r="E5" t="n">
-        <v>153971092</v>
+        <v>154304207</v>
       </c>
       <c r="F5" t="n">
-        <v>8842.805850250699</v>
+        <v>8768.710113591618</v>
       </c>
       <c r="G5" t="n">
-        <v>4709.033654713887</v>
+        <v>921.6329497620732</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I5" t="n">
-        <v>31729384</v>
+        <v>32971078</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49304488</v>
+        <v>49217901</v>
       </c>
       <c r="E6" t="n">
-        <v>61678651</v>
+        <v>61570332</v>
       </c>
       <c r="F6" t="n">
-        <v>5107.256322890177</v>
+        <v>2373.472833428099</v>
       </c>
       <c r="G6" t="n">
-        <v>4803.97557845702</v>
+        <v>3560.894488517631</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>613001</v>
+        <v>621785</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68554808</v>
+        <v>68588310</v>
       </c>
       <c r="E7" t="n">
-        <v>136560982</v>
+        <v>136627719</v>
       </c>
       <c r="F7" t="n">
-        <v>10753.50738414153</v>
+        <v>10521.81474350866</v>
       </c>
       <c r="G7" t="n">
-        <v>11277.80181922077</v>
+        <v>11919.66011541328</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1626412</v>
+        <v>1601476</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39648875</v>
+        <v>39607062</v>
       </c>
       <c r="E8" t="n">
-        <v>44372802</v>
+        <v>44326007</v>
       </c>
       <c r="F8" t="n">
-        <v>6482.687419678326</v>
+        <v>6481.419058683075</v>
       </c>
       <c r="G8" t="n">
-        <v>6545.705011423294</v>
+        <v>6380.229431627856</v>
       </c>
       <c r="H8" t="n">
         <v>0.27</v>
       </c>
       <c r="I8" t="n">
-        <v>234175</v>
+        <v>231553</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14287111</v>
+        <v>14334357</v>
       </c>
       <c r="E9" t="n">
-        <v>42103194</v>
+        <v>42242424</v>
       </c>
       <c r="F9" t="n">
-        <v>5002.534066155895</v>
+        <v>5013.509077086424</v>
       </c>
       <c r="G9" t="n">
-        <v>4896.843467311533</v>
+        <v>4872.843519284641</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="I9" t="n">
-        <v>809368</v>
+        <v>801165</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7768631</v>
+        <v>7555793</v>
       </c>
       <c r="E10" t="n">
-        <v>33400977</v>
+        <v>32485885</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4235.817664714845</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4699.21175379925</v>
       </c>
       <c r="H10" t="n">
-        <v>4.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>854385</v>
+        <v>750784</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>541914242</v>
+        <v>544353804</v>
       </c>
       <c r="E11" t="n">
-        <v>677854173</v>
+        <v>680905703</v>
       </c>
       <c r="F11" t="n">
-        <v>312662.454987902</v>
+        <v>271949.0224846711</v>
       </c>
       <c r="G11" t="n">
-        <v>277189.1394735835</v>
+        <v>268334.2076962973</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>54560331</v>
+        <v>54991120</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4796770</v>
+        <v>4737508</v>
       </c>
       <c r="E12" t="n">
-        <v>29463972</v>
+        <v>29099877</v>
       </c>
       <c r="F12" t="n">
-        <v>11766.57654259503</v>
+        <v>8310.398800684414</v>
       </c>
       <c r="G12" t="n">
-        <v>7990.742231723983</v>
+        <v>6342.400946969231</v>
       </c>
       <c r="H12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I12" t="n">
-        <v>483688</v>
+        <v>455196</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22673060</v>
+        <v>22329816</v>
       </c>
       <c r="E13" t="n">
-        <v>22715512</v>
+        <v>22371625</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>848431</v>
+        <v>866050</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81694453</v>
+        <v>82286714</v>
       </c>
       <c r="E14" t="n">
-        <v>240449004</v>
+        <v>242192189</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>362939</v>
+        <v>411090</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>460609201</v>
+        <v>468532009</v>
       </c>
       <c r="E15" t="n">
-        <v>460609203</v>
+        <v>468532009</v>
       </c>
       <c r="F15" t="n">
-        <v>15615.50291448354</v>
+        <v>8950.168832177789</v>
       </c>
       <c r="G15" t="n">
-        <v>26579.05849551533</v>
+        <v>58431.76846640874</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>56054937</v>
+        <v>58531772</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4672687</v>
+        <v>4670590</v>
       </c>
       <c r="E16" t="n">
-        <v>4672687</v>
+        <v>4670590</v>
       </c>
       <c r="F16" t="n">
-        <v>6789.959072040327</v>
+        <v>315.1681926913511</v>
       </c>
       <c r="G16" t="n">
-        <v>7094.278157660918</v>
+        <v>1355.679927984181</v>
       </c>
       <c r="H16" t="n">
-        <v>0.55</v>
+        <v>0.78</v>
       </c>
       <c r="I16" t="n">
-        <v>1296780</v>
+        <v>1907904</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3321599</v>
+        <v>3256446</v>
       </c>
       <c r="E17" t="n">
-        <v>3321599</v>
+        <v>3256446</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>498510</v>
+        <v>500014</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166934393</v>
+        <v>167253294</v>
       </c>
       <c r="E18" t="n">
-        <v>206671730</v>
+        <v>207066543</v>
       </c>
       <c r="F18" t="n">
-        <v>7968.346558157733</v>
+        <v>7912.762988191046</v>
       </c>
       <c r="G18" t="n">
-        <v>7849.194582981885</v>
+        <v>7384.549783228347</v>
       </c>
       <c r="H18" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="I18" t="n">
-        <v>392036</v>
+        <v>398649</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6670151</v>
+        <v>6939842</v>
       </c>
       <c r="E19" t="n">
-        <v>9186502</v>
+        <v>9557935</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1010057</v>
+        <v>1011178</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>912807</v>
+        <v>917686</v>
       </c>
       <c r="E20" t="n">
-        <v>6389647</v>
+        <v>6423803</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>511456</v>
+        <v>441210</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>106901828</v>
+        <v>107708564</v>
       </c>
       <c r="E21" t="n">
-        <v>416265966</v>
+        <v>419383041</v>
       </c>
       <c r="F21" t="n">
-        <v>35578.84240256181</v>
+        <v>36507.18494041348</v>
       </c>
       <c r="G21" t="n">
-        <v>64580.71707341167</v>
+        <v>77687.34975301723</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>6574682</v>
+        <v>6384620</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1680593</v>
+        <v>1680645</v>
       </c>
       <c r="E22" t="n">
-        <v>12105168</v>
+        <v>12105541</v>
       </c>
       <c r="F22" t="n">
-        <v>4911.109729935598</v>
+        <v>5944.15116921226</v>
       </c>
       <c r="G22" t="n">
-        <v>4376.42997408617</v>
+        <v>4375.092320027508</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>148888</v>
+        <v>147358</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>133095859</v>
+        <v>133555219</v>
       </c>
       <c r="E23" t="n">
-        <v>133095859</v>
+        <v>133555219</v>
       </c>
       <c r="F23" t="n">
-        <v>1122000.567778579</v>
+        <v>1073128.860563692</v>
       </c>
       <c r="G23" t="n">
-        <v>1211609.782742932</v>
+        <v>1227919.410364124</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>63286076</v>
+        <v>63335124</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63477004</v>
+        <v>63739664</v>
       </c>
       <c r="E24" t="n">
-        <v>325523097</v>
+        <v>326870072</v>
       </c>
       <c r="F24" t="n">
-        <v>95749.28320804494</v>
+        <v>87732.81693359854</v>
       </c>
       <c r="G24" t="n">
-        <v>153193.2584335893</v>
+        <v>124575.454415941</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>16819661</v>
+        <v>18027146</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>249826839</v>
+        <v>249070807</v>
       </c>
       <c r="E25" t="n">
-        <v>249826839</v>
+        <v>249070807</v>
       </c>
       <c r="F25" t="n">
-        <v>374019.3167105339</v>
+        <v>324712.7396032944</v>
       </c>
       <c r="G25" t="n">
-        <v>393117.0958777124</v>
+        <v>476129.9709663637</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I25" t="n">
-        <v>14580460</v>
+        <v>14843908</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1119307</v>
+        <v>1125460</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>191865</v>
+        <v>190309</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3950444</v>
+        <v>3939895</v>
       </c>
       <c r="E28" t="n">
-        <v>3951253</v>
+        <v>3940811</v>
       </c>
       <c r="F28" t="n">
-        <v>784.8886942652762</v>
+        <v>811.1260657734093</v>
       </c>
       <c r="G28" t="n">
-        <v>2833.865380266847</v>
+        <v>3724.721113665634</v>
       </c>
       <c r="H28" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="I28" t="n">
-        <v>270499</v>
+        <v>269394</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6545510</v>
+        <v>6573280</v>
       </c>
       <c r="E29" t="n">
-        <v>15898539</v>
+        <v>15965990</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>442772</v>
+        <v>452160</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99270329</v>
+        <v>99298226</v>
       </c>
       <c r="E30" t="n">
-        <v>123778464</v>
+        <v>123813247</v>
       </c>
       <c r="F30" t="n">
-        <v>125630.7321464018</v>
+        <v>117366.6747626715</v>
       </c>
       <c r="G30" t="n">
-        <v>90378.01013109495</v>
+        <v>127443.9847909436</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12236996</v>
+        <v>11794569</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1129204</v>
+        <v>1115047</v>
       </c>
       <c r="E31" t="n">
-        <v>12271768</v>
+        <v>12117913</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29689</v>
+        <v>29345</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>72566614</v>
+        <v>71915314</v>
       </c>
       <c r="E32" t="n">
-        <v>203124425</v>
+        <v>201310794</v>
       </c>
       <c r="F32" t="n">
-        <v>63603.55749549262</v>
+        <v>51469.00714670983</v>
       </c>
       <c r="G32" t="n">
-        <v>92071.42099454362</v>
+        <v>65465.24208922878</v>
       </c>
       <c r="H32" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>31324879</v>
+        <v>32322624</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4306616</v>
+        <v>4233490</v>
       </c>
       <c r="E33" t="n">
-        <v>8493010</v>
+        <v>8348799</v>
       </c>
       <c r="F33" t="n">
-        <v>7561.744492083601</v>
+        <v>7160.569304672113</v>
       </c>
       <c r="G33" t="n">
-        <v>8205.35317331327</v>
+        <v>10066.95711112178</v>
       </c>
       <c r="H33" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="I33" t="n">
-        <v>1676352</v>
+        <v>1645132</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37416881</v>
+        <v>37441080</v>
       </c>
       <c r="F34" t="n">
-        <v>943.8009860076418</v>
+        <v>918.8254470196214</v>
       </c>
       <c r="G34" t="n">
-        <v>916.6321548604795</v>
+        <v>663.0500697570893</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03</v>
+        <v>0.53</v>
       </c>
       <c r="I34" t="n">
-        <v>66952</v>
+        <v>65050</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7555717</v>
+        <v>7559316</v>
       </c>
       <c r="E35" t="n">
-        <v>17795214</v>
+        <v>17803693</v>
       </c>
       <c r="F35" t="n">
-        <v>3405.930919318931</v>
+        <v>3406.150780548742</v>
       </c>
       <c r="G35" t="n">
-        <v>2821.600889409829</v>
+        <v>2820.576365483695</v>
       </c>
       <c r="H35" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="I35" t="n">
-        <v>28202</v>
+        <v>28904</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23258043</v>
+        <v>23285007</v>
       </c>
       <c r="F36" t="n">
-        <v>5308.637899335239</v>
+        <v>5293.682380159402</v>
       </c>
       <c r="G36" t="n">
-        <v>5154.306700527117</v>
+        <v>5519.602407250582</v>
       </c>
       <c r="H36" t="n">
-        <v>1.11</v>
+        <v>0.77</v>
       </c>
       <c r="I36" t="n">
-        <v>123146</v>
+        <v>121722</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>71316077</v>
+        <v>71441000</v>
       </c>
       <c r="E37" t="n">
-        <v>148730236</v>
+        <v>148990763</v>
       </c>
       <c r="F37" t="n">
-        <v>47188.91287359613</v>
+        <v>75937.89020832424</v>
       </c>
       <c r="G37" t="n">
-        <v>98601.47960085777</v>
+        <v>122092.9031417019</v>
       </c>
       <c r="H37" t="n">
         <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>13504422</v>
+        <v>13668666</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>275315135</v>
+        <v>276047274</v>
       </c>
       <c r="E38" t="n">
-        <v>275315135</v>
+        <v>276047274</v>
       </c>
       <c r="F38" t="n">
-        <v>32075.83467727118</v>
+        <v>21364.95224612707</v>
       </c>
       <c r="G38" t="n">
-        <v>28191.8686279837</v>
+        <v>27731.12282121301</v>
       </c>
       <c r="H38" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>14988358</v>
+        <v>12002464</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194796129</v>
+        <v>196037073</v>
       </c>
       <c r="E39" t="n">
-        <v>676739357</v>
+        <v>681050510</v>
       </c>
       <c r="F39" t="n">
-        <v>128138.5199385719</v>
+        <v>164203.4615364166</v>
       </c>
       <c r="G39" t="n">
-        <v>376327.2601397412</v>
+        <v>315178.4151592047</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>26224779</v>
+        <v>26301573</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4185490</v>
+        <v>4168274</v>
       </c>
       <c r="E40" t="n">
-        <v>4185490</v>
+        <v>4168274</v>
       </c>
       <c r="F40" t="n">
-        <v>1176.507138499947</v>
+        <v>6334.45605662826</v>
       </c>
       <c r="G40" t="n">
-        <v>1617.522705055988</v>
+        <v>777.9571136021774</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="I40" t="n">
-        <v>4095156</v>
+        <v>3923788</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>112851451</v>
+        <v>112123479</v>
       </c>
       <c r="E41" t="n">
-        <v>480227319</v>
+        <v>477079380</v>
       </c>
       <c r="F41" t="n">
-        <v>4823.075274433001</v>
+        <v>5849.917872670099</v>
       </c>
       <c r="G41" t="n">
-        <v>6867.649382229823</v>
+        <v>6128.797824503155</v>
       </c>
       <c r="H41" t="n">
-        <v>0.27</v>
+        <v>0.63</v>
       </c>
       <c r="I41" t="n">
-        <v>11522941</v>
+        <v>11641726</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>532549</v>
+        <v>533602</v>
       </c>
       <c r="E42" t="n">
-        <v>6459300</v>
+        <v>6472068</v>
       </c>
       <c r="F42" t="n">
-        <v>606.0933563959946</v>
+        <v>453.4120270393103</v>
       </c>
       <c r="G42" t="n">
-        <v>1115.461767964923</v>
+        <v>893.5483083782406</v>
       </c>
       <c r="H42" t="n">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="I42" t="n">
-        <v>2858708</v>
+        <v>2807138</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1264330886</v>
+        <v>1264311651</v>
       </c>
       <c r="E43" t="n">
-        <v>6062725528</v>
+        <v>6062633294</v>
       </c>
       <c r="F43" t="n">
-        <v>9849.263290139637</v>
+        <v>46854.90390134718</v>
       </c>
       <c r="G43" t="n">
-        <v>40006.05940133268</v>
+        <v>64015.23287641237</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I43" t="n">
-        <v>189627280</v>
+        <v>184302692</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6046293554</v>
+        <v>6056473880</v>
       </c>
       <c r="E44" t="n">
-        <v>6046293554</v>
+        <v>6056473880</v>
       </c>
       <c r="F44" t="n">
-        <v>808474.390090521</v>
+        <v>797166.1063632081</v>
       </c>
       <c r="G44" t="n">
-        <v>1729376.850861454</v>
+        <v>1750248.248240011</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>99005575</v>
+        <v>98418586</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>266040449</v>
+        <v>265022372</v>
       </c>
       <c r="E45" t="n">
-        <v>1148378270</v>
+        <v>1143983682</v>
       </c>
       <c r="F45" t="n">
-        <v>102200.7971412988</v>
+        <v>101723.1382256312</v>
       </c>
       <c r="G45" t="n">
-        <v>103691.1982427962</v>
+        <v>100568.2517993612</v>
       </c>
       <c r="H45" t="n">
         <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>109131500</v>
+        <v>112388522</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>112445546</v>
+        <v>113132171</v>
       </c>
       <c r="E46" t="n">
-        <v>112445546</v>
+        <v>113132171</v>
       </c>
       <c r="F46" t="n">
-        <v>42344.22764067687</v>
+        <v>29303.58167682274</v>
       </c>
       <c r="G46" t="n">
-        <v>29654.59384886907</v>
+        <v>36289.40912482593</v>
       </c>
       <c r="H46" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I46" t="n">
-        <v>5869124</v>
+        <v>5934915</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2044511245</v>
+        <v>2049754186</v>
       </c>
       <c r="E47" t="n">
-        <v>2044511245</v>
+        <v>2049754186</v>
       </c>
       <c r="F47" t="n">
-        <v>220205.2410456732</v>
+        <v>219941.6702846414</v>
       </c>
       <c r="G47" t="n">
-        <v>201487.3352586357</v>
+        <v>202026.9526168712</v>
       </c>
       <c r="H47" t="n">
         <v>0.02</v>
       </c>
       <c r="I47" t="n">
-        <v>5119828713</v>
+        <v>5404450066</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9866426</v>
+        <v>9844696</v>
       </c>
       <c r="F48" t="n">
-        <v>7594.738742644903</v>
+        <v>7281.825968633588</v>
       </c>
       <c r="G48" t="n">
-        <v>5982.792365470406</v>
+        <v>5673.108338044597</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>181230</v>
+        <v>177842</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4404862</v>
+        <v>4415681</v>
       </c>
       <c r="E49" t="n">
-        <v>5783010</v>
+        <v>5797213</v>
       </c>
       <c r="F49" t="n">
-        <v>13522.4408819898</v>
+        <v>5838.620204608195</v>
       </c>
       <c r="G49" t="n">
-        <v>10192.86039181413</v>
+        <v>16352.45987188883</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>629368</v>
+        <v>622198</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11767369</v>
+        <v>11699520</v>
       </c>
       <c r="E50" t="n">
-        <v>17303694</v>
+        <v>17203924</v>
       </c>
       <c r="F50" t="n">
-        <v>7943.263979832678</v>
+        <v>6343.291529717397</v>
       </c>
       <c r="G50" t="n">
-        <v>25693.37080873986</v>
+        <v>26098.25968372711</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I50" t="n">
-        <v>1014095</v>
+        <v>994689</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22563501</v>
+        <v>22429205</v>
       </c>
       <c r="E51" t="n">
-        <v>29270023</v>
+        <v>29095810</v>
       </c>
       <c r="F51" t="n">
-        <v>15393.27295111977</v>
+        <v>9926.996288234737</v>
       </c>
       <c r="G51" t="n">
-        <v>12540.63541149189</v>
+        <v>7544.532404813775</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>164922</v>
+        <v>161674</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13628244</v>
+        <v>13567897</v>
       </c>
       <c r="E52" t="n">
-        <v>13628244</v>
+        <v>13567897</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4366994</v>
+        <v>4512030</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98941582</v>
+        <v>98937231</v>
       </c>
       <c r="E53" t="n">
-        <v>122387196</v>
+        <v>122381814</v>
       </c>
       <c r="F53" t="n">
-        <v>607.0317155892646</v>
+        <v>459.1364354453509</v>
       </c>
       <c r="G53" t="n">
-        <v>3914.037706199416</v>
+        <v>3929.542198702415</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I53" t="n">
-        <v>752714</v>
+        <v>757826</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5222489</v>
+        <v>5176812</v>
       </c>
       <c r="E54" t="n">
-        <v>7307020</v>
+        <v>7243111</v>
       </c>
       <c r="F54" t="n">
-        <v>78.53477533629659</v>
+        <v>90.97954852173761</v>
       </c>
       <c r="G54" t="n">
-        <v>129.5412359933156</v>
+        <v>84.86184589976467</v>
       </c>
       <c r="H54" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="I54" t="n">
-        <v>106030</v>
+        <v>103892</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13941693</v>
+        <v>13825835</v>
       </c>
       <c r="E55" t="n">
-        <v>67521846</v>
+        <v>66960723</v>
       </c>
       <c r="F55" t="n">
-        <v>31350.96088501772</v>
+        <v>18807.91545638911</v>
       </c>
       <c r="G55" t="n">
-        <v>27958.48893373977</v>
+        <v>32745.32604198113</v>
       </c>
       <c r="H55" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I55" t="n">
-        <v>3506263</v>
+        <v>3596950</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56993</v>
+        <v>60495</v>
       </c>
       <c r="E56" t="n">
-        <v>136510</v>
+        <v>144899</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4571.71</v>
+        <v>4428.04</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1859611012</v>
+        <v>1874205379</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>25738653</v>
+        <v>26054877</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12142054</v>
+        <v>12196700</v>
       </c>
       <c r="E58" t="n">
-        <v>17604226</v>
+        <v>17683455</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1597979</v>
+        <v>2279407</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123257278</v>
+        <v>123875328</v>
       </c>
       <c r="E59" t="n">
-        <v>327794096</v>
+        <v>329437756</v>
       </c>
       <c r="F59" t="n">
-        <v>142.2121398989571</v>
+        <v>6998.243356131033</v>
       </c>
       <c r="G59" t="n">
-        <v>10019.22759575278</v>
+        <v>7571.530614227229</v>
       </c>
       <c r="H59" t="n">
-        <v>0.67</v>
+        <v>1.53</v>
       </c>
       <c r="I59" t="n">
-        <v>1388407</v>
+        <v>1374831</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31622892</v>
+        <v>32540174</v>
       </c>
       <c r="E60" t="n">
-        <v>98463540</v>
+        <v>101319661</v>
       </c>
       <c r="F60" t="n">
-        <v>4808.659856866534</v>
+        <v>6116.015215135471</v>
       </c>
       <c r="G60" t="n">
-        <v>6101.48076974619</v>
+        <v>5887.781217077915</v>
       </c>
       <c r="H60" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="I60" t="n">
-        <v>12143435</v>
+        <v>11956069</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1927731</v>
+        <v>2025891</v>
       </c>
       <c r="E61" t="n">
-        <v>13823568</v>
+        <v>14527464</v>
       </c>
       <c r="F61" t="n">
-        <v>5142.814193908283</v>
+        <v>66.74942729733141</v>
       </c>
       <c r="G61" t="n">
-        <v>1194.431665719573</v>
+        <v>4982.404729814019</v>
       </c>
       <c r="H61" t="n">
-        <v>0.93</v>
+        <v>2.78</v>
       </c>
       <c r="I61" t="n">
-        <v>1843944</v>
+        <v>608905</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>194847906</v>
+        <v>196274156</v>
       </c>
       <c r="E62" t="n">
-        <v>1103348569</v>
+        <v>1111424870</v>
       </c>
       <c r="F62" t="n">
-        <v>492079.7799697135</v>
+        <v>677158.6544728862</v>
       </c>
       <c r="G62" t="n">
-        <v>829799.4926289254</v>
+        <v>696973.8813983364</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>58765170</v>
+        <v>60556649</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>500941</v>
+        <v>498998</v>
       </c>
       <c r="E63" t="n">
-        <v>1686098</v>
+        <v>1679557</v>
       </c>
       <c r="F63" t="n">
-        <v>4701.170804096591</v>
+        <v>4605.867619711084</v>
       </c>
       <c r="G63" t="n">
-        <v>541.5668548728471</v>
+        <v>558.4325638381736</v>
       </c>
       <c r="H63" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="I63" t="n">
-        <v>631768</v>
+        <v>631188</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>336708</v>
+        <v>337573</v>
       </c>
       <c r="E64" t="n">
-        <v>336708</v>
+        <v>337573</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5989.89</v>
+        <v>6281.63</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>137447133</v>
+        <v>137325315</v>
       </c>
       <c r="E65" t="n">
-        <v>1018126914</v>
+        <v>1017224554</v>
       </c>
       <c r="F65" t="n">
-        <v>38633.37432249374</v>
+        <v>38408.73764481107</v>
       </c>
       <c r="G65" t="n">
-        <v>41875.25192423572</v>
+        <v>39823.86590324069</v>
       </c>
       <c r="H65" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>12272055</v>
+        <v>12142618</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8080557</v>
+        <v>8095169</v>
       </c>
       <c r="E66" t="n">
-        <v>10825694</v>
+        <v>10845270</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59944</v>
+        <v>59675</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26009245</v>
+        <v>25673322</v>
       </c>
       <c r="E67" t="n">
-        <v>26009245</v>
+        <v>25673322</v>
       </c>
       <c r="F67" t="n">
-        <v>7569.257585547062</v>
+        <v>5818.3969875593</v>
       </c>
       <c r="G67" t="n">
-        <v>6400.79756903387</v>
+        <v>6664.369400672304</v>
       </c>
       <c r="H67" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="I67" t="n">
-        <v>347590</v>
+        <v>347674</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1570243</v>
+        <v>1560024</v>
       </c>
       <c r="E68" t="n">
-        <v>12195683</v>
+        <v>12116314</v>
       </c>
       <c r="F68" t="n">
-        <v>3293.371711921636</v>
+        <v>2163.127069603725</v>
       </c>
       <c r="G68" t="n">
-        <v>10584.27215947664</v>
+        <v>27321.00937660064</v>
       </c>
       <c r="H68" t="n">
-        <v>0.73</v>
+        <v>0.28</v>
       </c>
       <c r="I68" t="n">
-        <v>522516</v>
+        <v>508878</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>330589161</v>
+        <v>333920648</v>
       </c>
       <c r="E69" t="n">
-        <v>2974185084</v>
+        <v>3004157205</v>
       </c>
       <c r="F69" t="n">
-        <v>920799.8236019209</v>
+        <v>1048878.650588536</v>
       </c>
       <c r="G69" t="n">
-        <v>1927862.161179018</v>
+        <v>1984467.568997049</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>37171806</v>
+        <v>37676268</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>257931</v>
+        <v>262129</v>
       </c>
       <c r="E70" t="n">
-        <v>2276433</v>
+        <v>2313481</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>94275</v>
+        <v>81022</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1584235</v>
+        <v>1588640</v>
       </c>
       <c r="E71" t="n">
-        <v>13201955</v>
+        <v>13238667</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>48655</v>
+        <v>53074</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8888099</v>
+        <v>8852726</v>
       </c>
       <c r="E72" t="n">
-        <v>41196850</v>
+        <v>41032893</v>
       </c>
       <c r="F72" t="n">
-        <v>5595.067171993306</v>
+        <v>4849.636106915103</v>
       </c>
       <c r="G72" t="n">
-        <v>9247.924155240315</v>
+        <v>10162.22201871793</v>
       </c>
       <c r="H72" t="n">
-        <v>0.86</v>
+        <v>1.51</v>
       </c>
       <c r="I72" t="n">
-        <v>91935</v>
+        <v>95314</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42569067</v>
+        <v>42685720</v>
       </c>
       <c r="E73" t="n">
-        <v>246457310</v>
+        <v>247132681</v>
       </c>
       <c r="F73" t="n">
-        <v>121768.8641143746</v>
+        <v>135544.1183208858</v>
       </c>
       <c r="G73" t="n">
-        <v>186141.1194959744</v>
+        <v>150286.7908491947</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>11241475</v>
+        <v>11135613</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39575563</v>
+        <v>39182000</v>
       </c>
       <c r="E74" t="n">
-        <v>54659488</v>
+        <v>54115922</v>
       </c>
       <c r="F74" t="n">
-        <v>4370.433590748835</v>
+        <v>570.7266058778351</v>
       </c>
       <c r="G74" t="n">
-        <v>11031.13436398839</v>
+        <v>792.6130849642568</v>
       </c>
       <c r="H74" t="n">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="I74" t="n">
-        <v>329128</v>
+        <v>348043</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95156</v>
+        <v>94092</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>844.12</v>
+        <v>992.8099999999999</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13503417</v>
+        <v>13506817</v>
       </c>
       <c r="E76" t="n">
-        <v>13549371</v>
+        <v>13552782</v>
       </c>
       <c r="F76" t="n">
-        <v>2685.53128247808</v>
+        <v>6728.785430880165</v>
       </c>
       <c r="G76" t="n">
-        <v>6468.086950339262</v>
+        <v>7886.971682026749</v>
       </c>
       <c r="H76" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="I76" t="n">
-        <v>5746944</v>
+        <v>5749477</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42850534</v>
+        <v>42950291</v>
       </c>
       <c r="E77" t="n">
-        <v>72750238</v>
+        <v>72919602</v>
       </c>
       <c r="F77" t="n">
-        <v>10146.67296281166</v>
+        <v>10149.4007185877</v>
       </c>
       <c r="G77" t="n">
-        <v>6406.337237087127</v>
+        <v>5502.07766048272</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>1156535</v>
+        <v>1110428</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>26077357</v>
+        <v>26000024</v>
       </c>
       <c r="E78" t="n">
-        <v>78167614</v>
+        <v>77935336</v>
       </c>
       <c r="F78" t="n">
-        <v>101477.141768722</v>
+        <v>113979.2187480436</v>
       </c>
       <c r="G78" t="n">
-        <v>144552.9111675019</v>
+        <v>131808.8975125828</v>
       </c>
       <c r="H78" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I78" t="n">
-        <v>2414906</v>
+        <v>2429707</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100943033</v>
+        <v>101156391</v>
       </c>
       <c r="E79" t="n">
-        <v>107311566</v>
+        <v>107538385</v>
       </c>
       <c r="F79" t="n">
-        <v>1543.320558045031</v>
+        <v>1578.526513485727</v>
       </c>
       <c r="G79" t="n">
-        <v>5086.433089515716</v>
+        <v>4866.271456186431</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="I79" t="n">
-        <v>977659</v>
+        <v>978027</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10657913</v>
+        <v>10682990</v>
       </c>
       <c r="E80" t="n">
-        <v>46360059</v>
+        <v>46502126</v>
       </c>
       <c r="F80" t="n">
-        <v>5758.406652460854</v>
+        <v>6122.369912586762</v>
       </c>
       <c r="G80" t="n">
-        <v>9155.763895146305</v>
+        <v>9006.915380445173</v>
       </c>
       <c r="H80" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="I80" t="n">
-        <v>112136</v>
+        <v>112613</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15144515</v>
+        <v>15086612</v>
       </c>
       <c r="E81" t="n">
-        <v>92825715</v>
+        <v>92470803</v>
       </c>
       <c r="F81" t="n">
-        <v>4061.912488476891</v>
+        <v>4044.92085782779</v>
       </c>
       <c r="G81" t="n">
-        <v>6269.986467589038</v>
+        <v>4368.908351365104</v>
       </c>
       <c r="H81" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>12073906</v>
+        <v>11801359</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1487710</v>
+        <v>1487767</v>
       </c>
       <c r="E82" t="n">
-        <v>1529558</v>
+        <v>1529617</v>
       </c>
       <c r="F82" t="n">
-        <v>5258.011328805964</v>
+        <v>3576.287975370965</v>
       </c>
       <c r="G82" t="n">
-        <v>4644.291755067493</v>
+        <v>6155.596293060717</v>
       </c>
       <c r="H82" t="n">
-        <v>1.27</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>136814</v>
+        <v>130754</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>45811089</v>
+        <v>46078350</v>
       </c>
       <c r="E83" t="n">
-        <v>197349164</v>
+        <v>198500493</v>
       </c>
       <c r="F83" t="n">
-        <v>3398.572837121313</v>
+        <v>3354.316277322357</v>
       </c>
       <c r="G83" t="n">
-        <v>4380.789887217847</v>
+        <v>3737.322694087833</v>
       </c>
       <c r="H83" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>8178016</v>
+        <v>8382820</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1728609</v>
+        <v>1730040</v>
       </c>
       <c r="E84" t="n">
-        <v>6281647</v>
+        <v>6286763</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>130038</v>
+        <v>135673</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9028558</v>
+        <v>9029258</v>
       </c>
       <c r="E85" t="n">
-        <v>20052454</v>
+        <v>20054010</v>
       </c>
       <c r="F85" t="n">
-        <v>6444.149483888182</v>
+        <v>7373.914176864004</v>
       </c>
       <c r="G85" t="n">
-        <v>7385.665623977294</v>
+        <v>7117.399607207913</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>311291</v>
+        <v>416218</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2450807</v>
+        <v>2450925</v>
       </c>
       <c r="E86" t="n">
-        <v>18443431</v>
+        <v>18443043</v>
       </c>
       <c r="F86" t="n">
-        <v>6404.213648370881</v>
+        <v>8417.360888999703</v>
       </c>
       <c r="G86" t="n">
-        <v>12839.02654159607</v>
+        <v>12123.10167508188</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>162380</v>
+        <v>162473</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20906854</v>
+        <v>20294646</v>
       </c>
       <c r="E87" t="n">
-        <v>83627416</v>
+        <v>81178583</v>
       </c>
       <c r="F87" t="n">
-        <v>10223.40902364094</v>
+        <v>18318.57666041917</v>
       </c>
       <c r="G87" t="n">
-        <v>2643.492538689195</v>
+        <v>4123.484309135346</v>
       </c>
       <c r="H87" t="n">
-        <v>1.54</v>
+        <v>0.25</v>
       </c>
       <c r="I87" t="n">
-        <v>5864964</v>
+        <v>6014412</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4312745</v>
+        <v>4248487</v>
       </c>
       <c r="E88" t="n">
-        <v>4312745</v>
+        <v>4248487</v>
       </c>
       <c r="F88" t="n">
-        <v>1391.323796517589</v>
+        <v>171.2653794081</v>
       </c>
       <c r="G88" t="n">
-        <v>787.3997820570016</v>
+        <v>657.1167312528231</v>
       </c>
       <c r="H88" t="n">
-        <v>0.16</v>
+        <v>0.63</v>
       </c>
       <c r="I88" t="n">
-        <v>2445058</v>
+        <v>2463492</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12644006</v>
+        <v>12662956</v>
       </c>
       <c r="E89" t="n">
-        <v>40002090</v>
+        <v>40062040</v>
       </c>
       <c r="F89" t="n">
-        <v>17693.6121855914</v>
+        <v>12453.5851580169</v>
       </c>
       <c r="G89" t="n">
-        <v>11333.26705103261</v>
+        <v>13388.42750016763</v>
       </c>
       <c r="H89" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>1580287</v>
+        <v>1489217</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26746</v>
+        <v>26558</v>
       </c>
       <c r="E90" t="n">
-        <v>210347</v>
+        <v>208869</v>
       </c>
       <c r="F90" t="n">
-        <v>6002.817151338995</v>
+        <v>5724.776271090333</v>
       </c>
       <c r="G90" t="n">
-        <v>306.0599067905529</v>
+        <v>340.1977687658934</v>
       </c>
       <c r="H90" t="n">
         <v>0.38</v>
       </c>
       <c r="I90" t="n">
-        <v>127146</v>
+        <v>128943</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7976933</v>
+        <v>8057242</v>
       </c>
       <c r="E91" t="n">
-        <v>7976933</v>
+        <v>8057242</v>
       </c>
       <c r="F91" t="n">
-        <v>3795.219866529978</v>
+        <v>3495.568432995654</v>
       </c>
       <c r="G91" t="n">
-        <v>4197.853232264016</v>
+        <v>3633.579734186953</v>
       </c>
       <c r="H91" t="n">
         <v>0.49</v>
       </c>
       <c r="I91" t="n">
-        <v>3469887</v>
+        <v>3456341</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9764810</v>
+        <v>9103661</v>
       </c>
       <c r="E92" t="n">
-        <v>9764810</v>
+        <v>9103661</v>
       </c>
       <c r="F92" t="n">
-        <v>2867.435244202227</v>
+        <v>1440.141083916948</v>
       </c>
       <c r="G92" t="n">
-        <v>4793.811570772599</v>
+        <v>1675.097069998545</v>
       </c>
       <c r="H92" t="n">
-        <v>0.24</v>
+        <v>0.77</v>
       </c>
       <c r="I92" t="n">
-        <v>2356806</v>
+        <v>2612270</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>35743966</v>
+        <v>36289980</v>
       </c>
       <c r="E93" t="n">
-        <v>90129121</v>
+        <v>91505907</v>
       </c>
       <c r="F93" t="n">
-        <v>5675.936948228275</v>
+        <v>5137.65645539994</v>
       </c>
       <c r="G93" t="n">
-        <v>6037.987491999727</v>
+        <v>5570.910510829915</v>
       </c>
       <c r="H93" t="n">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="I93" t="n">
-        <v>2818826</v>
+        <v>2839958</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>293179313</v>
+        <v>295885639</v>
       </c>
       <c r="E94" t="n">
-        <v>297761626</v>
+        <v>300510212</v>
       </c>
       <c r="F94" t="n">
-        <v>46565.56964883688</v>
+        <v>36726.72654957612</v>
       </c>
       <c r="G94" t="n">
-        <v>50269.71215555195</v>
+        <v>48043.58385893814</v>
       </c>
       <c r="H94" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I94" t="n">
-        <v>11439994</v>
+        <v>11522408</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>903.4555695830327</v>
+        <v>831.0104529671283</v>
       </c>
       <c r="G95" t="n">
-        <v>6570.308973072982</v>
+        <v>6845.108569100424</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I95" t="n">
-        <v>223770</v>
+        <v>222701</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>75549902</v>
+        <v>78207753</v>
       </c>
       <c r="E96" t="n">
-        <v>75549902</v>
+        <v>78207753</v>
       </c>
       <c r="F96" t="n">
-        <v>15063.97305692429</v>
+        <v>16197.30185289149</v>
       </c>
       <c r="G96" t="n">
-        <v>4158.187838469813</v>
+        <v>6537.271647933875</v>
       </c>
       <c r="H96" t="n">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="I96" t="n">
-        <v>4645282</v>
+        <v>4729986</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>297534368</v>
+        <v>295947514</v>
       </c>
       <c r="E97" t="n">
-        <v>297534368</v>
+        <v>295947514</v>
       </c>
       <c r="F97" t="n">
-        <v>298524.0421426775</v>
+        <v>278250.2211764044</v>
       </c>
       <c r="G97" t="n">
-        <v>398146.5025005762</v>
+        <v>460145.7805051768</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50461701</v>
+        <v>50080075</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4109295</v>
+        <v>4102490</v>
       </c>
       <c r="E98" t="n">
-        <v>28078525</v>
+        <v>28032026</v>
       </c>
       <c r="F98" t="n">
-        <v>4565.977145189521</v>
+        <v>430.9466879732387</v>
       </c>
       <c r="G98" t="n">
-        <v>4480.312385130762</v>
+        <v>311.4933078669612</v>
       </c>
       <c r="H98" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I98" t="n">
-        <v>2526522</v>
+        <v>2516952</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>88643188</v>
+        <v>88670869</v>
       </c>
       <c r="E99" t="n">
-        <v>510800286</v>
+        <v>510959795</v>
       </c>
       <c r="F99" t="n">
-        <v>136553.3693674954</v>
+        <v>117462.4451365926</v>
       </c>
       <c r="G99" t="n">
-        <v>156314.2354497224</v>
+        <v>148414.9593780294</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I99" t="n">
-        <v>15865540</v>
+        <v>15932807</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>106780074</v>
+        <v>107004934</v>
       </c>
       <c r="E100" t="n">
-        <v>262720700</v>
+        <v>263273943</v>
       </c>
       <c r="F100" t="n">
-        <v>25870.07988118026</v>
+        <v>25757.98100737149</v>
       </c>
       <c r="G100" t="n">
-        <v>35908.99027124755</v>
+        <v>40999.25320541038</v>
       </c>
       <c r="H100" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="I100" t="n">
-        <v>2400369</v>
+        <v>2406670</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>244824428</v>
+        <v>245338456</v>
       </c>
       <c r="E101" t="n">
-        <v>244826860</v>
+        <v>245340893</v>
       </c>
       <c r="F101" t="n">
-        <v>42386.86810575074</v>
+        <v>13900.25845996739</v>
       </c>
       <c r="G101" t="n">
-        <v>7177.56554908692</v>
+        <v>2564.065864272665</v>
       </c>
       <c r="H101" t="n">
         <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>2530556</v>
+        <v>2682630</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>29892346</v>
+        <v>30035680</v>
       </c>
       <c r="E102" t="n">
-        <v>133840294</v>
+        <v>134482061</v>
       </c>
       <c r="F102" t="n">
-        <v>104357.7252922442</v>
+        <v>110940.8489016798</v>
       </c>
       <c r="G102" t="n">
-        <v>144637.4206779942</v>
+        <v>129511.6848994396</v>
       </c>
       <c r="H102" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I102" t="n">
-        <v>8988929</v>
+        <v>8877022</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2903337</v>
+        <v>3036110</v>
       </c>
       <c r="E103" t="n">
-        <v>2903337</v>
+        <v>3036110</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>363893</v>
+        <v>391877</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6109005</v>
+        <v>6042965</v>
       </c>
       <c r="E104" t="n">
-        <v>16033120</v>
+        <v>15859787</v>
       </c>
       <c r="F104" t="n">
-        <v>9224.17477929839</v>
+        <v>8830.360698666767</v>
       </c>
       <c r="G104" t="n">
-        <v>3559.647889133266</v>
+        <v>3646.202078649125</v>
       </c>
       <c r="H104" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="I104" t="n">
-        <v>74375</v>
+        <v>72295</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17156305</v>
+        <v>17155252</v>
       </c>
       <c r="E105" t="n">
-        <v>79190422</v>
+        <v>79185612</v>
       </c>
       <c r="F105" t="n">
-        <v>56337.18571230427</v>
+        <v>15475.60211962188</v>
       </c>
       <c r="G105" t="n">
-        <v>62631.43908754454</v>
+        <v>46074.5875915587</v>
       </c>
       <c r="H105" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="I105" t="n">
-        <v>1210747</v>
+        <v>1120477</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>46682526</v>
+        <v>46853474</v>
       </c>
       <c r="E106" t="n">
-        <v>302723760</v>
+        <v>303832309</v>
       </c>
       <c r="F106" t="n">
-        <v>109686.7934148123</v>
+        <v>92759.83311103856</v>
       </c>
       <c r="G106" t="n">
-        <v>164074.7247064846</v>
+        <v>165566.6249946548</v>
       </c>
       <c r="H106" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17297420</v>
+        <v>17333902</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2523896</v>
+        <v>2619901</v>
       </c>
       <c r="E107" t="n">
-        <v>4572512</v>
+        <v>4746444</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>104292</v>
+        <v>107922</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125114755</v>
+        <v>125210039</v>
       </c>
       <c r="E108" t="n">
-        <v>2072002816</v>
+        <v>2073580797</v>
       </c>
       <c r="F108" t="n">
-        <v>441293.5576956338</v>
+        <v>221900.5135288768</v>
       </c>
       <c r="G108" t="n">
-        <v>131715.9540092258</v>
+        <v>120756.0489756817</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5046968</v>
+        <v>5021942</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23099025</v>
+        <v>23126889</v>
       </c>
       <c r="E109" t="n">
-        <v>138206111</v>
+        <v>138372825</v>
       </c>
       <c r="F109" t="n">
-        <v>37625.87137936529</v>
+        <v>40004.38001590992</v>
       </c>
       <c r="G109" t="n">
-        <v>37203.2889512297</v>
+        <v>37658.1773491467</v>
       </c>
       <c r="H109" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I109" t="n">
-        <v>12666386</v>
+        <v>12634730</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1013663</v>
+        <v>1004777</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>73233</v>
+        <v>68158</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2287911</v>
+        <v>2276369</v>
       </c>
       <c r="F111" t="n">
-        <v>3908.563100577435</v>
+        <v>2636.910924160308</v>
       </c>
       <c r="G111" t="n">
-        <v>220.5642243494598</v>
+        <v>344.6302056903817</v>
       </c>
       <c r="H111" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I111" t="n">
-        <v>214175</v>
+        <v>213330</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142426192</v>
+        <v>142404109</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.888017783478</v>
+        <v>3146.780270793535</v>
       </c>
       <c r="G112" t="n">
-        <v>909.6533773715075</v>
+        <v>909.6222315497469</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>61259</v>
+        <v>57280</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6923329</v>
+        <v>6856334</v>
       </c>
       <c r="E113" t="n">
-        <v>35618426</v>
+        <v>35273754</v>
       </c>
       <c r="F113" t="n">
-        <v>1040.701780435615</v>
+        <v>1048.149278097017</v>
       </c>
       <c r="G113" t="n">
-        <v>585.2346274921476</v>
+        <v>470.4692235009226</v>
       </c>
       <c r="H113" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I113" t="n">
-        <v>910244</v>
+        <v>914521</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>28923857</v>
+        <v>28998547</v>
       </c>
       <c r="E114" t="n">
-        <v>39751232</v>
+        <v>39853882</v>
       </c>
       <c r="F114" t="n">
-        <v>3952.35280312742</v>
+        <v>5090.897679843257</v>
       </c>
       <c r="G114" t="n">
-        <v>5198.217678910119</v>
+        <v>4064.972688733792</v>
       </c>
       <c r="H114" t="n">
         <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>352531</v>
+        <v>299862</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8058806</v>
+        <v>8051901</v>
       </c>
       <c r="F115" t="n">
-        <v>684.7840118028743</v>
+        <v>630.6081527292715</v>
       </c>
       <c r="G115" t="n">
-        <v>6691.193060758508</v>
+        <v>6675.462856367615</v>
       </c>
       <c r="H115" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="I115" t="n">
-        <v>698215</v>
+        <v>707883</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3329658</v>
+        <v>3319525</v>
       </c>
       <c r="E116" t="n">
-        <v>4460287</v>
+        <v>4446713</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148268</v>
+        <v>146754</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33576269</v>
+        <v>33971483</v>
       </c>
       <c r="E117" t="n">
-        <v>167561061</v>
+        <v>169533359</v>
       </c>
       <c r="F117" t="n">
-        <v>85334.44665765451</v>
+        <v>79768.01576138218</v>
       </c>
       <c r="G117" t="n">
-        <v>76061.73069059118</v>
+        <v>56198.94549360208</v>
       </c>
       <c r="H117" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I117" t="n">
-        <v>9812917</v>
+        <v>9905672</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3450444</v>
+        <v>3443880</v>
       </c>
       <c r="E118" t="n">
-        <v>4956893</v>
+        <v>4947462</v>
       </c>
       <c r="F118" t="n">
-        <v>702.3638337159097</v>
+        <v>747.1801697505213</v>
       </c>
       <c r="G118" t="n">
-        <v>657.6170943207952</v>
+        <v>861.3132264665442</v>
       </c>
       <c r="H118" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I118" t="n">
-        <v>181035</v>
+        <v>180440</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>309257759</v>
+        <v>310607258</v>
       </c>
       <c r="E119" t="n">
-        <v>572197380</v>
+        <v>574694261</v>
       </c>
       <c r="F119" t="n">
-        <v>123668.5203710205</v>
+        <v>126156.9647084226</v>
       </c>
       <c r="G119" t="n">
-        <v>138512.5475334972</v>
+        <v>143387.4455640079</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I119" t="n">
-        <v>12421171</v>
+        <v>12207521</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70473072</v>
+        <v>70808700</v>
       </c>
       <c r="E120" t="n">
-        <v>672407696</v>
+        <v>675599293</v>
       </c>
       <c r="F120" t="n">
-        <v>2010.970179656249</v>
+        <v>2499.257161357255</v>
       </c>
       <c r="G120" t="n">
-        <v>41346.59015001804</v>
+        <v>39277.94271596523</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>20833554</v>
+        <v>21086201</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37558971</v>
+        <v>37662670</v>
       </c>
       <c r="E121" t="n">
-        <v>49108729</v>
+        <v>49244113</v>
       </c>
       <c r="F121" t="n">
-        <v>5706.515927745825</v>
+        <v>5741.537986578615</v>
       </c>
       <c r="G121" t="n">
-        <v>214.3806792427934</v>
+        <v>261.9213357542524</v>
       </c>
       <c r="H121" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I121" t="n">
-        <v>544100</v>
+        <v>643385</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>10022002</v>
+        <v>9868894</v>
       </c>
       <c r="E122" t="n">
-        <v>29883536</v>
+        <v>29289005</v>
       </c>
       <c r="F122" t="n">
-        <v>2476.475939533525</v>
+        <v>1656.403371027479</v>
       </c>
       <c r="G122" t="n">
-        <v>2759.770602709941</v>
+        <v>7128.357461872459</v>
       </c>
       <c r="H122" t="n">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="I122" t="n">
-        <v>5380980</v>
+        <v>5476491</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2311678</v>
+        <v>2298410</v>
       </c>
       <c r="E123" t="n">
-        <v>7910214</v>
+        <v>7864812</v>
       </c>
       <c r="F123" t="n">
-        <v>1279.315136809898</v>
+        <v>559.1572813875466</v>
       </c>
       <c r="G123" t="n">
-        <v>734.8316550336909</v>
+        <v>1266.769813033909</v>
       </c>
       <c r="H123" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="I123" t="n">
-        <v>734880</v>
+        <v>760766</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7221114</v>
+        <v>7229942</v>
       </c>
       <c r="E124" t="n">
-        <v>7221124</v>
+        <v>7229953</v>
       </c>
       <c r="F124" t="n">
-        <v>507.3686232971394</v>
+        <v>391.540979578416</v>
       </c>
       <c r="G124" t="n">
-        <v>356.5227831142311</v>
+        <v>417.9450746654957</v>
       </c>
       <c r="H124" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="I124" t="n">
-        <v>338070</v>
+        <v>337592</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5823436</v>
+        <v>6061379</v>
       </c>
       <c r="E125" t="n">
-        <v>5823436</v>
+        <v>6061379</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>395460</v>
+        <v>434753</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6228788</v>
+        <v>6204893</v>
       </c>
       <c r="E126" t="n">
-        <v>22751354</v>
+        <v>22664074</v>
       </c>
       <c r="F126" t="n">
-        <v>899.5879837064771</v>
+        <v>5718.738344885357</v>
       </c>
       <c r="G126" t="n">
-        <v>6712.95977102615</v>
+        <v>7354.226839447109</v>
       </c>
       <c r="H126" t="n">
-        <v>1.29</v>
+        <v>0.04</v>
       </c>
       <c r="I126" t="n">
-        <v>468924</v>
+        <v>517442</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44109295</v>
+        <v>44280838</v>
       </c>
       <c r="E127" t="n">
-        <v>44109295</v>
+        <v>44280838</v>
       </c>
       <c r="F127" t="n">
-        <v>66610.19288466526</v>
+        <v>50985.09000295984</v>
       </c>
       <c r="G127" t="n">
-        <v>66684.89732208783</v>
+        <v>76128.93007782848</v>
       </c>
       <c r="H127" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>7975629</v>
+        <v>8218485</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>146372270</v>
+        <v>147262823</v>
       </c>
       <c r="F128" t="n">
-        <v>165.494323195349</v>
+        <v>5322.298144856365</v>
       </c>
       <c r="G128" t="n">
-        <v>234.4661511065555</v>
+        <v>495.7880428294962</v>
       </c>
       <c r="H128" t="n">
-        <v>3.31</v>
+        <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1270794</v>
+        <v>1305774</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3105474</v>
+        <v>3126202</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>75144</v>
+        <v>75091</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20153678</v>
+        <v>20540593</v>
       </c>
       <c r="F130" t="n">
-        <v>561.4577595438602</v>
+        <v>222.8563783773915</v>
       </c>
       <c r="G130" t="n">
-        <v>1115.748834087175</v>
+        <v>700.8835881234241</v>
       </c>
       <c r="H130" t="n">
-        <v>0.98</v>
+        <v>1.69</v>
       </c>
       <c r="I130" t="n">
-        <v>2821649</v>
+        <v>2821015</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1241214</v>
+        <v>1236231</v>
       </c>
       <c r="E131" t="n">
-        <v>3754885</v>
+        <v>3739462</v>
       </c>
       <c r="F131" t="n">
-        <v>801.2605902016594</v>
+        <v>797.691679711232</v>
       </c>
       <c r="G131" t="n">
-        <v>709.7639731775238</v>
+        <v>671.1461052602649</v>
       </c>
       <c r="H131" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="I131" t="n">
-        <v>16281.62</v>
+        <v>12346.16</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>590994998</v>
+        <v>593480717</v>
       </c>
       <c r="E132" t="n">
-        <v>2288836430</v>
+        <v>2298463254</v>
       </c>
       <c r="F132" t="n">
-        <v>405235.5649288194</v>
+        <v>351375.3622519869</v>
       </c>
       <c r="G132" t="n">
-        <v>673240.5221375604</v>
+        <v>659297.2546663216</v>
       </c>
       <c r="H132" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I132" t="n">
-        <v>29805060</v>
+        <v>29378659</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3679063</v>
+        <v>3674034</v>
       </c>
       <c r="E133" t="n">
-        <v>6271462</v>
+        <v>6262890</v>
       </c>
       <c r="F133" t="n">
-        <v>5317.002831006781</v>
+        <v>5212.928767581338</v>
       </c>
       <c r="G133" t="n">
-        <v>5645.886888555819</v>
+        <v>5263.324538233165</v>
       </c>
       <c r="H133" t="n">
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
       <c r="I133" t="n">
-        <v>993000</v>
+        <v>1088913</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>116347155</v>
+        <v>116677731</v>
       </c>
       <c r="E134" t="n">
-        <v>1011567001</v>
+        <v>1014441158</v>
       </c>
       <c r="F134" t="n">
-        <v>104752.5392852113</v>
+        <v>114740.7340811292</v>
       </c>
       <c r="G134" t="n">
-        <v>91135.2895680449</v>
+        <v>104367.7341220071</v>
       </c>
       <c r="H134" t="n">
         <v>0.13</v>
       </c>
       <c r="I134" t="n">
-        <v>9409886</v>
+        <v>9107356</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1003040493</v>
+        <v>998689795</v>
       </c>
       <c r="E135" t="n">
-        <v>1101842730</v>
+        <v>1097063477</v>
       </c>
       <c r="F135" t="n">
-        <v>13022.73634490083</v>
+        <v>14327.99530575783</v>
       </c>
       <c r="G135" t="n">
-        <v>17251.34714908849</v>
+        <v>19290.12914161068</v>
       </c>
       <c r="H135" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I135" t="n">
-        <v>13367539</v>
+        <v>11616943</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1123257</v>
+        <v>1135685</v>
       </c>
       <c r="E136" t="n">
-        <v>4349498</v>
+        <v>4397619</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>429517</v>
+        <v>455737</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>106769232</v>
+        <v>109422965</v>
       </c>
       <c r="E137" t="n">
-        <v>409583960</v>
+        <v>419764106</v>
       </c>
       <c r="F137" t="n">
-        <v>149343.764452006</v>
+        <v>167969.6478681959</v>
       </c>
       <c r="G137" t="n">
-        <v>220062.7476994978</v>
+        <v>193660.7782962513</v>
       </c>
       <c r="H137" t="n">
         <v>0.12</v>
       </c>
       <c r="I137" t="n">
-        <v>18632001</v>
+        <v>18981994</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3186978</v>
+        <v>3172552</v>
       </c>
       <c r="E138" t="n">
-        <v>30197091</v>
+        <v>30060403</v>
       </c>
       <c r="F138" t="n">
-        <v>4458.445252242635</v>
+        <v>2777.966786215523</v>
       </c>
       <c r="G138" t="n">
-        <v>181.4361820147055</v>
+        <v>120.5406072833695</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I138" t="n">
-        <v>240051</v>
+        <v>237872</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22775220</v>
+        <v>21744649</v>
       </c>
       <c r="E139" t="n">
-        <v>22775220</v>
+        <v>21744649</v>
       </c>
       <c r="F139" t="n">
-        <v>7100.71168233749</v>
+        <v>7465.391665733511</v>
       </c>
       <c r="G139" t="n">
-        <v>770.9554685653112</v>
+        <v>2718.793420404847</v>
       </c>
       <c r="H139" t="n">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
       <c r="I139" t="n">
-        <v>531059</v>
+        <v>509556</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494434586</v>
+        <v>495091615</v>
       </c>
       <c r="E140" t="n">
-        <v>494434586</v>
+        <v>495091615</v>
       </c>
       <c r="F140" t="n">
-        <v>852775.20542571</v>
+        <v>988345.9396021111</v>
       </c>
       <c r="G140" t="n">
-        <v>680992.1295456789</v>
+        <v>770255.2245371056</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>32231145</v>
+        <v>31547251</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>30783272</v>
+        <v>31129858</v>
       </c>
       <c r="F141" t="n">
-        <v>44552.3090588351</v>
+        <v>42547.47515179174</v>
       </c>
       <c r="G141" t="n">
-        <v>86854.2286342201</v>
+        <v>62633.93848903867</v>
       </c>
       <c r="H141" t="n">
         <v>0.68</v>
       </c>
       <c r="I141" t="n">
-        <v>5980672</v>
+        <v>5718412</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>759023</v>
+        <v>788237</v>
       </c>
       <c r="E142" t="n">
-        <v>12106141</v>
+        <v>12572094</v>
       </c>
       <c r="F142" t="n">
-        <v>100.2110007199755</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>42.75329012996534</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>0.48</v>
+        <v>4.04</v>
       </c>
       <c r="I142" t="n">
-        <v>71133</v>
+        <v>71958</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2614372676</v>
+        <v>2634273209</v>
       </c>
       <c r="E143" t="n">
-        <v>2775783515</v>
+        <v>2796912703</v>
       </c>
       <c r="F143" t="n">
-        <v>2340.10960257942</v>
+        <v>2650.769977163478</v>
       </c>
       <c r="G143" t="n">
-        <v>23395.12188584758</v>
+        <v>23124.32116567679</v>
       </c>
       <c r="H143" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I143" t="n">
-        <v>37016305</v>
+        <v>37428660</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1620584</v>
+        <v>1636009</v>
       </c>
       <c r="E144" t="n">
-        <v>1626304</v>
+        <v>1641784</v>
       </c>
       <c r="F144" t="n">
-        <v>327.4299728461839</v>
+        <v>655.4812986054857</v>
       </c>
       <c r="G144" t="n">
-        <v>360.3758828646936</v>
+        <v>870.5384737086872</v>
       </c>
       <c r="H144" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="I144" t="n">
-        <v>400916</v>
+        <v>411100</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60270830</v>
+        <v>60475044</v>
       </c>
       <c r="E145" t="n">
-        <v>147840261</v>
+        <v>148341183</v>
       </c>
       <c r="F145" t="n">
-        <v>3476.719990447314</v>
+        <v>1524.061136994901</v>
       </c>
       <c r="G145" t="n">
-        <v>5524.28934757723</v>
+        <v>5599.805444004015</v>
       </c>
       <c r="H145" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I145" t="n">
-        <v>22493902</v>
+        <v>22530740</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>659172379</v>
+        <v>674098820</v>
       </c>
       <c r="E146" t="n">
-        <v>1016502008</v>
+        <v>1039519898</v>
       </c>
       <c r="F146" t="n">
-        <v>137149.7548739879</v>
+        <v>153784.578316996</v>
       </c>
       <c r="G146" t="n">
-        <v>143798.6025260181</v>
+        <v>147087.8490580937</v>
       </c>
       <c r="H146" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>158244360</v>
+        <v>192699602</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23220836</v>
+        <v>23233126</v>
       </c>
       <c r="E147" t="n">
-        <v>23220836</v>
+        <v>23233126</v>
       </c>
       <c r="F147" t="n">
-        <v>4493.261660134954</v>
+        <v>4809.016670124571</v>
       </c>
       <c r="G147" t="n">
-        <v>8123.004532116612</v>
+        <v>7866.459779524513</v>
       </c>
       <c r="H147" t="n">
         <v>0.62</v>
       </c>
       <c r="I147" t="n">
-        <v>6286680</v>
+        <v>6123221</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3832281</v>
+        <v>3829546</v>
       </c>
       <c r="E148" t="n">
-        <v>8361987</v>
+        <v>8356021</v>
       </c>
       <c r="F148" t="n">
-        <v>5702.123754128134</v>
+        <v>5706.621098859354</v>
       </c>
       <c r="G148" t="n">
-        <v>5873.810339681692</v>
+        <v>5789.961484753038</v>
       </c>
       <c r="H148" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>995443</v>
+        <v>986253</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9350030</v>
+        <v>9354797</v>
       </c>
       <c r="E149" t="n">
-        <v>9350030</v>
+        <v>9354797</v>
       </c>
       <c r="F149" t="n">
-        <v>84800.2678043496</v>
+        <v>79721.33744318795</v>
       </c>
       <c r="G149" t="n">
-        <v>79226.78316680595</v>
+        <v>76820.15752691847</v>
       </c>
       <c r="H149" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>3183720</v>
+        <v>3236765</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>480964723</v>
+        <v>483301167</v>
       </c>
       <c r="E150" t="n">
-        <v>1675047557</v>
+        <v>1683184650</v>
       </c>
       <c r="F150" t="n">
-        <v>577462.5728392687</v>
+        <v>770337.7887199424</v>
       </c>
       <c r="G150" t="n">
-        <v>844037.1356348579</v>
+        <v>862614.0010012938</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>30559277</v>
+        <v>31124071</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48080037</v>
+        <v>48137935</v>
       </c>
       <c r="E151" t="n">
-        <v>118661934</v>
+        <v>118804832</v>
       </c>
       <c r="F151" t="n">
-        <v>8576.399671147859</v>
+        <v>5594.773670401984</v>
       </c>
       <c r="G151" t="n">
-        <v>8414.200581448864</v>
+        <v>8133.283313836623</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>42816</v>
+        <v>37283</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7611605</v>
+        <v>7618799</v>
       </c>
       <c r="E152" t="n">
-        <v>19774132</v>
+        <v>19792820</v>
       </c>
       <c r="F152" t="n">
-        <v>2206.203591208668</v>
+        <v>2376.66157615144</v>
       </c>
       <c r="G152" t="n">
-        <v>8003.101673543616</v>
+        <v>8011.702992340874</v>
       </c>
       <c r="H152" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="I152" t="n">
-        <v>676604</v>
+        <v>677509</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19258971351</v>
+        <v>19264020374</v>
       </c>
       <c r="F153" t="n">
-        <v>52444.39902589472</v>
+        <v>52443.30696138313</v>
       </c>
       <c r="G153" t="n">
-        <v>49982.47440965348</v>
+        <v>50106.16804264991</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48879375</v>
+        <v>48994682</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2659491</v>
+        <v>2659744</v>
       </c>
       <c r="E154" t="n">
-        <v>10637965</v>
+        <v>10638977</v>
       </c>
       <c r="F154" t="n">
-        <v>25761.81440444435</v>
+        <v>24488.57458657031</v>
       </c>
       <c r="G154" t="n">
-        <v>5681.55848031398</v>
+        <v>3377.001410032023</v>
       </c>
       <c r="H154" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I154" t="n">
-        <v>4947174</v>
+        <v>5066164</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>210903044</v>
+        <v>212160494</v>
       </c>
       <c r="E155" t="n">
-        <v>648447492</v>
+        <v>652313678</v>
       </c>
       <c r="F155" t="n">
-        <v>166883.3146101532</v>
+        <v>164868.8364307149</v>
       </c>
       <c r="G155" t="n">
-        <v>181392.055652845</v>
+        <v>176268.5940478815</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>11212788</v>
+        <v>11414607</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>397645866</v>
+        <v>398743206</v>
       </c>
       <c r="E156" t="n">
-        <v>2272262093</v>
+        <v>2278532603</v>
       </c>
       <c r="F156" t="n">
-        <v>163555.3639071991</v>
+        <v>137581.3170223599</v>
       </c>
       <c r="G156" t="n">
-        <v>210991.6715086717</v>
+        <v>254221.4517863976</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>36223295</v>
+        <v>36485811</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4016458</v>
+        <v>3851991</v>
       </c>
       <c r="F2" t="n">
-        <v>2138.56581576354</v>
+        <v>453.5000822955894</v>
       </c>
       <c r="G2" t="n">
-        <v>1511.459790129002</v>
+        <v>1199.71579246743</v>
       </c>
       <c r="H2" t="n">
-        <v>1.59</v>
+        <v>2.19</v>
       </c>
       <c r="I2" t="n">
-        <v>81665</v>
+        <v>98138</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603718968</v>
+        <v>600518980</v>
       </c>
       <c r="E3" t="n">
-        <v>1171364242</v>
+        <v>1165198146</v>
       </c>
       <c r="F3" t="n">
-        <v>74759.32850750728</v>
+        <v>67597.53731860525</v>
       </c>
       <c r="G3" t="n">
-        <v>70089.36667236731</v>
+        <v>81556.48127317599</v>
       </c>
       <c r="H3" t="n">
         <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>22240229</v>
+        <v>22475476</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243452124</v>
+        <v>245203005</v>
       </c>
       <c r="E4" t="n">
-        <v>1526654052</v>
+        <v>1537633581</v>
       </c>
       <c r="F4" t="n">
-        <v>283815.2866749521</v>
+        <v>333469.5373268939</v>
       </c>
       <c r="G4" t="n">
-        <v>234165.7781621855</v>
+        <v>240364.4514083906</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>15488470</v>
+        <v>15513510</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139243652</v>
+        <v>139486331</v>
       </c>
       <c r="E5" t="n">
-        <v>154304207</v>
+        <v>154573134</v>
       </c>
       <c r="F5" t="n">
-        <v>8768.710113591618</v>
+        <v>8760.112049038165</v>
       </c>
       <c r="G5" t="n">
-        <v>921.6329497620732</v>
+        <v>214.8296415723598</v>
       </c>
       <c r="H5" t="n">
-        <v>0.32</v>
+        <v>0.97</v>
       </c>
       <c r="I5" t="n">
-        <v>32971078</v>
+        <v>33039175</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49217901</v>
+        <v>49701304</v>
       </c>
       <c r="E6" t="n">
-        <v>61570332</v>
+        <v>62175057</v>
       </c>
       <c r="F6" t="n">
-        <v>2373.472833428099</v>
+        <v>7957.645429811937</v>
       </c>
       <c r="G6" t="n">
-        <v>3560.894488517631</v>
+        <v>4668.161071805275</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>621785</v>
+        <v>560766</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68588310</v>
+        <v>68668351</v>
       </c>
       <c r="E7" t="n">
-        <v>136627719</v>
+        <v>136787160</v>
       </c>
       <c r="F7" t="n">
-        <v>10521.81474350866</v>
+        <v>9717.940097982941</v>
       </c>
       <c r="G7" t="n">
-        <v>11919.66011541328</v>
+        <v>12357.92064230089</v>
       </c>
       <c r="H7" t="n">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1601476</v>
+        <v>1507040</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39607062</v>
+        <v>39991927</v>
       </c>
       <c r="E8" t="n">
-        <v>44326007</v>
+        <v>44756727</v>
       </c>
       <c r="F8" t="n">
-        <v>6481.419058683075</v>
+        <v>6449.490055125621</v>
       </c>
       <c r="G8" t="n">
-        <v>6380.229431627856</v>
+        <v>6656.736674935941</v>
       </c>
       <c r="H8" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>231553</v>
+        <v>232290</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14334357</v>
+        <v>14297182</v>
       </c>
       <c r="E9" t="n">
-        <v>42242424</v>
+        <v>42132872</v>
       </c>
       <c r="F9" t="n">
-        <v>5013.509077086424</v>
+        <v>5025.551834636428</v>
       </c>
       <c r="G9" t="n">
-        <v>4872.843519284641</v>
+        <v>4793.12365694055</v>
       </c>
       <c r="H9" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="I9" t="n">
-        <v>801165</v>
+        <v>801100</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7555793</v>
+        <v>7587200</v>
       </c>
       <c r="E10" t="n">
-        <v>32485885</v>
+        <v>32620919</v>
       </c>
       <c r="F10" t="n">
-        <v>4235.817664714845</v>
+        <v>5744.433216312184</v>
       </c>
       <c r="G10" t="n">
-        <v>4699.21175379925</v>
+        <v>2907.975091925353</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="I10" t="n">
-        <v>750784</v>
+        <v>675789</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>544353804</v>
+        <v>545805771</v>
       </c>
       <c r="E11" t="n">
-        <v>680905703</v>
+        <v>682721898</v>
       </c>
       <c r="F11" t="n">
-        <v>271949.0224846711</v>
+        <v>305818.8252342058</v>
       </c>
       <c r="G11" t="n">
-        <v>268334.2076962973</v>
+        <v>291538.0928864554</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>54991120</v>
+        <v>54259082</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4737508</v>
+        <v>4721929</v>
       </c>
       <c r="E12" t="n">
-        <v>29099877</v>
+        <v>29003807</v>
       </c>
       <c r="F12" t="n">
-        <v>8310.398800684414</v>
+        <v>8770.665627396411</v>
       </c>
       <c r="G12" t="n">
-        <v>6342.400946969231</v>
+        <v>7115.621192143428</v>
       </c>
       <c r="H12" t="n">
         <v>1.03</v>
       </c>
       <c r="I12" t="n">
-        <v>455196</v>
+        <v>467028</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22329816</v>
+        <v>22321028</v>
       </c>
       <c r="E13" t="n">
-        <v>22371625</v>
+        <v>22362821</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>866050</v>
+        <v>875362</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82286714</v>
+        <v>81658062</v>
       </c>
       <c r="E14" t="n">
-        <v>242192189</v>
+        <v>240341895</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>411090</v>
+        <v>410001</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>468532009</v>
+        <v>466721421</v>
       </c>
       <c r="E15" t="n">
-        <v>468532009</v>
+        <v>466721423</v>
       </c>
       <c r="F15" t="n">
-        <v>8950.168832177789</v>
+        <v>12896.51302895856</v>
       </c>
       <c r="G15" t="n">
-        <v>58431.76846640874</v>
+        <v>23504.0281254197</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>58531772</v>
+        <v>59846998</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4670590</v>
+        <v>4639057</v>
       </c>
       <c r="E16" t="n">
-        <v>4670590</v>
+        <v>4639057</v>
       </c>
       <c r="F16" t="n">
-        <v>315.1681926913511</v>
+        <v>5670.865475812428</v>
       </c>
       <c r="G16" t="n">
-        <v>1355.679927984181</v>
+        <v>1372.367155709558</v>
       </c>
       <c r="H16" t="n">
-        <v>0.78</v>
+        <v>1.03</v>
       </c>
       <c r="I16" t="n">
-        <v>1907904</v>
+        <v>1913400</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3256446</v>
+        <v>3261828</v>
       </c>
       <c r="E17" t="n">
-        <v>3256446</v>
+        <v>3261828</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>500014</v>
+        <v>512005</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167253294</v>
+        <v>166706035</v>
       </c>
       <c r="E18" t="n">
-        <v>207066543</v>
+        <v>206389014</v>
       </c>
       <c r="F18" t="n">
-        <v>7912.762988191046</v>
+        <v>7886.021669179217</v>
       </c>
       <c r="G18" t="n">
-        <v>7384.549783228347</v>
+        <v>8530.254430284745</v>
       </c>
       <c r="H18" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="I18" t="n">
-        <v>398649</v>
+        <v>396318</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6939842</v>
+        <v>6707164</v>
       </c>
       <c r="E19" t="n">
-        <v>9557935</v>
+        <v>9237479</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1011178</v>
+        <v>899162</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>917686</v>
+        <v>912515</v>
       </c>
       <c r="E20" t="n">
-        <v>6423803</v>
+        <v>6387602</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>441210</v>
+        <v>369924</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>107708564</v>
+        <v>107847775</v>
       </c>
       <c r="E21" t="n">
-        <v>419383041</v>
+        <v>419900911</v>
       </c>
       <c r="F21" t="n">
-        <v>36507.18494041348</v>
+        <v>34699.38653016936</v>
       </c>
       <c r="G21" t="n">
-        <v>77687.34975301723</v>
+        <v>70771.6354740189</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>6384620</v>
+        <v>6374663</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1680645</v>
+        <v>1680141</v>
       </c>
       <c r="E22" t="n">
-        <v>12105541</v>
+        <v>12101916</v>
       </c>
       <c r="F22" t="n">
-        <v>5944.15116921226</v>
+        <v>5944.175551540072</v>
       </c>
       <c r="G22" t="n">
-        <v>4375.092320027508</v>
+        <v>4380.11048567678</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>147358</v>
+        <v>147116</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>133555219</v>
+        <v>133845167</v>
       </c>
       <c r="E23" t="n">
-        <v>133555219</v>
+        <v>133845167</v>
       </c>
       <c r="F23" t="n">
-        <v>1073128.860563692</v>
+        <v>993604.517649599</v>
       </c>
       <c r="G23" t="n">
-        <v>1227919.410364124</v>
+        <v>1117817.124924441</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>63335124</v>
+        <v>63098008</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63739664</v>
+        <v>64204911</v>
       </c>
       <c r="E24" t="n">
-        <v>326870072</v>
+        <v>329255953</v>
       </c>
       <c r="F24" t="n">
-        <v>87732.81693359854</v>
+        <v>93224.38754234965</v>
       </c>
       <c r="G24" t="n">
-        <v>124575.454415941</v>
+        <v>95050.77015906569</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>18027146</v>
+        <v>18003384</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>249070807</v>
+        <v>250379733</v>
       </c>
       <c r="E25" t="n">
-        <v>249070807</v>
+        <v>250379733</v>
       </c>
       <c r="F25" t="n">
-        <v>324712.7396032944</v>
+        <v>348321.7880208445</v>
       </c>
       <c r="G25" t="n">
-        <v>476129.9709663637</v>
+        <v>498778.1091243122</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>14843908</v>
+        <v>14529365</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1125460</v>
+        <v>1119458</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>190309</v>
+        <v>190898</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3939895</v>
+        <v>3957499</v>
       </c>
       <c r="E28" t="n">
-        <v>3940811</v>
+        <v>3958433</v>
       </c>
       <c r="F28" t="n">
-        <v>811.1260657734093</v>
+        <v>631.3875509374565</v>
       </c>
       <c r="G28" t="n">
-        <v>3724.721113665634</v>
+        <v>2967.425286215076</v>
       </c>
       <c r="H28" t="n">
-        <v>0.47</v>
+        <v>0.08</v>
       </c>
       <c r="I28" t="n">
-        <v>269394</v>
+        <v>267879</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6573280</v>
+        <v>6601542</v>
       </c>
       <c r="E29" t="n">
-        <v>15965990</v>
+        <v>16034637</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>452160</v>
+        <v>453185</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99298226</v>
+        <v>99466616</v>
       </c>
       <c r="E30" t="n">
-        <v>123813247</v>
+        <v>124023210</v>
       </c>
       <c r="F30" t="n">
-        <v>117366.6747626715</v>
+        <v>104271.9427403666</v>
       </c>
       <c r="G30" t="n">
-        <v>127443.9847909436</v>
+        <v>105083.9683426276</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11794569</v>
+        <v>11536712</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1115047</v>
+        <v>1115155</v>
       </c>
       <c r="E31" t="n">
-        <v>12117913</v>
+        <v>12119084</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29345</v>
+        <v>29348</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>71915314</v>
+        <v>71826606</v>
       </c>
       <c r="E32" t="n">
-        <v>201310794</v>
+        <v>201071392</v>
       </c>
       <c r="F32" t="n">
-        <v>51469.00714670983</v>
+        <v>53477.08985044568</v>
       </c>
       <c r="G32" t="n">
-        <v>65465.24208922878</v>
+        <v>73174.80535366642</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="I32" t="n">
-        <v>32322624</v>
+        <v>32565599</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4233490</v>
+        <v>4217825</v>
       </c>
       <c r="E33" t="n">
-        <v>8348799</v>
+        <v>8317906</v>
       </c>
       <c r="F33" t="n">
-        <v>7160.569304672113</v>
+        <v>8198.386475189884</v>
       </c>
       <c r="G33" t="n">
-        <v>10066.95711112178</v>
+        <v>7844.131240693018</v>
       </c>
       <c r="H33" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="I33" t="n">
-        <v>1645132</v>
+        <v>1636545</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37441080</v>
+        <v>37407089</v>
       </c>
       <c r="F34" t="n">
-        <v>918.8254470196214</v>
+        <v>860.5091988782782</v>
       </c>
       <c r="G34" t="n">
-        <v>663.0500697570893</v>
+        <v>835.1476196912093</v>
       </c>
       <c r="H34" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="I34" t="n">
-        <v>65050</v>
+        <v>64962</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7559316</v>
+        <v>7544356</v>
       </c>
       <c r="E35" t="n">
-        <v>17803693</v>
+        <v>17768457</v>
       </c>
       <c r="F35" t="n">
-        <v>3406.150780548742</v>
+        <v>3494.335694583036</v>
       </c>
       <c r="G35" t="n">
-        <v>2820.576365483695</v>
+        <v>2563.221788036331</v>
       </c>
       <c r="H35" t="n">
         <v>1.28</v>
       </c>
       <c r="I35" t="n">
-        <v>28904</v>
+        <v>29613</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23285007</v>
+        <v>23312410</v>
       </c>
       <c r="F36" t="n">
-        <v>5293.682380159402</v>
+        <v>5366.257977586231</v>
       </c>
       <c r="G36" t="n">
-        <v>5519.602407250582</v>
+        <v>5162.99579169874</v>
       </c>
       <c r="H36" t="n">
-        <v>0.77</v>
+        <v>1.28</v>
       </c>
       <c r="I36" t="n">
-        <v>121722</v>
+        <v>118314</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>71441000</v>
+        <v>71728371</v>
       </c>
       <c r="E37" t="n">
-        <v>148990763</v>
+        <v>149590079</v>
       </c>
       <c r="F37" t="n">
-        <v>75937.89020832424</v>
+        <v>59547.49712016489</v>
       </c>
       <c r="G37" t="n">
-        <v>122092.9031417019</v>
+        <v>110472.1308878693</v>
       </c>
       <c r="H37" t="n">
         <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>13668666</v>
+        <v>13682035</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>276047274</v>
+        <v>277504359</v>
       </c>
       <c r="E38" t="n">
-        <v>276047274</v>
+        <v>277504359</v>
       </c>
       <c r="F38" t="n">
-        <v>21364.95224612707</v>
+        <v>45257.91926189866</v>
       </c>
       <c r="G38" t="n">
-        <v>27731.12282121301</v>
+        <v>25419.16875385971</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>12002464</v>
+        <v>10634494</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>196037073</v>
+        <v>196318411</v>
       </c>
       <c r="E39" t="n">
-        <v>681050510</v>
+        <v>682027904</v>
       </c>
       <c r="F39" t="n">
-        <v>164203.4615364166</v>
+        <v>168286.5472785826</v>
       </c>
       <c r="G39" t="n">
-        <v>315178.4151592047</v>
+        <v>305857.6343447894</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>26301573</v>
+        <v>26025826</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4168274</v>
+        <v>4096352</v>
       </c>
       <c r="E40" t="n">
-        <v>4168274</v>
+        <v>4096352</v>
       </c>
       <c r="F40" t="n">
-        <v>6334.45605662826</v>
+        <v>1596.899901482434</v>
       </c>
       <c r="G40" t="n">
-        <v>777.9571136021774</v>
+        <v>2868.236650427275</v>
       </c>
       <c r="H40" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="I40" t="n">
-        <v>3923788</v>
+        <v>3839828</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>112123479</v>
+        <v>111789381</v>
       </c>
       <c r="E41" t="n">
-        <v>477079380</v>
+        <v>475628574</v>
       </c>
       <c r="F41" t="n">
-        <v>5849.917872670099</v>
+        <v>3888.913148652752</v>
       </c>
       <c r="G41" t="n">
-        <v>6128.797824503155</v>
+        <v>6376.391684303056</v>
       </c>
       <c r="H41" t="n">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="I41" t="n">
-        <v>11641726</v>
+        <v>12067527</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>533602</v>
+        <v>536698</v>
       </c>
       <c r="E42" t="n">
-        <v>6472068</v>
+        <v>6509618</v>
       </c>
       <c r="F42" t="n">
-        <v>453.4120270393103</v>
+        <v>576.2671094953786</v>
       </c>
       <c r="G42" t="n">
-        <v>893.5483083782406</v>
+        <v>1119.115699308611</v>
       </c>
       <c r="H42" t="n">
-        <v>0.19</v>
+        <v>1.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2807138</v>
+        <v>2760819</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1264311651</v>
+        <v>1267063377</v>
       </c>
       <c r="E43" t="n">
-        <v>6062633294</v>
+        <v>6075828382</v>
       </c>
       <c r="F43" t="n">
-        <v>46854.90390134718</v>
+        <v>44638.38168425172</v>
       </c>
       <c r="G43" t="n">
-        <v>64015.23287641237</v>
+        <v>66669.36573852204</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I43" t="n">
-        <v>184302692</v>
+        <v>180963491</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6056473880</v>
+        <v>6051967285</v>
       </c>
       <c r="E44" t="n">
-        <v>6056473880</v>
+        <v>6051967285</v>
       </c>
       <c r="F44" t="n">
-        <v>797166.1063632081</v>
+        <v>718829.226022566</v>
       </c>
       <c r="G44" t="n">
-        <v>1750248.248240011</v>
+        <v>1755963.510538792</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>98418586</v>
+        <v>98651613</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>265022372</v>
+        <v>267170804</v>
       </c>
       <c r="E45" t="n">
-        <v>1143983682</v>
+        <v>1153257507</v>
       </c>
       <c r="F45" t="n">
-        <v>101723.1382256312</v>
+        <v>110213.6762832186</v>
       </c>
       <c r="G45" t="n">
-        <v>100568.2517993612</v>
+        <v>97065.21618974512</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>112388522</v>
+        <v>109912896</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113132171</v>
+        <v>113320196</v>
       </c>
       <c r="E46" t="n">
-        <v>113132171</v>
+        <v>113320196</v>
       </c>
       <c r="F46" t="n">
-        <v>29303.58167682274</v>
+        <v>42654.8799289176</v>
       </c>
       <c r="G46" t="n">
-        <v>36289.40912482593</v>
+        <v>31393.45248538736</v>
       </c>
       <c r="H46" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="I46" t="n">
-        <v>5934915</v>
+        <v>5960974</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2049754186</v>
+        <v>2043484243</v>
       </c>
       <c r="E47" t="n">
-        <v>2049754186</v>
+        <v>2043484243</v>
       </c>
       <c r="F47" t="n">
-        <v>219941.6702846414</v>
+        <v>220151.9627695746</v>
       </c>
       <c r="G47" t="n">
-        <v>202026.9526168712</v>
+        <v>202045.5184800272</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>5404450066</v>
+        <v>2291532269</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9844696</v>
+        <v>9853486</v>
       </c>
       <c r="F48" t="n">
-        <v>7281.825968633588</v>
+        <v>7224.365900884987</v>
       </c>
       <c r="G48" t="n">
-        <v>5673.108338044597</v>
+        <v>5870.274505031561</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>177842</v>
+        <v>174602</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4415681</v>
+        <v>4339762</v>
       </c>
       <c r="E49" t="n">
-        <v>5797213</v>
+        <v>5697542</v>
       </c>
       <c r="F49" t="n">
-        <v>5838.620204608195</v>
+        <v>13363.2085170084</v>
       </c>
       <c r="G49" t="n">
-        <v>16352.45987188883</v>
+        <v>16264.45977520636</v>
       </c>
       <c r="H49" t="n">
         <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>622198</v>
+        <v>626892</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11699520</v>
+        <v>11740391</v>
       </c>
       <c r="E50" t="n">
-        <v>17203924</v>
+        <v>17264024</v>
       </c>
       <c r="F50" t="n">
-        <v>6343.291529717397</v>
+        <v>7612.294874077419</v>
       </c>
       <c r="G50" t="n">
-        <v>26098.25968372711</v>
+        <v>11334.12755477961</v>
       </c>
       <c r="H50" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I50" t="n">
-        <v>994689</v>
+        <v>1028209</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22429205</v>
+        <v>22418724</v>
       </c>
       <c r="E51" t="n">
-        <v>29095810</v>
+        <v>29082214</v>
       </c>
       <c r="F51" t="n">
-        <v>9926.996288234737</v>
+        <v>9949.424571742156</v>
       </c>
       <c r="G51" t="n">
-        <v>7544.532404813775</v>
+        <v>11696.28091687328</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>161674</v>
+        <v>157595</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13567897</v>
+        <v>13601054</v>
       </c>
       <c r="E52" t="n">
-        <v>13567897</v>
+        <v>13601054</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4512030</v>
+        <v>4406289</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98937231</v>
+        <v>98610301</v>
       </c>
       <c r="E53" t="n">
-        <v>122381814</v>
+        <v>121977412</v>
       </c>
       <c r="F53" t="n">
-        <v>459.1364354453509</v>
+        <v>312.067959172741</v>
       </c>
       <c r="G53" t="n">
-        <v>3929.542198702415</v>
+        <v>4148.87705599727</v>
       </c>
       <c r="H53" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
       <c r="I53" t="n">
-        <v>757826</v>
+        <v>770655</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5176812</v>
+        <v>5178428</v>
       </c>
       <c r="E54" t="n">
-        <v>7243111</v>
+        <v>7245372</v>
       </c>
       <c r="F54" t="n">
-        <v>90.97954852173761</v>
+        <v>207.1436667010375</v>
       </c>
       <c r="G54" t="n">
-        <v>84.86184589976467</v>
+        <v>39.28222635517888</v>
       </c>
       <c r="H54" t="n">
-        <v>2.11</v>
+        <v>3.03</v>
       </c>
       <c r="I54" t="n">
-        <v>103892</v>
+        <v>103128</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13825835</v>
+        <v>13751239</v>
       </c>
       <c r="E55" t="n">
-        <v>66960723</v>
+        <v>66599444</v>
       </c>
       <c r="F55" t="n">
-        <v>18807.91545638911</v>
+        <v>23372.30632450344</v>
       </c>
       <c r="G55" t="n">
-        <v>32745.32604198113</v>
+        <v>25557.91232713262</v>
       </c>
       <c r="H55" t="n">
-        <v>0.34</v>
+        <v>0.75</v>
       </c>
       <c r="I55" t="n">
-        <v>3596950</v>
+        <v>3615946</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>60495</v>
+        <v>60513</v>
       </c>
       <c r="E56" t="n">
-        <v>144899</v>
+        <v>144942</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4428.04</v>
+        <v>4635.39</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1874205379</v>
+        <v>1880007453</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26054877</v>
+        <v>26163007</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12196700</v>
+        <v>12270559</v>
       </c>
       <c r="E58" t="n">
-        <v>17683455</v>
+        <v>17790540</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2279407</v>
+        <v>2286738</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123875328</v>
+        <v>124306420</v>
       </c>
       <c r="E59" t="n">
-        <v>329437756</v>
+        <v>330584214</v>
       </c>
       <c r="F59" t="n">
-        <v>6998.243356131033</v>
+        <v>966.6338387340419</v>
       </c>
       <c r="G59" t="n">
-        <v>7571.530614227229</v>
+        <v>8784.076933629649</v>
       </c>
       <c r="H59" t="n">
-        <v>1.53</v>
+        <v>0.72</v>
       </c>
       <c r="I59" t="n">
-        <v>1374831</v>
+        <v>1344618</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32540174</v>
+        <v>32600348</v>
       </c>
       <c r="E60" t="n">
-        <v>101319661</v>
+        <v>101507023</v>
       </c>
       <c r="F60" t="n">
-        <v>6116.015215135471</v>
+        <v>5206.930655421044</v>
       </c>
       <c r="G60" t="n">
-        <v>5887.781217077915</v>
+        <v>5607.116610689777</v>
       </c>
       <c r="H60" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="I60" t="n">
-        <v>11956069</v>
+        <v>11775905</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2025891</v>
+        <v>2084901</v>
       </c>
       <c r="E61" t="n">
-        <v>14527464</v>
+        <v>14950614</v>
       </c>
       <c r="F61" t="n">
-        <v>66.74942729733141</v>
+        <v>2903.647983203763</v>
       </c>
       <c r="G61" t="n">
-        <v>4982.404729814019</v>
+        <v>5042.211223116617</v>
       </c>
       <c r="H61" t="n">
-        <v>2.78</v>
+        <v>2.46</v>
       </c>
       <c r="I61" t="n">
-        <v>608905</v>
+        <v>1942571</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>196274156</v>
+        <v>197767115</v>
       </c>
       <c r="E62" t="n">
-        <v>1111424870</v>
+        <v>1119878923</v>
       </c>
       <c r="F62" t="n">
-        <v>677158.6544728862</v>
+        <v>602549.6779093922</v>
       </c>
       <c r="G62" t="n">
-        <v>696973.8813983364</v>
+        <v>816954.7129815153</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>60556649</v>
+        <v>60287532</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>498998</v>
+        <v>498986</v>
       </c>
       <c r="E63" t="n">
-        <v>1679557</v>
+        <v>1679516</v>
       </c>
       <c r="F63" t="n">
-        <v>4605.867619711084</v>
+        <v>4635.951211374668</v>
       </c>
       <c r="G63" t="n">
-        <v>558.4325638381736</v>
+        <v>585.817716789997</v>
       </c>
       <c r="H63" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>631188</v>
+        <v>631870</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>337573</v>
+        <v>338737</v>
       </c>
       <c r="E64" t="n">
-        <v>337573</v>
+        <v>338737</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6281.63</v>
+        <v>6380.25</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>137325315</v>
+        <v>137479076</v>
       </c>
       <c r="E65" t="n">
-        <v>1017224554</v>
+        <v>1018363526</v>
       </c>
       <c r="F65" t="n">
-        <v>38408.73764481107</v>
+        <v>38453.40858046347</v>
       </c>
       <c r="G65" t="n">
-        <v>39823.86590324069</v>
+        <v>39874.89978564453</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>12142618</v>
+        <v>11982325</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8095169</v>
+        <v>8094680</v>
       </c>
       <c r="E66" t="n">
-        <v>10845270</v>
+        <v>10844614</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59675</v>
+        <v>58605</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25673322</v>
+        <v>25467268</v>
       </c>
       <c r="E67" t="n">
-        <v>25673322</v>
+        <v>25467268</v>
       </c>
       <c r="F67" t="n">
-        <v>5818.3969875593</v>
+        <v>7419.714453001818</v>
       </c>
       <c r="G67" t="n">
-        <v>6664.369400672304</v>
+        <v>6646.239784220694</v>
       </c>
       <c r="H67" t="n">
         <v>0.39</v>
       </c>
       <c r="I67" t="n">
-        <v>347674</v>
+        <v>336894</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1560024</v>
+        <v>1557136</v>
       </c>
       <c r="E68" t="n">
-        <v>12116314</v>
+        <v>12093885</v>
       </c>
       <c r="F68" t="n">
-        <v>2163.127069603725</v>
+        <v>607.3089022713051</v>
       </c>
       <c r="G68" t="n">
-        <v>27321.00937660064</v>
+        <v>21984.76094538374</v>
       </c>
       <c r="H68" t="n">
-        <v>0.28</v>
+        <v>0.62</v>
       </c>
       <c r="I68" t="n">
-        <v>508878</v>
+        <v>507147</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>333920648</v>
+        <v>334444656</v>
       </c>
       <c r="E69" t="n">
-        <v>3004157205</v>
+        <v>3008871503</v>
       </c>
       <c r="F69" t="n">
-        <v>1048878.650588536</v>
+        <v>1206156.751296289</v>
       </c>
       <c r="G69" t="n">
-        <v>1984467.568997049</v>
+        <v>1661787.954503325</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>37676268</v>
+        <v>36043389</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>262129</v>
+        <v>262341</v>
       </c>
       <c r="E70" t="n">
-        <v>2313481</v>
+        <v>2315353</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>81022</v>
+        <v>75530</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1588640</v>
+        <v>1590735</v>
       </c>
       <c r="E71" t="n">
-        <v>13238667</v>
+        <v>13256125</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>53074</v>
+        <v>52942</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8852726</v>
+        <v>8844850</v>
       </c>
       <c r="E72" t="n">
-        <v>41032893</v>
+        <v>40996388</v>
       </c>
       <c r="F72" t="n">
-        <v>4849.636106915103</v>
+        <v>4849.720953149361</v>
       </c>
       <c r="G72" t="n">
-        <v>10162.22201871793</v>
+        <v>10153.71912887751</v>
       </c>
       <c r="H72" t="n">
         <v>1.51</v>
       </c>
       <c r="I72" t="n">
-        <v>95314</v>
+        <v>96084</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42685720</v>
+        <v>42783770</v>
       </c>
       <c r="E73" t="n">
-        <v>247132681</v>
+        <v>247700347</v>
       </c>
       <c r="F73" t="n">
-        <v>135544.1183208858</v>
+        <v>120269.2364168512</v>
       </c>
       <c r="G73" t="n">
-        <v>150286.7908491947</v>
+        <v>156058.549687835</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>11135613</v>
+        <v>11107401</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39182000</v>
+        <v>38738424</v>
       </c>
       <c r="E74" t="n">
-        <v>54115922</v>
+        <v>53503280</v>
       </c>
       <c r="F74" t="n">
-        <v>570.7266058778351</v>
+        <v>10643.65965633791</v>
       </c>
       <c r="G74" t="n">
-        <v>792.6130849642568</v>
+        <v>4493.018127084503</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="I74" t="n">
-        <v>348043</v>
+        <v>356328</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>94092</v>
+        <v>94109</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>992.8099999999999</v>
+        <v>912.01</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13506817</v>
+        <v>13483082</v>
       </c>
       <c r="E76" t="n">
-        <v>13552782</v>
+        <v>13528966</v>
       </c>
       <c r="F76" t="n">
-        <v>6728.785430880165</v>
+        <v>1294.336362303145</v>
       </c>
       <c r="G76" t="n">
-        <v>7886.971682026749</v>
+        <v>8138.713737388893</v>
       </c>
       <c r="H76" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I76" t="n">
-        <v>5749477</v>
+        <v>5753659</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42950291</v>
+        <v>42874280</v>
       </c>
       <c r="E77" t="n">
-        <v>72919602</v>
+        <v>72790553</v>
       </c>
       <c r="F77" t="n">
-        <v>10149.4007185877</v>
+        <v>10062.25696927317</v>
       </c>
       <c r="G77" t="n">
-        <v>5502.07766048272</v>
+        <v>5612.486817553592</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I77" t="n">
-        <v>1110428</v>
+        <v>1109808</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>26000024</v>
+        <v>25644854</v>
       </c>
       <c r="E78" t="n">
-        <v>77935336</v>
+        <v>76870709</v>
       </c>
       <c r="F78" t="n">
-        <v>113979.2187480436</v>
+        <v>129889.4172015102</v>
       </c>
       <c r="G78" t="n">
-        <v>131808.8975125828</v>
+        <v>149543.361324542</v>
       </c>
       <c r="H78" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I78" t="n">
-        <v>2429707</v>
+        <v>2502045</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101156391</v>
+        <v>101034338</v>
       </c>
       <c r="E79" t="n">
-        <v>107538385</v>
+        <v>107408632</v>
       </c>
       <c r="F79" t="n">
-        <v>1578.526513485727</v>
+        <v>1578.533617438439</v>
       </c>
       <c r="G79" t="n">
-        <v>4866.271456186431</v>
+        <v>3622.682328630154</v>
       </c>
       <c r="H79" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="I79" t="n">
-        <v>978027</v>
+        <v>978053</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10682990</v>
+        <v>10659619</v>
       </c>
       <c r="E80" t="n">
-        <v>46502126</v>
+        <v>46392768</v>
       </c>
       <c r="F80" t="n">
-        <v>6122.369912586762</v>
+        <v>6875.644319851584</v>
       </c>
       <c r="G80" t="n">
-        <v>9006.915380445173</v>
+        <v>5122.659823197581</v>
       </c>
       <c r="H80" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="I80" t="n">
-        <v>112613</v>
+        <v>110856</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15086612</v>
+        <v>15146822</v>
       </c>
       <c r="E81" t="n">
-        <v>92470803</v>
+        <v>92839850</v>
       </c>
       <c r="F81" t="n">
-        <v>4044.92085782779</v>
+        <v>4091.351797887159</v>
       </c>
       <c r="G81" t="n">
-        <v>4368.908351365104</v>
+        <v>6136.635315618224</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I81" t="n">
-        <v>11801359</v>
+        <v>11715845</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1487767</v>
+        <v>1489976</v>
       </c>
       <c r="E82" t="n">
-        <v>1529617</v>
+        <v>1531887</v>
       </c>
       <c r="F82" t="n">
-        <v>3576.287975370965</v>
+        <v>5888.937591645883</v>
       </c>
       <c r="G82" t="n">
-        <v>6155.596293060717</v>
+        <v>5862.293914668116</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>130754</v>
+        <v>131142</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>46078350</v>
+        <v>46501333</v>
       </c>
       <c r="E83" t="n">
-        <v>198500493</v>
+        <v>200322659</v>
       </c>
       <c r="F83" t="n">
-        <v>3354.316277322357</v>
+        <v>3438.463468098077</v>
       </c>
       <c r="G83" t="n">
-        <v>3737.322694087833</v>
+        <v>4495.732167532532</v>
       </c>
       <c r="H83" t="n">
         <v>0.11</v>
       </c>
       <c r="I83" t="n">
-        <v>8382820</v>
+        <v>8643119</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1730040</v>
+        <v>1667545</v>
       </c>
       <c r="E84" t="n">
-        <v>6286763</v>
+        <v>6059612</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>135673</v>
+        <v>134460</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9029258</v>
+        <v>8892661</v>
       </c>
       <c r="E85" t="n">
-        <v>20054010</v>
+        <v>19750627</v>
       </c>
       <c r="F85" t="n">
-        <v>7373.914176864004</v>
+        <v>7573.491163954889</v>
       </c>
       <c r="G85" t="n">
-        <v>7117.399607207913</v>
+        <v>5398.644856096359</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="I85" t="n">
-        <v>416218</v>
+        <v>417245</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2450925</v>
+        <v>2450906</v>
       </c>
       <c r="E86" t="n">
-        <v>18443043</v>
+        <v>18442899</v>
       </c>
       <c r="F86" t="n">
-        <v>8417.360888999703</v>
+        <v>6364.18006119887</v>
       </c>
       <c r="G86" t="n">
-        <v>12123.10167508188</v>
+        <v>10682.95025044037</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>162473</v>
+        <v>162699</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20294646</v>
+        <v>20157226</v>
       </c>
       <c r="E87" t="n">
-        <v>81178583</v>
+        <v>80628903</v>
       </c>
       <c r="F87" t="n">
-        <v>18318.57666041917</v>
+        <v>30345.00807936443</v>
       </c>
       <c r="G87" t="n">
-        <v>4123.484309135346</v>
+        <v>1957.209783993268</v>
       </c>
       <c r="H87" t="n">
         <v>0.25</v>
       </c>
       <c r="I87" t="n">
-        <v>6014412</v>
+        <v>5951161</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4248487</v>
+        <v>4290803</v>
       </c>
       <c r="E88" t="n">
-        <v>4248487</v>
+        <v>4290803</v>
       </c>
       <c r="F88" t="n">
-        <v>171.2653794081</v>
+        <v>1351.262837278684</v>
       </c>
       <c r="G88" t="n">
-        <v>657.1167312528231</v>
+        <v>642.2215577417135</v>
       </c>
       <c r="H88" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="I88" t="n">
-        <v>2463492</v>
+        <v>2487642</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12662956</v>
+        <v>12729569</v>
       </c>
       <c r="E89" t="n">
-        <v>40062040</v>
+        <v>40272587</v>
       </c>
       <c r="F89" t="n">
-        <v>12453.5851580169</v>
+        <v>19217.64945657055</v>
       </c>
       <c r="G89" t="n">
-        <v>13388.42750016763</v>
+        <v>9627.909841591831</v>
       </c>
       <c r="H89" t="n">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="I89" t="n">
-        <v>1489217</v>
+        <v>1495441</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26558</v>
+        <v>26640</v>
       </c>
       <c r="E90" t="n">
-        <v>208869</v>
+        <v>209517</v>
       </c>
       <c r="F90" t="n">
-        <v>5724.776271090333</v>
+        <v>5774.221919480925</v>
       </c>
       <c r="G90" t="n">
-        <v>340.1977687658934</v>
+        <v>247.6595661883213</v>
       </c>
       <c r="H90" t="n">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="I90" t="n">
-        <v>128943</v>
+        <v>130469</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8057242</v>
+        <v>8093383</v>
       </c>
       <c r="E91" t="n">
-        <v>8057242</v>
+        <v>8093383</v>
       </c>
       <c r="F91" t="n">
-        <v>3495.568432995654</v>
+        <v>3660.549353485159</v>
       </c>
       <c r="G91" t="n">
-        <v>3633.579734186953</v>
+        <v>4234.791926561616</v>
       </c>
       <c r="H91" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>3456341</v>
+        <v>3462514</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9103661</v>
+        <v>9278058</v>
       </c>
       <c r="E92" t="n">
-        <v>9103661</v>
+        <v>9278058</v>
       </c>
       <c r="F92" t="n">
-        <v>1440.141083916948</v>
+        <v>1477.324799585731</v>
       </c>
       <c r="G92" t="n">
-        <v>1675.097069998545</v>
+        <v>1906.876021662529</v>
       </c>
       <c r="H92" t="n">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
       <c r="I92" t="n">
-        <v>2612270</v>
+        <v>2811252</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>36289980</v>
+        <v>36760566</v>
       </c>
       <c r="E93" t="n">
-        <v>91505907</v>
+        <v>92692499</v>
       </c>
       <c r="F93" t="n">
-        <v>5137.65645539994</v>
+        <v>5416.589846311253</v>
       </c>
       <c r="G93" t="n">
-        <v>5570.910510829915</v>
+        <v>5741.383029443591</v>
       </c>
       <c r="H93" t="n">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="I93" t="n">
-        <v>2839958</v>
+        <v>2847802</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>295885639</v>
+        <v>297403734</v>
       </c>
       <c r="E94" t="n">
-        <v>300510212</v>
+        <v>302050846</v>
       </c>
       <c r="F94" t="n">
-        <v>36726.72654957612</v>
+        <v>44101.05790171293</v>
       </c>
       <c r="G94" t="n">
-        <v>48043.58385893814</v>
+        <v>33504.09021102882</v>
       </c>
       <c r="H94" t="n">
         <v>0.23</v>
       </c>
       <c r="I94" t="n">
-        <v>11522408</v>
+        <v>11039672</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>831.0104529671283</v>
+        <v>922.1780440015598</v>
       </c>
       <c r="G95" t="n">
-        <v>6845.108569100424</v>
+        <v>6480.742868745582</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>222701</v>
+        <v>220625</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>78207753</v>
+        <v>80586178</v>
       </c>
       <c r="E96" t="n">
-        <v>78207753</v>
+        <v>80586178</v>
       </c>
       <c r="F96" t="n">
-        <v>16197.30185289149</v>
+        <v>14437.89314549641</v>
       </c>
       <c r="G96" t="n">
-        <v>6537.271647933875</v>
+        <v>2125.914964227025</v>
       </c>
       <c r="H96" t="n">
-        <v>0.51</v>
+        <v>0.8</v>
       </c>
       <c r="I96" t="n">
-        <v>4729986</v>
+        <v>4841974</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>295947514</v>
+        <v>298594125</v>
       </c>
       <c r="E97" t="n">
-        <v>295947514</v>
+        <v>298594125</v>
       </c>
       <c r="F97" t="n">
-        <v>278250.2211764044</v>
+        <v>312000.1389462518</v>
       </c>
       <c r="G97" t="n">
-        <v>460145.7805051768</v>
+        <v>464171.5901535278</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50080075</v>
+        <v>50114881</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4102490</v>
+        <v>4141017</v>
       </c>
       <c r="E98" t="n">
-        <v>28032026</v>
+        <v>28295281</v>
       </c>
       <c r="F98" t="n">
-        <v>430.9466879732387</v>
+        <v>269.7621978433506</v>
       </c>
       <c r="G98" t="n">
-        <v>311.4933078669612</v>
+        <v>4450.961580896897</v>
       </c>
       <c r="H98" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I98" t="n">
-        <v>2516952</v>
+        <v>2537483</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>88670869</v>
+        <v>88905267</v>
       </c>
       <c r="E99" t="n">
-        <v>510959795</v>
+        <v>512310493</v>
       </c>
       <c r="F99" t="n">
-        <v>117462.4451365926</v>
+        <v>143073.2811548887</v>
       </c>
       <c r="G99" t="n">
-        <v>148414.9593780294</v>
+        <v>151882.3977840343</v>
       </c>
       <c r="H99" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I99" t="n">
-        <v>15932807</v>
+        <v>16085772</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107004934</v>
+        <v>107233882</v>
       </c>
       <c r="E100" t="n">
-        <v>263273943</v>
+        <v>263837246</v>
       </c>
       <c r="F100" t="n">
-        <v>25757.98100737149</v>
+        <v>31096.50541601394</v>
       </c>
       <c r="G100" t="n">
-        <v>40999.25320541038</v>
+        <v>45475.23290692986</v>
       </c>
       <c r="H100" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2406670</v>
+        <v>2399941</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>245338456</v>
+        <v>246156546</v>
       </c>
       <c r="E101" t="n">
-        <v>245340893</v>
+        <v>246158991</v>
       </c>
       <c r="F101" t="n">
-        <v>13900.25845996739</v>
+        <v>7895.558289802534</v>
       </c>
       <c r="G101" t="n">
-        <v>2564.065864272665</v>
+        <v>3410.814793490824</v>
       </c>
       <c r="H101" t="n">
         <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>2682630</v>
+        <v>2678304</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30035680</v>
+        <v>30305901</v>
       </c>
       <c r="E102" t="n">
-        <v>134482061</v>
+        <v>135691950</v>
       </c>
       <c r="F102" t="n">
-        <v>110940.8489016798</v>
+        <v>97055.55506058448</v>
       </c>
       <c r="G102" t="n">
-        <v>129511.6848994396</v>
+        <v>159155.6619594056</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I102" t="n">
-        <v>8877022</v>
+        <v>8812718</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3036110</v>
+        <v>3043660</v>
       </c>
       <c r="E103" t="n">
-        <v>3036110</v>
+        <v>3043660</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>391877</v>
+        <v>399098</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6042965</v>
+        <v>6065485</v>
       </c>
       <c r="E104" t="n">
-        <v>15859787</v>
+        <v>15918891</v>
       </c>
       <c r="F104" t="n">
-        <v>8830.360698666767</v>
+        <v>8934.858999944048</v>
       </c>
       <c r="G104" t="n">
-        <v>3646.202078649125</v>
+        <v>3795.51836519166</v>
       </c>
       <c r="H104" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="I104" t="n">
-        <v>72295</v>
+        <v>74009</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17155252</v>
+        <v>17093170</v>
       </c>
       <c r="E105" t="n">
-        <v>79185612</v>
+        <v>78899052</v>
       </c>
       <c r="F105" t="n">
-        <v>15475.60211962188</v>
+        <v>78538.48868884724</v>
       </c>
       <c r="G105" t="n">
-        <v>46074.5875915587</v>
+        <v>24164.25851241102</v>
       </c>
       <c r="H105" t="n">
-        <v>0.51</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>1120477</v>
+        <v>1094306</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>46853474</v>
+        <v>47105302</v>
       </c>
       <c r="E106" t="n">
-        <v>303832309</v>
+        <v>305465344</v>
       </c>
       <c r="F106" t="n">
-        <v>92759.83311103856</v>
+        <v>92082.19886414653</v>
       </c>
       <c r="G106" t="n">
-        <v>165566.6249946548</v>
+        <v>160540.5533724045</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17333902</v>
+        <v>17293262</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2619901</v>
+        <v>2614225</v>
       </c>
       <c r="E107" t="n">
-        <v>4746444</v>
+        <v>4736160</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>107922</v>
+        <v>101086</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125210039</v>
+        <v>125154291</v>
       </c>
       <c r="E108" t="n">
-        <v>2073580797</v>
+        <v>2072657561</v>
       </c>
       <c r="F108" t="n">
-        <v>221900.5135288768</v>
+        <v>222787.7210602212</v>
       </c>
       <c r="G108" t="n">
-        <v>120756.0489756817</v>
+        <v>104206.450739938</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5021942</v>
+        <v>5052028</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23126889</v>
+        <v>23164759</v>
       </c>
       <c r="E109" t="n">
-        <v>138372825</v>
+        <v>138599407</v>
       </c>
       <c r="F109" t="n">
-        <v>40004.38001590992</v>
+        <v>39292.17588445811</v>
       </c>
       <c r="G109" t="n">
-        <v>37658.1773491467</v>
+        <v>38295.54871358109</v>
       </c>
       <c r="H109" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I109" t="n">
-        <v>12634730</v>
+        <v>12569170</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1004777</v>
+        <v>1003803</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>68158</v>
+        <v>67212</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2276369</v>
+        <v>2276975</v>
       </c>
       <c r="F111" t="n">
-        <v>2636.910924160308</v>
+        <v>3740.802382871785</v>
       </c>
       <c r="G111" t="n">
-        <v>344.6302056903817</v>
+        <v>347.126325401481</v>
       </c>
       <c r="H111" t="n">
         <v>0.46</v>
       </c>
       <c r="I111" t="n">
-        <v>213330</v>
+        <v>213576</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142404109</v>
+        <v>142418062</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.780270793535</v>
+        <v>3146.833390081211</v>
       </c>
       <c r="G112" t="n">
-        <v>909.6222315497469</v>
+        <v>909.6375864461287</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>57280</v>
+        <v>54697</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6856334</v>
+        <v>6815969</v>
       </c>
       <c r="E113" t="n">
-        <v>35273754</v>
+        <v>35066089</v>
       </c>
       <c r="F113" t="n">
-        <v>1048.149278097017</v>
+        <v>466.1603214648376</v>
       </c>
       <c r="G113" t="n">
-        <v>470.4692235009226</v>
+        <v>583.3962564420848</v>
       </c>
       <c r="H113" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="I113" t="n">
-        <v>914521</v>
+        <v>908621</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>28998547</v>
+        <v>28893354</v>
       </c>
       <c r="E114" t="n">
-        <v>39853882</v>
+        <v>39617840</v>
       </c>
       <c r="F114" t="n">
-        <v>5090.897679843257</v>
+        <v>4273.220486290335</v>
       </c>
       <c r="G114" t="n">
-        <v>4064.972688733792</v>
+        <v>4866.437537927803</v>
       </c>
       <c r="H114" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I114" t="n">
-        <v>299862</v>
+        <v>294579</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8051901</v>
+        <v>8053491</v>
       </c>
       <c r="F115" t="n">
-        <v>630.6081527292715</v>
+        <v>666.180375773794</v>
       </c>
       <c r="G115" t="n">
-        <v>6675.462856367615</v>
+        <v>6705.935465827808</v>
       </c>
       <c r="H115" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>707883</v>
+        <v>704347</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3319525</v>
+        <v>3308124</v>
       </c>
       <c r="E116" t="n">
-        <v>4446713</v>
+        <v>4431441</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>146754</v>
+        <v>146700</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33971483</v>
+        <v>34064599</v>
       </c>
       <c r="E117" t="n">
-        <v>169533359</v>
+        <v>169998050</v>
       </c>
       <c r="F117" t="n">
-        <v>79768.01576138218</v>
+        <v>74963.42078558658</v>
       </c>
       <c r="G117" t="n">
-        <v>56198.94549360208</v>
+        <v>64580.32478489272</v>
       </c>
       <c r="H117" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>9905672</v>
+        <v>9976754</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3443880</v>
+        <v>3446231</v>
       </c>
       <c r="E118" t="n">
-        <v>4947462</v>
+        <v>4950839</v>
       </c>
       <c r="F118" t="n">
-        <v>747.1801697505213</v>
+        <v>747.1927825404105</v>
       </c>
       <c r="G118" t="n">
-        <v>861.3132264665442</v>
+        <v>861.3277658817938</v>
       </c>
       <c r="H118" t="n">
         <v>0.6</v>
       </c>
       <c r="I118" t="n">
-        <v>180440</v>
+        <v>178758</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>310607258</v>
+        <v>311152697</v>
       </c>
       <c r="E119" t="n">
-        <v>574694261</v>
+        <v>575703447</v>
       </c>
       <c r="F119" t="n">
-        <v>126156.9647084226</v>
+        <v>125271.1883333857</v>
       </c>
       <c r="G119" t="n">
-        <v>143387.4455640079</v>
+        <v>130985.0471256672</v>
       </c>
       <c r="H119" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>12207521</v>
+        <v>12258803</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70808700</v>
+        <v>70930266</v>
       </c>
       <c r="E120" t="n">
-        <v>675599293</v>
+        <v>676752534</v>
       </c>
       <c r="F120" t="n">
-        <v>2499.257161357255</v>
+        <v>3573.105199251817</v>
       </c>
       <c r="G120" t="n">
-        <v>39277.94271596523</v>
+        <v>41162.65811751318</v>
       </c>
       <c r="H120" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I120" t="n">
-        <v>21086201</v>
+        <v>21002755</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37662670</v>
+        <v>37768337</v>
       </c>
       <c r="E121" t="n">
-        <v>49244113</v>
+        <v>49382146</v>
       </c>
       <c r="F121" t="n">
-        <v>5741.537986578615</v>
+        <v>167.8531432259461</v>
       </c>
       <c r="G121" t="n">
-        <v>261.9213357542524</v>
+        <v>962.2040749973745</v>
       </c>
       <c r="H121" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="I121" t="n">
-        <v>643385</v>
+        <v>665425</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9868894</v>
+        <v>9607176</v>
       </c>
       <c r="E122" t="n">
-        <v>29289005</v>
+        <v>28512274</v>
       </c>
       <c r="F122" t="n">
-        <v>1656.403371027479</v>
+        <v>2042.090282050853</v>
       </c>
       <c r="G122" t="n">
-        <v>7128.357461872459</v>
+        <v>7081.484813280168</v>
       </c>
       <c r="H122" t="n">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="I122" t="n">
-        <v>5476491</v>
+        <v>5519167</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2298410</v>
+        <v>2236478</v>
       </c>
       <c r="E123" t="n">
-        <v>7864812</v>
+        <v>7652891</v>
       </c>
       <c r="F123" t="n">
-        <v>559.1572813875466</v>
+        <v>583.3826770397374</v>
       </c>
       <c r="G123" t="n">
-        <v>1266.769813033909</v>
+        <v>1098.784335666806</v>
       </c>
       <c r="H123" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>760766</v>
+        <v>777163</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7229942</v>
+        <v>7301429</v>
       </c>
       <c r="E124" t="n">
-        <v>7229953</v>
+        <v>7301440</v>
       </c>
       <c r="F124" t="n">
-        <v>391.540979578416</v>
+        <v>5.054125740524093</v>
       </c>
       <c r="G124" t="n">
-        <v>417.9450746654957</v>
+        <v>947.5145770101304</v>
       </c>
       <c r="H124" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I124" t="n">
-        <v>337592</v>
+        <v>345824</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6061379</v>
+        <v>6073665</v>
       </c>
       <c r="E125" t="n">
-        <v>6061379</v>
+        <v>6073665</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>434753</v>
+        <v>467011</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6204893</v>
+        <v>6209163</v>
       </c>
       <c r="E126" t="n">
-        <v>22664074</v>
+        <v>22679670</v>
       </c>
       <c r="F126" t="n">
-        <v>5718.738344885357</v>
+        <v>5951.546893776848</v>
       </c>
       <c r="G126" t="n">
-        <v>7354.226839447109</v>
+        <v>6912.795577910827</v>
       </c>
       <c r="H126" t="n">
-        <v>0.04</v>
+        <v>0.89</v>
       </c>
       <c r="I126" t="n">
-        <v>517442</v>
+        <v>519609</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44280838</v>
+        <v>44392658</v>
       </c>
       <c r="E127" t="n">
-        <v>44280838</v>
+        <v>44392658</v>
       </c>
       <c r="F127" t="n">
-        <v>50985.09000295984</v>
+        <v>52615.09587993367</v>
       </c>
       <c r="G127" t="n">
-        <v>76128.93007782848</v>
+        <v>86173.03721790225</v>
       </c>
       <c r="H127" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="I127" t="n">
-        <v>8218485</v>
+        <v>8156415</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>147262823</v>
+        <v>147950761</v>
       </c>
       <c r="F128" t="n">
-        <v>5322.298144856365</v>
+        <v>5364.302262512365</v>
       </c>
       <c r="G128" t="n">
-        <v>495.7880428294962</v>
+        <v>483.4296908758931</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1305774</v>
+        <v>1353110</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3126202</v>
+        <v>3095134</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>75091</v>
+        <v>72008</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20540593</v>
+        <v>20415066</v>
       </c>
       <c r="F130" t="n">
-        <v>222.8563783773915</v>
+        <v>495.7414376123143</v>
       </c>
       <c r="G130" t="n">
-        <v>700.8835881234241</v>
+        <v>646.8274604945615</v>
       </c>
       <c r="H130" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="I130" t="n">
-        <v>2821015</v>
+        <v>2825885</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1236231</v>
+        <v>1237649</v>
       </c>
       <c r="E131" t="n">
-        <v>3739462</v>
+        <v>3743629</v>
       </c>
       <c r="F131" t="n">
-        <v>797.691679711232</v>
+        <v>797.7051451616816</v>
       </c>
       <c r="G131" t="n">
-        <v>671.1461052602649</v>
+        <v>671.1574345555986</v>
       </c>
       <c r="H131" t="n">
         <v>1.32</v>
       </c>
       <c r="I131" t="n">
-        <v>12346.16</v>
+        <v>12261.53</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>593480717</v>
+        <v>591219657</v>
       </c>
       <c r="E132" t="n">
-        <v>2298463254</v>
+        <v>2289706502</v>
       </c>
       <c r="F132" t="n">
-        <v>351375.3622519869</v>
+        <v>510417.6246349326</v>
       </c>
       <c r="G132" t="n">
-        <v>659297.2546663216</v>
+        <v>378771.0015051861</v>
       </c>
       <c r="H132" t="n">
         <v>0.09</v>
       </c>
       <c r="I132" t="n">
-        <v>29378659</v>
+        <v>30216110</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3674034</v>
+        <v>3675028</v>
       </c>
       <c r="E133" t="n">
-        <v>6262890</v>
+        <v>6264584</v>
       </c>
       <c r="F133" t="n">
-        <v>5212.928767581338</v>
+        <v>4878.699948929313</v>
       </c>
       <c r="G133" t="n">
-        <v>5263.324538233165</v>
+        <v>5171.853105381397</v>
       </c>
       <c r="H133" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="I133" t="n">
-        <v>1088913</v>
+        <v>1146731</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>116677731</v>
+        <v>117454067</v>
       </c>
       <c r="E134" t="n">
-        <v>1014441158</v>
+        <v>1021190925</v>
       </c>
       <c r="F134" t="n">
-        <v>114740.7340811292</v>
+        <v>114494.218951713</v>
       </c>
       <c r="G134" t="n">
-        <v>104367.7341220071</v>
+        <v>101659.4265522669</v>
       </c>
       <c r="H134" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I134" t="n">
-        <v>9107356</v>
+        <v>9230716</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>998689795</v>
+        <v>1007070146</v>
       </c>
       <c r="E135" t="n">
-        <v>1097063477</v>
+        <v>1106269316</v>
       </c>
       <c r="F135" t="n">
-        <v>14327.99530575783</v>
+        <v>18489.95917479573</v>
       </c>
       <c r="G135" t="n">
-        <v>19290.12914161068</v>
+        <v>20528.36899656774</v>
       </c>
       <c r="H135" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I135" t="n">
-        <v>11616943</v>
+        <v>11037183</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1135685</v>
+        <v>1136822</v>
       </c>
       <c r="E136" t="n">
-        <v>4397619</v>
+        <v>4402024</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>455737</v>
+        <v>342139</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>109422965</v>
+        <v>110995810</v>
       </c>
       <c r="E137" t="n">
-        <v>419764106</v>
+        <v>425797792</v>
       </c>
       <c r="F137" t="n">
-        <v>167969.6478681959</v>
+        <v>152539.1873988224</v>
       </c>
       <c r="G137" t="n">
-        <v>193660.7782962513</v>
+        <v>187564.0522372592</v>
       </c>
       <c r="H137" t="n">
         <v>0.12</v>
       </c>
       <c r="I137" t="n">
-        <v>18981994</v>
+        <v>19291137</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3172552</v>
+        <v>3165944</v>
       </c>
       <c r="E138" t="n">
-        <v>30060403</v>
+        <v>29997788</v>
       </c>
       <c r="F138" t="n">
-        <v>2777.966786215523</v>
+        <v>4797.462308212745</v>
       </c>
       <c r="G138" t="n">
-        <v>120.5406072833695</v>
+        <v>483.495941707629</v>
       </c>
       <c r="H138" t="n">
-        <v>0.44</v>
+        <v>0.03</v>
       </c>
       <c r="I138" t="n">
-        <v>237872</v>
+        <v>244989</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21744649</v>
+        <v>21724316</v>
       </c>
       <c r="E139" t="n">
-        <v>21744649</v>
+        <v>21724316</v>
       </c>
       <c r="F139" t="n">
-        <v>7465.391665733511</v>
+        <v>7008.631962752473</v>
       </c>
       <c r="G139" t="n">
-        <v>2718.793420404847</v>
+        <v>2941.483077515474</v>
       </c>
       <c r="H139" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="I139" t="n">
-        <v>509556</v>
+        <v>523889</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>495091615</v>
+        <v>494509683</v>
       </c>
       <c r="E140" t="n">
-        <v>495091615</v>
+        <v>494509683</v>
       </c>
       <c r="F140" t="n">
-        <v>988345.9396021111</v>
+        <v>784637.450451963</v>
       </c>
       <c r="G140" t="n">
-        <v>770255.2245371056</v>
+        <v>681524.4229830779</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I140" t="n">
-        <v>31547251</v>
+        <v>32724157</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31129858</v>
+        <v>31454518</v>
       </c>
       <c r="F141" t="n">
-        <v>42547.47515179174</v>
+        <v>52783.09040816046</v>
       </c>
       <c r="G141" t="n">
-        <v>62633.93848903867</v>
+        <v>68179.46029639982</v>
       </c>
       <c r="H141" t="n">
-        <v>0.68</v>
+        <v>0.22</v>
       </c>
       <c r="I141" t="n">
-        <v>5718412</v>
+        <v>5743113</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>788237</v>
+        <v>767399</v>
       </c>
       <c r="E142" t="n">
-        <v>12572094</v>
+        <v>12239733</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>2.472255310274929</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>110.7826739477563</v>
       </c>
       <c r="H142" t="n">
-        <v>4.04</v>
+        <v>0.08</v>
       </c>
       <c r="I142" t="n">
-        <v>71958</v>
+        <v>70692</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2634273209</v>
+        <v>2661121191</v>
       </c>
       <c r="E143" t="n">
-        <v>2796912703</v>
+        <v>2825418273</v>
       </c>
       <c r="F143" t="n">
-        <v>2650.769977163478</v>
+        <v>2607.46782289676</v>
       </c>
       <c r="G143" t="n">
-        <v>23124.32116567679</v>
+        <v>19688.55552366424</v>
       </c>
       <c r="H143" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I143" t="n">
-        <v>37428660</v>
+        <v>37762306</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1636009</v>
+        <v>1630728</v>
       </c>
       <c r="E144" t="n">
-        <v>1641784</v>
+        <v>1636484</v>
       </c>
       <c r="F144" t="n">
-        <v>655.4812986054857</v>
+        <v>470.9631238111472</v>
       </c>
       <c r="G144" t="n">
-        <v>870.5384737086872</v>
+        <v>1036.692504801652</v>
       </c>
       <c r="H144" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>411100</v>
+        <v>387721</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60475044</v>
+        <v>60813439</v>
       </c>
       <c r="E145" t="n">
-        <v>148341183</v>
+        <v>149171244</v>
       </c>
       <c r="F145" t="n">
-        <v>1524.061136994901</v>
+        <v>3266.963704161537</v>
       </c>
       <c r="G145" t="n">
-        <v>5599.805444004015</v>
+        <v>4034.691001105147</v>
       </c>
       <c r="H145" t="n">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
       <c r="I145" t="n">
-        <v>22530740</v>
+        <v>22554964</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>674098820</v>
+        <v>675163523</v>
       </c>
       <c r="E146" t="n">
-        <v>1039519898</v>
+        <v>1041161763</v>
       </c>
       <c r="F146" t="n">
-        <v>153784.578316996</v>
+        <v>138319.7084195305</v>
       </c>
       <c r="G146" t="n">
-        <v>147087.8490580937</v>
+        <v>158359.3289719469</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>192699602</v>
+        <v>160448586</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23233126</v>
+        <v>23489461</v>
       </c>
       <c r="E147" t="n">
-        <v>23233126</v>
+        <v>23489461</v>
       </c>
       <c r="F147" t="n">
-        <v>4809.016670124571</v>
+        <v>4964.776480089016</v>
       </c>
       <c r="G147" t="n">
-        <v>7866.459779524513</v>
+        <v>6579.440862306104</v>
       </c>
       <c r="H147" t="n">
         <v>0.62</v>
       </c>
       <c r="I147" t="n">
-        <v>6123221</v>
+        <v>6158222</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3829546</v>
+        <v>3829004</v>
       </c>
       <c r="E148" t="n">
-        <v>8356021</v>
+        <v>8354837</v>
       </c>
       <c r="F148" t="n">
-        <v>5706.621098859354</v>
+        <v>5733.954267945098</v>
       </c>
       <c r="G148" t="n">
-        <v>5789.961484753038</v>
+        <v>5844.220595869701</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>986253</v>
+        <v>943718</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9354797</v>
+        <v>9359088</v>
       </c>
       <c r="E149" t="n">
-        <v>9354797</v>
+        <v>9359088</v>
       </c>
       <c r="F149" t="n">
-        <v>79721.33744318795</v>
+        <v>82370.89221095876</v>
       </c>
       <c r="G149" t="n">
-        <v>76820.15752691847</v>
+        <v>90030.15504923965</v>
       </c>
       <c r="H149" t="n">
         <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>3236765</v>
+        <v>3221794</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>483301167</v>
+        <v>487566492</v>
       </c>
       <c r="E150" t="n">
-        <v>1683184650</v>
+        <v>1698039426</v>
       </c>
       <c r="F150" t="n">
-        <v>770337.7887199424</v>
+        <v>751714.9191803191</v>
       </c>
       <c r="G150" t="n">
-        <v>862614.0010012938</v>
+        <v>716319.3670769384</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>31124071</v>
+        <v>31265598</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48137935</v>
+        <v>48032024</v>
       </c>
       <c r="E151" t="n">
-        <v>118804832</v>
+        <v>118543450</v>
       </c>
       <c r="F151" t="n">
-        <v>5594.773670401984</v>
+        <v>5594.868113091497</v>
       </c>
       <c r="G151" t="n">
-        <v>8133.283313836623</v>
+        <v>8136.258800989989</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>37283</v>
+        <v>40059</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7618799</v>
+        <v>7641035</v>
       </c>
       <c r="E152" t="n">
-        <v>19792820</v>
+        <v>19850588</v>
       </c>
       <c r="F152" t="n">
-        <v>2376.66157615144</v>
+        <v>2589.586668106512</v>
       </c>
       <c r="G152" t="n">
-        <v>8011.702992340874</v>
+        <v>2670.06932656592</v>
       </c>
       <c r="H152" t="n">
         <v>1.99</v>
       </c>
       <c r="I152" t="n">
-        <v>677509</v>
+        <v>678612</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19264020374</v>
+        <v>19246856017</v>
       </c>
       <c r="F153" t="n">
-        <v>52443.30696138313</v>
+        <v>52444.19223168148</v>
       </c>
       <c r="G153" t="n">
-        <v>50106.16804264991</v>
+        <v>50107.01386082773</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48994682</v>
+        <v>48971541</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2659744</v>
+        <v>2665893</v>
       </c>
       <c r="E154" t="n">
-        <v>10638977</v>
+        <v>10663574</v>
       </c>
       <c r="F154" t="n">
-        <v>24488.57458657031</v>
+        <v>23551.97172718855</v>
       </c>
       <c r="G154" t="n">
-        <v>3377.001410032023</v>
+        <v>5516.617179769768</v>
       </c>
       <c r="H154" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I154" t="n">
-        <v>5066164</v>
+        <v>5061738</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>212160494</v>
+        <v>212974374</v>
       </c>
       <c r="E155" t="n">
-        <v>652313678</v>
+        <v>654816052</v>
       </c>
       <c r="F155" t="n">
-        <v>164868.8364307149</v>
+        <v>143065.3874657059</v>
       </c>
       <c r="G155" t="n">
-        <v>176268.5940478815</v>
+        <v>176121.3439055989</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>11414607</v>
+        <v>11309060</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>398743206</v>
+        <v>399287816</v>
       </c>
       <c r="E156" t="n">
-        <v>2278532603</v>
+        <v>2281644664</v>
       </c>
       <c r="F156" t="n">
-        <v>137581.3170223599</v>
+        <v>142289.6209081464</v>
       </c>
       <c r="G156" t="n">
-        <v>254221.4517863976</v>
+        <v>215034.9094898995</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>36485811</v>
+        <v>35966551</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3851991</v>
+        <v>3831514</v>
       </c>
       <c r="F2" t="n">
-        <v>453.5000822955894</v>
+        <v>219.3439276311512</v>
       </c>
       <c r="G2" t="n">
-        <v>1199.71579246743</v>
+        <v>1293.577482221211</v>
       </c>
       <c r="H2" t="n">
-        <v>2.19</v>
+        <v>2.71</v>
       </c>
       <c r="I2" t="n">
-        <v>98138</v>
+        <v>98950</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600518980</v>
+        <v>600379561</v>
       </c>
       <c r="E3" t="n">
-        <v>1165198146</v>
+        <v>1164927629</v>
       </c>
       <c r="F3" t="n">
-        <v>67597.53731860525</v>
+        <v>65660.45256136927</v>
       </c>
       <c r="G3" t="n">
-        <v>81556.48127317599</v>
+        <v>80609.45368975772</v>
       </c>
       <c r="H3" t="n">
         <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>22475476</v>
+        <v>22605758</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245203005</v>
+        <v>244781083</v>
       </c>
       <c r="E4" t="n">
-        <v>1537633581</v>
+        <v>1534987767</v>
       </c>
       <c r="F4" t="n">
-        <v>333469.5373268939</v>
+        <v>335265.5227483796</v>
       </c>
       <c r="G4" t="n">
-        <v>240364.4514083906</v>
+        <v>296127.544584192</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>15513510</v>
+        <v>15541787</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139486331</v>
+        <v>138596364</v>
       </c>
       <c r="E5" t="n">
-        <v>154573134</v>
+        <v>153586908</v>
       </c>
       <c r="F5" t="n">
-        <v>8760.112049038165</v>
+        <v>8757.946793030322</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8296415723598</v>
+        <v>6135.573948526324</v>
       </c>
       <c r="H5" t="n">
-        <v>0.97</v>
+        <v>0.33</v>
       </c>
       <c r="I5" t="n">
-        <v>33039175</v>
+        <v>33275173</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49701304</v>
+        <v>49736156</v>
       </c>
       <c r="E6" t="n">
-        <v>62175057</v>
+        <v>62218655</v>
       </c>
       <c r="F6" t="n">
-        <v>7957.645429811937</v>
+        <v>6529.655215049022</v>
       </c>
       <c r="G6" t="n">
-        <v>4668.161071805275</v>
+        <v>4769.979923890192</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="I6" t="n">
-        <v>560766</v>
+        <v>513626</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68668351</v>
+        <v>68592221</v>
       </c>
       <c r="E7" t="n">
-        <v>136787160</v>
+        <v>136635508</v>
       </c>
       <c r="F7" t="n">
-        <v>9717.940097982941</v>
+        <v>9917.505272417529</v>
       </c>
       <c r="G7" t="n">
-        <v>12357.92064230089</v>
+        <v>12792.60099618388</v>
       </c>
       <c r="H7" t="n">
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1507040</v>
+        <v>1485887</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39991927</v>
+        <v>40037979</v>
       </c>
       <c r="E8" t="n">
-        <v>44756727</v>
+        <v>44808265</v>
       </c>
       <c r="F8" t="n">
-        <v>6449.490055125621</v>
+        <v>6488.811794744772</v>
       </c>
       <c r="G8" t="n">
-        <v>6656.736674935941</v>
+        <v>6656.842183523224</v>
       </c>
       <c r="H8" t="n">
         <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>232290</v>
+        <v>232603</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14297182</v>
+        <v>14398184</v>
       </c>
       <c r="E9" t="n">
-        <v>42132872</v>
+        <v>42430517</v>
       </c>
       <c r="F9" t="n">
-        <v>5025.551834636428</v>
+        <v>5115.723940750152</v>
       </c>
       <c r="G9" t="n">
-        <v>4793.12365694055</v>
+        <v>4673.006777506816</v>
       </c>
       <c r="H9" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="I9" t="n">
-        <v>801100</v>
+        <v>804324</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7587200</v>
+        <v>7552641</v>
       </c>
       <c r="E10" t="n">
-        <v>32620919</v>
+        <v>32472336</v>
       </c>
       <c r="F10" t="n">
-        <v>5744.433216312184</v>
+        <v>3880.31029409805</v>
       </c>
       <c r="G10" t="n">
-        <v>2907.975091925353</v>
+        <v>2738.30734368657</v>
       </c>
       <c r="H10" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="I10" t="n">
-        <v>675789</v>
+        <v>440764</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>545805771</v>
+        <v>545761931</v>
       </c>
       <c r="E11" t="n">
-        <v>682721898</v>
+        <v>682667060</v>
       </c>
       <c r="F11" t="n">
-        <v>305818.8252342058</v>
+        <v>335373.0697694155</v>
       </c>
       <c r="G11" t="n">
-        <v>291538.0928864554</v>
+        <v>293370.3961144867</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>54259082</v>
+        <v>53369350</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4721929</v>
+        <v>4722096</v>
       </c>
       <c r="E12" t="n">
-        <v>29003807</v>
+        <v>29004833</v>
       </c>
       <c r="F12" t="n">
-        <v>8770.665627396411</v>
+        <v>11769.44560074381</v>
       </c>
       <c r="G12" t="n">
-        <v>7115.621192143428</v>
+        <v>8320.182982266617</v>
       </c>
       <c r="H12" t="n">
         <v>1.03</v>
       </c>
       <c r="I12" t="n">
-        <v>467028</v>
+        <v>467123</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22321028</v>
+        <v>22339499</v>
       </c>
       <c r="E13" t="n">
-        <v>22362821</v>
+        <v>22381326</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>875362</v>
+        <v>875810</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81658062</v>
+        <v>82101774</v>
       </c>
       <c r="E14" t="n">
-        <v>240341895</v>
+        <v>241647862</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>410001</v>
+        <v>376028</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>466721421</v>
+        <v>469715724</v>
       </c>
       <c r="E15" t="n">
-        <v>466721423</v>
+        <v>469715722</v>
       </c>
       <c r="F15" t="n">
-        <v>12896.51302895856</v>
+        <v>9075.633318525181</v>
       </c>
       <c r="G15" t="n">
-        <v>23504.0281254197</v>
+        <v>56302.32955897244</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>59846998</v>
+        <v>60306983</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4639057</v>
+        <v>4628448</v>
       </c>
       <c r="E16" t="n">
-        <v>4639057</v>
+        <v>4628448</v>
       </c>
       <c r="F16" t="n">
-        <v>5670.865475812428</v>
+        <v>426.1915958108536</v>
       </c>
       <c r="G16" t="n">
-        <v>1372.367155709558</v>
+        <v>3534.409597973676</v>
       </c>
       <c r="H16" t="n">
-        <v>1.03</v>
+        <v>0.74</v>
       </c>
       <c r="I16" t="n">
-        <v>1913400</v>
+        <v>1909217</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3261828</v>
+        <v>3308810</v>
       </c>
       <c r="E17" t="n">
-        <v>3261828</v>
+        <v>3308810</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>512005</v>
+        <v>507973</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166706035</v>
+        <v>165976131</v>
       </c>
       <c r="E18" t="n">
-        <v>206389014</v>
+        <v>205485362</v>
       </c>
       <c r="F18" t="n">
-        <v>7886.021669179217</v>
+        <v>8580.182220270333</v>
       </c>
       <c r="G18" t="n">
-        <v>8530.254430284745</v>
+        <v>8445.689622690723</v>
       </c>
       <c r="H18" t="n">
         <v>1.47</v>
       </c>
       <c r="I18" t="n">
-        <v>396318</v>
+        <v>393487</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6707164</v>
+        <v>6757675</v>
       </c>
       <c r="E19" t="n">
-        <v>9237479</v>
+        <v>9307045</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>899162</v>
+        <v>901770</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>912515</v>
+        <v>912080</v>
       </c>
       <c r="E20" t="n">
-        <v>6387602</v>
+        <v>6384563</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>369924</v>
+        <v>323460</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>107847775</v>
+        <v>108007822</v>
       </c>
       <c r="E21" t="n">
-        <v>419900911</v>
+        <v>420524045</v>
       </c>
       <c r="F21" t="n">
-        <v>34699.38653016936</v>
+        <v>29648.7317198458</v>
       </c>
       <c r="G21" t="n">
-        <v>70771.6354740189</v>
+        <v>66675.53902125104</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>6374663</v>
+        <v>6417036</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1680141</v>
+        <v>1679495</v>
       </c>
       <c r="E22" t="n">
-        <v>12101916</v>
+        <v>12097262</v>
       </c>
       <c r="F22" t="n">
-        <v>5944.175551540072</v>
+        <v>5944.306692702475</v>
       </c>
       <c r="G22" t="n">
-        <v>4380.11048567678</v>
+        <v>4258.99069371417</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>147116</v>
+        <v>146839</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>133845167</v>
+        <v>134145710</v>
       </c>
       <c r="E23" t="n">
-        <v>133845167</v>
+        <v>134145710</v>
       </c>
       <c r="F23" t="n">
-        <v>993604.517649599</v>
+        <v>991950.2397410909</v>
       </c>
       <c r="G23" t="n">
-        <v>1117817.124924441</v>
+        <v>1306133.591858147</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>63098008</v>
+        <v>63091834</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64204911</v>
+        <v>63899139</v>
       </c>
       <c r="E24" t="n">
-        <v>329255953</v>
+        <v>327687894</v>
       </c>
       <c r="F24" t="n">
-        <v>93224.38754234965</v>
+        <v>77973.68036365225</v>
       </c>
       <c r="G24" t="n">
-        <v>95050.77015906569</v>
+        <v>120276.6769820671</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>18003384</v>
+        <v>18004617</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>250379733</v>
+        <v>250253934</v>
       </c>
       <c r="E25" t="n">
-        <v>250379733</v>
+        <v>250253934</v>
       </c>
       <c r="F25" t="n">
-        <v>348321.7880208445</v>
+        <v>340860.3648265731</v>
       </c>
       <c r="G25" t="n">
-        <v>498778.1091243122</v>
+        <v>461716.0315969588</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>14529365</v>
+        <v>14733711</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1119458</v>
+        <v>1127079</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>190898</v>
+        <v>192390</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3957499</v>
+        <v>3962616</v>
       </c>
       <c r="E28" t="n">
-        <v>3958433</v>
+        <v>3963505</v>
       </c>
       <c r="F28" t="n">
-        <v>631.3875509374565</v>
+        <v>834.068695517159</v>
       </c>
       <c r="G28" t="n">
-        <v>2967.425286215076</v>
+        <v>2730.278106101525</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="I28" t="n">
-        <v>267879</v>
+        <v>274080</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6601542</v>
+        <v>6622128</v>
       </c>
       <c r="E29" t="n">
-        <v>16034637</v>
+        <v>16084640</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>453185</v>
+        <v>454781</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99466616</v>
+        <v>99453512</v>
       </c>
       <c r="E30" t="n">
-        <v>124023210</v>
+        <v>124006871</v>
       </c>
       <c r="F30" t="n">
-        <v>104271.9427403666</v>
+        <v>108771.6703017502</v>
       </c>
       <c r="G30" t="n">
-        <v>105083.9683426276</v>
+        <v>96409.37779514746</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11536712</v>
+        <v>11491706</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1115155</v>
+        <v>1115507</v>
       </c>
       <c r="E31" t="n">
-        <v>12119084</v>
+        <v>12122917</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29348</v>
+        <v>29357</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>71826606</v>
+        <v>71835024</v>
       </c>
       <c r="E32" t="n">
-        <v>201071392</v>
+        <v>201094956</v>
       </c>
       <c r="F32" t="n">
-        <v>53477.08985044568</v>
+        <v>49326.47333315887</v>
       </c>
       <c r="G32" t="n">
-        <v>73174.80535366642</v>
+        <v>72748.96851553777</v>
       </c>
       <c r="H32" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>32565599</v>
+        <v>32620788</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4217825</v>
+        <v>4207539</v>
       </c>
       <c r="E33" t="n">
-        <v>8317906</v>
+        <v>8297620</v>
       </c>
       <c r="F33" t="n">
-        <v>8198.386475189884</v>
+        <v>5758.970311036722</v>
       </c>
       <c r="G33" t="n">
-        <v>7844.131240693018</v>
+        <v>7150.879192663265</v>
       </c>
       <c r="H33" t="n">
-        <v>0.57</v>
+        <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>1636545</v>
+        <v>1634033</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37407089</v>
+        <v>37449903</v>
       </c>
       <c r="F34" t="n">
-        <v>860.5091988782782</v>
+        <v>842.5708802219746</v>
       </c>
       <c r="G34" t="n">
-        <v>835.1476196912093</v>
+        <v>835.1660448249683</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="I34" t="n">
-        <v>64962</v>
+        <v>65015</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7544356</v>
+        <v>7541087</v>
       </c>
       <c r="E35" t="n">
-        <v>17768457</v>
+        <v>17760760</v>
       </c>
       <c r="F35" t="n">
-        <v>3494.335694583036</v>
+        <v>3494.222281871668</v>
       </c>
       <c r="G35" t="n">
-        <v>2563.221788036331</v>
+        <v>2563.203509539499</v>
       </c>
       <c r="H35" t="n">
         <v>1.28</v>
       </c>
       <c r="I35" t="n">
-        <v>29613</v>
+        <v>29666</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23312410</v>
+        <v>23279316</v>
       </c>
       <c r="F36" t="n">
-        <v>5366.257977586231</v>
+        <v>5350.600063720993</v>
       </c>
       <c r="G36" t="n">
-        <v>5162.99579169874</v>
+        <v>5165.140054085002</v>
       </c>
       <c r="H36" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="I36" t="n">
-        <v>118314</v>
+        <v>118464</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>71728371</v>
+        <v>71928173</v>
       </c>
       <c r="E37" t="n">
-        <v>149590079</v>
+        <v>150006767</v>
       </c>
       <c r="F37" t="n">
-        <v>59547.49712016489</v>
+        <v>72979.94293425536</v>
       </c>
       <c r="G37" t="n">
-        <v>110472.1308878693</v>
+        <v>109985.9602865845</v>
       </c>
       <c r="H37" t="n">
         <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>13682035</v>
+        <v>13724214</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>277504359</v>
+        <v>275047643</v>
       </c>
       <c r="E38" t="n">
-        <v>277504359</v>
+        <v>275047643</v>
       </c>
       <c r="F38" t="n">
-        <v>45257.91926189866</v>
+        <v>33821.6311074484</v>
       </c>
       <c r="G38" t="n">
-        <v>25419.16875385971</v>
+        <v>32543.34053020268</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>10634494</v>
+        <v>10581044</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>196318411</v>
+        <v>196382747</v>
       </c>
       <c r="E39" t="n">
-        <v>682027904</v>
+        <v>682251412</v>
       </c>
       <c r="F39" t="n">
-        <v>168286.5472785826</v>
+        <v>159809.9417621713</v>
       </c>
       <c r="G39" t="n">
-        <v>305857.6343447894</v>
+        <v>361826.8152516292</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>26025826</v>
+        <v>25797923</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4096352</v>
+        <v>4084284</v>
       </c>
       <c r="E40" t="n">
-        <v>4096352</v>
+        <v>4084284</v>
       </c>
       <c r="F40" t="n">
-        <v>1596.899901482434</v>
+        <v>1563.094111950068</v>
       </c>
       <c r="G40" t="n">
-        <v>2868.236650427275</v>
+        <v>691.2891228769452</v>
       </c>
       <c r="H40" t="n">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
       <c r="I40" t="n">
-        <v>3839828</v>
+        <v>3809590</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>111789381</v>
+        <v>111912876</v>
       </c>
       <c r="E41" t="n">
-        <v>475628574</v>
+        <v>476133227</v>
       </c>
       <c r="F41" t="n">
-        <v>3888.913148652752</v>
+        <v>3511.533396708367</v>
       </c>
       <c r="G41" t="n">
-        <v>6376.391684303056</v>
+        <v>6280.868873799671</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I41" t="n">
-        <v>12067527</v>
+        <v>12201414</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>536698</v>
+        <v>536552</v>
       </c>
       <c r="E42" t="n">
-        <v>6509618</v>
+        <v>6507853</v>
       </c>
       <c r="F42" t="n">
-        <v>576.2671094953786</v>
+        <v>493.6486612481313</v>
       </c>
       <c r="G42" t="n">
-        <v>1119.115699308611</v>
+        <v>810.3334879053135</v>
       </c>
       <c r="H42" t="n">
-        <v>1.1</v>
+        <v>0.74</v>
       </c>
       <c r="I42" t="n">
-        <v>2760819</v>
+        <v>2760242</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1267063377</v>
+        <v>1265535435</v>
       </c>
       <c r="E43" t="n">
-        <v>6075828382</v>
+        <v>6068501585</v>
       </c>
       <c r="F43" t="n">
-        <v>44638.38168425172</v>
+        <v>45326.93838272351</v>
       </c>
       <c r="G43" t="n">
-        <v>66669.36573852204</v>
+        <v>57768.9136479177</v>
       </c>
       <c r="H43" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>180963491</v>
+        <v>181808860</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6051967285</v>
+        <v>6048776886</v>
       </c>
       <c r="E44" t="n">
-        <v>6051967285</v>
+        <v>6048776886</v>
       </c>
       <c r="F44" t="n">
-        <v>718829.226022566</v>
+        <v>721723.8385707135</v>
       </c>
       <c r="G44" t="n">
-        <v>1755963.510538792</v>
+        <v>1757339.258891261</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>98651613</v>
+        <v>98972642</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>267170804</v>
+        <v>266306546</v>
       </c>
       <c r="E45" t="n">
-        <v>1153257507</v>
+        <v>1149526891</v>
       </c>
       <c r="F45" t="n">
-        <v>110213.6762832186</v>
+        <v>105930.263257654</v>
       </c>
       <c r="G45" t="n">
-        <v>97065.21618974512</v>
+        <v>109651.3021933964</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>109912896</v>
+        <v>110642604</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113320196</v>
+        <v>113474934</v>
       </c>
       <c r="E46" t="n">
-        <v>113320196</v>
+        <v>113474934</v>
       </c>
       <c r="F46" t="n">
-        <v>42654.8799289176</v>
+        <v>45077.52103472363</v>
       </c>
       <c r="G46" t="n">
-        <v>31393.45248538736</v>
+        <v>28160.76539732956</v>
       </c>
       <c r="H46" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I46" t="n">
-        <v>5960974</v>
+        <v>5967591</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2043484243</v>
+        <v>2038170047</v>
       </c>
       <c r="E47" t="n">
-        <v>2043484243</v>
+        <v>2038170047</v>
       </c>
       <c r="F47" t="n">
-        <v>220151.9627695746</v>
+        <v>70908.32763056134</v>
       </c>
       <c r="G47" t="n">
-        <v>202045.5184800272</v>
+        <v>51570.91895365072</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="I47" t="n">
-        <v>2291532269</v>
+        <v>5624225242</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9853486</v>
+        <v>9847331</v>
       </c>
       <c r="F48" t="n">
-        <v>7224.365900884987</v>
+        <v>7274.556892167823</v>
       </c>
       <c r="G48" t="n">
-        <v>5870.274505031561</v>
+        <v>5706.412007816626</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>174602</v>
+        <v>174337</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4339762</v>
+        <v>4341543</v>
       </c>
       <c r="E49" t="n">
-        <v>5697542</v>
+        <v>5699879</v>
       </c>
       <c r="F49" t="n">
-        <v>13363.2085170084</v>
+        <v>13180.23318275461</v>
       </c>
       <c r="G49" t="n">
-        <v>16264.45977520636</v>
+        <v>16261.08281294623</v>
       </c>
       <c r="H49" t="n">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="I49" t="n">
-        <v>626892</v>
+        <v>628919</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11740391</v>
+        <v>11702680</v>
       </c>
       <c r="E50" t="n">
-        <v>17264024</v>
+        <v>17208571</v>
       </c>
       <c r="F50" t="n">
-        <v>7612.294874077419</v>
+        <v>6364.516726132042</v>
       </c>
       <c r="G50" t="n">
-        <v>11334.12755477961</v>
+        <v>28947.18460526694</v>
       </c>
       <c r="H50" t="n">
         <v>0.23</v>
       </c>
       <c r="I50" t="n">
-        <v>1028209</v>
+        <v>1032148</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22418724</v>
+        <v>22692978</v>
       </c>
       <c r="E51" t="n">
-        <v>29082214</v>
+        <v>29437984</v>
       </c>
       <c r="F51" t="n">
-        <v>9949.424571742156</v>
+        <v>13596.75492714086</v>
       </c>
       <c r="G51" t="n">
-        <v>11696.28091687328</v>
+        <v>15954.0184631091</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>157595</v>
+        <v>274492</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13601054</v>
+        <v>13615920</v>
       </c>
       <c r="E52" t="n">
-        <v>13601054</v>
+        <v>13615920</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4406289</v>
+        <v>4383271</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98610301</v>
+        <v>98433188</v>
       </c>
       <c r="E53" t="n">
-        <v>121977412</v>
+        <v>121758331</v>
       </c>
       <c r="F53" t="n">
-        <v>312.067959172741</v>
+        <v>254.2440105906614</v>
       </c>
       <c r="G53" t="n">
-        <v>4148.87705599727</v>
+        <v>4374.671755087524</v>
       </c>
       <c r="H53" t="n">
         <v>0.28</v>
       </c>
       <c r="I53" t="n">
-        <v>770655</v>
+        <v>778269</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5178428</v>
+        <v>5165157</v>
       </c>
       <c r="E54" t="n">
-        <v>7245372</v>
+        <v>7226803</v>
       </c>
       <c r="F54" t="n">
-        <v>207.1436667010375</v>
+        <v>102.4230271151604</v>
       </c>
       <c r="G54" t="n">
-        <v>39.28222635517888</v>
+        <v>520.9758300920046</v>
       </c>
       <c r="H54" t="n">
-        <v>3.03</v>
+        <v>1.59</v>
       </c>
       <c r="I54" t="n">
-        <v>103128</v>
+        <v>103010</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13751239</v>
+        <v>13769729</v>
       </c>
       <c r="E55" t="n">
-        <v>66599444</v>
+        <v>66688994</v>
       </c>
       <c r="F55" t="n">
-        <v>23372.30632450344</v>
+        <v>22895.54079546361</v>
       </c>
       <c r="G55" t="n">
-        <v>25557.91232713262</v>
+        <v>26266.79705306219</v>
       </c>
       <c r="H55" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="I55" t="n">
-        <v>3615946</v>
+        <v>3619065</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>60513</v>
+        <v>56112</v>
       </c>
       <c r="E56" t="n">
-        <v>144942</v>
+        <v>134400</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4635.39</v>
+        <v>4650.61</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1880007453</v>
+        <v>1879188207</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26163007</v>
+        <v>26190926</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12270559</v>
+        <v>12246598</v>
       </c>
       <c r="E58" t="n">
-        <v>17790540</v>
+        <v>17755800</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2286738</v>
+        <v>2273376</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124306420</v>
+        <v>124759132</v>
       </c>
       <c r="E59" t="n">
-        <v>330584214</v>
+        <v>331788171</v>
       </c>
       <c r="F59" t="n">
-        <v>966.6338387340419</v>
+        <v>1100.240333027648</v>
       </c>
       <c r="G59" t="n">
-        <v>8784.076933629649</v>
+        <v>8735.535272105804</v>
       </c>
       <c r="H59" t="n">
-        <v>0.72</v>
+        <v>1.84</v>
       </c>
       <c r="I59" t="n">
-        <v>1344618</v>
+        <v>1339027</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32600348</v>
+        <v>32449265</v>
       </c>
       <c r="E60" t="n">
-        <v>101507023</v>
+        <v>101036600</v>
       </c>
       <c r="F60" t="n">
-        <v>5206.930655421044</v>
+        <v>5324.15962834817</v>
       </c>
       <c r="G60" t="n">
-        <v>5607.116610689777</v>
+        <v>6689.810454311578</v>
       </c>
       <c r="H60" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I60" t="n">
-        <v>11775905</v>
+        <v>11891742</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2084901</v>
+        <v>2080627</v>
       </c>
       <c r="E61" t="n">
-        <v>14950614</v>
+        <v>14919969</v>
       </c>
       <c r="F61" t="n">
-        <v>2903.647983203763</v>
+        <v>5448.52877711684</v>
       </c>
       <c r="G61" t="n">
-        <v>5042.211223116617</v>
+        <v>5094.32667785203</v>
       </c>
       <c r="H61" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="I61" t="n">
-        <v>1942571</v>
+        <v>1938767</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>197767115</v>
+        <v>199710551</v>
       </c>
       <c r="E62" t="n">
-        <v>1119878923</v>
+        <v>1130883848</v>
       </c>
       <c r="F62" t="n">
-        <v>602549.6779093922</v>
+        <v>763029.9720358698</v>
       </c>
       <c r="G62" t="n">
-        <v>816954.7129815153</v>
+        <v>848271.2025452302</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>60287532</v>
+        <v>61622140</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>498986</v>
+        <v>498393</v>
       </c>
       <c r="E63" t="n">
-        <v>1679516</v>
+        <v>1677522</v>
       </c>
       <c r="F63" t="n">
-        <v>4635.951211374668</v>
+        <v>4599.345330179604</v>
       </c>
       <c r="G63" t="n">
-        <v>585.817716789997</v>
+        <v>556.2003862029975</v>
       </c>
       <c r="H63" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="I63" t="n">
-        <v>631870</v>
+        <v>631830</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>338737</v>
+        <v>340495</v>
       </c>
       <c r="E64" t="n">
-        <v>338737</v>
+        <v>340495</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6380.25</v>
+        <v>6413.35</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>137479076</v>
+        <v>137580964</v>
       </c>
       <c r="E65" t="n">
-        <v>1018363526</v>
+        <v>1019118254</v>
       </c>
       <c r="F65" t="n">
-        <v>38453.40858046347</v>
+        <v>38371.56508261819</v>
       </c>
       <c r="G65" t="n">
-        <v>39874.89978564453</v>
+        <v>40865.93745056592</v>
       </c>
       <c r="H65" t="n">
         <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>11982325</v>
+        <v>11894055</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8094680</v>
+        <v>8102945</v>
       </c>
       <c r="E66" t="n">
-        <v>10844614</v>
+        <v>10855688</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>58605</v>
+        <v>58301</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25467268</v>
+        <v>25406592</v>
       </c>
       <c r="E67" t="n">
-        <v>25467268</v>
+        <v>25406592</v>
       </c>
       <c r="F67" t="n">
-        <v>7419.714453001818</v>
+        <v>6057.869655008269</v>
       </c>
       <c r="G67" t="n">
-        <v>6646.239784220694</v>
+        <v>6747.695777909667</v>
       </c>
       <c r="H67" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="I67" t="n">
-        <v>336894</v>
+        <v>335571</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1557136</v>
+        <v>1558052</v>
       </c>
       <c r="E68" t="n">
-        <v>12093885</v>
+        <v>12101003</v>
       </c>
       <c r="F68" t="n">
-        <v>607.3089022713051</v>
+        <v>448.7140389873976</v>
       </c>
       <c r="G68" t="n">
-        <v>21984.76094538374</v>
+        <v>26830.85096945275</v>
       </c>
       <c r="H68" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>507147</v>
+        <v>508068</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>334444656</v>
+        <v>335253240</v>
       </c>
       <c r="E69" t="n">
-        <v>3008871503</v>
+        <v>3016146034</v>
       </c>
       <c r="F69" t="n">
-        <v>1206156.751296289</v>
+        <v>1277063.899282596</v>
       </c>
       <c r="G69" t="n">
-        <v>1661787.954503325</v>
+        <v>1248377.244251151</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>36043389</v>
+        <v>35939907</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>262341</v>
+        <v>260429</v>
       </c>
       <c r="E70" t="n">
-        <v>2315353</v>
+        <v>2298484</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>75530</v>
+        <v>72059</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1590735</v>
+        <v>1589214</v>
       </c>
       <c r="E71" t="n">
-        <v>13256125</v>
+        <v>13243453</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>52942</v>
+        <v>46989</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8844850</v>
+        <v>8919784</v>
       </c>
       <c r="E72" t="n">
-        <v>40996388</v>
+        <v>41343711</v>
       </c>
       <c r="F72" t="n">
-        <v>4849.720953149361</v>
+        <v>5338.010471133235</v>
       </c>
       <c r="G72" t="n">
-        <v>10153.71912887751</v>
+        <v>10124.84718105837</v>
       </c>
       <c r="H72" t="n">
         <v>1.51</v>
       </c>
       <c r="I72" t="n">
-        <v>96084</v>
+        <v>99812</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42783770</v>
+        <v>42713736</v>
       </c>
       <c r="E73" t="n">
-        <v>247700347</v>
+        <v>247294879</v>
       </c>
       <c r="F73" t="n">
-        <v>120269.2364168512</v>
+        <v>99051.1681126495</v>
       </c>
       <c r="G73" t="n">
-        <v>156058.549687835</v>
+        <v>174736.6647465432</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>11107401</v>
+        <v>10784642</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38738424</v>
+        <v>38789766</v>
       </c>
       <c r="E74" t="n">
-        <v>53503280</v>
+        <v>53574191</v>
       </c>
       <c r="F74" t="n">
-        <v>10643.65965633791</v>
+        <v>655.7061624709647</v>
       </c>
       <c r="G74" t="n">
-        <v>4493.018127084503</v>
+        <v>535.6577330523835</v>
       </c>
       <c r="H74" t="n">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="I74" t="n">
-        <v>356328</v>
+        <v>361268</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>94109</v>
+        <v>94091</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>912.01</v>
+        <v>911.8200000000001</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13483082</v>
+        <v>13518300</v>
       </c>
       <c r="E76" t="n">
-        <v>13528966</v>
+        <v>13564304</v>
       </c>
       <c r="F76" t="n">
-        <v>1294.336362303145</v>
+        <v>1505.319315327223</v>
       </c>
       <c r="G76" t="n">
-        <v>8138.713737388893</v>
+        <v>7547.24079855874</v>
       </c>
       <c r="H76" t="n">
         <v>1.31</v>
       </c>
       <c r="I76" t="n">
-        <v>5753659</v>
+        <v>5762696</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42874280</v>
+        <v>42850872</v>
       </c>
       <c r="E77" t="n">
-        <v>72790553</v>
+        <v>72750812</v>
       </c>
       <c r="F77" t="n">
-        <v>10062.25696927317</v>
+        <v>9215.975388392637</v>
       </c>
       <c r="G77" t="n">
-        <v>5612.486817553592</v>
+        <v>6124.395514297807</v>
       </c>
       <c r="H77" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>1109808</v>
+        <v>1101687</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>25644854</v>
+        <v>25092853</v>
       </c>
       <c r="E78" t="n">
-        <v>76870709</v>
+        <v>75216550</v>
       </c>
       <c r="F78" t="n">
-        <v>129889.4172015102</v>
+        <v>168312.5576292994</v>
       </c>
       <c r="G78" t="n">
-        <v>149543.361324542</v>
+        <v>126020.9584081221</v>
       </c>
       <c r="H78" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="I78" t="n">
-        <v>2502045</v>
+        <v>2522472</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101034338</v>
+        <v>101071841</v>
       </c>
       <c r="E79" t="n">
-        <v>107408632</v>
+        <v>107448501</v>
       </c>
       <c r="F79" t="n">
-        <v>1578.533617438439</v>
+        <v>1566.617608149423</v>
       </c>
       <c r="G79" t="n">
-        <v>3622.682328630154</v>
+        <v>4887.846719832796</v>
       </c>
       <c r="H79" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="I79" t="n">
-        <v>978053</v>
+        <v>978352</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10659619</v>
+        <v>10655623</v>
       </c>
       <c r="E80" t="n">
-        <v>46392768</v>
+        <v>46363605</v>
       </c>
       <c r="F80" t="n">
-        <v>6875.644319851584</v>
+        <v>6432.871355649865</v>
       </c>
       <c r="G80" t="n">
-        <v>5122.659823197581</v>
+        <v>5067.705099105227</v>
       </c>
       <c r="H80" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="I80" t="n">
-        <v>110856</v>
+        <v>110614</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15146822</v>
+        <v>15139423</v>
       </c>
       <c r="E81" t="n">
-        <v>92839850</v>
+        <v>92794504</v>
       </c>
       <c r="F81" t="n">
-        <v>4091.351797887159</v>
+        <v>4071.180116537531</v>
       </c>
       <c r="G81" t="n">
-        <v>6136.635315618224</v>
+        <v>6112.066693122727</v>
       </c>
       <c r="H81" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>11715845</v>
+        <v>11703582</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1489976</v>
+        <v>1492010</v>
       </c>
       <c r="E82" t="n">
-        <v>1531887</v>
+        <v>1533979</v>
       </c>
       <c r="F82" t="n">
-        <v>5888.937591645883</v>
+        <v>6214.095548678217</v>
       </c>
       <c r="G82" t="n">
-        <v>5862.293914668116</v>
+        <v>5823.05297038409</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>131142</v>
+        <v>131516</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>46501333</v>
+        <v>46496889</v>
       </c>
       <c r="E83" t="n">
-        <v>200322659</v>
+        <v>200303514</v>
       </c>
       <c r="F83" t="n">
-        <v>3438.463468098077</v>
+        <v>2939.463469546722</v>
       </c>
       <c r="G83" t="n">
-        <v>4495.732167532532</v>
+        <v>4504.865771085172</v>
       </c>
       <c r="H83" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I83" t="n">
-        <v>8643119</v>
+        <v>8690670</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1667545</v>
+        <v>1664316</v>
       </c>
       <c r="E84" t="n">
-        <v>6059612</v>
+        <v>6047879</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>134460</v>
+        <v>134477</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8892661</v>
+        <v>8884275</v>
       </c>
       <c r="E85" t="n">
-        <v>19750627</v>
+        <v>19727866</v>
       </c>
       <c r="F85" t="n">
-        <v>7573.491163954889</v>
+        <v>3403.348503434854</v>
       </c>
       <c r="G85" t="n">
-        <v>5398.644856096359</v>
+        <v>6929.237422139768</v>
       </c>
       <c r="H85" t="n">
-        <v>0.61</v>
+        <v>1.22</v>
       </c>
       <c r="I85" t="n">
-        <v>417245</v>
+        <v>400011</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2450906</v>
+        <v>2451276</v>
       </c>
       <c r="E86" t="n">
-        <v>18442899</v>
+        <v>18445683</v>
       </c>
       <c r="F86" t="n">
-        <v>6364.18006119887</v>
+        <v>6415.230418473914</v>
       </c>
       <c r="G86" t="n">
-        <v>10682.95025044037</v>
+        <v>12901.82760618751</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>162699</v>
+        <v>162567</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20157226</v>
+        <v>20303653</v>
       </c>
       <c r="E87" t="n">
-        <v>80628903</v>
+        <v>81214612</v>
       </c>
       <c r="F87" t="n">
-        <v>30345.00807936443</v>
+        <v>29802.92654770954</v>
       </c>
       <c r="G87" t="n">
-        <v>1957.209783993268</v>
+        <v>2138.17707597161</v>
       </c>
       <c r="H87" t="n">
         <v>0.25</v>
       </c>
       <c r="I87" t="n">
-        <v>5951161</v>
+        <v>5969491</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4290803</v>
+        <v>4266365</v>
       </c>
       <c r="E88" t="n">
-        <v>4290803</v>
+        <v>4266365</v>
       </c>
       <c r="F88" t="n">
-        <v>1351.262837278684</v>
+        <v>1741.294592994622</v>
       </c>
       <c r="G88" t="n">
-        <v>642.2215577417135</v>
+        <v>2001.080352957175</v>
       </c>
       <c r="H88" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I88" t="n">
-        <v>2487642</v>
+        <v>2501976</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12729569</v>
+        <v>12708468</v>
       </c>
       <c r="E89" t="n">
-        <v>40272587</v>
+        <v>40205829</v>
       </c>
       <c r="F89" t="n">
-        <v>19217.64945657055</v>
+        <v>14787.50036577307</v>
       </c>
       <c r="G89" t="n">
-        <v>9627.909841591831</v>
+        <v>5376.216013004471</v>
       </c>
       <c r="H89" t="n">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="I89" t="n">
-        <v>1495441</v>
+        <v>1485313</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26640</v>
+        <v>26541</v>
       </c>
       <c r="E90" t="n">
-        <v>209517</v>
+        <v>208736</v>
       </c>
       <c r="F90" t="n">
-        <v>5774.221919480925</v>
+        <v>5567.803247869717</v>
       </c>
       <c r="G90" t="n">
-        <v>247.6595661883213</v>
+        <v>347.2150685479327</v>
       </c>
       <c r="H90" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="I90" t="n">
-        <v>130469</v>
+        <v>128998</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8093383</v>
+        <v>8074994</v>
       </c>
       <c r="E91" t="n">
-        <v>8093383</v>
+        <v>8074994</v>
       </c>
       <c r="F91" t="n">
-        <v>3660.549353485159</v>
+        <v>4047.736266117581</v>
       </c>
       <c r="G91" t="n">
-        <v>4234.791926561616</v>
+        <v>4170.914052460912</v>
       </c>
       <c r="H91" t="n">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>3462514</v>
+        <v>3432518</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9278058</v>
+        <v>9281138</v>
       </c>
       <c r="E92" t="n">
-        <v>9278058</v>
+        <v>9281138</v>
       </c>
       <c r="F92" t="n">
-        <v>1477.324799585731</v>
+        <v>3178.286545070103</v>
       </c>
       <c r="G92" t="n">
-        <v>1906.876021662529</v>
+        <v>5120.416030433967</v>
       </c>
       <c r="H92" t="n">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>2811252</v>
+        <v>2932406</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>36760566</v>
+        <v>37254374</v>
       </c>
       <c r="E93" t="n">
-        <v>92692499</v>
+        <v>93937645</v>
       </c>
       <c r="F93" t="n">
-        <v>5416.589846311253</v>
+        <v>6303.591387571365</v>
       </c>
       <c r="G93" t="n">
-        <v>5741.383029443591</v>
+        <v>5462.581855192291</v>
       </c>
       <c r="H93" t="n">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="I93" t="n">
-        <v>2847802</v>
+        <v>2858355</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>297403734</v>
+        <v>297399065</v>
       </c>
       <c r="E94" t="n">
-        <v>302050846</v>
+        <v>302047274</v>
       </c>
       <c r="F94" t="n">
-        <v>44101.05790171293</v>
+        <v>16091.25518441553</v>
       </c>
       <c r="G94" t="n">
-        <v>33504.09021102882</v>
+        <v>5930.484201628146</v>
       </c>
       <c r="H94" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="I94" t="n">
-        <v>11039672</v>
+        <v>11573801</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>922.1780440015598</v>
+        <v>880.2991708861296</v>
       </c>
       <c r="G95" t="n">
-        <v>6480.742868745582</v>
+        <v>6825.360238997906</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I95" t="n">
-        <v>220625</v>
+        <v>220705</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>80586178</v>
+        <v>79549379</v>
       </c>
       <c r="E96" t="n">
-        <v>80586178</v>
+        <v>79549379</v>
       </c>
       <c r="F96" t="n">
-        <v>14437.89314549641</v>
+        <v>16110.8312291873</v>
       </c>
       <c r="G96" t="n">
-        <v>2125.914964227025</v>
+        <v>7439.267074880839</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="I96" t="n">
-        <v>4841974</v>
+        <v>4953335</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>298594125</v>
+        <v>298678120</v>
       </c>
       <c r="E97" t="n">
-        <v>298594125</v>
+        <v>298678120</v>
       </c>
       <c r="F97" t="n">
-        <v>312000.1389462518</v>
+        <v>249589.4783032337</v>
       </c>
       <c r="G97" t="n">
-        <v>464171.5901535278</v>
+        <v>442896.3053016306</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50114881</v>
+        <v>50090083</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4141017</v>
+        <v>4277027</v>
       </c>
       <c r="E98" t="n">
-        <v>28295281</v>
+        <v>29224625</v>
       </c>
       <c r="F98" t="n">
-        <v>269.7621978433506</v>
+        <v>163.7345864534671</v>
       </c>
       <c r="G98" t="n">
-        <v>4450.961580896897</v>
+        <v>2001.147656639595</v>
       </c>
       <c r="H98" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="I98" t="n">
-        <v>2537483</v>
+        <v>2570158</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>88905267</v>
+        <v>88825274</v>
       </c>
       <c r="E99" t="n">
-        <v>512310493</v>
+        <v>511849542</v>
       </c>
       <c r="F99" t="n">
-        <v>143073.2811548887</v>
+        <v>140166.8033783651</v>
       </c>
       <c r="G99" t="n">
-        <v>151882.3977840343</v>
+        <v>154875.7064688787</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>16085772</v>
+        <v>16096602</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107233882</v>
+        <v>107053155</v>
       </c>
       <c r="E100" t="n">
-        <v>263837246</v>
+        <v>263392587</v>
       </c>
       <c r="F100" t="n">
-        <v>31096.50541601394</v>
+        <v>28125.06811752118</v>
       </c>
       <c r="G100" t="n">
-        <v>45475.23290692986</v>
+        <v>45608.71927203998</v>
       </c>
       <c r="H100" t="n">
         <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2399941</v>
+        <v>2225482</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>246156546</v>
+        <v>245474478</v>
       </c>
       <c r="E101" t="n">
-        <v>246158991</v>
+        <v>245476917</v>
       </c>
       <c r="F101" t="n">
-        <v>7895.558289802534</v>
+        <v>480.3092542694649</v>
       </c>
       <c r="G101" t="n">
-        <v>3410.814793490824</v>
+        <v>3386.776560688888</v>
       </c>
       <c r="H101" t="n">
         <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>2678304</v>
+        <v>2682056</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30305901</v>
+        <v>30261003</v>
       </c>
       <c r="E102" t="n">
-        <v>135691950</v>
+        <v>135490926</v>
       </c>
       <c r="F102" t="n">
-        <v>97055.55506058448</v>
+        <v>105137.9347455976</v>
       </c>
       <c r="G102" t="n">
-        <v>159155.6619594056</v>
+        <v>156402.2258330878</v>
       </c>
       <c r="H102" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8812718</v>
+        <v>8548702</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3043660</v>
+        <v>3069443</v>
       </c>
       <c r="E103" t="n">
-        <v>3043660</v>
+        <v>3069443</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>399098</v>
+        <v>401439</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6065485</v>
+        <v>6034071</v>
       </c>
       <c r="E104" t="n">
-        <v>15918891</v>
+        <v>15836444</v>
       </c>
       <c r="F104" t="n">
-        <v>8934.858999944048</v>
+        <v>8629.527288085639</v>
       </c>
       <c r="G104" t="n">
-        <v>3795.51836519166</v>
+        <v>3742.412244324198</v>
       </c>
       <c r="H104" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="I104" t="n">
-        <v>74009</v>
+        <v>74013</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17093170</v>
+        <v>17017319</v>
       </c>
       <c r="E105" t="n">
-        <v>78899052</v>
+        <v>78548911</v>
       </c>
       <c r="F105" t="n">
-        <v>78538.48868884724</v>
+        <v>46416.13307462745</v>
       </c>
       <c r="G105" t="n">
-        <v>24164.25851241102</v>
+        <v>70585.1442886427</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="I105" t="n">
-        <v>1094306</v>
+        <v>1095190</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47105302</v>
+        <v>47211715</v>
       </c>
       <c r="E106" t="n">
-        <v>305465344</v>
+        <v>306155404</v>
       </c>
       <c r="F106" t="n">
-        <v>92082.19886414653</v>
+        <v>102526.3397597239</v>
       </c>
       <c r="G106" t="n">
-        <v>160540.5533724045</v>
+        <v>170931.8251395426</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17293262</v>
+        <v>17335592</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2614225</v>
+        <v>2602415</v>
       </c>
       <c r="E107" t="n">
-        <v>4736160</v>
+        <v>4714765</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>101086</v>
+        <v>100580</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125154291</v>
+        <v>125111250</v>
       </c>
       <c r="E108" t="n">
-        <v>2072657561</v>
+        <v>2071944773</v>
       </c>
       <c r="F108" t="n">
-        <v>222787.7210602212</v>
+        <v>213442.6496040395</v>
       </c>
       <c r="G108" t="n">
-        <v>104206.450739938</v>
+        <v>98169.35661825103</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5052028</v>
+        <v>5048587</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23164759</v>
+        <v>23148471</v>
       </c>
       <c r="E109" t="n">
-        <v>138599407</v>
+        <v>138501954</v>
       </c>
       <c r="F109" t="n">
-        <v>39292.17588445811</v>
+        <v>40440.44888256591</v>
       </c>
       <c r="G109" t="n">
-        <v>38295.54871358109</v>
+        <v>39023.53188456918</v>
       </c>
       <c r="H109" t="n">
         <v>0.22</v>
       </c>
       <c r="I109" t="n">
-        <v>12569170</v>
+        <v>12704204</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1003803</v>
+        <v>1004511</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>67212</v>
+        <v>66487</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2276975</v>
+        <v>2292645</v>
       </c>
       <c r="F111" t="n">
-        <v>3740.802382871785</v>
+        <v>3948.085956286747</v>
       </c>
       <c r="G111" t="n">
-        <v>347.126325401481</v>
+        <v>223.4006712301688</v>
       </c>
       <c r="H111" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I111" t="n">
-        <v>213576</v>
+        <v>212519</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142418062</v>
+        <v>142340251</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.833390081211</v>
+        <v>3146.911539653091</v>
       </c>
       <c r="G112" t="n">
-        <v>909.6375864461287</v>
+        <v>909.6601767072369</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>54697</v>
+        <v>54200</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6815969</v>
+        <v>6679614</v>
       </c>
       <c r="E113" t="n">
-        <v>35066089</v>
+        <v>34364583</v>
       </c>
       <c r="F113" t="n">
-        <v>466.1603214648376</v>
+        <v>2830.155410761682</v>
       </c>
       <c r="G113" t="n">
-        <v>583.3962564420848</v>
+        <v>746.4241979560954</v>
       </c>
       <c r="H113" t="n">
-        <v>0.87</v>
+        <v>0.58</v>
       </c>
       <c r="I113" t="n">
-        <v>908621</v>
+        <v>776548</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>28893354</v>
+        <v>28857488</v>
       </c>
       <c r="E114" t="n">
-        <v>39617840</v>
+        <v>39568661</v>
       </c>
       <c r="F114" t="n">
-        <v>4273.220486290335</v>
+        <v>4329.682018161858</v>
       </c>
       <c r="G114" t="n">
-        <v>4866.437537927803</v>
+        <v>4953.294693794724</v>
       </c>
       <c r="H114" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>294579</v>
+        <v>295349</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8053491</v>
+        <v>8053523</v>
       </c>
       <c r="F115" t="n">
-        <v>666.180375773794</v>
+        <v>651.7431655869306</v>
       </c>
       <c r="G115" t="n">
-        <v>6705.935465827808</v>
+        <v>6426.14202874377</v>
       </c>
       <c r="H115" t="n">
         <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>704347</v>
+        <v>685489</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3308124</v>
+        <v>3310704</v>
       </c>
       <c r="E116" t="n">
-        <v>4431441</v>
+        <v>4434897</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>146700</v>
+        <v>146992</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34064599</v>
+        <v>33950960</v>
       </c>
       <c r="E117" t="n">
-        <v>169998050</v>
+        <v>169430940</v>
       </c>
       <c r="F117" t="n">
-        <v>74963.42078558658</v>
+        <v>72814.84759892273</v>
       </c>
       <c r="G117" t="n">
-        <v>64580.32478489272</v>
+        <v>73771.22801585635</v>
       </c>
       <c r="H117" t="n">
         <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>9976754</v>
+        <v>9997281</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3446231</v>
+        <v>3445640</v>
       </c>
       <c r="E118" t="n">
-        <v>4950839</v>
+        <v>4949989</v>
       </c>
       <c r="F118" t="n">
-        <v>747.1927825404105</v>
+        <v>747.2113385898825</v>
       </c>
       <c r="G118" t="n">
-        <v>861.3277658817938</v>
+        <v>905.9232534022734</v>
       </c>
       <c r="H118" t="n">
         <v>0.6</v>
       </c>
       <c r="I118" t="n">
-        <v>178758</v>
+        <v>177536</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>311152697</v>
+        <v>311360343</v>
       </c>
       <c r="E119" t="n">
-        <v>575703447</v>
+        <v>576087640</v>
       </c>
       <c r="F119" t="n">
-        <v>125271.1883333857</v>
+        <v>125240.1211890523</v>
       </c>
       <c r="G119" t="n">
-        <v>130985.0471256672</v>
+        <v>126786.4865545612</v>
       </c>
       <c r="H119" t="n">
         <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>12258803</v>
+        <v>12300500</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70930266</v>
+        <v>70975806</v>
       </c>
       <c r="E120" t="n">
-        <v>676752534</v>
+        <v>677185943</v>
       </c>
       <c r="F120" t="n">
-        <v>3573.105199251817</v>
+        <v>2405.730187312657</v>
       </c>
       <c r="G120" t="n">
-        <v>41162.65811751318</v>
+        <v>41458.89753622517</v>
       </c>
       <c r="H120" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>21002755</v>
+        <v>20949404</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37768337</v>
+        <v>37713329</v>
       </c>
       <c r="E121" t="n">
-        <v>49382146</v>
+        <v>49310223</v>
       </c>
       <c r="F121" t="n">
-        <v>167.8531432259461</v>
+        <v>5706.55854091919</v>
       </c>
       <c r="G121" t="n">
-        <v>962.2040749973745</v>
+        <v>526.9577970113073</v>
       </c>
       <c r="H121" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>665425</v>
+        <v>656133</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9607176</v>
+        <v>9572260</v>
       </c>
       <c r="E122" t="n">
-        <v>28512274</v>
+        <v>28408651</v>
       </c>
       <c r="F122" t="n">
-        <v>2042.090282050853</v>
+        <v>2000.517593027588</v>
       </c>
       <c r="G122" t="n">
-        <v>7081.484813280168</v>
+        <v>7288.377053024407</v>
       </c>
       <c r="H122" t="n">
         <v>0.61</v>
       </c>
       <c r="I122" t="n">
-        <v>5519167</v>
+        <v>5539564</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2236478</v>
+        <v>2234315</v>
       </c>
       <c r="E123" t="n">
-        <v>7652891</v>
+        <v>7645491</v>
       </c>
       <c r="F123" t="n">
-        <v>583.3826770397374</v>
+        <v>475.7662943101085</v>
       </c>
       <c r="G123" t="n">
-        <v>1098.784335666806</v>
+        <v>1093.734199840237</v>
       </c>
       <c r="H123" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="I123" t="n">
-        <v>777163</v>
+        <v>782490</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7301429</v>
+        <v>7297370</v>
       </c>
       <c r="E124" t="n">
-        <v>7301440</v>
+        <v>7297381</v>
       </c>
       <c r="F124" t="n">
-        <v>5.054125740524093</v>
+        <v>5.054251256467864</v>
       </c>
       <c r="G124" t="n">
-        <v>947.5145770101304</v>
+        <v>861.2081173324584</v>
       </c>
       <c r="H124" t="n">
         <v>1.97</v>
       </c>
       <c r="I124" t="n">
-        <v>345824</v>
+        <v>345958</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6073665</v>
+        <v>6068858</v>
       </c>
       <c r="E125" t="n">
-        <v>6073665</v>
+        <v>6068858</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>467011</v>
+        <v>475624</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6209163</v>
+        <v>6210591</v>
       </c>
       <c r="E126" t="n">
-        <v>22679670</v>
+        <v>22684885</v>
       </c>
       <c r="F126" t="n">
-        <v>5951.546893776848</v>
+        <v>946.5298955684253</v>
       </c>
       <c r="G126" t="n">
-        <v>6912.795577910827</v>
+        <v>6734.565542415825</v>
       </c>
       <c r="H126" t="n">
         <v>0.89</v>
       </c>
       <c r="I126" t="n">
-        <v>519609</v>
+        <v>520576</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44392658</v>
+        <v>44432868</v>
       </c>
       <c r="E127" t="n">
-        <v>44392658</v>
+        <v>44432868</v>
       </c>
       <c r="F127" t="n">
-        <v>52615.09587993367</v>
+        <v>56354.39218837192</v>
       </c>
       <c r="G127" t="n">
-        <v>86173.03721790225</v>
+        <v>91938.35805185049</v>
       </c>
       <c r="H127" t="n">
         <v>0.34</v>
       </c>
       <c r="I127" t="n">
-        <v>8156415</v>
+        <v>8141827</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>147950761</v>
+        <v>147986740</v>
       </c>
       <c r="F128" t="n">
-        <v>5364.302262512365</v>
+        <v>5351.345638662749</v>
       </c>
       <c r="G128" t="n">
-        <v>483.4296908758931</v>
+        <v>463.101106882354</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1353110</v>
+        <v>1371377</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3095134</v>
+        <v>3035273</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72008</v>
+        <v>72225</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20415066</v>
+        <v>20439977</v>
       </c>
       <c r="F130" t="n">
-        <v>495.7414376123143</v>
+        <v>506.0165037031206</v>
       </c>
       <c r="G130" t="n">
-        <v>646.8274604945615</v>
+        <v>632.4155142884825</v>
       </c>
       <c r="H130" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="I130" t="n">
-        <v>2825885</v>
+        <v>2835388</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1237649</v>
+        <v>1237749</v>
       </c>
       <c r="E131" t="n">
-        <v>3743629</v>
+        <v>3744105</v>
       </c>
       <c r="F131" t="n">
-        <v>797.7051451616816</v>
+        <v>797.7249556530081</v>
       </c>
       <c r="G131" t="n">
-        <v>671.1574345555986</v>
+        <v>671.174102316383</v>
       </c>
       <c r="H131" t="n">
         <v>1.32</v>
       </c>
       <c r="I131" t="n">
-        <v>12261.53</v>
+        <v>12080.93</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>591219657</v>
+        <v>589356139</v>
       </c>
       <c r="E132" t="n">
-        <v>2289706502</v>
+        <v>2282489374</v>
       </c>
       <c r="F132" t="n">
-        <v>510417.6246349326</v>
+        <v>330079.7827066041</v>
       </c>
       <c r="G132" t="n">
-        <v>378771.0015051861</v>
+        <v>687659.7894293494</v>
       </c>
       <c r="H132" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>30216110</v>
+        <v>30349540</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3675028</v>
+        <v>3670112</v>
       </c>
       <c r="E133" t="n">
-        <v>6264584</v>
+        <v>6256204</v>
       </c>
       <c r="F133" t="n">
-        <v>4878.699948929313</v>
+        <v>2838.582889803222</v>
       </c>
       <c r="G133" t="n">
-        <v>5171.853105381397</v>
+        <v>3893.841762821705</v>
       </c>
       <c r="H133" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I133" t="n">
-        <v>1146731</v>
+        <v>1163741</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>117454067</v>
+        <v>117529497</v>
       </c>
       <c r="E134" t="n">
-        <v>1021190925</v>
+        <v>1021846742</v>
       </c>
       <c r="F134" t="n">
-        <v>114494.218951713</v>
+        <v>130250.6082182631</v>
       </c>
       <c r="G134" t="n">
-        <v>101659.4265522669</v>
+        <v>89455.02018688869</v>
       </c>
       <c r="H134" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I134" t="n">
-        <v>9230716</v>
+        <v>9256121</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1007070146</v>
+        <v>1006780127</v>
       </c>
       <c r="E135" t="n">
-        <v>1106269316</v>
+        <v>1105950728</v>
       </c>
       <c r="F135" t="n">
-        <v>18489.95917479573</v>
+        <v>15066.20326065196</v>
       </c>
       <c r="G135" t="n">
-        <v>20528.36899656774</v>
+        <v>15448.61994224957</v>
       </c>
       <c r="H135" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I135" t="n">
-        <v>11037183</v>
+        <v>10849299</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1136822</v>
+        <v>1138313</v>
       </c>
       <c r="E136" t="n">
-        <v>4402024</v>
+        <v>4407796</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>342139</v>
+        <v>428243</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>110995810</v>
+        <v>110887124</v>
       </c>
       <c r="E137" t="n">
-        <v>425797792</v>
+        <v>425380856</v>
       </c>
       <c r="F137" t="n">
-        <v>152539.1873988224</v>
+        <v>166021.4664059028</v>
       </c>
       <c r="G137" t="n">
-        <v>187564.0522372592</v>
+        <v>226761.1851455771</v>
       </c>
       <c r="H137" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I137" t="n">
-        <v>19291137</v>
+        <v>19541673</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3165944</v>
+        <v>3159350</v>
       </c>
       <c r="E138" t="n">
-        <v>29997788</v>
+        <v>29935305</v>
       </c>
       <c r="F138" t="n">
-        <v>4797.462308212745</v>
+        <v>4413.093767230487</v>
       </c>
       <c r="G138" t="n">
-        <v>483.495941707629</v>
+        <v>138.9976067626866</v>
       </c>
       <c r="H138" t="n">
         <v>0.03</v>
       </c>
       <c r="I138" t="n">
-        <v>244989</v>
+        <v>149593</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21724316</v>
+        <v>21864702</v>
       </c>
       <c r="E139" t="n">
-        <v>21724316</v>
+        <v>21864702</v>
       </c>
       <c r="F139" t="n">
-        <v>7008.631962752473</v>
+        <v>6922.308537149082</v>
       </c>
       <c r="G139" t="n">
-        <v>2941.483077515474</v>
+        <v>2524.092439678348</v>
       </c>
       <c r="H139" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="I139" t="n">
-        <v>523889</v>
+        <v>525699</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494509683</v>
+        <v>494232843</v>
       </c>
       <c r="E140" t="n">
-        <v>494509683</v>
+        <v>494232843</v>
       </c>
       <c r="F140" t="n">
-        <v>784637.450451963</v>
+        <v>784678.7171120869</v>
       </c>
       <c r="G140" t="n">
-        <v>681524.4229830779</v>
+        <v>681364.0205587847</v>
       </c>
       <c r="H140" t="n">
         <v>0.01</v>
       </c>
       <c r="I140" t="n">
-        <v>32724157</v>
+        <v>32100278</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31454518</v>
+        <v>31571313</v>
       </c>
       <c r="F141" t="n">
-        <v>52783.09040816046</v>
+        <v>39545.99357772346</v>
       </c>
       <c r="G141" t="n">
-        <v>68179.46029639982</v>
+        <v>62041.17390585313</v>
       </c>
       <c r="H141" t="n">
         <v>0.22</v>
       </c>
       <c r="I141" t="n">
-        <v>5743113</v>
+        <v>5604941</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>767399</v>
+        <v>767042</v>
       </c>
       <c r="E142" t="n">
-        <v>12239733</v>
+        <v>12234045</v>
       </c>
       <c r="F142" t="n">
-        <v>2.472255310274929</v>
+        <v>58.09663135758176</v>
       </c>
       <c r="G142" t="n">
-        <v>110.7826739477563</v>
+        <v>40.88701458224008</v>
       </c>
       <c r="H142" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I142" t="n">
-        <v>70692</v>
+        <v>70383</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2661121191</v>
+        <v>2655979037</v>
       </c>
       <c r="E143" t="n">
-        <v>2825418273</v>
+        <v>2819958644</v>
       </c>
       <c r="F143" t="n">
-        <v>2607.46782289676</v>
+        <v>14034.658581474</v>
       </c>
       <c r="G143" t="n">
-        <v>19688.55552366424</v>
+        <v>22422.59831797533</v>
       </c>
       <c r="H143" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I143" t="n">
-        <v>37762306</v>
+        <v>38787335</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1630728</v>
+        <v>1635607</v>
       </c>
       <c r="E144" t="n">
-        <v>1636484</v>
+        <v>1641380</v>
       </c>
       <c r="F144" t="n">
-        <v>470.9631238111472</v>
+        <v>698.6989334847339</v>
       </c>
       <c r="G144" t="n">
-        <v>1036.692504801652</v>
+        <v>398.7196207163138</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="I144" t="n">
-        <v>387721</v>
+        <v>400190</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60813439</v>
+        <v>61234611</v>
       </c>
       <c r="E145" t="n">
-        <v>149171244</v>
+        <v>150204350</v>
       </c>
       <c r="F145" t="n">
-        <v>3266.963704161537</v>
+        <v>3252.012722557727</v>
       </c>
       <c r="G145" t="n">
-        <v>4034.691001105147</v>
+        <v>4350.930694346209</v>
       </c>
       <c r="H145" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="I145" t="n">
-        <v>22554964</v>
+        <v>22617977</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>675163523</v>
+        <v>675194654</v>
       </c>
       <c r="E146" t="n">
-        <v>1041161763</v>
+        <v>1041209770</v>
       </c>
       <c r="F146" t="n">
-        <v>138319.7084195305</v>
+        <v>175204.6514514112</v>
       </c>
       <c r="G146" t="n">
-        <v>158359.3289719469</v>
+        <v>161991.9535998258</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>160448586</v>
+        <v>157365685</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23489461</v>
+        <v>23430201</v>
       </c>
       <c r="E147" t="n">
-        <v>23489461</v>
+        <v>23430201</v>
       </c>
       <c r="F147" t="n">
-        <v>4964.776480089016</v>
+        <v>4278.647330478876</v>
       </c>
       <c r="G147" t="n">
-        <v>6579.440862306104</v>
+        <v>7823.423420892655</v>
       </c>
       <c r="H147" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="I147" t="n">
-        <v>6158222</v>
+        <v>6328662</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3829004</v>
+        <v>3827020</v>
       </c>
       <c r="E148" t="n">
-        <v>8354837</v>
+        <v>8350508</v>
       </c>
       <c r="F148" t="n">
-        <v>5733.954267945098</v>
+        <v>5726.524086832806</v>
       </c>
       <c r="G148" t="n">
-        <v>5844.220595869701</v>
+        <v>5824.224840932437</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>943718</v>
+        <v>931736</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9359088</v>
+        <v>9359255</v>
       </c>
       <c r="E149" t="n">
-        <v>9359088</v>
+        <v>9359255</v>
       </c>
       <c r="F149" t="n">
-        <v>82370.89221095876</v>
+        <v>76077.91734048593</v>
       </c>
       <c r="G149" t="n">
-        <v>90030.15504923965</v>
+        <v>89793.67598024753</v>
       </c>
       <c r="H149" t="n">
         <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>3221794</v>
+        <v>3205692</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>487566492</v>
+        <v>487194354</v>
       </c>
       <c r="E150" t="n">
-        <v>1698039426</v>
+        <v>1696743388</v>
       </c>
       <c r="F150" t="n">
-        <v>751714.9191803191</v>
+        <v>777706.3046985634</v>
       </c>
       <c r="G150" t="n">
-        <v>716319.3670769384</v>
+        <v>896550.4774719148</v>
       </c>
       <c r="H150" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31265598</v>
+        <v>31488141</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48032024</v>
+        <v>48024561</v>
       </c>
       <c r="E151" t="n">
-        <v>118543450</v>
+        <v>118525031</v>
       </c>
       <c r="F151" t="n">
-        <v>5594.868113091497</v>
+        <v>5595.007058022341</v>
       </c>
       <c r="G151" t="n">
-        <v>8136.258800989989</v>
+        <v>8136.460859714802</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>40059</v>
+        <v>38423</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7641035</v>
+        <v>7626919</v>
       </c>
       <c r="E152" t="n">
-        <v>19850588</v>
+        <v>19813915</v>
       </c>
       <c r="F152" t="n">
-        <v>2589.586668106512</v>
+        <v>2137.381355461911</v>
       </c>
       <c r="G152" t="n">
-        <v>2670.06932656592</v>
+        <v>6345.546480144256</v>
       </c>
       <c r="H152" t="n">
-        <v>1.99</v>
+        <v>2.49</v>
       </c>
       <c r="I152" t="n">
-        <v>678612</v>
+        <v>679640</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19246856017</v>
+        <v>19251372703</v>
       </c>
       <c r="F153" t="n">
-        <v>52444.19223168148</v>
+        <v>52445.4946492748</v>
       </c>
       <c r="G153" t="n">
-        <v>50107.01386082773</v>
+        <v>50108.25823610787</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48971541</v>
+        <v>48878033</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2665893</v>
+        <v>2657237</v>
       </c>
       <c r="E154" t="n">
-        <v>10663574</v>
+        <v>10628947</v>
       </c>
       <c r="F154" t="n">
-        <v>23551.97172718855</v>
+        <v>12062.90214096721</v>
       </c>
       <c r="G154" t="n">
-        <v>5516.617179769768</v>
+        <v>4107.611388909878</v>
       </c>
       <c r="H154" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="I154" t="n">
-        <v>5061738</v>
+        <v>5060409</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>212974374</v>
+        <v>213334700</v>
       </c>
       <c r="E155" t="n">
-        <v>654816052</v>
+        <v>655923921</v>
       </c>
       <c r="F155" t="n">
-        <v>143065.3874657059</v>
+        <v>156040.8735513685</v>
       </c>
       <c r="G155" t="n">
-        <v>176121.3439055989</v>
+        <v>146067.7597629127</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>11309060</v>
+        <v>11442523</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>399287816</v>
+        <v>399355980</v>
       </c>
       <c r="E156" t="n">
-        <v>2281644664</v>
+        <v>2282034170</v>
       </c>
       <c r="F156" t="n">
-        <v>142289.6209081464</v>
+        <v>164149.9277572536</v>
       </c>
       <c r="G156" t="n">
-        <v>215034.9094898995</v>
+        <v>248620.3369146823</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>35966551</v>
+        <v>36161771</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3831514</v>
+        <v>3898951</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3439276311512</v>
+        <v>353.448368366335</v>
       </c>
       <c r="G2" t="n">
-        <v>1293.577482221211</v>
+        <v>1650.448744606234</v>
       </c>
       <c r="H2" t="n">
-        <v>2.71</v>
+        <v>1.4</v>
       </c>
       <c r="I2" t="n">
-        <v>98950</v>
+        <v>100619</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600379561</v>
+        <v>610500013</v>
       </c>
       <c r="E3" t="n">
-        <v>1164927629</v>
+        <v>1184570894</v>
       </c>
       <c r="F3" t="n">
-        <v>65660.45256136927</v>
+        <v>68922.37777626159</v>
       </c>
       <c r="G3" t="n">
-        <v>80609.45368975772</v>
+        <v>101463.9898388093</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>22605758</v>
+        <v>23474913</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244781083</v>
+        <v>245600832</v>
       </c>
       <c r="E4" t="n">
-        <v>1534987767</v>
+        <v>1540128298</v>
       </c>
       <c r="F4" t="n">
-        <v>335265.5227483796</v>
+        <v>287510.8379983339</v>
       </c>
       <c r="G4" t="n">
-        <v>296127.544584192</v>
+        <v>313332.6758866608</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15541787</v>
+        <v>15633224</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138596364</v>
+        <v>139658791</v>
       </c>
       <c r="E5" t="n">
-        <v>153586908</v>
+        <v>154764248</v>
       </c>
       <c r="F5" t="n">
-        <v>8757.946793030322</v>
+        <v>8767.698682518714</v>
       </c>
       <c r="G5" t="n">
-        <v>6135.573948526324</v>
+        <v>303.5665179807599</v>
       </c>
       <c r="H5" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>33275173</v>
+        <v>33638333</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49736156</v>
+        <v>49922636</v>
       </c>
       <c r="E6" t="n">
-        <v>62218655</v>
+        <v>62451938</v>
       </c>
       <c r="F6" t="n">
-        <v>6529.655215049022</v>
+        <v>7055.089653322509</v>
       </c>
       <c r="G6" t="n">
-        <v>4769.979923890192</v>
+        <v>5464.621298234466</v>
       </c>
       <c r="H6" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>513626</v>
+        <v>502952</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68592221</v>
+        <v>68729854</v>
       </c>
       <c r="E7" t="n">
-        <v>136635508</v>
+        <v>136909674</v>
       </c>
       <c r="F7" t="n">
-        <v>9917.505272417529</v>
+        <v>10013.21458579792</v>
       </c>
       <c r="G7" t="n">
-        <v>12792.60099618388</v>
+        <v>12630.87948029455</v>
       </c>
       <c r="H7" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="I7" t="n">
-        <v>1485887</v>
+        <v>1415745</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40037979</v>
+        <v>40264315</v>
       </c>
       <c r="E8" t="n">
-        <v>44808265</v>
+        <v>45061568</v>
       </c>
       <c r="F8" t="n">
-        <v>6488.811794744772</v>
+        <v>6729.747648683547</v>
       </c>
       <c r="G8" t="n">
-        <v>6656.842183523224</v>
+        <v>6633.793601616791</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="I8" t="n">
-        <v>232603</v>
+        <v>3417181</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14398184</v>
+        <v>14306545</v>
       </c>
       <c r="E9" t="n">
-        <v>42430517</v>
+        <v>42160465</v>
       </c>
       <c r="F9" t="n">
-        <v>5115.723940750152</v>
+        <v>4892.637704490796</v>
       </c>
       <c r="G9" t="n">
-        <v>4673.006777506816</v>
+        <v>4767.345986793956</v>
       </c>
       <c r="H9" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="I9" t="n">
-        <v>804324</v>
+        <v>786553</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7552641</v>
+        <v>7494094</v>
       </c>
       <c r="E10" t="n">
-        <v>32472336</v>
+        <v>32220615</v>
       </c>
       <c r="F10" t="n">
-        <v>3880.31029409805</v>
+        <v>5416.196962684778</v>
       </c>
       <c r="G10" t="n">
-        <v>2738.30734368657</v>
+        <v>54712.03134281009</v>
       </c>
       <c r="H10" t="n">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="I10" t="n">
-        <v>440764</v>
+        <v>747596</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>545761931</v>
+        <v>551801690</v>
       </c>
       <c r="E11" t="n">
-        <v>682667060</v>
+        <v>690221902</v>
       </c>
       <c r="F11" t="n">
-        <v>335373.0697694155</v>
+        <v>279363.3614732992</v>
       </c>
       <c r="G11" t="n">
-        <v>293370.3961144867</v>
+        <v>265856.7644991439</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>53369350</v>
+        <v>54326648</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4722096</v>
+        <v>4723882</v>
       </c>
       <c r="E12" t="n">
-        <v>29004833</v>
+        <v>29015801</v>
       </c>
       <c r="F12" t="n">
-        <v>11769.44560074381</v>
+        <v>10620.54713567913</v>
       </c>
       <c r="G12" t="n">
-        <v>8320.182982266617</v>
+        <v>8305.993636662482</v>
       </c>
       <c r="H12" t="n">
         <v>1.03</v>
       </c>
       <c r="I12" t="n">
-        <v>467123</v>
+        <v>475587</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22339499</v>
+        <v>22334621</v>
       </c>
       <c r="E13" t="n">
-        <v>22381326</v>
+        <v>22376439</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>875810</v>
+        <v>878107</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82101774</v>
+        <v>82224145</v>
       </c>
       <c r="E14" t="n">
-        <v>241647862</v>
+        <v>241913632</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>376028</v>
+        <v>407206</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>469715724</v>
+        <v>480264452</v>
       </c>
       <c r="E15" t="n">
-        <v>469715722</v>
+        <v>480264452</v>
       </c>
       <c r="F15" t="n">
-        <v>9075.633318525181</v>
+        <v>10654.86843848312</v>
       </c>
       <c r="G15" t="n">
-        <v>56302.32955897244</v>
+        <v>54954.05896506427</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>60306983</v>
+        <v>62699659</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4628448</v>
+        <v>4666772</v>
       </c>
       <c r="E16" t="n">
-        <v>4628448</v>
+        <v>4666772</v>
       </c>
       <c r="F16" t="n">
-        <v>426.1915958108536</v>
+        <v>6265.521655255046</v>
       </c>
       <c r="G16" t="n">
-        <v>3534.409597973676</v>
+        <v>5762.218419753791</v>
       </c>
       <c r="H16" t="n">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="I16" t="n">
-        <v>1909217</v>
+        <v>1955908</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3308810</v>
+        <v>3352119</v>
       </c>
       <c r="E17" t="n">
-        <v>3308810</v>
+        <v>3352119</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>507973</v>
+        <v>533086</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>165976131</v>
+        <v>166207878</v>
       </c>
       <c r="E18" t="n">
-        <v>205485362</v>
+        <v>205772274</v>
       </c>
       <c r="F18" t="n">
-        <v>8580.182220270333</v>
+        <v>5814.105575363944</v>
       </c>
       <c r="G18" t="n">
-        <v>8445.689622690723</v>
+        <v>11430.13627053241</v>
       </c>
       <c r="H18" t="n">
-        <v>1.47</v>
+        <v>0.74</v>
       </c>
       <c r="I18" t="n">
-        <v>393487</v>
+        <v>380426</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6757675</v>
+        <v>6693857</v>
       </c>
       <c r="E19" t="n">
-        <v>9307045</v>
+        <v>9219151</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>901770</v>
+        <v>840567</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>912080</v>
+        <v>907606</v>
       </c>
       <c r="E20" t="n">
-        <v>6384563</v>
+        <v>6353242</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>323460</v>
+        <v>228996</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>108007822</v>
+        <v>109526186</v>
       </c>
       <c r="E21" t="n">
-        <v>420524045</v>
+        <v>426411072</v>
       </c>
       <c r="F21" t="n">
-        <v>29648.7317198458</v>
+        <v>42784.76391762023</v>
       </c>
       <c r="G21" t="n">
-        <v>66675.53902125104</v>
+        <v>69324.77963462893</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>6417036</v>
+        <v>6612992</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1679495</v>
+        <v>1680686</v>
       </c>
       <c r="E22" t="n">
-        <v>12097262</v>
+        <v>12105842</v>
       </c>
       <c r="F22" t="n">
-        <v>5944.306692702475</v>
+        <v>5961.893487997108</v>
       </c>
       <c r="G22" t="n">
-        <v>4258.99069371417</v>
+        <v>4388.25951245836</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>146839</v>
+        <v>147075</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>134145710</v>
+        <v>135111919</v>
       </c>
       <c r="E23" t="n">
-        <v>134145710</v>
+        <v>135111919</v>
       </c>
       <c r="F23" t="n">
-        <v>991950.2397410909</v>
+        <v>1023968.028109571</v>
       </c>
       <c r="G23" t="n">
-        <v>1306133.591858147</v>
+        <v>952239.1302467154</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>63091834</v>
+        <v>66185312</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63899139</v>
+        <v>64617877</v>
       </c>
       <c r="E24" t="n">
-        <v>327687894</v>
+        <v>331373729</v>
       </c>
       <c r="F24" t="n">
-        <v>77973.68036365225</v>
+        <v>89822.3525443028</v>
       </c>
       <c r="G24" t="n">
-        <v>120276.6769820671</v>
+        <v>102974.0842409898</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>18004617</v>
+        <v>18609121</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>250253934</v>
+        <v>252359176</v>
       </c>
       <c r="E25" t="n">
-        <v>250253934</v>
+        <v>252359176</v>
       </c>
       <c r="F25" t="n">
-        <v>340860.3648265731</v>
+        <v>316805.1356198759</v>
       </c>
       <c r="G25" t="n">
-        <v>461716.0315969588</v>
+        <v>484713.6380646147</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>14733711</v>
+        <v>14924662</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1127079</v>
+        <v>1121300</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>192390</v>
+        <v>189779</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3962616</v>
+        <v>3989324</v>
       </c>
       <c r="E28" t="n">
-        <v>3963505</v>
+        <v>3990177</v>
       </c>
       <c r="F28" t="n">
-        <v>834.068695517159</v>
+        <v>948.1508121470491</v>
       </c>
       <c r="G28" t="n">
-        <v>2730.278106101525</v>
+        <v>3968.267845669111</v>
       </c>
       <c r="H28" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="I28" t="n">
-        <v>274080</v>
+        <v>273854</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6622128</v>
+        <v>6626343</v>
       </c>
       <c r="E29" t="n">
-        <v>16084640</v>
+        <v>16094876</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>454781</v>
+        <v>450733</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99453512</v>
+        <v>100034820</v>
       </c>
       <c r="E30" t="n">
-        <v>124006871</v>
+        <v>124731694</v>
       </c>
       <c r="F30" t="n">
-        <v>108771.6703017502</v>
+        <v>117023.4372549639</v>
       </c>
       <c r="G30" t="n">
-        <v>96409.37779514746</v>
+        <v>113757.9901197007</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11491706</v>
+        <v>11537894</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1115507</v>
+        <v>1115033</v>
       </c>
       <c r="E31" t="n">
-        <v>12122917</v>
+        <v>12117762</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29357</v>
+        <v>29345</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>71835024</v>
+        <v>72247150</v>
       </c>
       <c r="E32" t="n">
-        <v>201094956</v>
+        <v>202244370</v>
       </c>
       <c r="F32" t="n">
-        <v>49326.47333315887</v>
+        <v>58394.59968090549</v>
       </c>
       <c r="G32" t="n">
-        <v>72748.96851553777</v>
+        <v>70777.8765292391</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>32620788</v>
+        <v>32871256</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4207539</v>
+        <v>4221780</v>
       </c>
       <c r="E33" t="n">
-        <v>8297620</v>
+        <v>8325705</v>
       </c>
       <c r="F33" t="n">
-        <v>5758.970311036722</v>
+        <v>7953.403194373942</v>
       </c>
       <c r="G33" t="n">
-        <v>7150.879192663265</v>
+        <v>7411.991269794639</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1</v>
+        <v>0.47</v>
       </c>
       <c r="I33" t="n">
-        <v>1634033</v>
+        <v>1641734</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37449903</v>
+        <v>37373981</v>
       </c>
       <c r="F34" t="n">
-        <v>842.5708802219746</v>
+        <v>893.3632424955962</v>
       </c>
       <c r="G34" t="n">
-        <v>835.1660448249683</v>
+        <v>614.974313878116</v>
       </c>
       <c r="H34" t="n">
-        <v>0.29</v>
+        <v>0.61</v>
       </c>
       <c r="I34" t="n">
-        <v>65015</v>
+        <v>64983</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7541087</v>
+        <v>7552123</v>
       </c>
       <c r="E35" t="n">
-        <v>17760760</v>
+        <v>17786751</v>
       </c>
       <c r="F35" t="n">
-        <v>3494.222281871668</v>
+        <v>3494.446360352753</v>
       </c>
       <c r="G35" t="n">
-        <v>2563.203509539499</v>
+        <v>2563.367883383747</v>
       </c>
       <c r="H35" t="n">
         <v>1.28</v>
       </c>
       <c r="I35" t="n">
-        <v>29666</v>
+        <v>31579</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23279316</v>
+        <v>23352382</v>
       </c>
       <c r="F36" t="n">
-        <v>5350.600063720993</v>
+        <v>5391.021781879269</v>
       </c>
       <c r="G36" t="n">
-        <v>5165.140054085002</v>
+        <v>5515.30466013566</v>
       </c>
       <c r="H36" t="n">
-        <v>1.46</v>
+        <v>0.68</v>
       </c>
       <c r="I36" t="n">
-        <v>118464</v>
+        <v>115913</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>71928173</v>
+        <v>72400003</v>
       </c>
       <c r="E37" t="n">
-        <v>150006767</v>
+        <v>150990773</v>
       </c>
       <c r="F37" t="n">
-        <v>72979.94293425536</v>
+        <v>58672.96538432812</v>
       </c>
       <c r="G37" t="n">
-        <v>109985.9602865845</v>
+        <v>120347.1227561776</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>13724214</v>
+        <v>13992764</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>275047643</v>
+        <v>277052150</v>
       </c>
       <c r="E38" t="n">
-        <v>275047643</v>
+        <v>277052150</v>
       </c>
       <c r="F38" t="n">
-        <v>33821.6311074484</v>
+        <v>35424.96520956594</v>
       </c>
       <c r="G38" t="n">
-        <v>32543.34053020268</v>
+        <v>25955.03559053851</v>
       </c>
       <c r="H38" t="n">
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>10581044</v>
+        <v>10150136</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>196382747</v>
+        <v>197704503</v>
       </c>
       <c r="E39" t="n">
-        <v>682251412</v>
+        <v>686843311</v>
       </c>
       <c r="F39" t="n">
-        <v>159809.9417621713</v>
+        <v>114503.9278548421</v>
       </c>
       <c r="G39" t="n">
-        <v>361826.8152516292</v>
+        <v>366492.1541314726</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>25797923</v>
+        <v>26080311</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4084284</v>
+        <v>4030439</v>
       </c>
       <c r="E40" t="n">
-        <v>4084284</v>
+        <v>4030439</v>
       </c>
       <c r="F40" t="n">
-        <v>1563.094111950068</v>
+        <v>1457.845447528156</v>
       </c>
       <c r="G40" t="n">
-        <v>691.2891228769452</v>
+        <v>7514.841066422472</v>
       </c>
       <c r="H40" t="n">
-        <v>0.68</v>
+        <v>0.35</v>
       </c>
       <c r="I40" t="n">
-        <v>3809590</v>
+        <v>3698747</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>111912876</v>
+        <v>114244756</v>
       </c>
       <c r="E41" t="n">
-        <v>476133227</v>
+        <v>486003417</v>
       </c>
       <c r="F41" t="n">
-        <v>3511.533396708367</v>
+        <v>5628.466212328078</v>
       </c>
       <c r="G41" t="n">
-        <v>6280.868873799671</v>
+        <v>6116.460803763114</v>
       </c>
       <c r="H41" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I41" t="n">
-        <v>12201414</v>
+        <v>13214894</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>536552</v>
+        <v>537105</v>
       </c>
       <c r="E42" t="n">
-        <v>6507853</v>
+        <v>6514559</v>
       </c>
       <c r="F42" t="n">
-        <v>493.6486612481313</v>
+        <v>394.3406355479254</v>
       </c>
       <c r="G42" t="n">
-        <v>810.3334879053135</v>
+        <v>964.9068676072345</v>
       </c>
       <c r="H42" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="I42" t="n">
-        <v>2760242</v>
+        <v>2775042</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1265535435</v>
+        <v>1277605382</v>
       </c>
       <c r="E43" t="n">
-        <v>6068501585</v>
+        <v>6126379455</v>
       </c>
       <c r="F43" t="n">
-        <v>45326.93838272351</v>
+        <v>44659.30982230746</v>
       </c>
       <c r="G43" t="n">
-        <v>57768.9136479177</v>
+        <v>62728.49235377933</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I43" t="n">
-        <v>181808860</v>
+        <v>178143256</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6048776886</v>
+        <v>6048126061</v>
       </c>
       <c r="E44" t="n">
-        <v>6048776886</v>
+        <v>6048126061</v>
       </c>
       <c r="F44" t="n">
-        <v>721723.8385707135</v>
+        <v>682159.8153449319</v>
       </c>
       <c r="G44" t="n">
-        <v>1757339.258891261</v>
+        <v>1779594.036068934</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>98972642</v>
+        <v>99593565</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>266306546</v>
+        <v>265249734</v>
       </c>
       <c r="E45" t="n">
-        <v>1149526891</v>
+        <v>1144965104</v>
       </c>
       <c r="F45" t="n">
-        <v>105930.263257654</v>
+        <v>98889.26139683294</v>
       </c>
       <c r="G45" t="n">
-        <v>109651.3021933964</v>
+        <v>104481.8807174257</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I45" t="n">
-        <v>110642604</v>
+        <v>111566985</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113474934</v>
+        <v>113895501</v>
       </c>
       <c r="E46" t="n">
-        <v>113474934</v>
+        <v>113895501</v>
       </c>
       <c r="F46" t="n">
-        <v>45077.52103472363</v>
+        <v>33049.47776558183</v>
       </c>
       <c r="G46" t="n">
-        <v>28160.76539732956</v>
+        <v>41535.43324301767</v>
       </c>
       <c r="H46" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="I46" t="n">
-        <v>5967591</v>
+        <v>6015505</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2038170047</v>
+        <v>2041088721</v>
       </c>
       <c r="E47" t="n">
-        <v>2038170047</v>
+        <v>2041088721</v>
       </c>
       <c r="F47" t="n">
-        <v>70908.32763056134</v>
+        <v>175146.3869743628</v>
       </c>
       <c r="G47" t="n">
-        <v>51570.91895365072</v>
+        <v>148430.2144413153</v>
       </c>
       <c r="H47" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>5624225242</v>
+        <v>5797021948</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9847331</v>
+        <v>9836935</v>
       </c>
       <c r="F48" t="n">
-        <v>7274.556892167823</v>
+        <v>7257.466327487589</v>
       </c>
       <c r="G48" t="n">
-        <v>5706.412007816626</v>
+        <v>5489.135115815453</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>174337</v>
+        <v>171083</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4341543</v>
+        <v>4385071</v>
       </c>
       <c r="E49" t="n">
-        <v>5699879</v>
+        <v>5757026</v>
       </c>
       <c r="F49" t="n">
-        <v>13180.23318275461</v>
+        <v>14860.78498268259</v>
       </c>
       <c r="G49" t="n">
-        <v>16261.08281294623</v>
+        <v>16588.97907836899</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>628919</v>
+        <v>614106</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11702680</v>
+        <v>11605980</v>
       </c>
       <c r="E50" t="n">
-        <v>17208571</v>
+        <v>17066374</v>
       </c>
       <c r="F50" t="n">
-        <v>6364.516726132042</v>
+        <v>6650.140114486583</v>
       </c>
       <c r="G50" t="n">
-        <v>28947.18460526694</v>
+        <v>21684.47000461601</v>
       </c>
       <c r="H50" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I50" t="n">
-        <v>1032148</v>
+        <v>1232103</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22692978</v>
+        <v>22374964</v>
       </c>
       <c r="E51" t="n">
-        <v>29437984</v>
+        <v>29025447</v>
       </c>
       <c r="F51" t="n">
-        <v>13596.75492714086</v>
+        <v>14636.73982896053</v>
       </c>
       <c r="G51" t="n">
-        <v>15954.0184631091</v>
+        <v>10379.1085307558</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>274492</v>
+        <v>162900</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13615920</v>
+        <v>14105313</v>
       </c>
       <c r="E52" t="n">
-        <v>13615920</v>
+        <v>14105313</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4383271</v>
+        <v>4508227</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98433188</v>
+        <v>98637419</v>
       </c>
       <c r="E53" t="n">
-        <v>121758331</v>
+        <v>122010957</v>
       </c>
       <c r="F53" t="n">
-        <v>254.2440105906614</v>
+        <v>523.2344461600686</v>
       </c>
       <c r="G53" t="n">
-        <v>4374.671755087524</v>
+        <v>4884.447380134287</v>
       </c>
       <c r="H53" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>778269</v>
+        <v>788747</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5165157</v>
+        <v>5132188</v>
       </c>
       <c r="E54" t="n">
-        <v>7226803</v>
+        <v>7180675</v>
       </c>
       <c r="F54" t="n">
-        <v>102.4230271151604</v>
+        <v>133.1991364811982</v>
       </c>
       <c r="G54" t="n">
-        <v>520.9758300920046</v>
+        <v>481.0513342419817</v>
       </c>
       <c r="H54" t="n">
-        <v>1.59</v>
+        <v>2.66</v>
       </c>
       <c r="I54" t="n">
-        <v>103010</v>
+        <v>110051</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13769729</v>
+        <v>13923901</v>
       </c>
       <c r="E55" t="n">
-        <v>66688994</v>
+        <v>67435677</v>
       </c>
       <c r="F55" t="n">
-        <v>22895.54079546361</v>
+        <v>25040.08310371645</v>
       </c>
       <c r="G55" t="n">
-        <v>26266.79705306219</v>
+        <v>30320.59467314889</v>
       </c>
       <c r="H55" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="I55" t="n">
-        <v>3619065</v>
+        <v>3611753</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56112</v>
+        <v>61406</v>
       </c>
       <c r="E56" t="n">
-        <v>134400</v>
+        <v>147081</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4650.61</v>
+        <v>4659.52</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1879188207</v>
+        <v>1883239490</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26190926</v>
+        <v>25883314</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12246598</v>
+        <v>12163026</v>
       </c>
       <c r="E58" t="n">
-        <v>17755800</v>
+        <v>17634632</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2273376</v>
+        <v>2168356</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124759132</v>
+        <v>123911754</v>
       </c>
       <c r="E59" t="n">
-        <v>331788171</v>
+        <v>329534627</v>
       </c>
       <c r="F59" t="n">
-        <v>1100.240333027648</v>
+        <v>6086.155258469613</v>
       </c>
       <c r="G59" t="n">
-        <v>8735.535272105804</v>
+        <v>9776.961907841604</v>
       </c>
       <c r="H59" t="n">
-        <v>1.84</v>
+        <v>1.15</v>
       </c>
       <c r="I59" t="n">
-        <v>1339027</v>
+        <v>1366798</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32449265</v>
+        <v>32003671</v>
       </c>
       <c r="E60" t="n">
-        <v>101036600</v>
+        <v>99649163</v>
       </c>
       <c r="F60" t="n">
-        <v>5324.15962834817</v>
+        <v>5832.547054929903</v>
       </c>
       <c r="G60" t="n">
-        <v>6689.810454311578</v>
+        <v>6483.048589675373</v>
       </c>
       <c r="H60" t="n">
-        <v>0.67</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>11891742</v>
+        <v>12015102</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2080627</v>
+        <v>2068869</v>
       </c>
       <c r="E61" t="n">
-        <v>14919969</v>
+        <v>14835654</v>
       </c>
       <c r="F61" t="n">
-        <v>5448.52877711684</v>
+        <v>2872.56798620635</v>
       </c>
       <c r="G61" t="n">
-        <v>5094.32667785203</v>
+        <v>5017.280415433665</v>
       </c>
       <c r="H61" t="n">
         <v>2.2</v>
       </c>
       <c r="I61" t="n">
-        <v>1938767</v>
+        <v>1933205</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>199710551</v>
+        <v>201716417</v>
       </c>
       <c r="E62" t="n">
-        <v>1130883848</v>
+        <v>1142242295</v>
       </c>
       <c r="F62" t="n">
-        <v>763029.9720358698</v>
+        <v>666126.5402265016</v>
       </c>
       <c r="G62" t="n">
-        <v>848271.2025452302</v>
+        <v>882260.2497876177</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>61622140</v>
+        <v>63045443</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>498393</v>
+        <v>504625</v>
       </c>
       <c r="E63" t="n">
-        <v>1677522</v>
+        <v>1698498</v>
       </c>
       <c r="F63" t="n">
-        <v>4599.345330179604</v>
+        <v>4673.672969342684</v>
       </c>
       <c r="G63" t="n">
-        <v>556.2003862029975</v>
+        <v>359.3476405033581</v>
       </c>
       <c r="H63" t="n">
         <v>0.53</v>
       </c>
       <c r="I63" t="n">
-        <v>631830</v>
+        <v>630133</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>340495</v>
+        <v>341601</v>
       </c>
       <c r="E64" t="n">
-        <v>340495</v>
+        <v>341601</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6413.35</v>
+        <v>6464.08</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>137580964</v>
+        <v>138871838</v>
       </c>
       <c r="E65" t="n">
-        <v>1019118254</v>
+        <v>1028680282</v>
       </c>
       <c r="F65" t="n">
-        <v>38371.56508261819</v>
+        <v>37703.49849264265</v>
       </c>
       <c r="G65" t="n">
-        <v>40865.93745056592</v>
+        <v>37544.70570431188</v>
       </c>
       <c r="H65" t="n">
         <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>11894055</v>
+        <v>11161935</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8102945</v>
+        <v>8153848</v>
       </c>
       <c r="E66" t="n">
-        <v>10855688</v>
+        <v>10923437</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>58301</v>
+        <v>59261</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25406592</v>
+        <v>25244003</v>
       </c>
       <c r="E67" t="n">
-        <v>25406592</v>
+        <v>25244003</v>
       </c>
       <c r="F67" t="n">
-        <v>6057.869655008269</v>
+        <v>7660.179680408863</v>
       </c>
       <c r="G67" t="n">
-        <v>6747.695777909667</v>
+        <v>6742.660309225308</v>
       </c>
       <c r="H67" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="I67" t="n">
-        <v>335571</v>
+        <v>325750</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1558052</v>
+        <v>1546762</v>
       </c>
       <c r="E68" t="n">
-        <v>12101003</v>
+        <v>12013316</v>
       </c>
       <c r="F68" t="n">
-        <v>448.7140389873976</v>
+        <v>680.043162401197</v>
       </c>
       <c r="G68" t="n">
-        <v>26830.85096945275</v>
+        <v>26841.83122709806</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="I68" t="n">
-        <v>508068</v>
+        <v>515517</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>335253240</v>
+        <v>336846659</v>
       </c>
       <c r="E69" t="n">
-        <v>3016146034</v>
+        <v>3030481416</v>
       </c>
       <c r="F69" t="n">
-        <v>1277063.899282596</v>
+        <v>1457942.695658626</v>
       </c>
       <c r="G69" t="n">
-        <v>1248377.244251151</v>
+        <v>1604841.759988261</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>35939907</v>
+        <v>36997921</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>260429</v>
+        <v>259640</v>
       </c>
       <c r="E70" t="n">
-        <v>2298484</v>
+        <v>2291520</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>72059</v>
+        <v>72643</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1589214</v>
+        <v>1588820</v>
       </c>
       <c r="E71" t="n">
-        <v>13243453</v>
+        <v>13240170</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>46989</v>
+        <v>44342</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8919784</v>
+        <v>9019786</v>
       </c>
       <c r="E72" t="n">
-        <v>41343711</v>
+        <v>41807225</v>
       </c>
       <c r="F72" t="n">
-        <v>5338.010471133235</v>
+        <v>6105.482614561976</v>
       </c>
       <c r="G72" t="n">
-        <v>10124.84718105837</v>
+        <v>10032.81119322044</v>
       </c>
       <c r="H72" t="n">
-        <v>1.51</v>
+        <v>0.86</v>
       </c>
       <c r="I72" t="n">
-        <v>99812</v>
+        <v>105156</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42713736</v>
+        <v>42739895</v>
       </c>
       <c r="E73" t="n">
-        <v>247294879</v>
+        <v>247446334</v>
       </c>
       <c r="F73" t="n">
-        <v>99051.1681126495</v>
+        <v>128423.5230679545</v>
       </c>
       <c r="G73" t="n">
-        <v>174736.6647465432</v>
+        <v>176826.6240818312</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>10784642</v>
+        <v>11130925</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38789766</v>
+        <v>39281917</v>
       </c>
       <c r="E74" t="n">
-        <v>53574191</v>
+        <v>54253921</v>
       </c>
       <c r="F74" t="n">
-        <v>655.7061624709647</v>
+        <v>788.8300124850676</v>
       </c>
       <c r="G74" t="n">
-        <v>535.6577330523835</v>
+        <v>525.6587077780208</v>
       </c>
       <c r="H74" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="I74" t="n">
-        <v>361268</v>
+        <v>371171</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>94091</v>
+        <v>94102</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>911.8200000000001</v>
+        <v>908.52</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13518300</v>
+        <v>13643912</v>
       </c>
       <c r="E76" t="n">
-        <v>13564304</v>
+        <v>13690344</v>
       </c>
       <c r="F76" t="n">
-        <v>1505.319315327223</v>
+        <v>1272.139631491855</v>
       </c>
       <c r="G76" t="n">
-        <v>7547.24079855874</v>
+        <v>6857.171637420725</v>
       </c>
       <c r="H76" t="n">
-        <v>1.31</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>5762696</v>
+        <v>5841919</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42850872</v>
+        <v>42858150</v>
       </c>
       <c r="E77" t="n">
-        <v>72750812</v>
+        <v>72763167</v>
       </c>
       <c r="F77" t="n">
-        <v>9215.975388392637</v>
+        <v>6307.054359824184</v>
       </c>
       <c r="G77" t="n">
-        <v>6124.395514297807</v>
+        <v>5119.117002024173</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>1101687</v>
+        <v>1097433</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>25092853</v>
+        <v>24380338</v>
       </c>
       <c r="E78" t="n">
-        <v>75216550</v>
+        <v>73079396</v>
       </c>
       <c r="F78" t="n">
-        <v>168312.5576292994</v>
+        <v>139397.475893808</v>
       </c>
       <c r="G78" t="n">
-        <v>126020.9584081221</v>
+        <v>135805.9446882827</v>
       </c>
       <c r="H78" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="I78" t="n">
-        <v>2522472</v>
+        <v>2681460</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101071841</v>
+        <v>101136135</v>
       </c>
       <c r="E79" t="n">
-        <v>107448501</v>
+        <v>107516852</v>
       </c>
       <c r="F79" t="n">
-        <v>1566.617608149423</v>
+        <v>1860.990573139627</v>
       </c>
       <c r="G79" t="n">
-        <v>4887.846719832796</v>
+        <v>3796.949497293406</v>
       </c>
       <c r="H79" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="I79" t="n">
-        <v>978352</v>
+        <v>900901</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10655623</v>
+        <v>10626147</v>
       </c>
       <c r="E80" t="n">
-        <v>46363605</v>
+        <v>46196842</v>
       </c>
       <c r="F80" t="n">
-        <v>6432.871355649865</v>
+        <v>5828.773765174341</v>
       </c>
       <c r="G80" t="n">
-        <v>5067.705099105227</v>
+        <v>5249.654883884847</v>
       </c>
       <c r="H80" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>110614</v>
+        <v>106983</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15139423</v>
+        <v>15051193</v>
       </c>
       <c r="E81" t="n">
-        <v>92794504</v>
+        <v>92253714</v>
       </c>
       <c r="F81" t="n">
-        <v>4071.180116537531</v>
+        <v>4026.732658864818</v>
       </c>
       <c r="G81" t="n">
-        <v>6112.066693122727</v>
+        <v>16088.83561336419</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I81" t="n">
-        <v>11703582</v>
+        <v>11852928</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1492010</v>
+        <v>1497420</v>
       </c>
       <c r="E82" t="n">
-        <v>1533979</v>
+        <v>1539541</v>
       </c>
       <c r="F82" t="n">
-        <v>6214.095548678217</v>
+        <v>6540.047923857692</v>
       </c>
       <c r="G82" t="n">
-        <v>5823.05297038409</v>
+        <v>5830.616566073118</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>131516</v>
+        <v>126920</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>46496889</v>
+        <v>46781247</v>
       </c>
       <c r="E83" t="n">
-        <v>200303514</v>
+        <v>201528498</v>
       </c>
       <c r="F83" t="n">
-        <v>2939.463469546722</v>
+        <v>2902.371889264343</v>
       </c>
       <c r="G83" t="n">
-        <v>4504.865771085172</v>
+        <v>4656.677981630105</v>
       </c>
       <c r="H83" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I83" t="n">
-        <v>8690670</v>
+        <v>8626321</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1664316</v>
+        <v>1670289</v>
       </c>
       <c r="E84" t="n">
-        <v>6047879</v>
+        <v>6069451</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>134477</v>
+        <v>128947</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8884275</v>
+        <v>8659076</v>
       </c>
       <c r="E85" t="n">
-        <v>19727866</v>
+        <v>19227802</v>
       </c>
       <c r="F85" t="n">
-        <v>3403.348503434854</v>
+        <v>5961.712493965417</v>
       </c>
       <c r="G85" t="n">
-        <v>6929.237422139768</v>
+        <v>5487.247364829045</v>
       </c>
       <c r="H85" t="n">
-        <v>1.22</v>
+        <v>2.07</v>
       </c>
       <c r="I85" t="n">
-        <v>400011</v>
+        <v>401896</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2451276</v>
+        <v>2449696</v>
       </c>
       <c r="E86" t="n">
-        <v>18445683</v>
+        <v>18433797</v>
       </c>
       <c r="F86" t="n">
-        <v>6415.230418473914</v>
+        <v>6318.473313402426</v>
       </c>
       <c r="G86" t="n">
-        <v>12901.82760618751</v>
+        <v>12678.46864758363</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>162567</v>
+        <v>162300</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20303653</v>
+        <v>21107780</v>
       </c>
       <c r="E87" t="n">
-        <v>81214612</v>
+        <v>84431119</v>
       </c>
       <c r="F87" t="n">
-        <v>29802.92654770954</v>
+        <v>15870.32931629199</v>
       </c>
       <c r="G87" t="n">
-        <v>2138.17707597161</v>
+        <v>1261.10992981607</v>
       </c>
       <c r="H87" t="n">
-        <v>0.25</v>
+        <v>1.66</v>
       </c>
       <c r="I87" t="n">
-        <v>5969491</v>
+        <v>6088675</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4266365</v>
+        <v>4256066</v>
       </c>
       <c r="E88" t="n">
-        <v>4266365</v>
+        <v>4256066</v>
       </c>
       <c r="F88" t="n">
-        <v>1741.294592994622</v>
+        <v>212.4651195079515</v>
       </c>
       <c r="G88" t="n">
-        <v>2001.080352957175</v>
+        <v>908.7692144421972</v>
       </c>
       <c r="H88" t="n">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="I88" t="n">
-        <v>2501976</v>
+        <v>2507776</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12708468</v>
+        <v>12770450</v>
       </c>
       <c r="E89" t="n">
-        <v>40205829</v>
+        <v>40401557</v>
       </c>
       <c r="F89" t="n">
-        <v>14787.50036577307</v>
+        <v>24460.59605122694</v>
       </c>
       <c r="G89" t="n">
-        <v>5376.216013004471</v>
+        <v>13116.99277676539</v>
       </c>
       <c r="H89" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="I89" t="n">
-        <v>1485313</v>
+        <v>1398645</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26541</v>
+        <v>26607</v>
       </c>
       <c r="E90" t="n">
-        <v>208736</v>
+        <v>209255</v>
       </c>
       <c r="F90" t="n">
-        <v>5567.803247869717</v>
+        <v>5944.045427482408</v>
       </c>
       <c r="G90" t="n">
-        <v>347.2150685479327</v>
+        <v>506.3241951181752</v>
       </c>
       <c r="H90" t="n">
         <v>0.38</v>
       </c>
       <c r="I90" t="n">
-        <v>128998</v>
+        <v>131625</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8074994</v>
+        <v>8168621</v>
       </c>
       <c r="E91" t="n">
-        <v>8074994</v>
+        <v>8168621</v>
       </c>
       <c r="F91" t="n">
-        <v>4047.736266117581</v>
+        <v>3507.934865462413</v>
       </c>
       <c r="G91" t="n">
-        <v>4170.914052460912</v>
+        <v>3659.910951327399</v>
       </c>
       <c r="H91" t="n">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>3432518</v>
+        <v>3473941</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9281138</v>
+        <v>9168553</v>
       </c>
       <c r="E92" t="n">
-        <v>9281138</v>
+        <v>9168553</v>
       </c>
       <c r="F92" t="n">
-        <v>3178.286545070103</v>
+        <v>3452.602697496043</v>
       </c>
       <c r="G92" t="n">
-        <v>5120.416030433967</v>
+        <v>5047.299248626998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I92" t="n">
-        <v>2932406</v>
+        <v>2905378</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37254374</v>
+        <v>37138118</v>
       </c>
       <c r="E93" t="n">
-        <v>93937645</v>
+        <v>93644503</v>
       </c>
       <c r="F93" t="n">
-        <v>6303.591387571365</v>
+        <v>5550.292571649312</v>
       </c>
       <c r="G93" t="n">
-        <v>5462.581855192291</v>
+        <v>5589.946694198626</v>
       </c>
       <c r="H93" t="n">
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="I93" t="n">
-        <v>2858355</v>
+        <v>3048393</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>297399065</v>
+        <v>299021655</v>
       </c>
       <c r="E94" t="n">
-        <v>302047274</v>
+        <v>303695187</v>
       </c>
       <c r="F94" t="n">
-        <v>16091.25518441553</v>
+        <v>48645.3562747138</v>
       </c>
       <c r="G94" t="n">
-        <v>5930.484201628146</v>
+        <v>6257.338936184969</v>
       </c>
       <c r="H94" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I94" t="n">
-        <v>11573801</v>
+        <v>11842430</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>880.2991708861296</v>
+        <v>862.844763102047</v>
       </c>
       <c r="G95" t="n">
-        <v>6825.360238997906</v>
+        <v>6572.185441925417</v>
       </c>
       <c r="H95" t="n">
         <v>0.09</v>
       </c>
       <c r="I95" t="n">
-        <v>220705</v>
+        <v>220030</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>79549379</v>
+        <v>79228102</v>
       </c>
       <c r="E96" t="n">
-        <v>79549379</v>
+        <v>79228102</v>
       </c>
       <c r="F96" t="n">
-        <v>16110.8312291873</v>
+        <v>15338.95859987752</v>
       </c>
       <c r="G96" t="n">
-        <v>7439.267074880839</v>
+        <v>7301.698803855563</v>
       </c>
       <c r="H96" t="n">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="I96" t="n">
-        <v>4953335</v>
+        <v>4905989</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>298678120</v>
+        <v>301362105</v>
       </c>
       <c r="E97" t="n">
-        <v>298678120</v>
+        <v>301362105</v>
       </c>
       <c r="F97" t="n">
-        <v>249589.4783032337</v>
+        <v>429496.8962902002</v>
       </c>
       <c r="G97" t="n">
-        <v>442896.3053016306</v>
+        <v>441297.0313253379</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50090083</v>
+        <v>49929911</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4277027</v>
+        <v>4222191</v>
       </c>
       <c r="E98" t="n">
-        <v>29224625</v>
+        <v>28849936</v>
       </c>
       <c r="F98" t="n">
-        <v>163.7345864534671</v>
+        <v>4585.64612563495</v>
       </c>
       <c r="G98" t="n">
-        <v>2001.147656639595</v>
+        <v>21989.41862661462</v>
       </c>
       <c r="H98" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>2570158</v>
+        <v>2578449</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>88825274</v>
+        <v>88925036</v>
       </c>
       <c r="E99" t="n">
-        <v>511849542</v>
+        <v>512424410</v>
       </c>
       <c r="F99" t="n">
-        <v>140166.8033783651</v>
+        <v>135989.6252717685</v>
       </c>
       <c r="G99" t="n">
-        <v>154875.7064688787</v>
+        <v>144081.3177851953</v>
       </c>
       <c r="H99" t="n">
         <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>16096602</v>
+        <v>16020107</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107053155</v>
+        <v>107850906</v>
       </c>
       <c r="E100" t="n">
-        <v>263392587</v>
+        <v>265355366</v>
       </c>
       <c r="F100" t="n">
-        <v>28125.06811752118</v>
+        <v>26866.18595784983</v>
       </c>
       <c r="G100" t="n">
-        <v>45608.71927203998</v>
+        <v>45528.59202190927</v>
       </c>
       <c r="H100" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I100" t="n">
-        <v>2225482</v>
+        <v>2217992</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>245474478</v>
+        <v>247651560</v>
       </c>
       <c r="E101" t="n">
-        <v>245476917</v>
+        <v>247654020</v>
       </c>
       <c r="F101" t="n">
-        <v>480.3092542694649</v>
+        <v>11697.03773734785</v>
       </c>
       <c r="G101" t="n">
-        <v>3386.776560688888</v>
+        <v>13163.0089266655</v>
       </c>
       <c r="H101" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="I101" t="n">
-        <v>2682056</v>
+        <v>2703817</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30261003</v>
+        <v>30554951</v>
       </c>
       <c r="E102" t="n">
-        <v>135490926</v>
+        <v>136807051</v>
       </c>
       <c r="F102" t="n">
-        <v>105137.9347455976</v>
+        <v>114287.3878128032</v>
       </c>
       <c r="G102" t="n">
-        <v>156402.2258330878</v>
+        <v>131264.2498355843</v>
       </c>
       <c r="H102" t="n">
         <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8548702</v>
+        <v>8769925</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3069443</v>
+        <v>3158542</v>
       </c>
       <c r="E103" t="n">
-        <v>3069443</v>
+        <v>3158542</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>401439</v>
+        <v>417575</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6034071</v>
+        <v>6033662</v>
       </c>
       <c r="E104" t="n">
-        <v>15836444</v>
+        <v>15835370</v>
       </c>
       <c r="F104" t="n">
-        <v>8629.527288085639</v>
+        <v>8742.115025852216</v>
       </c>
       <c r="G104" t="n">
-        <v>3742.412244324198</v>
+        <v>3825.92642472672</v>
       </c>
       <c r="H104" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="I104" t="n">
-        <v>74013</v>
+        <v>74002</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17017319</v>
+        <v>17106715</v>
       </c>
       <c r="E105" t="n">
-        <v>78548911</v>
+        <v>78961606</v>
       </c>
       <c r="F105" t="n">
-        <v>46416.13307462745</v>
+        <v>57460.09163881916</v>
       </c>
       <c r="G105" t="n">
-        <v>70585.1442886427</v>
+        <v>45465.62598713788</v>
       </c>
       <c r="H105" t="n">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>1095190</v>
+        <v>1050736</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47211715</v>
+        <v>47548565</v>
       </c>
       <c r="E106" t="n">
-        <v>306155404</v>
+        <v>308339790</v>
       </c>
       <c r="F106" t="n">
-        <v>102526.3397597239</v>
+        <v>106741.4663523399</v>
       </c>
       <c r="G106" t="n">
-        <v>170931.8251395426</v>
+        <v>160063.4365757105</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17335592</v>
+        <v>16978500</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2602415</v>
+        <v>2573961</v>
       </c>
       <c r="E107" t="n">
-        <v>4714765</v>
+        <v>4663215</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>100580</v>
+        <v>99576</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125111250</v>
+        <v>125331142</v>
       </c>
       <c r="E108" t="n">
-        <v>2071944773</v>
+        <v>2075586366</v>
       </c>
       <c r="F108" t="n">
-        <v>213442.6496040395</v>
+        <v>211650.1674075371</v>
       </c>
       <c r="G108" t="n">
-        <v>98169.35661825103</v>
+        <v>118240.0493475003</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5048587</v>
+        <v>5085998</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23148471</v>
+        <v>23395304</v>
       </c>
       <c r="E109" t="n">
-        <v>138501954</v>
+        <v>139978809</v>
       </c>
       <c r="F109" t="n">
-        <v>40440.44888256591</v>
+        <v>40594.1177157764</v>
       </c>
       <c r="G109" t="n">
-        <v>39023.53188456918</v>
+        <v>39801.53311961629</v>
       </c>
       <c r="H109" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I109" t="n">
-        <v>12704204</v>
+        <v>12774941</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1004511</v>
+        <v>1015047</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>66487</v>
+        <v>67436</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2292645</v>
+        <v>2263101</v>
       </c>
       <c r="F111" t="n">
-        <v>3948.085956286747</v>
+        <v>3839.47334825253</v>
       </c>
       <c r="G111" t="n">
-        <v>223.4006712301688</v>
+        <v>316.6249314584128</v>
       </c>
       <c r="H111" t="n">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
       <c r="I111" t="n">
-        <v>212519</v>
+        <v>208811</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142340251</v>
+        <v>142478730</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.911539653091</v>
+        <v>3147.114166487591</v>
       </c>
       <c r="G112" t="n">
-        <v>909.6601767072369</v>
+        <v>909.7187489167682</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>54200</v>
+        <v>51096</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6679614</v>
+        <v>6695600</v>
       </c>
       <c r="E113" t="n">
-        <v>34364583</v>
+        <v>34446830</v>
       </c>
       <c r="F113" t="n">
-        <v>2830.155410761682</v>
+        <v>1525.133321731226</v>
       </c>
       <c r="G113" t="n">
-        <v>746.4241979560954</v>
+        <v>1263.756705462361</v>
       </c>
       <c r="H113" t="n">
         <v>0.58</v>
       </c>
       <c r="I113" t="n">
-        <v>776548</v>
+        <v>888521</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>28857488</v>
+        <v>29057808</v>
       </c>
       <c r="E114" t="n">
-        <v>39568661</v>
+        <v>39843335</v>
       </c>
       <c r="F114" t="n">
-        <v>4329.682018161858</v>
+        <v>5308.518163375777</v>
       </c>
       <c r="G114" t="n">
-        <v>4953.294693794724</v>
+        <v>3452.658821135614</v>
       </c>
       <c r="H114" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I114" t="n">
-        <v>295349</v>
+        <v>275546</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8053523</v>
+        <v>8040529</v>
       </c>
       <c r="F115" t="n">
-        <v>651.7431655869306</v>
+        <v>673.4276661631927</v>
       </c>
       <c r="G115" t="n">
-        <v>6426.14202874377</v>
+        <v>6649.956685885018</v>
       </c>
       <c r="H115" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="I115" t="n">
-        <v>685489</v>
+        <v>682598</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3310704</v>
+        <v>3309405</v>
       </c>
       <c r="E116" t="n">
-        <v>4434897</v>
+        <v>4433157</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>146992</v>
+        <v>147306</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33950960</v>
+        <v>33988597</v>
       </c>
       <c r="E117" t="n">
-        <v>169430940</v>
+        <v>169618768</v>
       </c>
       <c r="F117" t="n">
-        <v>72814.84759892273</v>
+        <v>75759.65815102885</v>
       </c>
       <c r="G117" t="n">
-        <v>73771.22801585635</v>
+        <v>70103.11816238088</v>
       </c>
       <c r="H117" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I117" t="n">
-        <v>9997281</v>
+        <v>10009759</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3445640</v>
+        <v>3449230</v>
       </c>
       <c r="E118" t="n">
-        <v>4949989</v>
+        <v>4955147</v>
       </c>
       <c r="F118" t="n">
-        <v>747.2113385898825</v>
+        <v>747.2594508632443</v>
       </c>
       <c r="G118" t="n">
-        <v>905.9232534022734</v>
+        <v>898.1230115915291</v>
       </c>
       <c r="H118" t="n">
         <v>0.6</v>
       </c>
       <c r="I118" t="n">
-        <v>177536</v>
+        <v>137491</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>311360343</v>
+        <v>312424963</v>
       </c>
       <c r="E119" t="n">
-        <v>576087640</v>
+        <v>578057430</v>
       </c>
       <c r="F119" t="n">
-        <v>125240.1211890523</v>
+        <v>135104.2099037197</v>
       </c>
       <c r="G119" t="n">
-        <v>126786.4865545612</v>
+        <v>138850.0218444045</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="I119" t="n">
-        <v>12300500</v>
+        <v>12795003</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70975806</v>
+        <v>71294071</v>
       </c>
       <c r="E120" t="n">
-        <v>677185943</v>
+        <v>680215086</v>
       </c>
       <c r="F120" t="n">
-        <v>2405.730187312657</v>
+        <v>2902.081427056735</v>
       </c>
       <c r="G120" t="n">
-        <v>41458.89753622517</v>
+        <v>40581.21490626843</v>
       </c>
       <c r="H120" t="n">
         <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>20949404</v>
+        <v>21171505</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37713329</v>
+        <v>38028079</v>
       </c>
       <c r="E121" t="n">
-        <v>49310223</v>
+        <v>49721548</v>
       </c>
       <c r="F121" t="n">
-        <v>5706.55854091919</v>
+        <v>222.9008595291385</v>
       </c>
       <c r="G121" t="n">
-        <v>526.9577970113073</v>
+        <v>6504.056974388895</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I121" t="n">
-        <v>656133</v>
+        <v>432143</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9572260</v>
+        <v>9378647</v>
       </c>
       <c r="E122" t="n">
-        <v>28408651</v>
+        <v>27832941</v>
       </c>
       <c r="F122" t="n">
-        <v>2000.517593027588</v>
+        <v>1678.092660050754</v>
       </c>
       <c r="G122" t="n">
-        <v>7288.377053024407</v>
+        <v>7183.998445216694</v>
       </c>
       <c r="H122" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="I122" t="n">
-        <v>5539564</v>
+        <v>5796470</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2234315</v>
+        <v>2238418</v>
       </c>
       <c r="E123" t="n">
-        <v>7645491</v>
+        <v>7659529</v>
       </c>
       <c r="F123" t="n">
-        <v>475.7662943101085</v>
+        <v>415.9452373400451</v>
       </c>
       <c r="G123" t="n">
-        <v>1093.734199840237</v>
+        <v>1403.942667186906</v>
       </c>
       <c r="H123" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>782490</v>
+        <v>806844</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7297370</v>
+        <v>7386600</v>
       </c>
       <c r="E124" t="n">
-        <v>7297381</v>
+        <v>7386611</v>
       </c>
       <c r="F124" t="n">
-        <v>5.054251256467864</v>
+        <v>265.0428864455035</v>
       </c>
       <c r="G124" t="n">
-        <v>861.2081173324584</v>
+        <v>1234.26732690344</v>
       </c>
       <c r="H124" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="I124" t="n">
-        <v>345958</v>
+        <v>346689</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6068858</v>
+        <v>6047568</v>
       </c>
       <c r="E125" t="n">
-        <v>6068858</v>
+        <v>6047568</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>475624</v>
+        <v>276928</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6210591</v>
+        <v>6201288</v>
       </c>
       <c r="E126" t="n">
-        <v>22684885</v>
+        <v>22650905</v>
       </c>
       <c r="F126" t="n">
-        <v>946.5298955684253</v>
+        <v>5958.108452666474</v>
       </c>
       <c r="G126" t="n">
-        <v>6734.565542415825</v>
+        <v>1789.868262003841</v>
       </c>
       <c r="H126" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="I126" t="n">
-        <v>520576</v>
+        <v>525137</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44432868</v>
+        <v>44738332</v>
       </c>
       <c r="E127" t="n">
-        <v>44432868</v>
+        <v>44738332</v>
       </c>
       <c r="F127" t="n">
-        <v>56354.39218837192</v>
+        <v>63099.45268340701</v>
       </c>
       <c r="G127" t="n">
-        <v>91938.35805185049</v>
+        <v>77943.90533212923</v>
       </c>
       <c r="H127" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>8141827</v>
+        <v>8130830</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>147986740</v>
+        <v>147465377</v>
       </c>
       <c r="F128" t="n">
-        <v>5351.345638662749</v>
+        <v>5192.92822284613</v>
       </c>
       <c r="G128" t="n">
-        <v>463.101106882354</v>
+        <v>495.8825175141336</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1371377</v>
+        <v>1497771</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3035273</v>
+        <v>3032771</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72225</v>
+        <v>72107</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20439977</v>
+        <v>20700042</v>
       </c>
       <c r="F130" t="n">
-        <v>506.0165037031206</v>
+        <v>731.5260337253454</v>
       </c>
       <c r="G130" t="n">
-        <v>632.4155142884825</v>
+        <v>235.84316964012</v>
       </c>
       <c r="H130" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="I130" t="n">
-        <v>2835388</v>
+        <v>2874854</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1237749</v>
+        <v>1237026</v>
       </c>
       <c r="E131" t="n">
-        <v>3744105</v>
+        <v>3742665</v>
       </c>
       <c r="F131" t="n">
-        <v>797.7249556530081</v>
+        <v>797.7763204532348</v>
       </c>
       <c r="G131" t="n">
-        <v>671.174102316383</v>
+        <v>671.2173186197449</v>
       </c>
       <c r="H131" t="n">
         <v>1.32</v>
       </c>
       <c r="I131" t="n">
-        <v>12080.93</v>
+        <v>9785.57</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>589356139</v>
+        <v>598810318</v>
       </c>
       <c r="E132" t="n">
-        <v>2282489374</v>
+        <v>2319104014</v>
       </c>
       <c r="F132" t="n">
-        <v>330079.7827066041</v>
+        <v>518298.668598822</v>
       </c>
       <c r="G132" t="n">
-        <v>687659.7894293494</v>
+        <v>718060.0960005267</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>30349540</v>
+        <v>30932229</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3670112</v>
+        <v>3674181</v>
       </c>
       <c r="E133" t="n">
-        <v>6256204</v>
+        <v>6263140</v>
       </c>
       <c r="F133" t="n">
-        <v>2838.582889803222</v>
+        <v>5207.102416107613</v>
       </c>
       <c r="G133" t="n">
-        <v>3893.841762821705</v>
+        <v>5623.005198195953</v>
       </c>
       <c r="H133" t="n">
-        <v>0.32</v>
+        <v>0.79</v>
       </c>
       <c r="I133" t="n">
-        <v>1163741</v>
+        <v>1205470</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>117529497</v>
+        <v>118262597</v>
       </c>
       <c r="E134" t="n">
-        <v>1021846742</v>
+        <v>1028220592</v>
       </c>
       <c r="F134" t="n">
-        <v>130250.6082182631</v>
+        <v>127815.8268377518</v>
       </c>
       <c r="G134" t="n">
-        <v>89455.02018688869</v>
+        <v>97194.14778180663</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I134" t="n">
-        <v>9256121</v>
+        <v>9079837</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1006780127</v>
+        <v>1009034168</v>
       </c>
       <c r="E135" t="n">
-        <v>1105950728</v>
+        <v>1108426799</v>
       </c>
       <c r="F135" t="n">
-        <v>15066.20326065196</v>
+        <v>15487.6644295057</v>
       </c>
       <c r="G135" t="n">
-        <v>15448.61994224957</v>
+        <v>17745.67840338992</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="I135" t="n">
-        <v>10849299</v>
+        <v>10543151</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1138313</v>
+        <v>1120277</v>
       </c>
       <c r="E136" t="n">
-        <v>4407796</v>
+        <v>4337959</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>428243</v>
+        <v>435809</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>110887124</v>
+        <v>111836884</v>
       </c>
       <c r="E137" t="n">
-        <v>425380856</v>
+        <v>429024287</v>
       </c>
       <c r="F137" t="n">
-        <v>166021.4664059028</v>
+        <v>178501.6134645691</v>
       </c>
       <c r="G137" t="n">
-        <v>226761.1851455771</v>
+        <v>214441.4711833244</v>
       </c>
       <c r="H137" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I137" t="n">
-        <v>19541673</v>
+        <v>20525772</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3159350</v>
+        <v>3151929</v>
       </c>
       <c r="E138" t="n">
-        <v>29935305</v>
+        <v>29864997</v>
       </c>
       <c r="F138" t="n">
-        <v>4413.093767230487</v>
+        <v>2738.424633051491</v>
       </c>
       <c r="G138" t="n">
-        <v>138.9976067626866</v>
+        <v>4599.054061108606</v>
       </c>
       <c r="H138" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I138" t="n">
-        <v>149593</v>
+        <v>283265</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21864702</v>
+        <v>21766943</v>
       </c>
       <c r="E139" t="n">
-        <v>21864702</v>
+        <v>21766943</v>
       </c>
       <c r="F139" t="n">
-        <v>6922.308537149082</v>
+        <v>5141.020793803928</v>
       </c>
       <c r="G139" t="n">
-        <v>2524.092439678348</v>
+        <v>2684.076825950009</v>
       </c>
       <c r="H139" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="I139" t="n">
-        <v>525699</v>
+        <v>527343</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494232843</v>
+        <v>494044284</v>
       </c>
       <c r="E140" t="n">
-        <v>494232843</v>
+        <v>494044284</v>
       </c>
       <c r="F140" t="n">
-        <v>784678.7171120869</v>
+        <v>963101.5762695675</v>
       </c>
       <c r="G140" t="n">
-        <v>681364.0205587847</v>
+        <v>647281.9002999131</v>
       </c>
       <c r="H140" t="n">
         <v>0.01</v>
       </c>
       <c r="I140" t="n">
-        <v>32100278</v>
+        <v>32985144</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31571313</v>
+        <v>31298742</v>
       </c>
       <c r="F141" t="n">
-        <v>39545.99357772346</v>
+        <v>59739.30397914092</v>
       </c>
       <c r="G141" t="n">
-        <v>62041.17390585313</v>
+        <v>62976.94908985071</v>
       </c>
       <c r="H141" t="n">
         <v>0.22</v>
       </c>
       <c r="I141" t="n">
-        <v>5604941</v>
+        <v>5607461</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>767042</v>
+        <v>764772</v>
       </c>
       <c r="E142" t="n">
-        <v>12234045</v>
+        <v>12197845</v>
       </c>
       <c r="F142" t="n">
-        <v>58.09663135758176</v>
+        <v>59.21049702269405</v>
       </c>
       <c r="G142" t="n">
-        <v>40.88701458224008</v>
+        <v>40.88964726073535</v>
       </c>
       <c r="H142" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I142" t="n">
-        <v>70383</v>
+        <v>68019</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2655979037</v>
+        <v>2654629143</v>
       </c>
       <c r="E143" t="n">
-        <v>2819958644</v>
+        <v>2818525407</v>
       </c>
       <c r="F143" t="n">
-        <v>14034.658581474</v>
+        <v>3536.792445914048</v>
       </c>
       <c r="G143" t="n">
-        <v>22422.59831797533</v>
+        <v>22605.27093461351</v>
       </c>
       <c r="H143" t="n">
         <v>0.12</v>
       </c>
       <c r="I143" t="n">
-        <v>38787335</v>
+        <v>38804972</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1635607</v>
+        <v>1632009</v>
       </c>
       <c r="E144" t="n">
-        <v>1641380</v>
+        <v>1637770</v>
       </c>
       <c r="F144" t="n">
-        <v>698.6989334847339</v>
+        <v>604.5677305350974</v>
       </c>
       <c r="G144" t="n">
-        <v>398.7196207163138</v>
+        <v>747.1017693030007</v>
       </c>
       <c r="H144" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="I144" t="n">
-        <v>400190</v>
+        <v>391538</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61234611</v>
+        <v>61710186</v>
       </c>
       <c r="E145" t="n">
-        <v>150204350</v>
+        <v>151370903</v>
       </c>
       <c r="F145" t="n">
-        <v>3252.012722557727</v>
+        <v>3218.989420698413</v>
       </c>
       <c r="G145" t="n">
-        <v>4350.930694346209</v>
+        <v>5181.573791667034</v>
       </c>
       <c r="H145" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="I145" t="n">
-        <v>22617977</v>
+        <v>22565857</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>675194654</v>
+        <v>698536476</v>
       </c>
       <c r="E146" t="n">
-        <v>1041209770</v>
+        <v>1077204921</v>
       </c>
       <c r="F146" t="n">
-        <v>175204.6514514112</v>
+        <v>172455.1691045768</v>
       </c>
       <c r="G146" t="n">
-        <v>161991.9535998258</v>
+        <v>145583.1726733384</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>157365685</v>
+        <v>162099145</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23430201</v>
+        <v>23360182</v>
       </c>
       <c r="E147" t="n">
-        <v>23430201</v>
+        <v>23360182</v>
       </c>
       <c r="F147" t="n">
-        <v>4278.647330478876</v>
+        <v>4768.83789300433</v>
       </c>
       <c r="G147" t="n">
-        <v>7823.423420892655</v>
+        <v>7445.214687137012</v>
       </c>
       <c r="H147" t="n">
         <v>0.31</v>
       </c>
       <c r="I147" t="n">
-        <v>6328662</v>
+        <v>6272656</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3827020</v>
+        <v>3831226</v>
       </c>
       <c r="E148" t="n">
-        <v>8350508</v>
+        <v>8359685</v>
       </c>
       <c r="F148" t="n">
-        <v>5726.524086832806</v>
+        <v>5499.793179323313</v>
       </c>
       <c r="G148" t="n">
-        <v>5824.224840932437</v>
+        <v>5781.35969120449</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>931736</v>
+        <v>879010</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9359255</v>
+        <v>9353471</v>
       </c>
       <c r="E149" t="n">
-        <v>9359255</v>
+        <v>9353471</v>
       </c>
       <c r="F149" t="n">
-        <v>76077.91734048593</v>
+        <v>88934.84109159063</v>
       </c>
       <c r="G149" t="n">
-        <v>89793.67598024753</v>
+        <v>76115.27943684196</v>
       </c>
       <c r="H149" t="n">
         <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>3205692</v>
+        <v>3235944</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>487194354</v>
+        <v>490239198</v>
       </c>
       <c r="E150" t="n">
-        <v>1696743388</v>
+        <v>1707347613</v>
       </c>
       <c r="F150" t="n">
-        <v>777706.3046985634</v>
+        <v>772667.2970546582</v>
       </c>
       <c r="G150" t="n">
-        <v>896550.4774719148</v>
+        <v>864771.0677574656</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31488141</v>
+        <v>31227456</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48024561</v>
+        <v>48015970</v>
       </c>
       <c r="E151" t="n">
-        <v>118525031</v>
+        <v>118503834</v>
       </c>
       <c r="F151" t="n">
-        <v>5595.007058022341</v>
+        <v>5615.075505944025</v>
       </c>
       <c r="G151" t="n">
-        <v>8136.460859714802</v>
+        <v>8136.984759191245</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>38423</v>
+        <v>37920</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7626919</v>
+        <v>7652187</v>
       </c>
       <c r="E152" t="n">
-        <v>19813915</v>
+        <v>19879560</v>
       </c>
       <c r="F152" t="n">
-        <v>2137.381355461911</v>
+        <v>2234.101063479877</v>
       </c>
       <c r="G152" t="n">
-        <v>6345.546480144256</v>
+        <v>6074.551471995089</v>
       </c>
       <c r="H152" t="n">
-        <v>2.49</v>
+        <v>1.5</v>
       </c>
       <c r="I152" t="n">
-        <v>679640</v>
+        <v>681180</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19251372703</v>
+        <v>19248291431</v>
       </c>
       <c r="F153" t="n">
-        <v>52445.4946492748</v>
+        <v>52448.87156801899</v>
       </c>
       <c r="G153" t="n">
-        <v>50108.25823610787</v>
+        <v>50109.94596611338</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48878033</v>
+        <v>48871845</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2657237</v>
+        <v>2646553</v>
       </c>
       <c r="E154" t="n">
-        <v>10628947</v>
+        <v>10586212</v>
       </c>
       <c r="F154" t="n">
-        <v>12062.90214096721</v>
+        <v>1679.835585199638</v>
       </c>
       <c r="G154" t="n">
-        <v>4107.611388909878</v>
+        <v>23351.91978243404</v>
       </c>
       <c r="H154" t="n">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
       <c r="I154" t="n">
-        <v>5060409</v>
+        <v>5141851</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>213334700</v>
+        <v>213619099</v>
       </c>
       <c r="E155" t="n">
-        <v>655923921</v>
+        <v>656798339</v>
       </c>
       <c r="F155" t="n">
-        <v>156040.8735513685</v>
+        <v>167588.4288357614</v>
       </c>
       <c r="G155" t="n">
-        <v>146067.7597629127</v>
+        <v>171464.0268424187</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>11442523</v>
+        <v>11480346</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>399355980</v>
+        <v>399793999</v>
       </c>
       <c r="E156" t="n">
-        <v>2282034170</v>
+        <v>2284537136</v>
       </c>
       <c r="F156" t="n">
-        <v>164149.9277572536</v>
+        <v>151026.0952596191</v>
       </c>
       <c r="G156" t="n">
-        <v>248620.3369146823</v>
+        <v>248185.5341227199</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>36161771</v>
+        <v>36530580</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3898951</v>
+        <v>3898119</v>
       </c>
       <c r="F2" t="n">
-        <v>353.448368366335</v>
+        <v>280.1955596315908</v>
       </c>
       <c r="G2" t="n">
-        <v>1650.448744606234</v>
+        <v>1898.648978553375</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>100619</v>
+        <v>104528</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>610500013</v>
+        <v>612923731</v>
       </c>
       <c r="E3" t="n">
-        <v>1184570894</v>
+        <v>1189276159</v>
       </c>
       <c r="F3" t="n">
-        <v>68922.37777626159</v>
+        <v>66587.09677104083</v>
       </c>
       <c r="G3" t="n">
-        <v>101463.9898388093</v>
+        <v>88775.82422178076</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>23474913</v>
+        <v>23340975</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245600832</v>
+        <v>246644954</v>
       </c>
       <c r="E4" t="n">
-        <v>1540128298</v>
+        <v>1546675836</v>
       </c>
       <c r="F4" t="n">
-        <v>287510.8379983339</v>
+        <v>287145.239326758</v>
       </c>
       <c r="G4" t="n">
-        <v>313332.6758866608</v>
+        <v>289321.2873827813</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15633224</v>
+        <v>15544636</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139658791</v>
+        <v>140233214</v>
       </c>
       <c r="E5" t="n">
-        <v>154764248</v>
+        <v>155400799</v>
       </c>
       <c r="F5" t="n">
-        <v>8767.698682518714</v>
+        <v>8679.118072076824</v>
       </c>
       <c r="G5" t="n">
-        <v>303.5665179807599</v>
+        <v>306.71839714547</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>33638333</v>
+        <v>33984448</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49922636</v>
+        <v>49870044</v>
       </c>
       <c r="E6" t="n">
-        <v>62451938</v>
+        <v>62386146</v>
       </c>
       <c r="F6" t="n">
-        <v>7055.089653322509</v>
+        <v>5950.619033803103</v>
       </c>
       <c r="G6" t="n">
-        <v>5464.621298234466</v>
+        <v>6316.101912211507</v>
       </c>
       <c r="H6" t="n">
         <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>502952</v>
+        <v>519822</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68729854</v>
+        <v>68708616</v>
       </c>
       <c r="E7" t="n">
-        <v>136909674</v>
+        <v>136867367</v>
       </c>
       <c r="F7" t="n">
-        <v>10013.21458579792</v>
+        <v>9548.542994764171</v>
       </c>
       <c r="G7" t="n">
-        <v>12630.87948029455</v>
+        <v>12165.26400731986</v>
       </c>
       <c r="H7" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1415745</v>
+        <v>1351736</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40264315</v>
+        <v>41591049</v>
       </c>
       <c r="E8" t="n">
-        <v>45061568</v>
+        <v>46546374</v>
       </c>
       <c r="F8" t="n">
-        <v>6729.747648683547</v>
+        <v>6729.970952083223</v>
       </c>
       <c r="G8" t="n">
-        <v>6633.793601616791</v>
+        <v>6633.990515933091</v>
       </c>
       <c r="H8" t="n">
         <v>0.53</v>
       </c>
       <c r="I8" t="n">
-        <v>3417181</v>
+        <v>3421018</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14306545</v>
+        <v>14287495</v>
       </c>
       <c r="E9" t="n">
-        <v>42160465</v>
+        <v>42104325</v>
       </c>
       <c r="F9" t="n">
-        <v>4892.637704490796</v>
+        <v>4998.444473437057</v>
       </c>
       <c r="G9" t="n">
-        <v>4767.345986793956</v>
+        <v>4751.538711038601</v>
       </c>
       <c r="H9" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="I9" t="n">
-        <v>786553</v>
+        <v>814742</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7494094</v>
+        <v>7467182</v>
       </c>
       <c r="E10" t="n">
-        <v>32220615</v>
+        <v>32104905</v>
       </c>
       <c r="F10" t="n">
-        <v>5416.196962684778</v>
+        <v>4346.939678152786</v>
       </c>
       <c r="G10" t="n">
-        <v>54712.03134281009</v>
+        <v>4205.881092001813</v>
       </c>
       <c r="H10" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="I10" t="n">
-        <v>747596</v>
+        <v>667095</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>551801690</v>
+        <v>555291376</v>
       </c>
       <c r="E11" t="n">
-        <v>690221902</v>
+        <v>694586981</v>
       </c>
       <c r="F11" t="n">
-        <v>279363.3614732992</v>
+        <v>250529.7212368026</v>
       </c>
       <c r="G11" t="n">
-        <v>265856.7644991439</v>
+        <v>287141.6617617217</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>54326648</v>
+        <v>54513036</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4723882</v>
+        <v>4748882</v>
       </c>
       <c r="E12" t="n">
-        <v>29015801</v>
+        <v>29169339</v>
       </c>
       <c r="F12" t="n">
-        <v>10620.54713567913</v>
+        <v>12355.83346800897</v>
       </c>
       <c r="G12" t="n">
-        <v>8305.993636662482</v>
+        <v>8250.958752120767</v>
       </c>
       <c r="H12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I12" t="n">
-        <v>475587</v>
+        <v>469492</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22334621</v>
+        <v>22258622</v>
       </c>
       <c r="E13" t="n">
-        <v>22376439</v>
+        <v>22300298</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>878107</v>
+        <v>872914</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82224145</v>
+        <v>82610273</v>
       </c>
       <c r="E14" t="n">
-        <v>241913632</v>
+        <v>243049668</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>407206</v>
+        <v>408128</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>480264452</v>
+        <v>474969030</v>
       </c>
       <c r="E15" t="n">
-        <v>480264452</v>
+        <v>474969034</v>
       </c>
       <c r="F15" t="n">
-        <v>10654.86843848312</v>
+        <v>7437.041729714942</v>
       </c>
       <c r="G15" t="n">
-        <v>54954.05896506427</v>
+        <v>51569.01787685386</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>62699659</v>
+        <v>63522362</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4666772</v>
+        <v>4698790</v>
       </c>
       <c r="E16" t="n">
-        <v>4666772</v>
+        <v>4698790</v>
       </c>
       <c r="F16" t="n">
-        <v>6265.521655255046</v>
+        <v>421.4280654324186</v>
       </c>
       <c r="G16" t="n">
-        <v>5762.218419753791</v>
+        <v>4884.067957712184</v>
       </c>
       <c r="H16" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="I16" t="n">
-        <v>1955908</v>
+        <v>1966508</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3352119</v>
+        <v>3367072</v>
       </c>
       <c r="E17" t="n">
-        <v>3352119</v>
+        <v>3367072</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>533086</v>
+        <v>533705</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166207878</v>
+        <v>166640534</v>
       </c>
       <c r="E18" t="n">
-        <v>205772274</v>
+        <v>206307920</v>
       </c>
       <c r="F18" t="n">
-        <v>5814.105575363944</v>
+        <v>8384.442674344993</v>
       </c>
       <c r="G18" t="n">
-        <v>11430.13627053241</v>
+        <v>9900.867350735651</v>
       </c>
       <c r="H18" t="n">
-        <v>0.74</v>
+        <v>1.43</v>
       </c>
       <c r="I18" t="n">
-        <v>380426</v>
+        <v>377088</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6693857</v>
+        <v>6698717</v>
       </c>
       <c r="E19" t="n">
-        <v>9219151</v>
+        <v>9225845</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>840567</v>
+        <v>838708</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>907606</v>
+        <v>917339</v>
       </c>
       <c r="E20" t="n">
-        <v>6353242</v>
+        <v>6421374</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>228996</v>
+        <v>204993</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>109526186</v>
+        <v>112638448</v>
       </c>
       <c r="E21" t="n">
-        <v>426411072</v>
+        <v>438511831</v>
       </c>
       <c r="F21" t="n">
-        <v>42784.76391762023</v>
+        <v>40071.52310470332</v>
       </c>
       <c r="G21" t="n">
-        <v>69324.77963462893</v>
+        <v>84498.03691162619</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>6612992</v>
+        <v>7779985</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1680686</v>
+        <v>1682540</v>
       </c>
       <c r="E22" t="n">
-        <v>12105842</v>
+        <v>12119190</v>
       </c>
       <c r="F22" t="n">
-        <v>5961.893487997108</v>
+        <v>4557.553866517795</v>
       </c>
       <c r="G22" t="n">
-        <v>4388.25951245836</v>
+        <v>4357.142235716202</v>
       </c>
       <c r="H22" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="I22" t="n">
-        <v>147075</v>
+        <v>125365</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>135111919</v>
+        <v>136184058</v>
       </c>
       <c r="E23" t="n">
-        <v>135111919</v>
+        <v>136184058</v>
       </c>
       <c r="F23" t="n">
-        <v>1023968.028109571</v>
+        <v>915541.2369963354</v>
       </c>
       <c r="G23" t="n">
-        <v>952239.1302467154</v>
+        <v>1358105.748646279</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>66185312</v>
+        <v>66618792</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64617877</v>
+        <v>64740715</v>
       </c>
       <c r="E24" t="n">
-        <v>331373729</v>
+        <v>332003668</v>
       </c>
       <c r="F24" t="n">
-        <v>89822.3525443028</v>
+        <v>79333.919342329</v>
       </c>
       <c r="G24" t="n">
-        <v>102974.0842409898</v>
+        <v>127819.394390866</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>18609121</v>
+        <v>18781983</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>252359176</v>
+        <v>252988093</v>
       </c>
       <c r="E25" t="n">
-        <v>252359176</v>
+        <v>252988093</v>
       </c>
       <c r="F25" t="n">
-        <v>316805.1356198759</v>
+        <v>314527.0450298003</v>
       </c>
       <c r="G25" t="n">
-        <v>484713.6380646147</v>
+        <v>504977.8381289029</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>14924662</v>
+        <v>14912322</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1121300</v>
+        <v>1122708</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>189779</v>
+        <v>191113</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3989324</v>
+        <v>3999713</v>
       </c>
       <c r="E28" t="n">
-        <v>3990177</v>
+        <v>4000568</v>
       </c>
       <c r="F28" t="n">
-        <v>948.1508121470491</v>
+        <v>734.7766379310656</v>
       </c>
       <c r="G28" t="n">
-        <v>3968.267845669111</v>
+        <v>3387.584630265311</v>
       </c>
       <c r="H28" t="n">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="I28" t="n">
-        <v>273854</v>
+        <v>279198</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6626343</v>
+        <v>6731711</v>
       </c>
       <c r="E29" t="n">
-        <v>16094876</v>
+        <v>16350807</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>450733</v>
+        <v>453489</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100034820</v>
+        <v>100233678</v>
       </c>
       <c r="E30" t="n">
-        <v>124731694</v>
+        <v>124979647</v>
       </c>
       <c r="F30" t="n">
-        <v>117023.4372549639</v>
+        <v>113479.3868876455</v>
       </c>
       <c r="G30" t="n">
-        <v>113757.9901197007</v>
+        <v>98926.40822890353</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11537894</v>
+        <v>11496738</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1115033</v>
+        <v>1117207</v>
       </c>
       <c r="E31" t="n">
-        <v>12117762</v>
+        <v>12141385</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29345</v>
+        <v>29368</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>72247150</v>
+        <v>72687244</v>
       </c>
       <c r="E32" t="n">
-        <v>202244370</v>
+        <v>203473348</v>
       </c>
       <c r="F32" t="n">
-        <v>58394.59968090549</v>
+        <v>56824.57902561799</v>
       </c>
       <c r="G32" t="n">
-        <v>70777.8765292391</v>
+        <v>61714.90540486022</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="I32" t="n">
-        <v>32871256</v>
+        <v>32946247</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4221780</v>
+        <v>4230788</v>
       </c>
       <c r="E33" t="n">
-        <v>8325705</v>
+        <v>8343471</v>
       </c>
       <c r="F33" t="n">
-        <v>7953.403194373942</v>
+        <v>7453.700517031947</v>
       </c>
       <c r="G33" t="n">
-        <v>7411.991269794639</v>
+        <v>5314.530516064715</v>
       </c>
       <c r="H33" t="n">
         <v>0.47</v>
       </c>
       <c r="I33" t="n">
-        <v>1641734</v>
+        <v>1643360</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37373981</v>
+        <v>37365966</v>
       </c>
       <c r="F34" t="n">
-        <v>893.3632424955962</v>
+        <v>943.0715401573621</v>
       </c>
       <c r="G34" t="n">
-        <v>614.974313878116</v>
+        <v>555.8094684803992</v>
       </c>
       <c r="H34" t="n">
-        <v>0.61</v>
+        <v>0.16</v>
       </c>
       <c r="I34" t="n">
-        <v>64983</v>
+        <v>65384</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7552123</v>
+        <v>7546086</v>
       </c>
       <c r="E35" t="n">
-        <v>17786751</v>
+        <v>17772532</v>
       </c>
       <c r="F35" t="n">
-        <v>3494.446360352753</v>
+        <v>3494.814912158252</v>
       </c>
       <c r="G35" t="n">
-        <v>2563.367883383747</v>
+        <v>2569.673993635264</v>
       </c>
       <c r="H35" t="n">
         <v>1.28</v>
       </c>
       <c r="I35" t="n">
-        <v>31579</v>
+        <v>31331</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23352382</v>
+        <v>23246715</v>
       </c>
       <c r="F36" t="n">
-        <v>5391.021781879269</v>
+        <v>5284.488418430363</v>
       </c>
       <c r="G36" t="n">
-        <v>5515.30466013566</v>
+        <v>5502.56262812993</v>
       </c>
       <c r="H36" t="n">
-        <v>0.68</v>
+        <v>1.11</v>
       </c>
       <c r="I36" t="n">
-        <v>115913</v>
+        <v>117881</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>72400003</v>
+        <v>73311299</v>
       </c>
       <c r="E37" t="n">
-        <v>150990773</v>
+        <v>152891288</v>
       </c>
       <c r="F37" t="n">
-        <v>58672.96538432812</v>
+        <v>51180.21211377164</v>
       </c>
       <c r="G37" t="n">
-        <v>120347.1227561776</v>
+        <v>110585.8363221673</v>
       </c>
       <c r="H37" t="n">
         <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>13992764</v>
+        <v>14332334</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>277052150</v>
+        <v>275603404</v>
       </c>
       <c r="E38" t="n">
-        <v>277052150</v>
+        <v>275603404</v>
       </c>
       <c r="F38" t="n">
-        <v>35424.96520956594</v>
+        <v>32377.32832204055</v>
       </c>
       <c r="G38" t="n">
-        <v>25955.03559053851</v>
+        <v>24170.4067645434</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>10150136</v>
+        <v>10019951</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>197704503</v>
+        <v>198138740</v>
       </c>
       <c r="E39" t="n">
-        <v>686843311</v>
+        <v>688351890</v>
       </c>
       <c r="F39" t="n">
-        <v>114503.9278548421</v>
+        <v>145298.175968126</v>
       </c>
       <c r="G39" t="n">
-        <v>366492.1541314726</v>
+        <v>310042.6143773308</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>26080311</v>
+        <v>26133706</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4030439</v>
+        <v>4053334</v>
       </c>
       <c r="E40" t="n">
-        <v>4030439</v>
+        <v>4053334</v>
       </c>
       <c r="F40" t="n">
-        <v>1457.845447528156</v>
+        <v>2324.950743846042</v>
       </c>
       <c r="G40" t="n">
-        <v>7514.841066422472</v>
+        <v>967.3616502073149</v>
       </c>
       <c r="H40" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="I40" t="n">
-        <v>3698747</v>
+        <v>3559045</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>114244756</v>
+        <v>115068094</v>
       </c>
       <c r="E41" t="n">
-        <v>486003417</v>
+        <v>489476113</v>
       </c>
       <c r="F41" t="n">
-        <v>5628.466212328078</v>
+        <v>5712.988436442001</v>
       </c>
       <c r="G41" t="n">
-        <v>6116.460803763114</v>
+        <v>6110.927693235652</v>
       </c>
       <c r="H41" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I41" t="n">
-        <v>13214894</v>
+        <v>13761850</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>537105</v>
+        <v>535774</v>
       </c>
       <c r="E42" t="n">
-        <v>6514559</v>
+        <v>6498421</v>
       </c>
       <c r="F42" t="n">
-        <v>394.3406355479254</v>
+        <v>504.8131047297356</v>
       </c>
       <c r="G42" t="n">
-        <v>964.9068676072345</v>
+        <v>1280.800696976025</v>
       </c>
       <c r="H42" t="n">
-        <v>0.73</v>
+        <v>0.37</v>
       </c>
       <c r="I42" t="n">
-        <v>2775042</v>
+        <v>2757332</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1277605382</v>
+        <v>1290711875</v>
       </c>
       <c r="E43" t="n">
-        <v>6126379455</v>
+        <v>6189227770</v>
       </c>
       <c r="F43" t="n">
-        <v>44659.30982230746</v>
+        <v>43116.01489547909</v>
       </c>
       <c r="G43" t="n">
-        <v>62728.49235377933</v>
+        <v>64988.66685124599</v>
       </c>
       <c r="H43" t="n">
         <v>0.1</v>
       </c>
       <c r="I43" t="n">
-        <v>178143256</v>
+        <v>177848034</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6048126061</v>
+        <v>6054687289</v>
       </c>
       <c r="E44" t="n">
-        <v>6048126061</v>
+        <v>6054687289</v>
       </c>
       <c r="F44" t="n">
-        <v>682159.8153449319</v>
+        <v>676997.3642606116</v>
       </c>
       <c r="G44" t="n">
-        <v>1779594.036068934</v>
+        <v>1784874.859863406</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>99593565</v>
+        <v>100712068</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>265249734</v>
+        <v>267352893</v>
       </c>
       <c r="E45" t="n">
-        <v>1144965104</v>
+        <v>1154043507</v>
       </c>
       <c r="F45" t="n">
-        <v>98889.26139683294</v>
+        <v>119806.5594011978</v>
       </c>
       <c r="G45" t="n">
-        <v>104481.8807174257</v>
+        <v>89010.32511248317</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>111566985</v>
+        <v>111272803</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113895501</v>
+        <v>113992368</v>
       </c>
       <c r="E46" t="n">
-        <v>113895501</v>
+        <v>113992368</v>
       </c>
       <c r="F46" t="n">
-        <v>33049.47776558183</v>
+        <v>38709.4354795759</v>
       </c>
       <c r="G46" t="n">
-        <v>41535.43324301767</v>
+        <v>32671.32105817873</v>
       </c>
       <c r="H46" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="I46" t="n">
-        <v>6015505</v>
+        <v>6024493</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2041088721</v>
+        <v>2045572557</v>
       </c>
       <c r="E47" t="n">
-        <v>2041088721</v>
+        <v>2045572557</v>
       </c>
       <c r="F47" t="n">
-        <v>175146.3869743628</v>
+        <v>225934.6990904326</v>
       </c>
       <c r="G47" t="n">
-        <v>148430.2144413153</v>
+        <v>199247.5738558568</v>
       </c>
       <c r="H47" t="n">
         <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>5797021948</v>
+        <v>5308426787</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9836935</v>
+        <v>9806141</v>
       </c>
       <c r="F48" t="n">
-        <v>7257.466327487589</v>
+        <v>6792.26912818896</v>
       </c>
       <c r="G48" t="n">
-        <v>5489.135115815453</v>
+        <v>5840.269897362527</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>171083</v>
+        <v>171448</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4385071</v>
+        <v>4401740</v>
       </c>
       <c r="E49" t="n">
-        <v>5757026</v>
+        <v>5778911</v>
       </c>
       <c r="F49" t="n">
-        <v>14860.78498268259</v>
+        <v>12884.90727623092</v>
       </c>
       <c r="G49" t="n">
-        <v>16588.97907836899</v>
+        <v>9799.233531938879</v>
       </c>
       <c r="H49" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="I49" t="n">
-        <v>614106</v>
+        <v>592299</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11605980</v>
+        <v>11721385</v>
       </c>
       <c r="E50" t="n">
-        <v>17066374</v>
+        <v>17236075</v>
       </c>
       <c r="F50" t="n">
-        <v>6650.140114486583</v>
+        <v>2484.508629082849</v>
       </c>
       <c r="G50" t="n">
-        <v>21684.47000461601</v>
+        <v>26625.36323886408</v>
       </c>
       <c r="H50" t="n">
         <v>0.06</v>
       </c>
       <c r="I50" t="n">
-        <v>1232103</v>
+        <v>1304760</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22374964</v>
+        <v>22402228</v>
       </c>
       <c r="E51" t="n">
-        <v>29025447</v>
+        <v>29060814</v>
       </c>
       <c r="F51" t="n">
-        <v>14636.73982896053</v>
+        <v>14911.97839188834</v>
       </c>
       <c r="G51" t="n">
-        <v>10379.1085307558</v>
+        <v>11041.17227419993</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>162900</v>
+        <v>155171</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14105313</v>
+        <v>14138725</v>
       </c>
       <c r="E52" t="n">
-        <v>14105313</v>
+        <v>14138725</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4508227</v>
+        <v>4558682</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98637419</v>
+        <v>98349151</v>
       </c>
       <c r="E53" t="n">
-        <v>122010957</v>
+        <v>121654380</v>
       </c>
       <c r="F53" t="n">
-        <v>523.2344461600686</v>
+        <v>417.9479104165758</v>
       </c>
       <c r="G53" t="n">
-        <v>4884.447380134287</v>
+        <v>3682.385655730074</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="I53" t="n">
-        <v>788747</v>
+        <v>785193</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5132188</v>
+        <v>5130815</v>
       </c>
       <c r="E54" t="n">
-        <v>7180675</v>
+        <v>7178754</v>
       </c>
       <c r="F54" t="n">
-        <v>133.1991364811982</v>
+        <v>104.3888093575989</v>
       </c>
       <c r="G54" t="n">
-        <v>481.0513342419817</v>
+        <v>131.6336442922525</v>
       </c>
       <c r="H54" t="n">
-        <v>2.66</v>
+        <v>1.61</v>
       </c>
       <c r="I54" t="n">
-        <v>110051</v>
+        <v>108489</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13923901</v>
+        <v>13974490</v>
       </c>
       <c r="E55" t="n">
-        <v>67435677</v>
+        <v>67680687</v>
       </c>
       <c r="F55" t="n">
-        <v>25040.08310371645</v>
+        <v>28022.11808211257</v>
       </c>
       <c r="G55" t="n">
-        <v>30320.59467314889</v>
+        <v>27617.88728482966</v>
       </c>
       <c r="H55" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="I55" t="n">
-        <v>3611753</v>
+        <v>3627561</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>61406</v>
+        <v>61349</v>
       </c>
       <c r="E56" t="n">
-        <v>147081</v>
+        <v>146945</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4659.52</v>
+        <v>4658.55</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1883239490</v>
+        <v>1891861931</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>25883314</v>
+        <v>25912253</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12163026</v>
+        <v>12196756</v>
       </c>
       <c r="E58" t="n">
-        <v>17634632</v>
+        <v>17683537</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2168356</v>
+        <v>2122229</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123911754</v>
+        <v>123763005</v>
       </c>
       <c r="E59" t="n">
-        <v>329534627</v>
+        <v>329139042</v>
       </c>
       <c r="F59" t="n">
-        <v>6086.155258469613</v>
+        <v>3898.877355158662</v>
       </c>
       <c r="G59" t="n">
-        <v>9776.961907841604</v>
+        <v>10119.61089285334</v>
       </c>
       <c r="H59" t="n">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="I59" t="n">
-        <v>1366798</v>
+        <v>1355847</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32003671</v>
+        <v>32319999</v>
       </c>
       <c r="E60" t="n">
-        <v>99649163</v>
+        <v>100634107</v>
       </c>
       <c r="F60" t="n">
-        <v>5832.547054929903</v>
+        <v>4671.027843840838</v>
       </c>
       <c r="G60" t="n">
-        <v>6483.048589675373</v>
+        <v>5091.900275801684</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="I60" t="n">
-        <v>12015102</v>
+        <v>12114975</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2068869</v>
+        <v>2058386</v>
       </c>
       <c r="E61" t="n">
-        <v>14835654</v>
+        <v>14760484</v>
       </c>
       <c r="F61" t="n">
-        <v>2872.56798620635</v>
+        <v>1368.963215106693</v>
       </c>
       <c r="G61" t="n">
-        <v>5017.280415433665</v>
+        <v>4999.115951034061</v>
       </c>
       <c r="H61" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="I61" t="n">
-        <v>1933205</v>
+        <v>1933392</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>201716417</v>
+        <v>202645526</v>
       </c>
       <c r="E62" t="n">
-        <v>1142242295</v>
+        <v>1147503482</v>
       </c>
       <c r="F62" t="n">
-        <v>666126.5402265016</v>
+        <v>737724.7804701744</v>
       </c>
       <c r="G62" t="n">
-        <v>882260.2497876177</v>
+        <v>792417.6494106341</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>63045443</v>
+        <v>63654193</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>504625</v>
+        <v>506409</v>
       </c>
       <c r="E63" t="n">
-        <v>1698498</v>
+        <v>1704503</v>
       </c>
       <c r="F63" t="n">
-        <v>4673.672969342684</v>
+        <v>4637.88081287807</v>
       </c>
       <c r="G63" t="n">
-        <v>359.3476405033581</v>
+        <v>410.2401152903464</v>
       </c>
       <c r="H63" t="n">
         <v>0.53</v>
       </c>
       <c r="I63" t="n">
-        <v>630133</v>
+        <v>629201</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>341601</v>
+        <v>343173</v>
       </c>
       <c r="E64" t="n">
-        <v>341601</v>
+        <v>343173</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6464.08</v>
+        <v>6463.8</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>138871838</v>
+        <v>139245899</v>
       </c>
       <c r="E65" t="n">
-        <v>1028680282</v>
+        <v>1031451102</v>
       </c>
       <c r="F65" t="n">
-        <v>37703.49849264265</v>
+        <v>38266.68144947619</v>
       </c>
       <c r="G65" t="n">
-        <v>37544.70570431188</v>
+        <v>35507.95171926734</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I65" t="n">
-        <v>11161935</v>
+        <v>11025381</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8153848</v>
+        <v>8178038</v>
       </c>
       <c r="E66" t="n">
-        <v>10923437</v>
+        <v>10955844</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59261</v>
+        <v>60619</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25244003</v>
+        <v>25456291</v>
       </c>
       <c r="E67" t="n">
-        <v>25244003</v>
+        <v>25456291</v>
       </c>
       <c r="F67" t="n">
-        <v>7660.179680408863</v>
+        <v>4882.799254654888</v>
       </c>
       <c r="G67" t="n">
-        <v>6742.660309225308</v>
+        <v>4370.973139213815</v>
       </c>
       <c r="H67" t="n">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="I67" t="n">
-        <v>325750</v>
+        <v>324321</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1546762</v>
+        <v>1543792</v>
       </c>
       <c r="E68" t="n">
-        <v>12013316</v>
+        <v>11990246</v>
       </c>
       <c r="F68" t="n">
-        <v>680.043162401197</v>
+        <v>848.1460104988131</v>
       </c>
       <c r="G68" t="n">
-        <v>26841.83122709806</v>
+        <v>21999.15874845468</v>
       </c>
       <c r="H68" t="n">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>515517</v>
+        <v>525139</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>336846659</v>
+        <v>338303596</v>
       </c>
       <c r="E69" t="n">
-        <v>3030481416</v>
+        <v>3043588927</v>
       </c>
       <c r="F69" t="n">
-        <v>1457942.695658626</v>
+        <v>1462968.772415622</v>
       </c>
       <c r="G69" t="n">
-        <v>1604841.759988261</v>
+        <v>1261606.133796219</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>36997921</v>
+        <v>37619361</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>259640</v>
+        <v>258955</v>
       </c>
       <c r="E70" t="n">
-        <v>2291520</v>
+        <v>2285472</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>72643</v>
+        <v>71832</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1588820</v>
+        <v>1587680</v>
       </c>
       <c r="E71" t="n">
-        <v>13240170</v>
+        <v>13230671</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>44342</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9019786</v>
+        <v>9115095</v>
       </c>
       <c r="E72" t="n">
-        <v>41807225</v>
+        <v>42248990</v>
       </c>
       <c r="F72" t="n">
-        <v>6105.482614561976</v>
+        <v>6146.512689931054</v>
       </c>
       <c r="G72" t="n">
-        <v>10032.81119322044</v>
+        <v>8084.758342415555</v>
       </c>
       <c r="H72" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I72" t="n">
-        <v>105156</v>
+        <v>111146</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42739895</v>
+        <v>43086446</v>
       </c>
       <c r="E73" t="n">
-        <v>247446334</v>
+        <v>249452719</v>
       </c>
       <c r="F73" t="n">
-        <v>128423.5230679545</v>
+        <v>149843.3882636574</v>
       </c>
       <c r="G73" t="n">
-        <v>176826.6240818312</v>
+        <v>175558.2434248982</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>11130925</v>
+        <v>11309827</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39281917</v>
+        <v>39260369</v>
       </c>
       <c r="E74" t="n">
-        <v>54253921</v>
+        <v>54224160</v>
       </c>
       <c r="F74" t="n">
-        <v>788.8300124850676</v>
+        <v>10824.31458109014</v>
       </c>
       <c r="G74" t="n">
-        <v>525.6587077780208</v>
+        <v>10470.81006873021</v>
       </c>
       <c r="H74" t="n">
-        <v>0.77</v>
+        <v>0.31</v>
       </c>
       <c r="I74" t="n">
-        <v>371171</v>
+        <v>371376</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>94102</v>
+        <v>96055</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>908.52</v>
+        <v>927.37</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13643912</v>
+        <v>13600807</v>
       </c>
       <c r="E76" t="n">
-        <v>13690344</v>
+        <v>13647092</v>
       </c>
       <c r="F76" t="n">
-        <v>1272.139631491855</v>
+        <v>1331.474757496299</v>
       </c>
       <c r="G76" t="n">
-        <v>6857.171637420725</v>
+        <v>7462.034104601124</v>
       </c>
       <c r="H76" t="n">
         <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>5841919</v>
+        <v>5869136</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42858150</v>
+        <v>42897979</v>
       </c>
       <c r="E77" t="n">
-        <v>72763167</v>
+        <v>72830789</v>
       </c>
       <c r="F77" t="n">
-        <v>6307.054359824184</v>
+        <v>5515.039938811908</v>
       </c>
       <c r="G77" t="n">
-        <v>5119.117002024173</v>
+        <v>5922.796321981924</v>
       </c>
       <c r="H77" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I77" t="n">
-        <v>1097433</v>
+        <v>1094089</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>24380338</v>
+        <v>24666655</v>
       </c>
       <c r="E78" t="n">
-        <v>73079396</v>
+        <v>73937624</v>
       </c>
       <c r="F78" t="n">
-        <v>139397.475893808</v>
+        <v>130887.7497741216</v>
       </c>
       <c r="G78" t="n">
-        <v>135805.9446882827</v>
+        <v>116916.5362357848</v>
       </c>
       <c r="H78" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
       <c r="I78" t="n">
-        <v>2681460</v>
+        <v>2721746</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101136135</v>
+        <v>101326383</v>
       </c>
       <c r="E79" t="n">
-        <v>107516852</v>
+        <v>107719103</v>
       </c>
       <c r="F79" t="n">
-        <v>1860.990573139627</v>
+        <v>2777.776819659302</v>
       </c>
       <c r="G79" t="n">
-        <v>3796.949497293406</v>
+        <v>4118.356782482958</v>
       </c>
       <c r="H79" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="I79" t="n">
-        <v>900901</v>
+        <v>900893</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10626147</v>
+        <v>10624710</v>
       </c>
       <c r="E80" t="n">
-        <v>46196842</v>
+        <v>46195848</v>
       </c>
       <c r="F80" t="n">
-        <v>5828.773765174341</v>
+        <v>5870.314717995154</v>
       </c>
       <c r="G80" t="n">
-        <v>5249.654883884847</v>
+        <v>5857.458088017765</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="I80" t="n">
-        <v>106983</v>
+        <v>107298</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15051193</v>
+        <v>15056072</v>
       </c>
       <c r="E81" t="n">
-        <v>92253714</v>
+        <v>92283619</v>
       </c>
       <c r="F81" t="n">
-        <v>4026.732658864818</v>
+        <v>4030.963246066517</v>
       </c>
       <c r="G81" t="n">
-        <v>16088.83561336419</v>
+        <v>6064.009435209215</v>
       </c>
       <c r="H81" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I81" t="n">
-        <v>11852928</v>
+        <v>11680697</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1497420</v>
+        <v>1496289</v>
       </c>
       <c r="E82" t="n">
-        <v>1539541</v>
+        <v>1538378</v>
       </c>
       <c r="F82" t="n">
-        <v>6540.047923857692</v>
+        <v>6830.450215366773</v>
       </c>
       <c r="G82" t="n">
-        <v>5830.616566073118</v>
+        <v>5830.473368040136</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>126920</v>
+        <v>125643</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>46781247</v>
+        <v>46995983</v>
       </c>
       <c r="E83" t="n">
-        <v>201528498</v>
+        <v>202453556</v>
       </c>
       <c r="F83" t="n">
-        <v>2902.371889264343</v>
+        <v>3349.65115486336</v>
       </c>
       <c r="G83" t="n">
-        <v>4656.677981630105</v>
+        <v>4493.810258209352</v>
       </c>
       <c r="H83" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I83" t="n">
-        <v>8626321</v>
+        <v>8744719</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1670289</v>
+        <v>1658179</v>
       </c>
       <c r="E84" t="n">
-        <v>6069451</v>
+        <v>6025421</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>128947</v>
+        <v>127963</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8659076</v>
+        <v>8977159</v>
       </c>
       <c r="E85" t="n">
-        <v>19227802</v>
+        <v>19934118</v>
       </c>
       <c r="F85" t="n">
-        <v>5961.712493965417</v>
+        <v>4735.057899669243</v>
       </c>
       <c r="G85" t="n">
-        <v>5487.247364829045</v>
+        <v>8211.963899971593</v>
       </c>
       <c r="H85" t="n">
-        <v>2.07</v>
+        <v>0.8</v>
       </c>
       <c r="I85" t="n">
-        <v>401896</v>
+        <v>354001</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2449696</v>
+        <v>2451928</v>
       </c>
       <c r="E86" t="n">
-        <v>18433797</v>
+        <v>18450593</v>
       </c>
       <c r="F86" t="n">
-        <v>6318.473313402426</v>
+        <v>6345.490104102669</v>
       </c>
       <c r="G86" t="n">
-        <v>12678.46864758363</v>
+        <v>12838.69879833552</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>162300</v>
+        <v>161877</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21107780</v>
+        <v>20817886</v>
       </c>
       <c r="E87" t="n">
-        <v>84431119</v>
+        <v>83271542</v>
       </c>
       <c r="F87" t="n">
-        <v>15870.32931629199</v>
+        <v>25322.71872402525</v>
       </c>
       <c r="G87" t="n">
-        <v>1261.10992981607</v>
+        <v>2532.27859554066</v>
       </c>
       <c r="H87" t="n">
-        <v>1.66</v>
+        <v>1.08</v>
       </c>
       <c r="I87" t="n">
-        <v>6088675</v>
+        <v>5988192</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4256066</v>
+        <v>4295562</v>
       </c>
       <c r="E88" t="n">
-        <v>4256066</v>
+        <v>4295562</v>
       </c>
       <c r="F88" t="n">
-        <v>212.4651195079515</v>
+        <v>479.4414488557365</v>
       </c>
       <c r="G88" t="n">
-        <v>908.7692144421972</v>
+        <v>1230.437297567736</v>
       </c>
       <c r="H88" t="n">
-        <v>0.16</v>
+        <v>0.78</v>
       </c>
       <c r="I88" t="n">
-        <v>2507776</v>
+        <v>2509490</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12770450</v>
+        <v>12788656</v>
       </c>
       <c r="E89" t="n">
-        <v>40401557</v>
+        <v>40459155</v>
       </c>
       <c r="F89" t="n">
-        <v>24460.59605122694</v>
+        <v>24913.13329250348</v>
       </c>
       <c r="G89" t="n">
-        <v>13116.99277676539</v>
+        <v>11710.64989186797</v>
       </c>
       <c r="H89" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="I89" t="n">
-        <v>1398645</v>
+        <v>1396512</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26607</v>
+        <v>26721</v>
       </c>
       <c r="E90" t="n">
-        <v>209255</v>
+        <v>210153</v>
       </c>
       <c r="F90" t="n">
-        <v>5944.045427482408</v>
+        <v>5765.882588783314</v>
       </c>
       <c r="G90" t="n">
-        <v>506.3241951181752</v>
+        <v>483.4092762773777</v>
       </c>
       <c r="H90" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="I90" t="n">
-        <v>131625</v>
+        <v>131379</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8168621</v>
+        <v>8185897</v>
       </c>
       <c r="E91" t="n">
-        <v>8168621</v>
+        <v>8185897</v>
       </c>
       <c r="F91" t="n">
-        <v>3507.934865462413</v>
+        <v>3627.78625225413</v>
       </c>
       <c r="G91" t="n">
-        <v>3659.910951327399</v>
+        <v>4123.168159234961</v>
       </c>
       <c r="H91" t="n">
         <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>3473941</v>
+        <v>3523828</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9168553</v>
+        <v>9282986</v>
       </c>
       <c r="E92" t="n">
-        <v>9168553</v>
+        <v>9282986</v>
       </c>
       <c r="F92" t="n">
-        <v>3452.602697496043</v>
+        <v>5299.952014283</v>
       </c>
       <c r="G92" t="n">
-        <v>5047.299248626998</v>
+        <v>4642.758016918468</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I92" t="n">
-        <v>2905378</v>
+        <v>2859757</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37138118</v>
+        <v>37251341</v>
       </c>
       <c r="E93" t="n">
-        <v>93644503</v>
+        <v>93929998</v>
       </c>
       <c r="F93" t="n">
-        <v>5550.292571649312</v>
+        <v>6366.852668880355</v>
       </c>
       <c r="G93" t="n">
-        <v>5589.946694198626</v>
+        <v>5430.419627990773</v>
       </c>
       <c r="H93" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="I93" t="n">
-        <v>3048393</v>
+        <v>3061329</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>299021655</v>
+        <v>301773536</v>
       </c>
       <c r="E94" t="n">
-        <v>303695187</v>
+        <v>306488198</v>
       </c>
       <c r="F94" t="n">
-        <v>48645.3562747138</v>
+        <v>27955.51173190237</v>
       </c>
       <c r="G94" t="n">
-        <v>6257.338936184969</v>
+        <v>6910.789843521889</v>
       </c>
       <c r="H94" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I94" t="n">
-        <v>11842430</v>
+        <v>12235416</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>862.844763102047</v>
+        <v>945.6605696846062</v>
       </c>
       <c r="G95" t="n">
-        <v>6572.185441925417</v>
+        <v>6414.106410958615</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I95" t="n">
-        <v>220030</v>
+        <v>222464</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>79228102</v>
+        <v>78791914</v>
       </c>
       <c r="E96" t="n">
-        <v>79228102</v>
+        <v>78791914</v>
       </c>
       <c r="F96" t="n">
-        <v>15338.95859987752</v>
+        <v>16491.43145286347</v>
       </c>
       <c r="G96" t="n">
-        <v>7301.698803855563</v>
+        <v>5321.318111806895</v>
       </c>
       <c r="H96" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="I96" t="n">
-        <v>4905989</v>
+        <v>4893265</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>301362105</v>
+        <v>303599416</v>
       </c>
       <c r="E97" t="n">
-        <v>301362105</v>
+        <v>303599416</v>
       </c>
       <c r="F97" t="n">
-        <v>429496.8962902002</v>
+        <v>325877.5817657897</v>
       </c>
       <c r="G97" t="n">
-        <v>441297.0313253379</v>
+        <v>430959.8959027798</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>49929911</v>
+        <v>50607010</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4222191</v>
+        <v>4234262</v>
       </c>
       <c r="E98" t="n">
-        <v>28849936</v>
+        <v>28932411</v>
       </c>
       <c r="F98" t="n">
-        <v>4585.64612563495</v>
+        <v>26870.2183495531</v>
       </c>
       <c r="G98" t="n">
-        <v>21989.41862661462</v>
+        <v>28227.80893684989</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2578449</v>
+        <v>2573141</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>88925036</v>
+        <v>89437696</v>
       </c>
       <c r="E99" t="n">
-        <v>512424410</v>
+        <v>515378581</v>
       </c>
       <c r="F99" t="n">
-        <v>135989.6252717685</v>
+        <v>158154.5081038135</v>
       </c>
       <c r="G99" t="n">
-        <v>144081.3177851953</v>
+        <v>148458.94824617</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>16020107</v>
+        <v>16064550</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107850906</v>
+        <v>107943307</v>
       </c>
       <c r="E100" t="n">
-        <v>265355366</v>
+        <v>265582707</v>
       </c>
       <c r="F100" t="n">
-        <v>26866.18595784983</v>
+        <v>24640.64346676375</v>
       </c>
       <c r="G100" t="n">
-        <v>45528.59202190927</v>
+        <v>47629.70670346901</v>
       </c>
       <c r="H100" t="n">
         <v>0.15</v>
       </c>
       <c r="I100" t="n">
-        <v>2217992</v>
+        <v>2371887</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>247651560</v>
+        <v>248510567</v>
       </c>
       <c r="E101" t="n">
-        <v>247654020</v>
+        <v>248513036</v>
       </c>
       <c r="F101" t="n">
-        <v>11697.03773734785</v>
+        <v>8910.430137079155</v>
       </c>
       <c r="G101" t="n">
-        <v>13163.0089266655</v>
+        <v>16759.59881941801</v>
       </c>
       <c r="H101" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="I101" t="n">
-        <v>2703817</v>
+        <v>2707732</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30554951</v>
+        <v>30550764</v>
       </c>
       <c r="E102" t="n">
-        <v>136807051</v>
+        <v>136788303</v>
       </c>
       <c r="F102" t="n">
-        <v>114287.3878128032</v>
+        <v>101284.2334947797</v>
       </c>
       <c r="G102" t="n">
-        <v>131264.2498355843</v>
+        <v>131917.9971116029</v>
       </c>
       <c r="H102" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I102" t="n">
-        <v>8769925</v>
+        <v>8938952</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3158542</v>
+        <v>3195308</v>
       </c>
       <c r="E103" t="n">
-        <v>3158542</v>
+        <v>3195308</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>417575</v>
+        <v>427591</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6033662</v>
+        <v>5989787</v>
       </c>
       <c r="E104" t="n">
-        <v>15835370</v>
+        <v>15720221</v>
       </c>
       <c r="F104" t="n">
-        <v>8742.115025852216</v>
+        <v>8807.023665927458</v>
       </c>
       <c r="G104" t="n">
-        <v>3825.92642472672</v>
+        <v>3825.671415196469</v>
       </c>
       <c r="H104" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="I104" t="n">
-        <v>74002</v>
+        <v>73568</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17106715</v>
+        <v>17137290</v>
       </c>
       <c r="E105" t="n">
-        <v>78961606</v>
+        <v>79102990</v>
       </c>
       <c r="F105" t="n">
-        <v>57460.09163881916</v>
+        <v>85660.39644200662</v>
       </c>
       <c r="G105" t="n">
-        <v>45465.62598713788</v>
+        <v>39535.76909309252</v>
       </c>
       <c r="H105" t="n">
         <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>1050736</v>
+        <v>950856</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47548565</v>
+        <v>47735490</v>
       </c>
       <c r="E106" t="n">
-        <v>308339790</v>
+        <v>309551947</v>
       </c>
       <c r="F106" t="n">
-        <v>106741.4663523399</v>
+        <v>87554.85625477483</v>
       </c>
       <c r="G106" t="n">
-        <v>160063.4365757105</v>
+        <v>171828.8762259889</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>16978500</v>
+        <v>17247420</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2573961</v>
+        <v>2562816</v>
       </c>
       <c r="E107" t="n">
-        <v>4663215</v>
+        <v>4643024</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>99576</v>
+        <v>99574</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125331142</v>
+        <v>125393914</v>
       </c>
       <c r="E108" t="n">
-        <v>2075586366</v>
+        <v>2076625919</v>
       </c>
       <c r="F108" t="n">
-        <v>211650.1674075371</v>
+        <v>231254.3973684706</v>
       </c>
       <c r="G108" t="n">
-        <v>118240.0493475003</v>
+        <v>127796.4471855631</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5085998</v>
+        <v>5082422</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23395304</v>
+        <v>23518870</v>
       </c>
       <c r="E109" t="n">
-        <v>139978809</v>
+        <v>140718128</v>
       </c>
       <c r="F109" t="n">
-        <v>40594.1177157764</v>
+        <v>40155.26122870894</v>
       </c>
       <c r="G109" t="n">
-        <v>39801.53311961629</v>
+        <v>40385.95280133166</v>
       </c>
       <c r="H109" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I109" t="n">
-        <v>12774941</v>
+        <v>13168269</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1015047</v>
+        <v>1019631</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>67436</v>
+        <v>65511</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2263101</v>
+        <v>2263265</v>
       </c>
       <c r="F111" t="n">
-        <v>3839.47334825253</v>
+        <v>2645.422405179645</v>
       </c>
       <c r="G111" t="n">
-        <v>316.6249314584128</v>
+        <v>205.0962539491167</v>
       </c>
       <c r="H111" t="n">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="I111" t="n">
-        <v>208811</v>
+        <v>208335</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142478730</v>
+        <v>142346538</v>
       </c>
       <c r="F112" t="n">
-        <v>3147.114166487591</v>
+        <v>3147.209717194085</v>
       </c>
       <c r="G112" t="n">
-        <v>909.7187489167682</v>
+        <v>909.7463692268593</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>51096</v>
+        <v>49728</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6695600</v>
+        <v>6752691</v>
       </c>
       <c r="E113" t="n">
-        <v>34446830</v>
+        <v>34740544</v>
       </c>
       <c r="F113" t="n">
-        <v>1525.133321731226</v>
+        <v>962.3937037738173</v>
       </c>
       <c r="G113" t="n">
-        <v>1263.756705462361</v>
+        <v>967.4527230886788</v>
       </c>
       <c r="H113" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="I113" t="n">
-        <v>888521</v>
+        <v>835649</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29057808</v>
+        <v>29145753</v>
       </c>
       <c r="E114" t="n">
-        <v>39843335</v>
+        <v>39963923</v>
       </c>
       <c r="F114" t="n">
-        <v>5308.518163375777</v>
+        <v>967.5790982491953</v>
       </c>
       <c r="G114" t="n">
-        <v>3452.658821135614</v>
+        <v>2365.990440004344</v>
       </c>
       <c r="H114" t="n">
         <v>0.25</v>
       </c>
       <c r="I114" t="n">
-        <v>275546</v>
+        <v>283176</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8040529</v>
+        <v>8057917</v>
       </c>
       <c r="F115" t="n">
-        <v>673.4276661631927</v>
+        <v>481.775453118175</v>
       </c>
       <c r="G115" t="n">
-        <v>6649.956685885018</v>
+        <v>6813.376868467027</v>
       </c>
       <c r="H115" t="n">
         <v>0.45</v>
       </c>
       <c r="I115" t="n">
-        <v>682598</v>
+        <v>583506</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3309405</v>
+        <v>3309825</v>
       </c>
       <c r="E116" t="n">
-        <v>4433157</v>
+        <v>4433719</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>147306</v>
+        <v>148125</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33988597</v>
+        <v>33972620</v>
       </c>
       <c r="E117" t="n">
-        <v>169618768</v>
+        <v>169539035</v>
       </c>
       <c r="F117" t="n">
-        <v>75759.65815102885</v>
+        <v>79019.15116158368</v>
       </c>
       <c r="G117" t="n">
-        <v>70103.11816238088</v>
+        <v>72359.2244880357</v>
       </c>
       <c r="H117" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I117" t="n">
-        <v>10009759</v>
+        <v>10078678</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3449230</v>
+        <v>3443316</v>
       </c>
       <c r="E118" t="n">
-        <v>4955147</v>
+        <v>4946650</v>
       </c>
       <c r="F118" t="n">
-        <v>747.2594508632443</v>
+        <v>747.2821386860202</v>
       </c>
       <c r="G118" t="n">
-        <v>898.1230115915291</v>
+        <v>898.1029815995225</v>
       </c>
       <c r="H118" t="n">
         <v>0.6</v>
       </c>
       <c r="I118" t="n">
-        <v>137491</v>
+        <v>136926</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>312424963</v>
+        <v>313491392</v>
       </c>
       <c r="E119" t="n">
-        <v>578057430</v>
+        <v>580030566</v>
       </c>
       <c r="F119" t="n">
-        <v>135104.2099037197</v>
+        <v>99855.47047167791</v>
       </c>
       <c r="G119" t="n">
-        <v>138850.0218444045</v>
+        <v>109989.9432044562</v>
       </c>
       <c r="H119" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I119" t="n">
-        <v>12795003</v>
+        <v>12899734</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71294071</v>
+        <v>71353849</v>
       </c>
       <c r="E120" t="n">
-        <v>680215086</v>
+        <v>680778703</v>
       </c>
       <c r="F120" t="n">
-        <v>2902.081427056735</v>
+        <v>3796.828374464236</v>
       </c>
       <c r="G120" t="n">
-        <v>40581.21490626843</v>
+        <v>41291.39867026648</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I120" t="n">
-        <v>21171505</v>
+        <v>21205541</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38028079</v>
+        <v>38056270</v>
       </c>
       <c r="E121" t="n">
-        <v>49721548</v>
+        <v>49758326</v>
       </c>
       <c r="F121" t="n">
-        <v>222.9008595291385</v>
+        <v>193.6687817347913</v>
       </c>
       <c r="G121" t="n">
-        <v>6504.056974388895</v>
+        <v>513.8903055569983</v>
       </c>
       <c r="H121" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="I121" t="n">
-        <v>432143</v>
+        <v>433079</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9378647</v>
+        <v>9292905</v>
       </c>
       <c r="E122" t="n">
-        <v>27832941</v>
+        <v>27578485</v>
       </c>
       <c r="F122" t="n">
-        <v>1678.092660050754</v>
+        <v>383.7641251907332</v>
       </c>
       <c r="G122" t="n">
-        <v>7183.998445216694</v>
+        <v>5442.121974656111</v>
       </c>
       <c r="H122" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="I122" t="n">
-        <v>5796470</v>
+        <v>5778910</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2238418</v>
+        <v>2241162</v>
       </c>
       <c r="E123" t="n">
-        <v>7659529</v>
+        <v>7668921</v>
       </c>
       <c r="F123" t="n">
-        <v>415.9452373400451</v>
+        <v>438.3575593923039</v>
       </c>
       <c r="G123" t="n">
-        <v>1403.942667186906</v>
+        <v>1345.048817840623</v>
       </c>
       <c r="H123" t="n">
         <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>806844</v>
+        <v>807294</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7386600</v>
+        <v>7319344</v>
       </c>
       <c r="E124" t="n">
-        <v>7386611</v>
+        <v>7319355</v>
       </c>
       <c r="F124" t="n">
-        <v>265.0428864455035</v>
+        <v>45.20326396471658</v>
       </c>
       <c r="G124" t="n">
-        <v>1234.26732690344</v>
+        <v>885.9908425190404</v>
       </c>
       <c r="H124" t="n">
-        <v>2.18</v>
+        <v>0.73</v>
       </c>
       <c r="I124" t="n">
-        <v>346689</v>
+        <v>344834</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6047568</v>
+        <v>6047097</v>
       </c>
       <c r="E125" t="n">
-        <v>6047568</v>
+        <v>6047097</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>276928</v>
+        <v>499517</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6201288</v>
+        <v>6210683</v>
       </c>
       <c r="E126" t="n">
-        <v>22650905</v>
+        <v>22685223</v>
       </c>
       <c r="F126" t="n">
-        <v>5958.108452666474</v>
+        <v>5958.289349018467</v>
       </c>
       <c r="G126" t="n">
-        <v>1789.868262003841</v>
+        <v>1837.221544411166</v>
       </c>
       <c r="H126" t="n">
         <v>0.84</v>
       </c>
       <c r="I126" t="n">
-        <v>525137</v>
+        <v>529873</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44738332</v>
+        <v>44916895</v>
       </c>
       <c r="E127" t="n">
-        <v>44738332</v>
+        <v>44916895</v>
       </c>
       <c r="F127" t="n">
-        <v>63099.45268340701</v>
+        <v>53954.4146801344</v>
       </c>
       <c r="G127" t="n">
-        <v>77943.90533212923</v>
+        <v>93816.56047914492</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I127" t="n">
-        <v>8130830</v>
+        <v>8995665</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>147465377</v>
+        <v>146682199</v>
       </c>
       <c r="F128" t="n">
-        <v>5192.92822284613</v>
+        <v>5180.487792008492</v>
       </c>
       <c r="G128" t="n">
-        <v>495.8825175141336</v>
+        <v>486.2133312224723</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1497771</v>
+        <v>1543560</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3032771</v>
+        <v>3042455</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72107</v>
+        <v>72277</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20700042</v>
+        <v>20725945</v>
       </c>
       <c r="F130" t="n">
-        <v>731.5260337253454</v>
+        <v>383.993632332426</v>
       </c>
       <c r="G130" t="n">
-        <v>235.84316964012</v>
+        <v>489.3105315799463</v>
       </c>
       <c r="H130" t="n">
-        <v>1.82</v>
+        <v>0.96</v>
       </c>
       <c r="I130" t="n">
-        <v>2874854</v>
+        <v>2895421</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1237026</v>
+        <v>1243428</v>
       </c>
       <c r="E131" t="n">
-        <v>3742665</v>
+        <v>3761827</v>
       </c>
       <c r="F131" t="n">
-        <v>797.7763204532348</v>
+        <v>790.8179360846833</v>
       </c>
       <c r="G131" t="n">
-        <v>671.2173186197449</v>
+        <v>746.3297756684112</v>
       </c>
       <c r="H131" t="n">
-        <v>1.32</v>
+        <v>0.79</v>
       </c>
       <c r="I131" t="n">
-        <v>9785.57</v>
+        <v>11209.74</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>598810318</v>
+        <v>601921001</v>
       </c>
       <c r="E132" t="n">
-        <v>2319104014</v>
+        <v>2331151229</v>
       </c>
       <c r="F132" t="n">
-        <v>518298.668598822</v>
+        <v>411304.7759409087</v>
       </c>
       <c r="G132" t="n">
-        <v>718060.0960005267</v>
+        <v>689913.4708186779</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>30932229</v>
+        <v>31670586</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3674181</v>
+        <v>3678626</v>
       </c>
       <c r="E133" t="n">
-        <v>6263140</v>
+        <v>6270717</v>
       </c>
       <c r="F133" t="n">
-        <v>5207.102416107613</v>
+        <v>5275.842916166914</v>
       </c>
       <c r="G133" t="n">
-        <v>5623.005198195953</v>
+        <v>5637.152875765621</v>
       </c>
       <c r="H133" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="I133" t="n">
-        <v>1205470</v>
+        <v>1223156</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118262597</v>
+        <v>118495204</v>
       </c>
       <c r="E134" t="n">
-        <v>1028220592</v>
+        <v>1030242971</v>
       </c>
       <c r="F134" t="n">
-        <v>127815.8268377518</v>
+        <v>126021.2843622635</v>
       </c>
       <c r="G134" t="n">
-        <v>97194.14778180663</v>
+        <v>111308.1793895658</v>
       </c>
       <c r="H134" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I134" t="n">
-        <v>9079837</v>
+        <v>8992510</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1009034168</v>
+        <v>1017741356</v>
       </c>
       <c r="E135" t="n">
-        <v>1108426799</v>
+        <v>1117991669</v>
       </c>
       <c r="F135" t="n">
-        <v>15487.6644295057</v>
+        <v>13462.72669784839</v>
       </c>
       <c r="G135" t="n">
-        <v>17745.67840338992</v>
+        <v>15753.06242370958</v>
       </c>
       <c r="H135" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="I135" t="n">
-        <v>10543151</v>
+        <v>9816695</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1120277</v>
+        <v>1118271</v>
       </c>
       <c r="E136" t="n">
-        <v>4337959</v>
+        <v>4330191</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>435809</v>
+        <v>434297</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>111836884</v>
+        <v>113431989</v>
       </c>
       <c r="E137" t="n">
-        <v>429024287</v>
+        <v>435143366</v>
       </c>
       <c r="F137" t="n">
-        <v>178501.6134645691</v>
+        <v>124646.8251118171</v>
       </c>
       <c r="G137" t="n">
-        <v>214441.4711833244</v>
+        <v>186724.9818402111</v>
       </c>
       <c r="H137" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I137" t="n">
-        <v>20525772</v>
+        <v>18760162</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3151929</v>
+        <v>3150849</v>
       </c>
       <c r="E138" t="n">
-        <v>29864997</v>
+        <v>29854761</v>
       </c>
       <c r="F138" t="n">
-        <v>2738.424633051491</v>
+        <v>2775.095902873414</v>
       </c>
       <c r="G138" t="n">
-        <v>4599.054061108606</v>
+        <v>5035.108395317066</v>
       </c>
       <c r="H138" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="I138" t="n">
-        <v>283265</v>
+        <v>278389</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21766943</v>
+        <v>22573163</v>
       </c>
       <c r="E139" t="n">
-        <v>21766943</v>
+        <v>22573163</v>
       </c>
       <c r="F139" t="n">
-        <v>5141.020793803928</v>
+        <v>1977.898880519804</v>
       </c>
       <c r="G139" t="n">
-        <v>2684.076825950009</v>
+        <v>3499.251377582786</v>
       </c>
       <c r="H139" t="n">
-        <v>1.86</v>
+        <v>0.97</v>
       </c>
       <c r="I139" t="n">
-        <v>527343</v>
+        <v>557940</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494044284</v>
+        <v>495015832</v>
       </c>
       <c r="E140" t="n">
-        <v>494044284</v>
+        <v>495015832</v>
       </c>
       <c r="F140" t="n">
-        <v>963101.5762695675</v>
+        <v>985046.5530057896</v>
       </c>
       <c r="G140" t="n">
-        <v>647281.9002999131</v>
+        <v>825769.467299946</v>
       </c>
       <c r="H140" t="n">
         <v>0.01</v>
       </c>
       <c r="I140" t="n">
-        <v>32985144</v>
+        <v>33092609</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31298742</v>
+        <v>31647242</v>
       </c>
       <c r="F141" t="n">
-        <v>59739.30397914092</v>
+        <v>49769.79092258341</v>
       </c>
       <c r="G141" t="n">
-        <v>62976.94908985071</v>
+        <v>62347.69517416963</v>
       </c>
       <c r="H141" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I141" t="n">
-        <v>5607461</v>
+        <v>5590389</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>764772</v>
+        <v>765202</v>
       </c>
       <c r="E142" t="n">
-        <v>12197845</v>
+        <v>12204698</v>
       </c>
       <c r="F142" t="n">
-        <v>59.21049702269405</v>
+        <v>59.21229473466861</v>
       </c>
       <c r="G142" t="n">
-        <v>40.88964726073535</v>
+        <v>40.89088872656004</v>
       </c>
       <c r="H142" t="n">
         <v>0.08</v>
       </c>
       <c r="I142" t="n">
-        <v>68019</v>
+        <v>66732</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2654629143</v>
+        <v>2649230317</v>
       </c>
       <c r="E143" t="n">
-        <v>2818525407</v>
+        <v>2812793259</v>
       </c>
       <c r="F143" t="n">
-        <v>3536.792445914048</v>
+        <v>3063.069462895235</v>
       </c>
       <c r="G143" t="n">
-        <v>22605.27093461351</v>
+        <v>21511.92210758014</v>
       </c>
       <c r="H143" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I143" t="n">
-        <v>38804972</v>
+        <v>39942015</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1632009</v>
+        <v>1636803</v>
       </c>
       <c r="E144" t="n">
-        <v>1637770</v>
+        <v>1642581</v>
       </c>
       <c r="F144" t="n">
-        <v>604.5677305350974</v>
+        <v>260.7944415258492</v>
       </c>
       <c r="G144" t="n">
-        <v>747.1017693030007</v>
+        <v>322.0027560989793</v>
       </c>
       <c r="H144" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="I144" t="n">
-        <v>391538</v>
+        <v>391119</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61710186</v>
+        <v>61808844</v>
       </c>
       <c r="E145" t="n">
-        <v>151370903</v>
+        <v>151612906</v>
       </c>
       <c r="F145" t="n">
-        <v>3218.989420698413</v>
+        <v>3526.74379819271</v>
       </c>
       <c r="G145" t="n">
-        <v>5181.573791667034</v>
+        <v>4635.491979727885</v>
       </c>
       <c r="H145" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="I145" t="n">
-        <v>22565857</v>
+        <v>22646265</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>698536476</v>
+        <v>730249512</v>
       </c>
       <c r="E146" t="n">
-        <v>1077204921</v>
+        <v>1126109223</v>
       </c>
       <c r="F146" t="n">
-        <v>172455.1691045768</v>
+        <v>148732.1082721523</v>
       </c>
       <c r="G146" t="n">
-        <v>145583.1726733384</v>
+        <v>141540.1750683603</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I146" t="n">
-        <v>162099145</v>
+        <v>203858878</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23360182</v>
+        <v>23375296</v>
       </c>
       <c r="E147" t="n">
-        <v>23360182</v>
+        <v>23375296</v>
       </c>
       <c r="F147" t="n">
-        <v>4768.83789300433</v>
+        <v>4687.091110860862</v>
       </c>
       <c r="G147" t="n">
-        <v>7445.214687137012</v>
+        <v>8262.021551112442</v>
       </c>
       <c r="H147" t="n">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="I147" t="n">
-        <v>6272656</v>
+        <v>6248434</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3831226</v>
+        <v>3816721</v>
       </c>
       <c r="E148" t="n">
-        <v>8359685</v>
+        <v>8328037</v>
       </c>
       <c r="F148" t="n">
-        <v>5499.793179323313</v>
+        <v>5668.459550065938</v>
       </c>
       <c r="G148" t="n">
-        <v>5781.35969120449</v>
+        <v>5783.296097702278</v>
       </c>
       <c r="H148" t="n">
         <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>879010</v>
+        <v>854805</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9353471</v>
+        <v>9357131</v>
       </c>
       <c r="E149" t="n">
-        <v>9353471</v>
+        <v>9357131</v>
       </c>
       <c r="F149" t="n">
-        <v>88934.84109159063</v>
+        <v>80155.1721643901</v>
       </c>
       <c r="G149" t="n">
-        <v>76115.27943684196</v>
+        <v>63707.57129439167</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I149" t="n">
-        <v>3235944</v>
+        <v>3206435</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>490239198</v>
+        <v>491700476</v>
       </c>
       <c r="E150" t="n">
-        <v>1707347613</v>
+        <v>1712436779</v>
       </c>
       <c r="F150" t="n">
-        <v>772667.2970546582</v>
+        <v>747250.2124518116</v>
       </c>
       <c r="G150" t="n">
-        <v>864771.0677574656</v>
+        <v>844850.0919951048</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31227456</v>
+        <v>31423375</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48015970</v>
+        <v>48036000</v>
       </c>
       <c r="E151" t="n">
-        <v>118503834</v>
+        <v>118553276</v>
       </c>
       <c r="F151" t="n">
-        <v>5615.075505944025</v>
+        <v>5615.69650273439</v>
       </c>
       <c r="G151" t="n">
-        <v>8136.984759191245</v>
+        <v>8137.231809219094</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>37920</v>
+        <v>37245</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7652187</v>
+        <v>7672862</v>
       </c>
       <c r="E152" t="n">
-        <v>19879560</v>
+        <v>19933270</v>
       </c>
       <c r="F152" t="n">
-        <v>2234.101063479877</v>
+        <v>1048.619954800921</v>
       </c>
       <c r="G152" t="n">
-        <v>6074.551471995089</v>
+        <v>3979.364983587105</v>
       </c>
       <c r="H152" t="n">
-        <v>1.5</v>
+        <v>1.99</v>
       </c>
       <c r="I152" t="n">
-        <v>681180</v>
+        <v>682377</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19248291431</v>
+        <v>19265771204</v>
       </c>
       <c r="F153" t="n">
-        <v>52448.87156801899</v>
+        <v>52450.4639877623</v>
       </c>
       <c r="G153" t="n">
-        <v>50109.94596611338</v>
+        <v>50111.46737286451</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48871845</v>
+        <v>48948233</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2646553</v>
+        <v>2651647</v>
       </c>
       <c r="E154" t="n">
-        <v>10586212</v>
+        <v>10606587</v>
       </c>
       <c r="F154" t="n">
-        <v>1679.835585199638</v>
+        <v>20686.18778750783</v>
       </c>
       <c r="G154" t="n">
-        <v>23351.91978243404</v>
+        <v>5782.439038943571</v>
       </c>
       <c r="H154" t="n">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="I154" t="n">
-        <v>5141851</v>
+        <v>5306000</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>213619099</v>
+        <v>215292965</v>
       </c>
       <c r="E155" t="n">
-        <v>656798339</v>
+        <v>661944848</v>
       </c>
       <c r="F155" t="n">
-        <v>167588.4288357614</v>
+        <v>170855.2492640781</v>
       </c>
       <c r="G155" t="n">
-        <v>171464.0268424187</v>
+        <v>193538.176724726</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>11480346</v>
+        <v>11523405</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>399793999</v>
+        <v>399760239</v>
       </c>
       <c r="E156" t="n">
-        <v>2284537136</v>
+        <v>2284344225</v>
       </c>
       <c r="F156" t="n">
-        <v>151026.0952596191</v>
+        <v>139272.4760709021</v>
       </c>
       <c r="G156" t="n">
-        <v>248185.5341227199</v>
+        <v>279778.7644165071</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>36530580</v>
+        <v>36553034</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3898119</v>
+        <v>3917024</v>
       </c>
       <c r="F2" t="n">
-        <v>280.1955596315908</v>
+        <v>1227.915039698704</v>
       </c>
       <c r="G2" t="n">
-        <v>1898.648978553375</v>
+        <v>933.1720040534865</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="I2" t="n">
-        <v>104528</v>
+        <v>105544</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>612923731</v>
+        <v>614627615</v>
       </c>
       <c r="E3" t="n">
-        <v>1189276159</v>
+        <v>1192582234</v>
       </c>
       <c r="F3" t="n">
-        <v>66587.09677104083</v>
+        <v>60196.52700798782</v>
       </c>
       <c r="G3" t="n">
-        <v>88775.82422178076</v>
+        <v>83014.98566438755</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>23340975</v>
+        <v>23460884</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246644954</v>
+        <v>246440388</v>
       </c>
       <c r="E4" t="n">
-        <v>1546675836</v>
+        <v>1545393034</v>
       </c>
       <c r="F4" t="n">
-        <v>287145.239326758</v>
+        <v>273351.2246957706</v>
       </c>
       <c r="G4" t="n">
-        <v>289321.2873827813</v>
+        <v>282061.4299657106</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>15544636</v>
+        <v>15559177</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140233214</v>
+        <v>140810553</v>
       </c>
       <c r="E5" t="n">
-        <v>155400799</v>
+        <v>156040584</v>
       </c>
       <c r="F5" t="n">
-        <v>8679.118072076824</v>
+        <v>8767.834304071926</v>
       </c>
       <c r="G5" t="n">
-        <v>306.71839714547</v>
+        <v>912.7576084491782</v>
       </c>
       <c r="H5" t="n">
         <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>33984448</v>
+        <v>33966145</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49870044</v>
+        <v>49985765</v>
       </c>
       <c r="E6" t="n">
-        <v>62386146</v>
+        <v>62530910</v>
       </c>
       <c r="F6" t="n">
-        <v>5950.619033803103</v>
+        <v>5966.30632392571</v>
       </c>
       <c r="G6" t="n">
-        <v>6316.101912211507</v>
+        <v>4668.669477879114</v>
       </c>
       <c r="H6" t="n">
         <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>519822</v>
+        <v>526658</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68708616</v>
+        <v>68615003</v>
       </c>
       <c r="E7" t="n">
-        <v>136867367</v>
+        <v>136680891</v>
       </c>
       <c r="F7" t="n">
-        <v>9548.542994764171</v>
+        <v>9727.877507092824</v>
       </c>
       <c r="G7" t="n">
-        <v>12165.26400731986</v>
+        <v>12642.18575238273</v>
       </c>
       <c r="H7" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="I7" t="n">
-        <v>1351736</v>
+        <v>1354681</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41591049</v>
+        <v>41048818</v>
       </c>
       <c r="E8" t="n">
-        <v>46546374</v>
+        <v>45939540</v>
       </c>
       <c r="F8" t="n">
-        <v>6729.970952083223</v>
+        <v>6729.995130792524</v>
       </c>
       <c r="G8" t="n">
-        <v>6633.990515933091</v>
+        <v>6634.022622045794</v>
       </c>
       <c r="H8" t="n">
         <v>0.53</v>
       </c>
       <c r="I8" t="n">
-        <v>3421018</v>
+        <v>647800</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14287495</v>
+        <v>14295305</v>
       </c>
       <c r="E9" t="n">
-        <v>42104325</v>
+        <v>42127341</v>
       </c>
       <c r="F9" t="n">
-        <v>4998.444473437057</v>
+        <v>5028.414618565356</v>
       </c>
       <c r="G9" t="n">
-        <v>4751.538711038601</v>
+        <v>4755.996668761474</v>
       </c>
       <c r="H9" t="n">
         <v>1.13</v>
       </c>
       <c r="I9" t="n">
-        <v>814742</v>
+        <v>814028</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7467182</v>
+        <v>7498223</v>
       </c>
       <c r="E10" t="n">
-        <v>32104905</v>
+        <v>32238366</v>
       </c>
       <c r="F10" t="n">
-        <v>4346.939678152786</v>
+        <v>4223.135034461415</v>
       </c>
       <c r="G10" t="n">
-        <v>4205.881092001813</v>
+        <v>4173.910433654552</v>
       </c>
       <c r="H10" t="n">
         <v>0.37</v>
       </c>
       <c r="I10" t="n">
-        <v>667095</v>
+        <v>681928</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>555291376</v>
+        <v>556143019</v>
       </c>
       <c r="E11" t="n">
-        <v>694586981</v>
+        <v>695652259</v>
       </c>
       <c r="F11" t="n">
-        <v>250529.7212368026</v>
+        <v>310801.7295192687</v>
       </c>
       <c r="G11" t="n">
-        <v>287141.6617617217</v>
+        <v>265391.6629066095</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>54513036</v>
+        <v>53556909</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4748882</v>
+        <v>4751789</v>
       </c>
       <c r="E12" t="n">
-        <v>29169339</v>
+        <v>29187196</v>
       </c>
       <c r="F12" t="n">
-        <v>12355.83346800897</v>
+        <v>7885.104631186831</v>
       </c>
       <c r="G12" t="n">
-        <v>8250.958752120767</v>
+        <v>7252.681551500166</v>
       </c>
       <c r="H12" t="n">
-        <v>1.02</v>
+        <v>0.68</v>
       </c>
       <c r="I12" t="n">
-        <v>469492</v>
+        <v>469539</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22258622</v>
+        <v>22293118</v>
       </c>
       <c r="E13" t="n">
-        <v>22300298</v>
+        <v>22334858</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>872914</v>
+        <v>870736</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82610273</v>
+        <v>82654511</v>
       </c>
       <c r="E14" t="n">
-        <v>243049668</v>
+        <v>243179823</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>408128</v>
+        <v>408851</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>474969030</v>
+        <v>473270552</v>
       </c>
       <c r="E15" t="n">
-        <v>474969034</v>
+        <v>473270552</v>
       </c>
       <c r="F15" t="n">
-        <v>7437.041729714942</v>
+        <v>9704.193115320382</v>
       </c>
       <c r="G15" t="n">
-        <v>51569.01787685386</v>
+        <v>19338.27552127456</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>63522362</v>
+        <v>63538913</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4698790</v>
+        <v>4663309</v>
       </c>
       <c r="E16" t="n">
-        <v>4698790</v>
+        <v>4663309</v>
       </c>
       <c r="F16" t="n">
-        <v>421.4280654324186</v>
+        <v>546.553174928743</v>
       </c>
       <c r="G16" t="n">
-        <v>4884.067957712184</v>
+        <v>4689.399106996233</v>
       </c>
       <c r="H16" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1966508</v>
+        <v>1967512</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3367072</v>
+        <v>3357173</v>
       </c>
       <c r="E17" t="n">
-        <v>3367072</v>
+        <v>3357173</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>533705</v>
+        <v>532267</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166640534</v>
+        <v>166931813</v>
       </c>
       <c r="E18" t="n">
-        <v>206307920</v>
+        <v>206668537</v>
       </c>
       <c r="F18" t="n">
-        <v>8384.442674344993</v>
+        <v>8945.850170700893</v>
       </c>
       <c r="G18" t="n">
-        <v>9900.867350735651</v>
+        <v>7679.099717009272</v>
       </c>
       <c r="H18" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="I18" t="n">
-        <v>377088</v>
+        <v>374144</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6698717</v>
+        <v>6696189</v>
       </c>
       <c r="E19" t="n">
-        <v>9225845</v>
+        <v>9222364</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>838708</v>
+        <v>837828</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>917339</v>
+        <v>919309</v>
       </c>
       <c r="E20" t="n">
-        <v>6421374</v>
+        <v>6435164</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>204993</v>
+        <v>203820</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>112638448</v>
+        <v>112039489</v>
       </c>
       <c r="E21" t="n">
-        <v>438511831</v>
+        <v>436170808</v>
       </c>
       <c r="F21" t="n">
-        <v>40071.52310470332</v>
+        <v>33683.06484301625</v>
       </c>
       <c r="G21" t="n">
-        <v>84498.03691162619</v>
+        <v>74618.32233762775</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I21" t="n">
-        <v>7779985</v>
+        <v>9768518</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1682540</v>
+        <v>1683105</v>
       </c>
       <c r="E22" t="n">
-        <v>12119190</v>
+        <v>12123262</v>
       </c>
       <c r="F22" t="n">
-        <v>4557.553866517795</v>
+        <v>4557.575923428751</v>
       </c>
       <c r="G22" t="n">
-        <v>4357.142235716202</v>
+        <v>4357.16332270741</v>
       </c>
       <c r="H22" t="n">
         <v>0.58</v>
       </c>
       <c r="I22" t="n">
-        <v>125365</v>
+        <v>120292</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>136184058</v>
+        <v>136725727</v>
       </c>
       <c r="E23" t="n">
-        <v>136184058</v>
+        <v>136725727</v>
       </c>
       <c r="F23" t="n">
-        <v>915541.2369963354</v>
+        <v>1141935.410629732</v>
       </c>
       <c r="G23" t="n">
-        <v>1358105.748646279</v>
+        <v>1225139.568203441</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>66618792</v>
+        <v>65873141</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64740715</v>
+        <v>65046262</v>
       </c>
       <c r="E24" t="n">
-        <v>332003668</v>
+        <v>333570575</v>
       </c>
       <c r="F24" t="n">
-        <v>79333.919342329</v>
+        <v>84716.04200956636</v>
       </c>
       <c r="G24" t="n">
-        <v>127819.394390866</v>
+        <v>106810.720989298</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>18781983</v>
+        <v>18889271</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>252988093</v>
+        <v>253887415</v>
       </c>
       <c r="E25" t="n">
-        <v>252988093</v>
+        <v>253887415</v>
       </c>
       <c r="F25" t="n">
-        <v>314527.0450298003</v>
+        <v>340961.4527192155</v>
       </c>
       <c r="G25" t="n">
-        <v>504977.8381289029</v>
+        <v>401805.8442952879</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>14912322</v>
+        <v>14835252</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1122708</v>
+        <v>1124524</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>191113</v>
+        <v>190919</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3999713</v>
+        <v>3982586</v>
       </c>
       <c r="E28" t="n">
-        <v>4000568</v>
+        <v>3983460</v>
       </c>
       <c r="F28" t="n">
-        <v>734.7766379310656</v>
+        <v>731.8128590690299</v>
       </c>
       <c r="G28" t="n">
-        <v>3387.584630265311</v>
+        <v>4262.134057891999</v>
       </c>
       <c r="H28" t="n">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="I28" t="n">
-        <v>279198</v>
+        <v>281442</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6731711</v>
+        <v>6696328</v>
       </c>
       <c r="E29" t="n">
-        <v>16350807</v>
+        <v>16264865</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>453489</v>
+        <v>455280</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100233678</v>
+        <v>100292174</v>
       </c>
       <c r="E30" t="n">
-        <v>124979647</v>
+        <v>125052584</v>
       </c>
       <c r="F30" t="n">
-        <v>113479.3868876455</v>
+        <v>115128.094082289</v>
       </c>
       <c r="G30" t="n">
-        <v>98926.40822890353</v>
+        <v>104616.2524870833</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11496738</v>
+        <v>11490717</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1117207</v>
+        <v>1115229</v>
       </c>
       <c r="E31" t="n">
-        <v>12141385</v>
+        <v>12119890</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29368</v>
+        <v>29364</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>72687244</v>
+        <v>73141794</v>
       </c>
       <c r="E32" t="n">
-        <v>203473348</v>
+        <v>204741923</v>
       </c>
       <c r="F32" t="n">
-        <v>56824.57902561799</v>
+        <v>53869.04467053228</v>
       </c>
       <c r="G32" t="n">
-        <v>61714.90540486022</v>
+        <v>67941.78044648081</v>
       </c>
       <c r="H32" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I32" t="n">
-        <v>32946247</v>
+        <v>33038400</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4230788</v>
+        <v>4222571</v>
       </c>
       <c r="E33" t="n">
-        <v>8343471</v>
+        <v>8327266</v>
       </c>
       <c r="F33" t="n">
-        <v>7453.700517031947</v>
+        <v>10572.05891985707</v>
       </c>
       <c r="G33" t="n">
-        <v>5314.530516064715</v>
+        <v>7701.893462649299</v>
       </c>
       <c r="H33" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="I33" t="n">
-        <v>1643360</v>
+        <v>1644396</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37365966</v>
+        <v>37360710</v>
       </c>
       <c r="F34" t="n">
-        <v>943.0715401573621</v>
+        <v>966.4195620968209</v>
       </c>
       <c r="G34" t="n">
-        <v>555.8094684803992</v>
+        <v>564.3984215926208</v>
       </c>
       <c r="H34" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I34" t="n">
-        <v>65384</v>
+        <v>65374</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7546086</v>
+        <v>7554037</v>
       </c>
       <c r="E35" t="n">
-        <v>17772532</v>
+        <v>17791258</v>
       </c>
       <c r="F35" t="n">
-        <v>3494.814912158252</v>
+        <v>3493.144375435342</v>
       </c>
       <c r="G35" t="n">
-        <v>2569.673993635264</v>
+        <v>2559.525126807403</v>
       </c>
       <c r="H35" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="I35" t="n">
-        <v>31331</v>
+        <v>32520</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23246715</v>
+        <v>23172217</v>
       </c>
       <c r="F36" t="n">
-        <v>5284.488418430363</v>
+        <v>5379.717093706771</v>
       </c>
       <c r="G36" t="n">
-        <v>5502.56262812993</v>
+        <v>5492.210912519758</v>
       </c>
       <c r="H36" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="I36" t="n">
-        <v>117881</v>
+        <v>117383</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73311299</v>
+        <v>73342922</v>
       </c>
       <c r="E37" t="n">
-        <v>152891288</v>
+        <v>152957238</v>
       </c>
       <c r="F37" t="n">
-        <v>51180.21211377164</v>
+        <v>50468.3929914921</v>
       </c>
       <c r="G37" t="n">
-        <v>110585.8363221673</v>
+        <v>120495.1719400262</v>
       </c>
       <c r="H37" t="n">
         <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>14332334</v>
+        <v>14368090</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>275603404</v>
+        <v>279019851</v>
       </c>
       <c r="E38" t="n">
-        <v>275603404</v>
+        <v>279019851</v>
       </c>
       <c r="F38" t="n">
-        <v>32377.32832204055</v>
+        <v>34207.68313093083</v>
       </c>
       <c r="G38" t="n">
-        <v>24170.4067645434</v>
+        <v>27723.8385325511</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>10019951</v>
+        <v>10119507</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>198138740</v>
+        <v>198562951</v>
       </c>
       <c r="E39" t="n">
-        <v>688351890</v>
+        <v>689825636</v>
       </c>
       <c r="F39" t="n">
-        <v>145298.175968126</v>
+        <v>146599.6210880347</v>
       </c>
       <c r="G39" t="n">
-        <v>310042.6143773308</v>
+        <v>328909.8301840611</v>
       </c>
       <c r="H39" t="n">
         <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>26133706</v>
+        <v>25953812</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4053334</v>
+        <v>4303683</v>
       </c>
       <c r="E40" t="n">
-        <v>4053334</v>
+        <v>4303683</v>
       </c>
       <c r="F40" t="n">
-        <v>2324.950743846042</v>
+        <v>688.8940648658099</v>
       </c>
       <c r="G40" t="n">
-        <v>967.3616502073149</v>
+        <v>2086.31925585069</v>
       </c>
       <c r="H40" t="n">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="I40" t="n">
-        <v>3559045</v>
+        <v>3543841</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>115068094</v>
+        <v>115009986</v>
       </c>
       <c r="E41" t="n">
-        <v>489476113</v>
+        <v>489207559</v>
       </c>
       <c r="F41" t="n">
-        <v>5712.988436442001</v>
+        <v>5547.365511799701</v>
       </c>
       <c r="G41" t="n">
-        <v>6110.927693235652</v>
+        <v>5691.02835742898</v>
       </c>
       <c r="H41" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I41" t="n">
-        <v>13761850</v>
+        <v>13857653</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>535774</v>
+        <v>540346</v>
       </c>
       <c r="E42" t="n">
-        <v>6498421</v>
+        <v>6553875</v>
       </c>
       <c r="F42" t="n">
-        <v>504.8131047297356</v>
+        <v>387.4842157228299</v>
       </c>
       <c r="G42" t="n">
-        <v>1280.800696976025</v>
+        <v>1450.79800998669</v>
       </c>
       <c r="H42" t="n">
-        <v>0.37</v>
+        <v>0.91</v>
       </c>
       <c r="I42" t="n">
-        <v>2757332</v>
+        <v>2720471</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1290711875</v>
+        <v>1305982176</v>
       </c>
       <c r="E43" t="n">
-        <v>6189227770</v>
+        <v>6262451992</v>
       </c>
       <c r="F43" t="n">
-        <v>43116.01489547909</v>
+        <v>47019.78550282217</v>
       </c>
       <c r="G43" t="n">
-        <v>64988.66685124599</v>
+        <v>64042.10335847312</v>
       </c>
       <c r="H43" t="n">
         <v>0.1</v>
       </c>
       <c r="I43" t="n">
-        <v>177848034</v>
+        <v>168964123</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6054687289</v>
+        <v>6053470430</v>
       </c>
       <c r="E44" t="n">
-        <v>6054687289</v>
+        <v>6053470430</v>
       </c>
       <c r="F44" t="n">
-        <v>676997.3642606116</v>
+        <v>676885.6949667681</v>
       </c>
       <c r="G44" t="n">
-        <v>1784874.859863406</v>
+        <v>1784998.432225035</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>100712068</v>
+        <v>101102129</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>267352893</v>
+        <v>267537758</v>
       </c>
       <c r="E45" t="n">
-        <v>1154043507</v>
+        <v>1154841483</v>
       </c>
       <c r="F45" t="n">
-        <v>119806.5594011978</v>
+        <v>105409.4478646049</v>
       </c>
       <c r="G45" t="n">
-        <v>89010.32511248317</v>
+        <v>101174.3363196238</v>
       </c>
       <c r="H45" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>111272803</v>
+        <v>111225163</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113992368</v>
+        <v>114568838</v>
       </c>
       <c r="E46" t="n">
-        <v>113992368</v>
+        <v>114568838</v>
       </c>
       <c r="F46" t="n">
-        <v>38709.4354795759</v>
+        <v>39740.21133053889</v>
       </c>
       <c r="G46" t="n">
-        <v>32671.32105817873</v>
+        <v>28335.62371528881</v>
       </c>
       <c r="H46" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>6024493</v>
+        <v>5991881</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2045572557</v>
+        <v>2043428180</v>
       </c>
       <c r="E47" t="n">
-        <v>2045572557</v>
+        <v>2043428180</v>
       </c>
       <c r="F47" t="n">
-        <v>225934.6990904326</v>
+        <v>225935.7925325916</v>
       </c>
       <c r="G47" t="n">
-        <v>199247.5738558568</v>
+        <v>199248.5381419899</v>
       </c>
       <c r="H47" t="n">
         <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>5308426787</v>
+        <v>5329888794</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9806141</v>
+        <v>9803710</v>
       </c>
       <c r="F48" t="n">
-        <v>6792.26912818896</v>
+        <v>6769.328324135512</v>
       </c>
       <c r="G48" t="n">
-        <v>5840.269897362527</v>
+        <v>5919.850270149926</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>171448</v>
+        <v>170428</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4401740</v>
+        <v>4392042</v>
       </c>
       <c r="E49" t="n">
-        <v>5778911</v>
+        <v>5766178</v>
       </c>
       <c r="F49" t="n">
-        <v>12884.90727623092</v>
+        <v>12585.26431318467</v>
       </c>
       <c r="G49" t="n">
-        <v>9799.233531938879</v>
+        <v>14604.57595485095</v>
       </c>
       <c r="H49" t="n">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>592299</v>
+        <v>598553</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11721385</v>
+        <v>11664560</v>
       </c>
       <c r="E50" t="n">
-        <v>17236075</v>
+        <v>17152516</v>
       </c>
       <c r="F50" t="n">
-        <v>2484.508629082849</v>
+        <v>6345.808569976042</v>
       </c>
       <c r="G50" t="n">
-        <v>26625.36323886408</v>
+        <v>7854.075588097059</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I50" t="n">
-        <v>1304760</v>
+        <v>1335913</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22402228</v>
+        <v>22397079</v>
       </c>
       <c r="E51" t="n">
-        <v>29060814</v>
+        <v>29054135</v>
       </c>
       <c r="F51" t="n">
-        <v>14911.97839188834</v>
+        <v>10454.99160125186</v>
       </c>
       <c r="G51" t="n">
-        <v>11041.17227419993</v>
+        <v>7564.264919281992</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>155171</v>
+        <v>154926</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14138725</v>
+        <v>14140875</v>
       </c>
       <c r="E52" t="n">
-        <v>14138725</v>
+        <v>14140875</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4558682</v>
+        <v>4585475</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98349151</v>
+        <v>98423667</v>
       </c>
       <c r="E53" t="n">
-        <v>121654380</v>
+        <v>121746553</v>
       </c>
       <c r="F53" t="n">
-        <v>417.9479104165758</v>
+        <v>290.3009598372575</v>
       </c>
       <c r="G53" t="n">
-        <v>3682.385655730074</v>
+        <v>4334.306668719682</v>
       </c>
       <c r="H53" t="n">
-        <v>0.65</v>
+        <v>0.28</v>
       </c>
       <c r="I53" t="n">
-        <v>785193</v>
+        <v>797834</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5130815</v>
+        <v>5131430</v>
       </c>
       <c r="E54" t="n">
-        <v>7178754</v>
+        <v>7179615</v>
       </c>
       <c r="F54" t="n">
-        <v>104.3888093575989</v>
+        <v>9.262112438613931</v>
       </c>
       <c r="G54" t="n">
-        <v>131.6336442922525</v>
+        <v>570.255684019568</v>
       </c>
       <c r="H54" t="n">
-        <v>1.61</v>
+        <v>0.86</v>
       </c>
       <c r="I54" t="n">
-        <v>108489</v>
+        <v>108409</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13974490</v>
+        <v>13945110</v>
       </c>
       <c r="E55" t="n">
-        <v>67680687</v>
+        <v>67538395</v>
       </c>
       <c r="F55" t="n">
-        <v>28022.11808211257</v>
+        <v>12638.06748811747</v>
       </c>
       <c r="G55" t="n">
-        <v>27617.88728482966</v>
+        <v>32108.21286335723</v>
       </c>
       <c r="H55" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I55" t="n">
-        <v>3627561</v>
+        <v>3652562</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>61349</v>
+        <v>57880</v>
       </c>
       <c r="E56" t="n">
-        <v>146945</v>
+        <v>138635</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4658.55</v>
+        <v>4727.62</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1891861931</v>
+        <v>1889527221</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>25912253</v>
+        <v>21222121</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12196756</v>
+        <v>12176433</v>
       </c>
       <c r="E58" t="n">
-        <v>17683537</v>
+        <v>17654071</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2122229</v>
+        <v>2092325</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123763005</v>
+        <v>123507977</v>
       </c>
       <c r="E59" t="n">
-        <v>329139042</v>
+        <v>328460811</v>
       </c>
       <c r="F59" t="n">
-        <v>3898.877355158662</v>
+        <v>3806.847085382084</v>
       </c>
       <c r="G59" t="n">
-        <v>10119.61089285334</v>
+        <v>10256.72884485215</v>
       </c>
       <c r="H59" t="n">
-        <v>0.82</v>
+        <v>1.42</v>
       </c>
       <c r="I59" t="n">
-        <v>1355847</v>
+        <v>1352225</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32319999</v>
+        <v>32307269</v>
       </c>
       <c r="E60" t="n">
-        <v>100634107</v>
+        <v>100594471</v>
       </c>
       <c r="F60" t="n">
-        <v>4671.027843840838</v>
+        <v>3939.125028531463</v>
       </c>
       <c r="G60" t="n">
-        <v>5091.900275801684</v>
+        <v>5946.28012672901</v>
       </c>
       <c r="H60" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="I60" t="n">
-        <v>12114975</v>
+        <v>12143642</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2058386</v>
+        <v>2063873</v>
       </c>
       <c r="E61" t="n">
-        <v>14760484</v>
+        <v>14799825</v>
       </c>
       <c r="F61" t="n">
-        <v>1368.963215106693</v>
+        <v>216.5521333944462</v>
       </c>
       <c r="G61" t="n">
-        <v>4999.115951034061</v>
+        <v>5256.932674754802</v>
       </c>
       <c r="H61" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="I61" t="n">
-        <v>1933392</v>
+        <v>1936137</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>202645526</v>
+        <v>202677013</v>
       </c>
       <c r="E62" t="n">
-        <v>1147503482</v>
+        <v>1147681783</v>
       </c>
       <c r="F62" t="n">
-        <v>737724.7804701744</v>
+        <v>590390.4570464907</v>
       </c>
       <c r="G62" t="n">
-        <v>792417.6494106341</v>
+        <v>933554.1805676655</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>63654193</v>
+        <v>63703503</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>506409</v>
+        <v>506404</v>
       </c>
       <c r="E63" t="n">
-        <v>1704503</v>
+        <v>1704484</v>
       </c>
       <c r="F63" t="n">
-        <v>4637.88081287807</v>
+        <v>4600.973336870979</v>
       </c>
       <c r="G63" t="n">
-        <v>410.2401152903464</v>
+        <v>424.4419888763929</v>
       </c>
       <c r="H63" t="n">
         <v>0.53</v>
       </c>
       <c r="I63" t="n">
-        <v>629201</v>
+        <v>629478</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>343173</v>
+        <v>344477</v>
       </c>
       <c r="E64" t="n">
-        <v>343173</v>
+        <v>344477</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6463.8</v>
+        <v>6446.67</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>139245899</v>
+        <v>138795367</v>
       </c>
       <c r="E65" t="n">
-        <v>1031451102</v>
+        <v>1028113829</v>
       </c>
       <c r="F65" t="n">
-        <v>38266.68144947619</v>
+        <v>38117.84998967298</v>
       </c>
       <c r="G65" t="n">
-        <v>35507.95171926734</v>
+        <v>39830.01455683828</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>11025381</v>
+        <v>10963777</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8178038</v>
+        <v>8184861</v>
       </c>
       <c r="E66" t="n">
-        <v>10955844</v>
+        <v>10964985</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>60619</v>
+        <v>59291</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25456291</v>
+        <v>25490908</v>
       </c>
       <c r="E67" t="n">
-        <v>25456291</v>
+        <v>25490908</v>
       </c>
       <c r="F67" t="n">
-        <v>4882.799254654888</v>
+        <v>6898.294138529447</v>
       </c>
       <c r="G67" t="n">
-        <v>4370.973139213815</v>
+        <v>6506.293620929688</v>
       </c>
       <c r="H67" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="I67" t="n">
-        <v>324321</v>
+        <v>322402</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1543792</v>
+        <v>1569630</v>
       </c>
       <c r="E68" t="n">
-        <v>11990246</v>
+        <v>12190921</v>
       </c>
       <c r="F68" t="n">
-        <v>848.1460104988131</v>
+        <v>827.334568752464</v>
       </c>
       <c r="G68" t="n">
-        <v>21999.15874845468</v>
+        <v>32113.78410200686</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="I68" t="n">
-        <v>525139</v>
+        <v>534237</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>338303596</v>
+        <v>338695576</v>
       </c>
       <c r="E69" t="n">
-        <v>3043588927</v>
+        <v>3047115418</v>
       </c>
       <c r="F69" t="n">
-        <v>1462968.772415622</v>
+        <v>1158453.836777443</v>
       </c>
       <c r="G69" t="n">
-        <v>1261606.133796219</v>
+        <v>1771112.112904263</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>37619361</v>
+        <v>37102679</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>258955</v>
+        <v>258786</v>
       </c>
       <c r="E70" t="n">
-        <v>2285472</v>
+        <v>2283984</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>71832</v>
+        <v>71342</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1587680</v>
+        <v>1596461</v>
       </c>
       <c r="E71" t="n">
-        <v>13230671</v>
+        <v>13303840</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>44235</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9115095</v>
+        <v>9139274</v>
       </c>
       <c r="E72" t="n">
-        <v>42248990</v>
+        <v>42361062</v>
       </c>
       <c r="F72" t="n">
-        <v>6146.512689931054</v>
+        <v>6177.637898971275</v>
       </c>
       <c r="G72" t="n">
-        <v>8084.758342415555</v>
+        <v>9486.355471415578</v>
       </c>
       <c r="H72" t="n">
         <v>0.85</v>
       </c>
       <c r="I72" t="n">
-        <v>111146</v>
+        <v>117533</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>43086446</v>
+        <v>43290638</v>
       </c>
       <c r="E73" t="n">
-        <v>249452719</v>
+        <v>250634904</v>
       </c>
       <c r="F73" t="n">
-        <v>149843.3882636574</v>
+        <v>104651.3595280547</v>
       </c>
       <c r="G73" t="n">
-        <v>175558.2434248982</v>
+        <v>167017.5293021748</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>11309827</v>
+        <v>10860961</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39260369</v>
+        <v>39203302</v>
       </c>
       <c r="E74" t="n">
-        <v>54224160</v>
+        <v>54145342</v>
       </c>
       <c r="F74" t="n">
-        <v>10824.31458109014</v>
+        <v>10860.48273386788</v>
       </c>
       <c r="G74" t="n">
-        <v>10470.81006873021</v>
+        <v>10515.25160593739</v>
       </c>
       <c r="H74" t="n">
         <v>0.31</v>
       </c>
       <c r="I74" t="n">
-        <v>371376</v>
+        <v>371400</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>96055</v>
+        <v>96121</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>927.37</v>
+        <v>928.01</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13600807</v>
+        <v>13657051</v>
       </c>
       <c r="E76" t="n">
-        <v>13647092</v>
+        <v>13703527</v>
       </c>
       <c r="F76" t="n">
-        <v>1331.474757496299</v>
+        <v>1947.898437317735</v>
       </c>
       <c r="G76" t="n">
-        <v>7462.034104601124</v>
+        <v>6956.976346399989</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>1.29</v>
       </c>
       <c r="I76" t="n">
-        <v>5869136</v>
+        <v>5733792</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42897979</v>
+        <v>42866152</v>
       </c>
       <c r="E77" t="n">
-        <v>72830789</v>
+        <v>72776754</v>
       </c>
       <c r="F77" t="n">
-        <v>5515.039938811908</v>
+        <v>10973.18157904186</v>
       </c>
       <c r="G77" t="n">
-        <v>5922.796321981924</v>
+        <v>6778.628732808468</v>
       </c>
       <c r="H77" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>1094089</v>
+        <v>1087359</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>24666655</v>
+        <v>24581125</v>
       </c>
       <c r="E78" t="n">
-        <v>73937624</v>
+        <v>73681250</v>
       </c>
       <c r="F78" t="n">
-        <v>130887.7497741216</v>
+        <v>97710.73543176295</v>
       </c>
       <c r="G78" t="n">
-        <v>116916.5362357848</v>
+        <v>141485.983200635</v>
       </c>
       <c r="H78" t="n">
         <v>0.28</v>
       </c>
       <c r="I78" t="n">
-        <v>2721746</v>
+        <v>2729674</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101326383</v>
+        <v>101412833</v>
       </c>
       <c r="E79" t="n">
-        <v>107719103</v>
+        <v>107811006</v>
       </c>
       <c r="F79" t="n">
-        <v>2777.776819659302</v>
+        <v>1824.631748953091</v>
       </c>
       <c r="G79" t="n">
-        <v>4118.356782482958</v>
+        <v>5077.197144276786</v>
       </c>
       <c r="H79" t="n">
-        <v>0.57</v>
+        <v>0.72</v>
       </c>
       <c r="I79" t="n">
-        <v>900893</v>
+        <v>860522</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10624710</v>
+        <v>10634253</v>
       </c>
       <c r="E80" t="n">
-        <v>46195848</v>
+        <v>46236952</v>
       </c>
       <c r="F80" t="n">
-        <v>5870.314717995154</v>
+        <v>5878.980145874347</v>
       </c>
       <c r="G80" t="n">
-        <v>5857.458088017765</v>
+        <v>5709.74417690378</v>
       </c>
       <c r="H80" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>107298</v>
+        <v>105326</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15056072</v>
+        <v>15119758</v>
       </c>
       <c r="E81" t="n">
-        <v>92283619</v>
+        <v>92673966</v>
       </c>
       <c r="F81" t="n">
-        <v>4030.963246066517</v>
+        <v>4057.906190508237</v>
       </c>
       <c r="G81" t="n">
-        <v>6064.009435209215</v>
+        <v>6335.573826206394</v>
       </c>
       <c r="H81" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I81" t="n">
-        <v>11680697</v>
+        <v>11695915</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1496289</v>
+        <v>1498427</v>
       </c>
       <c r="E82" t="n">
-        <v>1538378</v>
+        <v>1540576</v>
       </c>
       <c r="F82" t="n">
-        <v>6830.450215366773</v>
+        <v>6856.256441299896</v>
       </c>
       <c r="G82" t="n">
-        <v>5830.473368040136</v>
+        <v>5864.362608807484</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>125643</v>
+        <v>123834</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>46995983</v>
+        <v>47077805</v>
       </c>
       <c r="E83" t="n">
-        <v>202453556</v>
+        <v>202806037</v>
       </c>
       <c r="F83" t="n">
-        <v>3349.65115486336</v>
+        <v>3366.483464989976</v>
       </c>
       <c r="G83" t="n">
-        <v>4493.810258209352</v>
+        <v>4671.186552856184</v>
       </c>
       <c r="H83" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I83" t="n">
-        <v>8744719</v>
+        <v>8750089</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1658179</v>
+        <v>1666138</v>
       </c>
       <c r="E84" t="n">
-        <v>6025421</v>
+        <v>6054239</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>127963</v>
+        <v>128142</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8977159</v>
+        <v>8910217</v>
       </c>
       <c r="E85" t="n">
-        <v>19934118</v>
+        <v>19785470</v>
       </c>
       <c r="F85" t="n">
-        <v>4735.057899669243</v>
+        <v>6079.715646540475</v>
       </c>
       <c r="G85" t="n">
-        <v>8211.963899971593</v>
+        <v>6935.055202476934</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8</v>
+        <v>1.41</v>
       </c>
       <c r="I85" t="n">
-        <v>354001</v>
+        <v>261979</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2451928</v>
+        <v>2450243</v>
       </c>
       <c r="E86" t="n">
-        <v>18450593</v>
+        <v>18437911</v>
       </c>
       <c r="F86" t="n">
-        <v>6345.490104102669</v>
+        <v>6382.635975816329</v>
       </c>
       <c r="G86" t="n">
-        <v>12838.69879833552</v>
+        <v>12783.99267702637</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161877</v>
+        <v>162116</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20817886</v>
+        <v>20722546</v>
       </c>
       <c r="E87" t="n">
-        <v>83271542</v>
+        <v>82890183</v>
       </c>
       <c r="F87" t="n">
-        <v>25322.71872402525</v>
+        <v>28858.62892670404</v>
       </c>
       <c r="G87" t="n">
-        <v>2532.27859554066</v>
+        <v>1295.694117962595</v>
       </c>
       <c r="H87" t="n">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="I87" t="n">
-        <v>5988192</v>
+        <v>5532057</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4295562</v>
+        <v>4308910</v>
       </c>
       <c r="E88" t="n">
-        <v>4295562</v>
+        <v>4308910</v>
       </c>
       <c r="F88" t="n">
-        <v>479.4414488557365</v>
+        <v>1786.364691977119</v>
       </c>
       <c r="G88" t="n">
-        <v>1230.437297567736</v>
+        <v>1113.610043014783</v>
       </c>
       <c r="H88" t="n">
         <v>0.78</v>
       </c>
       <c r="I88" t="n">
-        <v>2509490</v>
+        <v>2509830</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12788656</v>
+        <v>12759813</v>
       </c>
       <c r="E89" t="n">
-        <v>40459155</v>
+        <v>40367903</v>
       </c>
       <c r="F89" t="n">
-        <v>24913.13329250348</v>
+        <v>14339.24197824191</v>
       </c>
       <c r="G89" t="n">
-        <v>11710.64989186797</v>
+        <v>5773.570686813188</v>
       </c>
       <c r="H89" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>1396512</v>
+        <v>1397273</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26721</v>
+        <v>26669</v>
       </c>
       <c r="E90" t="n">
-        <v>210153</v>
+        <v>209748</v>
       </c>
       <c r="F90" t="n">
-        <v>5765.882588783314</v>
+        <v>5998.92743642367</v>
       </c>
       <c r="G90" t="n">
-        <v>483.4092762773777</v>
+        <v>309.467569355136</v>
       </c>
       <c r="H90" t="n">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="I90" t="n">
-        <v>131379</v>
+        <v>131017</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8185897</v>
+        <v>8198116</v>
       </c>
       <c r="E91" t="n">
-        <v>8185897</v>
+        <v>8198116</v>
       </c>
       <c r="F91" t="n">
-        <v>3627.78625225413</v>
+        <v>3765.130664489021</v>
       </c>
       <c r="G91" t="n">
-        <v>4123.168159234961</v>
+        <v>4113.719933821199</v>
       </c>
       <c r="H91" t="n">
         <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>3523828</v>
+        <v>3524837</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9282986</v>
+        <v>9265141</v>
       </c>
       <c r="E92" t="n">
-        <v>9282986</v>
+        <v>9265141</v>
       </c>
       <c r="F92" t="n">
-        <v>5299.952014283</v>
+        <v>7932.44385111505</v>
       </c>
       <c r="G92" t="n">
-        <v>4642.758016918468</v>
+        <v>1973.942538740452</v>
       </c>
       <c r="H92" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I92" t="n">
-        <v>2859757</v>
+        <v>2843607</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37251341</v>
+        <v>37202385</v>
       </c>
       <c r="E93" t="n">
-        <v>93929998</v>
+        <v>93806555</v>
       </c>
       <c r="F93" t="n">
-        <v>6366.852668880355</v>
+        <v>6826.494940802483</v>
       </c>
       <c r="G93" t="n">
-        <v>5430.419627990773</v>
+        <v>5759.771881977117</v>
       </c>
       <c r="H93" t="n">
         <v>0.74</v>
       </c>
       <c r="I93" t="n">
-        <v>3061329</v>
+        <v>3065751</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>301773536</v>
+        <v>300847700</v>
       </c>
       <c r="E94" t="n">
-        <v>306488198</v>
+        <v>305550735</v>
       </c>
       <c r="F94" t="n">
-        <v>27955.51173190237</v>
+        <v>49432.2671492485</v>
       </c>
       <c r="G94" t="n">
-        <v>6910.789843521889</v>
+        <v>8110.214618687517</v>
       </c>
       <c r="H94" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I94" t="n">
-        <v>12235416</v>
+        <v>12289037</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>945.6605696846062</v>
+        <v>3545.30819739946</v>
       </c>
       <c r="G95" t="n">
-        <v>6414.106410958615</v>
+        <v>6466.951586238227</v>
       </c>
       <c r="H95" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>222464</v>
+        <v>222297</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>78791914</v>
+        <v>78953649</v>
       </c>
       <c r="E96" t="n">
-        <v>78791914</v>
+        <v>78953649</v>
       </c>
       <c r="F96" t="n">
-        <v>16491.43145286347</v>
+        <v>14402.69912040848</v>
       </c>
       <c r="G96" t="n">
-        <v>5321.318111806895</v>
+        <v>5195.627799792471</v>
       </c>
       <c r="H96" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="I96" t="n">
-        <v>4893265</v>
+        <v>4866305</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>303599416</v>
+        <v>302977901</v>
       </c>
       <c r="E97" t="n">
-        <v>303599416</v>
+        <v>302977901</v>
       </c>
       <c r="F97" t="n">
-        <v>325877.5817657897</v>
+        <v>389781.0191371342</v>
       </c>
       <c r="G97" t="n">
-        <v>430959.8959027798</v>
+        <v>398888.1412245295</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50607010</v>
+        <v>50345707</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4234262</v>
+        <v>4224048</v>
       </c>
       <c r="E98" t="n">
-        <v>28932411</v>
+        <v>28862620</v>
       </c>
       <c r="F98" t="n">
-        <v>26870.2183495531</v>
+        <v>22404.52577565814</v>
       </c>
       <c r="G98" t="n">
-        <v>28227.80893684989</v>
+        <v>27593.82167355418</v>
       </c>
       <c r="H98" t="n">
-        <v>0.34</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>2573141</v>
+        <v>2573514</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>89437696</v>
+        <v>89878269</v>
       </c>
       <c r="E99" t="n">
-        <v>515378581</v>
+        <v>517917353</v>
       </c>
       <c r="F99" t="n">
-        <v>158154.5081038135</v>
+        <v>135218.7772344978</v>
       </c>
       <c r="G99" t="n">
-        <v>148458.94824617</v>
+        <v>130287.4058613854</v>
       </c>
       <c r="H99" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>16064550</v>
+        <v>16024319</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107943307</v>
+        <v>108408674</v>
       </c>
       <c r="E100" t="n">
-        <v>265582707</v>
+        <v>266727692</v>
       </c>
       <c r="F100" t="n">
-        <v>24640.64346676375</v>
+        <v>26663.71785755182</v>
       </c>
       <c r="G100" t="n">
-        <v>47629.70670346901</v>
+        <v>42234.61695263955</v>
       </c>
       <c r="H100" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I100" t="n">
-        <v>2371887</v>
+        <v>2207085</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>248510567</v>
+        <v>248870544</v>
       </c>
       <c r="E101" t="n">
-        <v>248513036</v>
+        <v>248873016</v>
       </c>
       <c r="F101" t="n">
-        <v>8910.430137079155</v>
+        <v>42072.10211937917</v>
       </c>
       <c r="G101" t="n">
-        <v>16759.59881941801</v>
+        <v>4667.699504654322</v>
       </c>
       <c r="H101" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I101" t="n">
-        <v>2707732</v>
+        <v>2713972</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30550764</v>
+        <v>30440484</v>
       </c>
       <c r="E102" t="n">
-        <v>136788303</v>
+        <v>136294534</v>
       </c>
       <c r="F102" t="n">
-        <v>101284.2334947797</v>
+        <v>107980.5668266542</v>
       </c>
       <c r="G102" t="n">
-        <v>131917.9971116029</v>
+        <v>151604.0141721344</v>
       </c>
       <c r="H102" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8938952</v>
+        <v>8912455</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3195308</v>
+        <v>3280020</v>
       </c>
       <c r="E103" t="n">
-        <v>3195308</v>
+        <v>3280020</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>427591</v>
+        <v>436048</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5989787</v>
+        <v>5987019</v>
       </c>
       <c r="E104" t="n">
-        <v>15720221</v>
+        <v>15712955</v>
       </c>
       <c r="F104" t="n">
-        <v>8807.023665927458</v>
+        <v>8806.89221296994</v>
       </c>
       <c r="G104" t="n">
-        <v>3825.671415196469</v>
+        <v>3807.981712790064</v>
       </c>
       <c r="H104" t="n">
         <v>1.35</v>
       </c>
       <c r="I104" t="n">
-        <v>73568</v>
+        <v>73712</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17137290</v>
+        <v>17138374</v>
       </c>
       <c r="E105" t="n">
-        <v>79102990</v>
+        <v>79108056</v>
       </c>
       <c r="F105" t="n">
-        <v>85660.39644200662</v>
+        <v>58599.50255281377</v>
       </c>
       <c r="G105" t="n">
-        <v>39535.76909309252</v>
+        <v>88965.06929863429</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="I105" t="n">
-        <v>950856</v>
+        <v>945926</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47735490</v>
+        <v>47723292</v>
       </c>
       <c r="E106" t="n">
-        <v>309551947</v>
+        <v>309472850</v>
       </c>
       <c r="F106" t="n">
-        <v>87554.85625477483</v>
+        <v>106865.8630617209</v>
       </c>
       <c r="G106" t="n">
-        <v>171828.8762259889</v>
+        <v>163384.5266990411</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17247420</v>
+        <v>17163164</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2562816</v>
+        <v>2462403</v>
       </c>
       <c r="E107" t="n">
-        <v>4643024</v>
+        <v>4461107</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>99574</v>
+        <v>98675</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125393914</v>
+        <v>125411425</v>
       </c>
       <c r="E108" t="n">
-        <v>2076625919</v>
+        <v>2076915920</v>
       </c>
       <c r="F108" t="n">
-        <v>231254.3973684706</v>
+        <v>211500.1134646445</v>
       </c>
       <c r="G108" t="n">
-        <v>127796.4471855631</v>
+        <v>117853.2499850195</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5082422</v>
+        <v>5093618</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23518870</v>
+        <v>23537847</v>
       </c>
       <c r="E109" t="n">
-        <v>140718128</v>
+        <v>140831671</v>
       </c>
       <c r="F109" t="n">
-        <v>40155.26122870894</v>
+        <v>40853.94416532914</v>
       </c>
       <c r="G109" t="n">
-        <v>40385.95280133166</v>
+        <v>39592.91005138081</v>
       </c>
       <c r="H109" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I109" t="n">
-        <v>13168269</v>
+        <v>13017059</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1019631</v>
+        <v>1010640</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>65511</v>
+        <v>65001</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2263265</v>
+        <v>2267834</v>
       </c>
       <c r="F111" t="n">
-        <v>2645.422405179645</v>
+        <v>2551.058702643873</v>
       </c>
       <c r="G111" t="n">
-        <v>205.0962539491167</v>
+        <v>311.902261112811</v>
       </c>
       <c r="H111" t="n">
         <v>0.47</v>
       </c>
       <c r="I111" t="n">
-        <v>208335</v>
+        <v>208958</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142346538</v>
+        <v>142424585</v>
       </c>
       <c r="F112" t="n">
-        <v>3147.209717194085</v>
+        <v>3147.226213610909</v>
       </c>
       <c r="G112" t="n">
-        <v>909.7463692268593</v>
+        <v>909.7511377541133</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>49728</v>
+        <v>48879</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6752691</v>
+        <v>6742405</v>
       </c>
       <c r="E113" t="n">
-        <v>34740544</v>
+        <v>34687625</v>
       </c>
       <c r="F113" t="n">
-        <v>962.3937037738173</v>
+        <v>2154.628598804688</v>
       </c>
       <c r="G113" t="n">
-        <v>967.4527230886788</v>
+        <v>1007.628660983385</v>
       </c>
       <c r="H113" t="n">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="I113" t="n">
-        <v>835649</v>
+        <v>896800</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29145753</v>
+        <v>29142397</v>
       </c>
       <c r="E114" t="n">
-        <v>39963923</v>
+        <v>39959322</v>
       </c>
       <c r="F114" t="n">
-        <v>967.5790982491953</v>
+        <v>5368.155621846146</v>
       </c>
       <c r="G114" t="n">
-        <v>2365.990440004344</v>
+        <v>3962.207652946962</v>
       </c>
       <c r="H114" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="I114" t="n">
-        <v>283176</v>
+        <v>283580</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8057917</v>
+        <v>8060162</v>
       </c>
       <c r="F115" t="n">
-        <v>481.775453118175</v>
+        <v>458.9465171508132</v>
       </c>
       <c r="G115" t="n">
-        <v>6813.376868467027</v>
+        <v>6140.403451995859</v>
       </c>
       <c r="H115" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>583506</v>
+        <v>691711</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3309825</v>
+        <v>3304896</v>
       </c>
       <c r="E116" t="n">
-        <v>4433719</v>
+        <v>4427116</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148125</v>
+        <v>148232</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33972620</v>
+        <v>34114030</v>
       </c>
       <c r="E117" t="n">
-        <v>169539035</v>
+        <v>170244733</v>
       </c>
       <c r="F117" t="n">
-        <v>79019.15116158368</v>
+        <v>70999.98838081761</v>
       </c>
       <c r="G117" t="n">
-        <v>72359.2244880357</v>
+        <v>74546.19364481381</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I117" t="n">
-        <v>10078678</v>
+        <v>10036237</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3443316</v>
+        <v>3442762</v>
       </c>
       <c r="E118" t="n">
-        <v>4946650</v>
+        <v>4945855</v>
       </c>
       <c r="F118" t="n">
-        <v>747.2821386860202</v>
+        <v>747.2860556406411</v>
       </c>
       <c r="G118" t="n">
-        <v>898.1029815995225</v>
+        <v>899.2014036436447</v>
       </c>
       <c r="H118" t="n">
         <v>0.6</v>
       </c>
       <c r="I118" t="n">
-        <v>136926</v>
+        <v>173851</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>313491392</v>
+        <v>312879046</v>
       </c>
       <c r="E119" t="n">
-        <v>580030566</v>
+        <v>578897586</v>
       </c>
       <c r="F119" t="n">
-        <v>99855.47047167791</v>
+        <v>104062.5876340289</v>
       </c>
       <c r="G119" t="n">
-        <v>109989.9432044562</v>
+        <v>129443.2362220064</v>
       </c>
       <c r="H119" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I119" t="n">
-        <v>12899734</v>
+        <v>12876803</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71353849</v>
+        <v>71203783</v>
       </c>
       <c r="E120" t="n">
-        <v>680778703</v>
+        <v>679346364</v>
       </c>
       <c r="F120" t="n">
-        <v>3796.828374464236</v>
+        <v>3198.995742847466</v>
       </c>
       <c r="G120" t="n">
-        <v>41291.39867026648</v>
+        <v>41112.27090270666</v>
       </c>
       <c r="H120" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>21205541</v>
+        <v>21179020</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38056270</v>
+        <v>37969086</v>
       </c>
       <c r="E121" t="n">
-        <v>49758326</v>
+        <v>49644333</v>
       </c>
       <c r="F121" t="n">
-        <v>193.6687817347913</v>
+        <v>5694.924334996626</v>
       </c>
       <c r="G121" t="n">
-        <v>513.8903055569983</v>
+        <v>475.5050098974378</v>
       </c>
       <c r="H121" t="n">
         <v>1.8</v>
       </c>
       <c r="I121" t="n">
-        <v>433079</v>
+        <v>535451</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9292905</v>
+        <v>9322745</v>
       </c>
       <c r="E122" t="n">
-        <v>27578485</v>
+        <v>27667041</v>
       </c>
       <c r="F122" t="n">
-        <v>383.7641251907332</v>
+        <v>1670.336703855215</v>
       </c>
       <c r="G122" t="n">
-        <v>5442.121974656111</v>
+        <v>6772.654937346471</v>
       </c>
       <c r="H122" t="n">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="I122" t="n">
-        <v>5778910</v>
+        <v>5792511</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2241162</v>
+        <v>2241142</v>
       </c>
       <c r="E123" t="n">
-        <v>7668921</v>
+        <v>7668851</v>
       </c>
       <c r="F123" t="n">
-        <v>438.3575593923039</v>
+        <v>527.3280843462172</v>
       </c>
       <c r="G123" t="n">
-        <v>1345.048817840623</v>
+        <v>1345.047208074412</v>
       </c>
       <c r="H123" t="n">
         <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>807294</v>
+        <v>799540</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7319344</v>
+        <v>7319920</v>
       </c>
       <c r="E124" t="n">
-        <v>7319355</v>
+        <v>7319931</v>
       </c>
       <c r="F124" t="n">
-        <v>45.20326396471658</v>
+        <v>273.1564797426872</v>
       </c>
       <c r="G124" t="n">
-        <v>885.9908425190404</v>
+        <v>920.3577819442401</v>
       </c>
       <c r="H124" t="n">
         <v>0.73</v>
       </c>
       <c r="I124" t="n">
-        <v>344834</v>
+        <v>345039</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6047097</v>
+        <v>6055056</v>
       </c>
       <c r="E125" t="n">
-        <v>6047097</v>
+        <v>6055056</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>499517</v>
+        <v>498355</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6210683</v>
+        <v>6216023</v>
       </c>
       <c r="E126" t="n">
-        <v>22685223</v>
+        <v>22704726</v>
       </c>
       <c r="F126" t="n">
-        <v>5958.289349018467</v>
+        <v>964.2069160517977</v>
       </c>
       <c r="G126" t="n">
-        <v>1837.221544411166</v>
+        <v>6830.103544227822</v>
       </c>
       <c r="H126" t="n">
         <v>0.84</v>
       </c>
       <c r="I126" t="n">
-        <v>529873</v>
+        <v>531205</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44916895</v>
+        <v>44900674</v>
       </c>
       <c r="E127" t="n">
-        <v>44916895</v>
+        <v>44900674</v>
       </c>
       <c r="F127" t="n">
-        <v>53954.4146801344</v>
+        <v>64800.73172318924</v>
       </c>
       <c r="G127" t="n">
-        <v>93816.56047914492</v>
+        <v>87113.78216857603</v>
       </c>
       <c r="H127" t="n">
         <v>0.33</v>
       </c>
       <c r="I127" t="n">
-        <v>8995665</v>
+        <v>8003851</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>146682199</v>
+        <v>146959833</v>
       </c>
       <c r="F128" t="n">
-        <v>5180.487792008492</v>
+        <v>5167.960554738368</v>
       </c>
       <c r="G128" t="n">
-        <v>486.2133312224723</v>
+        <v>483.4397946083139</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1543560</v>
+        <v>1560518</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3042455</v>
+        <v>3043907</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72277</v>
+        <v>72551</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20725945</v>
+        <v>20754777</v>
       </c>
       <c r="F130" t="n">
-        <v>383.993632332426</v>
+        <v>259.6509895037816</v>
       </c>
       <c r="G130" t="n">
-        <v>489.3105315799463</v>
+        <v>613.2739312811943</v>
       </c>
       <c r="H130" t="n">
-        <v>0.96</v>
+        <v>1.91</v>
       </c>
       <c r="I130" t="n">
-        <v>2895421</v>
+        <v>2894137</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1243428</v>
+        <v>1253998</v>
       </c>
       <c r="E131" t="n">
-        <v>3761827</v>
+        <v>3793695</v>
       </c>
       <c r="F131" t="n">
-        <v>790.8179360846833</v>
+        <v>790.8220812365727</v>
       </c>
       <c r="G131" t="n">
-        <v>746.3297756684112</v>
+        <v>746.3938743580982</v>
       </c>
       <c r="H131" t="n">
         <v>0.79</v>
       </c>
       <c r="I131" t="n">
-        <v>11209.74</v>
+        <v>11371.39</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>601921001</v>
+        <v>603932146</v>
       </c>
       <c r="E132" t="n">
-        <v>2331151229</v>
+        <v>2338940097</v>
       </c>
       <c r="F132" t="n">
-        <v>411304.7759409087</v>
+        <v>504179.2066251198</v>
       </c>
       <c r="G132" t="n">
-        <v>689913.4708186779</v>
+        <v>477075.2692723472</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>31670586</v>
+        <v>31974533</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3678626</v>
+        <v>3678977</v>
       </c>
       <c r="E133" t="n">
-        <v>6270717</v>
+        <v>6271317</v>
       </c>
       <c r="F133" t="n">
-        <v>5275.842916166914</v>
+        <v>5406.103491794145</v>
       </c>
       <c r="G133" t="n">
-        <v>5637.152875765621</v>
+        <v>5642.544634796492</v>
       </c>
       <c r="H133" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I133" t="n">
-        <v>1223156</v>
+        <v>1230197</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118495204</v>
+        <v>118094324</v>
       </c>
       <c r="E134" t="n">
-        <v>1030242971</v>
+        <v>1026757564</v>
       </c>
       <c r="F134" t="n">
-        <v>126021.2843622635</v>
+        <v>123773.3638676924</v>
       </c>
       <c r="G134" t="n">
-        <v>111308.1793895658</v>
+        <v>94484.64714053426</v>
       </c>
       <c r="H134" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I134" t="n">
-        <v>8992510</v>
+        <v>9079853</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1017741356</v>
+        <v>1016653020</v>
       </c>
       <c r="E135" t="n">
-        <v>1117991669</v>
+        <v>1116796129</v>
       </c>
       <c r="F135" t="n">
-        <v>13462.72669784839</v>
+        <v>14532.02223913192</v>
       </c>
       <c r="G135" t="n">
-        <v>15753.06242370958</v>
+        <v>19757.05713089075</v>
       </c>
       <c r="H135" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="I135" t="n">
-        <v>9816695</v>
+        <v>9823106</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1118271</v>
+        <v>1121276</v>
       </c>
       <c r="E136" t="n">
-        <v>4330191</v>
+        <v>4341825</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>434297</v>
+        <v>429863</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>113431989</v>
+        <v>113371418</v>
       </c>
       <c r="E137" t="n">
-        <v>435143366</v>
+        <v>434911007</v>
       </c>
       <c r="F137" t="n">
-        <v>124646.8251118171</v>
+        <v>137592.6502020434</v>
       </c>
       <c r="G137" t="n">
-        <v>186724.9818402111</v>
+        <v>205615.3544414638</v>
       </c>
       <c r="H137" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I137" t="n">
-        <v>18760162</v>
+        <v>20886570</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3150849</v>
+        <v>3171523</v>
       </c>
       <c r="E138" t="n">
-        <v>29854761</v>
+        <v>30050654</v>
       </c>
       <c r="F138" t="n">
-        <v>2775.095902873414</v>
+        <v>4125.129131962286</v>
       </c>
       <c r="G138" t="n">
-        <v>5035.108395317066</v>
+        <v>5096.346915634334</v>
       </c>
       <c r="H138" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>278389</v>
+        <v>315879</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22573163</v>
+        <v>21916956</v>
       </c>
       <c r="E139" t="n">
-        <v>22573163</v>
+        <v>21916956</v>
       </c>
       <c r="F139" t="n">
-        <v>1977.898880519804</v>
+        <v>4102.948582165733</v>
       </c>
       <c r="G139" t="n">
-        <v>3499.251377582786</v>
+        <v>1127.730935080286</v>
       </c>
       <c r="H139" t="n">
-        <v>0.97</v>
+        <v>1.46</v>
       </c>
       <c r="I139" t="n">
-        <v>557940</v>
+        <v>572499</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>495015832</v>
+        <v>494419003</v>
       </c>
       <c r="E140" t="n">
-        <v>495015832</v>
+        <v>494419003</v>
       </c>
       <c r="F140" t="n">
-        <v>985046.5530057896</v>
+        <v>907696.8893353271</v>
       </c>
       <c r="G140" t="n">
-        <v>825769.467299946</v>
+        <v>866792.224181905</v>
       </c>
       <c r="H140" t="n">
         <v>0.01</v>
       </c>
       <c r="I140" t="n">
-        <v>33092609</v>
+        <v>32842755</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31647242</v>
+        <v>31598462</v>
       </c>
       <c r="F141" t="n">
-        <v>49769.79092258341</v>
+        <v>44394.6004254469</v>
       </c>
       <c r="G141" t="n">
-        <v>62347.69517416963</v>
+        <v>56585.56655087454</v>
       </c>
       <c r="H141" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I141" t="n">
-        <v>5590389</v>
+        <v>5568560</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>765202</v>
+        <v>767475</v>
       </c>
       <c r="E142" t="n">
-        <v>12204698</v>
+        <v>12240954</v>
       </c>
       <c r="F142" t="n">
-        <v>59.21229473466861</v>
+        <v>77.67185476000608</v>
       </c>
       <c r="G142" t="n">
-        <v>40.89088872656004</v>
+        <v>40.89110306027318</v>
       </c>
       <c r="H142" t="n">
-        <v>0.08</v>
+        <v>0.72</v>
       </c>
       <c r="I142" t="n">
-        <v>66732</v>
+        <v>66563</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2649230317</v>
+        <v>2652448290</v>
       </c>
       <c r="E143" t="n">
-        <v>2812793259</v>
+        <v>2816209909</v>
       </c>
       <c r="F143" t="n">
-        <v>3063.069462895235</v>
+        <v>3587.768039146814</v>
       </c>
       <c r="G143" t="n">
-        <v>21511.92210758014</v>
+        <v>19814.85779276638</v>
       </c>
       <c r="H143" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I143" t="n">
-        <v>39942015</v>
+        <v>39404854</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1636803</v>
+        <v>1644669</v>
       </c>
       <c r="E144" t="n">
-        <v>1642581</v>
+        <v>1650474</v>
       </c>
       <c r="F144" t="n">
-        <v>260.7944415258492</v>
+        <v>302.3995060900992</v>
       </c>
       <c r="G144" t="n">
-        <v>322.0027560989793</v>
+        <v>1002.215881023928</v>
       </c>
       <c r="H144" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="I144" t="n">
-        <v>391119</v>
+        <v>391048</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61808844</v>
+        <v>61527527</v>
       </c>
       <c r="E145" t="n">
-        <v>151612906</v>
+        <v>150922855</v>
       </c>
       <c r="F145" t="n">
-        <v>3526.74379819271</v>
+        <v>3062.691489915171</v>
       </c>
       <c r="G145" t="n">
-        <v>4635.491979727885</v>
+        <v>5025.762872273382</v>
       </c>
       <c r="H145" t="n">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="I145" t="n">
-        <v>22646265</v>
+        <v>22635250</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>730249512</v>
+        <v>744625795</v>
       </c>
       <c r="E146" t="n">
-        <v>1126109223</v>
+        <v>1148278720</v>
       </c>
       <c r="F146" t="n">
-        <v>148732.1082721523</v>
+        <v>159681.5462858521</v>
       </c>
       <c r="G146" t="n">
-        <v>141540.1750683603</v>
+        <v>151079.8772226002</v>
       </c>
       <c r="H146" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I146" t="n">
-        <v>203858878</v>
+        <v>210169188</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23375296</v>
+        <v>23204403</v>
       </c>
       <c r="E147" t="n">
-        <v>23375296</v>
+        <v>23204403</v>
       </c>
       <c r="F147" t="n">
-        <v>4687.091110860862</v>
+        <v>4442.292664499535</v>
       </c>
       <c r="G147" t="n">
-        <v>8262.021551112442</v>
+        <v>8397.841425992539</v>
       </c>
       <c r="H147" t="n">
-        <v>0.62</v>
+        <v>0.32</v>
       </c>
       <c r="I147" t="n">
-        <v>6248434</v>
+        <v>6424708</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3816721</v>
+        <v>3816929</v>
       </c>
       <c r="E148" t="n">
-        <v>8328037</v>
+        <v>8328489</v>
       </c>
       <c r="F148" t="n">
-        <v>5668.459550065938</v>
+        <v>5668.489261867785</v>
       </c>
       <c r="G148" t="n">
-        <v>5783.296097702278</v>
+        <v>5830.316826980784</v>
       </c>
       <c r="H148" t="n">
         <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>854805</v>
+        <v>857340</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9357131</v>
+        <v>9354523</v>
       </c>
       <c r="E149" t="n">
-        <v>9357131</v>
+        <v>9354523</v>
       </c>
       <c r="F149" t="n">
-        <v>80155.1721643901</v>
+        <v>385956.247841472</v>
       </c>
       <c r="G149" t="n">
-        <v>63707.57129439167</v>
+        <v>709402.0692957725</v>
       </c>
       <c r="H149" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I149" t="n">
-        <v>3206435</v>
+        <v>3141307</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>491700476</v>
+        <v>492093536</v>
       </c>
       <c r="E150" t="n">
-        <v>1712436779</v>
+        <v>1713805683</v>
       </c>
       <c r="F150" t="n">
-        <v>747250.2124518116</v>
+        <v>786303.1198750866</v>
       </c>
       <c r="G150" t="n">
-        <v>844850.0919951048</v>
+        <v>852160.9954233353</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>31423375</v>
+        <v>31135495</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48036000</v>
+        <v>48005982</v>
       </c>
       <c r="E151" t="n">
-        <v>118553276</v>
+        <v>118479192</v>
       </c>
       <c r="F151" t="n">
-        <v>5615.69650273439</v>
+        <v>5636.755059150079</v>
       </c>
       <c r="G151" t="n">
-        <v>8137.231809219094</v>
+        <v>8137.274461339473</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>37245</v>
+        <v>37215</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7672862</v>
+        <v>7691635</v>
       </c>
       <c r="E152" t="n">
-        <v>19933270</v>
+        <v>19982040</v>
       </c>
       <c r="F152" t="n">
-        <v>1048.619954800921</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>3979.364983587105</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>1.99</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I152" t="n">
-        <v>682377</v>
+        <v>682734</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19265771204</v>
+        <v>19254818245</v>
       </c>
       <c r="F153" t="n">
-        <v>52450.4639877623</v>
+        <v>52450.73891215384</v>
       </c>
       <c r="G153" t="n">
-        <v>50111.46737286451</v>
+        <v>50111.73003716963</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48948233</v>
+        <v>48909634</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2651647</v>
+        <v>2650625</v>
       </c>
       <c r="E154" t="n">
-        <v>10606587</v>
+        <v>10602501</v>
       </c>
       <c r="F154" t="n">
-        <v>20686.18778750783</v>
+        <v>11948.96852662425</v>
       </c>
       <c r="G154" t="n">
-        <v>5782.439038943571</v>
+        <v>3714.54946363319</v>
       </c>
       <c r="H154" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="I154" t="n">
-        <v>5306000</v>
+        <v>5338820</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>215292965</v>
+        <v>215760777</v>
       </c>
       <c r="E155" t="n">
-        <v>661944848</v>
+        <v>663383195</v>
       </c>
       <c r="F155" t="n">
-        <v>170855.2492640781</v>
+        <v>156442.7486132553</v>
       </c>
       <c r="G155" t="n">
-        <v>193538.176724726</v>
+        <v>182442.4908378322</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I155" t="n">
-        <v>11523405</v>
+        <v>11519169</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>399760239</v>
+        <v>402256033</v>
       </c>
       <c r="E156" t="n">
-        <v>2284344225</v>
+        <v>2298605905</v>
       </c>
       <c r="F156" t="n">
-        <v>139272.4760709021</v>
+        <v>142844.6222825501</v>
       </c>
       <c r="G156" t="n">
-        <v>279778.7644165071</v>
+        <v>226260.9462263996</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>36553034</v>
+        <v>36812081</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3917024</v>
+        <v>3922618</v>
       </c>
       <c r="F2" t="n">
-        <v>1227.915039698704</v>
+        <v>1355.572179416812</v>
       </c>
       <c r="G2" t="n">
-        <v>933.1720040534865</v>
+        <v>1843.85889960155</v>
       </c>
       <c r="H2" t="n">
-        <v>0.89</v>
+        <v>1.54</v>
       </c>
       <c r="I2" t="n">
-        <v>105544</v>
+        <v>109002</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>614627615</v>
+        <v>615124667</v>
       </c>
       <c r="E3" t="n">
-        <v>1192582234</v>
+        <v>1193593651</v>
       </c>
       <c r="F3" t="n">
-        <v>60196.52700798782</v>
+        <v>73778.02331062403</v>
       </c>
       <c r="G3" t="n">
-        <v>83014.98566438755</v>
+        <v>76959.36419228326</v>
       </c>
       <c r="H3" t="n">
         <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>23460884</v>
+        <v>23367812</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246440388</v>
+        <v>247498493</v>
       </c>
       <c r="E4" t="n">
-        <v>1545393034</v>
+        <v>1552028263</v>
       </c>
       <c r="F4" t="n">
-        <v>273351.2246957706</v>
+        <v>322155.7797857086</v>
       </c>
       <c r="G4" t="n">
-        <v>282061.4299657106</v>
+        <v>324184.8957472828</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>15559177</v>
+        <v>15454542</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140810553</v>
+        <v>141213525</v>
       </c>
       <c r="E5" t="n">
-        <v>156040584</v>
+        <v>156487074</v>
       </c>
       <c r="F5" t="n">
-        <v>8767.834304071926</v>
+        <v>8625.59365265576</v>
       </c>
       <c r="G5" t="n">
-        <v>912.7576084491782</v>
+        <v>516.7371110819379</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I5" t="n">
-        <v>33966145</v>
+        <v>34127525</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49985765</v>
+        <v>49834803</v>
       </c>
       <c r="E6" t="n">
-        <v>62530910</v>
+        <v>62342061</v>
       </c>
       <c r="F6" t="n">
-        <v>5966.30632392571</v>
+        <v>6567.586201963636</v>
       </c>
       <c r="G6" t="n">
-        <v>4668.669477879114</v>
+        <v>5926.164313358443</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I6" t="n">
-        <v>526658</v>
+        <v>511466</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68615003</v>
+        <v>69136404</v>
       </c>
       <c r="E7" t="n">
-        <v>136680891</v>
+        <v>137719520</v>
       </c>
       <c r="F7" t="n">
-        <v>9727.877507092824</v>
+        <v>9878.058676877252</v>
       </c>
       <c r="G7" t="n">
-        <v>12642.18575238273</v>
+        <v>13882.75167064175</v>
       </c>
       <c r="H7" t="n">
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1354681</v>
+        <v>1415259</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41048818</v>
+        <v>40680630</v>
       </c>
       <c r="E8" t="n">
-        <v>45939540</v>
+        <v>45527485</v>
       </c>
       <c r="F8" t="n">
-        <v>6729.995130792524</v>
+        <v>6761.983286232149</v>
       </c>
       <c r="G8" t="n">
-        <v>6634.022622045794</v>
+        <v>6657.952024373438</v>
       </c>
       <c r="H8" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="I8" t="n">
-        <v>647800</v>
+        <v>241297</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14295305</v>
+        <v>14359639</v>
       </c>
       <c r="E9" t="n">
-        <v>42127341</v>
+        <v>42316929</v>
       </c>
       <c r="F9" t="n">
-        <v>5028.414618565356</v>
+        <v>4920.399508371795</v>
       </c>
       <c r="G9" t="n">
-        <v>4755.996668761474</v>
+        <v>4785.116171878463</v>
       </c>
       <c r="H9" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="I9" t="n">
-        <v>814028</v>
+        <v>819780</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7498223</v>
+        <v>7504624</v>
       </c>
       <c r="E10" t="n">
-        <v>32238366</v>
+        <v>32265888</v>
       </c>
       <c r="F10" t="n">
-        <v>4223.135034461415</v>
+        <v>5493.840483359501</v>
       </c>
       <c r="G10" t="n">
-        <v>4173.910433654552</v>
+        <v>4200.469977974753</v>
       </c>
       <c r="H10" t="n">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="I10" t="n">
-        <v>681928</v>
+        <v>677603</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>556143019</v>
+        <v>561577902</v>
       </c>
       <c r="E11" t="n">
-        <v>695652259</v>
+        <v>702450489</v>
       </c>
       <c r="F11" t="n">
-        <v>310801.7295192687</v>
+        <v>252132.2599884359</v>
       </c>
       <c r="G11" t="n">
-        <v>265391.6629066095</v>
+        <v>279079.5329638214</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>53556909</v>
+        <v>55005577</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4751789</v>
+        <v>4715604</v>
       </c>
       <c r="E12" t="n">
-        <v>29187196</v>
+        <v>28964892</v>
       </c>
       <c r="F12" t="n">
-        <v>7885.104631186831</v>
+        <v>9639.903259715793</v>
       </c>
       <c r="G12" t="n">
-        <v>7252.681551500166</v>
+        <v>8131.522651516946</v>
       </c>
       <c r="H12" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>469539</v>
+        <v>481524</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22293118</v>
+        <v>22307701</v>
       </c>
       <c r="E13" t="n">
-        <v>22334858</v>
+        <v>22349406</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>870736</v>
+        <v>854809</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82654511</v>
+        <v>82870444</v>
       </c>
       <c r="E14" t="n">
-        <v>243179823</v>
+        <v>243815124</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>408851</v>
+        <v>389350</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>473270552</v>
+        <v>479965803</v>
       </c>
       <c r="E15" t="n">
-        <v>473270552</v>
+        <v>479965808</v>
       </c>
       <c r="F15" t="n">
-        <v>9704.193115320382</v>
+        <v>14539.65947848324</v>
       </c>
       <c r="G15" t="n">
-        <v>19338.27552127456</v>
+        <v>14620.87768042334</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>63538913</v>
+        <v>64763981</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4663309</v>
+        <v>4675439</v>
       </c>
       <c r="E16" t="n">
-        <v>4663309</v>
+        <v>4675439</v>
       </c>
       <c r="F16" t="n">
-        <v>546.553174928743</v>
+        <v>344.2593872306367</v>
       </c>
       <c r="G16" t="n">
-        <v>4689.399106996233</v>
+        <v>1503.215568214679</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="I16" t="n">
-        <v>1967512</v>
+        <v>1987400</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3357173</v>
+        <v>3366297</v>
       </c>
       <c r="E17" t="n">
-        <v>3357173</v>
+        <v>3366297</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>532267</v>
+        <v>530366</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166931813</v>
+        <v>167907356</v>
       </c>
       <c r="E18" t="n">
-        <v>206668537</v>
+        <v>207876299</v>
       </c>
       <c r="F18" t="n">
-        <v>8945.850170700893</v>
+        <v>8927.642515240061</v>
       </c>
       <c r="G18" t="n">
-        <v>7679.099717009272</v>
+        <v>8654.193026156725</v>
       </c>
       <c r="H18" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="I18" t="n">
-        <v>374144</v>
+        <v>391888</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6696189</v>
+        <v>6699206</v>
       </c>
       <c r="E19" t="n">
-        <v>9222364</v>
+        <v>9226519</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>837828</v>
+        <v>837192</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>919309</v>
+        <v>921793</v>
       </c>
       <c r="E20" t="n">
-        <v>6435164</v>
+        <v>6452553</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>203820</v>
+        <v>155250</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>112039489</v>
+        <v>112544368</v>
       </c>
       <c r="E21" t="n">
-        <v>436170808</v>
+        <v>438110943</v>
       </c>
       <c r="F21" t="n">
-        <v>33683.06484301625</v>
+        <v>37263.84145714471</v>
       </c>
       <c r="G21" t="n">
-        <v>74618.32233762775</v>
+        <v>77247.88610396201</v>
       </c>
       <c r="H21" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>9768518</v>
+        <v>7698857</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1683105</v>
+        <v>1684227</v>
       </c>
       <c r="E22" t="n">
-        <v>12123262</v>
+        <v>12131345</v>
       </c>
       <c r="F22" t="n">
-        <v>4557.575923428751</v>
+        <v>6015.596037234739</v>
       </c>
       <c r="G22" t="n">
-        <v>4357.16332270741</v>
+        <v>3546.596948305324</v>
       </c>
       <c r="H22" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>120292</v>
+        <v>120582</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>136725727</v>
+        <v>137505421</v>
       </c>
       <c r="E23" t="n">
-        <v>136725727</v>
+        <v>137505421</v>
       </c>
       <c r="F23" t="n">
-        <v>1141935.410629732</v>
+        <v>1107053.417441448</v>
       </c>
       <c r="G23" t="n">
-        <v>1225139.568203441</v>
+        <v>1317121.895098098</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>65873141</v>
+        <v>66109032</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65046262</v>
+        <v>65554977</v>
       </c>
       <c r="E24" t="n">
-        <v>333570575</v>
+        <v>336179370</v>
       </c>
       <c r="F24" t="n">
-        <v>84716.04200956636</v>
+        <v>96429.62932537697</v>
       </c>
       <c r="G24" t="n">
-        <v>106810.720989298</v>
+        <v>96919.87026435114</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>18889271</v>
+        <v>19160568</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>253887415</v>
+        <v>255494928</v>
       </c>
       <c r="E25" t="n">
-        <v>253887415</v>
+        <v>255494928</v>
       </c>
       <c r="F25" t="n">
-        <v>340961.4527192155</v>
+        <v>395560.8780468163</v>
       </c>
       <c r="G25" t="n">
-        <v>401805.8442952879</v>
+        <v>399394.7258609036</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>14835252</v>
+        <v>14925839</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1124524</v>
+        <v>1125284</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>190919</v>
+        <v>190977</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3982586</v>
+        <v>4017792</v>
       </c>
       <c r="E28" t="n">
-        <v>3983460</v>
+        <v>4018698</v>
       </c>
       <c r="F28" t="n">
-        <v>731.8128590690299</v>
+        <v>379.4538990606832</v>
       </c>
       <c r="G28" t="n">
-        <v>4262.134057891999</v>
+        <v>4021.774983686127</v>
       </c>
       <c r="H28" t="n">
         <v>0.62</v>
       </c>
       <c r="I28" t="n">
-        <v>281442</v>
+        <v>290193</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6696328</v>
+        <v>6799502</v>
       </c>
       <c r="E29" t="n">
-        <v>16264865</v>
+        <v>16515467</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>455280</v>
+        <v>461585</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100292174</v>
+        <v>100305395</v>
       </c>
       <c r="E30" t="n">
-        <v>125052584</v>
+        <v>125069069</v>
       </c>
       <c r="F30" t="n">
-        <v>115128.094082289</v>
+        <v>123570.8970561322</v>
       </c>
       <c r="G30" t="n">
-        <v>104616.2524870833</v>
+        <v>101915.8950299472</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11490717</v>
+        <v>11275730</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1115229</v>
+        <v>1115277</v>
       </c>
       <c r="E31" t="n">
-        <v>12119890</v>
+        <v>12120413</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29364</v>
+        <v>29365</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>73141794</v>
+        <v>72980523</v>
       </c>
       <c r="E32" t="n">
-        <v>204741923</v>
+        <v>204297332</v>
       </c>
       <c r="F32" t="n">
-        <v>53869.04467053228</v>
+        <v>49153.22618587951</v>
       </c>
       <c r="G32" t="n">
-        <v>67941.78044648081</v>
+        <v>65435.22804165356</v>
       </c>
       <c r="H32" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I32" t="n">
-        <v>33038400</v>
+        <v>33115042</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4222571</v>
+        <v>4216454</v>
       </c>
       <c r="E33" t="n">
-        <v>8327266</v>
+        <v>8315201</v>
       </c>
       <c r="F33" t="n">
-        <v>10572.05891985707</v>
+        <v>9200.279842279975</v>
       </c>
       <c r="G33" t="n">
-        <v>7701.893462649299</v>
+        <v>7941.442079485615</v>
       </c>
       <c r="H33" t="n">
         <v>0.38</v>
       </c>
       <c r="I33" t="n">
-        <v>1644396</v>
+        <v>1642788</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37360710</v>
+        <v>37226350</v>
       </c>
       <c r="F34" t="n">
-        <v>966.4195620968209</v>
+        <v>799.2139801524354</v>
       </c>
       <c r="G34" t="n">
-        <v>564.3984215926208</v>
+        <v>614.8430715655288</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
       <c r="I34" t="n">
-        <v>65374</v>
+        <v>63611</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7554037</v>
+        <v>7599595</v>
       </c>
       <c r="E35" t="n">
-        <v>17791258</v>
+        <v>17898557</v>
       </c>
       <c r="F35" t="n">
-        <v>3493.144375435342</v>
+        <v>3735.520932522153</v>
       </c>
       <c r="G35" t="n">
-        <v>2559.525126807403</v>
+        <v>2595.453463313097</v>
       </c>
       <c r="H35" t="n">
-        <v>1.34</v>
+        <v>0.33</v>
       </c>
       <c r="I35" t="n">
-        <v>32520</v>
+        <v>35872</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23172217</v>
+        <v>23229227</v>
       </c>
       <c r="F36" t="n">
-        <v>5379.717093706771</v>
+        <v>5366.861601314363</v>
       </c>
       <c r="G36" t="n">
-        <v>5492.210912519758</v>
+        <v>5224.189740069234</v>
       </c>
       <c r="H36" t="n">
-        <v>0.78</v>
+        <v>1.46</v>
       </c>
       <c r="I36" t="n">
-        <v>117383</v>
+        <v>117723</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73342922</v>
+        <v>73938344</v>
       </c>
       <c r="E37" t="n">
-        <v>152957238</v>
+        <v>154198994</v>
       </c>
       <c r="F37" t="n">
-        <v>50468.3929914921</v>
+        <v>102907.0200927202</v>
       </c>
       <c r="G37" t="n">
-        <v>120495.1719400262</v>
+        <v>117397.4699372822</v>
       </c>
       <c r="H37" t="n">
         <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>14368090</v>
+        <v>14466594</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>279019851</v>
+        <v>278142654</v>
       </c>
       <c r="E38" t="n">
-        <v>279019851</v>
+        <v>278142654</v>
       </c>
       <c r="F38" t="n">
-        <v>34207.68313093083</v>
+        <v>34590.95825870855</v>
       </c>
       <c r="G38" t="n">
-        <v>27723.8385325511</v>
+        <v>34893.03844996811</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>10119507</v>
+        <v>10208529</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>198562951</v>
+        <v>198817849</v>
       </c>
       <c r="E39" t="n">
-        <v>689825636</v>
+        <v>690711175</v>
       </c>
       <c r="F39" t="n">
-        <v>146599.6210880347</v>
+        <v>112445.6987283772</v>
       </c>
       <c r="G39" t="n">
-        <v>328909.8301840611</v>
+        <v>398808.8259262319</v>
       </c>
       <c r="H39" t="n">
         <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>25953812</v>
+        <v>25925526</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4303683</v>
+        <v>4135750</v>
       </c>
       <c r="E40" t="n">
-        <v>4303683</v>
+        <v>4135750</v>
       </c>
       <c r="F40" t="n">
-        <v>688.8940648658099</v>
+        <v>1544.753565834495</v>
       </c>
       <c r="G40" t="n">
-        <v>2086.31925585069</v>
+        <v>1252.261881960188</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3</v>
+        <v>0.68</v>
       </c>
       <c r="I40" t="n">
-        <v>3543841</v>
+        <v>3594786</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>115009986</v>
+        <v>115510665</v>
       </c>
       <c r="E41" t="n">
-        <v>489207559</v>
+        <v>491257031</v>
       </c>
       <c r="F41" t="n">
-        <v>5547.365511799701</v>
+        <v>5633.742978858527</v>
       </c>
       <c r="G41" t="n">
-        <v>5691.02835742898</v>
+        <v>6098.691105836268</v>
       </c>
       <c r="H41" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I41" t="n">
-        <v>13857653</v>
+        <v>14052920</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>540346</v>
+        <v>532988</v>
       </c>
       <c r="E42" t="n">
-        <v>6553875</v>
+        <v>6464627</v>
       </c>
       <c r="F42" t="n">
-        <v>387.4842157228299</v>
+        <v>703.3086465170817</v>
       </c>
       <c r="G42" t="n">
-        <v>1450.79800998669</v>
+        <v>742.2988185147975</v>
       </c>
       <c r="H42" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I42" t="n">
-        <v>2720471</v>
+        <v>2790915</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1305982176</v>
+        <v>1315704686</v>
       </c>
       <c r="E43" t="n">
-        <v>6262451992</v>
+        <v>6309073417</v>
       </c>
       <c r="F43" t="n">
-        <v>47019.78550282217</v>
+        <v>43857.27377948498</v>
       </c>
       <c r="G43" t="n">
-        <v>64042.10335847312</v>
+        <v>64449.97352256926</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I43" t="n">
-        <v>168964123</v>
+        <v>179759629</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6053470430</v>
+        <v>6055490667</v>
       </c>
       <c r="E44" t="n">
-        <v>6053470430</v>
+        <v>6055490667</v>
       </c>
       <c r="F44" t="n">
-        <v>676885.6949667681</v>
+        <v>755712.6551053316</v>
       </c>
       <c r="G44" t="n">
-        <v>1784998.432225035</v>
+        <v>1807518.478173519</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>101102129</v>
+        <v>101338245</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>267537758</v>
+        <v>269362569</v>
       </c>
       <c r="E45" t="n">
-        <v>1154841483</v>
+        <v>1162718380</v>
       </c>
       <c r="F45" t="n">
-        <v>105409.4478646049</v>
+        <v>119221.2151957793</v>
       </c>
       <c r="G45" t="n">
-        <v>101174.3363196238</v>
+        <v>96226.5253475284</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>111225163</v>
+        <v>109046108</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114568838</v>
+        <v>115000459</v>
       </c>
       <c r="E46" t="n">
-        <v>114568838</v>
+        <v>115000459</v>
       </c>
       <c r="F46" t="n">
-        <v>39740.21133053889</v>
+        <v>38119.74966812017</v>
       </c>
       <c r="G46" t="n">
-        <v>28335.62371528881</v>
+        <v>28413.05044548912</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I46" t="n">
-        <v>5991881</v>
+        <v>6014888</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2043428180</v>
+        <v>2047520377</v>
       </c>
       <c r="E47" t="n">
-        <v>2043428180</v>
+        <v>2047520377</v>
       </c>
       <c r="F47" t="n">
-        <v>225935.7925325916</v>
+        <v>175126.639586658</v>
       </c>
       <c r="G47" t="n">
-        <v>199248.5381419899</v>
+        <v>148446.4270438997</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>5329888794</v>
+        <v>5972391376</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9803710</v>
+        <v>9810958</v>
       </c>
       <c r="F48" t="n">
-        <v>6769.328324135512</v>
+        <v>6817.414448275724</v>
       </c>
       <c r="G48" t="n">
-        <v>5919.850270149926</v>
+        <v>5809.370651289689</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>170428</v>
+        <v>167873</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4392042</v>
+        <v>4374149</v>
       </c>
       <c r="E49" t="n">
-        <v>5766178</v>
+        <v>5742687</v>
       </c>
       <c r="F49" t="n">
-        <v>12585.26431318467</v>
+        <v>12652.70932500249</v>
       </c>
       <c r="G49" t="n">
-        <v>14604.57595485095</v>
+        <v>16361.34858006804</v>
       </c>
       <c r="H49" t="n">
         <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>598553</v>
+        <v>535735</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11664560</v>
+        <v>11911483</v>
       </c>
       <c r="E50" t="n">
-        <v>17152516</v>
+        <v>17515611</v>
       </c>
       <c r="F50" t="n">
-        <v>6345.808569976042</v>
+        <v>6458.641784319272</v>
       </c>
       <c r="G50" t="n">
-        <v>7854.075588097059</v>
+        <v>6483.962533376</v>
       </c>
       <c r="H50" t="n">
         <v>0.23</v>
       </c>
       <c r="I50" t="n">
-        <v>1335913</v>
+        <v>1602253</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22397079</v>
+        <v>22452998</v>
       </c>
       <c r="E51" t="n">
-        <v>29054135</v>
+        <v>29126675</v>
       </c>
       <c r="F51" t="n">
-        <v>10454.99160125186</v>
+        <v>11465.44715556381</v>
       </c>
       <c r="G51" t="n">
-        <v>7564.264919281992</v>
+        <v>7555.56355797007</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>154926</v>
+        <v>157480</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14140875</v>
+        <v>14239853</v>
       </c>
       <c r="E52" t="n">
-        <v>14140875</v>
+        <v>14239853</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4585475</v>
+        <v>4661695</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98423667</v>
+        <v>98120170</v>
       </c>
       <c r="E53" t="n">
-        <v>121746553</v>
+        <v>121371138</v>
       </c>
       <c r="F53" t="n">
-        <v>290.3009598372575</v>
+        <v>671.1696307610366</v>
       </c>
       <c r="G53" t="n">
-        <v>4334.306668719682</v>
+        <v>4009.321828965842</v>
       </c>
       <c r="H53" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>797834</v>
+        <v>782917</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5131430</v>
+        <v>5124868</v>
       </c>
       <c r="E54" t="n">
-        <v>7179615</v>
+        <v>7170433</v>
       </c>
       <c r="F54" t="n">
-        <v>9.262112438613931</v>
+        <v>84.14680976616458</v>
       </c>
       <c r="G54" t="n">
-        <v>570.255684019568</v>
+        <v>343.2379346655119</v>
       </c>
       <c r="H54" t="n">
-        <v>0.86</v>
+        <v>1.71</v>
       </c>
       <c r="I54" t="n">
-        <v>108409</v>
+        <v>108417</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13945110</v>
+        <v>13966283</v>
       </c>
       <c r="E55" t="n">
-        <v>67538395</v>
+        <v>67640940</v>
       </c>
       <c r="F55" t="n">
-        <v>12638.06748811747</v>
+        <v>20670.10498397733</v>
       </c>
       <c r="G55" t="n">
-        <v>32108.21286335723</v>
+        <v>37797.10408936884</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="I55" t="n">
-        <v>3652562</v>
+        <v>3622132</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>57880</v>
+        <v>62260</v>
       </c>
       <c r="E56" t="n">
-        <v>138635</v>
+        <v>149125</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4727.62</v>
+        <v>4935.36</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1889527221</v>
+        <v>1902127715</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>21222121</v>
+        <v>26410786</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12176433</v>
+        <v>12222186</v>
       </c>
       <c r="E58" t="n">
-        <v>17654071</v>
+        <v>17720406</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2092325</v>
+        <v>2080194</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123507977</v>
+        <v>124922879</v>
       </c>
       <c r="E59" t="n">
-        <v>328460811</v>
+        <v>332223644</v>
       </c>
       <c r="F59" t="n">
-        <v>3806.847085382084</v>
+        <v>11083.09153979486</v>
       </c>
       <c r="G59" t="n">
-        <v>10256.72884485215</v>
+        <v>7096.842381437392</v>
       </c>
       <c r="H59" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="I59" t="n">
-        <v>1352225</v>
+        <v>1303520</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32307269</v>
+        <v>32246153</v>
       </c>
       <c r="E60" t="n">
-        <v>100594471</v>
+        <v>100404175</v>
       </c>
       <c r="F60" t="n">
-        <v>3939.125028531463</v>
+        <v>8037.812539312234</v>
       </c>
       <c r="G60" t="n">
-        <v>5946.28012672901</v>
+        <v>6484.671933517428</v>
       </c>
       <c r="H60" t="n">
-        <v>0.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>12143642</v>
+        <v>12193162</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2063873</v>
+        <v>2070926</v>
       </c>
       <c r="E61" t="n">
-        <v>14799825</v>
+        <v>14850405</v>
       </c>
       <c r="F61" t="n">
-        <v>216.5521333944462</v>
+        <v>5278.486982381839</v>
       </c>
       <c r="G61" t="n">
-        <v>5256.932674754802</v>
+        <v>5484.196459908799</v>
       </c>
       <c r="H61" t="n">
-        <v>1.68</v>
+        <v>0.87</v>
       </c>
       <c r="I61" t="n">
-        <v>1936137</v>
+        <v>1928835</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>202677013</v>
+        <v>202978015</v>
       </c>
       <c r="E62" t="n">
-        <v>1147681783</v>
+        <v>1149386240</v>
       </c>
       <c r="F62" t="n">
-        <v>590390.4570464907</v>
+        <v>585408.2270458167</v>
       </c>
       <c r="G62" t="n">
-        <v>933554.1805676655</v>
+        <v>682134.2317409577</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>63703503</v>
+        <v>64997967</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>506404</v>
+        <v>498453</v>
       </c>
       <c r="E63" t="n">
-        <v>1704484</v>
+        <v>1677722</v>
       </c>
       <c r="F63" t="n">
-        <v>4600.973336870979</v>
+        <v>4578.55495837539</v>
       </c>
       <c r="G63" t="n">
-        <v>424.4419888763929</v>
+        <v>349.9118447334071</v>
       </c>
       <c r="H63" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>629478</v>
+        <v>625387</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>344477</v>
+        <v>343699</v>
       </c>
       <c r="E64" t="n">
-        <v>344477</v>
+        <v>343699</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6446.67</v>
+        <v>5081.94</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>138795367</v>
+        <v>139495343</v>
       </c>
       <c r="E65" t="n">
-        <v>1028113829</v>
+        <v>1033298839</v>
       </c>
       <c r="F65" t="n">
-        <v>38117.84998967298</v>
+        <v>38854.00420714538</v>
       </c>
       <c r="G65" t="n">
-        <v>39830.01455683828</v>
+        <v>40850.71204153058</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>10963777</v>
+        <v>10901300</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8184861</v>
+        <v>8203339</v>
       </c>
       <c r="E66" t="n">
-        <v>10964985</v>
+        <v>10989738</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59291</v>
+        <v>60084</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25490908</v>
+        <v>25369853</v>
       </c>
       <c r="E67" t="n">
-        <v>25490908</v>
+        <v>25369853</v>
       </c>
       <c r="F67" t="n">
-        <v>6898.294138529447</v>
+        <v>7472.122727670678</v>
       </c>
       <c r="G67" t="n">
-        <v>6506.293620929688</v>
+        <v>6757.43285548572</v>
       </c>
       <c r="H67" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="I67" t="n">
-        <v>322402</v>
+        <v>316076</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1569630</v>
+        <v>1581474</v>
       </c>
       <c r="E68" t="n">
-        <v>12190921</v>
+        <v>12282910</v>
       </c>
       <c r="F68" t="n">
-        <v>827.334568752464</v>
+        <v>8948.565295483333</v>
       </c>
       <c r="G68" t="n">
-        <v>32113.78410200686</v>
+        <v>20036.59419280634</v>
       </c>
       <c r="H68" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="I68" t="n">
-        <v>534237</v>
+        <v>536127</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>338695576</v>
+        <v>338547712</v>
       </c>
       <c r="E69" t="n">
-        <v>3047115418</v>
+        <v>3045785142</v>
       </c>
       <c r="F69" t="n">
-        <v>1158453.836777443</v>
+        <v>1252135.6461135</v>
       </c>
       <c r="G69" t="n">
-        <v>1771112.112904263</v>
+        <v>1773228.741844931</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>37102679</v>
+        <v>37748281</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>258786</v>
+        <v>252358</v>
       </c>
       <c r="E70" t="n">
-        <v>2283984</v>
+        <v>2227248</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>71342</v>
+        <v>72061</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1596461</v>
+        <v>1586723</v>
       </c>
       <c r="E71" t="n">
-        <v>13303840</v>
+        <v>13222689</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>44911</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9139274</v>
+        <v>9191679</v>
       </c>
       <c r="E72" t="n">
-        <v>42361062</v>
+        <v>42603961</v>
       </c>
       <c r="F72" t="n">
-        <v>6177.637898971275</v>
+        <v>6210.06499201085</v>
       </c>
       <c r="G72" t="n">
-        <v>9486.355471415578</v>
+        <v>8745.719577920407</v>
       </c>
       <c r="H72" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I72" t="n">
-        <v>117533</v>
+        <v>116260</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>43290638</v>
+        <v>43959662</v>
       </c>
       <c r="E73" t="n">
-        <v>250634904</v>
+        <v>254508276</v>
       </c>
       <c r="F73" t="n">
-        <v>104651.3595280547</v>
+        <v>106944.6614486415</v>
       </c>
       <c r="G73" t="n">
-        <v>167017.5293021748</v>
+        <v>168599.7051389286</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>10860961</v>
+        <v>11593195</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39203302</v>
+        <v>39304990</v>
       </c>
       <c r="E74" t="n">
-        <v>54145342</v>
+        <v>54285789</v>
       </c>
       <c r="F74" t="n">
-        <v>10860.48273386788</v>
+        <v>721.4989220450898</v>
       </c>
       <c r="G74" t="n">
-        <v>10515.25160593739</v>
+        <v>549.2651802641042</v>
       </c>
       <c r="H74" t="n">
-        <v>0.31</v>
+        <v>1.07</v>
       </c>
       <c r="I74" t="n">
-        <v>371400</v>
+        <v>378477</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>96121</v>
+        <v>95885</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>928.01</v>
+        <v>702.37</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13657051</v>
+        <v>13697760</v>
       </c>
       <c r="E76" t="n">
-        <v>13703527</v>
+        <v>13744375</v>
       </c>
       <c r="F76" t="n">
-        <v>1947.898437317735</v>
+        <v>1220.187386382119</v>
       </c>
       <c r="G76" t="n">
-        <v>6956.976346399989</v>
+        <v>2937.405860623332</v>
       </c>
       <c r="H76" t="n">
-        <v>1.29</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>5733792</v>
+        <v>5775889</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42866152</v>
+        <v>42883456</v>
       </c>
       <c r="E77" t="n">
-        <v>72776754</v>
+        <v>72806132</v>
       </c>
       <c r="F77" t="n">
-        <v>10973.18157904186</v>
+        <v>7676.785728951554</v>
       </c>
       <c r="G77" t="n">
-        <v>6778.628732808468</v>
+        <v>5868.858287802885</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I77" t="n">
-        <v>1087359</v>
+        <v>1076653</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>24581125</v>
+        <v>23857645</v>
       </c>
       <c r="E78" t="n">
-        <v>73681250</v>
+        <v>71512640</v>
       </c>
       <c r="F78" t="n">
-        <v>97710.73543176295</v>
+        <v>124769.8871128108</v>
       </c>
       <c r="G78" t="n">
-        <v>141485.983200635</v>
+        <v>81090.80919019859</v>
       </c>
       <c r="H78" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I78" t="n">
-        <v>2729674</v>
+        <v>2854418</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101412833</v>
+        <v>101617192</v>
       </c>
       <c r="E79" t="n">
-        <v>107811006</v>
+        <v>108028259</v>
       </c>
       <c r="F79" t="n">
-        <v>1824.631748953091</v>
+        <v>2780.646752921505</v>
       </c>
       <c r="G79" t="n">
-        <v>5077.197144276786</v>
+        <v>4458.345915157293</v>
       </c>
       <c r="H79" t="n">
-        <v>0.72</v>
+        <v>1.17</v>
       </c>
       <c r="I79" t="n">
-        <v>860522</v>
+        <v>797103</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10634253</v>
+        <v>10620257</v>
       </c>
       <c r="E80" t="n">
-        <v>46236952</v>
+        <v>46199588</v>
       </c>
       <c r="F80" t="n">
-        <v>5878.980145874347</v>
+        <v>6337.698644199123</v>
       </c>
       <c r="G80" t="n">
-        <v>5709.74417690378</v>
+        <v>5209.941988660653</v>
       </c>
       <c r="H80" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>105326</v>
+        <v>107048</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15119758</v>
+        <v>15149814</v>
       </c>
       <c r="E81" t="n">
-        <v>92673966</v>
+        <v>92858190</v>
       </c>
       <c r="F81" t="n">
-        <v>4057.906190508237</v>
+        <v>4034.223515015937</v>
       </c>
       <c r="G81" t="n">
-        <v>6335.573826206394</v>
+        <v>6509.510454415045</v>
       </c>
       <c r="H81" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>11695915</v>
+        <v>11781090</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1498427</v>
+        <v>1505262</v>
       </c>
       <c r="E82" t="n">
-        <v>1540576</v>
+        <v>1547604</v>
       </c>
       <c r="F82" t="n">
-        <v>6856.256441299896</v>
+        <v>6254.021804299715</v>
       </c>
       <c r="G82" t="n">
-        <v>5864.362608807484</v>
+        <v>5865.443805252453</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>123834</v>
+        <v>128291</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47077805</v>
+        <v>47394178</v>
       </c>
       <c r="E83" t="n">
-        <v>202806037</v>
+        <v>204168936</v>
       </c>
       <c r="F83" t="n">
-        <v>3366.483464989976</v>
+        <v>3372.44714643408</v>
       </c>
       <c r="G83" t="n">
-        <v>4671.186552856184</v>
+        <v>4721.232359838458</v>
       </c>
       <c r="H83" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I83" t="n">
-        <v>8750089</v>
+        <v>8777781</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1666138</v>
+        <v>1692728</v>
       </c>
       <c r="E84" t="n">
-        <v>6054239</v>
+        <v>6150858</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>128142</v>
+        <v>128764</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8910217</v>
+        <v>8861096</v>
       </c>
       <c r="E85" t="n">
-        <v>19785470</v>
+        <v>19676396</v>
       </c>
       <c r="F85" t="n">
-        <v>6079.715646540475</v>
+        <v>7264.891663998701</v>
       </c>
       <c r="G85" t="n">
-        <v>6935.055202476934</v>
+        <v>6508.956814835721</v>
       </c>
       <c r="H85" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I85" t="n">
-        <v>261979</v>
+        <v>359787</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2450243</v>
+        <v>2450503</v>
       </c>
       <c r="E86" t="n">
-        <v>18437911</v>
+        <v>18439486</v>
       </c>
       <c r="F86" t="n">
-        <v>6382.635975816329</v>
+        <v>6197.269618033247</v>
       </c>
       <c r="G86" t="n">
-        <v>12783.99267702637</v>
+        <v>12858.80604045515</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>162116</v>
+        <v>161886</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20722546</v>
+        <v>20915369</v>
       </c>
       <c r="E87" t="n">
-        <v>82890183</v>
+        <v>83661476</v>
       </c>
       <c r="F87" t="n">
-        <v>28858.62892670404</v>
+        <v>6273.145880672148</v>
       </c>
       <c r="G87" t="n">
-        <v>1295.694117962595</v>
+        <v>2869.361354075354</v>
       </c>
       <c r="H87" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="I87" t="n">
-        <v>5532057</v>
+        <v>5406515</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4308910</v>
+        <v>4274107</v>
       </c>
       <c r="E88" t="n">
-        <v>4308910</v>
+        <v>4274107</v>
       </c>
       <c r="F88" t="n">
-        <v>1786.364691977119</v>
+        <v>1951.893760896773</v>
       </c>
       <c r="G88" t="n">
-        <v>1113.610043014783</v>
+        <v>2538.365774125754</v>
       </c>
       <c r="H88" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="I88" t="n">
-        <v>2509830</v>
+        <v>2516665</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12759813</v>
+        <v>12789103</v>
       </c>
       <c r="E89" t="n">
-        <v>40367903</v>
+        <v>40460567</v>
       </c>
       <c r="F89" t="n">
-        <v>14339.24197824191</v>
+        <v>15482.45679644458</v>
       </c>
       <c r="G89" t="n">
-        <v>5773.570686813188</v>
+        <v>13560.31413604865</v>
       </c>
       <c r="H89" t="n">
         <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>1397273</v>
+        <v>1400526</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26669</v>
+        <v>27068</v>
       </c>
       <c r="E90" t="n">
-        <v>209748</v>
+        <v>212880</v>
       </c>
       <c r="F90" t="n">
-        <v>5998.92743642367</v>
+        <v>5636.032836939641</v>
       </c>
       <c r="G90" t="n">
-        <v>309.467569355136</v>
+        <v>312.6155759944414</v>
       </c>
       <c r="H90" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="I90" t="n">
-        <v>131017</v>
+        <v>132079</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8198116</v>
+        <v>8303006</v>
       </c>
       <c r="E91" t="n">
-        <v>8198116</v>
+        <v>8303006</v>
       </c>
       <c r="F91" t="n">
-        <v>3765.130664489021</v>
+        <v>3239.679309516173</v>
       </c>
       <c r="G91" t="n">
-        <v>4113.719933821199</v>
+        <v>4242.540024839932</v>
       </c>
       <c r="H91" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="I91" t="n">
-        <v>3524837</v>
+        <v>3527832</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9265141</v>
+        <v>9515470</v>
       </c>
       <c r="E92" t="n">
-        <v>9265141</v>
+        <v>9515470</v>
       </c>
       <c r="F92" t="n">
-        <v>7932.44385111505</v>
+        <v>7485.810242961888</v>
       </c>
       <c r="G92" t="n">
-        <v>1973.942538740452</v>
+        <v>3572.255640875284</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="I92" t="n">
-        <v>2843607</v>
+        <v>2703846</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37202385</v>
+        <v>37666791</v>
       </c>
       <c r="E93" t="n">
-        <v>93806555</v>
+        <v>94977565</v>
       </c>
       <c r="F93" t="n">
-        <v>6826.494940802483</v>
+        <v>6285.402362083541</v>
       </c>
       <c r="G93" t="n">
-        <v>5759.771881977117</v>
+        <v>5975.149250337963</v>
       </c>
       <c r="H93" t="n">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I93" t="n">
-        <v>3065751</v>
+        <v>3087686</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>300847700</v>
+        <v>301867614</v>
       </c>
       <c r="E94" t="n">
-        <v>305550735</v>
+        <v>306585211</v>
       </c>
       <c r="F94" t="n">
-        <v>49432.2671492485</v>
+        <v>48225.83650148709</v>
       </c>
       <c r="G94" t="n">
-        <v>8110.214618687517</v>
+        <v>31707.05969430264</v>
       </c>
       <c r="H94" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I94" t="n">
-        <v>12289037</v>
+        <v>12358736</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3545.30819739946</v>
+        <v>932.8876825029424</v>
       </c>
       <c r="G95" t="n">
-        <v>6466.951586238227</v>
+        <v>6414.001451544039</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I95" t="n">
-        <v>222297</v>
+        <v>222656</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>78953649</v>
+        <v>82022559</v>
       </c>
       <c r="E96" t="n">
-        <v>78953649</v>
+        <v>82022559</v>
       </c>
       <c r="F96" t="n">
-        <v>14402.69912040848</v>
+        <v>8266.463499618969</v>
       </c>
       <c r="G96" t="n">
-        <v>5195.627799792471</v>
+        <v>8377.182668366191</v>
       </c>
       <c r="H96" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="I96" t="n">
-        <v>4866305</v>
+        <v>5020646</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>302977901</v>
+        <v>304921170</v>
       </c>
       <c r="E97" t="n">
-        <v>302977901</v>
+        <v>304921170</v>
       </c>
       <c r="F97" t="n">
-        <v>389781.0191371342</v>
+        <v>329163.6285395171</v>
       </c>
       <c r="G97" t="n">
-        <v>398888.1412245295</v>
+        <v>458639.4306647287</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50345707</v>
+        <v>50347557</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4224048</v>
+        <v>4228759</v>
       </c>
       <c r="E98" t="n">
-        <v>28862620</v>
+        <v>28894816</v>
       </c>
       <c r="F98" t="n">
-        <v>22404.52577565814</v>
+        <v>4628.289096404248</v>
       </c>
       <c r="G98" t="n">
-        <v>27593.82167355418</v>
+        <v>4653.898673615744</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2573514</v>
+        <v>2582361</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>89878269</v>
+        <v>91046610</v>
       </c>
       <c r="E99" t="n">
-        <v>517917353</v>
+        <v>524649839</v>
       </c>
       <c r="F99" t="n">
-        <v>135218.7772344978</v>
+        <v>135225.0605182469</v>
       </c>
       <c r="G99" t="n">
-        <v>130287.4058613854</v>
+        <v>137018.50878701</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>16024319</v>
+        <v>16196573</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108408674</v>
+        <v>108380939</v>
       </c>
       <c r="E100" t="n">
-        <v>266727692</v>
+        <v>266659455</v>
       </c>
       <c r="F100" t="n">
-        <v>26663.71785755182</v>
+        <v>30867.00025087083</v>
       </c>
       <c r="G100" t="n">
-        <v>42234.61695263955</v>
+        <v>50775.71090266888</v>
       </c>
       <c r="H100" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2207085</v>
+        <v>2366539</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>248870544</v>
+        <v>250649397</v>
       </c>
       <c r="E101" t="n">
-        <v>248873016</v>
+        <v>250651887</v>
       </c>
       <c r="F101" t="n">
-        <v>42072.10211937917</v>
+        <v>44387.51758907674</v>
       </c>
       <c r="G101" t="n">
-        <v>4667.699504654322</v>
+        <v>14373.3412282323</v>
       </c>
       <c r="H101" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="I101" t="n">
-        <v>2713972</v>
+        <v>2621388</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30440484</v>
+        <v>30644866</v>
       </c>
       <c r="E102" t="n">
-        <v>136294534</v>
+        <v>137209639</v>
       </c>
       <c r="F102" t="n">
-        <v>107980.5668266542</v>
+        <v>96500.59170662127</v>
       </c>
       <c r="G102" t="n">
-        <v>151604.0141721344</v>
+        <v>140427.7719206246</v>
       </c>
       <c r="H102" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I102" t="n">
-        <v>8912455</v>
+        <v>8595757</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3280020</v>
+        <v>3125972</v>
       </c>
       <c r="E103" t="n">
-        <v>3280020</v>
+        <v>3125972</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>436048</v>
+        <v>443098</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5987019</v>
+        <v>5945289</v>
       </c>
       <c r="E104" t="n">
-        <v>15712955</v>
+        <v>15603436</v>
       </c>
       <c r="F104" t="n">
-        <v>8806.89221296994</v>
+        <v>8756.132022022155</v>
       </c>
       <c r="G104" t="n">
-        <v>3807.981712790064</v>
+        <v>3808.236678690794</v>
       </c>
       <c r="H104" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="I104" t="n">
-        <v>73712</v>
+        <v>72633</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17138374</v>
+        <v>17405098</v>
       </c>
       <c r="E105" t="n">
-        <v>79108056</v>
+        <v>80339213</v>
       </c>
       <c r="F105" t="n">
-        <v>58599.50255281377</v>
+        <v>38979.1723509882</v>
       </c>
       <c r="G105" t="n">
-        <v>88965.06929863429</v>
+        <v>91131.51012480649</v>
       </c>
       <c r="H105" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I105" t="n">
-        <v>945926</v>
+        <v>932642</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47723292</v>
+        <v>48328664</v>
       </c>
       <c r="E106" t="n">
-        <v>309472850</v>
+        <v>313398521</v>
       </c>
       <c r="F106" t="n">
-        <v>106865.8630617209</v>
+        <v>100936.0661948673</v>
       </c>
       <c r="G106" t="n">
-        <v>163384.5266990411</v>
+        <v>163679.7451497779</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17163164</v>
+        <v>17269100</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2462403</v>
+        <v>2335312</v>
       </c>
       <c r="E107" t="n">
-        <v>4461107</v>
+        <v>4230857</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>98675</v>
+        <v>75695</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125411425</v>
+        <v>125394333</v>
       </c>
       <c r="E108" t="n">
-        <v>2076915920</v>
+        <v>2076632852</v>
       </c>
       <c r="F108" t="n">
-        <v>211500.1134646445</v>
+        <v>195756.1477967557</v>
       </c>
       <c r="G108" t="n">
-        <v>117853.2499850195</v>
+        <v>105767.1666785527</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5093618</v>
+        <v>5051333</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23537847</v>
+        <v>23736553</v>
       </c>
       <c r="E109" t="n">
-        <v>140831671</v>
+        <v>142020567</v>
       </c>
       <c r="F109" t="n">
-        <v>40853.94416532914</v>
+        <v>40542.20879159673</v>
       </c>
       <c r="G109" t="n">
-        <v>39592.91005138081</v>
+        <v>39446.57106490211</v>
       </c>
       <c r="H109" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I109" t="n">
-        <v>13017059</v>
+        <v>13045439</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1010640</v>
+        <v>1001436</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>65001</v>
+        <v>66319</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2267834</v>
+        <v>2236344</v>
       </c>
       <c r="F111" t="n">
-        <v>2551.058702643873</v>
+        <v>2680.220348751845</v>
       </c>
       <c r="G111" t="n">
-        <v>311.902261112811</v>
+        <v>353.1051009629769</v>
       </c>
       <c r="H111" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="I111" t="n">
-        <v>208958</v>
+        <v>206742</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142424585</v>
+        <v>142424296</v>
       </c>
       <c r="F112" t="n">
-        <v>3147.226213610909</v>
+        <v>3147.435244856721</v>
       </c>
       <c r="G112" t="n">
-        <v>909.7511377541133</v>
+        <v>909.8115612511218</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>48879</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6742405</v>
+        <v>6794066</v>
       </c>
       <c r="E113" t="n">
-        <v>34687625</v>
+        <v>34953403</v>
       </c>
       <c r="F113" t="n">
-        <v>2154.628598804688</v>
+        <v>280.9469597726031</v>
       </c>
       <c r="G113" t="n">
-        <v>1007.628660983385</v>
+        <v>1676.587041503862</v>
       </c>
       <c r="H113" t="n">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
       <c r="I113" t="n">
-        <v>896800</v>
+        <v>853887</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29142397</v>
+        <v>29074809</v>
       </c>
       <c r="E114" t="n">
-        <v>39959322</v>
+        <v>39866647</v>
       </c>
       <c r="F114" t="n">
-        <v>5368.155621846146</v>
+        <v>4649.220841379133</v>
       </c>
       <c r="G114" t="n">
-        <v>3962.207652946962</v>
+        <v>4555.788578273746</v>
       </c>
       <c r="H114" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="I114" t="n">
-        <v>283580</v>
+        <v>283080</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8060162</v>
+        <v>8056843</v>
       </c>
       <c r="F115" t="n">
-        <v>458.9465171508132</v>
+        <v>409.484885482614</v>
       </c>
       <c r="G115" t="n">
-        <v>6140.403451995859</v>
+        <v>6694.191021487192</v>
       </c>
       <c r="H115" t="n">
         <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>691711</v>
+        <v>682455</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3304896</v>
+        <v>3332436</v>
       </c>
       <c r="E116" t="n">
-        <v>4427116</v>
+        <v>4464009</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148232</v>
+        <v>148801</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34114030</v>
+        <v>34270383</v>
       </c>
       <c r="E117" t="n">
-        <v>170244733</v>
+        <v>171025007</v>
       </c>
       <c r="F117" t="n">
-        <v>70999.98838081761</v>
+        <v>70041.68898647245</v>
       </c>
       <c r="G117" t="n">
-        <v>74546.19364481381</v>
+        <v>68855.40072641159</v>
       </c>
       <c r="H117" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>10036237</v>
+        <v>10040700</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3442762</v>
+        <v>3434476</v>
       </c>
       <c r="E118" t="n">
-        <v>4945855</v>
+        <v>4933951</v>
       </c>
       <c r="F118" t="n">
-        <v>747.2860556406411</v>
+        <v>747.3356885950543</v>
       </c>
       <c r="G118" t="n">
-        <v>899.2014036436447</v>
+        <v>917.751326983019</v>
       </c>
       <c r="H118" t="n">
         <v>0.6</v>
       </c>
       <c r="I118" t="n">
-        <v>173851</v>
+        <v>135975</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>312879046</v>
+        <v>313406225</v>
       </c>
       <c r="E119" t="n">
-        <v>578897586</v>
+        <v>579872987</v>
       </c>
       <c r="F119" t="n">
-        <v>104062.5876340289</v>
+        <v>99303.21568450982</v>
       </c>
       <c r="G119" t="n">
-        <v>129443.2362220064</v>
+        <v>115721.4392615864</v>
       </c>
       <c r="H119" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I119" t="n">
-        <v>12876803</v>
+        <v>12941069</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71203783</v>
+        <v>71592139</v>
       </c>
       <c r="E120" t="n">
-        <v>679346364</v>
+        <v>683044893</v>
       </c>
       <c r="F120" t="n">
-        <v>3198.995742847466</v>
+        <v>3392.847040548911</v>
       </c>
       <c r="G120" t="n">
-        <v>41112.27090270666</v>
+        <v>41632.58110677959</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="I120" t="n">
-        <v>21179020</v>
+        <v>21198228</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37969086</v>
+        <v>38056592</v>
       </c>
       <c r="E121" t="n">
-        <v>49644333</v>
+        <v>49758523</v>
       </c>
       <c r="F121" t="n">
-        <v>5694.924334996626</v>
+        <v>5695.302619276824</v>
       </c>
       <c r="G121" t="n">
-        <v>475.5050098974378</v>
+        <v>256.4146637193232</v>
       </c>
       <c r="H121" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I121" t="n">
-        <v>535451</v>
+        <v>340226</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9322745</v>
+        <v>9314612</v>
       </c>
       <c r="E122" t="n">
-        <v>27667041</v>
+        <v>27642905</v>
       </c>
       <c r="F122" t="n">
-        <v>1670.336703855215</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>6772.654937346471</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.73</v>
+        <v>4.61</v>
       </c>
       <c r="I122" t="n">
-        <v>5792511</v>
+        <v>5873199</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2241142</v>
+        <v>2241092</v>
       </c>
       <c r="E123" t="n">
-        <v>7668851</v>
+        <v>7668679</v>
       </c>
       <c r="F123" t="n">
-        <v>527.3280843462172</v>
+        <v>715.1065942567794</v>
       </c>
       <c r="G123" t="n">
-        <v>1345.047208074412</v>
+        <v>1182.448239885733</v>
       </c>
       <c r="H123" t="n">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="I123" t="n">
-        <v>799540</v>
+        <v>806578</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7319920</v>
+        <v>7299372</v>
       </c>
       <c r="E124" t="n">
-        <v>7319931</v>
+        <v>7299383</v>
       </c>
       <c r="F124" t="n">
-        <v>273.1564797426872</v>
+        <v>9.278776731997723</v>
       </c>
       <c r="G124" t="n">
-        <v>920.3577819442401</v>
+        <v>1380.297467774177</v>
       </c>
       <c r="H124" t="n">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
       <c r="I124" t="n">
-        <v>345039</v>
+        <v>343098</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6055056</v>
+        <v>6054379</v>
       </c>
       <c r="E125" t="n">
-        <v>6055056</v>
+        <v>6054379</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>498355</v>
+        <v>492252</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6216023</v>
+        <v>6203027</v>
       </c>
       <c r="E126" t="n">
-        <v>22704726</v>
+        <v>22657257</v>
       </c>
       <c r="F126" t="n">
-        <v>964.2069160517977</v>
+        <v>5960.199695621895</v>
       </c>
       <c r="G126" t="n">
-        <v>6830.103544227822</v>
+        <v>1838.671189008176</v>
       </c>
       <c r="H126" t="n">
         <v>0.84</v>
       </c>
       <c r="I126" t="n">
-        <v>531205</v>
+        <v>533159</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44900674</v>
+        <v>45177357</v>
       </c>
       <c r="E127" t="n">
-        <v>44900674</v>
+        <v>45177357</v>
       </c>
       <c r="F127" t="n">
-        <v>64800.73172318924</v>
+        <v>66064.52713187187</v>
       </c>
       <c r="G127" t="n">
-        <v>87113.78216857603</v>
+        <v>73979.42217606894</v>
       </c>
       <c r="H127" t="n">
         <v>0.33</v>
       </c>
       <c r="I127" t="n">
-        <v>8003851</v>
+        <v>8927893</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>146959833</v>
+        <v>147541261</v>
       </c>
       <c r="F128" t="n">
-        <v>5167.960554738368</v>
+        <v>5167.82223452457</v>
       </c>
       <c r="G128" t="n">
-        <v>483.4397946083139</v>
+        <v>483.517083828742</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1560518</v>
+        <v>1594982</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3043907</v>
+        <v>3083378</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72551</v>
+        <v>74191</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20754777</v>
+        <v>20614136</v>
       </c>
       <c r="F130" t="n">
-        <v>259.6509895037816</v>
+        <v>409.4465239862602</v>
       </c>
       <c r="G130" t="n">
-        <v>613.2739312811943</v>
+        <v>469.3964605126424</v>
       </c>
       <c r="H130" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I130" t="n">
-        <v>2894137</v>
+        <v>2900459</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1253998</v>
+        <v>1253573</v>
       </c>
       <c r="E131" t="n">
-        <v>3793695</v>
+        <v>3792988</v>
       </c>
       <c r="F131" t="n">
-        <v>790.8220812365727</v>
+        <v>780.4017497959184</v>
       </c>
       <c r="G131" t="n">
-        <v>746.3938743580982</v>
+        <v>715.2395173988092</v>
       </c>
       <c r="H131" t="n">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="I131" t="n">
-        <v>11371.39</v>
+        <v>11623.92</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>603932146</v>
+        <v>602891379</v>
       </c>
       <c r="E132" t="n">
-        <v>2338940097</v>
+        <v>2334909360</v>
       </c>
       <c r="F132" t="n">
-        <v>504179.2066251198</v>
+        <v>449229.5806804704</v>
       </c>
       <c r="G132" t="n">
-        <v>477075.2692723472</v>
+        <v>563232.55248898</v>
       </c>
       <c r="H132" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I132" t="n">
-        <v>31974533</v>
+        <v>32961622</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3678977</v>
+        <v>3674145</v>
       </c>
       <c r="E133" t="n">
-        <v>6271317</v>
+        <v>6263079</v>
       </c>
       <c r="F133" t="n">
-        <v>5406.103491794145</v>
+        <v>5233.540438729334</v>
       </c>
       <c r="G133" t="n">
-        <v>5642.544634796492</v>
+        <v>5120.615432583606</v>
       </c>
       <c r="H133" t="n">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="I133" t="n">
-        <v>1230197</v>
+        <v>1252197</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118094324</v>
+        <v>118239450</v>
       </c>
       <c r="E134" t="n">
-        <v>1026757564</v>
+        <v>1028019347</v>
       </c>
       <c r="F134" t="n">
-        <v>123773.3638676924</v>
+        <v>124812.7177827715</v>
       </c>
       <c r="G134" t="n">
-        <v>94484.64714053426</v>
+        <v>113971.0976534909</v>
       </c>
       <c r="H134" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I134" t="n">
-        <v>9079853</v>
+        <v>8866122</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1016653020</v>
+        <v>1022083021</v>
       </c>
       <c r="E135" t="n">
-        <v>1116796129</v>
+        <v>1122761000</v>
       </c>
       <c r="F135" t="n">
-        <v>14532.02223913192</v>
+        <v>13595.23008035256</v>
       </c>
       <c r="G135" t="n">
-        <v>19757.05713089075</v>
+        <v>17758.71454868631</v>
       </c>
       <c r="H135" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="I135" t="n">
-        <v>9823106</v>
+        <v>9886228</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1121276</v>
+        <v>1116265</v>
       </c>
       <c r="E136" t="n">
-        <v>4341825</v>
+        <v>4322424</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>429863</v>
+        <v>428264</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>113371418</v>
+        <v>115666745</v>
       </c>
       <c r="E137" t="n">
-        <v>434911007</v>
+        <v>443716253</v>
       </c>
       <c r="F137" t="n">
-        <v>137592.6502020434</v>
+        <v>135766.7811993555</v>
       </c>
       <c r="G137" t="n">
-        <v>205615.3544414638</v>
+        <v>227555.654067741</v>
       </c>
       <c r="H137" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I137" t="n">
-        <v>20886570</v>
+        <v>22569311</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3171523</v>
+        <v>3187381</v>
       </c>
       <c r="E138" t="n">
-        <v>30050654</v>
+        <v>30200906</v>
       </c>
       <c r="F138" t="n">
-        <v>4125.129131962286</v>
+        <v>4501.62031286267</v>
       </c>
       <c r="G138" t="n">
-        <v>5096.346915634334</v>
+        <v>4659.309522724669</v>
       </c>
       <c r="H138" t="n">
         <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>315879</v>
+        <v>265996</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21916956</v>
+        <v>21822016</v>
       </c>
       <c r="E139" t="n">
-        <v>21916956</v>
+        <v>21822016</v>
       </c>
       <c r="F139" t="n">
-        <v>4102.948582165733</v>
+        <v>544.3557670653846</v>
       </c>
       <c r="G139" t="n">
-        <v>1127.730935080286</v>
+        <v>3737.117713327714</v>
       </c>
       <c r="H139" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="I139" t="n">
-        <v>572499</v>
+        <v>579141</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494419003</v>
+        <v>494589114</v>
       </c>
       <c r="E140" t="n">
-        <v>494419003</v>
+        <v>494589114</v>
       </c>
       <c r="F140" t="n">
-        <v>907696.8893353271</v>
+        <v>959197.1698877867</v>
       </c>
       <c r="G140" t="n">
-        <v>866792.224181905</v>
+        <v>628836.6735545517</v>
       </c>
       <c r="H140" t="n">
         <v>0.01</v>
       </c>
       <c r="I140" t="n">
-        <v>32842755</v>
+        <v>33171072</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31598462</v>
+        <v>31470210</v>
       </c>
       <c r="F141" t="n">
-        <v>44394.6004254469</v>
+        <v>50301.66307766362</v>
       </c>
       <c r="G141" t="n">
-        <v>56585.56655087454</v>
+        <v>104111.952380105</v>
       </c>
       <c r="H141" t="n">
         <v>0.22</v>
       </c>
       <c r="I141" t="n">
-        <v>5568560</v>
+        <v>5519553</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>767475</v>
+        <v>764359</v>
       </c>
       <c r="E142" t="n">
-        <v>12240954</v>
+        <v>12191250</v>
       </c>
       <c r="F142" t="n">
-        <v>77.67185476000608</v>
+        <v>77.67701353902704</v>
       </c>
       <c r="G142" t="n">
-        <v>40.89110306027318</v>
+        <v>41.04275980842721</v>
       </c>
       <c r="H142" t="n">
         <v>0.72</v>
       </c>
       <c r="I142" t="n">
-        <v>66563</v>
+        <v>66265</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2652448290</v>
+        <v>2666359804</v>
       </c>
       <c r="E143" t="n">
-        <v>2816209909</v>
+        <v>2830980317</v>
       </c>
       <c r="F143" t="n">
-        <v>3587.768039146814</v>
+        <v>3295.413095963799</v>
       </c>
       <c r="G143" t="n">
-        <v>19814.85779276638</v>
+        <v>22360.32466227998</v>
       </c>
       <c r="H143" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I143" t="n">
-        <v>39404854</v>
+        <v>39970654</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1644669</v>
+        <v>1651494</v>
       </c>
       <c r="E144" t="n">
-        <v>1650474</v>
+        <v>1657323</v>
       </c>
       <c r="F144" t="n">
-        <v>302.3995060900992</v>
+        <v>842.2173035727465</v>
       </c>
       <c r="G144" t="n">
-        <v>1002.215881023928</v>
+        <v>518.4298085987397</v>
       </c>
       <c r="H144" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="I144" t="n">
-        <v>391048</v>
+        <v>395529</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61527527</v>
+        <v>62222973</v>
       </c>
       <c r="E145" t="n">
-        <v>150922855</v>
+        <v>152628736</v>
       </c>
       <c r="F145" t="n">
-        <v>3062.691489915171</v>
+        <v>3156.558672342848</v>
       </c>
       <c r="G145" t="n">
-        <v>5025.762872273382</v>
+        <v>4778.170476725753</v>
       </c>
       <c r="H145" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="I145" t="n">
-        <v>22635250</v>
+        <v>22537578</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>744625795</v>
+        <v>738250682</v>
       </c>
       <c r="E146" t="n">
-        <v>1148278720</v>
+        <v>1138447733</v>
       </c>
       <c r="F146" t="n">
-        <v>159681.5462858521</v>
+        <v>175863.9039929693</v>
       </c>
       <c r="G146" t="n">
-        <v>151079.8772226002</v>
+        <v>146952.0268904483</v>
       </c>
       <c r="H146" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>210169188</v>
+        <v>214081022</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23204403</v>
+        <v>23221756</v>
       </c>
       <c r="E147" t="n">
-        <v>23204403</v>
+        <v>23221756</v>
       </c>
       <c r="F147" t="n">
-        <v>4442.292664499535</v>
+        <v>4777.883211214348</v>
       </c>
       <c r="G147" t="n">
-        <v>8397.841425992539</v>
+        <v>8118.744770759204</v>
       </c>
       <c r="H147" t="n">
-        <v>0.32</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I147" t="n">
-        <v>6424708</v>
+        <v>6300578</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3816929</v>
+        <v>3816786</v>
       </c>
       <c r="E148" t="n">
-        <v>8328489</v>
+        <v>8328177</v>
       </c>
       <c r="F148" t="n">
-        <v>5668.489261867785</v>
+        <v>5668.865749381505</v>
       </c>
       <c r="G148" t="n">
-        <v>5830.316826980784</v>
+        <v>5717.656503550695</v>
       </c>
       <c r="H148" t="n">
         <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>857340</v>
+        <v>872546</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9354523</v>
+        <v>9354012</v>
       </c>
       <c r="E149" t="n">
-        <v>9354523</v>
+        <v>9354012</v>
       </c>
       <c r="F149" t="n">
-        <v>385956.247841472</v>
+        <v>85188.39304153311</v>
       </c>
       <c r="G149" t="n">
-        <v>709402.0692957725</v>
+        <v>78182.70731322009</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I149" t="n">
-        <v>3141307</v>
+        <v>3135238</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>492093536</v>
+        <v>493394219</v>
       </c>
       <c r="E150" t="n">
-        <v>1713805683</v>
+        <v>1718335549</v>
       </c>
       <c r="F150" t="n">
-        <v>786303.1198750866</v>
+        <v>731640.2896529747</v>
       </c>
       <c r="G150" t="n">
-        <v>852160.9954233353</v>
+        <v>780396.148545512</v>
       </c>
       <c r="H150" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31135495</v>
+        <v>31345225</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48005982</v>
+        <v>48164822</v>
       </c>
       <c r="E151" t="n">
-        <v>118479192</v>
+        <v>118871215</v>
       </c>
       <c r="F151" t="n">
-        <v>5636.755059150079</v>
+        <v>8291.623328805939</v>
       </c>
       <c r="G151" t="n">
-        <v>8137.274461339473</v>
+        <v>5540.156058091488</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>37215</v>
+        <v>43283</v>
       </c>
     </row>
     <row r="152">
@@ -5681,10 +5681,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7691635</v>
+        <v>7652330</v>
       </c>
       <c r="E152" t="n">
-        <v>19982040</v>
+        <v>19879930</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>9.630000000000001</v>
       </c>
       <c r="I152" t="n">
-        <v>682734</v>
+        <v>687453</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19254818245</v>
+        <v>19197632917</v>
       </c>
       <c r="F153" t="n">
-        <v>52450.73891215384</v>
+        <v>52454.22256491802</v>
       </c>
       <c r="G153" t="n">
-        <v>50111.73003716963</v>
+        <v>50113.51921532527</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48909634</v>
+        <v>48848183</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2650625</v>
+        <v>2659293</v>
       </c>
       <c r="E154" t="n">
-        <v>10602501</v>
+        <v>10637171</v>
       </c>
       <c r="F154" t="n">
-        <v>11948.96852662425</v>
+        <v>5409.223758780544</v>
       </c>
       <c r="G154" t="n">
-        <v>3714.54946363319</v>
+        <v>17372.13460946642</v>
       </c>
       <c r="H154" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="I154" t="n">
-        <v>5338820</v>
+        <v>1165960</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>215760777</v>
+        <v>217384627</v>
       </c>
       <c r="E155" t="n">
-        <v>663383195</v>
+        <v>668375922</v>
       </c>
       <c r="F155" t="n">
-        <v>156442.7486132553</v>
+        <v>161093.5103582607</v>
       </c>
       <c r="G155" t="n">
-        <v>182442.4908378322</v>
+        <v>156156.5682072584</v>
       </c>
       <c r="H155" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>11519169</v>
+        <v>11609293</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>402256033</v>
+        <v>404273363</v>
       </c>
       <c r="E156" t="n">
-        <v>2298605905</v>
+        <v>2310133501</v>
       </c>
       <c r="F156" t="n">
-        <v>142844.6222825501</v>
+        <v>171703.6393870921</v>
       </c>
       <c r="G156" t="n">
-        <v>226260.9462263996</v>
+        <v>224510.1041241655</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>36812081</v>
+        <v>37028708</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3922618</v>
+        <v>3905397</v>
       </c>
       <c r="F2" t="n">
-        <v>1355.572179416812</v>
+        <v>41.88299358833746</v>
       </c>
       <c r="G2" t="n">
-        <v>1843.85889960155</v>
+        <v>1831.779829227293</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54</v>
+        <v>1.07</v>
       </c>
       <c r="I2" t="n">
-        <v>109002</v>
+        <v>112930</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>615124667</v>
+        <v>610862127</v>
       </c>
       <c r="E3" t="n">
-        <v>1193593651</v>
+        <v>1185330917</v>
       </c>
       <c r="F3" t="n">
-        <v>73778.02331062403</v>
+        <v>67032.70361144263</v>
       </c>
       <c r="G3" t="n">
-        <v>76959.36419228326</v>
+        <v>68389.62992848569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>23367812</v>
+        <v>23089622</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>247498493</v>
+        <v>246053568</v>
       </c>
       <c r="E4" t="n">
-        <v>1552028263</v>
+        <v>1542967337</v>
       </c>
       <c r="F4" t="n">
-        <v>322155.7797857086</v>
+        <v>232419.4915552275</v>
       </c>
       <c r="G4" t="n">
-        <v>324184.8957472828</v>
+        <v>372423.7758845986</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>15454542</v>
+        <v>15451094</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141213525</v>
+        <v>139388667</v>
       </c>
       <c r="E5" t="n">
-        <v>156487074</v>
+        <v>154464427</v>
       </c>
       <c r="F5" t="n">
-        <v>8625.59365265576</v>
+        <v>8587.771154336335</v>
       </c>
       <c r="G5" t="n">
-        <v>516.7371110819379</v>
+        <v>535.5086338369689</v>
       </c>
       <c r="H5" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>34127525</v>
+        <v>34074955</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49834803</v>
+        <v>49481579</v>
       </c>
       <c r="E6" t="n">
-        <v>62342061</v>
+        <v>61900186</v>
       </c>
       <c r="F6" t="n">
-        <v>6567.586201963636</v>
+        <v>5522.144767979569</v>
       </c>
       <c r="G6" t="n">
-        <v>5926.164313358443</v>
+        <v>6756.59555803446</v>
       </c>
       <c r="H6" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>511466</v>
+        <v>441282</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69136404</v>
+        <v>69671535</v>
       </c>
       <c r="E7" t="n">
-        <v>137719520</v>
+        <v>138785499</v>
       </c>
       <c r="F7" t="n">
-        <v>9878.058676877252</v>
+        <v>9879.788486315492</v>
       </c>
       <c r="G7" t="n">
-        <v>13882.75167064175</v>
+        <v>12010.56161519502</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1415259</v>
+        <v>1394721</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40680630</v>
+        <v>40679126</v>
       </c>
       <c r="E8" t="n">
-        <v>45527485</v>
+        <v>45525801</v>
       </c>
       <c r="F8" t="n">
-        <v>6761.983286232149</v>
+        <v>6865.677120086955</v>
       </c>
       <c r="G8" t="n">
-        <v>6657.952024373438</v>
+        <v>6696.088513134242</v>
       </c>
       <c r="H8" t="n">
-        <v>0.26</v>
+        <v>0.79</v>
       </c>
       <c r="I8" t="n">
-        <v>241297</v>
+        <v>241978</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14359639</v>
+        <v>14270529</v>
       </c>
       <c r="E9" t="n">
-        <v>42316929</v>
+        <v>42054328</v>
       </c>
       <c r="F9" t="n">
-        <v>4920.399508371795</v>
+        <v>5122.174550205864</v>
       </c>
       <c r="G9" t="n">
-        <v>4785.116171878463</v>
+        <v>4778.493129046141</v>
       </c>
       <c r="H9" t="n">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="I9" t="n">
-        <v>819780</v>
+        <v>823487</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7504624</v>
+        <v>7367582</v>
       </c>
       <c r="E10" t="n">
-        <v>32265888</v>
+        <v>31669020</v>
       </c>
       <c r="F10" t="n">
-        <v>5493.840483359501</v>
+        <v>4799.049371364266</v>
       </c>
       <c r="G10" t="n">
-        <v>4200.469977974753</v>
+        <v>4488.627446944218</v>
       </c>
       <c r="H10" t="n">
-        <v>0.19</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>677603</v>
+        <v>674592</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>561577902</v>
+        <v>558835956</v>
       </c>
       <c r="E11" t="n">
-        <v>702450489</v>
+        <v>699020722</v>
       </c>
       <c r="F11" t="n">
-        <v>252132.2599884359</v>
+        <v>251614.9079348249</v>
       </c>
       <c r="G11" t="n">
-        <v>279079.5329638214</v>
+        <v>258709.5431572463</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>55005577</v>
+        <v>54298497</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4715604</v>
+        <v>4720957</v>
       </c>
       <c r="E12" t="n">
-        <v>28964892</v>
+        <v>28997728</v>
       </c>
       <c r="F12" t="n">
-        <v>9639.903259715793</v>
+        <v>5874.30289416652</v>
       </c>
       <c r="G12" t="n">
-        <v>8131.522651516946</v>
+        <v>4464.558098957631</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="I12" t="n">
-        <v>481524</v>
+        <v>491875</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22307701</v>
+        <v>22499015</v>
       </c>
       <c r="E13" t="n">
-        <v>22349406</v>
+        <v>22541078</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>854809</v>
+        <v>873348</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82870444</v>
+        <v>82315278</v>
       </c>
       <c r="E14" t="n">
-        <v>243815124</v>
+        <v>242181756</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>389350</v>
+        <v>386321</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>479965803</v>
+        <v>466250804</v>
       </c>
       <c r="E15" t="n">
-        <v>479965808</v>
+        <v>466250806</v>
       </c>
       <c r="F15" t="n">
-        <v>14539.65947848324</v>
+        <v>12997.88894788756</v>
       </c>
       <c r="G15" t="n">
-        <v>14620.87768042334</v>
+        <v>21838.62275788464</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>64763981</v>
+        <v>65421102</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4675439</v>
+        <v>4691346</v>
       </c>
       <c r="E16" t="n">
-        <v>4675439</v>
+        <v>4691346</v>
       </c>
       <c r="F16" t="n">
-        <v>344.2593872306367</v>
+        <v>287.4338895893998</v>
       </c>
       <c r="G16" t="n">
-        <v>1503.215568214679</v>
+        <v>1384.14702715938</v>
       </c>
       <c r="H16" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="I16" t="n">
-        <v>1987400</v>
+        <v>2008843</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3366297</v>
+        <v>3421639</v>
       </c>
       <c r="E17" t="n">
-        <v>3366297</v>
+        <v>3421639</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>530366</v>
+        <v>545836</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167907356</v>
+        <v>167297665</v>
       </c>
       <c r="E18" t="n">
-        <v>207876299</v>
+        <v>207121476</v>
       </c>
       <c r="F18" t="n">
-        <v>8927.642515240061</v>
+        <v>8660.778588601863</v>
       </c>
       <c r="G18" t="n">
-        <v>8654.193026156725</v>
+        <v>8178.361431146031</v>
       </c>
       <c r="H18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="I18" t="n">
-        <v>391888</v>
+        <v>394538</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6699206</v>
+        <v>7001279</v>
       </c>
       <c r="E19" t="n">
-        <v>9226519</v>
+        <v>9642550</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>837192</v>
+        <v>748314</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>921793</v>
+        <v>924477</v>
       </c>
       <c r="E20" t="n">
-        <v>6452553</v>
+        <v>6471341</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>155250</v>
+        <v>172075</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>112544368</v>
+        <v>110296525</v>
       </c>
       <c r="E21" t="n">
-        <v>438110943</v>
+        <v>429344885</v>
       </c>
       <c r="F21" t="n">
-        <v>37263.84145714471</v>
+        <v>42102.74125862437</v>
       </c>
       <c r="G21" t="n">
-        <v>77247.88610396201</v>
+        <v>75763.49727211708</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>7698857</v>
+        <v>7888751</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1684227</v>
+        <v>1683289</v>
       </c>
       <c r="E22" t="n">
-        <v>12131345</v>
+        <v>12124587</v>
       </c>
       <c r="F22" t="n">
-        <v>6015.596037234739</v>
+        <v>6016.048355156411</v>
       </c>
       <c r="G22" t="n">
-        <v>3546.596948305324</v>
+        <v>3546.863620028415</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>120582</v>
+        <v>120552</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>137505421</v>
+        <v>136037860</v>
       </c>
       <c r="E23" t="n">
-        <v>137505421</v>
+        <v>136037860</v>
       </c>
       <c r="F23" t="n">
-        <v>1107053.417441448</v>
+        <v>1067085.663512293</v>
       </c>
       <c r="G23" t="n">
-        <v>1317121.895098098</v>
+        <v>1142030.826489179</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>66109032</v>
+        <v>66385122</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65554977</v>
+        <v>64931280</v>
       </c>
       <c r="E24" t="n">
-        <v>336179370</v>
+        <v>332980923</v>
       </c>
       <c r="F24" t="n">
-        <v>96429.62932537697</v>
+        <v>76794.70368670844</v>
       </c>
       <c r="G24" t="n">
-        <v>96919.87026435114</v>
+        <v>110639.3087702217</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>19160568</v>
+        <v>19312002</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>255494928</v>
+        <v>253467877</v>
       </c>
       <c r="E25" t="n">
-        <v>255494928</v>
+        <v>253467877</v>
       </c>
       <c r="F25" t="n">
-        <v>395560.8780468163</v>
+        <v>360049.4659130607</v>
       </c>
       <c r="G25" t="n">
-        <v>399394.7258609036</v>
+        <v>421648.9655037817</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>14925839</v>
+        <v>14976745</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1125284</v>
+        <v>1122453</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>190977</v>
+        <v>189853</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4017792</v>
+        <v>3978021</v>
       </c>
       <c r="E28" t="n">
-        <v>4018698</v>
+        <v>3978890</v>
       </c>
       <c r="F28" t="n">
-        <v>379.4538990606832</v>
+        <v>856.8251291785995</v>
       </c>
       <c r="G28" t="n">
-        <v>4021.774983686127</v>
+        <v>4345.318024822973</v>
       </c>
       <c r="H28" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="I28" t="n">
-        <v>290193</v>
+        <v>282435</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6799502</v>
+        <v>6784731</v>
       </c>
       <c r="E29" t="n">
-        <v>16515467</v>
+        <v>16479588</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>461585</v>
+        <v>460657</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100305395</v>
+        <v>99726231</v>
       </c>
       <c r="E30" t="n">
-        <v>125069069</v>
+        <v>124346920</v>
       </c>
       <c r="F30" t="n">
-        <v>123570.8970561322</v>
+        <v>123535.2846670732</v>
       </c>
       <c r="G30" t="n">
-        <v>101915.8950299472</v>
+        <v>106075.8395822153</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11275730</v>
+        <v>11115668</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1115277</v>
+        <v>1114894</v>
       </c>
       <c r="E31" t="n">
-        <v>12120413</v>
+        <v>12116247</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29365</v>
+        <v>29355</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>72980523</v>
+        <v>72478740</v>
       </c>
       <c r="E32" t="n">
-        <v>204297332</v>
+        <v>202887844</v>
       </c>
       <c r="F32" t="n">
-        <v>49153.22618587951</v>
+        <v>68296.4932728862</v>
       </c>
       <c r="G32" t="n">
-        <v>65435.22804165356</v>
+        <v>65158.34712465702</v>
       </c>
       <c r="H32" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>33115042</v>
+        <v>33632522</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4216454</v>
+        <v>4183615</v>
       </c>
       <c r="E33" t="n">
-        <v>8315201</v>
+        <v>8250440</v>
       </c>
       <c r="F33" t="n">
-        <v>9200.279842279975</v>
+        <v>8566.600768071929</v>
       </c>
       <c r="G33" t="n">
-        <v>7941.442079485615</v>
+        <v>7401.294722923833</v>
       </c>
       <c r="H33" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="I33" t="n">
-        <v>1642788</v>
+        <v>1649820</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37226350</v>
+        <v>37205339</v>
       </c>
       <c r="F34" t="n">
-        <v>799.2139801524354</v>
+        <v>554.6239688540976</v>
       </c>
       <c r="G34" t="n">
-        <v>614.8430715655288</v>
+        <v>603.6081005732595</v>
       </c>
       <c r="H34" t="n">
-        <v>0.54</v>
+        <v>0.11</v>
       </c>
       <c r="I34" t="n">
-        <v>63611</v>
+        <v>64055</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7599595</v>
+        <v>7612535</v>
       </c>
       <c r="E35" t="n">
-        <v>17898557</v>
+        <v>17929034</v>
       </c>
       <c r="F35" t="n">
-        <v>3735.520932522153</v>
+        <v>3738.941531671754</v>
       </c>
       <c r="G35" t="n">
-        <v>2595.453463313097</v>
+        <v>2581.278893849591</v>
       </c>
       <c r="H35" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="I35" t="n">
-        <v>35872</v>
+        <v>36369</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23229227</v>
+        <v>23184048</v>
       </c>
       <c r="F36" t="n">
-        <v>5366.861601314363</v>
+        <v>5220.807377968741</v>
       </c>
       <c r="G36" t="n">
-        <v>5224.189740069234</v>
+        <v>5508.195291050431</v>
       </c>
       <c r="H36" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="I36" t="n">
-        <v>117723</v>
+        <v>118950</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73938344</v>
+        <v>72930714</v>
       </c>
       <c r="E37" t="n">
-        <v>154198994</v>
+        <v>152097574</v>
       </c>
       <c r="F37" t="n">
-        <v>102907.0200927202</v>
+        <v>66850.2010962959</v>
       </c>
       <c r="G37" t="n">
-        <v>117397.4699372822</v>
+        <v>118889.4229897718</v>
       </c>
       <c r="H37" t="n">
         <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>14466594</v>
+        <v>14454372</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>278142654</v>
+        <v>269692651</v>
       </c>
       <c r="E38" t="n">
-        <v>278142654</v>
+        <v>269692651</v>
       </c>
       <c r="F38" t="n">
-        <v>34590.95825870855</v>
+        <v>41890.98316547545</v>
       </c>
       <c r="G38" t="n">
-        <v>34893.03844996811</v>
+        <v>23398.70767887685</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>10208529</v>
+        <v>10427010</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>198817849</v>
+        <v>197463631</v>
       </c>
       <c r="E39" t="n">
-        <v>690711175</v>
+        <v>686006499</v>
       </c>
       <c r="F39" t="n">
-        <v>112445.6987283772</v>
+        <v>168134.411554918</v>
       </c>
       <c r="G39" t="n">
-        <v>398808.8259262319</v>
+        <v>387531.8445981487</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>25925526</v>
+        <v>25825012</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4135750</v>
+        <v>4118083</v>
       </c>
       <c r="E40" t="n">
-        <v>4135750</v>
+        <v>4118083</v>
       </c>
       <c r="F40" t="n">
-        <v>1544.753565834495</v>
+        <v>1354.215562929134</v>
       </c>
       <c r="G40" t="n">
-        <v>1252.261881960188</v>
+        <v>1284.255197731779</v>
       </c>
       <c r="H40" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="I40" t="n">
-        <v>3594786</v>
+        <v>3449212</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>115510665</v>
+        <v>115518935</v>
       </c>
       <c r="E41" t="n">
-        <v>491257031</v>
+        <v>491262232</v>
       </c>
       <c r="F41" t="n">
-        <v>5633.742978858527</v>
+        <v>5522.202891742126</v>
       </c>
       <c r="G41" t="n">
-        <v>6098.691105836268</v>
+        <v>6193.179380122886</v>
       </c>
       <c r="H41" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I41" t="n">
-        <v>14052920</v>
+        <v>14364670</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>532988</v>
+        <v>535219</v>
       </c>
       <c r="E42" t="n">
-        <v>6464627</v>
+        <v>6491689</v>
       </c>
       <c r="F42" t="n">
-        <v>703.3086465170817</v>
+        <v>648.8090585057165</v>
       </c>
       <c r="G42" t="n">
-        <v>742.2988185147975</v>
+        <v>700.8025927980522</v>
       </c>
       <c r="H42" t="n">
-        <v>0.92</v>
+        <v>0.74</v>
       </c>
       <c r="I42" t="n">
-        <v>2790915</v>
+        <v>2776963</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1315704686</v>
+        <v>1284997194</v>
       </c>
       <c r="E43" t="n">
-        <v>6309073417</v>
+        <v>6161824705</v>
       </c>
       <c r="F43" t="n">
-        <v>43857.27377948498</v>
+        <v>49697.26025901104</v>
       </c>
       <c r="G43" t="n">
-        <v>64449.97352256926</v>
+        <v>71033.19132029632</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>179759629</v>
+        <v>179059485</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6055490667</v>
+        <v>6050633552</v>
       </c>
       <c r="E44" t="n">
-        <v>6055490667</v>
+        <v>6050633552</v>
       </c>
       <c r="F44" t="n">
-        <v>755712.6551053316</v>
+        <v>666106.0842479204</v>
       </c>
       <c r="G44" t="n">
-        <v>1807518.478173519</v>
+        <v>1866525.364853023</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>101338245</v>
+        <v>93923347</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>269362569</v>
+        <v>266427226</v>
       </c>
       <c r="E45" t="n">
-        <v>1162718380</v>
+        <v>1150047812</v>
       </c>
       <c r="F45" t="n">
-        <v>119221.2151957793</v>
+        <v>126704.2014471673</v>
       </c>
       <c r="G45" t="n">
-        <v>96226.5253475284</v>
+        <v>92922.6294863622</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>109046108</v>
+        <v>109936105</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115000459</v>
+        <v>114863044</v>
       </c>
       <c r="E46" t="n">
-        <v>115000459</v>
+        <v>114863044</v>
       </c>
       <c r="F46" t="n">
-        <v>38119.74966812017</v>
+        <v>36110.71633066099</v>
       </c>
       <c r="G46" t="n">
-        <v>28413.05044548912</v>
+        <v>30005.79308848608</v>
       </c>
       <c r="H46" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>6014888</v>
+        <v>6040569</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2047520377</v>
+        <v>2045332871</v>
       </c>
       <c r="E47" t="n">
-        <v>2047520377</v>
+        <v>2045332871</v>
       </c>
       <c r="F47" t="n">
-        <v>175126.639586658</v>
+        <v>225771.5665344507</v>
       </c>
       <c r="G47" t="n">
-        <v>148446.4270438997</v>
+        <v>199277.7079855319</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>5972391376</v>
+        <v>6080849558</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9810958</v>
+        <v>9816404</v>
       </c>
       <c r="F48" t="n">
-        <v>6817.414448275724</v>
+        <v>6729.881741012229</v>
       </c>
       <c r="G48" t="n">
-        <v>5809.370651289689</v>
+        <v>5555.496680221229</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>167873</v>
+        <v>166777</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4374149</v>
+        <v>4383031</v>
       </c>
       <c r="E49" t="n">
-        <v>5742687</v>
+        <v>5754348</v>
       </c>
       <c r="F49" t="n">
-        <v>12652.70932500249</v>
+        <v>13234.94661061005</v>
       </c>
       <c r="G49" t="n">
-        <v>16361.34858006804</v>
+        <v>18793.14500060354</v>
       </c>
       <c r="H49" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="I49" t="n">
-        <v>535735</v>
+        <v>505462</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11911483</v>
+        <v>12135554</v>
       </c>
       <c r="E50" t="n">
-        <v>17515611</v>
+        <v>17845103</v>
       </c>
       <c r="F50" t="n">
-        <v>6458.641784319272</v>
+        <v>2226.137303801374</v>
       </c>
       <c r="G50" t="n">
-        <v>6483.962533376</v>
+        <v>6604.145621701014</v>
       </c>
       <c r="H50" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I50" t="n">
-        <v>1602253</v>
+        <v>1813936</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22452998</v>
+        <v>22562335</v>
       </c>
       <c r="E51" t="n">
-        <v>29126675</v>
+        <v>29268510</v>
       </c>
       <c r="F51" t="n">
-        <v>11465.44715556381</v>
+        <v>13075.70936921997</v>
       </c>
       <c r="G51" t="n">
-        <v>7555.56355797007</v>
+        <v>11678.01632939994</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>157480</v>
+        <v>157075</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14239853</v>
+        <v>13817102</v>
       </c>
       <c r="E52" t="n">
-        <v>14239853</v>
+        <v>13817102</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4661695</v>
+        <v>4225184</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98120170</v>
+        <v>98047897</v>
       </c>
       <c r="E53" t="n">
-        <v>121371138</v>
+        <v>121281739</v>
       </c>
       <c r="F53" t="n">
-        <v>671.1696307610366</v>
+        <v>400.8993037398071</v>
       </c>
       <c r="G53" t="n">
-        <v>4009.321828965842</v>
+        <v>4117.429167789615</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="I53" t="n">
-        <v>782917</v>
+        <v>777058</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5124868</v>
+        <v>5153259</v>
       </c>
       <c r="E54" t="n">
-        <v>7170433</v>
+        <v>7210156</v>
       </c>
       <c r="F54" t="n">
-        <v>84.14680976616458</v>
+        <v>79.02987947477706</v>
       </c>
       <c r="G54" t="n">
-        <v>343.2379346655119</v>
+        <v>378.9059809145005</v>
       </c>
       <c r="H54" t="n">
-        <v>1.71</v>
+        <v>2.44</v>
       </c>
       <c r="I54" t="n">
-        <v>108417</v>
+        <v>111212</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13966283</v>
+        <v>13867858</v>
       </c>
       <c r="E55" t="n">
-        <v>67640940</v>
+        <v>67164250</v>
       </c>
       <c r="F55" t="n">
-        <v>20670.10498397733</v>
+        <v>20337.27490388183</v>
       </c>
       <c r="G55" t="n">
-        <v>37797.10408936884</v>
+        <v>35666.88984292962</v>
       </c>
       <c r="H55" t="n">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="I55" t="n">
-        <v>3622132</v>
+        <v>3597349</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>62260</v>
+        <v>64001</v>
       </c>
       <c r="E56" t="n">
-        <v>149125</v>
+        <v>153295</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4935.36</v>
+        <v>5283.18</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1902127715</v>
+        <v>1903290799</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26410786</v>
+        <v>26326822</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12222186</v>
+        <v>12265875</v>
       </c>
       <c r="E58" t="n">
-        <v>17720406</v>
+        <v>17783749</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2080194</v>
+        <v>2062951</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124922879</v>
+        <v>123754483</v>
       </c>
       <c r="E59" t="n">
-        <v>332223644</v>
+        <v>329116378</v>
       </c>
       <c r="F59" t="n">
-        <v>11083.09153979486</v>
+        <v>5520.122939971657</v>
       </c>
       <c r="G59" t="n">
-        <v>7096.842381437392</v>
+        <v>10565.78114701488</v>
       </c>
       <c r="H59" t="n">
-        <v>1.28</v>
+        <v>0.85</v>
       </c>
       <c r="I59" t="n">
-        <v>1303520</v>
+        <v>1278835</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32246153</v>
+        <v>32111313</v>
       </c>
       <c r="E60" t="n">
-        <v>100404175</v>
+        <v>99984327</v>
       </c>
       <c r="F60" t="n">
-        <v>8037.812539312234</v>
+        <v>7724.120935057043</v>
       </c>
       <c r="G60" t="n">
-        <v>6484.671933517428</v>
+        <v>4548.473780642558</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="I60" t="n">
-        <v>12193162</v>
+        <v>12171549</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2070926</v>
+        <v>2062821</v>
       </c>
       <c r="E61" t="n">
-        <v>14850405</v>
+        <v>14792286</v>
       </c>
       <c r="F61" t="n">
-        <v>5278.486982381839</v>
+        <v>5416.731689991934</v>
       </c>
       <c r="G61" t="n">
-        <v>5484.196459908799</v>
+        <v>5397.73773196048</v>
       </c>
       <c r="H61" t="n">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="I61" t="n">
-        <v>1928835</v>
+        <v>1931096</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>202978015</v>
+        <v>200397074</v>
       </c>
       <c r="E62" t="n">
-        <v>1149386240</v>
+        <v>1134771368</v>
       </c>
       <c r="F62" t="n">
-        <v>585408.2270458167</v>
+        <v>553332.4491264302</v>
       </c>
       <c r="G62" t="n">
-        <v>682134.2317409577</v>
+        <v>711685.479561979</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>64997967</v>
+        <v>64860306</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>498453</v>
+        <v>502218</v>
       </c>
       <c r="E63" t="n">
-        <v>1677722</v>
+        <v>1690395</v>
       </c>
       <c r="F63" t="n">
-        <v>4578.55495837539</v>
+        <v>4510.991851279958</v>
       </c>
       <c r="G63" t="n">
-        <v>349.9118447334071</v>
+        <v>348.2287477986764</v>
       </c>
       <c r="H63" t="n">
         <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>625387</v>
+        <v>625379</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>343699</v>
+        <v>341723</v>
       </c>
       <c r="E64" t="n">
-        <v>343699</v>
+        <v>341723</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5081.94</v>
+        <v>5044.77</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>139495343</v>
+        <v>137968267</v>
       </c>
       <c r="E65" t="n">
-        <v>1033298839</v>
+        <v>1021987162</v>
       </c>
       <c r="F65" t="n">
-        <v>38854.00420714538</v>
+        <v>38951.54957511767</v>
       </c>
       <c r="G65" t="n">
-        <v>40850.71204153058</v>
+        <v>37415.84326680618</v>
       </c>
       <c r="H65" t="n">
         <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>10901300</v>
+        <v>10624428</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8203339</v>
+        <v>8021753</v>
       </c>
       <c r="E66" t="n">
-        <v>10989738</v>
+        <v>10746474</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>60084</v>
+        <v>62350</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25369853</v>
+        <v>25438691</v>
       </c>
       <c r="E67" t="n">
-        <v>25369853</v>
+        <v>25438691</v>
       </c>
       <c r="F67" t="n">
-        <v>7472.122727670678</v>
+        <v>7097.100512967445</v>
       </c>
       <c r="G67" t="n">
-        <v>6757.43285548572</v>
+        <v>6605.335978433478</v>
       </c>
       <c r="H67" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="I67" t="n">
-        <v>316076</v>
+        <v>309898</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1581474</v>
+        <v>1578253</v>
       </c>
       <c r="E68" t="n">
-        <v>12282910</v>
+        <v>12255345</v>
       </c>
       <c r="F68" t="n">
-        <v>8948.565295483333</v>
+        <v>10630.26931351694</v>
       </c>
       <c r="G68" t="n">
-        <v>20036.59419280634</v>
+        <v>15903.50446536495</v>
       </c>
       <c r="H68" t="n">
-        <v>0.49</v>
+        <v>0.78</v>
       </c>
       <c r="I68" t="n">
-        <v>536127</v>
+        <v>525495</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>338547712</v>
+        <v>336797265</v>
       </c>
       <c r="E69" t="n">
-        <v>3045785142</v>
+        <v>3030037041</v>
       </c>
       <c r="F69" t="n">
-        <v>1252135.6461135</v>
+        <v>1264839.497590673</v>
       </c>
       <c r="G69" t="n">
-        <v>1773228.741844931</v>
+        <v>1895635.798883754</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>37748281</v>
+        <v>38068173</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>252358</v>
+        <v>251627</v>
       </c>
       <c r="E70" t="n">
-        <v>2227248</v>
+        <v>2220799</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>72061</v>
+        <v>72644</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1586723</v>
+        <v>1589926</v>
       </c>
       <c r="E71" t="n">
-        <v>13222689</v>
+        <v>13249381</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>43897</v>
+        <v>42425</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9191679</v>
+        <v>9108135</v>
       </c>
       <c r="E72" t="n">
-        <v>42603961</v>
+        <v>42216728</v>
       </c>
       <c r="F72" t="n">
-        <v>6210.06499201085</v>
+        <v>6190.255784477333</v>
       </c>
       <c r="G72" t="n">
-        <v>8745.719577920407</v>
+        <v>8734.197331868701</v>
       </c>
       <c r="H72" t="n">
         <v>0.84</v>
       </c>
       <c r="I72" t="n">
-        <v>116260</v>
+        <v>117245</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>43959662</v>
+        <v>44175733</v>
       </c>
       <c r="E73" t="n">
-        <v>254508276</v>
+        <v>255759239</v>
       </c>
       <c r="F73" t="n">
-        <v>106944.6614486415</v>
+        <v>128189.256932021</v>
       </c>
       <c r="G73" t="n">
-        <v>168599.7051389286</v>
+        <v>184664.3304273378</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I73" t="n">
-        <v>11593195</v>
+        <v>12263535</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39304990</v>
+        <v>39396294</v>
       </c>
       <c r="E74" t="n">
-        <v>54285789</v>
+        <v>54411892</v>
       </c>
       <c r="F74" t="n">
-        <v>721.4989220450898</v>
+        <v>10905.08593568654</v>
       </c>
       <c r="G74" t="n">
-        <v>549.2651802641042</v>
+        <v>4322.70747759385</v>
       </c>
       <c r="H74" t="n">
-        <v>1.07</v>
+        <v>0.38</v>
       </c>
       <c r="I74" t="n">
-        <v>378477</v>
+        <v>380721</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95885</v>
+        <v>95899</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>702.37</v>
+        <v>547.9</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13697760</v>
+        <v>13615179</v>
       </c>
       <c r="E76" t="n">
-        <v>13744375</v>
+        <v>13661513</v>
       </c>
       <c r="F76" t="n">
-        <v>1220.187386382119</v>
+        <v>1857.43541493914</v>
       </c>
       <c r="G76" t="n">
-        <v>2937.405860623332</v>
+        <v>7192.977504298767</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="I76" t="n">
-        <v>5775889</v>
+        <v>5927003</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42883456</v>
+        <v>42874897</v>
       </c>
       <c r="E77" t="n">
-        <v>72806132</v>
+        <v>72791601</v>
       </c>
       <c r="F77" t="n">
-        <v>7676.785728951554</v>
+        <v>4606.389458169324</v>
       </c>
       <c r="G77" t="n">
-        <v>5868.858287802885</v>
+        <v>4602.831929818233</v>
       </c>
       <c r="H77" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I77" t="n">
-        <v>1076653</v>
+        <v>1087886</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23857645</v>
+        <v>23491243</v>
       </c>
       <c r="E78" t="n">
-        <v>71512640</v>
+        <v>70414361</v>
       </c>
       <c r="F78" t="n">
-        <v>124769.8871128108</v>
+        <v>169342.7226611162</v>
       </c>
       <c r="G78" t="n">
-        <v>81090.80919019859</v>
+        <v>119396.8608695255</v>
       </c>
       <c r="H78" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="I78" t="n">
-        <v>2854418</v>
+        <v>2273630</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101617192</v>
+        <v>101176574</v>
       </c>
       <c r="E79" t="n">
-        <v>108028259</v>
+        <v>107559842</v>
       </c>
       <c r="F79" t="n">
-        <v>2780.646752921505</v>
+        <v>2775.823056480613</v>
       </c>
       <c r="G79" t="n">
-        <v>4458.345915157293</v>
+        <v>3602.593837550573</v>
       </c>
       <c r="H79" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="I79" t="n">
-        <v>797103</v>
+        <v>390969</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10620257</v>
+        <v>10418517</v>
       </c>
       <c r="E80" t="n">
-        <v>46199588</v>
+        <v>45336264</v>
       </c>
       <c r="F80" t="n">
-        <v>6337.698644199123</v>
+        <v>5837.395904941604</v>
       </c>
       <c r="G80" t="n">
-        <v>5209.941988660653</v>
+        <v>5565.500417196036</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>107048</v>
+        <v>110372</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15149814</v>
+        <v>15405088</v>
       </c>
       <c r="E81" t="n">
-        <v>92858190</v>
+        <v>94422850</v>
       </c>
       <c r="F81" t="n">
-        <v>4034.223515015937</v>
+        <v>4112.036969956052</v>
       </c>
       <c r="G81" t="n">
-        <v>6509.510454415045</v>
+        <v>6232.321672984738</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>11781090</v>
+        <v>11620123</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1505262</v>
+        <v>1495775</v>
       </c>
       <c r="E82" t="n">
-        <v>1547604</v>
+        <v>1537850</v>
       </c>
       <c r="F82" t="n">
-        <v>6254.021804299715</v>
+        <v>5938.055804675827</v>
       </c>
       <c r="G82" t="n">
-        <v>5865.443805252453</v>
+        <v>6166.157021277175</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>128291</v>
+        <v>136177</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47394178</v>
+        <v>47415059</v>
       </c>
       <c r="E83" t="n">
-        <v>204168936</v>
+        <v>204258891</v>
       </c>
       <c r="F83" t="n">
-        <v>3372.44714643408</v>
+        <v>310.9807294464657</v>
       </c>
       <c r="G83" t="n">
-        <v>4721.232359838458</v>
+        <v>713.6643483652114</v>
       </c>
       <c r="H83" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>8777781</v>
+        <v>8522066</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1692728</v>
+        <v>1723487</v>
       </c>
       <c r="E84" t="n">
-        <v>6150858</v>
+        <v>6262544</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>128764</v>
+        <v>129263</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8861096</v>
+        <v>8738506</v>
       </c>
       <c r="E85" t="n">
-        <v>19676396</v>
+        <v>19404181</v>
       </c>
       <c r="F85" t="n">
-        <v>7264.891663998701</v>
+        <v>6074.912134789256</v>
       </c>
       <c r="G85" t="n">
-        <v>6508.956814835721</v>
+        <v>6889.783158811199</v>
       </c>
       <c r="H85" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="I85" t="n">
-        <v>359787</v>
+        <v>358971</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2450503</v>
+        <v>2449439</v>
       </c>
       <c r="E86" t="n">
-        <v>18439486</v>
+        <v>18431475</v>
       </c>
       <c r="F86" t="n">
-        <v>6197.269618033247</v>
+        <v>4972.053805262577</v>
       </c>
       <c r="G86" t="n">
-        <v>12858.80604045515</v>
+        <v>12524.42830010624</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161886</v>
+        <v>161857</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20915369</v>
+        <v>20883669</v>
       </c>
       <c r="E87" t="n">
-        <v>83661476</v>
+        <v>83534676</v>
       </c>
       <c r="F87" t="n">
-        <v>6273.145880672148</v>
+        <v>24268.63476765632</v>
       </c>
       <c r="G87" t="n">
-        <v>2869.361354075354</v>
+        <v>2581.404547896673</v>
       </c>
       <c r="H87" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="I87" t="n">
-        <v>5406515</v>
+        <v>4637492</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4274107</v>
+        <v>4263386</v>
       </c>
       <c r="E88" t="n">
-        <v>4274107</v>
+        <v>4263386</v>
       </c>
       <c r="F88" t="n">
-        <v>1951.893760896773</v>
+        <v>1755.071609862833</v>
       </c>
       <c r="G88" t="n">
-        <v>2538.365774125754</v>
+        <v>2558.873556827933</v>
       </c>
       <c r="H88" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I88" t="n">
-        <v>2516665</v>
+        <v>2580155</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12789103</v>
+        <v>12826881</v>
       </c>
       <c r="E89" t="n">
-        <v>40460567</v>
+        <v>40580084</v>
       </c>
       <c r="F89" t="n">
-        <v>15482.45679644458</v>
+        <v>19625.74935882213</v>
       </c>
       <c r="G89" t="n">
-        <v>13560.31413604865</v>
+        <v>11222.63224980321</v>
       </c>
       <c r="H89" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="I89" t="n">
-        <v>1400526</v>
+        <v>1386194</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>27068</v>
+        <v>26978</v>
       </c>
       <c r="E90" t="n">
-        <v>212880</v>
+        <v>212176</v>
       </c>
       <c r="F90" t="n">
-        <v>5636.032836939641</v>
+        <v>5586.097516241639</v>
       </c>
       <c r="G90" t="n">
-        <v>312.6155759944414</v>
+        <v>292.4712871161993</v>
       </c>
       <c r="H90" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="I90" t="n">
-        <v>132079</v>
+        <v>131628</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8303006</v>
+        <v>8239177</v>
       </c>
       <c r="E91" t="n">
-        <v>8303006</v>
+        <v>8239177</v>
       </c>
       <c r="F91" t="n">
-        <v>3239.679309516173</v>
+        <v>3462.501664430697</v>
       </c>
       <c r="G91" t="n">
-        <v>4242.540024839932</v>
+        <v>3394.512387551423</v>
       </c>
       <c r="H91" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>3527832</v>
+        <v>3557472</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9515470</v>
+        <v>9815626</v>
       </c>
       <c r="E92" t="n">
-        <v>9515470</v>
+        <v>9815626</v>
       </c>
       <c r="F92" t="n">
-        <v>7485.810242961888</v>
+        <v>1711.553877778694</v>
       </c>
       <c r="G92" t="n">
-        <v>3572.255640875284</v>
+        <v>2496.187833829372</v>
       </c>
       <c r="H92" t="n">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
       <c r="I92" t="n">
-        <v>2703846</v>
+        <v>2694011</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37666791</v>
+        <v>37449236</v>
       </c>
       <c r="E93" t="n">
-        <v>94977565</v>
+        <v>94428993</v>
       </c>
       <c r="F93" t="n">
-        <v>6285.402362083541</v>
+        <v>206.4825897077789</v>
       </c>
       <c r="G93" t="n">
-        <v>5975.149250337963</v>
+        <v>5643.252774944243</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="I93" t="n">
-        <v>3087686</v>
+        <v>3128041</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>301867614</v>
+        <v>299921032</v>
       </c>
       <c r="E94" t="n">
-        <v>306585211</v>
+        <v>304608706</v>
       </c>
       <c r="F94" t="n">
-        <v>48225.83650148709</v>
+        <v>49105.28059698939</v>
       </c>
       <c r="G94" t="n">
-        <v>31707.05969430264</v>
+        <v>29245.83458348562</v>
       </c>
       <c r="H94" t="n">
         <v>0.21</v>
       </c>
       <c r="I94" t="n">
-        <v>12358736</v>
+        <v>12305621</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>932.8876825029424</v>
+        <v>3575.037541339336</v>
       </c>
       <c r="G95" t="n">
-        <v>6414.001451544039</v>
+        <v>6498.471015772725</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I95" t="n">
-        <v>222656</v>
+        <v>220792</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>82022559</v>
+        <v>83749158</v>
       </c>
       <c r="E96" t="n">
-        <v>82022559</v>
+        <v>83749158</v>
       </c>
       <c r="F96" t="n">
-        <v>8266.463499618969</v>
+        <v>12123.10910125032</v>
       </c>
       <c r="G96" t="n">
-        <v>8377.182668366191</v>
+        <v>7692.690292942659</v>
       </c>
       <c r="H96" t="n">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="I96" t="n">
-        <v>5020646</v>
+        <v>5529330</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>304921170</v>
+        <v>305265020</v>
       </c>
       <c r="E97" t="n">
-        <v>304921170</v>
+        <v>305265020</v>
       </c>
       <c r="F97" t="n">
-        <v>329163.6285395171</v>
+        <v>333331.991242479</v>
       </c>
       <c r="G97" t="n">
-        <v>458639.4306647287</v>
+        <v>448411.296007445</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50347557</v>
+        <v>50278500</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4228759</v>
+        <v>4282159</v>
       </c>
       <c r="E98" t="n">
-        <v>28894816</v>
+        <v>29259694</v>
       </c>
       <c r="F98" t="n">
-        <v>4628.289096404248</v>
+        <v>22651.39636780791</v>
       </c>
       <c r="G98" t="n">
-        <v>4653.898673615744</v>
+        <v>24278.31415715974</v>
       </c>
       <c r="H98" t="n">
         <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2582361</v>
+        <v>2598068</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>91046610</v>
+        <v>89692849</v>
       </c>
       <c r="E99" t="n">
-        <v>524649839</v>
+        <v>516848884</v>
       </c>
       <c r="F99" t="n">
-        <v>135225.0605182469</v>
+        <v>136003.0079646306</v>
       </c>
       <c r="G99" t="n">
-        <v>137018.50878701</v>
+        <v>136759.5954642775</v>
       </c>
       <c r="H99" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>16196573</v>
+        <v>16145678</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108380939</v>
+        <v>108085109</v>
       </c>
       <c r="E100" t="n">
-        <v>266659455</v>
+        <v>265931597</v>
       </c>
       <c r="F100" t="n">
-        <v>30867.00025087083</v>
+        <v>26072.13777125351</v>
       </c>
       <c r="G100" t="n">
-        <v>50775.71090266888</v>
+        <v>41764.57904485283</v>
       </c>
       <c r="H100" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I100" t="n">
-        <v>2366539</v>
+        <v>2366037</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>250649397</v>
+        <v>249163705</v>
       </c>
       <c r="E101" t="n">
-        <v>250651887</v>
+        <v>249166181</v>
       </c>
       <c r="F101" t="n">
-        <v>44387.51758907674</v>
+        <v>11742.14831154032</v>
       </c>
       <c r="G101" t="n">
-        <v>14373.3412282323</v>
+        <v>12808.74640859917</v>
       </c>
       <c r="H101" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="I101" t="n">
-        <v>2621388</v>
+        <v>2773442</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30644866</v>
+        <v>30329557</v>
       </c>
       <c r="E102" t="n">
-        <v>137209639</v>
+        <v>135797871</v>
       </c>
       <c r="F102" t="n">
-        <v>96500.59170662127</v>
+        <v>108707.0588079021</v>
       </c>
       <c r="G102" t="n">
-        <v>140427.7719206246</v>
+        <v>143645.770935307</v>
       </c>
       <c r="H102" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8595757</v>
+        <v>8685050</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3125972</v>
+        <v>3056763</v>
       </c>
       <c r="E103" t="n">
-        <v>3125972</v>
+        <v>3056763</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>443098</v>
+        <v>439247</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5945289</v>
+        <v>5981162</v>
       </c>
       <c r="E104" t="n">
-        <v>15603436</v>
+        <v>15697583</v>
       </c>
       <c r="F104" t="n">
-        <v>8756.132022022155</v>
+        <v>8704.552298847721</v>
       </c>
       <c r="G104" t="n">
-        <v>3808.236678690794</v>
+        <v>3762.317870473531</v>
       </c>
       <c r="H104" t="n">
         <v>1.29</v>
       </c>
       <c r="I104" t="n">
-        <v>72633</v>
+        <v>72668</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17405098</v>
+        <v>16701069</v>
       </c>
       <c r="E105" t="n">
-        <v>80339213</v>
+        <v>77089616</v>
       </c>
       <c r="F105" t="n">
-        <v>38979.1723509882</v>
+        <v>29157.50201369022</v>
       </c>
       <c r="G105" t="n">
-        <v>91131.51012480649</v>
+        <v>48130.08320194852</v>
       </c>
       <c r="H105" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I105" t="n">
-        <v>932642</v>
+        <v>1014603</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48328664</v>
+        <v>48193054</v>
       </c>
       <c r="E106" t="n">
-        <v>313398521</v>
+        <v>312519129</v>
       </c>
       <c r="F106" t="n">
-        <v>100936.0661948673</v>
+        <v>105152.6292750631</v>
       </c>
       <c r="G106" t="n">
-        <v>163679.7451497779</v>
+        <v>185008.195919617</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17269100</v>
+        <v>17093154</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2335312</v>
+        <v>2398221</v>
       </c>
       <c r="E107" t="n">
-        <v>4230857</v>
+        <v>4344829</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>75695</v>
+        <v>110353</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125394333</v>
+        <v>125364844</v>
       </c>
       <c r="E108" t="n">
-        <v>2076632852</v>
+        <v>2076144496</v>
       </c>
       <c r="F108" t="n">
-        <v>195756.1477967557</v>
+        <v>228018.8146286027</v>
       </c>
       <c r="G108" t="n">
-        <v>105767.1666785527</v>
+        <v>213673.7882888176</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5051333</v>
+        <v>5064057</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23736553</v>
+        <v>23595598</v>
       </c>
       <c r="E109" t="n">
-        <v>142020567</v>
+        <v>141177207</v>
       </c>
       <c r="F109" t="n">
-        <v>40542.20879159673</v>
+        <v>40911.36535966518</v>
       </c>
       <c r="G109" t="n">
-        <v>39446.57106490211</v>
+        <v>40153.41122732704</v>
       </c>
       <c r="H109" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I109" t="n">
-        <v>13045439</v>
+        <v>13275575</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1001436</v>
+        <v>996826</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>66319</v>
+        <v>65592</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2236344</v>
+        <v>2234456</v>
       </c>
       <c r="F111" t="n">
-        <v>2680.220348751845</v>
+        <v>151.728837541397</v>
       </c>
       <c r="G111" t="n">
-        <v>353.1051009629769</v>
+        <v>352.7643608718643</v>
       </c>
       <c r="H111" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I111" t="n">
-        <v>206742</v>
+        <v>202796</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142424296</v>
+        <v>142458735</v>
       </c>
       <c r="F112" t="n">
-        <v>3147.435244856721</v>
+        <v>3147.686965278641</v>
       </c>
       <c r="G112" t="n">
-        <v>909.8115612511218</v>
+        <v>909.8843246703028</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>45188</v>
+        <v>41743</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6794066</v>
+        <v>6882545</v>
       </c>
       <c r="E113" t="n">
-        <v>34953403</v>
+        <v>35408600</v>
       </c>
       <c r="F113" t="n">
-        <v>280.9469597726031</v>
+        <v>780.5030900639075</v>
       </c>
       <c r="G113" t="n">
-        <v>1676.587041503862</v>
+        <v>1436.038390992912</v>
       </c>
       <c r="H113" t="n">
-        <v>1.13</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I113" t="n">
-        <v>853887</v>
+        <v>916966</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29074809</v>
+        <v>29068719</v>
       </c>
       <c r="E114" t="n">
-        <v>39866647</v>
+        <v>39858296</v>
       </c>
       <c r="F114" t="n">
-        <v>4649.220841379133</v>
+        <v>4781.237069125495</v>
       </c>
       <c r="G114" t="n">
-        <v>4555.788578273746</v>
+        <v>4506.423504100546</v>
       </c>
       <c r="H114" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>283080</v>
+        <v>286897</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8056843</v>
+        <v>8049434</v>
       </c>
       <c r="F115" t="n">
-        <v>409.484885482614</v>
+        <v>432.1906250600393</v>
       </c>
       <c r="G115" t="n">
-        <v>6694.191021487192</v>
+        <v>6693.805142300102</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>682455</v>
+        <v>675650</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3332436</v>
+        <v>3339101</v>
       </c>
       <c r="E116" t="n">
-        <v>4464009</v>
+        <v>4472936</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148801</v>
+        <v>149141</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34270383</v>
+        <v>34122162</v>
       </c>
       <c r="E117" t="n">
-        <v>171025007</v>
+        <v>170285320</v>
       </c>
       <c r="F117" t="n">
-        <v>70041.68898647245</v>
+        <v>95747.54535587416</v>
       </c>
       <c r="G117" t="n">
-        <v>68855.40072641159</v>
+        <v>73999.50968108431</v>
       </c>
       <c r="H117" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I117" t="n">
-        <v>10040700</v>
+        <v>10072900</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3434476</v>
+        <v>3434712</v>
       </c>
       <c r="E118" t="n">
-        <v>4933951</v>
+        <v>4934290</v>
       </c>
       <c r="F118" t="n">
-        <v>747.3356885950543</v>
+        <v>620.9271083139095</v>
       </c>
       <c r="G118" t="n">
-        <v>917.751326983019</v>
+        <v>885.5606122452044</v>
       </c>
       <c r="H118" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I118" t="n">
-        <v>135975</v>
+        <v>169071</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>313406225</v>
+        <v>311975093</v>
       </c>
       <c r="E119" t="n">
-        <v>579872987</v>
+        <v>577225067</v>
       </c>
       <c r="F119" t="n">
-        <v>99303.21568450982</v>
+        <v>103620.9255442869</v>
       </c>
       <c r="G119" t="n">
-        <v>115721.4392615864</v>
+        <v>117756.4298403394</v>
       </c>
       <c r="H119" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I119" t="n">
-        <v>12941069</v>
+        <v>12991950</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71592139</v>
+        <v>71011936</v>
       </c>
       <c r="E120" t="n">
-        <v>683044893</v>
+        <v>677501726</v>
       </c>
       <c r="F120" t="n">
-        <v>3392.847040548911</v>
+        <v>6091.117863498685</v>
       </c>
       <c r="G120" t="n">
-        <v>41632.58110677959</v>
+        <v>43789.73690252001</v>
       </c>
       <c r="H120" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>21198228</v>
+        <v>21257507</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38056592</v>
+        <v>38060400</v>
       </c>
       <c r="E121" t="n">
-        <v>49758523</v>
+        <v>49763288</v>
       </c>
       <c r="F121" t="n">
-        <v>5695.302619276824</v>
+        <v>240.3229521337666</v>
       </c>
       <c r="G121" t="n">
-        <v>256.4146637193232</v>
+        <v>6252.31365203279</v>
       </c>
       <c r="H121" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="I121" t="n">
-        <v>340226</v>
+        <v>621285</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9314612</v>
+        <v>9417766</v>
       </c>
       <c r="E122" t="n">
-        <v>27642905</v>
+        <v>27949033</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>698.6314088686595</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1967.072509492758</v>
       </c>
       <c r="H122" t="n">
-        <v>4.61</v>
+        <v>1.76</v>
       </c>
       <c r="I122" t="n">
-        <v>5873199</v>
+        <v>6036461</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2241092</v>
+        <v>2241912</v>
       </c>
       <c r="E123" t="n">
-        <v>7668679</v>
+        <v>7671487</v>
       </c>
       <c r="F123" t="n">
-        <v>715.1065942567794</v>
+        <v>676.1356760712359</v>
       </c>
       <c r="G123" t="n">
-        <v>1182.448239885733</v>
+        <v>1216.89955356372</v>
       </c>
       <c r="H123" t="n">
         <v>0.52</v>
       </c>
       <c r="I123" t="n">
-        <v>806578</v>
+        <v>805751</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7299372</v>
+        <v>7320029</v>
       </c>
       <c r="E124" t="n">
-        <v>7299383</v>
+        <v>7320040</v>
       </c>
       <c r="F124" t="n">
-        <v>9.278776731997723</v>
+        <v>9.348086687824534</v>
       </c>
       <c r="G124" t="n">
-        <v>1380.297467774177</v>
+        <v>1042.059384133789</v>
       </c>
       <c r="H124" t="n">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
       <c r="I124" t="n">
-        <v>343098</v>
+        <v>334506</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6054379</v>
+        <v>6058560</v>
       </c>
       <c r="E125" t="n">
-        <v>6054379</v>
+        <v>6058560</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>492252</v>
+        <v>499201</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6203027</v>
+        <v>6215319</v>
       </c>
       <c r="E126" t="n">
-        <v>22657257</v>
+        <v>22702154</v>
       </c>
       <c r="F126" t="n">
-        <v>5960.199695621895</v>
+        <v>964.5507311329194</v>
       </c>
       <c r="G126" t="n">
-        <v>1838.671189008176</v>
+        <v>6854.872659107019</v>
       </c>
       <c r="H126" t="n">
         <v>0.84</v>
       </c>
       <c r="I126" t="n">
-        <v>533159</v>
+        <v>529139</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45177357</v>
+        <v>44789668</v>
       </c>
       <c r="E127" t="n">
-        <v>45177357</v>
+        <v>44789668</v>
       </c>
       <c r="F127" t="n">
-        <v>66064.52713187187</v>
+        <v>69747.23812983824</v>
       </c>
       <c r="G127" t="n">
-        <v>73979.42217606894</v>
+        <v>77631.2871452472</v>
       </c>
       <c r="H127" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>8927893</v>
+        <v>7879327</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>147541261</v>
+        <v>148364922</v>
       </c>
       <c r="F128" t="n">
-        <v>5167.82223452457</v>
+        <v>5175.161681418335</v>
       </c>
       <c r="G128" t="n">
-        <v>483.517083828742</v>
+        <v>483.5608206634229</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1594982</v>
+        <v>1594323</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3083378</v>
+        <v>3073832</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>74191</v>
+        <v>73720</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20614136</v>
+        <v>20409092</v>
       </c>
       <c r="F130" t="n">
-        <v>409.4465239862602</v>
+        <v>462.5339293260375</v>
       </c>
       <c r="G130" t="n">
-        <v>469.3964605126424</v>
+        <v>275.0536194055239</v>
       </c>
       <c r="H130" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="I130" t="n">
-        <v>2900459</v>
+        <v>2906906</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1253573</v>
+        <v>1236854</v>
       </c>
       <c r="E131" t="n">
-        <v>3792988</v>
+        <v>3742156</v>
       </c>
       <c r="F131" t="n">
-        <v>780.4017497959184</v>
+        <v>777.9281849742221</v>
       </c>
       <c r="G131" t="n">
-        <v>715.2395173988092</v>
+        <v>712.6747069260767</v>
       </c>
       <c r="H131" t="n">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="I131" t="n">
-        <v>11623.92</v>
+        <v>9494.09</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>602891379</v>
+        <v>600494220</v>
       </c>
       <c r="E132" t="n">
-        <v>2334909360</v>
+        <v>2325625519</v>
       </c>
       <c r="F132" t="n">
-        <v>449229.5806804704</v>
+        <v>403343.5496614052</v>
       </c>
       <c r="G132" t="n">
-        <v>563232.55248898</v>
+        <v>535691.298949995</v>
       </c>
       <c r="H132" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>32961622</v>
+        <v>33329025</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3674145</v>
+        <v>3674546</v>
       </c>
       <c r="E133" t="n">
-        <v>6263079</v>
+        <v>6263763</v>
       </c>
       <c r="F133" t="n">
-        <v>5233.540438729334</v>
+        <v>5482.985459006584</v>
       </c>
       <c r="G133" t="n">
-        <v>5120.615432583606</v>
+        <v>5362.810360549239</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="I133" t="n">
-        <v>1252197</v>
+        <v>1270970</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118239450</v>
+        <v>118871710</v>
       </c>
       <c r="E134" t="n">
-        <v>1028019347</v>
+        <v>1033516454</v>
       </c>
       <c r="F134" t="n">
-        <v>124812.7177827715</v>
+        <v>126650.5255129549</v>
       </c>
       <c r="G134" t="n">
-        <v>113971.0976534909</v>
+        <v>100086.2630425714</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I134" t="n">
-        <v>8866122</v>
+        <v>8878214</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1022083021</v>
+        <v>1018383533</v>
       </c>
       <c r="E135" t="n">
-        <v>1122761000</v>
+        <v>1118697102</v>
       </c>
       <c r="F135" t="n">
-        <v>13595.23008035256</v>
+        <v>13654.5676671006</v>
       </c>
       <c r="G135" t="n">
-        <v>17758.71454868631</v>
+        <v>17735.75540389438</v>
       </c>
       <c r="H135" t="n">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="I135" t="n">
-        <v>9886228</v>
+        <v>9770683</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1116265</v>
+        <v>1121039</v>
       </c>
       <c r="E136" t="n">
-        <v>4322424</v>
+        <v>4340907</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>428264</v>
+        <v>429673</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>115666745</v>
+        <v>114524686</v>
       </c>
       <c r="E137" t="n">
-        <v>443716253</v>
+        <v>439335130</v>
       </c>
       <c r="F137" t="n">
-        <v>135766.7811993555</v>
+        <v>134059.0057390573</v>
       </c>
       <c r="G137" t="n">
-        <v>227555.654067741</v>
+        <v>235418.3966680678</v>
       </c>
       <c r="H137" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I137" t="n">
-        <v>22569311</v>
+        <v>22989673</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3187381</v>
+        <v>3198222</v>
       </c>
       <c r="E138" t="n">
-        <v>30200906</v>
+        <v>30303627</v>
       </c>
       <c r="F138" t="n">
-        <v>4501.62031286267</v>
+        <v>4245.831176076481</v>
       </c>
       <c r="G138" t="n">
-        <v>4659.309522724669</v>
+        <v>5512.454905614929</v>
       </c>
       <c r="H138" t="n">
         <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>265996</v>
+        <v>257429</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21822016</v>
+        <v>22422746</v>
       </c>
       <c r="E139" t="n">
-        <v>21822016</v>
+        <v>22422746</v>
       </c>
       <c r="F139" t="n">
-        <v>544.3557670653846</v>
+        <v>5774.462278748805</v>
       </c>
       <c r="G139" t="n">
-        <v>3737.117713327714</v>
+        <v>2308.48715151313</v>
       </c>
       <c r="H139" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="I139" t="n">
-        <v>579141</v>
+        <v>619741</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494589114</v>
+        <v>494073657</v>
       </c>
       <c r="E140" t="n">
-        <v>494589114</v>
+        <v>494073657</v>
       </c>
       <c r="F140" t="n">
-        <v>959197.1698877867</v>
+        <v>963893.7117130493</v>
       </c>
       <c r="G140" t="n">
-        <v>628836.6735545517</v>
+        <v>828255.1653660859</v>
       </c>
       <c r="H140" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>33171072</v>
+        <v>33292811</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31470210</v>
+        <v>31970427</v>
       </c>
       <c r="F141" t="n">
-        <v>50301.66307766362</v>
+        <v>57114.55394473922</v>
       </c>
       <c r="G141" t="n">
-        <v>104111.952380105</v>
+        <v>72226.1748786614</v>
       </c>
       <c r="H141" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="I141" t="n">
-        <v>5519553</v>
+        <v>5372461</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>764359</v>
+        <v>766169</v>
       </c>
       <c r="E142" t="n">
-        <v>12191250</v>
+        <v>12220116</v>
       </c>
       <c r="F142" t="n">
-        <v>77.67701353902704</v>
+        <v>75.25800034324564</v>
       </c>
       <c r="G142" t="n">
-        <v>41.04275980842721</v>
+        <v>25.66772320245265</v>
       </c>
       <c r="H142" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="I142" t="n">
-        <v>66265</v>
+        <v>65263</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2666359804</v>
+        <v>2648430769</v>
       </c>
       <c r="E143" t="n">
-        <v>2830980317</v>
+        <v>2811944347</v>
       </c>
       <c r="F143" t="n">
-        <v>3295.413095963799</v>
+        <v>3339.066945980574</v>
       </c>
       <c r="G143" t="n">
-        <v>22360.32466227998</v>
+        <v>22591.51514763021</v>
       </c>
       <c r="H143" t="n">
         <v>0.09</v>
       </c>
       <c r="I143" t="n">
-        <v>39970654</v>
+        <v>39963489</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1651494</v>
+        <v>1649812</v>
       </c>
       <c r="E144" t="n">
-        <v>1657323</v>
+        <v>1655636</v>
       </c>
       <c r="F144" t="n">
-        <v>842.2173035727465</v>
+        <v>354.2704130440505</v>
       </c>
       <c r="G144" t="n">
-        <v>518.4298085987397</v>
+        <v>1556.926043486882</v>
       </c>
       <c r="H144" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="I144" t="n">
-        <v>395529</v>
+        <v>399303</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>62222973</v>
+        <v>61245843</v>
       </c>
       <c r="E145" t="n">
-        <v>152628736</v>
+        <v>150231902</v>
       </c>
       <c r="F145" t="n">
-        <v>3156.558672342848</v>
+        <v>3482.711933270554</v>
       </c>
       <c r="G145" t="n">
-        <v>4778.170476725753</v>
+        <v>5102.144906060173</v>
       </c>
       <c r="H145" t="n">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="I145" t="n">
-        <v>22537578</v>
+        <v>22575278</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>738250682</v>
+        <v>720653788</v>
       </c>
       <c r="E146" t="n">
-        <v>1138447733</v>
+        <v>1111311769</v>
       </c>
       <c r="F146" t="n">
-        <v>175863.9039929693</v>
+        <v>160822.7117008715</v>
       </c>
       <c r="G146" t="n">
-        <v>146952.0268904483</v>
+        <v>142964.6042551448</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>214081022</v>
+        <v>214440102</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23221756</v>
+        <v>22887653</v>
       </c>
       <c r="E147" t="n">
-        <v>23221756</v>
+        <v>22887653</v>
       </c>
       <c r="F147" t="n">
-        <v>4777.883211214348</v>
+        <v>5526.896864589347</v>
       </c>
       <c r="G147" t="n">
-        <v>8118.744770759204</v>
+        <v>7957.643727895827</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="I147" t="n">
-        <v>6300578</v>
+        <v>6428480</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3816786</v>
+        <v>3782600</v>
       </c>
       <c r="E148" t="n">
-        <v>8328177</v>
+        <v>8253585</v>
       </c>
       <c r="F148" t="n">
-        <v>5668.865749381505</v>
+        <v>6002.068237341965</v>
       </c>
       <c r="G148" t="n">
-        <v>5717.656503550695</v>
+        <v>5813.238443507965</v>
       </c>
       <c r="H148" t="n">
-        <v>0.72</v>
+        <v>0.24</v>
       </c>
       <c r="I148" t="n">
-        <v>872546</v>
+        <v>952440</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9354012</v>
+        <v>9359284</v>
       </c>
       <c r="E149" t="n">
-        <v>9354012</v>
+        <v>9359284</v>
       </c>
       <c r="F149" t="n">
-        <v>85188.39304153311</v>
+        <v>87330.08535507089</v>
       </c>
       <c r="G149" t="n">
-        <v>78182.70731322009</v>
+        <v>76439.28576061004</v>
       </c>
       <c r="H149" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>3135238</v>
+        <v>3110402</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>493394219</v>
+        <v>491708959</v>
       </c>
       <c r="E150" t="n">
-        <v>1718335549</v>
+        <v>1712466322</v>
       </c>
       <c r="F150" t="n">
-        <v>731640.2896529747</v>
+        <v>772202.8955081875</v>
       </c>
       <c r="G150" t="n">
-        <v>780396.148545512</v>
+        <v>907725.7798126657</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31345225</v>
+        <v>30954620</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48164822</v>
+        <v>48120008</v>
       </c>
       <c r="E151" t="n">
-        <v>118871215</v>
+        <v>118760621</v>
       </c>
       <c r="F151" t="n">
-        <v>8291.623328805939</v>
+        <v>8337.031594480917</v>
       </c>
       <c r="G151" t="n">
-        <v>5540.156058091488</v>
+        <v>5558.044150859835</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>43283</v>
+        <v>44289</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7652330</v>
+        <v>7709326</v>
       </c>
       <c r="E152" t="n">
-        <v>19879930</v>
+        <v>20028001</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>2748.619015627243</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>3866.295754861482</v>
       </c>
       <c r="H152" t="n">
-        <v>9.630000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="I152" t="n">
-        <v>687453</v>
+        <v>690361</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19197632917</v>
+        <v>19194343923</v>
       </c>
       <c r="F153" t="n">
-        <v>52454.22256491802</v>
+        <v>52458.1783658517</v>
       </c>
       <c r="G153" t="n">
-        <v>50113.51921532527</v>
+        <v>50120.37643204361</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48848183</v>
+        <v>48983987</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2659293</v>
+        <v>2641271</v>
       </c>
       <c r="E154" t="n">
-        <v>10637171</v>
+        <v>10565084</v>
       </c>
       <c r="F154" t="n">
-        <v>5409.223758780544</v>
+        <v>2444.242618476072</v>
       </c>
       <c r="G154" t="n">
-        <v>17372.13460946642</v>
+        <v>21628.95085988871</v>
       </c>
       <c r="H154" t="n">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="I154" t="n">
-        <v>1165960</v>
+        <v>5816098</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>217384627</v>
+        <v>216346590</v>
       </c>
       <c r="E155" t="n">
-        <v>668375922</v>
+        <v>665184348</v>
       </c>
       <c r="F155" t="n">
-        <v>161093.5103582607</v>
+        <v>159548.1078709605</v>
       </c>
       <c r="G155" t="n">
-        <v>156156.5682072584</v>
+        <v>162990.8910014599</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>11609293</v>
+        <v>11709164</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>404273363</v>
+        <v>400237568</v>
       </c>
       <c r="E156" t="n">
-        <v>2310133501</v>
+        <v>2287071816</v>
       </c>
       <c r="F156" t="n">
-        <v>171703.6393870921</v>
+        <v>173223.3311191846</v>
       </c>
       <c r="G156" t="n">
-        <v>224510.1041241655</v>
+        <v>220277.988617787</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>37028708</v>
+        <v>37041330</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3905397</v>
+        <v>3916293</v>
       </c>
       <c r="F2" t="n">
-        <v>41.88299358833746</v>
+        <v>103.7994510919238</v>
       </c>
       <c r="G2" t="n">
-        <v>1831.779829227293</v>
+        <v>1820.605599706262</v>
       </c>
       <c r="H2" t="n">
-        <v>1.07</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>112930</v>
+        <v>113552</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>610862127</v>
+        <v>606518936</v>
       </c>
       <c r="E3" t="n">
-        <v>1185330917</v>
+        <v>1176903289</v>
       </c>
       <c r="F3" t="n">
-        <v>67032.70361144263</v>
+        <v>69679.25487755646</v>
       </c>
       <c r="G3" t="n">
-        <v>68389.62992848569</v>
+        <v>76623.47683621889</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>23089622</v>
+        <v>23145155</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246053568</v>
+        <v>246070069</v>
       </c>
       <c r="E4" t="n">
-        <v>1542967337</v>
+        <v>1543070817</v>
       </c>
       <c r="F4" t="n">
-        <v>232419.4915552275</v>
+        <v>293860.8279872967</v>
       </c>
       <c r="G4" t="n">
-        <v>372423.7758845986</v>
+        <v>342361.6522921607</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15451094</v>
+        <v>15578124</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139388667</v>
+        <v>139685684</v>
       </c>
       <c r="E5" t="n">
-        <v>154464427</v>
+        <v>154793568</v>
       </c>
       <c r="F5" t="n">
-        <v>8587.771154336335</v>
+        <v>8787.840912071546</v>
       </c>
       <c r="G5" t="n">
-        <v>535.5086338369689</v>
+        <v>535.6990533205364</v>
       </c>
       <c r="H5" t="n">
         <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>34074955</v>
+        <v>34371765</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49481579</v>
+        <v>50717694</v>
       </c>
       <c r="E6" t="n">
-        <v>61900186</v>
+        <v>63446535</v>
       </c>
       <c r="F6" t="n">
-        <v>5522.144767979569</v>
+        <v>4646.592447156403</v>
       </c>
       <c r="G6" t="n">
-        <v>6756.59555803446</v>
+        <v>1301.873414744566</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="I6" t="n">
-        <v>441282</v>
+        <v>524308</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69671535</v>
+        <v>69519095</v>
       </c>
       <c r="E7" t="n">
-        <v>138785499</v>
+        <v>138481839</v>
       </c>
       <c r="F7" t="n">
-        <v>9879.788486315492</v>
+        <v>9582.461979059288</v>
       </c>
       <c r="G7" t="n">
-        <v>12010.56161519502</v>
+        <v>12542.71994276357</v>
       </c>
       <c r="H7" t="n">
         <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1394721</v>
+        <v>1388826</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40679126</v>
+        <v>41406281</v>
       </c>
       <c r="E8" t="n">
-        <v>45525801</v>
+        <v>46339592</v>
       </c>
       <c r="F8" t="n">
-        <v>6865.677120086955</v>
+        <v>6788.117190965778</v>
       </c>
       <c r="G8" t="n">
-        <v>6696.088513134242</v>
+        <v>6749.135705837342</v>
       </c>
       <c r="H8" t="n">
-        <v>0.79</v>
+        <v>0.33</v>
       </c>
       <c r="I8" t="n">
-        <v>241978</v>
+        <v>242507</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14270529</v>
+        <v>14275101</v>
       </c>
       <c r="E9" t="n">
-        <v>42054328</v>
+        <v>42067801</v>
       </c>
       <c r="F9" t="n">
-        <v>5122.174550205864</v>
+        <v>4720.411802735041</v>
       </c>
       <c r="G9" t="n">
-        <v>4778.493129046141</v>
+        <v>4727.387422727965</v>
       </c>
       <c r="H9" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>823487</v>
+        <v>826886</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7367582</v>
+        <v>7324000</v>
       </c>
       <c r="E10" t="n">
-        <v>31669020</v>
+        <v>31481684</v>
       </c>
       <c r="F10" t="n">
-        <v>4799.049371364266</v>
+        <v>3956.905605609929</v>
       </c>
       <c r="G10" t="n">
-        <v>4488.627446944218</v>
+        <v>2943.145402089219</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="I10" t="n">
-        <v>674592</v>
+        <v>665311</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>558835956</v>
+        <v>560094987</v>
       </c>
       <c r="E11" t="n">
-        <v>699020722</v>
+        <v>700595583</v>
       </c>
       <c r="F11" t="n">
-        <v>251614.9079348249</v>
+        <v>265918.7125521227</v>
       </c>
       <c r="G11" t="n">
-        <v>258709.5431572463</v>
+        <v>248804.3124262414</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>54298497</v>
+        <v>54620750</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4720957</v>
+        <v>4691600</v>
       </c>
       <c r="E12" t="n">
-        <v>28997728</v>
+        <v>28817408</v>
       </c>
       <c r="F12" t="n">
-        <v>5874.30289416652</v>
+        <v>10037.93686451388</v>
       </c>
       <c r="G12" t="n">
-        <v>4464.558098957631</v>
+        <v>7855.228564567338</v>
       </c>
       <c r="H12" t="n">
-        <v>1.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>491875</v>
+        <v>490636</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22499015</v>
+        <v>22472407</v>
       </c>
       <c r="E13" t="n">
-        <v>22541078</v>
+        <v>22514327</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>873348</v>
+        <v>875246</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82315278</v>
+        <v>82129497</v>
       </c>
       <c r="E14" t="n">
-        <v>242181756</v>
+        <v>241635167</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>386321</v>
+        <v>385411</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>466250804</v>
+        <v>472143847</v>
       </c>
       <c r="E15" t="n">
-        <v>466250806</v>
+        <v>472143851</v>
       </c>
       <c r="F15" t="n">
-        <v>12997.88894788756</v>
+        <v>12566.2966383922</v>
       </c>
       <c r="G15" t="n">
-        <v>21838.62275788464</v>
+        <v>21504.64345992127</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>65421102</v>
+        <v>78993476</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4691346</v>
+        <v>4686648</v>
       </c>
       <c r="E16" t="n">
-        <v>4691346</v>
+        <v>4686648</v>
       </c>
       <c r="F16" t="n">
-        <v>287.4338895893998</v>
+        <v>210.4151407350638</v>
       </c>
       <c r="G16" t="n">
-        <v>1384.14702715938</v>
+        <v>1357.690507814621</v>
       </c>
       <c r="H16" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="I16" t="n">
-        <v>2008843</v>
+        <v>1939238</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3421639</v>
+        <v>3423959</v>
       </c>
       <c r="E17" t="n">
-        <v>3421639</v>
+        <v>3423959</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>545836</v>
+        <v>547426</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167297665</v>
+        <v>167926379</v>
       </c>
       <c r="E18" t="n">
-        <v>207121476</v>
+        <v>207899850</v>
       </c>
       <c r="F18" t="n">
-        <v>8660.778588601863</v>
+        <v>8450.646758574159</v>
       </c>
       <c r="G18" t="n">
-        <v>8178.361431146031</v>
+        <v>4806.408785137901</v>
       </c>
       <c r="H18" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="I18" t="n">
-        <v>394538</v>
+        <v>396332</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7001279</v>
+        <v>7001564</v>
       </c>
       <c r="E19" t="n">
-        <v>9642550</v>
+        <v>9642943</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>748314</v>
+        <v>748483</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>924477</v>
+        <v>896668</v>
       </c>
       <c r="E20" t="n">
-        <v>6471341</v>
+        <v>6276679</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>172075</v>
+        <v>192104</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>110296525</v>
+        <v>109885809</v>
       </c>
       <c r="E21" t="n">
-        <v>429344885</v>
+        <v>427737062</v>
       </c>
       <c r="F21" t="n">
-        <v>42102.74125862437</v>
+        <v>50628.13640501698</v>
       </c>
       <c r="G21" t="n">
-        <v>75763.49727211708</v>
+        <v>78387.63437361146</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>7888751</v>
+        <v>8012589</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1683289</v>
+        <v>1683220</v>
       </c>
       <c r="E22" t="n">
-        <v>12124587</v>
+        <v>12124088</v>
       </c>
       <c r="F22" t="n">
-        <v>6016.048355156411</v>
+        <v>6038.388563691152</v>
       </c>
       <c r="G22" t="n">
-        <v>3546.863620028415</v>
+        <v>3546.471336051119</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>120552</v>
+        <v>120503</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>136037860</v>
+        <v>137026380</v>
       </c>
       <c r="E23" t="n">
-        <v>136037860</v>
+        <v>137026380</v>
       </c>
       <c r="F23" t="n">
-        <v>1067085.663512293</v>
+        <v>1050587.227816523</v>
       </c>
       <c r="G23" t="n">
-        <v>1142030.826489179</v>
+        <v>1352283.844811828</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>66385122</v>
+        <v>66766679</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64931280</v>
+        <v>65293654</v>
       </c>
       <c r="E24" t="n">
-        <v>332980923</v>
+        <v>334839254</v>
       </c>
       <c r="F24" t="n">
-        <v>76794.70368670844</v>
+        <v>84862.84449154104</v>
       </c>
       <c r="G24" t="n">
-        <v>110639.3087702217</v>
+        <v>118148.3102501988</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>19312002</v>
+        <v>19395744</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>253467877</v>
+        <v>254479895</v>
       </c>
       <c r="E25" t="n">
-        <v>253467877</v>
+        <v>254479895</v>
       </c>
       <c r="F25" t="n">
-        <v>360049.4659130607</v>
+        <v>346204.7286530995</v>
       </c>
       <c r="G25" t="n">
-        <v>421648.9655037817</v>
+        <v>441804.8874619676</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>14976745</v>
+        <v>15056031</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1122453</v>
+        <v>1123566</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>189853</v>
+        <v>189668</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3978021</v>
+        <v>3970744</v>
       </c>
       <c r="E28" t="n">
-        <v>3978890</v>
+        <v>3971640</v>
       </c>
       <c r="F28" t="n">
-        <v>856.8251291785995</v>
+        <v>872.6656847018294</v>
       </c>
       <c r="G28" t="n">
-        <v>4345.318024822973</v>
+        <v>4380.331584977978</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="I28" t="n">
-        <v>282435</v>
+        <v>282044</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6784731</v>
+        <v>6790940</v>
       </c>
       <c r="E29" t="n">
-        <v>16479588</v>
+        <v>16494671</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>460657</v>
+        <v>461389</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99726231</v>
+        <v>99962608</v>
       </c>
       <c r="E30" t="n">
-        <v>124346920</v>
+        <v>124641654</v>
       </c>
       <c r="F30" t="n">
-        <v>123535.2846670732</v>
+        <v>128305.0224321645</v>
       </c>
       <c r="G30" t="n">
-        <v>106075.8395822153</v>
+        <v>104505.2288889256</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>11115668</v>
+        <v>11317985</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1114894</v>
+        <v>1154209</v>
       </c>
       <c r="E31" t="n">
-        <v>12116247</v>
+        <v>12543508</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29355</v>
+        <v>31948</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>72478740</v>
+        <v>73276566</v>
       </c>
       <c r="E32" t="n">
-        <v>202887844</v>
+        <v>205126056</v>
       </c>
       <c r="F32" t="n">
-        <v>68296.4932728862</v>
+        <v>67959.81842166474</v>
       </c>
       <c r="G32" t="n">
-        <v>65158.34712465702</v>
+        <v>66451.5262691586</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I32" t="n">
-        <v>33632522</v>
+        <v>32882928</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4183615</v>
+        <v>4171322</v>
       </c>
       <c r="E33" t="n">
-        <v>8250440</v>
+        <v>8226199</v>
       </c>
       <c r="F33" t="n">
-        <v>8566.600768071929</v>
+        <v>7989.287707303009</v>
       </c>
       <c r="G33" t="n">
-        <v>7401.294722923833</v>
+        <v>7229.41980621647</v>
       </c>
       <c r="H33" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="I33" t="n">
-        <v>1649820</v>
+        <v>1639420</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37205339</v>
+        <v>37250363</v>
       </c>
       <c r="F34" t="n">
-        <v>554.6239688540976</v>
+        <v>775.2540377452962</v>
       </c>
       <c r="G34" t="n">
-        <v>603.6081005732595</v>
+        <v>603.6109846886284</v>
       </c>
       <c r="H34" t="n">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="I34" t="n">
-        <v>64055</v>
+        <v>64086</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7612535</v>
+        <v>7618541</v>
       </c>
       <c r="E35" t="n">
-        <v>17929034</v>
+        <v>17943179</v>
       </c>
       <c r="F35" t="n">
-        <v>3738.941531671754</v>
+        <v>3738.528003830808</v>
       </c>
       <c r="G35" t="n">
-        <v>2581.278893849591</v>
+        <v>2580.993403777384</v>
       </c>
       <c r="H35" t="n">
         <v>0.55</v>
       </c>
       <c r="I35" t="n">
-        <v>36369</v>
+        <v>36081</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23184048</v>
+        <v>23213737</v>
       </c>
       <c r="F36" t="n">
-        <v>5220.807377968741</v>
+        <v>5369.499785727866</v>
       </c>
       <c r="G36" t="n">
-        <v>5508.195291050431</v>
+        <v>5510.726505903762</v>
       </c>
       <c r="H36" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="I36" t="n">
-        <v>118950</v>
+        <v>119709</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>72930714</v>
+        <v>73514187</v>
       </c>
       <c r="E37" t="n">
-        <v>152097574</v>
+        <v>153314412</v>
       </c>
       <c r="F37" t="n">
-        <v>66850.2010962959</v>
+        <v>58065.92478243961</v>
       </c>
       <c r="G37" t="n">
-        <v>118889.4229897718</v>
+        <v>115576.3886999358</v>
       </c>
       <c r="H37" t="n">
         <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>14454372</v>
+        <v>14498060</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>269692651</v>
+        <v>270127152</v>
       </c>
       <c r="E38" t="n">
-        <v>269692651</v>
+        <v>270127152</v>
       </c>
       <c r="F38" t="n">
-        <v>41890.98316547545</v>
+        <v>37634.70034246937</v>
       </c>
       <c r="G38" t="n">
-        <v>23398.70767887685</v>
+        <v>27906.30911674488</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I38" t="n">
-        <v>10427010</v>
+        <v>10468630</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>197463631</v>
+        <v>198045523</v>
       </c>
       <c r="E39" t="n">
-        <v>686006499</v>
+        <v>688028047</v>
       </c>
       <c r="F39" t="n">
-        <v>168134.411554918</v>
+        <v>115837.8933982224</v>
       </c>
       <c r="G39" t="n">
-        <v>387531.8445981487</v>
+        <v>356161.3042787036</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>25825012</v>
+        <v>25907454</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4118083</v>
+        <v>4105581</v>
       </c>
       <c r="E40" t="n">
-        <v>4118083</v>
+        <v>4105581</v>
       </c>
       <c r="F40" t="n">
-        <v>1354.215562929134</v>
+        <v>1473.631852609046</v>
       </c>
       <c r="G40" t="n">
-        <v>1284.255197731779</v>
+        <v>1515.003353979539</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="I40" t="n">
-        <v>3449212</v>
+        <v>3510344</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>115518935</v>
+        <v>116361898</v>
       </c>
       <c r="E41" t="n">
-        <v>491262232</v>
+        <v>494825520</v>
       </c>
       <c r="F41" t="n">
-        <v>5522.202891742126</v>
+        <v>5604.884038422799</v>
       </c>
       <c r="G41" t="n">
-        <v>6193.179380122886</v>
+        <v>6489.752675326419</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="I41" t="n">
-        <v>14364670</v>
+        <v>14485693</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>535219</v>
+        <v>534234</v>
       </c>
       <c r="E42" t="n">
-        <v>6491689</v>
+        <v>6479732</v>
       </c>
       <c r="F42" t="n">
-        <v>648.8090585057165</v>
+        <v>684.5371598464849</v>
       </c>
       <c r="G42" t="n">
-        <v>700.8025927980522</v>
+        <v>935.0566769289641</v>
       </c>
       <c r="H42" t="n">
-        <v>0.74</v>
+        <v>0.55</v>
       </c>
       <c r="I42" t="n">
-        <v>2776963</v>
+        <v>2720431</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1284997194</v>
+        <v>1290402564</v>
       </c>
       <c r="E43" t="n">
-        <v>6161824705</v>
+        <v>6187744561</v>
       </c>
       <c r="F43" t="n">
-        <v>49697.26025901104</v>
+        <v>50200.62182636681</v>
       </c>
       <c r="G43" t="n">
-        <v>71033.19132029632</v>
+        <v>64793.47665868067</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>179059485</v>
+        <v>181533382</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6050633552</v>
+        <v>6054887021</v>
       </c>
       <c r="E44" t="n">
-        <v>6050633552</v>
+        <v>6054887021</v>
       </c>
       <c r="F44" t="n">
-        <v>666106.0842479204</v>
+        <v>665033.8069377136</v>
       </c>
       <c r="G44" t="n">
-        <v>1866525.364853023</v>
+        <v>1866323.579470739</v>
       </c>
       <c r="H44" t="n">
         <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>93923347</v>
+        <v>93959096</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>266427226</v>
+        <v>267340999</v>
       </c>
       <c r="E45" t="n">
-        <v>1150047812</v>
+        <v>1153992163</v>
       </c>
       <c r="F45" t="n">
-        <v>126704.2014471673</v>
+        <v>106813.0221495062</v>
       </c>
       <c r="G45" t="n">
-        <v>92922.6294863622</v>
+        <v>97293.45362348146</v>
       </c>
       <c r="H45" t="n">
         <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>109936105</v>
+        <v>110128317</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114863044</v>
+        <v>114687222</v>
       </c>
       <c r="E46" t="n">
-        <v>114863044</v>
+        <v>114687222</v>
       </c>
       <c r="F46" t="n">
-        <v>36110.71633066099</v>
+        <v>28324.13393593072</v>
       </c>
       <c r="G46" t="n">
-        <v>30005.79308848608</v>
+        <v>38134.80963900906</v>
       </c>
       <c r="H46" t="n">
         <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>6040569</v>
+        <v>6049616</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2045332871</v>
+        <v>2045295591</v>
       </c>
       <c r="E47" t="n">
-        <v>2045332871</v>
+        <v>2045295591</v>
       </c>
       <c r="F47" t="n">
-        <v>225771.5665344507</v>
+        <v>226383.8996696624</v>
       </c>
       <c r="G47" t="n">
-        <v>199277.7079855319</v>
+        <v>198136.5826674662</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>6080849558</v>
+        <v>6083045955</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9816404</v>
+        <v>9808846</v>
       </c>
       <c r="F48" t="n">
-        <v>6729.881741012229</v>
+        <v>6734.447973993209</v>
       </c>
       <c r="G48" t="n">
-        <v>5555.496680221229</v>
+        <v>5863.881722370573</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>166777</v>
+        <v>167232</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4383031</v>
+        <v>4392394</v>
       </c>
       <c r="E49" t="n">
-        <v>5754348</v>
+        <v>5766640</v>
       </c>
       <c r="F49" t="n">
-        <v>13234.94661061005</v>
+        <v>13191.27648618009</v>
       </c>
       <c r="G49" t="n">
-        <v>18793.14500060354</v>
+        <v>12401.99458008525</v>
       </c>
       <c r="H49" t="n">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>505462</v>
+        <v>507381</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12135554</v>
+        <v>12121266</v>
       </c>
       <c r="E50" t="n">
-        <v>17845103</v>
+        <v>17824093</v>
       </c>
       <c r="F50" t="n">
-        <v>2226.137303801374</v>
+        <v>2222.456245126899</v>
       </c>
       <c r="G50" t="n">
-        <v>6604.145621701014</v>
+        <v>6595.817646061708</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I50" t="n">
-        <v>1813936</v>
+        <v>1831857</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22562335</v>
+        <v>22533538</v>
       </c>
       <c r="E51" t="n">
-        <v>29268510</v>
+        <v>29231154</v>
       </c>
       <c r="F51" t="n">
-        <v>13075.70936921997</v>
+        <v>13061.39804986095</v>
       </c>
       <c r="G51" t="n">
-        <v>11678.01632939994</v>
+        <v>11265.03069642868</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>157075</v>
+        <v>154079</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13817102</v>
+        <v>13769437</v>
       </c>
       <c r="E52" t="n">
-        <v>13817102</v>
+        <v>13769437</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4225184</v>
+        <v>4716143</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98047897</v>
+        <v>97876368</v>
       </c>
       <c r="E53" t="n">
-        <v>121281739</v>
+        <v>121069564</v>
       </c>
       <c r="F53" t="n">
-        <v>400.8993037398071</v>
+        <v>495.5253376533172</v>
       </c>
       <c r="G53" t="n">
-        <v>4117.429167789615</v>
+        <v>3997.384978956547</v>
       </c>
       <c r="H53" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>777058</v>
+        <v>774794</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5153259</v>
+        <v>5163968</v>
       </c>
       <c r="E54" t="n">
-        <v>7210156</v>
+        <v>7225140</v>
       </c>
       <c r="F54" t="n">
-        <v>79.02987947477706</v>
+        <v>75.77786539825061</v>
       </c>
       <c r="G54" t="n">
-        <v>378.9059809145005</v>
+        <v>370.5887596956257</v>
       </c>
       <c r="H54" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="I54" t="n">
-        <v>111212</v>
+        <v>110608</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13867858</v>
+        <v>13892768</v>
       </c>
       <c r="E55" t="n">
-        <v>67164250</v>
+        <v>67284891</v>
       </c>
       <c r="F55" t="n">
-        <v>20337.27490388183</v>
+        <v>15200.73347401806</v>
       </c>
       <c r="G55" t="n">
-        <v>35666.88984292962</v>
+        <v>37216.34289732452</v>
       </c>
       <c r="H55" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="I55" t="n">
-        <v>3597349</v>
+        <v>3606528</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>64001</v>
+        <v>64066</v>
       </c>
       <c r="E56" t="n">
-        <v>153295</v>
+        <v>153452</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5283.18</v>
+        <v>5283.11</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1903290799</v>
+        <v>1904305983</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26326822</v>
+        <v>26585128</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12265875</v>
+        <v>12316759</v>
       </c>
       <c r="E58" t="n">
-        <v>17783749</v>
+        <v>17857523</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2062951</v>
+        <v>2062115</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123754483</v>
+        <v>123435681</v>
       </c>
       <c r="E59" t="n">
-        <v>329116378</v>
+        <v>328268546</v>
       </c>
       <c r="F59" t="n">
-        <v>5520.122939971657</v>
+        <v>5472.87418106794</v>
       </c>
       <c r="G59" t="n">
-        <v>10565.78114701488</v>
+        <v>10959.65502101955</v>
       </c>
       <c r="H59" t="n">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
       <c r="I59" t="n">
-        <v>1278835</v>
+        <v>1261574</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32111313</v>
+        <v>31821450</v>
       </c>
       <c r="E60" t="n">
-        <v>99984327</v>
+        <v>99081785</v>
       </c>
       <c r="F60" t="n">
-        <v>7724.120935057043</v>
+        <v>7615.480831862958</v>
       </c>
       <c r="G60" t="n">
-        <v>4548.473780642558</v>
+        <v>6324.528998970167</v>
       </c>
       <c r="H60" t="n">
-        <v>0.82</v>
+        <v>0.36</v>
       </c>
       <c r="I60" t="n">
-        <v>12171549</v>
+        <v>12181591</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2062821</v>
+        <v>2047785</v>
       </c>
       <c r="E61" t="n">
-        <v>14792286</v>
+        <v>14684462</v>
       </c>
       <c r="F61" t="n">
-        <v>5416.731689991934</v>
+        <v>5452.506775216294</v>
       </c>
       <c r="G61" t="n">
-        <v>5397.73773196048</v>
+        <v>5398.308818814394</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="I61" t="n">
-        <v>1931096</v>
+        <v>1926476</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>200397074</v>
+        <v>201184921</v>
       </c>
       <c r="E62" t="n">
-        <v>1134771368</v>
+        <v>1139232641</v>
       </c>
       <c r="F62" t="n">
-        <v>553332.4491264302</v>
+        <v>537667.480823669</v>
       </c>
       <c r="G62" t="n">
-        <v>711685.479561979</v>
+        <v>723184.1035393937</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>64860306</v>
+        <v>64978129</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>502218</v>
+        <v>502072</v>
       </c>
       <c r="E63" t="n">
-        <v>1690395</v>
+        <v>1689903</v>
       </c>
       <c r="F63" t="n">
-        <v>4510.991851279958</v>
+        <v>4507.819616755862</v>
       </c>
       <c r="G63" t="n">
-        <v>348.2287477986764</v>
+        <v>348.2181761719222</v>
       </c>
       <c r="H63" t="n">
         <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>625379</v>
+        <v>625262</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>341723</v>
+        <v>340723</v>
       </c>
       <c r="E64" t="n">
-        <v>341723</v>
+        <v>340723</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5044.77</v>
+        <v>5071.25</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>137968267</v>
+        <v>138098484</v>
       </c>
       <c r="E65" t="n">
-        <v>1021987162</v>
+        <v>1022951730</v>
       </c>
       <c r="F65" t="n">
-        <v>38951.54957511767</v>
+        <v>34363.61790850436</v>
       </c>
       <c r="G65" t="n">
-        <v>37415.84326680618</v>
+        <v>41846.10483833998</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>10624428</v>
+        <v>10629680</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8021753</v>
+        <v>8034715</v>
       </c>
       <c r="E66" t="n">
-        <v>10746474</v>
+        <v>10763839</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>62350</v>
+        <v>65786</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25438691</v>
+        <v>25355090</v>
       </c>
       <c r="E67" t="n">
-        <v>25438691</v>
+        <v>25355090</v>
       </c>
       <c r="F67" t="n">
-        <v>7097.100512967445</v>
+        <v>7127.348503789236</v>
       </c>
       <c r="G67" t="n">
-        <v>6605.335978433478</v>
+        <v>6232.235333714336</v>
       </c>
       <c r="H67" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="I67" t="n">
-        <v>309898</v>
+        <v>307918</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1578253</v>
+        <v>1573788</v>
       </c>
       <c r="E68" t="n">
-        <v>12255345</v>
+        <v>12222215</v>
       </c>
       <c r="F68" t="n">
-        <v>10630.26931351694</v>
+        <v>11971.77939907214</v>
       </c>
       <c r="G68" t="n">
-        <v>15903.50446536495</v>
+        <v>13859.59637409234</v>
       </c>
       <c r="H68" t="n">
-        <v>0.78</v>
+        <v>0.55</v>
       </c>
       <c r="I68" t="n">
-        <v>525495</v>
+        <v>519580</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>336797265</v>
+        <v>337291570</v>
       </c>
       <c r="E69" t="n">
-        <v>3030037041</v>
+        <v>3034484114</v>
       </c>
       <c r="F69" t="n">
-        <v>1264839.497590673</v>
+        <v>1250234.506222578</v>
       </c>
       <c r="G69" t="n">
-        <v>1895635.798883754</v>
+        <v>1565776.555892233</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>38068173</v>
+        <v>37675037</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>251627</v>
+        <v>251211</v>
       </c>
       <c r="E70" t="n">
-        <v>2220799</v>
+        <v>2217130</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>72644</v>
+        <v>69873</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1589926</v>
+        <v>1590297</v>
       </c>
       <c r="E71" t="n">
-        <v>13249381</v>
+        <v>13252471</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>42425</v>
+        <v>42459</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9108135</v>
+        <v>9084999</v>
       </c>
       <c r="E72" t="n">
-        <v>42216728</v>
+        <v>42109492</v>
       </c>
       <c r="F72" t="n">
-        <v>6190.255784477333</v>
+        <v>6245.387925497632</v>
       </c>
       <c r="G72" t="n">
-        <v>8734.197331868701</v>
+        <v>8705.411410347093</v>
       </c>
       <c r="H72" t="n">
-        <v>0.84</v>
+        <v>1.05</v>
       </c>
       <c r="I72" t="n">
-        <v>117245</v>
+        <v>116777</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>44175733</v>
+        <v>44727364</v>
       </c>
       <c r="E73" t="n">
-        <v>255759239</v>
+        <v>258952959</v>
       </c>
       <c r="F73" t="n">
-        <v>128189.256932021</v>
+        <v>134913.9117313903</v>
       </c>
       <c r="G73" t="n">
-        <v>184664.3304273378</v>
+        <v>150981.305320675</v>
       </c>
       <c r="H73" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>12263535</v>
+        <v>12556526</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39396294</v>
+        <v>39402296</v>
       </c>
       <c r="E74" t="n">
-        <v>54411892</v>
+        <v>54420181</v>
       </c>
       <c r="F74" t="n">
-        <v>10905.08593568654</v>
+        <v>10564.032922481</v>
       </c>
       <c r="G74" t="n">
-        <v>4322.70747759385</v>
+        <v>4625.076977727658</v>
       </c>
       <c r="H74" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="I74" t="n">
-        <v>380721</v>
+        <v>381660</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95899</v>
+        <v>95878</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>547.9</v>
+        <v>547.97</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13615179</v>
+        <v>13581452</v>
       </c>
       <c r="E76" t="n">
-        <v>13661513</v>
+        <v>13627671</v>
       </c>
       <c r="F76" t="n">
-        <v>1857.43541493914</v>
+        <v>707.1323636272915</v>
       </c>
       <c r="G76" t="n">
-        <v>7192.977504298767</v>
+        <v>7519.572156672642</v>
       </c>
       <c r="H76" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>5927003</v>
+        <v>5924102</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42874897</v>
+        <v>42847885</v>
       </c>
       <c r="E77" t="n">
-        <v>72791601</v>
+        <v>72745741</v>
       </c>
       <c r="F77" t="n">
-        <v>4606.389458169324</v>
+        <v>5747.132872024917</v>
       </c>
       <c r="G77" t="n">
-        <v>4602.831929818233</v>
+        <v>6018.261545696658</v>
       </c>
       <c r="H77" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1087886</v>
+        <v>1088281</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23491243</v>
+        <v>23605537</v>
       </c>
       <c r="E78" t="n">
-        <v>70414361</v>
+        <v>70758546</v>
       </c>
       <c r="F78" t="n">
-        <v>169342.7226611162</v>
+        <v>110244.3216174934</v>
       </c>
       <c r="G78" t="n">
-        <v>119396.8608695255</v>
+        <v>141075.262404702</v>
       </c>
       <c r="H78" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="I78" t="n">
-        <v>2273630</v>
+        <v>2929138</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101176574</v>
+        <v>101194180</v>
       </c>
       <c r="E79" t="n">
-        <v>107559842</v>
+        <v>107578558</v>
       </c>
       <c r="F79" t="n">
-        <v>2775.823056480613</v>
+        <v>2775.523039721102</v>
       </c>
       <c r="G79" t="n">
-        <v>3602.593837550573</v>
+        <v>3951.74206655531</v>
       </c>
       <c r="H79" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="I79" t="n">
-        <v>390969</v>
+        <v>391250</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10418517</v>
+        <v>10395897</v>
       </c>
       <c r="E80" t="n">
-        <v>45336264</v>
+        <v>45214976</v>
       </c>
       <c r="F80" t="n">
-        <v>5837.395904941604</v>
+        <v>5729.581873401959</v>
       </c>
       <c r="G80" t="n">
-        <v>5565.500417196036</v>
+        <v>6180.233170954612</v>
       </c>
       <c r="H80" t="n">
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
       <c r="I80" t="n">
-        <v>110372</v>
+        <v>111400</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15405088</v>
+        <v>15475589</v>
       </c>
       <c r="E81" t="n">
-        <v>94422850</v>
+        <v>94854972</v>
       </c>
       <c r="F81" t="n">
-        <v>4112.036969956052</v>
+        <v>3860.38730046283</v>
       </c>
       <c r="G81" t="n">
-        <v>6232.321672984738</v>
+        <v>6152.277676962726</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I81" t="n">
-        <v>11620123</v>
+        <v>11481317</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1495775</v>
+        <v>1493834</v>
       </c>
       <c r="E82" t="n">
-        <v>1537850</v>
+        <v>1535854</v>
       </c>
       <c r="F82" t="n">
-        <v>5938.055804675827</v>
+        <v>5948.040619255193</v>
       </c>
       <c r="G82" t="n">
-        <v>6166.157021277175</v>
+        <v>5369.209503435923</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I82" t="n">
-        <v>136177</v>
+        <v>136847</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47415059</v>
+        <v>47503459</v>
       </c>
       <c r="E83" t="n">
-        <v>204258891</v>
+        <v>204639707</v>
       </c>
       <c r="F83" t="n">
-        <v>310.9807294464657</v>
+        <v>3372.290660348606</v>
       </c>
       <c r="G83" t="n">
-        <v>713.6643483652114</v>
+        <v>4649.1795688843</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I83" t="n">
-        <v>8522066</v>
+        <v>8807081</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1723487</v>
+        <v>1727535</v>
       </c>
       <c r="E84" t="n">
-        <v>6262544</v>
+        <v>6277228</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>129263</v>
+        <v>129110</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8738506</v>
+        <v>8739721</v>
       </c>
       <c r="E85" t="n">
-        <v>19404181</v>
+        <v>19406879</v>
       </c>
       <c r="F85" t="n">
-        <v>6074.912134789256</v>
+        <v>8069.884775908055</v>
       </c>
       <c r="G85" t="n">
-        <v>6889.783158811199</v>
+        <v>3993.698172016591</v>
       </c>
       <c r="H85" t="n">
         <v>1.23</v>
       </c>
       <c r="I85" t="n">
-        <v>358971</v>
+        <v>359439</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2449439</v>
+        <v>2450335</v>
       </c>
       <c r="E86" t="n">
-        <v>18431475</v>
+        <v>18438220</v>
       </c>
       <c r="F86" t="n">
-        <v>4972.053805262577</v>
+        <v>5104.033111858206</v>
       </c>
       <c r="G86" t="n">
-        <v>12524.42830010624</v>
+        <v>12886.01886316838</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161857</v>
+        <v>161817</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20883669</v>
+        <v>20885334</v>
       </c>
       <c r="E87" t="n">
-        <v>83534676</v>
+        <v>83541337</v>
       </c>
       <c r="F87" t="n">
-        <v>24268.63476765632</v>
+        <v>5690.489367248453</v>
       </c>
       <c r="G87" t="n">
-        <v>2581.404547896673</v>
+        <v>2492.459534129838</v>
       </c>
       <c r="H87" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="I87" t="n">
-        <v>4637492</v>
+        <v>5232919</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4263386</v>
+        <v>4267962</v>
       </c>
       <c r="E88" t="n">
-        <v>4263386</v>
+        <v>4267962</v>
       </c>
       <c r="F88" t="n">
-        <v>1755.071609862833</v>
+        <v>1049.16909573045</v>
       </c>
       <c r="G88" t="n">
-        <v>2558.873556827933</v>
+        <v>1174.030780349135</v>
       </c>
       <c r="H88" t="n">
         <v>0.32</v>
       </c>
       <c r="I88" t="n">
-        <v>2580155</v>
+        <v>2593797</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12826881</v>
+        <v>12847753</v>
       </c>
       <c r="E89" t="n">
-        <v>40580084</v>
+        <v>40646118</v>
       </c>
       <c r="F89" t="n">
-        <v>19625.74935882213</v>
+        <v>19665.37397307695</v>
       </c>
       <c r="G89" t="n">
-        <v>11222.63224980321</v>
+        <v>11195.90079364921</v>
       </c>
       <c r="H89" t="n">
         <v>0.39</v>
       </c>
       <c r="I89" t="n">
-        <v>1386194</v>
+        <v>1384855</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26978</v>
+        <v>27114</v>
       </c>
       <c r="E90" t="n">
-        <v>212176</v>
+        <v>213244</v>
       </c>
       <c r="F90" t="n">
-        <v>5586.097516241639</v>
+        <v>6428.870365251386</v>
       </c>
       <c r="G90" t="n">
-        <v>292.4712871161993</v>
+        <v>308.9141058106458</v>
       </c>
       <c r="H90" t="n">
         <v>0.37</v>
       </c>
       <c r="I90" t="n">
-        <v>131628</v>
+        <v>131250</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8239177</v>
+        <v>8284719</v>
       </c>
       <c r="E91" t="n">
-        <v>8239177</v>
+        <v>8284719</v>
       </c>
       <c r="F91" t="n">
-        <v>3462.501664430697</v>
+        <v>3942.096653326951</v>
       </c>
       <c r="G91" t="n">
-        <v>3394.512387551423</v>
+        <v>4112.395668372403</v>
       </c>
       <c r="H91" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>3557472</v>
+        <v>3595993</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9815626</v>
+        <v>10053691</v>
       </c>
       <c r="E92" t="n">
-        <v>9815626</v>
+        <v>10053691</v>
       </c>
       <c r="F92" t="n">
-        <v>1711.553877778694</v>
+        <v>1519.065552874961</v>
       </c>
       <c r="G92" t="n">
-        <v>2496.187833829372</v>
+        <v>7112.545432822197</v>
       </c>
       <c r="H92" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="I92" t="n">
-        <v>2694011</v>
+        <v>2726655</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37449236</v>
+        <v>37352370</v>
       </c>
       <c r="E93" t="n">
-        <v>94428993</v>
+        <v>94184746</v>
       </c>
       <c r="F93" t="n">
-        <v>206.4825897077789</v>
+        <v>5172.991823742886</v>
       </c>
       <c r="G93" t="n">
-        <v>5643.252774944243</v>
+        <v>5230.028829914062</v>
       </c>
       <c r="H93" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="I93" t="n">
-        <v>3128041</v>
+        <v>3131544</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>299921032</v>
+        <v>300557351</v>
       </c>
       <c r="E94" t="n">
-        <v>304608706</v>
+        <v>305256017</v>
       </c>
       <c r="F94" t="n">
-        <v>49105.28059698939</v>
+        <v>49137.27062933167</v>
       </c>
       <c r="G94" t="n">
-        <v>29245.83458348562</v>
+        <v>42389.7044334862</v>
       </c>
       <c r="H94" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I94" t="n">
-        <v>12305621</v>
+        <v>12467164</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3575.037541339336</v>
+        <v>3532.21323414453</v>
       </c>
       <c r="G95" t="n">
-        <v>6498.471015772725</v>
+        <v>6392.227424162245</v>
       </c>
       <c r="H95" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>220792</v>
+        <v>220785</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>83749158</v>
+        <v>83540366</v>
       </c>
       <c r="E96" t="n">
-        <v>83749158</v>
+        <v>83540366</v>
       </c>
       <c r="F96" t="n">
-        <v>12123.10910125032</v>
+        <v>5556.364209565361</v>
       </c>
       <c r="G96" t="n">
-        <v>7692.690292942659</v>
+        <v>7826.868051848176</v>
       </c>
       <c r="H96" t="n">
         <v>0.67</v>
       </c>
       <c r="I96" t="n">
-        <v>5529330</v>
+        <v>5429213</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>305265020</v>
+        <v>306665973</v>
       </c>
       <c r="E97" t="n">
-        <v>305265020</v>
+        <v>306665973</v>
       </c>
       <c r="F97" t="n">
-        <v>333331.991242479</v>
+        <v>325092.3782273711</v>
       </c>
       <c r="G97" t="n">
-        <v>448411.296007445</v>
+        <v>402730.8315809757</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50278500</v>
+        <v>50753329</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4282159</v>
+        <v>4279760</v>
       </c>
       <c r="E98" t="n">
-        <v>29259694</v>
+        <v>29243301</v>
       </c>
       <c r="F98" t="n">
-        <v>22651.39636780791</v>
+        <v>224.3024479881953</v>
       </c>
       <c r="G98" t="n">
-        <v>24278.31415715974</v>
+        <v>422.584899030078</v>
       </c>
       <c r="H98" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I98" t="n">
-        <v>2598068</v>
+        <v>2601250</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>89692849</v>
+        <v>89973873</v>
       </c>
       <c r="E99" t="n">
-        <v>516848884</v>
+        <v>518468266</v>
       </c>
       <c r="F99" t="n">
-        <v>136003.0079646306</v>
+        <v>141516.6243063276</v>
       </c>
       <c r="G99" t="n">
-        <v>136759.5954642775</v>
+        <v>147894.5907566383</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I99" t="n">
-        <v>16145678</v>
+        <v>16349549</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108085109</v>
+        <v>108281714</v>
       </c>
       <c r="E100" t="n">
-        <v>265931597</v>
+        <v>266415321</v>
       </c>
       <c r="F100" t="n">
-        <v>26072.13777125351</v>
+        <v>26280.65783943763</v>
       </c>
       <c r="G100" t="n">
-        <v>41764.57904485283</v>
+        <v>45550.24358192863</v>
       </c>
       <c r="H100" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="I100" t="n">
-        <v>2366037</v>
+        <v>2362327</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>249163705</v>
+        <v>249415553</v>
       </c>
       <c r="E101" t="n">
-        <v>249166181</v>
+        <v>249418030</v>
       </c>
       <c r="F101" t="n">
-        <v>11742.14831154032</v>
+        <v>12665.35114217923</v>
       </c>
       <c r="G101" t="n">
-        <v>12808.74640859917</v>
+        <v>13008.45782282126</v>
       </c>
       <c r="H101" t="n">
         <v>0.36</v>
       </c>
       <c r="I101" t="n">
-        <v>2773442</v>
+        <v>2776444</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30329557</v>
+        <v>30343122</v>
       </c>
       <c r="E102" t="n">
-        <v>135797871</v>
+        <v>135858603</v>
       </c>
       <c r="F102" t="n">
-        <v>108707.0588079021</v>
+        <v>115473.5191784082</v>
       </c>
       <c r="G102" t="n">
-        <v>143645.770935307</v>
+        <v>138591.2282496781</v>
       </c>
       <c r="H102" t="n">
         <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8685050</v>
+        <v>8702711</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3056763</v>
+        <v>3045076</v>
       </c>
       <c r="E103" t="n">
-        <v>3056763</v>
+        <v>3045076</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>439247</v>
+        <v>428256</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5981162</v>
+        <v>5981984</v>
       </c>
       <c r="E104" t="n">
-        <v>15697583</v>
+        <v>15699739</v>
       </c>
       <c r="F104" t="n">
-        <v>8704.552298847721</v>
+        <v>8764.246100111272</v>
       </c>
       <c r="G104" t="n">
-        <v>3762.317870473531</v>
+        <v>3776.012546055228</v>
       </c>
       <c r="H104" t="n">
         <v>1.29</v>
       </c>
       <c r="I104" t="n">
-        <v>72668</v>
+        <v>73292</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16701069</v>
+        <v>16584594</v>
       </c>
       <c r="E105" t="n">
-        <v>77089616</v>
+        <v>76552085</v>
       </c>
       <c r="F105" t="n">
-        <v>29157.50201369022</v>
+        <v>25335.33333282663</v>
       </c>
       <c r="G105" t="n">
-        <v>48130.08320194852</v>
+        <v>35246.42134228413</v>
       </c>
       <c r="H105" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>1014603</v>
+        <v>1011292</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48193054</v>
+        <v>48387509</v>
       </c>
       <c r="E106" t="n">
-        <v>312519129</v>
+        <v>313780120</v>
       </c>
       <c r="F106" t="n">
-        <v>105152.6292750631</v>
+        <v>90984.16488471406</v>
       </c>
       <c r="G106" t="n">
-        <v>185008.195919617</v>
+        <v>185137.203493642</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17093154</v>
+        <v>17352373</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2398221</v>
+        <v>2359313</v>
       </c>
       <c r="E107" t="n">
-        <v>4344829</v>
+        <v>4274341</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>110353</v>
+        <v>111630</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125364844</v>
+        <v>125413803</v>
       </c>
       <c r="E108" t="n">
-        <v>2076144496</v>
+        <v>2076955301</v>
       </c>
       <c r="F108" t="n">
-        <v>228018.8146286027</v>
+        <v>237816.2966412339</v>
       </c>
       <c r="G108" t="n">
-        <v>213673.7882888176</v>
+        <v>224271.7029796048</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5064057</v>
+        <v>5058837</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23595598</v>
+        <v>23721760</v>
       </c>
       <c r="E109" t="n">
-        <v>141177207</v>
+        <v>141932057</v>
       </c>
       <c r="F109" t="n">
-        <v>40911.36535966518</v>
+        <v>39417.20489839997</v>
       </c>
       <c r="G109" t="n">
-        <v>40153.41122732704</v>
+        <v>39537.68626126875</v>
       </c>
       <c r="H109" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="I109" t="n">
-        <v>13275575</v>
+        <v>13442058</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>996826</v>
+        <v>1000604</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>65592</v>
+        <v>65819</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2234456</v>
+        <v>2229718</v>
       </c>
       <c r="F111" t="n">
-        <v>151.728837541397</v>
+        <v>3755.222198897876</v>
       </c>
       <c r="G111" t="n">
-        <v>352.7643608718643</v>
+        <v>320.6357592624585</v>
       </c>
       <c r="H111" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="I111" t="n">
-        <v>202796</v>
+        <v>201780</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142458735</v>
+        <v>142456713</v>
       </c>
       <c r="F112" t="n">
-        <v>3147.686965278641</v>
+        <v>3147.346676724542</v>
       </c>
       <c r="G112" t="n">
-        <v>909.8843246703028</v>
+        <v>909.7859593548646</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>41743</v>
+        <v>40964</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6882545</v>
+        <v>6902501</v>
       </c>
       <c r="E113" t="n">
-        <v>35408600</v>
+        <v>35511271</v>
       </c>
       <c r="F113" t="n">
-        <v>780.5030900639075</v>
+        <v>784.3095181025991</v>
       </c>
       <c r="G113" t="n">
-        <v>1436.038390992912</v>
+        <v>1336.557944318635</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I113" t="n">
-        <v>916966</v>
+        <v>920358</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29068719</v>
+        <v>29152221</v>
       </c>
       <c r="E114" t="n">
-        <v>39858296</v>
+        <v>39972792</v>
       </c>
       <c r="F114" t="n">
-        <v>4781.237069125495</v>
+        <v>4788.789470726341</v>
       </c>
       <c r="G114" t="n">
-        <v>4506.423504100546</v>
+        <v>4490.273594348263</v>
       </c>
       <c r="H114" t="n">
         <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>286897</v>
+        <v>287732</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8049434</v>
+        <v>8049396</v>
       </c>
       <c r="F115" t="n">
-        <v>432.1906250600393</v>
+        <v>461.4952256120852</v>
       </c>
       <c r="G115" t="n">
-        <v>6693.805142300102</v>
+        <v>6780.259582804854</v>
       </c>
       <c r="H115" t="n">
         <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>675650</v>
+        <v>682506</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3339101</v>
+        <v>3343947</v>
       </c>
       <c r="E116" t="n">
-        <v>4472936</v>
+        <v>4479429</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149141</v>
+        <v>149670</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34122162</v>
+        <v>34417877</v>
       </c>
       <c r="E117" t="n">
-        <v>170285320</v>
+        <v>171761072</v>
       </c>
       <c r="F117" t="n">
-        <v>95747.54535587416</v>
+        <v>93290.43087146683</v>
       </c>
       <c r="G117" t="n">
-        <v>73999.50968108431</v>
+        <v>64706.51015612154</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I117" t="n">
-        <v>10072900</v>
+        <v>10210283</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3434712</v>
+        <v>3433852</v>
       </c>
       <c r="E118" t="n">
-        <v>4934290</v>
+        <v>4933054</v>
       </c>
       <c r="F118" t="n">
-        <v>620.9271083139095</v>
+        <v>620.8599814394075</v>
       </c>
       <c r="G118" t="n">
-        <v>885.5606122452044</v>
+        <v>885.4648765053952</v>
       </c>
       <c r="H118" t="n">
         <v>0.4</v>
       </c>
       <c r="I118" t="n">
-        <v>169071</v>
+        <v>169347</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>311975093</v>
+        <v>311808654</v>
       </c>
       <c r="E119" t="n">
-        <v>577225067</v>
+        <v>576917117</v>
       </c>
       <c r="F119" t="n">
-        <v>103620.9255442869</v>
+        <v>92776.96126705802</v>
       </c>
       <c r="G119" t="n">
-        <v>117756.4298403394</v>
+        <v>106412.2899009361</v>
       </c>
       <c r="H119" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="I119" t="n">
-        <v>12991950</v>
+        <v>13036407</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71011936</v>
+        <v>71395592</v>
       </c>
       <c r="E120" t="n">
-        <v>677501726</v>
+        <v>681161071</v>
       </c>
       <c r="F120" t="n">
-        <v>6091.117863498685</v>
+        <v>3885.926102126402</v>
       </c>
       <c r="G120" t="n">
-        <v>43789.73690252001</v>
+        <v>43165.47496537495</v>
       </c>
       <c r="H120" t="n">
         <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>21257507</v>
+        <v>21372454</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38060400</v>
+        <v>37910743</v>
       </c>
       <c r="E121" t="n">
-        <v>49763288</v>
+        <v>49567559</v>
       </c>
       <c r="F121" t="n">
-        <v>240.3229521337666</v>
+        <v>233.2429726673423</v>
       </c>
       <c r="G121" t="n">
-        <v>6252.31365203279</v>
+        <v>6217.100784532767</v>
       </c>
       <c r="H121" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="I121" t="n">
-        <v>621285</v>
+        <v>510321</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9417766</v>
+        <v>9412665</v>
       </c>
       <c r="E122" t="n">
-        <v>27949033</v>
+        <v>27929551</v>
       </c>
       <c r="F122" t="n">
-        <v>698.6314088686595</v>
+        <v>648.1395957607754</v>
       </c>
       <c r="G122" t="n">
-        <v>1967.072509492758</v>
+        <v>1484.217824882829</v>
       </c>
       <c r="H122" t="n">
-        <v>1.76</v>
+        <v>2.89</v>
       </c>
       <c r="I122" t="n">
-        <v>6036461</v>
+        <v>6038376</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2241912</v>
+        <v>2242109</v>
       </c>
       <c r="E123" t="n">
-        <v>7671487</v>
+        <v>7672161</v>
       </c>
       <c r="F123" t="n">
-        <v>676.1356760712359</v>
+        <v>676.0625807367495</v>
       </c>
       <c r="G123" t="n">
-        <v>1216.89955356372</v>
+        <v>1260.761094672142</v>
       </c>
       <c r="H123" t="n">
         <v>0.52</v>
       </c>
       <c r="I123" t="n">
-        <v>805751</v>
+        <v>810767</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7320029</v>
+        <v>7311354</v>
       </c>
       <c r="E124" t="n">
-        <v>7320040</v>
+        <v>7311365</v>
       </c>
       <c r="F124" t="n">
-        <v>9.348086687824534</v>
+        <v>254.4890671279112</v>
       </c>
       <c r="G124" t="n">
-        <v>1042.059384133789</v>
+        <v>1083.780989892869</v>
       </c>
       <c r="H124" t="n">
-        <v>0.98</v>
+        <v>1.46</v>
       </c>
       <c r="I124" t="n">
-        <v>334506</v>
+        <v>337438</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6058560</v>
+        <v>6065146</v>
       </c>
       <c r="E125" t="n">
-        <v>6058560</v>
+        <v>6065146</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>499201</v>
+        <v>304545</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6215319</v>
+        <v>6225425</v>
       </c>
       <c r="E126" t="n">
-        <v>22702154</v>
+        <v>22739069</v>
       </c>
       <c r="F126" t="n">
-        <v>964.5507311329194</v>
+        <v>968.1654298764657</v>
       </c>
       <c r="G126" t="n">
-        <v>6854.872659107019</v>
+        <v>6876.336337078017</v>
       </c>
       <c r="H126" t="n">
         <v>0.84</v>
       </c>
       <c r="I126" t="n">
-        <v>529139</v>
+        <v>528672</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44789668</v>
+        <v>44839429</v>
       </c>
       <c r="E127" t="n">
-        <v>44789668</v>
+        <v>44839429</v>
       </c>
       <c r="F127" t="n">
-        <v>69747.23812983824</v>
+        <v>64818.33250175756</v>
       </c>
       <c r="G127" t="n">
-        <v>77631.2871452472</v>
+        <v>82366.62750863706</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>7879327</v>
+        <v>7857915</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>148364922</v>
+        <v>148591367</v>
       </c>
       <c r="F128" t="n">
-        <v>5175.161681418335</v>
+        <v>5174.6022076507</v>
       </c>
       <c r="G128" t="n">
-        <v>483.5608206634229</v>
+        <v>483.5085441142304</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1594323</v>
+        <v>1601409</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3073832</v>
+        <v>3075464</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73720</v>
+        <v>73638</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20409092</v>
+        <v>20349709</v>
       </c>
       <c r="F130" t="n">
-        <v>462.5339293260375</v>
+        <v>520.7356756459875</v>
       </c>
       <c r="G130" t="n">
-        <v>275.0536194055239</v>
+        <v>924.6505296675698</v>
       </c>
       <c r="H130" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="I130" t="n">
-        <v>2906906</v>
+        <v>2910513</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1236854</v>
+        <v>1236176</v>
       </c>
       <c r="E131" t="n">
-        <v>3742156</v>
+        <v>3739879</v>
       </c>
       <c r="F131" t="n">
-        <v>777.9281849742221</v>
+        <v>777.8440851065483</v>
       </c>
       <c r="G131" t="n">
-        <v>712.6747069260767</v>
+        <v>712.5976614484805</v>
       </c>
       <c r="H131" t="n">
         <v>1.31</v>
       </c>
       <c r="I131" t="n">
-        <v>9494.09</v>
+        <v>9489.75</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>600494220</v>
+        <v>602354484</v>
       </c>
       <c r="E132" t="n">
-        <v>2325625519</v>
+        <v>2332830045</v>
       </c>
       <c r="F132" t="n">
-        <v>403343.5496614052</v>
+        <v>477021.1512764205</v>
       </c>
       <c r="G132" t="n">
-        <v>535691.298949995</v>
+        <v>636807.9385161079</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>33329025</v>
+        <v>33516524</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3674546</v>
+        <v>3673569</v>
       </c>
       <c r="E133" t="n">
-        <v>6263763</v>
+        <v>6262098</v>
       </c>
       <c r="F133" t="n">
-        <v>5482.985459006584</v>
+        <v>406.5304983493096</v>
       </c>
       <c r="G133" t="n">
-        <v>5362.810360549239</v>
+        <v>491.1339827048484</v>
       </c>
       <c r="H133" t="n">
         <v>0.64</v>
       </c>
       <c r="I133" t="n">
-        <v>1270970</v>
+        <v>1276401</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118871710</v>
+        <v>119119126</v>
       </c>
       <c r="E134" t="n">
-        <v>1033516454</v>
+        <v>1035667586</v>
       </c>
       <c r="F134" t="n">
-        <v>126650.5255129549</v>
+        <v>122260.9674936518</v>
       </c>
       <c r="G134" t="n">
-        <v>100086.2630425714</v>
+        <v>95804.14506973968</v>
       </c>
       <c r="H134" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I134" t="n">
-        <v>8878214</v>
+        <v>8884450</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1018383533</v>
+        <v>1041654119</v>
       </c>
       <c r="E135" t="n">
-        <v>1118697102</v>
+        <v>1144259905</v>
       </c>
       <c r="F135" t="n">
-        <v>13654.5676671006</v>
+        <v>12611.75140905868</v>
       </c>
       <c r="G135" t="n">
-        <v>17735.75540389438</v>
+        <v>13833.27018885003</v>
       </c>
       <c r="H135" t="n">
-        <v>0.39</v>
+        <v>0.75</v>
       </c>
       <c r="I135" t="n">
-        <v>9770683</v>
+        <v>10286351</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1121039</v>
+        <v>1117571</v>
       </c>
       <c r="E136" t="n">
-        <v>4340907</v>
+        <v>4327480</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>429673</v>
+        <v>429609</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>114524686</v>
+        <v>116231337</v>
       </c>
       <c r="E137" t="n">
-        <v>439335130</v>
+        <v>445882118</v>
       </c>
       <c r="F137" t="n">
-        <v>134059.0057390573</v>
+        <v>159406.0713432496</v>
       </c>
       <c r="G137" t="n">
-        <v>235418.3966680678</v>
+        <v>226705.6155481024</v>
       </c>
       <c r="H137" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I137" t="n">
-        <v>22989673</v>
+        <v>22937394</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3198222</v>
+        <v>3200816</v>
       </c>
       <c r="E138" t="n">
-        <v>30303627</v>
+        <v>30328201</v>
       </c>
       <c r="F138" t="n">
-        <v>4245.831176076481</v>
+        <v>4207.196389148261</v>
       </c>
       <c r="G138" t="n">
-        <v>5512.454905614929</v>
+        <v>4726.654952129518</v>
       </c>
       <c r="H138" t="n">
         <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>257429</v>
+        <v>234697</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22422746</v>
+        <v>22544822</v>
       </c>
       <c r="E139" t="n">
-        <v>22422746</v>
+        <v>22544822</v>
       </c>
       <c r="F139" t="n">
-        <v>5774.462278748805</v>
+        <v>9061.113116533868</v>
       </c>
       <c r="G139" t="n">
-        <v>2308.48715151313</v>
+        <v>2722.418325792156</v>
       </c>
       <c r="H139" t="n">
-        <v>1.68</v>
+        <v>1.06</v>
       </c>
       <c r="I139" t="n">
-        <v>619741</v>
+        <v>620236</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494073657</v>
+        <v>494483763</v>
       </c>
       <c r="E140" t="n">
-        <v>494073657</v>
+        <v>494483763</v>
       </c>
       <c r="F140" t="n">
-        <v>963893.7117130493</v>
+        <v>958884.6210530917</v>
       </c>
       <c r="G140" t="n">
-        <v>828255.1653660859</v>
+        <v>833963.5881843554</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>33292811</v>
+        <v>33388019</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31970427</v>
+        <v>31822910</v>
       </c>
       <c r="F141" t="n">
-        <v>57114.55394473922</v>
+        <v>54295.05727463466</v>
       </c>
       <c r="G141" t="n">
-        <v>72226.1748786614</v>
+        <v>69890.17942368265</v>
       </c>
       <c r="H141" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="I141" t="n">
-        <v>5372461</v>
+        <v>5501648</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>766169</v>
+        <v>765355</v>
       </c>
       <c r="E142" t="n">
-        <v>12220116</v>
+        <v>12207145</v>
       </c>
       <c r="F142" t="n">
-        <v>75.25800034324564</v>
+        <v>75.2502076544889</v>
       </c>
       <c r="G142" t="n">
-        <v>25.66772320245265</v>
+        <v>25.66506540425049</v>
       </c>
       <c r="H142" t="n">
         <v>0.64</v>
       </c>
       <c r="I142" t="n">
-        <v>65263</v>
+        <v>65183</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2648430769</v>
+        <v>2642702365</v>
       </c>
       <c r="E143" t="n">
-        <v>2811944347</v>
+        <v>2805862273</v>
       </c>
       <c r="F143" t="n">
-        <v>3339.066945980574</v>
+        <v>3146.184336748237</v>
       </c>
       <c r="G143" t="n">
-        <v>22591.51514763021</v>
+        <v>23227.14687951089</v>
       </c>
       <c r="H143" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I143" t="n">
-        <v>39963489</v>
+        <v>40263960</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1649812</v>
+        <v>1649062</v>
       </c>
       <c r="E144" t="n">
-        <v>1655636</v>
+        <v>1654883</v>
       </c>
       <c r="F144" t="n">
-        <v>354.2704130440505</v>
+        <v>477.2731667409318</v>
       </c>
       <c r="G144" t="n">
-        <v>1556.926043486882</v>
+        <v>709.8347050558258</v>
       </c>
       <c r="H144" t="n">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="I144" t="n">
-        <v>399303</v>
+        <v>400997</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61245843</v>
+        <v>61196379</v>
       </c>
       <c r="E145" t="n">
-        <v>150231902</v>
+        <v>150110570</v>
       </c>
       <c r="F145" t="n">
-        <v>3482.711933270554</v>
+        <v>3530.677508621146</v>
       </c>
       <c r="G145" t="n">
-        <v>5102.144906060173</v>
+        <v>4423.712840933108</v>
       </c>
       <c r="H145" t="n">
         <v>0.33</v>
       </c>
       <c r="I145" t="n">
-        <v>22575278</v>
+        <v>22560763</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>720653788</v>
+        <v>718304512</v>
       </c>
       <c r="E146" t="n">
-        <v>1111311769</v>
+        <v>1107688978</v>
       </c>
       <c r="F146" t="n">
-        <v>160822.7117008715</v>
+        <v>163066.2554024978</v>
       </c>
       <c r="G146" t="n">
-        <v>142964.6042551448</v>
+        <v>154444.40025343</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>214440102</v>
+        <v>177513927</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22887653</v>
+        <v>22889022</v>
       </c>
       <c r="E147" t="n">
-        <v>22887653</v>
+        <v>22889022</v>
       </c>
       <c r="F147" t="n">
-        <v>5526.896864589347</v>
+        <v>4517.537893640644</v>
       </c>
       <c r="G147" t="n">
-        <v>7957.643727895827</v>
+        <v>7812.270831733955</v>
       </c>
       <c r="H147" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I147" t="n">
-        <v>6428480</v>
+        <v>6444497</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3782600</v>
+        <v>3783457</v>
       </c>
       <c r="E148" t="n">
-        <v>8253585</v>
+        <v>8255454</v>
       </c>
       <c r="F148" t="n">
-        <v>6002.068237341965</v>
+        <v>6001.446745281892</v>
       </c>
       <c r="G148" t="n">
-        <v>5813.238443507965</v>
+        <v>5812.74671723162</v>
       </c>
       <c r="H148" t="n">
         <v>0.24</v>
       </c>
       <c r="I148" t="n">
-        <v>952440</v>
+        <v>974803</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9359284</v>
+        <v>9358535</v>
       </c>
       <c r="E149" t="n">
-        <v>9359284</v>
+        <v>9358535</v>
       </c>
       <c r="F149" t="n">
-        <v>87330.08535507089</v>
+        <v>95209.10582190397</v>
       </c>
       <c r="G149" t="n">
-        <v>76439.28576061004</v>
+        <v>69849.869747972</v>
       </c>
       <c r="H149" t="n">
         <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>3110402</v>
+        <v>3120758</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>491708959</v>
+        <v>492897607</v>
       </c>
       <c r="E150" t="n">
-        <v>1712466322</v>
+        <v>1716606007</v>
       </c>
       <c r="F150" t="n">
-        <v>772202.8955081875</v>
+        <v>765330.2257495186</v>
       </c>
       <c r="G150" t="n">
-        <v>907725.7798126657</v>
+        <v>912179.9334091846</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>30954620</v>
+        <v>31153166</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48120008</v>
+        <v>48133875</v>
       </c>
       <c r="E151" t="n">
-        <v>118760621</v>
+        <v>118794845</v>
       </c>
       <c r="F151" t="n">
-        <v>8337.031594480917</v>
+        <v>8340.091153366477</v>
       </c>
       <c r="G151" t="n">
-        <v>5558.044150859835</v>
+        <v>5559.846786252419</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>44289</v>
+        <v>44275</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7709326</v>
+        <v>7636678</v>
       </c>
       <c r="E152" t="n">
-        <v>20028001</v>
+        <v>19839269</v>
       </c>
       <c r="F152" t="n">
-        <v>2748.619015627243</v>
+        <v>2441.768024711029</v>
       </c>
       <c r="G152" t="n">
-        <v>3866.295754861482</v>
+        <v>3865.895414175817</v>
       </c>
       <c r="H152" t="n">
         <v>2.48</v>
       </c>
       <c r="I152" t="n">
-        <v>690361</v>
+        <v>691012</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19194343923</v>
+        <v>19185287188</v>
       </c>
       <c r="F153" t="n">
-        <v>52458.1783658517</v>
+        <v>52452.74651468789</v>
       </c>
       <c r="G153" t="n">
-        <v>50120.37643204361</v>
+        <v>50111.87821049336</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48983987</v>
+        <v>48866110</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2641271</v>
+        <v>2640200</v>
       </c>
       <c r="E154" t="n">
-        <v>10565084</v>
+        <v>10560798</v>
       </c>
       <c r="F154" t="n">
-        <v>2444.242618476072</v>
+        <v>3574.805152925605</v>
       </c>
       <c r="G154" t="n">
-        <v>21628.95085988871</v>
+        <v>21311.33988754249</v>
       </c>
       <c r="H154" t="n">
         <v>0.86</v>
       </c>
       <c r="I154" t="n">
-        <v>5816098</v>
+        <v>5850972</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>216346590</v>
+        <v>216009523</v>
       </c>
       <c r="E155" t="n">
-        <v>665184348</v>
+        <v>664147994</v>
       </c>
       <c r="F155" t="n">
-        <v>159548.1078709605</v>
+        <v>142978.8931153345</v>
       </c>
       <c r="G155" t="n">
-        <v>162990.8910014599</v>
+        <v>161416.9023526874</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>11709164</v>
+        <v>11756637</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>400237568</v>
+        <v>401117816</v>
       </c>
       <c r="E156" t="n">
-        <v>2287071816</v>
+        <v>2292101804</v>
       </c>
       <c r="F156" t="n">
-        <v>173223.3311191846</v>
+        <v>157264.0304265148</v>
       </c>
       <c r="G156" t="n">
-        <v>220277.988617787</v>
+        <v>254857.6570027181</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>37041330</v>
+        <v>36963172</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3916293</v>
+        <v>3915412</v>
       </c>
       <c r="F2" t="n">
-        <v>103.7994510919238</v>
+        <v>7.172558096099241</v>
       </c>
       <c r="G2" t="n">
-        <v>1820.605599706262</v>
+        <v>1831.397246848646</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="I2" t="n">
-        <v>113552</v>
+        <v>117248</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>606518936</v>
+        <v>605047095</v>
       </c>
       <c r="E3" t="n">
-        <v>1176903289</v>
+        <v>1174050185</v>
       </c>
       <c r="F3" t="n">
-        <v>69679.25487755646</v>
+        <v>73869.49874900491</v>
       </c>
       <c r="G3" t="n">
-        <v>76623.47683621889</v>
+        <v>78549.49221236119</v>
       </c>
       <c r="H3" t="n">
         <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>23145155</v>
+        <v>23131780</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246070069</v>
+        <v>246157476</v>
       </c>
       <c r="E4" t="n">
-        <v>1543070817</v>
+        <v>1543618933</v>
       </c>
       <c r="F4" t="n">
-        <v>293860.8279872967</v>
+        <v>370172.6004759339</v>
       </c>
       <c r="G4" t="n">
-        <v>342361.6522921607</v>
+        <v>286008.1779076663</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15578124</v>
+        <v>15650572</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139685684</v>
+        <v>140095170</v>
       </c>
       <c r="E5" t="n">
-        <v>154793568</v>
+        <v>155247342</v>
       </c>
       <c r="F5" t="n">
-        <v>8787.840912071546</v>
+        <v>8798.265960735265</v>
       </c>
       <c r="G5" t="n">
-        <v>535.6990533205364</v>
+        <v>536.0647074743637</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>34371765</v>
+        <v>34644850</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50717694</v>
+        <v>49022318</v>
       </c>
       <c r="E6" t="n">
-        <v>63446535</v>
+        <v>61325662</v>
       </c>
       <c r="F6" t="n">
-        <v>4646.592447156403</v>
+        <v>5272.439584068324</v>
       </c>
       <c r="G6" t="n">
-        <v>1301.873414744566</v>
+        <v>5943.061590355981</v>
       </c>
       <c r="H6" t="n">
-        <v>0.61</v>
+        <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>524308</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69519095</v>
+        <v>69646359</v>
       </c>
       <c r="E7" t="n">
-        <v>138481839</v>
+        <v>138735348</v>
       </c>
       <c r="F7" t="n">
-        <v>9582.461979059288</v>
+        <v>9407.789015096641</v>
       </c>
       <c r="G7" t="n">
-        <v>12542.71994276357</v>
+        <v>13542.51475540265</v>
       </c>
       <c r="H7" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1388826</v>
+        <v>1332734</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41406281</v>
+        <v>41868679</v>
       </c>
       <c r="E8" t="n">
-        <v>46339592</v>
+        <v>46857082</v>
       </c>
       <c r="F8" t="n">
-        <v>6788.117190965778</v>
+        <v>1247.489162370293</v>
       </c>
       <c r="G8" t="n">
-        <v>6749.135705837342</v>
+        <v>276.6462605023781</v>
       </c>
       <c r="H8" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>242507</v>
+        <v>3861332</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14275101</v>
+        <v>14314410</v>
       </c>
       <c r="E9" t="n">
-        <v>42067801</v>
+        <v>42183642</v>
       </c>
       <c r="F9" t="n">
-        <v>4720.411802735041</v>
+        <v>4476.879570315677</v>
       </c>
       <c r="G9" t="n">
-        <v>4727.387422727965</v>
+        <v>4416.805527903987</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>1.35</v>
       </c>
       <c r="I9" t="n">
-        <v>826886</v>
+        <v>843685</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7324000</v>
+        <v>7288621</v>
       </c>
       <c r="E10" t="n">
-        <v>31481684</v>
+        <v>31329612</v>
       </c>
       <c r="F10" t="n">
-        <v>3956.905605609929</v>
+        <v>4553.323299022212</v>
       </c>
       <c r="G10" t="n">
-        <v>2943.145402089219</v>
+        <v>35597.06078814455</v>
       </c>
       <c r="H10" t="n">
         <v>0.38</v>
       </c>
       <c r="I10" t="n">
-        <v>665311</v>
+        <v>638701</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>560094987</v>
+        <v>560195721</v>
       </c>
       <c r="E11" t="n">
-        <v>700595583</v>
+        <v>700721587</v>
       </c>
       <c r="F11" t="n">
-        <v>265918.7125521227</v>
+        <v>221079.728234566</v>
       </c>
       <c r="G11" t="n">
-        <v>248804.3124262414</v>
+        <v>222859.3934573237</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>54620750</v>
+        <v>53973214</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4691600</v>
+        <v>4670193</v>
       </c>
       <c r="E12" t="n">
-        <v>28817408</v>
+        <v>28685922</v>
       </c>
       <c r="F12" t="n">
-        <v>10037.93686451388</v>
+        <v>11724.3487811737</v>
       </c>
       <c r="G12" t="n">
-        <v>7855.228564567338</v>
+        <v>7807.521100221738</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>490636</v>
+        <v>515428</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22472407</v>
+        <v>22667414</v>
       </c>
       <c r="E13" t="n">
-        <v>22514327</v>
+        <v>22709697</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>875246</v>
+        <v>887169</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82129497</v>
+        <v>82251086</v>
       </c>
       <c r="E14" t="n">
-        <v>241635167</v>
+        <v>241992897</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>385411</v>
+        <v>358773</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>472143847</v>
+        <v>474585403</v>
       </c>
       <c r="E15" t="n">
-        <v>472143851</v>
+        <v>474585401</v>
       </c>
       <c r="F15" t="n">
-        <v>12566.2966383922</v>
+        <v>13320.11939911533</v>
       </c>
       <c r="G15" t="n">
-        <v>21504.64345992127</v>
+        <v>17529.98347823475</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>78993476</v>
+        <v>66527347</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4686648</v>
+        <v>4633486</v>
       </c>
       <c r="E16" t="n">
-        <v>4686648</v>
+        <v>4633486</v>
       </c>
       <c r="F16" t="n">
-        <v>210.4151407350638</v>
+        <v>380.5030498359293</v>
       </c>
       <c r="G16" t="n">
-        <v>1357.690507814621</v>
+        <v>5647.774341534927</v>
       </c>
       <c r="H16" t="n">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="I16" t="n">
-        <v>1939238</v>
+        <v>1365864</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3423959</v>
+        <v>3419036</v>
       </c>
       <c r="E17" t="n">
-        <v>3423959</v>
+        <v>3419036</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>547426</v>
+        <v>546687</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167926379</v>
+        <v>167364266</v>
       </c>
       <c r="E18" t="n">
-        <v>207899850</v>
+        <v>207203930</v>
       </c>
       <c r="F18" t="n">
-        <v>8450.646758574159</v>
+        <v>5404.385608968025</v>
       </c>
       <c r="G18" t="n">
-        <v>4806.408785137901</v>
+        <v>13887.73282755379</v>
       </c>
       <c r="H18" t="n">
-        <v>1.28</v>
+        <v>0.75</v>
       </c>
       <c r="I18" t="n">
-        <v>396332</v>
+        <v>402170</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7001564</v>
+        <v>7016073</v>
       </c>
       <c r="E19" t="n">
-        <v>9642943</v>
+        <v>9662926</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>748483</v>
+        <v>687344</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>896668</v>
+        <v>898700</v>
       </c>
       <c r="E20" t="n">
-        <v>6276679</v>
+        <v>6290898</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>192104</v>
+        <v>159771</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>109885809</v>
+        <v>109227163</v>
       </c>
       <c r="E21" t="n">
-        <v>427737062</v>
+        <v>425148671</v>
       </c>
       <c r="F21" t="n">
-        <v>50628.13640501698</v>
+        <v>27260.05910784859</v>
       </c>
       <c r="G21" t="n">
-        <v>78387.63437361146</v>
+        <v>65444.59447180339</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>8012589</v>
+        <v>7897057</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1683220</v>
+        <v>1685451</v>
       </c>
       <c r="E22" t="n">
-        <v>12124088</v>
+        <v>12140158</v>
       </c>
       <c r="F22" t="n">
-        <v>6038.388563691152</v>
+        <v>6038.351412116296</v>
       </c>
       <c r="G22" t="n">
-        <v>3546.471336051119</v>
+        <v>3546.449516157628</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>120503</v>
+        <v>120380</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>137026380</v>
+        <v>136350976</v>
       </c>
       <c r="E23" t="n">
-        <v>137026380</v>
+        <v>136350976</v>
       </c>
       <c r="F23" t="n">
-        <v>1050587.227816523</v>
+        <v>807598.8357525623</v>
       </c>
       <c r="G23" t="n">
-        <v>1352283.844811828</v>
+        <v>946425.7119195176</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>66766679</v>
+        <v>66391566</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65293654</v>
+        <v>65374757</v>
       </c>
       <c r="E24" t="n">
-        <v>334839254</v>
+        <v>335255164</v>
       </c>
       <c r="F24" t="n">
-        <v>84862.84449154104</v>
+        <v>65186.20699960899</v>
       </c>
       <c r="G24" t="n">
-        <v>118148.3102501988</v>
+        <v>104941.0403941337</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="I24" t="n">
-        <v>19395744</v>
+        <v>19588256</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>254479895</v>
+        <v>253911109</v>
       </c>
       <c r="E25" t="n">
-        <v>254479895</v>
+        <v>253911109</v>
       </c>
       <c r="F25" t="n">
-        <v>346204.7286530995</v>
+        <v>340475.7529752795</v>
       </c>
       <c r="G25" t="n">
-        <v>441804.8874619676</v>
+        <v>364624.3767807352</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="I25" t="n">
-        <v>15056031</v>
+        <v>14955227</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1123566</v>
+        <v>1122823</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>189668</v>
+        <v>187574</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3970744</v>
+        <v>3967677</v>
       </c>
       <c r="E28" t="n">
-        <v>3971640</v>
+        <v>3968654</v>
       </c>
       <c r="F28" t="n">
-        <v>872.6656847018294</v>
+        <v>701.9655172378972</v>
       </c>
       <c r="G28" t="n">
-        <v>4380.331584977978</v>
+        <v>3220.009403166004</v>
       </c>
       <c r="H28" t="n">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>282044</v>
+        <v>281800</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6790940</v>
+        <v>6792991</v>
       </c>
       <c r="E29" t="n">
-        <v>16494671</v>
+        <v>16499653</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>461389</v>
+        <v>462034</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99962608</v>
+        <v>100123011</v>
       </c>
       <c r="E30" t="n">
-        <v>124641654</v>
+        <v>124841658</v>
       </c>
       <c r="F30" t="n">
-        <v>128305.0224321645</v>
+        <v>93509.83121972388</v>
       </c>
       <c r="G30" t="n">
-        <v>104505.2288889256</v>
+        <v>83781.85188801659</v>
       </c>
       <c r="H30" t="n">
         <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>11317985</v>
+        <v>11335455</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1154209</v>
+        <v>1154026</v>
       </c>
       <c r="E31" t="n">
-        <v>12543508</v>
+        <v>12541518</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31948</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>73276566</v>
+        <v>74310214</v>
       </c>
       <c r="E32" t="n">
-        <v>205126056</v>
+        <v>208012618</v>
       </c>
       <c r="F32" t="n">
-        <v>67959.81842166474</v>
+        <v>65815.31735503016</v>
       </c>
       <c r="G32" t="n">
-        <v>66451.5262691586</v>
+        <v>59759.07176836518</v>
       </c>
       <c r="H32" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>32882928</v>
+        <v>37482804</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4171322</v>
+        <v>4175101</v>
       </c>
       <c r="E33" t="n">
-        <v>8226199</v>
+        <v>8233651</v>
       </c>
       <c r="F33" t="n">
-        <v>7989.287707303009</v>
+        <v>5547.207207254281</v>
       </c>
       <c r="G33" t="n">
-        <v>7229.41980621647</v>
+        <v>7067.51438000404</v>
       </c>
       <c r="H33" t="n">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
       <c r="I33" t="n">
-        <v>1639420</v>
+        <v>1636482</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37250363</v>
+        <v>37419365</v>
       </c>
       <c r="F34" t="n">
-        <v>775.2540377452962</v>
+        <v>799.7777782516706</v>
       </c>
       <c r="G34" t="n">
-        <v>603.6109846886284</v>
+        <v>576.0295543364184</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>64086</v>
+        <v>65542</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7618541</v>
+        <v>7701333</v>
       </c>
       <c r="E35" t="n">
-        <v>17943179</v>
+        <v>18138171</v>
       </c>
       <c r="F35" t="n">
-        <v>3738.528003830808</v>
+        <v>3450.119014418743</v>
       </c>
       <c r="G35" t="n">
-        <v>2580.993403777384</v>
+        <v>2932.066583627413</v>
       </c>
       <c r="H35" t="n">
-        <v>0.55</v>
+        <v>0.93</v>
       </c>
       <c r="I35" t="n">
-        <v>36081</v>
+        <v>34236</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23213737</v>
+        <v>23103908</v>
       </c>
       <c r="F36" t="n">
-        <v>5369.499785727866</v>
+        <v>5161.008694827207</v>
       </c>
       <c r="G36" t="n">
-        <v>5510.726505903762</v>
+        <v>5406.143100865816</v>
       </c>
       <c r="H36" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="I36" t="n">
-        <v>119709</v>
+        <v>120932</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73514187</v>
+        <v>73564270</v>
       </c>
       <c r="E37" t="n">
-        <v>153314412</v>
+        <v>153418860</v>
       </c>
       <c r="F37" t="n">
-        <v>58065.92478243961</v>
+        <v>45322.82055457978</v>
       </c>
       <c r="G37" t="n">
-        <v>115576.3886999358</v>
+        <v>96643.96513319724</v>
       </c>
       <c r="H37" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="I37" t="n">
-        <v>14498060</v>
+        <v>14422791</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>270127152</v>
+        <v>271688044</v>
       </c>
       <c r="E38" t="n">
-        <v>270127152</v>
+        <v>271688044</v>
       </c>
       <c r="F38" t="n">
-        <v>37634.70034246937</v>
+        <v>30512.26973436211</v>
       </c>
       <c r="G38" t="n">
-        <v>27906.30911674488</v>
+        <v>18612.14059587754</v>
       </c>
       <c r="H38" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>10468630</v>
+        <v>8249550</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>198045523</v>
+        <v>198730625</v>
       </c>
       <c r="E39" t="n">
-        <v>688028047</v>
+        <v>690408153</v>
       </c>
       <c r="F39" t="n">
-        <v>115837.8933982224</v>
+        <v>140521.93874279</v>
       </c>
       <c r="G39" t="n">
-        <v>356161.3042787036</v>
+        <v>325187.8781897636</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>25907454</v>
+        <v>26007018</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4105581</v>
+        <v>3849639</v>
       </c>
       <c r="E40" t="n">
-        <v>4105581</v>
+        <v>3849639</v>
       </c>
       <c r="F40" t="n">
-        <v>1473.631852609046</v>
+        <v>4697.155125144658</v>
       </c>
       <c r="G40" t="n">
-        <v>1515.003353979539</v>
+        <v>1040.13589977715</v>
       </c>
       <c r="H40" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I40" t="n">
-        <v>3510344</v>
+        <v>3409862</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>116361898</v>
+        <v>115390581</v>
       </c>
       <c r="E41" t="n">
-        <v>494825520</v>
+        <v>490643662</v>
       </c>
       <c r="F41" t="n">
-        <v>5604.884038422799</v>
+        <v>5374.551387822848</v>
       </c>
       <c r="G41" t="n">
-        <v>6489.752675326419</v>
+        <v>6376.94349577988</v>
       </c>
       <c r="H41" t="n">
-        <v>0.49</v>
+        <v>0.22</v>
       </c>
       <c r="I41" t="n">
-        <v>14485693</v>
+        <v>14468720</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>534234</v>
+        <v>531507</v>
       </c>
       <c r="E42" t="n">
-        <v>6479732</v>
+        <v>6446668</v>
       </c>
       <c r="F42" t="n">
-        <v>684.5371598464849</v>
+        <v>821.7262781818068</v>
       </c>
       <c r="G42" t="n">
-        <v>935.0566769289641</v>
+        <v>1190.043978003549</v>
       </c>
       <c r="H42" t="n">
-        <v>0.55</v>
+        <v>0.93</v>
       </c>
       <c r="I42" t="n">
-        <v>2720431</v>
+        <v>2757825</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1290402564</v>
+        <v>1287114624</v>
       </c>
       <c r="E43" t="n">
-        <v>6187744561</v>
+        <v>6171978216</v>
       </c>
       <c r="F43" t="n">
-        <v>50200.62182636681</v>
+        <v>26181.07158289564</v>
       </c>
       <c r="G43" t="n">
-        <v>64793.47665868067</v>
+        <v>28014.39556927643</v>
       </c>
       <c r="H43" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>181533382</v>
+        <v>169262495</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6054887021</v>
+        <v>6053776067</v>
       </c>
       <c r="E44" t="n">
-        <v>6054887021</v>
+        <v>6053858296</v>
       </c>
       <c r="F44" t="n">
-        <v>665033.8069377136</v>
+        <v>4402824.861101015</v>
       </c>
       <c r="G44" t="n">
-        <v>1866323.579470739</v>
+        <v>4078234.656334497</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>93959096</v>
+        <v>98107763</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>267340999</v>
+        <v>265958742</v>
       </c>
       <c r="E45" t="n">
-        <v>1153992163</v>
+        <v>1148025575</v>
       </c>
       <c r="F45" t="n">
-        <v>106813.0221495062</v>
+        <v>110370.7446426018</v>
       </c>
       <c r="G45" t="n">
-        <v>97293.45362348146</v>
+        <v>94966.19395687895</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I45" t="n">
-        <v>110128317</v>
+        <v>108440337</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114687222</v>
+        <v>115094058</v>
       </c>
       <c r="E46" t="n">
-        <v>114687222</v>
+        <v>115094058</v>
       </c>
       <c r="F46" t="n">
-        <v>28324.13393593072</v>
+        <v>42012.94525523835</v>
       </c>
       <c r="G46" t="n">
-        <v>38134.80963900906</v>
+        <v>29257.84852333393</v>
       </c>
       <c r="H46" t="n">
         <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>6049616</v>
+        <v>6059822</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2045295591</v>
+        <v>2044093435</v>
       </c>
       <c r="E47" t="n">
-        <v>2045295591</v>
+        <v>2044093435</v>
       </c>
       <c r="F47" t="n">
-        <v>226383.8996696624</v>
+        <v>226306.3427090088</v>
       </c>
       <c r="G47" t="n">
-        <v>198136.5826674662</v>
+        <v>200207.7181633454</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I47" t="n">
-        <v>6083045955</v>
+        <v>6156145936</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9808846</v>
+        <v>9808507</v>
       </c>
       <c r="F48" t="n">
-        <v>6734.447973993209</v>
+        <v>6518.833264137736</v>
       </c>
       <c r="G48" t="n">
-        <v>5863.881722370573</v>
+        <v>5765.288401001238</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>167232</v>
+        <v>168550</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4392394</v>
+        <v>4387102</v>
       </c>
       <c r="E49" t="n">
-        <v>5766640</v>
+        <v>5759692</v>
       </c>
       <c r="F49" t="n">
-        <v>13191.27648618009</v>
+        <v>13247.57201348092</v>
       </c>
       <c r="G49" t="n">
-        <v>12401.99458008525</v>
+        <v>12151.85531195477</v>
       </c>
       <c r="H49" t="n">
         <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>507381</v>
+        <v>507473</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12121266</v>
+        <v>12221239</v>
       </c>
       <c r="E50" t="n">
-        <v>17824093</v>
+        <v>17971102</v>
       </c>
       <c r="F50" t="n">
-        <v>2222.456245126899</v>
+        <v>6617.898338263677</v>
       </c>
       <c r="G50" t="n">
-        <v>6595.817646061708</v>
+        <v>6609.977200521956</v>
       </c>
       <c r="H50" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>1831857</v>
+        <v>2148508</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22533538</v>
+        <v>22578339</v>
       </c>
       <c r="E51" t="n">
-        <v>29231154</v>
+        <v>29289271</v>
       </c>
       <c r="F51" t="n">
-        <v>13061.39804986095</v>
+        <v>11167.58930374981</v>
       </c>
       <c r="G51" t="n">
-        <v>11265.03069642868</v>
+        <v>7888.134725992073</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>154079</v>
+        <v>150141</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13769437</v>
+        <v>13744332</v>
       </c>
       <c r="E52" t="n">
-        <v>13769437</v>
+        <v>13744332</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4716143</v>
+        <v>4743159</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>97876368</v>
+        <v>98091795</v>
       </c>
       <c r="E53" t="n">
-        <v>121069564</v>
+        <v>121336040</v>
       </c>
       <c r="F53" t="n">
-        <v>495.5253376533172</v>
+        <v>420.0748814156459</v>
       </c>
       <c r="G53" t="n">
-        <v>3997.384978956547</v>
+        <v>3949.017634158745</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I53" t="n">
-        <v>774794</v>
+        <v>792339</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5163968</v>
+        <v>5121970</v>
       </c>
       <c r="E54" t="n">
-        <v>7225140</v>
+        <v>7166379</v>
       </c>
       <c r="F54" t="n">
-        <v>75.77786539825061</v>
+        <v>111.0086031018701</v>
       </c>
       <c r="G54" t="n">
-        <v>370.5887596956257</v>
+        <v>334.1265170720722</v>
       </c>
       <c r="H54" t="n">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="I54" t="n">
-        <v>110608</v>
+        <v>106360</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13892768</v>
+        <v>13901521</v>
       </c>
       <c r="E55" t="n">
-        <v>67284891</v>
+        <v>67327283</v>
       </c>
       <c r="F55" t="n">
-        <v>15200.73347401806</v>
+        <v>23565.97566438908</v>
       </c>
       <c r="G55" t="n">
-        <v>37216.34289732452</v>
+        <v>20023.86570051464</v>
       </c>
       <c r="H55" t="n">
-        <v>0.89</v>
+        <v>0.26</v>
       </c>
       <c r="I55" t="n">
-        <v>3606528</v>
+        <v>3589732</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>64066</v>
+        <v>64044</v>
       </c>
       <c r="E56" t="n">
-        <v>153452</v>
+        <v>153400</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5283.11</v>
+        <v>5284.17</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1904305983</v>
+        <v>1920332190</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26585128</v>
+        <v>26430561</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12316759</v>
+        <v>12291209</v>
       </c>
       <c r="E58" t="n">
-        <v>17857523</v>
+        <v>17820479</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2062115</v>
+        <v>2067127</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123435681</v>
+        <v>124297141</v>
       </c>
       <c r="E59" t="n">
-        <v>328268546</v>
+        <v>330559538</v>
       </c>
       <c r="F59" t="n">
-        <v>5472.87418106794</v>
+        <v>9745.743621485186</v>
       </c>
       <c r="G59" t="n">
-        <v>10959.65502101955</v>
+        <v>10205.43651928623</v>
       </c>
       <c r="H59" t="n">
-        <v>1.13</v>
+        <v>1.83</v>
       </c>
       <c r="I59" t="n">
-        <v>1261574</v>
+        <v>1244057</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31821450</v>
+        <v>31844239</v>
       </c>
       <c r="E60" t="n">
-        <v>99081785</v>
+        <v>99152744</v>
       </c>
       <c r="F60" t="n">
-        <v>7615.480831862958</v>
+        <v>3104.002991869803</v>
       </c>
       <c r="G60" t="n">
-        <v>6324.528998970167</v>
+        <v>4063.299763011541</v>
       </c>
       <c r="H60" t="n">
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
       <c r="I60" t="n">
-        <v>12181591</v>
+        <v>12126802</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2047785</v>
+        <v>2038189</v>
       </c>
       <c r="E61" t="n">
-        <v>14684462</v>
+        <v>14615648</v>
       </c>
       <c r="F61" t="n">
-        <v>5452.506775216294</v>
+        <v>5447.158898323132</v>
       </c>
       <c r="G61" t="n">
-        <v>5398.308818814394</v>
+        <v>5397.210487771426</v>
       </c>
       <c r="H61" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="I61" t="n">
-        <v>1926476</v>
+        <v>1929565</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>201184921</v>
+        <v>201628482</v>
       </c>
       <c r="E62" t="n">
-        <v>1139232641</v>
+        <v>1141744355</v>
       </c>
       <c r="F62" t="n">
-        <v>537667.480823669</v>
+        <v>531537.0013447714</v>
       </c>
       <c r="G62" t="n">
-        <v>723184.1035393937</v>
+        <v>692029.6586938078</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I62" t="n">
-        <v>64978129</v>
+        <v>64892477</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>502072</v>
+        <v>504998</v>
       </c>
       <c r="E63" t="n">
-        <v>1689903</v>
+        <v>1699752</v>
       </c>
       <c r="F63" t="n">
-        <v>4507.819616755862</v>
+        <v>4706.600149930246</v>
       </c>
       <c r="G63" t="n">
-        <v>348.2181761719222</v>
+        <v>388.1643456734957</v>
       </c>
       <c r="H63" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="I63" t="n">
-        <v>625262</v>
+        <v>628363</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>340723</v>
+        <v>338982</v>
       </c>
       <c r="E64" t="n">
-        <v>340723</v>
+        <v>338982</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5071.25</v>
+        <v>5029.85</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>138098484</v>
+        <v>138296432</v>
       </c>
       <c r="E65" t="n">
-        <v>1022951730</v>
+        <v>1024418016</v>
       </c>
       <c r="F65" t="n">
-        <v>34363.61790850436</v>
+        <v>32470.09380635739</v>
       </c>
       <c r="G65" t="n">
-        <v>41846.10483833998</v>
+        <v>39644.75032311025</v>
       </c>
       <c r="H65" t="n">
         <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>10629680</v>
+        <v>10471565</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8034715</v>
+        <v>8038380</v>
       </c>
       <c r="E66" t="n">
-        <v>10763839</v>
+        <v>10768749</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>65786</v>
+        <v>66648</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25355090</v>
+        <v>25581248</v>
       </c>
       <c r="E67" t="n">
-        <v>25355090</v>
+        <v>25581248</v>
       </c>
       <c r="F67" t="n">
-        <v>7127.348503789236</v>
+        <v>6901.091417970044</v>
       </c>
       <c r="G67" t="n">
-        <v>6232.235333714336</v>
+        <v>6317.6465061012</v>
       </c>
       <c r="H67" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I67" t="n">
-        <v>307918</v>
+        <v>313874</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1573788</v>
+        <v>1567362</v>
       </c>
       <c r="E68" t="n">
-        <v>12222215</v>
+        <v>12172316</v>
       </c>
       <c r="F68" t="n">
-        <v>11971.77939907214</v>
+        <v>9852.343265736105</v>
       </c>
       <c r="G68" t="n">
-        <v>13859.59637409234</v>
+        <v>18153.97901208927</v>
       </c>
       <c r="H68" t="n">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="I68" t="n">
-        <v>519580</v>
+        <v>501489</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>337291570</v>
+        <v>337607513</v>
       </c>
       <c r="E69" t="n">
-        <v>3034484114</v>
+        <v>3037326530</v>
       </c>
       <c r="F69" t="n">
-        <v>1250234.506222578</v>
+        <v>1062362.927868747</v>
       </c>
       <c r="G69" t="n">
-        <v>1565776.555892233</v>
+        <v>1743469.825055831</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I69" t="n">
-        <v>37675037</v>
+        <v>37100457</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>251211</v>
+        <v>249493</v>
       </c>
       <c r="E70" t="n">
-        <v>2217130</v>
+        <v>2201960</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>69873</v>
+        <v>68311</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1590297</v>
+        <v>1588510</v>
       </c>
       <c r="E71" t="n">
-        <v>13252471</v>
+        <v>13237587</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>42459</v>
+        <v>42325</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9084999</v>
+        <v>9142896</v>
       </c>
       <c r="E72" t="n">
-        <v>42109492</v>
+        <v>42377851</v>
       </c>
       <c r="F72" t="n">
-        <v>6245.387925497632</v>
+        <v>6266.510953808383</v>
       </c>
       <c r="G72" t="n">
-        <v>8705.411410347093</v>
+        <v>8154.571722612871</v>
       </c>
       <c r="H72" t="n">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="I72" t="n">
-        <v>116777</v>
+        <v>125447</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>44727364</v>
+        <v>44956766</v>
       </c>
       <c r="E73" t="n">
-        <v>258952959</v>
+        <v>260281097</v>
       </c>
       <c r="F73" t="n">
-        <v>134913.9117313903</v>
+        <v>90258.49279737347</v>
       </c>
       <c r="G73" t="n">
-        <v>150981.305320675</v>
+        <v>131672.8593281552</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="I73" t="n">
-        <v>12556526</v>
+        <v>13737507</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39402296</v>
+        <v>39530903</v>
       </c>
       <c r="E74" t="n">
-        <v>54420181</v>
+        <v>54597807</v>
       </c>
       <c r="F74" t="n">
-        <v>10564.032922481</v>
+        <v>4731.385276796439</v>
       </c>
       <c r="G74" t="n">
-        <v>4625.076977727658</v>
+        <v>4460.148750358303</v>
       </c>
       <c r="H74" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="I74" t="n">
-        <v>381660</v>
+        <v>381092</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95878</v>
+        <v>95877</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>547.97</v>
+        <v>547.99</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13581452</v>
+        <v>13570026</v>
       </c>
       <c r="E76" t="n">
-        <v>13627671</v>
+        <v>13616206</v>
       </c>
       <c r="F76" t="n">
-        <v>707.1323636272915</v>
+        <v>1394.054670045231</v>
       </c>
       <c r="G76" t="n">
-        <v>7519.572156672642</v>
+        <v>8561.504702919456</v>
       </c>
       <c r="H76" t="n">
         <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>5924102</v>
+        <v>5838768</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42847885</v>
+        <v>42838329</v>
       </c>
       <c r="E77" t="n">
-        <v>72745741</v>
+        <v>72729517</v>
       </c>
       <c r="F77" t="n">
-        <v>5747.132872024917</v>
+        <v>9331.222634113165</v>
       </c>
       <c r="G77" t="n">
-        <v>6018.261545696658</v>
+        <v>5955.532420593081</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>1088281</v>
+        <v>1089165</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23605537</v>
+        <v>23614373</v>
       </c>
       <c r="E78" t="n">
-        <v>70758546</v>
+        <v>70785030</v>
       </c>
       <c r="F78" t="n">
-        <v>110244.3216174934</v>
+        <v>114759.2172278333</v>
       </c>
       <c r="G78" t="n">
-        <v>141075.262404702</v>
+        <v>120560.4900351549</v>
       </c>
       <c r="H78" t="n">
         <v>0.29</v>
       </c>
       <c r="I78" t="n">
-        <v>2929138</v>
+        <v>2948650</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101194180</v>
+        <v>101310103</v>
       </c>
       <c r="E79" t="n">
-        <v>107578558</v>
+        <v>107701796</v>
       </c>
       <c r="F79" t="n">
-        <v>2775.523039721102</v>
+        <v>2155.103795116423</v>
       </c>
       <c r="G79" t="n">
-        <v>3951.74206655531</v>
+        <v>2631.484247685592</v>
       </c>
       <c r="H79" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="I79" t="n">
-        <v>391250</v>
+        <v>389281</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10395897</v>
+        <v>10451204</v>
       </c>
       <c r="E80" t="n">
-        <v>45214976</v>
+        <v>45446814</v>
       </c>
       <c r="F80" t="n">
-        <v>5729.581873401959</v>
+        <v>5749.614600633076</v>
       </c>
       <c r="G80" t="n">
-        <v>6180.233170954612</v>
+        <v>9397.314376029066</v>
       </c>
       <c r="H80" t="n">
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>111400</v>
+        <v>113441</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15475589</v>
+        <v>15597043</v>
       </c>
       <c r="E81" t="n">
-        <v>94854972</v>
+        <v>95599404</v>
       </c>
       <c r="F81" t="n">
-        <v>3860.38730046283</v>
+        <v>2385.308687166137</v>
       </c>
       <c r="G81" t="n">
-        <v>6152.277676962726</v>
+        <v>3465.618271707934</v>
       </c>
       <c r="H81" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I81" t="n">
-        <v>11481317</v>
+        <v>11647090</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1493834</v>
+        <v>1494283</v>
       </c>
       <c r="E82" t="n">
-        <v>1535854</v>
+        <v>1536316</v>
       </c>
       <c r="F82" t="n">
-        <v>5948.040619255193</v>
+        <v>5912.13508913512</v>
       </c>
       <c r="G82" t="n">
-        <v>5369.209503435923</v>
+        <v>6165.070380526948</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>136847</v>
+        <v>138348</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47503459</v>
+        <v>47216632</v>
       </c>
       <c r="E83" t="n">
-        <v>204639707</v>
+        <v>203404087</v>
       </c>
       <c r="F83" t="n">
-        <v>3372.290660348606</v>
+        <v>3391.669934752676</v>
       </c>
       <c r="G83" t="n">
-        <v>4649.1795688843</v>
+        <v>4498.64237259236</v>
       </c>
       <c r="H83" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I83" t="n">
-        <v>8807081</v>
+        <v>8846071</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1727535</v>
+        <v>1734320</v>
       </c>
       <c r="E84" t="n">
-        <v>6277228</v>
+        <v>6301852</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>129110</v>
+        <v>128584</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8739721</v>
+        <v>8870287</v>
       </c>
       <c r="E85" t="n">
-        <v>19406879</v>
+        <v>19696806</v>
       </c>
       <c r="F85" t="n">
-        <v>8069.884775908055</v>
+        <v>4155.120152854789</v>
       </c>
       <c r="G85" t="n">
-        <v>3993.698172016591</v>
+        <v>8114.909800913272</v>
       </c>
       <c r="H85" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="I85" t="n">
-        <v>359439</v>
+        <v>341552</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2450335</v>
+        <v>2449580</v>
       </c>
       <c r="E86" t="n">
-        <v>18438220</v>
+        <v>18432536</v>
       </c>
       <c r="F86" t="n">
-        <v>5104.033111858206</v>
+        <v>6110.462468812659</v>
       </c>
       <c r="G86" t="n">
-        <v>12886.01886316838</v>
+        <v>12904.27450204771</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161817</v>
+        <v>162317</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20885334</v>
+        <v>20990836</v>
       </c>
       <c r="E87" t="n">
-        <v>83541337</v>
+        <v>83963342</v>
       </c>
       <c r="F87" t="n">
-        <v>5690.489367248453</v>
+        <v>13027.78861598171</v>
       </c>
       <c r="G87" t="n">
-        <v>2492.459534129838</v>
+        <v>1245.327993546767</v>
       </c>
       <c r="H87" t="n">
-        <v>1.19</v>
+        <v>1.66</v>
       </c>
       <c r="I87" t="n">
-        <v>5232919</v>
+        <v>5283596</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4267962</v>
+        <v>4267508</v>
       </c>
       <c r="E88" t="n">
-        <v>4267962</v>
+        <v>4267508</v>
       </c>
       <c r="F88" t="n">
-        <v>1049.16909573045</v>
+        <v>2018.275778929432</v>
       </c>
       <c r="G88" t="n">
-        <v>1174.030780349135</v>
+        <v>2201.944841314251</v>
       </c>
       <c r="H88" t="n">
         <v>0.32</v>
       </c>
       <c r="I88" t="n">
-        <v>2593797</v>
+        <v>2599341</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12847753</v>
+        <v>12818109</v>
       </c>
       <c r="E89" t="n">
-        <v>40646118</v>
+        <v>40552333</v>
       </c>
       <c r="F89" t="n">
-        <v>19665.37397307695</v>
+        <v>19536.94231113787</v>
       </c>
       <c r="G89" t="n">
-        <v>11195.90079364921</v>
+        <v>11215.91333863718</v>
       </c>
       <c r="H89" t="n">
         <v>0.39</v>
       </c>
       <c r="I89" t="n">
-        <v>1384855</v>
+        <v>1372408</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>27114</v>
+        <v>26674</v>
       </c>
       <c r="E90" t="n">
-        <v>213244</v>
+        <v>209785</v>
       </c>
       <c r="F90" t="n">
-        <v>6428.870365251386</v>
+        <v>6190.284951608993</v>
       </c>
       <c r="G90" t="n">
-        <v>308.9141058106458</v>
+        <v>288.7396542657909</v>
       </c>
       <c r="H90" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I90" t="n">
-        <v>131250</v>
+        <v>112106</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8284719</v>
+        <v>8261495</v>
       </c>
       <c r="E91" t="n">
-        <v>8284719</v>
+        <v>8261495</v>
       </c>
       <c r="F91" t="n">
-        <v>3942.096653326951</v>
+        <v>2145.020989202495</v>
       </c>
       <c r="G91" t="n">
-        <v>4112.395668372403</v>
+        <v>3385.981790843465</v>
       </c>
       <c r="H91" t="n">
         <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>3595993</v>
+        <v>3584539</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10053691</v>
+        <v>9211328</v>
       </c>
       <c r="E92" t="n">
-        <v>10053691</v>
+        <v>9211328</v>
       </c>
       <c r="F92" t="n">
-        <v>1519.065552874961</v>
+        <v>2278.445434778581</v>
       </c>
       <c r="G92" t="n">
-        <v>7112.545432822197</v>
+        <v>1578.619387763419</v>
       </c>
       <c r="H92" t="n">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="I92" t="n">
-        <v>2726655</v>
+        <v>2802252</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37352370</v>
+        <v>36812770</v>
       </c>
       <c r="E93" t="n">
-        <v>94184746</v>
+        <v>92824133</v>
       </c>
       <c r="F93" t="n">
-        <v>5172.991823742886</v>
+        <v>4945.816887862285</v>
       </c>
       <c r="G93" t="n">
-        <v>5230.028829914062</v>
+        <v>6536.428714406469</v>
       </c>
       <c r="H93" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="I93" t="n">
-        <v>3131544</v>
+        <v>3137563</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>300557351</v>
+        <v>299757143</v>
       </c>
       <c r="E94" t="n">
-        <v>305256017</v>
+        <v>304440810</v>
       </c>
       <c r="F94" t="n">
-        <v>49137.27062933167</v>
+        <v>48895.64578472079</v>
       </c>
       <c r="G94" t="n">
-        <v>42389.7044334862</v>
+        <v>46018.95492636977</v>
       </c>
       <c r="H94" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I94" t="n">
-        <v>12467164</v>
+        <v>12538372</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3532.21323414453</v>
+        <v>964.3237066004913</v>
       </c>
       <c r="G95" t="n">
-        <v>6392.227424162245</v>
+        <v>6404.958587143458</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I95" t="n">
-        <v>220785</v>
+        <v>198319</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>83540366</v>
+        <v>83170247</v>
       </c>
       <c r="E96" t="n">
-        <v>83540366</v>
+        <v>83170247</v>
       </c>
       <c r="F96" t="n">
-        <v>5556.364209565361</v>
+        <v>8608.796238436362</v>
       </c>
       <c r="G96" t="n">
-        <v>7826.868051848176</v>
+        <v>6761.375871381401</v>
       </c>
       <c r="H96" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="I96" t="n">
-        <v>5429213</v>
+        <v>5516818</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>306665973</v>
+        <v>308900366</v>
       </c>
       <c r="E97" t="n">
-        <v>306665973</v>
+        <v>308900366</v>
       </c>
       <c r="F97" t="n">
-        <v>325092.3782273711</v>
+        <v>358076.063467601</v>
       </c>
       <c r="G97" t="n">
-        <v>402730.8315809757</v>
+        <v>376730.1765531913</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>50753329</v>
+        <v>50921893</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4279760</v>
+        <v>4330936</v>
       </c>
       <c r="E98" t="n">
-        <v>29243301</v>
+        <v>29592980</v>
       </c>
       <c r="F98" t="n">
-        <v>224.3024479881953</v>
+        <v>223.0726800206158</v>
       </c>
       <c r="G98" t="n">
-        <v>422.584899030078</v>
+        <v>1981.252162339246</v>
       </c>
       <c r="H98" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I98" t="n">
-        <v>2601250</v>
+        <v>2617436</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>89973873</v>
+        <v>90598877</v>
       </c>
       <c r="E99" t="n">
-        <v>518468266</v>
+        <v>522069806</v>
       </c>
       <c r="F99" t="n">
-        <v>141516.6243063276</v>
+        <v>137456.3864551945</v>
       </c>
       <c r="G99" t="n">
-        <v>147894.5907566383</v>
+        <v>136439.8646020654</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>16349549</v>
+        <v>16391402</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108281714</v>
+        <v>108707400</v>
       </c>
       <c r="E100" t="n">
-        <v>266415321</v>
+        <v>267462676</v>
       </c>
       <c r="F100" t="n">
-        <v>26280.65783943763</v>
+        <v>26062.07062888272</v>
       </c>
       <c r="G100" t="n">
-        <v>45550.24358192863</v>
+        <v>39427.37891097082</v>
       </c>
       <c r="H100" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I100" t="n">
-        <v>2362327</v>
+        <v>2347106</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>249415553</v>
+        <v>249197817</v>
       </c>
       <c r="E101" t="n">
-        <v>249418030</v>
+        <v>249200292</v>
       </c>
       <c r="F101" t="n">
-        <v>12665.35114217923</v>
+        <v>35978.7204051186</v>
       </c>
       <c r="G101" t="n">
-        <v>13008.45782282126</v>
+        <v>9013.601822822549</v>
       </c>
       <c r="H101" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="I101" t="n">
-        <v>2776444</v>
+        <v>2671299</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30343122</v>
+        <v>30319648</v>
       </c>
       <c r="E102" t="n">
-        <v>135858603</v>
+        <v>135753501</v>
       </c>
       <c r="F102" t="n">
-        <v>115473.5191784082</v>
+        <v>97171.31018145445</v>
       </c>
       <c r="G102" t="n">
-        <v>138591.2282496781</v>
+        <v>97201.59925281251</v>
       </c>
       <c r="H102" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I102" t="n">
-        <v>8702711</v>
+        <v>8629490</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3045076</v>
+        <v>2992415</v>
       </c>
       <c r="E103" t="n">
-        <v>3045076</v>
+        <v>2992415</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>428256</v>
+        <v>440006</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5981984</v>
+        <v>5922549</v>
       </c>
       <c r="E104" t="n">
-        <v>15699739</v>
+        <v>15543747</v>
       </c>
       <c r="F104" t="n">
-        <v>8764.246100111272</v>
+        <v>948.7783349978488</v>
       </c>
       <c r="G104" t="n">
-        <v>3776.012546055228</v>
+        <v>444.7029157297927</v>
       </c>
       <c r="H104" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="I104" t="n">
-        <v>73292</v>
+        <v>72879</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16584594</v>
+        <v>16581576</v>
       </c>
       <c r="E105" t="n">
-        <v>76552085</v>
+        <v>76538154</v>
       </c>
       <c r="F105" t="n">
-        <v>25335.33333282663</v>
+        <v>22348.46200853257</v>
       </c>
       <c r="G105" t="n">
-        <v>35246.42134228413</v>
+        <v>44433.9911219156</v>
       </c>
       <c r="H105" t="n">
         <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>1011292</v>
+        <v>997833</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48387509</v>
+        <v>48603951</v>
       </c>
       <c r="E106" t="n">
-        <v>313780120</v>
+        <v>315183689</v>
       </c>
       <c r="F106" t="n">
-        <v>90984.16488471406</v>
+        <v>82440.14412393459</v>
       </c>
       <c r="G106" t="n">
-        <v>185137.203493642</v>
+        <v>163169.964725157</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17352373</v>
+        <v>17393119</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2359313</v>
+        <v>2431341</v>
       </c>
       <c r="E107" t="n">
-        <v>4274341</v>
+        <v>4404833</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>111630</v>
+        <v>120909</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125413803</v>
+        <v>125694163</v>
       </c>
       <c r="E108" t="n">
-        <v>2076955301</v>
+        <v>2081598288</v>
       </c>
       <c r="F108" t="n">
-        <v>237816.2966412339</v>
+        <v>405771.2126042518</v>
       </c>
       <c r="G108" t="n">
-        <v>224271.7029796048</v>
+        <v>221453.6369104572</v>
       </c>
       <c r="H108" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I108" t="n">
-        <v>5058837</v>
+        <v>4954362</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23721760</v>
+        <v>23601749</v>
       </c>
       <c r="E109" t="n">
-        <v>141932057</v>
+        <v>141214007</v>
       </c>
       <c r="F109" t="n">
-        <v>39417.20489839997</v>
+        <v>40643.82868863069</v>
       </c>
       <c r="G109" t="n">
-        <v>39537.68626126875</v>
+        <v>40572.94052706892</v>
       </c>
       <c r="H109" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="I109" t="n">
-        <v>13442058</v>
+        <v>13327149</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1000604</v>
+        <v>997828</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>65819</v>
+        <v>65909</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2229718</v>
+        <v>2232907</v>
       </c>
       <c r="F111" t="n">
-        <v>3755.222198897876</v>
+        <v>3840.008035273309</v>
       </c>
       <c r="G111" t="n">
-        <v>320.6357592624585</v>
+        <v>407.7319341934243</v>
       </c>
       <c r="H111" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>201780</v>
+        <v>198641</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142456713</v>
+        <v>142511838</v>
       </c>
       <c r="F112" t="n">
-        <v>3147.346676724542</v>
+        <v>3147.31946613123</v>
       </c>
       <c r="G112" t="n">
-        <v>909.7859593548646</v>
+        <v>909.7780937403381</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>40964</v>
+        <v>38758</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6902501</v>
+        <v>6917646</v>
       </c>
       <c r="E113" t="n">
-        <v>35511271</v>
+        <v>35589185</v>
       </c>
       <c r="F113" t="n">
-        <v>784.3095181025991</v>
+        <v>232.8243386102279</v>
       </c>
       <c r="G113" t="n">
-        <v>1336.557944318635</v>
+        <v>1172.616599018126</v>
       </c>
       <c r="H113" t="n">
-        <v>0.28</v>
+        <v>1.12</v>
       </c>
       <c r="I113" t="n">
-        <v>920358</v>
+        <v>916786</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29152221</v>
+        <v>29080590</v>
       </c>
       <c r="E114" t="n">
-        <v>39972792</v>
+        <v>39874573</v>
       </c>
       <c r="F114" t="n">
-        <v>4788.789470726341</v>
+        <v>4814.521210554246</v>
       </c>
       <c r="G114" t="n">
-        <v>4490.273594348263</v>
+        <v>4507.213168648119</v>
       </c>
       <c r="H114" t="n">
         <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>287732</v>
+        <v>278822</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8049396</v>
+        <v>8030296</v>
       </c>
       <c r="F115" t="n">
-        <v>461.4952256120852</v>
+        <v>339.4518799292309</v>
       </c>
       <c r="G115" t="n">
-        <v>6780.259582804854</v>
+        <v>6778.532781640338</v>
       </c>
       <c r="H115" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I115" t="n">
-        <v>682506</v>
+        <v>690245</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3343947</v>
+        <v>3375528</v>
       </c>
       <c r="E116" t="n">
-        <v>4479429</v>
+        <v>4521733</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149670</v>
+        <v>152294</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34417877</v>
+        <v>34292406</v>
       </c>
       <c r="E117" t="n">
-        <v>171761072</v>
+        <v>171134916</v>
       </c>
       <c r="F117" t="n">
-        <v>93290.43087146683</v>
+        <v>77789.09957598419</v>
       </c>
       <c r="G117" t="n">
-        <v>64706.51015612154</v>
+        <v>64909.37212860252</v>
       </c>
       <c r="H117" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I117" t="n">
-        <v>10210283</v>
+        <v>10181015</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3433852</v>
+        <v>3434992</v>
       </c>
       <c r="E118" t="n">
-        <v>4933054</v>
+        <v>4934692</v>
       </c>
       <c r="F118" t="n">
-        <v>620.8599814394075</v>
+        <v>620.8672650136555</v>
       </c>
       <c r="G118" t="n">
-        <v>885.4648765053952</v>
+        <v>861.3826132417518</v>
       </c>
       <c r="H118" t="n">
         <v>0.4</v>
       </c>
       <c r="I118" t="n">
-        <v>169347</v>
+        <v>167493</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>311808654</v>
+        <v>312902405</v>
       </c>
       <c r="E119" t="n">
-        <v>576917117</v>
+        <v>578940806</v>
       </c>
       <c r="F119" t="n">
-        <v>92776.96126705802</v>
+        <v>81980.54036810504</v>
       </c>
       <c r="G119" t="n">
-        <v>106412.2899009361</v>
+        <v>119627.7910490033</v>
       </c>
       <c r="H119" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="I119" t="n">
-        <v>13036407</v>
+        <v>13107088</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71395592</v>
+        <v>70949616</v>
       </c>
       <c r="E120" t="n">
-        <v>681161071</v>
+        <v>676899420</v>
       </c>
       <c r="F120" t="n">
-        <v>3885.926102126402</v>
+        <v>2999.187812267433</v>
       </c>
       <c r="G120" t="n">
-        <v>43165.47496537495</v>
+        <v>41860.735969187</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I120" t="n">
-        <v>21372454</v>
+        <v>21482939</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37910743</v>
+        <v>37874176</v>
       </c>
       <c r="E121" t="n">
-        <v>49567559</v>
+        <v>49519513</v>
       </c>
       <c r="F121" t="n">
-        <v>233.2429726673423</v>
+        <v>5706.048626176569</v>
       </c>
       <c r="G121" t="n">
-        <v>6217.100784532767</v>
+        <v>976.2018838535732</v>
       </c>
       <c r="H121" t="n">
         <v>1.8</v>
       </c>
       <c r="I121" t="n">
-        <v>510321</v>
+        <v>320919</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9412665</v>
+        <v>9530402</v>
       </c>
       <c r="E122" t="n">
-        <v>27929551</v>
+        <v>28278903</v>
       </c>
       <c r="F122" t="n">
-        <v>648.1395957607754</v>
+        <v>21.33359457177917</v>
       </c>
       <c r="G122" t="n">
-        <v>1484.217824882829</v>
+        <v>1026.872046327518</v>
       </c>
       <c r="H122" t="n">
-        <v>2.89</v>
+        <v>2.44</v>
       </c>
       <c r="I122" t="n">
-        <v>6038376</v>
+        <v>5726406</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2242109</v>
+        <v>2252685</v>
       </c>
       <c r="E123" t="n">
-        <v>7672161</v>
+        <v>7708348</v>
       </c>
       <c r="F123" t="n">
-        <v>676.0625807367495</v>
+        <v>721.1065079176328</v>
       </c>
       <c r="G123" t="n">
-        <v>1260.761094672142</v>
+        <v>1398.256469430115</v>
       </c>
       <c r="H123" t="n">
-        <v>0.52</v>
+        <v>1.41</v>
       </c>
       <c r="I123" t="n">
-        <v>810767</v>
+        <v>843817</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7311354</v>
+        <v>7371484</v>
       </c>
       <c r="E124" t="n">
-        <v>7311365</v>
+        <v>7371495</v>
       </c>
       <c r="F124" t="n">
-        <v>254.4890671279112</v>
+        <v>727.3995837150824</v>
       </c>
       <c r="G124" t="n">
-        <v>1083.780989892869</v>
+        <v>1199.067591548348</v>
       </c>
       <c r="H124" t="n">
-        <v>1.46</v>
+        <v>0.97</v>
       </c>
       <c r="I124" t="n">
-        <v>337438</v>
+        <v>329741</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6065146</v>
+        <v>6120974</v>
       </c>
       <c r="E125" t="n">
-        <v>6065146</v>
+        <v>6120974</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>304545</v>
+        <v>503730</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6225425</v>
+        <v>6219989</v>
       </c>
       <c r="E126" t="n">
-        <v>22739069</v>
+        <v>22719214</v>
       </c>
       <c r="F126" t="n">
-        <v>968.1654298764657</v>
+        <v>5970.815723871893</v>
       </c>
       <c r="G126" t="n">
-        <v>6876.336337078017</v>
+        <v>7064.3390786431</v>
       </c>
       <c r="H126" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="I126" t="n">
-        <v>528672</v>
+        <v>531798</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44839429</v>
+        <v>44635499</v>
       </c>
       <c r="E127" t="n">
-        <v>44839429</v>
+        <v>44635499</v>
       </c>
       <c r="F127" t="n">
-        <v>64818.33250175756</v>
+        <v>64098.20568054165</v>
       </c>
       <c r="G127" t="n">
-        <v>82366.62750863706</v>
+        <v>80538.67330842113</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="I127" t="n">
-        <v>7857915</v>
+        <v>7465529</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>148591367</v>
+        <v>148819192</v>
       </c>
       <c r="F128" t="n">
-        <v>5174.6022076507</v>
+        <v>5106.096898303164</v>
       </c>
       <c r="G128" t="n">
-        <v>483.5085441142304</v>
+        <v>1780.179058170803</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1601409</v>
+        <v>1594766</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3075464</v>
+        <v>3074902</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73638</v>
+        <v>73732</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20349709</v>
+        <v>20335134</v>
       </c>
       <c r="F130" t="n">
-        <v>520.7356756459875</v>
+        <v>395.7222680562458</v>
       </c>
       <c r="G130" t="n">
-        <v>924.6505296675698</v>
+        <v>1185.599962500656</v>
       </c>
       <c r="H130" t="n">
-        <v>1.9</v>
+        <v>0.98</v>
       </c>
       <c r="I130" t="n">
-        <v>2910513</v>
+        <v>2912902</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1236176</v>
+        <v>1241283</v>
       </c>
       <c r="E131" t="n">
-        <v>3739879</v>
+        <v>3754863</v>
       </c>
       <c r="F131" t="n">
-        <v>777.8440851065483</v>
+        <v>776.2989237560164</v>
       </c>
       <c r="G131" t="n">
-        <v>712.5976614484805</v>
+        <v>735.0418149838548</v>
       </c>
       <c r="H131" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="I131" t="n">
-        <v>9489.75</v>
+        <v>8892.58</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>602354484</v>
+        <v>602744561</v>
       </c>
       <c r="E132" t="n">
-        <v>2332830045</v>
+        <v>2334340758</v>
       </c>
       <c r="F132" t="n">
-        <v>477021.1512764205</v>
+        <v>370547.1561606564</v>
       </c>
       <c r="G132" t="n">
-        <v>636807.9385161079</v>
+        <v>617800.1268068756</v>
       </c>
       <c r="H132" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I132" t="n">
-        <v>33516524</v>
+        <v>33347915</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3673569</v>
+        <v>3685851</v>
       </c>
       <c r="E133" t="n">
-        <v>6262098</v>
+        <v>6283034</v>
       </c>
       <c r="F133" t="n">
-        <v>406.5304983493096</v>
+        <v>5300.234870899261</v>
       </c>
       <c r="G133" t="n">
-        <v>491.1339827048484</v>
+        <v>5651.612313382554</v>
       </c>
       <c r="H133" t="n">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="I133" t="n">
-        <v>1276401</v>
+        <v>1288752</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>119119126</v>
+        <v>119317067</v>
       </c>
       <c r="E134" t="n">
-        <v>1035667586</v>
+        <v>1037388563</v>
       </c>
       <c r="F134" t="n">
-        <v>122260.9674936518</v>
+        <v>152206.8146474803</v>
       </c>
       <c r="G134" t="n">
-        <v>95804.14506973968</v>
+        <v>106019.204134101</v>
       </c>
       <c r="H134" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I134" t="n">
-        <v>8884450</v>
+        <v>8928341</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1041654119</v>
+        <v>1058527534</v>
       </c>
       <c r="E135" t="n">
-        <v>1144259905</v>
+        <v>1162795397</v>
       </c>
       <c r="F135" t="n">
-        <v>12611.75140905868</v>
+        <v>12822.0789172136</v>
       </c>
       <c r="G135" t="n">
-        <v>13833.27018885003</v>
+        <v>15997.67613529487</v>
       </c>
       <c r="H135" t="n">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="I135" t="n">
-        <v>10286351</v>
+        <v>10425302</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1117571</v>
+        <v>1113533</v>
       </c>
       <c r="E136" t="n">
-        <v>4327480</v>
+        <v>4311842</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>429609</v>
+        <v>438362</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>116231337</v>
+        <v>121629212</v>
       </c>
       <c r="E137" t="n">
-        <v>445882118</v>
+        <v>466589235</v>
       </c>
       <c r="F137" t="n">
-        <v>159406.0713432496</v>
+        <v>126728.4535569314</v>
       </c>
       <c r="G137" t="n">
-        <v>226705.6155481024</v>
+        <v>205126.7258415944</v>
       </c>
       <c r="H137" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I137" t="n">
-        <v>22937394</v>
+        <v>23729021</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3200816</v>
+        <v>3212739</v>
       </c>
       <c r="E138" t="n">
-        <v>30328201</v>
+        <v>30441178</v>
       </c>
       <c r="F138" t="n">
-        <v>4207.196389148261</v>
+        <v>4606.175420677266</v>
       </c>
       <c r="G138" t="n">
-        <v>4726.654952129518</v>
+        <v>4715.22264620892</v>
       </c>
       <c r="H138" t="n">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I138" t="n">
-        <v>234697</v>
+        <v>236800</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22544822</v>
+        <v>22939804</v>
       </c>
       <c r="E139" t="n">
-        <v>22544822</v>
+        <v>22939804</v>
       </c>
       <c r="F139" t="n">
-        <v>9061.113116533868</v>
+        <v>8208.813014350833</v>
       </c>
       <c r="G139" t="n">
-        <v>2722.418325792156</v>
+        <v>2416.491609065459</v>
       </c>
       <c r="H139" t="n">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="I139" t="n">
-        <v>620236</v>
+        <v>623829</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494483763</v>
+        <v>494773753</v>
       </c>
       <c r="E140" t="n">
-        <v>494483763</v>
+        <v>494773753</v>
       </c>
       <c r="F140" t="n">
-        <v>958884.6210530917</v>
+        <v>927873.6298681677</v>
       </c>
       <c r="G140" t="n">
-        <v>833963.5881843554</v>
+        <v>802459.8725956612</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>33388019</v>
+        <v>32951115</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>31822910</v>
+        <v>32715329</v>
       </c>
       <c r="F141" t="n">
-        <v>54295.05727463466</v>
+        <v>43057.96448651415</v>
       </c>
       <c r="G141" t="n">
-        <v>69890.17942368265</v>
+        <v>51195.14547671317</v>
       </c>
       <c r="H141" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I141" t="n">
-        <v>5501648</v>
+        <v>5610938</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>765355</v>
+        <v>767061</v>
       </c>
       <c r="E142" t="n">
-        <v>12207145</v>
+        <v>12234357</v>
       </c>
       <c r="F142" t="n">
-        <v>75.2502076544889</v>
+        <v>75.24955707385467</v>
       </c>
       <c r="G142" t="n">
-        <v>25.66506540425049</v>
+        <v>25.66484351523451</v>
       </c>
       <c r="H142" t="n">
         <v>0.64</v>
       </c>
       <c r="I142" t="n">
-        <v>65183</v>
+        <v>65028</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2642702365</v>
+        <v>2647638356</v>
       </c>
       <c r="E143" t="n">
-        <v>2805862273</v>
+        <v>2811103010</v>
       </c>
       <c r="F143" t="n">
-        <v>3146.184336748237</v>
+        <v>3577.811463491002</v>
       </c>
       <c r="G143" t="n">
-        <v>23227.14687951089</v>
+        <v>22202.93061578442</v>
       </c>
       <c r="H143" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I143" t="n">
-        <v>40263960</v>
+        <v>40704888</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1649062</v>
+        <v>1652079</v>
       </c>
       <c r="E144" t="n">
-        <v>1654883</v>
+        <v>1657911</v>
       </c>
       <c r="F144" t="n">
-        <v>477.2731667409318</v>
+        <v>372.989995011288</v>
       </c>
       <c r="G144" t="n">
-        <v>709.8347050558258</v>
+        <v>468.8639950017162</v>
       </c>
       <c r="H144" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="I144" t="n">
-        <v>400997</v>
+        <v>407606</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61196379</v>
+        <v>61934758</v>
       </c>
       <c r="E145" t="n">
-        <v>150110570</v>
+        <v>151921765</v>
       </c>
       <c r="F145" t="n">
-        <v>3530.677508621146</v>
+        <v>745.5423421226722</v>
       </c>
       <c r="G145" t="n">
-        <v>4423.712840933108</v>
+        <v>2052.379081397748</v>
       </c>
       <c r="H145" t="n">
-        <v>0.33</v>
+        <v>0.99</v>
       </c>
       <c r="I145" t="n">
-        <v>22560763</v>
+        <v>22572297</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>718304512</v>
+        <v>719938901</v>
       </c>
       <c r="E146" t="n">
-        <v>1107688978</v>
+        <v>1110209350</v>
       </c>
       <c r="F146" t="n">
-        <v>163066.2554024978</v>
+        <v>162652.1530093969</v>
       </c>
       <c r="G146" t="n">
-        <v>154444.40025343</v>
+        <v>142320.8427287908</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>177513927</v>
+        <v>214782391</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22889022</v>
+        <v>23070156</v>
       </c>
       <c r="E147" t="n">
-        <v>22889022</v>
+        <v>23070156</v>
       </c>
       <c r="F147" t="n">
-        <v>4517.537893640644</v>
+        <v>5070.10746550834</v>
       </c>
       <c r="G147" t="n">
-        <v>7812.270831733955</v>
+        <v>7771.793946645098</v>
       </c>
       <c r="H147" t="n">
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
       <c r="I147" t="n">
-        <v>6444497</v>
+        <v>6471694</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3783457</v>
+        <v>3788215</v>
       </c>
       <c r="E148" t="n">
-        <v>8255454</v>
+        <v>8265837</v>
       </c>
       <c r="F148" t="n">
-        <v>6001.446745281892</v>
+        <v>5736.530696169493</v>
       </c>
       <c r="G148" t="n">
-        <v>5812.74671723162</v>
+        <v>5733.806145264925</v>
       </c>
       <c r="H148" t="n">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="I148" t="n">
-        <v>974803</v>
+        <v>1053589</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9358535</v>
+        <v>9355096</v>
       </c>
       <c r="E149" t="n">
-        <v>9358535</v>
+        <v>9355096</v>
       </c>
       <c r="F149" t="n">
-        <v>95209.10582190397</v>
+        <v>90117.86170725647</v>
       </c>
       <c r="G149" t="n">
-        <v>69849.869747972</v>
+        <v>80955.18707203484</v>
       </c>
       <c r="H149" t="n">
         <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>3120758</v>
+        <v>3127910</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>492897607</v>
+        <v>492375366</v>
       </c>
       <c r="E150" t="n">
-        <v>1716606007</v>
+        <v>1714787206</v>
       </c>
       <c r="F150" t="n">
-        <v>765330.2257495186</v>
+        <v>712784.9904964982</v>
       </c>
       <c r="G150" t="n">
-        <v>912179.9334091846</v>
+        <v>823878.7521498291</v>
       </c>
       <c r="H150" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31153166</v>
+        <v>31415129</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48133875</v>
+        <v>48179188</v>
       </c>
       <c r="E151" t="n">
-        <v>118794845</v>
+        <v>118906683</v>
       </c>
       <c r="F151" t="n">
-        <v>8340.091153366477</v>
+        <v>8340.0471971681</v>
       </c>
       <c r="G151" t="n">
-        <v>5559.846786252419</v>
+        <v>5559.563126843191</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>44275</v>
+        <v>43057</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7636678</v>
+        <v>7692595</v>
       </c>
       <c r="E152" t="n">
-        <v>19839269</v>
+        <v>19984535</v>
       </c>
       <c r="F152" t="n">
-        <v>2441.768024711029</v>
+        <v>1266.350729888408</v>
       </c>
       <c r="G152" t="n">
-        <v>3865.895414175817</v>
+        <v>7994.128841343976</v>
       </c>
       <c r="H152" t="n">
-        <v>2.48</v>
+        <v>2.94</v>
       </c>
       <c r="I152" t="n">
-        <v>691012</v>
+        <v>695925</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19185287188</v>
+        <v>19210344609</v>
       </c>
       <c r="F153" t="n">
-        <v>52452.74651468789</v>
+        <v>52431.65749053888</v>
       </c>
       <c r="G153" t="n">
-        <v>50111.87821049336</v>
+        <v>50155.08615659401</v>
       </c>
       <c r="H153" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="I153" t="n">
-        <v>48866110</v>
+        <v>48909296</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2640200</v>
+        <v>2632593</v>
       </c>
       <c r="E154" t="n">
-        <v>10560798</v>
+        <v>10530373</v>
       </c>
       <c r="F154" t="n">
-        <v>3574.805152925605</v>
+        <v>3843.270657964385</v>
       </c>
       <c r="G154" t="n">
-        <v>21311.33988754249</v>
+        <v>23175.70765576575</v>
       </c>
       <c r="H154" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="I154" t="n">
-        <v>5850972</v>
+        <v>1183849</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>216009523</v>
+        <v>216308583</v>
       </c>
       <c r="E155" t="n">
-        <v>664147994</v>
+        <v>665067492</v>
       </c>
       <c r="F155" t="n">
-        <v>142978.8931153345</v>
+        <v>129195.6042581395</v>
       </c>
       <c r="G155" t="n">
-        <v>161416.9023526874</v>
+        <v>141380.6498971501</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I155" t="n">
-        <v>11756637</v>
+        <v>11763847</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>401117816</v>
+        <v>402352087</v>
       </c>
       <c r="E156" t="n">
-        <v>2292101804</v>
+        <v>2299154783</v>
       </c>
       <c r="F156" t="n">
-        <v>157264.0304265148</v>
+        <v>98809.80098659723</v>
       </c>
       <c r="G156" t="n">
-        <v>254857.6570027181</v>
+        <v>201106.0629147358</v>
       </c>
       <c r="H156" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I156" t="n">
-        <v>36963172</v>
+        <v>37198547</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3915412</v>
+        <v>3955549</v>
       </c>
       <c r="F2" t="n">
-        <v>7.172558096099241</v>
+        <v>2188.377288661667</v>
       </c>
       <c r="G2" t="n">
-        <v>1831.397246848646</v>
+        <v>2054.239688839248</v>
       </c>
       <c r="H2" t="n">
-        <v>0.66</v>
+        <v>1.3</v>
       </c>
       <c r="I2" t="n">
-        <v>117248</v>
+        <v>121717</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>605047095</v>
+        <v>608381287</v>
       </c>
       <c r="E3" t="n">
-        <v>1174050185</v>
+        <v>1180460233</v>
       </c>
       <c r="F3" t="n">
-        <v>73869.49874900491</v>
+        <v>71844.39970650413</v>
       </c>
       <c r="G3" t="n">
-        <v>78549.49221236119</v>
+        <v>83813.23429155472</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>23131780</v>
+        <v>22687225</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246157476</v>
+        <v>247257851</v>
       </c>
       <c r="E4" t="n">
-        <v>1543618933</v>
+        <v>1550519228</v>
       </c>
       <c r="F4" t="n">
-        <v>370172.6004759339</v>
+        <v>296719.9260324026</v>
       </c>
       <c r="G4" t="n">
-        <v>286008.1779076663</v>
+        <v>306056.9403571921</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>15650572</v>
+        <v>15990528</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140095170</v>
+        <v>141514185</v>
       </c>
       <c r="E5" t="n">
-        <v>155247342</v>
+        <v>156819832</v>
       </c>
       <c r="F5" t="n">
-        <v>8798.265960735265</v>
+        <v>8799.014615524598</v>
       </c>
       <c r="G5" t="n">
-        <v>536.0647074743637</v>
+        <v>529.5334778761384</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="I5" t="n">
-        <v>34644850</v>
+        <v>34802657</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49022318</v>
+        <v>49043912</v>
       </c>
       <c r="E6" t="n">
-        <v>61325662</v>
+        <v>61352676</v>
       </c>
       <c r="F6" t="n">
-        <v>5272.439584068324</v>
+        <v>5255.788568971954</v>
       </c>
       <c r="G6" t="n">
-        <v>5943.061590355981</v>
+        <v>7052.629113198726</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16</v>
+        <v>0.65</v>
       </c>
       <c r="I6" t="n">
-        <v>375000</v>
+        <v>510761</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69646359</v>
+        <v>69964982</v>
       </c>
       <c r="E7" t="n">
-        <v>138735348</v>
+        <v>139370044</v>
       </c>
       <c r="F7" t="n">
-        <v>9407.789015096641</v>
+        <v>9942.92386383468</v>
       </c>
       <c r="G7" t="n">
-        <v>13542.51475540265</v>
+        <v>13284.67599101553</v>
       </c>
       <c r="H7" t="n">
         <v>0.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1332734</v>
+        <v>1258700</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41868679</v>
+        <v>41845961</v>
       </c>
       <c r="E8" t="n">
-        <v>46857082</v>
+        <v>46831658</v>
       </c>
       <c r="F8" t="n">
-        <v>1247.489162370293</v>
+        <v>611.5518992951982</v>
       </c>
       <c r="G8" t="n">
-        <v>276.6462605023781</v>
+        <v>327.9767227692723</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I8" t="n">
-        <v>3861332</v>
+        <v>3842792</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14314410</v>
+        <v>14308250</v>
       </c>
       <c r="E9" t="n">
-        <v>42183642</v>
+        <v>42165488</v>
       </c>
       <c r="F9" t="n">
-        <v>4476.879570315677</v>
+        <v>4900.404298197346</v>
       </c>
       <c r="G9" t="n">
-        <v>4416.805527903987</v>
+        <v>5096.378946117386</v>
       </c>
       <c r="H9" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="I9" t="n">
-        <v>843685</v>
+        <v>834080</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7288621</v>
+        <v>7204262</v>
       </c>
       <c r="E10" t="n">
-        <v>31329612</v>
+        <v>30967000</v>
       </c>
       <c r="F10" t="n">
-        <v>4553.323299022212</v>
+        <v>4520.237441176043</v>
       </c>
       <c r="G10" t="n">
-        <v>35597.06078814455</v>
+        <v>21376.93998750176</v>
       </c>
       <c r="H10" t="n">
         <v>0.38</v>
       </c>
       <c r="I10" t="n">
-        <v>638701</v>
+        <v>690909</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>560195721</v>
+        <v>565938934</v>
       </c>
       <c r="E11" t="n">
-        <v>700721587</v>
+        <v>707905493</v>
       </c>
       <c r="F11" t="n">
-        <v>221079.728234566</v>
+        <v>277770.6971544525</v>
       </c>
       <c r="G11" t="n">
-        <v>222859.3934573237</v>
+        <v>287380.4468509687</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>53973214</v>
+        <v>52744888</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4670193</v>
+        <v>4654386</v>
       </c>
       <c r="E12" t="n">
-        <v>28685922</v>
+        <v>28588787</v>
       </c>
       <c r="F12" t="n">
-        <v>11724.3487811737</v>
+        <v>11266.3997965231</v>
       </c>
       <c r="G12" t="n">
-        <v>7807.521100221738</v>
+        <v>7820.773825895404</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I12" t="n">
-        <v>515428</v>
+        <v>533190</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22667414</v>
+        <v>23118752</v>
       </c>
       <c r="E13" t="n">
-        <v>22709697</v>
+        <v>23161877</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>887169</v>
+        <v>881984</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82251086</v>
+        <v>82327909</v>
       </c>
       <c r="E14" t="n">
-        <v>241992897</v>
+        <v>242218920</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>358773</v>
+        <v>389655</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>474585403</v>
+        <v>478498668</v>
       </c>
       <c r="E15" t="n">
-        <v>474585401</v>
+        <v>478498668</v>
       </c>
       <c r="F15" t="n">
-        <v>13320.11939911533</v>
+        <v>12001.12527538468</v>
       </c>
       <c r="G15" t="n">
-        <v>17529.98347823475</v>
+        <v>19995.38994456551</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>66527347</v>
+        <v>66987120</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4633486</v>
+        <v>4642522</v>
       </c>
       <c r="E16" t="n">
-        <v>4633486</v>
+        <v>4642522</v>
       </c>
       <c r="F16" t="n">
-        <v>380.5030498359293</v>
+        <v>409.9649226138916</v>
       </c>
       <c r="G16" t="n">
-        <v>5647.774341534927</v>
+        <v>6678.560151730178</v>
       </c>
       <c r="H16" t="n">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
       <c r="I16" t="n">
-        <v>1365864</v>
+        <v>1977819</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3419036</v>
+        <v>3423005</v>
       </c>
       <c r="E17" t="n">
-        <v>3419036</v>
+        <v>3423005</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>546687</v>
+        <v>544242</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167364266</v>
+        <v>167809922</v>
       </c>
       <c r="E18" t="n">
-        <v>207203930</v>
+        <v>207755671</v>
       </c>
       <c r="F18" t="n">
-        <v>5404.385608968025</v>
+        <v>5023.662154120279</v>
       </c>
       <c r="G18" t="n">
-        <v>13887.73282755379</v>
+        <v>12879.0696225526</v>
       </c>
       <c r="H18" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="I18" t="n">
-        <v>402170</v>
+        <v>401148</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7016073</v>
+        <v>6917435</v>
       </c>
       <c r="E19" t="n">
-        <v>9662926</v>
+        <v>9527075</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>687344</v>
+        <v>665649</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>898700</v>
+        <v>900202</v>
       </c>
       <c r="E20" t="n">
-        <v>6290898</v>
+        <v>6301411</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>159771</v>
+        <v>168521</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>109227163</v>
+        <v>109899357</v>
       </c>
       <c r="E21" t="n">
-        <v>425148671</v>
+        <v>427740372</v>
       </c>
       <c r="F21" t="n">
-        <v>27260.05910784859</v>
+        <v>31266.64260526244</v>
       </c>
       <c r="G21" t="n">
-        <v>65444.59447180339</v>
+        <v>64836.15473557308</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>7897057</v>
+        <v>7848751</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1685451</v>
+        <v>1683762</v>
       </c>
       <c r="E22" t="n">
-        <v>12140158</v>
+        <v>12127995</v>
       </c>
       <c r="F22" t="n">
-        <v>6038.351412116296</v>
+        <v>6037.723588774802</v>
       </c>
       <c r="G22" t="n">
-        <v>3546.449516157628</v>
+        <v>3546.0807824365</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>120380</v>
+        <v>110355</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>136350976</v>
+        <v>138154005</v>
       </c>
       <c r="E23" t="n">
-        <v>136350976</v>
+        <v>138154005</v>
       </c>
       <c r="F23" t="n">
-        <v>807598.8357525623</v>
+        <v>967332.9312530211</v>
       </c>
       <c r="G23" t="n">
-        <v>946425.7119195176</v>
+        <v>1454418.833273804</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>66391566</v>
+        <v>66444611</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65374757</v>
+        <v>65529147</v>
       </c>
       <c r="E24" t="n">
-        <v>335255164</v>
+        <v>336046906</v>
       </c>
       <c r="F24" t="n">
-        <v>65186.20699960899</v>
+        <v>86187.76963192405</v>
       </c>
       <c r="G24" t="n">
-        <v>104941.0403941337</v>
+        <v>115077.5674066588</v>
       </c>
       <c r="H24" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>19588256</v>
+        <v>19871387</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>253911109</v>
+        <v>256194314</v>
       </c>
       <c r="E25" t="n">
-        <v>253911109</v>
+        <v>256194314</v>
       </c>
       <c r="F25" t="n">
-        <v>340475.7529752795</v>
+        <v>361869.0627387186</v>
       </c>
       <c r="G25" t="n">
-        <v>364624.3767807352</v>
+        <v>489554.5081966354</v>
       </c>
       <c r="H25" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>14955227</v>
+        <v>14934507</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1122823</v>
+        <v>1132577</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>187574</v>
+        <v>187079</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3967677</v>
+        <v>3990241</v>
       </c>
       <c r="E28" t="n">
-        <v>3968654</v>
+        <v>3991221</v>
       </c>
       <c r="F28" t="n">
-        <v>701.9655172378972</v>
+        <v>701.0571073805165</v>
       </c>
       <c r="G28" t="n">
-        <v>3220.009403166004</v>
+        <v>4050.172752152186</v>
       </c>
       <c r="H28" t="n">
-        <v>0.23</v>
+        <v>0.54</v>
       </c>
       <c r="I28" t="n">
-        <v>281800</v>
+        <v>280028</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6792991</v>
+        <v>6815039</v>
       </c>
       <c r="E29" t="n">
-        <v>16499653</v>
+        <v>16553204</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>462034</v>
+        <v>465184</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100123011</v>
+        <v>101043193</v>
       </c>
       <c r="E30" t="n">
-        <v>124841658</v>
+        <v>125989017</v>
       </c>
       <c r="F30" t="n">
-        <v>93509.83121972388</v>
+        <v>91382.6349796291</v>
       </c>
       <c r="G30" t="n">
-        <v>83781.85188801659</v>
+        <v>95600.01309755638</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11335455</v>
+        <v>11355513</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1154026</v>
+        <v>1154769</v>
       </c>
       <c r="E31" t="n">
-        <v>12541518</v>
+        <v>12549602</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31800</v>
+        <v>31776</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>74310214</v>
+        <v>75643779</v>
       </c>
       <c r="E32" t="n">
-        <v>208012618</v>
+        <v>211716972</v>
       </c>
       <c r="F32" t="n">
-        <v>65815.31735503016</v>
+        <v>51743.81575563144</v>
       </c>
       <c r="G32" t="n">
-        <v>59759.07176836518</v>
+        <v>72645.27182447497</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I32" t="n">
-        <v>37482804</v>
+        <v>34883312</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4175101</v>
+        <v>4163271</v>
       </c>
       <c r="E33" t="n">
-        <v>8233651</v>
+        <v>8210322</v>
       </c>
       <c r="F33" t="n">
-        <v>5547.207207254281</v>
+        <v>7258.729219095189</v>
       </c>
       <c r="G33" t="n">
-        <v>7067.51438000404</v>
+        <v>9150.652083369976</v>
       </c>
       <c r="H33" t="n">
         <v>0.67</v>
       </c>
       <c r="I33" t="n">
-        <v>1636482</v>
+        <v>1628345</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37419365</v>
+        <v>37222882</v>
       </c>
       <c r="F34" t="n">
-        <v>799.7777782516706</v>
+        <v>668.091650352382</v>
       </c>
       <c r="G34" t="n">
-        <v>576.0295543364184</v>
+        <v>695.8937937223623</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="I34" t="n">
-        <v>65542</v>
+        <v>67729</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7701333</v>
+        <v>7648456</v>
       </c>
       <c r="E35" t="n">
-        <v>18138171</v>
+        <v>18013635</v>
       </c>
       <c r="F35" t="n">
-        <v>3450.119014418743</v>
+        <v>3449.760296434255</v>
       </c>
       <c r="G35" t="n">
-        <v>2932.066583627413</v>
+        <v>2931.812168776716</v>
       </c>
       <c r="H35" t="n">
         <v>0.93</v>
       </c>
       <c r="I35" t="n">
-        <v>34236</v>
+        <v>34134</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23103908</v>
+        <v>23121933</v>
       </c>
       <c r="F36" t="n">
-        <v>5161.008694827207</v>
+        <v>5145.556984093152</v>
       </c>
       <c r="G36" t="n">
-        <v>5406.143100865816</v>
+        <v>5516.130368624879</v>
       </c>
       <c r="H36" t="n">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="I36" t="n">
-        <v>120932</v>
+        <v>122239</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73564270</v>
+        <v>74721754</v>
       </c>
       <c r="E37" t="n">
-        <v>153418860</v>
+        <v>155832803</v>
       </c>
       <c r="F37" t="n">
-        <v>45322.82055457978</v>
+        <v>81708.11917544498</v>
       </c>
       <c r="G37" t="n">
-        <v>96643.96513319724</v>
+        <v>98240.7291609481</v>
       </c>
       <c r="H37" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>14422791</v>
+        <v>15365984</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>271688044</v>
+        <v>273685491</v>
       </c>
       <c r="E38" t="n">
-        <v>271688044</v>
+        <v>273685491</v>
       </c>
       <c r="F38" t="n">
-        <v>30512.26973436211</v>
+        <v>31973.51815240712</v>
       </c>
       <c r="G38" t="n">
-        <v>18612.14059587754</v>
+        <v>25747.30879214365</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>8249550</v>
+        <v>10472776</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>198730625</v>
+        <v>200724763</v>
       </c>
       <c r="E39" t="n">
-        <v>690408153</v>
+        <v>697335966</v>
       </c>
       <c r="F39" t="n">
-        <v>140521.93874279</v>
+        <v>160744.4931587152</v>
       </c>
       <c r="G39" t="n">
-        <v>325187.8781897636</v>
+        <v>391307.964849281</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>26007018</v>
+        <v>25987305</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3849639</v>
+        <v>3793731</v>
       </c>
       <c r="E40" t="n">
-        <v>3849639</v>
+        <v>3793731</v>
       </c>
       <c r="F40" t="n">
-        <v>4697.155125144658</v>
+        <v>508.374566890168</v>
       </c>
       <c r="G40" t="n">
-        <v>1040.13589977715</v>
+        <v>2277.222744414241</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="I40" t="n">
-        <v>3409862</v>
+        <v>3220076</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>115390581</v>
+        <v>116027068</v>
       </c>
       <c r="E41" t="n">
-        <v>490643662</v>
+        <v>493319975</v>
       </c>
       <c r="F41" t="n">
-        <v>5374.551387822848</v>
+        <v>5864.325894810049</v>
       </c>
       <c r="G41" t="n">
-        <v>6376.94349577988</v>
+        <v>8197.754897537678</v>
       </c>
       <c r="H41" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="I41" t="n">
-        <v>14468720</v>
+        <v>14399567</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>531507</v>
+        <v>527420</v>
       </c>
       <c r="E42" t="n">
-        <v>6446668</v>
+        <v>6397086</v>
       </c>
       <c r="F42" t="n">
-        <v>821.7262781818068</v>
+        <v>530.8549020303886</v>
       </c>
       <c r="G42" t="n">
-        <v>1190.043978003549</v>
+        <v>1495.698318962703</v>
       </c>
       <c r="H42" t="n">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="I42" t="n">
-        <v>2757825</v>
+        <v>2753967</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1287114624</v>
+        <v>1310605049</v>
       </c>
       <c r="E43" t="n">
-        <v>6171978216</v>
+        <v>6284619614</v>
       </c>
       <c r="F43" t="n">
-        <v>26181.07158289564</v>
+        <v>34863.3967600657</v>
       </c>
       <c r="G43" t="n">
-        <v>28014.39556927643</v>
+        <v>37488.40157432782</v>
       </c>
       <c r="H43" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>169262495</v>
+        <v>166781423</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6053776067</v>
+        <v>6052443573</v>
       </c>
       <c r="E44" t="n">
-        <v>6053858296</v>
+        <v>6052443573</v>
       </c>
       <c r="F44" t="n">
-        <v>4402824.861101015</v>
+        <v>1989008.138270406</v>
       </c>
       <c r="G44" t="n">
-        <v>4078234.656334497</v>
+        <v>1833383.862761928</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>98107763</v>
+        <v>101424595</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>265958742</v>
+        <v>267895626</v>
       </c>
       <c r="E45" t="n">
-        <v>1148025575</v>
+        <v>1156386243</v>
       </c>
       <c r="F45" t="n">
-        <v>110370.7446426018</v>
+        <v>95567.00630913014</v>
       </c>
       <c r="G45" t="n">
-        <v>94966.19395687895</v>
+        <v>92464.72792237048</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I45" t="n">
-        <v>108440337</v>
+        <v>83677791</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115094058</v>
+        <v>115640531</v>
       </c>
       <c r="E46" t="n">
-        <v>115094058</v>
+        <v>115640531</v>
       </c>
       <c r="F46" t="n">
-        <v>42012.94525523835</v>
+        <v>40531.89253797576</v>
       </c>
       <c r="G46" t="n">
-        <v>29257.84852333393</v>
+        <v>38713.92560770236</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I46" t="n">
-        <v>6059822</v>
+        <v>6138004</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2044093435</v>
+        <v>2045278104</v>
       </c>
       <c r="E47" t="n">
-        <v>2044093435</v>
+        <v>2045278104</v>
       </c>
       <c r="F47" t="n">
-        <v>226306.3427090088</v>
+        <v>226287.8924618657</v>
       </c>
       <c r="G47" t="n">
-        <v>200207.7181633454</v>
+        <v>200109.4695818314</v>
       </c>
       <c r="H47" t="n">
         <v>0.09</v>
       </c>
       <c r="I47" t="n">
-        <v>6156145936</v>
+        <v>6147989846</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9808507</v>
+        <v>9812447</v>
       </c>
       <c r="F48" t="n">
-        <v>6518.833264137736</v>
+        <v>6537.918100011495</v>
       </c>
       <c r="G48" t="n">
-        <v>5765.288401001238</v>
+        <v>6317.914701338574</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>168550</v>
+        <v>167615</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4387102</v>
+        <v>4373282</v>
       </c>
       <c r="E49" t="n">
-        <v>5759692</v>
+        <v>5741549</v>
       </c>
       <c r="F49" t="n">
-        <v>13247.57201348092</v>
+        <v>12562.85769670881</v>
       </c>
       <c r="G49" t="n">
-        <v>12151.85531195477</v>
+        <v>16243.02255905402</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>507473</v>
+        <v>505176</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12221239</v>
+        <v>12123819</v>
       </c>
       <c r="E50" t="n">
-        <v>17971102</v>
+        <v>17827848</v>
       </c>
       <c r="F50" t="n">
-        <v>6617.898338263677</v>
+        <v>6604.981707994502</v>
       </c>
       <c r="G50" t="n">
-        <v>6609.977200521956</v>
+        <v>6621.924369140005</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I50" t="n">
-        <v>2148508</v>
+        <v>2176911</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22578339</v>
+        <v>22612345</v>
       </c>
       <c r="E51" t="n">
-        <v>29289271</v>
+        <v>29333384</v>
       </c>
       <c r="F51" t="n">
-        <v>11167.58930374981</v>
+        <v>12226.6957523339</v>
       </c>
       <c r="G51" t="n">
-        <v>7888.134725992073</v>
+        <v>11390.42975074755</v>
       </c>
       <c r="H51" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>150141</v>
+        <v>152236</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13744332</v>
+        <v>13769827</v>
       </c>
       <c r="E52" t="n">
-        <v>13744332</v>
+        <v>13769827</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4743159</v>
+        <v>4740591</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98091795</v>
+        <v>98336300</v>
       </c>
       <c r="E53" t="n">
-        <v>121336040</v>
+        <v>121638484</v>
       </c>
       <c r="F53" t="n">
-        <v>420.0748814156459</v>
+        <v>477.0470006646772</v>
       </c>
       <c r="G53" t="n">
-        <v>3949.017634158745</v>
+        <v>3966.891335373502</v>
       </c>
       <c r="H53" t="n">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="I53" t="n">
-        <v>792339</v>
+        <v>795312</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5121970</v>
+        <v>5158303</v>
       </c>
       <c r="E54" t="n">
-        <v>7166379</v>
+        <v>7217214</v>
       </c>
       <c r="F54" t="n">
-        <v>111.0086031018701</v>
+        <v>45.5727007523119</v>
       </c>
       <c r="G54" t="n">
-        <v>334.1265170720722</v>
+        <v>165.2965402925773</v>
       </c>
       <c r="H54" t="n">
         <v>1.61</v>
       </c>
       <c r="I54" t="n">
-        <v>106360</v>
+        <v>105176</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13901521</v>
+        <v>14157808</v>
       </c>
       <c r="E55" t="n">
-        <v>67327283</v>
+        <v>68568522</v>
       </c>
       <c r="F55" t="n">
-        <v>23565.97566438908</v>
+        <v>18501.85498819572</v>
       </c>
       <c r="G55" t="n">
-        <v>20023.86570051464</v>
+        <v>31371.09891215656</v>
       </c>
       <c r="H55" t="n">
-        <v>0.26</v>
+        <v>0.62</v>
       </c>
       <c r="I55" t="n">
-        <v>3589732</v>
+        <v>3628191</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>64044</v>
+        <v>57863</v>
       </c>
       <c r="E56" t="n">
-        <v>153400</v>
+        <v>138593</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5284.17</v>
+        <v>5089.1</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1920332190</v>
+        <v>1918680768</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26430561</v>
+        <v>26456257</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12291209</v>
+        <v>12289351</v>
       </c>
       <c r="E58" t="n">
-        <v>17820479</v>
+        <v>17817786</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2067127</v>
+        <v>2049702</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124297141</v>
+        <v>124866463</v>
       </c>
       <c r="E59" t="n">
-        <v>330559538</v>
+        <v>332073611</v>
       </c>
       <c r="F59" t="n">
-        <v>9745.743621485186</v>
+        <v>1831.293949054143</v>
       </c>
       <c r="G59" t="n">
-        <v>10205.43651928623</v>
+        <v>8552.530113276858</v>
       </c>
       <c r="H59" t="n">
-        <v>1.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I59" t="n">
-        <v>1244057</v>
+        <v>1214294</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31844239</v>
+        <v>31915723</v>
       </c>
       <c r="E60" t="n">
-        <v>99152744</v>
+        <v>99375321</v>
       </c>
       <c r="F60" t="n">
-        <v>3104.002991869803</v>
+        <v>5077.737612949974</v>
       </c>
       <c r="G60" t="n">
-        <v>4063.299763011541</v>
+        <v>4896.868109587719</v>
       </c>
       <c r="H60" t="n">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="I60" t="n">
-        <v>12126802</v>
+        <v>12064489</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2038189</v>
+        <v>2049325</v>
       </c>
       <c r="E61" t="n">
-        <v>14615648</v>
+        <v>14695502</v>
       </c>
       <c r="F61" t="n">
-        <v>5447.158898323132</v>
+        <v>5427.329996686439</v>
       </c>
       <c r="G61" t="n">
-        <v>5397.210487771426</v>
+        <v>5368.994811811297</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="I61" t="n">
-        <v>1929565</v>
+        <v>1945531</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>201628482</v>
+        <v>203876020</v>
       </c>
       <c r="E62" t="n">
-        <v>1141744355</v>
+        <v>1154471294</v>
       </c>
       <c r="F62" t="n">
-        <v>531537.0013447714</v>
+        <v>642063.909457025</v>
       </c>
       <c r="G62" t="n">
-        <v>692029.6586938078</v>
+        <v>748121.85837577</v>
       </c>
       <c r="H62" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>64892477</v>
+        <v>63989340</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>504998</v>
+        <v>503532</v>
       </c>
       <c r="E63" t="n">
-        <v>1699752</v>
+        <v>1694819</v>
       </c>
       <c r="F63" t="n">
-        <v>4706.600149930246</v>
+        <v>606.4359813297741</v>
       </c>
       <c r="G63" t="n">
-        <v>388.1643456734957</v>
+        <v>387.1381890659827</v>
       </c>
       <c r="H63" t="n">
         <v>0.64</v>
       </c>
       <c r="I63" t="n">
-        <v>628363</v>
+        <v>626558</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>338982</v>
+        <v>342760</v>
       </c>
       <c r="E64" t="n">
-        <v>338982</v>
+        <v>342760</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5029.85</v>
+        <v>5085.9</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>138296432</v>
+        <v>140255740</v>
       </c>
       <c r="E65" t="n">
-        <v>1024418016</v>
+        <v>1038931407</v>
       </c>
       <c r="F65" t="n">
-        <v>32470.09380635739</v>
+        <v>39901.87439760161</v>
       </c>
       <c r="G65" t="n">
-        <v>39644.75032311025</v>
+        <v>35482.44983648338</v>
       </c>
       <c r="H65" t="n">
         <v>0.02</v>
       </c>
       <c r="I65" t="n">
-        <v>10471565</v>
+        <v>10294315</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8038380</v>
+        <v>8048424</v>
       </c>
       <c r="E66" t="n">
-        <v>10768749</v>
+        <v>10782205</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>66648</v>
+        <v>64175</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25581248</v>
+        <v>25396086</v>
       </c>
       <c r="E67" t="n">
-        <v>25581248</v>
+        <v>25396086</v>
       </c>
       <c r="F67" t="n">
-        <v>6901.091417970044</v>
+        <v>7514.667979856908</v>
       </c>
       <c r="G67" t="n">
-        <v>6317.6465061012</v>
+        <v>6523.851406329966</v>
       </c>
       <c r="H67" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="I67" t="n">
-        <v>313874</v>
+        <v>308112</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1567362</v>
+        <v>1574561</v>
       </c>
       <c r="E68" t="n">
-        <v>12172316</v>
+        <v>12228224</v>
       </c>
       <c r="F68" t="n">
-        <v>9852.343265736105</v>
+        <v>9880.647727572141</v>
       </c>
       <c r="G68" t="n">
-        <v>18153.97901208927</v>
+        <v>18314.3681641841</v>
       </c>
       <c r="H68" t="n">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="I68" t="n">
-        <v>501489</v>
+        <v>488413</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>337607513</v>
+        <v>340546987</v>
       </c>
       <c r="E69" t="n">
-        <v>3037326530</v>
+        <v>3063771857</v>
       </c>
       <c r="F69" t="n">
-        <v>1062362.927868747</v>
+        <v>1059736.424955713</v>
       </c>
       <c r="G69" t="n">
-        <v>1743469.825055831</v>
+        <v>1831129.832973123</v>
       </c>
       <c r="H69" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>37100457</v>
+        <v>37333794</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>249493</v>
+        <v>251731</v>
       </c>
       <c r="E70" t="n">
-        <v>2201960</v>
+        <v>2221719</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>68311</v>
+        <v>67174</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1588510</v>
+        <v>1586307</v>
       </c>
       <c r="E71" t="n">
-        <v>13237587</v>
+        <v>13219224</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>42325</v>
+        <v>41416</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9142896</v>
+        <v>9142857</v>
       </c>
       <c r="E72" t="n">
-        <v>42377851</v>
+        <v>42377665</v>
       </c>
       <c r="F72" t="n">
-        <v>6266.510953808383</v>
+        <v>5349.673815783288</v>
       </c>
       <c r="G72" t="n">
-        <v>8154.571722612871</v>
+        <v>8713.727108520028</v>
       </c>
       <c r="H72" t="n">
-        <v>0.84</v>
+        <v>1.26</v>
       </c>
       <c r="I72" t="n">
-        <v>125447</v>
+        <v>125195</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>44956766</v>
+        <v>45608734</v>
       </c>
       <c r="E73" t="n">
-        <v>260281097</v>
+        <v>264055726</v>
       </c>
       <c r="F73" t="n">
-        <v>90258.49279737347</v>
+        <v>165871.1573005442</v>
       </c>
       <c r="G73" t="n">
-        <v>131672.8593281552</v>
+        <v>219782.7052757679</v>
       </c>
       <c r="H73" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>13737507</v>
+        <v>14383597</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39530903</v>
+        <v>39564531</v>
       </c>
       <c r="E74" t="n">
-        <v>54597807</v>
+        <v>54644251</v>
       </c>
       <c r="F74" t="n">
-        <v>4731.385276796439</v>
+        <v>748.9077462272767</v>
       </c>
       <c r="G74" t="n">
-        <v>4460.148750358303</v>
+        <v>715.7049516673094</v>
       </c>
       <c r="H74" t="n">
         <v>0.38</v>
       </c>
       <c r="I74" t="n">
-        <v>381092</v>
+        <v>376430</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95877</v>
+        <v>95942</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>547.99</v>
+        <v>548.37</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13570026</v>
+        <v>13527837</v>
       </c>
       <c r="E76" t="n">
-        <v>13616206</v>
+        <v>13573874</v>
       </c>
       <c r="F76" t="n">
-        <v>1394.054670045231</v>
+        <v>1358.865335415048</v>
       </c>
       <c r="G76" t="n">
-        <v>8561.504702919456</v>
+        <v>8031.421008054213</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="I76" t="n">
-        <v>5838768</v>
+        <v>5834763</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42838329</v>
+        <v>42811407</v>
       </c>
       <c r="E77" t="n">
-        <v>72729517</v>
+        <v>72683809</v>
       </c>
       <c r="F77" t="n">
-        <v>9331.222634113165</v>
+        <v>10413.34882716026</v>
       </c>
       <c r="G77" t="n">
-        <v>5955.532420593081</v>
+        <v>5859.687867871771</v>
       </c>
       <c r="H77" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I77" t="n">
-        <v>1089165</v>
+        <v>1095670</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23614373</v>
+        <v>23713247</v>
       </c>
       <c r="E78" t="n">
-        <v>70785030</v>
+        <v>71081411</v>
       </c>
       <c r="F78" t="n">
-        <v>114759.2172278333</v>
+        <v>124513.3775265457</v>
       </c>
       <c r="G78" t="n">
-        <v>120560.4900351549</v>
+        <v>81353.33138998161</v>
       </c>
       <c r="H78" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="I78" t="n">
-        <v>2948650</v>
+        <v>3017245</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101310103</v>
+        <v>101339471</v>
       </c>
       <c r="E79" t="n">
-        <v>107701796</v>
+        <v>107733016</v>
       </c>
       <c r="F79" t="n">
-        <v>2155.103795116423</v>
+        <v>2779.96817266063</v>
       </c>
       <c r="G79" t="n">
-        <v>2631.484247685592</v>
+        <v>2942.699693907863</v>
       </c>
       <c r="H79" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="I79" t="n">
-        <v>389281</v>
+        <v>385489</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10451204</v>
+        <v>10454941</v>
       </c>
       <c r="E80" t="n">
-        <v>45446814</v>
+        <v>45438542</v>
       </c>
       <c r="F80" t="n">
-        <v>5749.614600633076</v>
+        <v>6158.842620631451</v>
       </c>
       <c r="G80" t="n">
-        <v>9397.314376029066</v>
+        <v>5424.656787485827</v>
       </c>
       <c r="H80" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="I80" t="n">
-        <v>113441</v>
+        <v>116208</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15597043</v>
+        <v>15671892</v>
       </c>
       <c r="E81" t="n">
-        <v>95599404</v>
+        <v>96058180</v>
       </c>
       <c r="F81" t="n">
-        <v>2385.308687166137</v>
+        <v>4162.989436141062</v>
       </c>
       <c r="G81" t="n">
-        <v>3465.618271707934</v>
+        <v>6380.807759060631</v>
       </c>
       <c r="H81" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>11647090</v>
+        <v>11501419</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1494283</v>
+        <v>1496304</v>
       </c>
       <c r="E82" t="n">
-        <v>1536316</v>
+        <v>1538394</v>
       </c>
       <c r="F82" t="n">
-        <v>5912.13508913512</v>
+        <v>6557.648752513482</v>
       </c>
       <c r="G82" t="n">
-        <v>6165.070380526948</v>
+        <v>5864.924709869081</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>138348</v>
+        <v>140500</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47216632</v>
+        <v>47345124</v>
       </c>
       <c r="E83" t="n">
-        <v>203404087</v>
+        <v>203957619</v>
       </c>
       <c r="F83" t="n">
-        <v>3391.669934752676</v>
+        <v>3367.010659193888</v>
       </c>
       <c r="G83" t="n">
-        <v>4498.64237259236</v>
+        <v>3606.955248885493</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>8846071</v>
+        <v>8842990</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1734320</v>
+        <v>1735203</v>
       </c>
       <c r="E84" t="n">
-        <v>6301852</v>
+        <v>6305007</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>128584</v>
+        <v>126478</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8870287</v>
+        <v>8980383</v>
       </c>
       <c r="E85" t="n">
-        <v>19696806</v>
+        <v>19941277</v>
       </c>
       <c r="F85" t="n">
-        <v>4155.120152854789</v>
+        <v>6076.659783254021</v>
       </c>
       <c r="G85" t="n">
-        <v>8114.909800913272</v>
+        <v>6568.288718493013</v>
       </c>
       <c r="H85" t="n">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>341552</v>
+        <v>345426</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2449580</v>
+        <v>2446814</v>
       </c>
       <c r="E86" t="n">
-        <v>18432536</v>
+        <v>18411725</v>
       </c>
       <c r="F86" t="n">
-        <v>6110.462468812659</v>
+        <v>5006.280450581369</v>
       </c>
       <c r="G86" t="n">
-        <v>12904.27450204771</v>
+        <v>12461.77761405866</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>162317</v>
+        <v>163716</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20990836</v>
+        <v>20593761</v>
       </c>
       <c r="E87" t="n">
-        <v>83963342</v>
+        <v>82375043</v>
       </c>
       <c r="F87" t="n">
-        <v>13027.78861598171</v>
+        <v>12845.89804595811</v>
       </c>
       <c r="G87" t="n">
-        <v>1245.327993546767</v>
+        <v>2369.360664292051</v>
       </c>
       <c r="H87" t="n">
-        <v>1.66</v>
+        <v>1.09</v>
       </c>
       <c r="I87" t="n">
-        <v>5283596</v>
+        <v>5531077</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4267508</v>
+        <v>4275523</v>
       </c>
       <c r="E88" t="n">
-        <v>4267508</v>
+        <v>4275523</v>
       </c>
       <c r="F88" t="n">
-        <v>2018.275778929432</v>
+        <v>669.765641601709</v>
       </c>
       <c r="G88" t="n">
-        <v>2201.944841314251</v>
+        <v>1316.755078780307</v>
       </c>
       <c r="H88" t="n">
-        <v>0.32</v>
+        <v>1.77</v>
       </c>
       <c r="I88" t="n">
-        <v>2599341</v>
+        <v>2629241</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12818109</v>
+        <v>12991776</v>
       </c>
       <c r="E89" t="n">
-        <v>40552333</v>
+        <v>41101758</v>
       </c>
       <c r="F89" t="n">
-        <v>19536.94231113787</v>
+        <v>14457.50250726447</v>
       </c>
       <c r="G89" t="n">
-        <v>11215.91333863718</v>
+        <v>10742.09576925599</v>
       </c>
       <c r="H89" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="I89" t="n">
-        <v>1372408</v>
+        <v>1391201</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26674</v>
+        <v>26631</v>
       </c>
       <c r="E90" t="n">
-        <v>209785</v>
+        <v>209445</v>
       </c>
       <c r="F90" t="n">
-        <v>6190.284951608993</v>
+        <v>5773.477591165574</v>
       </c>
       <c r="G90" t="n">
-        <v>288.7396542657909</v>
+        <v>299.996540482275</v>
       </c>
       <c r="H90" t="n">
         <v>0.38</v>
       </c>
       <c r="I90" t="n">
-        <v>112106</v>
+        <v>100664</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8261495</v>
+        <v>8312900</v>
       </c>
       <c r="E91" t="n">
-        <v>8261495</v>
+        <v>8312900</v>
       </c>
       <c r="F91" t="n">
-        <v>2145.020989202495</v>
+        <v>3726.91085746003</v>
       </c>
       <c r="G91" t="n">
-        <v>3385.981790843465</v>
+        <v>4677.897406399955</v>
       </c>
       <c r="H91" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="I91" t="n">
-        <v>3584539</v>
+        <v>3585520</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9211328</v>
+        <v>9415572</v>
       </c>
       <c r="E92" t="n">
-        <v>9211328</v>
+        <v>9415572</v>
       </c>
       <c r="F92" t="n">
-        <v>2278.445434778581</v>
+        <v>7562.367962816926</v>
       </c>
       <c r="G92" t="n">
-        <v>1578.619387763419</v>
+        <v>1859.925383104534</v>
       </c>
       <c r="H92" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I92" t="n">
-        <v>2802252</v>
+        <v>2871846</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>36812770</v>
+        <v>37248802</v>
       </c>
       <c r="E93" t="n">
-        <v>92824133</v>
+        <v>93923595</v>
       </c>
       <c r="F93" t="n">
-        <v>4945.816887862285</v>
+        <v>5393.829062772628</v>
       </c>
       <c r="G93" t="n">
-        <v>6536.428714406469</v>
+        <v>6310.024167188489</v>
       </c>
       <c r="H93" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="I93" t="n">
-        <v>3137563</v>
+        <v>3170295</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>299757143</v>
+        <v>301676298</v>
       </c>
       <c r="E94" t="n">
-        <v>304440810</v>
+        <v>306391356</v>
       </c>
       <c r="F94" t="n">
-        <v>48895.64578472079</v>
+        <v>31760.39963164648</v>
       </c>
       <c r="G94" t="n">
-        <v>46018.95492636977</v>
+        <v>44534.54875516274</v>
       </c>
       <c r="H94" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I94" t="n">
-        <v>12538372</v>
+        <v>12487628</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>964.3237066004913</v>
+        <v>5899.452282522586</v>
       </c>
       <c r="G95" t="n">
-        <v>6404.958587143458</v>
+        <v>1368.165198776044</v>
       </c>
       <c r="H95" t="n">
         <v>0.09</v>
       </c>
       <c r="I95" t="n">
-        <v>198319</v>
+        <v>198641</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>83170247</v>
+        <v>84034417</v>
       </c>
       <c r="E96" t="n">
-        <v>83170247</v>
+        <v>84034417</v>
       </c>
       <c r="F96" t="n">
-        <v>8608.796238436362</v>
+        <v>6718.099328404015</v>
       </c>
       <c r="G96" t="n">
-        <v>6761.375871381401</v>
+        <v>6426.952564156853</v>
       </c>
       <c r="H96" t="n">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="I96" t="n">
-        <v>5516818</v>
+        <v>5590786</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>308900366</v>
+        <v>309970608</v>
       </c>
       <c r="E97" t="n">
-        <v>308900366</v>
+        <v>309970608</v>
       </c>
       <c r="F97" t="n">
-        <v>358076.063467601</v>
+        <v>357538.309264874</v>
       </c>
       <c r="G97" t="n">
-        <v>376730.1765531913</v>
+        <v>452182.1615593401</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>50921893</v>
+        <v>51246335</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4330936</v>
+        <v>4345885</v>
       </c>
       <c r="E98" t="n">
-        <v>29592980</v>
+        <v>29695125</v>
       </c>
       <c r="F98" t="n">
-        <v>223.0726800206158</v>
+        <v>4763.982004046272</v>
       </c>
       <c r="G98" t="n">
-        <v>1981.252162339246</v>
+        <v>4824.299789914139</v>
       </c>
       <c r="H98" t="n">
         <v>0.67</v>
       </c>
       <c r="I98" t="n">
-        <v>2617436</v>
+        <v>2626290</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90598877</v>
+        <v>90243447</v>
       </c>
       <c r="E99" t="n">
-        <v>522069806</v>
+        <v>520021663</v>
       </c>
       <c r="F99" t="n">
-        <v>137456.3864551945</v>
+        <v>143193.4903362558</v>
       </c>
       <c r="G99" t="n">
-        <v>136439.8646020654</v>
+        <v>145916.1031080996</v>
       </c>
       <c r="H99" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I99" t="n">
-        <v>16391402</v>
+        <v>16458656</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108707400</v>
+        <v>108747900</v>
       </c>
       <c r="E100" t="n">
-        <v>267462676</v>
+        <v>267562320</v>
       </c>
       <c r="F100" t="n">
-        <v>26062.07062888272</v>
+        <v>28513.10814484205</v>
       </c>
       <c r="G100" t="n">
-        <v>39427.37891097082</v>
+        <v>50739.04364731948</v>
       </c>
       <c r="H100" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I100" t="n">
-        <v>2347106</v>
+        <v>2164980</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>249197817</v>
+        <v>249472071</v>
       </c>
       <c r="E101" t="n">
-        <v>249200292</v>
+        <v>249474550</v>
       </c>
       <c r="F101" t="n">
-        <v>35978.7204051186</v>
+        <v>42181.22536152315</v>
       </c>
       <c r="G101" t="n">
-        <v>9013.601822822549</v>
+        <v>8744.195271020217</v>
       </c>
       <c r="H101" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I101" t="n">
-        <v>2671299</v>
+        <v>2660867</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30319648</v>
+        <v>30480818</v>
       </c>
       <c r="E102" t="n">
-        <v>135753501</v>
+        <v>136475126</v>
       </c>
       <c r="F102" t="n">
-        <v>97171.31018145445</v>
+        <v>96593.1519297796</v>
       </c>
       <c r="G102" t="n">
-        <v>97201.59925281251</v>
+        <v>104426.2752904893</v>
       </c>
       <c r="H102" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8629490</v>
+        <v>8704213</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2992415</v>
+        <v>3069613</v>
       </c>
       <c r="E103" t="n">
-        <v>2992415</v>
+        <v>3069613</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>440006</v>
+        <v>445138</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5922549</v>
+        <v>5952699</v>
       </c>
       <c r="E104" t="n">
-        <v>15543747</v>
+        <v>15622876</v>
       </c>
       <c r="F104" t="n">
-        <v>948.7783349978488</v>
+        <v>1079.259088937691</v>
       </c>
       <c r="G104" t="n">
-        <v>444.7029157297927</v>
+        <v>30.23027880020855</v>
       </c>
       <c r="H104" t="n">
-        <v>1.68</v>
+        <v>2.43</v>
       </c>
       <c r="I104" t="n">
-        <v>72879</v>
+        <v>73586</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16581576</v>
+        <v>16591282</v>
       </c>
       <c r="E105" t="n">
-        <v>76538154</v>
+        <v>76582988</v>
       </c>
       <c r="F105" t="n">
-        <v>22348.46200853257</v>
+        <v>55715.9058173521</v>
       </c>
       <c r="G105" t="n">
-        <v>44433.9911219156</v>
+        <v>24216.79661952551</v>
       </c>
       <c r="H105" t="n">
         <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>997833</v>
+        <v>974562</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48603951</v>
+        <v>48990631</v>
       </c>
       <c r="E106" t="n">
-        <v>315183689</v>
+        <v>317691204</v>
       </c>
       <c r="F106" t="n">
-        <v>82440.14412393459</v>
+        <v>96463.20758842571</v>
       </c>
       <c r="G106" t="n">
-        <v>163169.964725157</v>
+        <v>150646.0095363682</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>17393119</v>
+        <v>16983129</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2431341</v>
+        <v>2400423</v>
       </c>
       <c r="E107" t="n">
-        <v>4404833</v>
+        <v>4348818</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>120909</v>
+        <v>117458</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125694163</v>
+        <v>125872854</v>
       </c>
       <c r="E108" t="n">
-        <v>2081598288</v>
+        <v>2084557551</v>
       </c>
       <c r="F108" t="n">
-        <v>405771.2126042518</v>
+        <v>219834.8702995369</v>
       </c>
       <c r="G108" t="n">
-        <v>221453.6369104572</v>
+        <v>201866.3240648436</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4954362</v>
+        <v>4895735</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23601749</v>
+        <v>23925791</v>
       </c>
       <c r="E109" t="n">
-        <v>141214007</v>
+        <v>143152815</v>
       </c>
       <c r="F109" t="n">
-        <v>40643.82868863069</v>
+        <v>41173.64926160488</v>
       </c>
       <c r="G109" t="n">
-        <v>40572.94052706892</v>
+        <v>40987.62004192774</v>
       </c>
       <c r="H109" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="I109" t="n">
-        <v>13327149</v>
+        <v>13407764</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>997828</v>
+        <v>1043754</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>65909</v>
+        <v>69445</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2232907</v>
+        <v>2229788</v>
       </c>
       <c r="F111" t="n">
-        <v>3840.008035273309</v>
+        <v>2631.977092957336</v>
       </c>
       <c r="G111" t="n">
-        <v>407.7319341934243</v>
+        <v>399.5811572869627</v>
       </c>
       <c r="H111" t="n">
         <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>198641</v>
+        <v>194526</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142511838</v>
+        <v>142420183</v>
       </c>
       <c r="F112" t="n">
-        <v>3147.31946613123</v>
+        <v>3146.983919553243</v>
       </c>
       <c r="G112" t="n">
-        <v>909.7780937403381</v>
+        <v>909.6810991615013</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>38758</v>
+        <v>34866</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6917646</v>
+        <v>6868738</v>
       </c>
       <c r="E113" t="n">
-        <v>35589185</v>
+        <v>35337570</v>
       </c>
       <c r="F113" t="n">
-        <v>232.8243386102279</v>
+        <v>1374.238131885204</v>
       </c>
       <c r="G113" t="n">
-        <v>1172.616599018126</v>
+        <v>1004.400755129445</v>
       </c>
       <c r="H113" t="n">
-        <v>1.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I113" t="n">
-        <v>916786</v>
+        <v>917938</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29080590</v>
+        <v>29164115</v>
       </c>
       <c r="E114" t="n">
-        <v>39874573</v>
+        <v>39989100</v>
       </c>
       <c r="F114" t="n">
-        <v>4814.521210554246</v>
+        <v>4759.381403883945</v>
       </c>
       <c r="G114" t="n">
-        <v>4507.213168648119</v>
+        <v>4503.03892100047</v>
       </c>
       <c r="H114" t="n">
         <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>278822</v>
+        <v>270473</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8030296</v>
+        <v>7991304</v>
       </c>
       <c r="F115" t="n">
-        <v>339.4518799292309</v>
+        <v>450.5796067600312</v>
       </c>
       <c r="G115" t="n">
-        <v>6778.532781640338</v>
+        <v>6747.914991196497</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>690245</v>
+        <v>593422</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3375528</v>
+        <v>3373444</v>
       </c>
       <c r="E116" t="n">
-        <v>4521733</v>
+        <v>4518942</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>152294</v>
+        <v>152550</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34292406</v>
+        <v>34450686</v>
       </c>
       <c r="E117" t="n">
-        <v>171134916</v>
+        <v>171924802</v>
       </c>
       <c r="F117" t="n">
-        <v>77789.09957598419</v>
+        <v>87837.58609708818</v>
       </c>
       <c r="G117" t="n">
-        <v>64909.37212860252</v>
+        <v>74799.41369642437</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I117" t="n">
-        <v>10181015</v>
+        <v>9931624</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3434992</v>
+        <v>3494641</v>
       </c>
       <c r="E118" t="n">
-        <v>4934692</v>
+        <v>5020389</v>
       </c>
       <c r="F118" t="n">
-        <v>620.8672650136555</v>
+        <v>583.6686946794381</v>
       </c>
       <c r="G118" t="n">
-        <v>861.3826132417518</v>
+        <v>793.4266160202937</v>
       </c>
       <c r="H118" t="n">
-        <v>0.4</v>
+        <v>1.18</v>
       </c>
       <c r="I118" t="n">
-        <v>167493</v>
+        <v>166549</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>312902405</v>
+        <v>316283313</v>
       </c>
       <c r="E119" t="n">
-        <v>578940806</v>
+        <v>585196256</v>
       </c>
       <c r="F119" t="n">
-        <v>81980.54036810504</v>
+        <v>110423.3298775428</v>
       </c>
       <c r="G119" t="n">
-        <v>119627.7910490033</v>
+        <v>128530.5691274987</v>
       </c>
       <c r="H119" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I119" t="n">
-        <v>13107088</v>
+        <v>13115199</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70949616</v>
+        <v>71721229</v>
       </c>
       <c r="E120" t="n">
-        <v>676899420</v>
+        <v>684253601</v>
       </c>
       <c r="F120" t="n">
-        <v>2999.187812267433</v>
+        <v>4890.807836179108</v>
       </c>
       <c r="G120" t="n">
-        <v>41860.735969187</v>
+        <v>43226.80082407609</v>
       </c>
       <c r="H120" t="n">
         <v>0.02</v>
       </c>
       <c r="I120" t="n">
-        <v>21482939</v>
+        <v>21456519</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37874176</v>
+        <v>38157538</v>
       </c>
       <c r="E121" t="n">
-        <v>49519513</v>
+        <v>49889852</v>
       </c>
       <c r="F121" t="n">
-        <v>5706.048626176569</v>
+        <v>212.9208709567966</v>
       </c>
       <c r="G121" t="n">
-        <v>976.2018838535732</v>
+        <v>6231.127413032264</v>
       </c>
       <c r="H121" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I121" t="n">
-        <v>320919</v>
+        <v>504365</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9530402</v>
+        <v>9541536</v>
       </c>
       <c r="E122" t="n">
-        <v>28278903</v>
+        <v>28311940</v>
       </c>
       <c r="F122" t="n">
-        <v>21.33359457177917</v>
+        <v>532.1544745743641</v>
       </c>
       <c r="G122" t="n">
-        <v>1026.872046327518</v>
+        <v>5762.990736430876</v>
       </c>
       <c r="H122" t="n">
-        <v>2.44</v>
+        <v>0.7</v>
       </c>
       <c r="I122" t="n">
-        <v>5726406</v>
+        <v>6055317</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2252685</v>
+        <v>2260831</v>
       </c>
       <c r="E123" t="n">
-        <v>7708348</v>
+        <v>7736226</v>
       </c>
       <c r="F123" t="n">
-        <v>721.1065079176328</v>
+        <v>792.6526083691438</v>
       </c>
       <c r="G123" t="n">
-        <v>1398.256469430115</v>
+        <v>1061.781068190508</v>
       </c>
       <c r="H123" t="n">
-        <v>1.41</v>
+        <v>0.9</v>
       </c>
       <c r="I123" t="n">
-        <v>843817</v>
+        <v>893865</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7371484</v>
+        <v>7378505</v>
       </c>
       <c r="E124" t="n">
-        <v>7371495</v>
+        <v>7378516</v>
       </c>
       <c r="F124" t="n">
-        <v>727.3995837150824</v>
+        <v>659.6135544097773</v>
       </c>
       <c r="G124" t="n">
-        <v>1199.067591548348</v>
+        <v>684.4667808871482</v>
       </c>
       <c r="H124" t="n">
-        <v>0.97</v>
+        <v>1.68</v>
       </c>
       <c r="I124" t="n">
-        <v>329741</v>
+        <v>331471</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6120974</v>
+        <v>6143774</v>
       </c>
       <c r="E125" t="n">
-        <v>6120974</v>
+        <v>6143774</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>503730</v>
+        <v>505382</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6219989</v>
+        <v>6219840</v>
       </c>
       <c r="E126" t="n">
-        <v>22719214</v>
+        <v>22718669</v>
       </c>
       <c r="F126" t="n">
-        <v>5970.815723871893</v>
+        <v>5975.852315828825</v>
       </c>
       <c r="G126" t="n">
-        <v>7064.3390786431</v>
+        <v>1858.445714571306</v>
       </c>
       <c r="H126" t="n">
         <v>0.89</v>
       </c>
       <c r="I126" t="n">
-        <v>531798</v>
+        <v>526608</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44635499</v>
+        <v>44887500</v>
       </c>
       <c r="E127" t="n">
-        <v>44635499</v>
+        <v>44887500</v>
       </c>
       <c r="F127" t="n">
-        <v>64098.20568054165</v>
+        <v>66830.76801363805</v>
       </c>
       <c r="G127" t="n">
-        <v>80538.67330842113</v>
+        <v>89210.50157272245</v>
       </c>
       <c r="H127" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>7465529</v>
+        <v>8031487</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>148819192</v>
+        <v>149360120</v>
       </c>
       <c r="F128" t="n">
-        <v>5106.096898303164</v>
+        <v>3809.016700503755</v>
       </c>
       <c r="G128" t="n">
-        <v>1780.179058170803</v>
+        <v>495.9090229524697</v>
       </c>
       <c r="H128" t="n">
         <v>0.13</v>
       </c>
       <c r="I128" t="n">
-        <v>1594766</v>
+        <v>1608639</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3074902</v>
+        <v>3077070</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73732</v>
+        <v>73829</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20335134</v>
+        <v>20323237</v>
       </c>
       <c r="F130" t="n">
-        <v>395.7222680562458</v>
+        <v>680.3678021389059</v>
       </c>
       <c r="G130" t="n">
-        <v>1185.599962500656</v>
+        <v>992.9922467245501</v>
       </c>
       <c r="H130" t="n">
-        <v>0.98</v>
+        <v>1.66</v>
       </c>
       <c r="I130" t="n">
-        <v>2912902</v>
+        <v>2917206</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1241283</v>
+        <v>1243727</v>
       </c>
       <c r="E131" t="n">
-        <v>3754863</v>
+        <v>3761760</v>
       </c>
       <c r="F131" t="n">
-        <v>776.2989237560164</v>
+        <v>776.2161598516321</v>
       </c>
       <c r="G131" t="n">
-        <v>735.0418149838548</v>
+        <v>662.9744092288349</v>
       </c>
       <c r="H131" t="n">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="I131" t="n">
-        <v>8892.58</v>
+        <v>10473.8</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>602744561</v>
+        <v>607178084</v>
       </c>
       <c r="E132" t="n">
-        <v>2334340758</v>
+        <v>2351511135</v>
       </c>
       <c r="F132" t="n">
-        <v>370547.1561606564</v>
+        <v>460831.8600698815</v>
       </c>
       <c r="G132" t="n">
-        <v>617800.1268068756</v>
+        <v>718033.3666072714</v>
       </c>
       <c r="H132" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>33347915</v>
+        <v>33550827</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3685851</v>
+        <v>3677280</v>
       </c>
       <c r="E133" t="n">
-        <v>6283034</v>
+        <v>6268422</v>
       </c>
       <c r="F133" t="n">
-        <v>5300.234870899261</v>
+        <v>5330.439047836529</v>
       </c>
       <c r="G133" t="n">
-        <v>5651.612313382554</v>
+        <v>5400.481517946519</v>
       </c>
       <c r="H133" t="n">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="I133" t="n">
-        <v>1288752</v>
+        <v>1287849</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>119317067</v>
+        <v>119806539</v>
       </c>
       <c r="E134" t="n">
-        <v>1037388563</v>
+        <v>1041644218</v>
       </c>
       <c r="F134" t="n">
-        <v>152206.8146474803</v>
+        <v>106028.5312754579</v>
       </c>
       <c r="G134" t="n">
-        <v>106019.204134101</v>
+        <v>104375.1417223</v>
       </c>
       <c r="H134" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I134" t="n">
-        <v>8928341</v>
+        <v>9042270</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1058527534</v>
+        <v>1052021354</v>
       </c>
       <c r="E135" t="n">
-        <v>1162795397</v>
+        <v>1155648340</v>
       </c>
       <c r="F135" t="n">
-        <v>12822.0789172136</v>
+        <v>11939.42434302835</v>
       </c>
       <c r="G135" t="n">
-        <v>15997.67613529487</v>
+        <v>20111.82697872012</v>
       </c>
       <c r="H135" t="n">
-        <v>0.52</v>
+        <v>0.73</v>
       </c>
       <c r="I135" t="n">
-        <v>10425302</v>
+        <v>10490645</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1113533</v>
+        <v>1105435</v>
       </c>
       <c r="E136" t="n">
-        <v>4311842</v>
+        <v>4280484</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>438362</v>
+        <v>316611</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>121629212</v>
+        <v>121014820</v>
       </c>
       <c r="E137" t="n">
-        <v>466589235</v>
+        <v>464232328</v>
       </c>
       <c r="F137" t="n">
-        <v>126728.4535569314</v>
+        <v>181043.5673261282</v>
       </c>
       <c r="G137" t="n">
-        <v>205126.7258415944</v>
+        <v>231219.7106162264</v>
       </c>
       <c r="H137" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I137" t="n">
-        <v>23729021</v>
+        <v>30570645</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3212739</v>
+        <v>3208480</v>
       </c>
       <c r="E138" t="n">
-        <v>30441178</v>
+        <v>30400818</v>
       </c>
       <c r="F138" t="n">
-        <v>4606.175420677266</v>
+        <v>4616.805810960866</v>
       </c>
       <c r="G138" t="n">
-        <v>4715.22264620892</v>
+        <v>3135.202355690345</v>
       </c>
       <c r="H138" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I138" t="n">
-        <v>236800</v>
+        <v>234203</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22939804</v>
+        <v>23215473</v>
       </c>
       <c r="E139" t="n">
-        <v>22939804</v>
+        <v>23215473</v>
       </c>
       <c r="F139" t="n">
-        <v>8208.813014350833</v>
+        <v>11059.14667697217</v>
       </c>
       <c r="G139" t="n">
-        <v>2416.491609065459</v>
+        <v>4648.065274218977</v>
       </c>
       <c r="H139" t="n">
-        <v>1.39</v>
+        <v>0.65</v>
       </c>
       <c r="I139" t="n">
-        <v>623829</v>
+        <v>596028</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494773753</v>
+        <v>494866175</v>
       </c>
       <c r="E140" t="n">
-        <v>494773753</v>
+        <v>494866175</v>
       </c>
       <c r="F140" t="n">
-        <v>927873.6298681677</v>
+        <v>981265.6585583817</v>
       </c>
       <c r="G140" t="n">
-        <v>802459.8725956612</v>
+        <v>827904.5715767434</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>32951115</v>
+        <v>33477650</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>32715329</v>
+        <v>32158352</v>
       </c>
       <c r="F141" t="n">
-        <v>43057.96448651415</v>
+        <v>57895.05247245292</v>
       </c>
       <c r="G141" t="n">
-        <v>51195.14547671317</v>
+        <v>69769.08658253586</v>
       </c>
       <c r="H141" t="n">
         <v>0.43</v>
       </c>
       <c r="I141" t="n">
-        <v>5610938</v>
+        <v>5618187</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>767061</v>
+        <v>762912</v>
       </c>
       <c r="E142" t="n">
-        <v>12234357</v>
+        <v>12168172</v>
       </c>
       <c r="F142" t="n">
-        <v>75.24955707385467</v>
+        <v>75.24153445916845</v>
       </c>
       <c r="G142" t="n">
-        <v>25.66484351523451</v>
+        <v>25.66210729779336</v>
       </c>
       <c r="H142" t="n">
         <v>0.64</v>
       </c>
       <c r="I142" t="n">
-        <v>65028</v>
+        <v>64402</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2647638356</v>
+        <v>2659660494</v>
       </c>
       <c r="E143" t="n">
-        <v>2811103010</v>
+        <v>2823867393</v>
       </c>
       <c r="F143" t="n">
-        <v>3577.811463491002</v>
+        <v>3717.446535718208</v>
       </c>
       <c r="G143" t="n">
-        <v>22202.93061578442</v>
+        <v>19063.48997480331</v>
       </c>
       <c r="H143" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I143" t="n">
-        <v>40704888</v>
+        <v>39633019</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1652079</v>
+        <v>1657471</v>
       </c>
       <c r="E144" t="n">
-        <v>1657911</v>
+        <v>1663322</v>
       </c>
       <c r="F144" t="n">
-        <v>372.989995011288</v>
+        <v>866.7043999403232</v>
       </c>
       <c r="G144" t="n">
-        <v>468.8639950017162</v>
+        <v>551.4297961504375</v>
       </c>
       <c r="H144" t="n">
-        <v>2.28</v>
+        <v>1.79</v>
       </c>
       <c r="I144" t="n">
-        <v>407606</v>
+        <v>414742</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>61934758</v>
+        <v>62035163</v>
       </c>
       <c r="E145" t="n">
-        <v>151921765</v>
+        <v>152168051</v>
       </c>
       <c r="F145" t="n">
-        <v>745.5423421226722</v>
+        <v>2994.008065979673</v>
       </c>
       <c r="G145" t="n">
-        <v>2052.379081397748</v>
+        <v>4989.826045250617</v>
       </c>
       <c r="H145" t="n">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
       <c r="I145" t="n">
-        <v>22572297</v>
+        <v>22627544</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>719938901</v>
+        <v>734305322</v>
       </c>
       <c r="E146" t="n">
-        <v>1110209350</v>
+        <v>1132363639</v>
       </c>
       <c r="F146" t="n">
-        <v>162652.1530093969</v>
+        <v>140988.9555320519</v>
       </c>
       <c r="G146" t="n">
-        <v>142320.8427287908</v>
+        <v>157752.3595289424</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>214782391</v>
+        <v>178747474</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23070156</v>
+        <v>23217981</v>
       </c>
       <c r="E147" t="n">
-        <v>23070156</v>
+        <v>23217981</v>
       </c>
       <c r="F147" t="n">
-        <v>5070.10746550834</v>
+        <v>6060.06741016659</v>
       </c>
       <c r="G147" t="n">
-        <v>7771.793946645098</v>
+        <v>3576.129248132779</v>
       </c>
       <c r="H147" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="I147" t="n">
-        <v>6471694</v>
+        <v>6241434</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3788215</v>
+        <v>3790503</v>
       </c>
       <c r="E148" t="n">
-        <v>8265837</v>
+        <v>8270828</v>
       </c>
       <c r="F148" t="n">
-        <v>5736.530696169493</v>
+        <v>5695.50780638274</v>
       </c>
       <c r="G148" t="n">
-        <v>5733.806145264925</v>
+        <v>5614.00371396244</v>
       </c>
       <c r="H148" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1053589</v>
+        <v>1070514</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9355096</v>
+        <v>9347266</v>
       </c>
       <c r="E149" t="n">
-        <v>9355096</v>
+        <v>9347266</v>
       </c>
       <c r="F149" t="n">
-        <v>90117.86170725647</v>
+        <v>86695.41697458038</v>
       </c>
       <c r="G149" t="n">
-        <v>80955.18707203484</v>
+        <v>79403.4630925723</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>3127910</v>
+        <v>3106247</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>492375366</v>
+        <v>494845017</v>
       </c>
       <c r="E150" t="n">
-        <v>1714787206</v>
+        <v>1723388220</v>
       </c>
       <c r="F150" t="n">
-        <v>712784.9904964982</v>
+        <v>810711.4786996439</v>
       </c>
       <c r="G150" t="n">
-        <v>823878.7521498291</v>
+        <v>909685.5496379603</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>31415129</v>
+        <v>30948324</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48179188</v>
+        <v>48336439</v>
       </c>
       <c r="E151" t="n">
-        <v>118906683</v>
+        <v>119294787</v>
       </c>
       <c r="F151" t="n">
-        <v>8340.0471971681</v>
+        <v>8296.059012445656</v>
       </c>
       <c r="G151" t="n">
-        <v>5559.563126843191</v>
+        <v>8087.699699732023</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>43057</v>
+        <v>43076</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7692595</v>
+        <v>7686372</v>
       </c>
       <c r="E152" t="n">
-        <v>19984535</v>
+        <v>19968367</v>
       </c>
       <c r="F152" t="n">
-        <v>1266.350729888408</v>
+        <v>1661.916352541731</v>
       </c>
       <c r="G152" t="n">
-        <v>7994.128841343976</v>
+        <v>5307.753654934873</v>
       </c>
       <c r="H152" t="n">
-        <v>2.94</v>
+        <v>1.5</v>
       </c>
       <c r="I152" t="n">
-        <v>695925</v>
+        <v>701596</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19210344609</v>
+        <v>19193964948</v>
       </c>
       <c r="F153" t="n">
-        <v>52431.65749053888</v>
+        <v>52444.10785942442</v>
       </c>
       <c r="G153" t="n">
-        <v>50155.08615659401</v>
+        <v>50107.13969778067</v>
       </c>
       <c r="H153" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48909296</v>
+        <v>48803513</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2632593</v>
+        <v>2648370</v>
       </c>
       <c r="E154" t="n">
-        <v>10530373</v>
+        <v>10593481</v>
       </c>
       <c r="F154" t="n">
-        <v>3843.270657964385</v>
+        <v>22136.4093291923</v>
       </c>
       <c r="G154" t="n">
-        <v>23175.70765576575</v>
+        <v>12882.10299206169</v>
       </c>
       <c r="H154" t="n">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="I154" t="n">
-        <v>1183849</v>
+        <v>1210351</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>216308583</v>
+        <v>216504589</v>
       </c>
       <c r="E155" t="n">
-        <v>665067492</v>
+        <v>665670135</v>
       </c>
       <c r="F155" t="n">
-        <v>129195.6042581395</v>
+        <v>168538.8658134466</v>
       </c>
       <c r="G155" t="n">
-        <v>141380.6498971501</v>
+        <v>152728.7850289615</v>
       </c>
       <c r="H155" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>11763847</v>
+        <v>11656272</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>402352087</v>
+        <v>405132000</v>
       </c>
       <c r="E156" t="n">
-        <v>2299154783</v>
+        <v>2315039999</v>
       </c>
       <c r="F156" t="n">
-        <v>98809.80098659723</v>
+        <v>146802.7088746203</v>
       </c>
       <c r="G156" t="n">
-        <v>201106.0629147358</v>
+        <v>273474.0780943905</v>
       </c>
       <c r="H156" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>37198547</v>
+        <v>37163437</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData20250220.xlsx
+++ b/BitgetData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3955549</v>
+        <v>3946261</v>
       </c>
       <c r="F2" t="n">
-        <v>2188.377288661667</v>
+        <v>1145.682106674621</v>
       </c>
       <c r="G2" t="n">
-        <v>2054.239688839248</v>
+        <v>1855.535147274793</v>
       </c>
       <c r="H2" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I2" t="n">
-        <v>121717</v>
+        <v>122572</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>608381287</v>
+        <v>607975013</v>
       </c>
       <c r="E3" t="n">
-        <v>1180460233</v>
+        <v>1179671927</v>
       </c>
       <c r="F3" t="n">
-        <v>71844.39970650413</v>
+        <v>85905.90567020547</v>
       </c>
       <c r="G3" t="n">
-        <v>83813.23429155472</v>
+        <v>84880.29783329142</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>22687225</v>
+        <v>22923457</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>247257851</v>
+        <v>247701323</v>
       </c>
       <c r="E4" t="n">
-        <v>1550519228</v>
+        <v>1553300181</v>
       </c>
       <c r="F4" t="n">
-        <v>296719.9260324026</v>
+        <v>320791.8476286972</v>
       </c>
       <c r="G4" t="n">
-        <v>306056.9403571921</v>
+        <v>311346.8294278174</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>15990528</v>
+        <v>16011257</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141514185</v>
+        <v>142382925</v>
       </c>
       <c r="E5" t="n">
-        <v>156819832</v>
+        <v>157782532</v>
       </c>
       <c r="F5" t="n">
-        <v>8799.014615524598</v>
+        <v>8579.408193981251</v>
       </c>
       <c r="G5" t="n">
-        <v>529.5334778761384</v>
+        <v>491.8191111768605</v>
       </c>
       <c r="H5" t="n">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>34802657</v>
+        <v>34889272</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49043912</v>
+        <v>47814303</v>
       </c>
       <c r="E6" t="n">
-        <v>61352676</v>
+        <v>59814467</v>
       </c>
       <c r="F6" t="n">
-        <v>5255.788568971954</v>
+        <v>3958.538052421306</v>
       </c>
       <c r="G6" t="n">
-        <v>7052.629113198726</v>
+        <v>4616.789612565052</v>
       </c>
       <c r="H6" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I6" t="n">
-        <v>510761</v>
+        <v>603796</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69964982</v>
+        <v>70015558</v>
       </c>
       <c r="E7" t="n">
-        <v>139370044</v>
+        <v>139470792</v>
       </c>
       <c r="F7" t="n">
-        <v>9942.92386383468</v>
+        <v>9623.951531244249</v>
       </c>
       <c r="G7" t="n">
-        <v>13284.67599101553</v>
+        <v>12181.47417339486</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1258700</v>
+        <v>1229604</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41845961</v>
+        <v>41899144</v>
       </c>
       <c r="E8" t="n">
-        <v>46831658</v>
+        <v>46891177</v>
       </c>
       <c r="F8" t="n">
-        <v>611.5518992951982</v>
+        <v>533.3202214527115</v>
       </c>
       <c r="G8" t="n">
-        <v>327.9767227692723</v>
+        <v>278.4320172400861</v>
       </c>
       <c r="H8" t="n">
         <v>0.46</v>
       </c>
       <c r="I8" t="n">
-        <v>3842792</v>
+        <v>3833174</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14308250</v>
+        <v>14302305</v>
       </c>
       <c r="E9" t="n">
-        <v>42165488</v>
+        <v>42147969</v>
       </c>
       <c r="F9" t="n">
-        <v>4900.404298197346</v>
+        <v>5010.816401321621</v>
       </c>
       <c r="G9" t="n">
-        <v>5096.378946117386</v>
+        <v>4836.625315171435</v>
       </c>
       <c r="H9" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="I9" t="n">
-        <v>834080</v>
+        <v>840769</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7204262</v>
+        <v>7202206</v>
       </c>
       <c r="E10" t="n">
-        <v>30967000</v>
+        <v>30958161</v>
       </c>
       <c r="F10" t="n">
-        <v>4520.237441176043</v>
+        <v>24469.62549115737</v>
       </c>
       <c r="G10" t="n">
-        <v>21376.93998750176</v>
+        <v>23196.71888738625</v>
       </c>
       <c r="H10" t="n">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="I10" t="n">
-        <v>690909</v>
+        <v>690223</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>565938934</v>
+        <v>569048806</v>
       </c>
       <c r="E11" t="n">
-        <v>707905493</v>
+        <v>711795481</v>
       </c>
       <c r="F11" t="n">
-        <v>277770.6971544525</v>
+        <v>241463.0842798873</v>
       </c>
       <c r="G11" t="n">
-        <v>287380.4468509687</v>
+        <v>292726.9156868337</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>52744888</v>
+        <v>53653304</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4654386</v>
+        <v>4669789</v>
       </c>
       <c r="E12" t="n">
-        <v>28588787</v>
+        <v>28683393</v>
       </c>
       <c r="F12" t="n">
-        <v>11266.3997965231</v>
+        <v>7702.108008227395</v>
       </c>
       <c r="G12" t="n">
-        <v>7820.773825895404</v>
+        <v>7782.117346237752</v>
       </c>
       <c r="H12" t="n">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="I12" t="n">
-        <v>533190</v>
+        <v>541320</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23118752</v>
+        <v>23054802</v>
       </c>
       <c r="E13" t="n">
-        <v>23161877</v>
+        <v>23097808</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>881984</v>
+        <v>892340</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82327909</v>
+        <v>82267828</v>
       </c>
       <c r="E14" t="n">
-        <v>242218920</v>
+        <v>242042154</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>389655</v>
+        <v>388145</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>478498668</v>
+        <v>484128915</v>
       </c>
       <c r="E15" t="n">
-        <v>478498668</v>
+        <v>484128912</v>
       </c>
       <c r="F15" t="n">
-        <v>12001.12527538468</v>
+        <v>12689.93415578303</v>
       </c>
       <c r="G15" t="n">
-        <v>19995.38994456551</v>
+        <v>25280.64398476931</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>66987120</v>
+        <v>67952983</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4642522</v>
+        <v>4681908</v>
       </c>
       <c r="E16" t="n">
-        <v>4642522</v>
+        <v>4681908</v>
       </c>
       <c r="F16" t="n">
-        <v>409.9649226138916</v>
+        <v>6828.688473943128</v>
       </c>
       <c r="G16" t="n">
-        <v>6678.560151730178</v>
+        <v>5440.301209844079</v>
       </c>
       <c r="H16" t="n">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
       <c r="I16" t="n">
-        <v>1977819</v>
+        <v>2026909</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3423005</v>
+        <v>3432143</v>
       </c>
       <c r="E17" t="n">
-        <v>3423005</v>
+        <v>3432143</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>544242</v>
+        <v>544814</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167809922</v>
+        <v>167965596</v>
       </c>
       <c r="E18" t="n">
-        <v>207755671</v>
+        <v>207948403</v>
       </c>
       <c r="F18" t="n">
-        <v>5023.662154120279</v>
+        <v>9851.216292758059</v>
       </c>
       <c r="G18" t="n">
-        <v>12879.0696225526</v>
+        <v>8685.268443564077</v>
       </c>
       <c r="H18" t="n">
-        <v>0.78</v>
+        <v>1.45</v>
       </c>
       <c r="I18" t="n">
-        <v>401148</v>
+        <v>402414</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6917435</v>
+        <v>6916150</v>
       </c>
       <c r="E19" t="n">
-        <v>9527075</v>
+        <v>9525305</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>665649</v>
+        <v>665658</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>900202</v>
+        <v>901596</v>
       </c>
       <c r="E20" t="n">
-        <v>6301411</v>
+        <v>6311170</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>168521</v>
+        <v>156318</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>109899357</v>
+        <v>110178037</v>
       </c>
       <c r="E21" t="n">
-        <v>427740372</v>
+        <v>428825025</v>
       </c>
       <c r="F21" t="n">
-        <v>31266.64260526244</v>
+        <v>38432.94557274218</v>
       </c>
       <c r="G21" t="n">
-        <v>64836.15473557308</v>
+        <v>71654.80005984189</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>7848751</v>
+        <v>7882713</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1683762</v>
+        <v>1684198</v>
       </c>
       <c r="E22" t="n">
-        <v>12127995</v>
+        <v>12131135</v>
       </c>
       <c r="F22" t="n">
-        <v>6037.723588774802</v>
+        <v>6037.752689135966</v>
       </c>
       <c r="G22" t="n">
-        <v>3546.0807824365</v>
+        <v>3546.097873684545</v>
       </c>
       <c r="H22" t="n">
         <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>110355</v>
+        <v>98134</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>138154005</v>
+        <v>138847933</v>
       </c>
       <c r="E23" t="n">
-        <v>138154005</v>
+        <v>138847933</v>
       </c>
       <c r="F23" t="n">
-        <v>967332.9312530211</v>
+        <v>1011494.521638239</v>
       </c>
       <c r="G23" t="n">
-        <v>1454418.833273804</v>
+        <v>1222464.828717016</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>66444611</v>
+        <v>66519490</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65529147</v>
+        <v>65859590</v>
       </c>
       <c r="E24" t="n">
-        <v>336046906</v>
+        <v>337741488</v>
       </c>
       <c r="F24" t="n">
-        <v>86187.76963192405</v>
+        <v>94407.02373550182</v>
       </c>
       <c r="G24" t="n">
-        <v>115077.5674066588</v>
+        <v>129145.0110753798</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>19871387</v>
+        <v>19916444</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>256194314</v>
+        <v>256871797</v>
       </c>
       <c r="E25" t="n">
-        <v>256194314</v>
+        <v>256871797</v>
       </c>
       <c r="F25" t="n">
-        <v>361869.0627387186</v>
+        <v>325420.3434564797</v>
       </c>
       <c r="G25" t="n">
-        <v>489554.5081966354</v>
+        <v>468535.6227562404</v>
       </c>
       <c r="H25" t="n">
         <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>14934507</v>
+        <v>14923044</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1132577</v>
+        <v>1131607</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>187079</v>
+        <v>187018</v>
       </c>
     </row>
     <row r="27">
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3990241</v>
+        <v>4009972</v>
       </c>
       <c r="E28" t="n">
-        <v>3991221</v>
+        <v>4010938</v>
       </c>
       <c r="F28" t="n">
-        <v>701.0571073805165</v>
+        <v>863.1882678310872</v>
       </c>
       <c r="G28" t="n">
-        <v>4050.172752152186</v>
+        <v>3796.530763407332</v>
       </c>
       <c r="H28" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="I28" t="n">
-        <v>280028</v>
+        <v>287566</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6815039</v>
+        <v>6848014</v>
       </c>
       <c r="E29" t="n">
-        <v>16553204</v>
+        <v>16633298</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>465184</v>
+        <v>469007</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>101043193</v>
+        <v>101132101</v>
       </c>
       <c r="E30" t="n">
-        <v>125989017</v>
+        <v>126099875</v>
       </c>
       <c r="F30" t="n">
-        <v>91382.6349796291</v>
+        <v>101327.4081898403</v>
       </c>
       <c r="G30" t="n">
-        <v>95600.01309755638</v>
+        <v>99030.76758942516</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11355513</v>
+        <v>11349162</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1154769</v>
+        <v>1154365</v>
       </c>
       <c r="E31" t="n">
-        <v>12549602</v>
+        <v>12545203</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>31776</v>
+        <v>31566</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>75643779</v>
+        <v>77088526</v>
       </c>
       <c r="E32" t="n">
-        <v>211716972</v>
+        <v>215748354</v>
       </c>
       <c r="F32" t="n">
-        <v>51743.81575563144</v>
+        <v>74261.29657984804</v>
       </c>
       <c r="G32" t="n">
-        <v>72645.27182447497</v>
+        <v>80316.15483810639</v>
       </c>
       <c r="H32" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>34883312</v>
+        <v>35212983</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4163271</v>
+        <v>4161675</v>
       </c>
       <c r="E33" t="n">
-        <v>8210322</v>
+        <v>8207174</v>
       </c>
       <c r="F33" t="n">
-        <v>7258.729219095189</v>
+        <v>6813.206157677229</v>
       </c>
       <c r="G33" t="n">
-        <v>9150.652083369976</v>
+        <v>7610.710798605162</v>
       </c>
       <c r="H33" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="I33" t="n">
-        <v>1628345</v>
+        <v>1627912</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37222882</v>
+        <v>37166445</v>
       </c>
       <c r="F34" t="n">
-        <v>668.091650352382</v>
+        <v>676.5520303410301</v>
       </c>
       <c r="G34" t="n">
-        <v>695.8937937223623</v>
+        <v>582.2629951735428</v>
       </c>
       <c r="H34" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="I34" t="n">
-        <v>67729</v>
+        <v>68224</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7648456</v>
+        <v>7642547</v>
       </c>
       <c r="E35" t="n">
-        <v>18013635</v>
+        <v>17999717</v>
       </c>
       <c r="F35" t="n">
-        <v>3449.760296434255</v>
+        <v>3449.776923440953</v>
       </c>
       <c r="G35" t="n">
-        <v>2931.812168776716</v>
+        <v>2931.826299399246</v>
       </c>
       <c r="H35" t="n">
         <v>0.93</v>
       </c>
       <c r="I35" t="n">
-        <v>34134</v>
+        <v>34233</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23121933</v>
+        <v>23076778</v>
       </c>
       <c r="F36" t="n">
-        <v>5145.556984093152</v>
+        <v>5146.940724898674</v>
       </c>
       <c r="G36" t="n">
-        <v>5516.130368624879</v>
+        <v>5486.759314806536</v>
       </c>
       <c r="H36" t="n">
-        <v>0.95</v>
+        <v>1.54</v>
       </c>
       <c r="I36" t="n">
-        <v>122239</v>
+        <v>122362</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>74721754</v>
+        <v>74864075</v>
       </c>
       <c r="E37" t="n">
-        <v>155832803</v>
+        <v>156129615</v>
       </c>
       <c r="F37" t="n">
-        <v>81708.11917544498</v>
+        <v>76769.07937306316</v>
       </c>
       <c r="G37" t="n">
-        <v>98240.7291609481</v>
+        <v>118197.2674468525</v>
       </c>
       <c r="H37" t="n">
         <v>0.24</v>
       </c>
       <c r="I37" t="n">
-        <v>15365984</v>
+        <v>15358456</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>273685491</v>
+        <v>277882607</v>
       </c>
       <c r="E38" t="n">
-        <v>273685491</v>
+        <v>277882607</v>
       </c>
       <c r="F38" t="n">
-        <v>31973.51815240712</v>
+        <v>30387.41908069187</v>
       </c>
       <c r="G38" t="n">
-        <v>25747.30879214365</v>
+        <v>27929.57886251057</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="I38" t="n">
-        <v>10472776</v>
+        <v>10401828</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>200724763</v>
+        <v>201712517</v>
       </c>
       <c r="E39" t="n">
-        <v>697335966</v>
+        <v>700767514</v>
       </c>
       <c r="F39" t="n">
-        <v>160744.4931587152</v>
+        <v>140319.3691355629</v>
       </c>
       <c r="G39" t="n">
-        <v>391307.964849281</v>
+        <v>348986.568055843</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>25987305</v>
+        <v>26046511</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3793731</v>
+        <v>3812472</v>
       </c>
       <c r="E40" t="n">
-        <v>3793731</v>
+        <v>3812471</v>
       </c>
       <c r="F40" t="n">
-        <v>508.374566890168</v>
+        <v>434.8885186921686</v>
       </c>
       <c r="G40" t="n">
-        <v>2277.222744414241</v>
+        <v>1898.418165507679</v>
       </c>
       <c r="H40" t="n">
         <v>0.68</v>
       </c>
       <c r="I40" t="n">
-        <v>3220076</v>
+        <v>3218813</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>116027068</v>
+        <v>116281940</v>
       </c>
       <c r="E41" t="n">
-        <v>493319975</v>
+        <v>494382097</v>
       </c>
       <c r="F41" t="n">
-        <v>5864.325894810049</v>
+        <v>5694.843098125588</v>
       </c>
       <c r="G41" t="n">
-        <v>8197.754897537678</v>
+        <v>7657.423929739194</v>
       </c>
       <c r="H41" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I41" t="n">
-        <v>14399567</v>
+        <v>14430225</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>527420</v>
+        <v>527280</v>
       </c>
       <c r="E42" t="n">
-        <v>6397086</v>
+        <v>6395391</v>
       </c>
       <c r="F42" t="n">
-        <v>530.8549020303886</v>
+        <v>719.6648835227002</v>
       </c>
       <c r="G42" t="n">
-        <v>1495.698318962703</v>
+        <v>1264.099738947417</v>
       </c>
       <c r="H42" t="n">
         <v>0.75</v>
       </c>
       <c r="I42" t="n">
-        <v>2753967</v>
+        <v>2750136</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1310605049</v>
+        <v>1321184825</v>
       </c>
       <c r="E43" t="n">
-        <v>6284619614</v>
+        <v>6335351807</v>
       </c>
       <c r="F43" t="n">
-        <v>34863.3967600657</v>
+        <v>78101.5946955929</v>
       </c>
       <c r="G43" t="n">
-        <v>37488.40157432782</v>
+        <v>65211.60460336903</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>166781423</v>
+        <v>167065050</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6052443573</v>
+        <v>6056302649</v>
       </c>
       <c r="E44" t="n">
-        <v>6052443573</v>
+        <v>6056302649</v>
       </c>
       <c r="F44" t="n">
-        <v>1989008.138270406</v>
+        <v>838775.3557830955</v>
       </c>
       <c r="G44" t="n">
-        <v>1833383.862761928</v>
+        <v>1937756.883154501</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>101424595</v>
+        <v>100370030</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>267895626</v>
+        <v>270299834</v>
       </c>
       <c r="E45" t="n">
-        <v>1156386243</v>
+        <v>1166764137</v>
       </c>
       <c r="F45" t="n">
-        <v>95567.00630913014</v>
+        <v>101111.3685980653</v>
       </c>
       <c r="G45" t="n">
-        <v>92464.72792237048</v>
+        <v>94253.50452382441</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>83677791</v>
+        <v>108090115</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115640531</v>
+        <v>116168034</v>
       </c>
       <c r="E46" t="n">
-        <v>115640531</v>
+        <v>116168034</v>
       </c>
       <c r="F46" t="n">
-        <v>40531.89253797576</v>
+        <v>34076.94696163119</v>
       </c>
       <c r="G46" t="n">
-        <v>38713.92560770236</v>
+        <v>37743.13123235768</v>
       </c>
       <c r="H46" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I46" t="n">
-        <v>6138004</v>
+        <v>6205195</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2045278104</v>
+        <v>2045912054</v>
       </c>
       <c r="E47" t="n">
-        <v>2045278104</v>
+        <v>2045912054</v>
       </c>
       <c r="F47" t="n">
-        <v>226287.8924618657</v>
+        <v>226288.9831145431</v>
       </c>
       <c r="G47" t="n">
-        <v>200109.4695818314</v>
+        <v>200110.4340608691</v>
       </c>
       <c r="H47" t="n">
         <v>0.09</v>
       </c>
       <c r="I47" t="n">
-        <v>6147989846</v>
+        <v>6138885116</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>9812447</v>
+        <v>9800030</v>
       </c>
       <c r="F48" t="n">
-        <v>6537.918100011495</v>
+        <v>6530.879245626686</v>
       </c>
       <c r="G48" t="n">
-        <v>6317.914701338574</v>
+        <v>6146.114468647657</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>167615</v>
+        <v>166339</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4373282</v>
+        <v>4360996</v>
       </c>
       <c r="E49" t="n">
-        <v>5741549</v>
+        <v>5725418</v>
       </c>
       <c r="F49" t="n">
-        <v>12562.85769670881</v>
+        <v>12623.272155689</v>
       </c>
       <c r="G49" t="n">
-        <v>16243.02255905402</v>
+        <v>16347.64695559439</v>
       </c>
       <c r="H49" t="n">
         <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>505176</v>
+        <v>504820</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12123819</v>
+        <v>12139338</v>
       </c>
       <c r="E50" t="n">
-        <v>17827848</v>
+        <v>17850668</v>
       </c>
       <c r="F50" t="n">
-        <v>6604.981707994502</v>
+        <v>2229.073901628611</v>
       </c>
       <c r="G50" t="n">
-        <v>6621.924369140005</v>
+        <v>6621.941282366394</v>
       </c>
       <c r="H50" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>2176911</v>
+        <v>2186347</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22612345</v>
+        <v>22590893</v>
       </c>
       <c r="E51" t="n">
-        <v>29333384</v>
+        <v>29305556</v>
       </c>
       <c r="F51" t="n">
-        <v>12226.6957523339</v>
+        <v>10693.77786051582</v>
       </c>
       <c r="G51" t="n">
-        <v>11390.42975074755</v>
+        <v>9727.077414563388</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>152236</v>
+        <v>157400</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13769827</v>
+        <v>13868209</v>
       </c>
       <c r="E52" t="n">
-        <v>13769827</v>
+        <v>13868209</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4740591</v>
+        <v>4743519</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98336300</v>
+        <v>98432659</v>
       </c>
       <c r="E53" t="n">
-        <v>121638484</v>
+        <v>121757676</v>
       </c>
       <c r="F53" t="n">
-        <v>477.0470006646772</v>
+        <v>396.8149781331156</v>
       </c>
       <c r="G53" t="n">
-        <v>3966.891335373502</v>
+        <v>4071.928206215955</v>
       </c>
       <c r="H53" t="n">
         <v>0.75</v>
       </c>
       <c r="I53" t="n">
-        <v>795312</v>
+        <v>809092</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5158303</v>
+        <v>5179200</v>
       </c>
       <c r="E54" t="n">
-        <v>7217214</v>
+        <v>7246452</v>
       </c>
       <c r="F54" t="n">
-        <v>45.5727007523119</v>
+        <v>90.04213018332803</v>
       </c>
       <c r="G54" t="n">
-        <v>165.2965402925773</v>
+        <v>179.0900626717988</v>
       </c>
       <c r="H54" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="I54" t="n">
-        <v>105176</v>
+        <v>105594</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14157808</v>
+        <v>14214829</v>
       </c>
       <c r="E55" t="n">
-        <v>68568522</v>
+        <v>68844683</v>
       </c>
       <c r="F55" t="n">
-        <v>18501.85498819572</v>
+        <v>20739.75882474308</v>
       </c>
       <c r="G55" t="n">
-        <v>31371.09891215656</v>
+        <v>25891.54219748161</v>
       </c>
       <c r="H55" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="I55" t="n">
-        <v>3628191</v>
+        <v>3632057</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>57863</v>
+        <v>57864</v>
       </c>
       <c r="E56" t="n">
-        <v>138593</v>
+        <v>138597</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5089.1</v>
+        <v>5088.75</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1918680768</v>
+        <v>1919313785</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26456257</v>
+        <v>26406428</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12289351</v>
+        <v>12294308</v>
       </c>
       <c r="E58" t="n">
-        <v>17817786</v>
+        <v>17824973</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2049702</v>
+        <v>2024396</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124866463</v>
+        <v>124822305</v>
       </c>
       <c r="E59" t="n">
-        <v>332073611</v>
+        <v>331956175</v>
       </c>
       <c r="F59" t="n">
-        <v>1831.293949054143</v>
+        <v>1531.846539306677</v>
       </c>
       <c r="G59" t="n">
-        <v>8552.530113276858</v>
+        <v>11327.80346125724</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="I59" t="n">
-        <v>1214294</v>
+        <v>1204134</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31915723</v>
+        <v>31941465</v>
       </c>
       <c r="E60" t="n">
-        <v>99375321</v>
+        <v>99455472</v>
       </c>
       <c r="F60" t="n">
-        <v>5077.737612949974</v>
+        <v>4805.764730163609</v>
       </c>
       <c r="G60" t="n">
-        <v>4896.868109587719</v>
+        <v>5119.363905737287</v>
       </c>
       <c r="H60" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="I60" t="n">
-        <v>12064489</v>
+        <v>12045155</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2049325</v>
+        <v>2043486</v>
       </c>
       <c r="E61" t="n">
-        <v>14695502</v>
+        <v>14653635</v>
       </c>
       <c r="F61" t="n">
-        <v>5427.329996686439</v>
+        <v>5441.987420840913</v>
       </c>
       <c r="G61" t="n">
-        <v>5368.994811811297</v>
+        <v>5366.120771677497</v>
       </c>
       <c r="H61" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="I61" t="n">
-        <v>1945531</v>
+        <v>1941932</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>203876020</v>
+        <v>204636578</v>
       </c>
       <c r="E62" t="n">
-        <v>1154471294</v>
+        <v>1158778041</v>
       </c>
       <c r="F62" t="n">
-        <v>642063.909457025</v>
+        <v>779374.3500078326</v>
       </c>
       <c r="G62" t="n">
-        <v>748121.85837577</v>
+        <v>794203.7385639235</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>63989340</v>
+        <v>64828715</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>503532</v>
+        <v>507218</v>
       </c>
       <c r="E63" t="n">
-        <v>1694819</v>
+        <v>1707225</v>
       </c>
       <c r="F63" t="n">
-        <v>606.4359813297741</v>
+        <v>4805.926551411641</v>
       </c>
       <c r="G63" t="n">
-        <v>387.1381890659827</v>
+        <v>387.134744065933</v>
       </c>
       <c r="H63" t="n">
         <v>0.64</v>
       </c>
       <c r="I63" t="n">
-        <v>626558</v>
+        <v>627400</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>342760</v>
+        <v>343445</v>
       </c>
       <c r="E64" t="n">
-        <v>342760</v>
+        <v>343445</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5085.9</v>
+        <v>5096.06</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>140255740</v>
+        <v>140529350</v>
       </c>
       <c r="E65" t="n">
-        <v>1038931407</v>
+        <v>1040958145</v>
       </c>
       <c r="F65" t="n">
-        <v>39901.87439760161</v>
+        <v>39865.06951524748</v>
       </c>
       <c r="G65" t="n">
-        <v>35482.44983648338</v>
+        <v>40833.62346738789</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I65" t="n">
-        <v>10294315</v>
+        <v>10557955</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8048424</v>
+        <v>8051362</v>
       </c>
       <c r="E66" t="n">
-        <v>10782205</v>
+        <v>10786141</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>64175</v>
+        <v>63785</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25396086</v>
+        <v>25390001</v>
       </c>
       <c r="E67" t="n">
-        <v>25396086</v>
+        <v>25390001</v>
       </c>
       <c r="F67" t="n">
-        <v>7514.667979856908</v>
+        <v>7476.909167485082</v>
       </c>
       <c r="G67" t="n">
-        <v>6523.851406329966</v>
+        <v>6242.768041345151</v>
       </c>
       <c r="H67" t="n">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
       <c r="I67" t="n">
-        <v>308112</v>
+        <v>307658</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1574561</v>
+        <v>1585543</v>
       </c>
       <c r="E68" t="n">
-        <v>12228224</v>
+        <v>12313508</v>
       </c>
       <c r="F68" t="n">
-        <v>9880.647727572141</v>
+        <v>10895.08664860613</v>
       </c>
       <c r="G68" t="n">
-        <v>18314.3681641841</v>
+        <v>15977.74886664242</v>
       </c>
       <c r="H68" t="n">
-        <v>0.45</v>
+        <v>0.72</v>
       </c>
       <c r="I68" t="n">
-        <v>488413</v>
+        <v>481821</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>340546987</v>
+        <v>341231337</v>
       </c>
       <c r="E69" t="n">
-        <v>3063771857</v>
+        <v>3069928697</v>
       </c>
       <c r="F69" t="n">
-        <v>1059736.424955713</v>
+        <v>1041623.598467036</v>
       </c>
       <c r="G69" t="n">
-        <v>1831129.832973123</v>
+        <v>1763105.788878025</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>37333794</v>
+        <v>36683381</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>251731</v>
+        <v>250378</v>
       </c>
       <c r="E70" t="n">
-        <v>2221719</v>
+        <v>2209771</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>67174</v>
+        <v>67354</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1586307</v>
+        <v>1586438</v>
       </c>
       <c r="E71" t="n">
-        <v>13219224</v>
+        <v>13220314</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>41416</v>
+        <v>41399</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9142857</v>
+        <v>9141778</v>
       </c>
       <c r="E72" t="n">
-        <v>42377665</v>
+        <v>42372665</v>
       </c>
       <c r="F72" t="n">
-        <v>5349.673815783288</v>
+        <v>5385.504895122596</v>
       </c>
       <c r="G72" t="n">
-        <v>8713.727108520028</v>
+        <v>8801.511885875347</v>
       </c>
       <c r="H72" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="I72" t="n">
-        <v>125195</v>
+        <v>125197</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>45608734</v>
+        <v>45654400</v>
       </c>
       <c r="E73" t="n">
-        <v>264055726</v>
+        <v>264320109</v>
       </c>
       <c r="F73" t="n">
-        <v>165871.1573005442</v>
+        <v>208797.2669214838</v>
       </c>
       <c r="G73" t="n">
-        <v>219782.7052757679</v>
+        <v>184211.3287997883</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>14383597</v>
+        <v>14405904</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39564531</v>
+        <v>39630441</v>
       </c>
       <c r="E74" t="n">
-        <v>54644251</v>
+        <v>54735283</v>
       </c>
       <c r="F74" t="n">
-        <v>748.9077462272767</v>
+        <v>650.2889484230059</v>
       </c>
       <c r="G74" t="n">
-        <v>715.7049516673094</v>
+        <v>718.5563327532644</v>
       </c>
       <c r="H74" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>376430</v>
+        <v>347901</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95942</v>
+        <v>95897</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>548.37</v>
+        <v>547.8</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13527837</v>
+        <v>13610827</v>
       </c>
       <c r="E76" t="n">
-        <v>13573874</v>
+        <v>13657146</v>
       </c>
       <c r="F76" t="n">
-        <v>1358.865335415048</v>
+        <v>813.7276351111477</v>
       </c>
       <c r="G76" t="n">
-        <v>8031.421008054213</v>
+        <v>5468.259072747775</v>
       </c>
       <c r="H76" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>5834763</v>
+        <v>5872911</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42811407</v>
+        <v>42796799</v>
       </c>
       <c r="E77" t="n">
-        <v>72683809</v>
+        <v>72659008</v>
       </c>
       <c r="F77" t="n">
-        <v>10413.34882716026</v>
+        <v>10288.46004515104</v>
       </c>
       <c r="G77" t="n">
-        <v>5859.687867871771</v>
+        <v>6526.100020462977</v>
       </c>
       <c r="H77" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>1095670</v>
+        <v>1095090</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23713247</v>
+        <v>23720735</v>
       </c>
       <c r="E78" t="n">
-        <v>71081411</v>
+        <v>71103855</v>
       </c>
       <c r="F78" t="n">
-        <v>124513.3775265457</v>
+        <v>123741.5841563794</v>
       </c>
       <c r="G78" t="n">
-        <v>81353.33138998161</v>
+        <v>121206.2107579031</v>
       </c>
       <c r="H78" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I78" t="n">
-        <v>3017245</v>
+        <v>3022682</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101339471</v>
+        <v>101492365</v>
       </c>
       <c r="E79" t="n">
-        <v>107733016</v>
+        <v>107895556</v>
       </c>
       <c r="F79" t="n">
-        <v>2779.96817266063</v>
+        <v>2195.917482653282</v>
       </c>
       <c r="G79" t="n">
-        <v>2942.699693907863</v>
+        <v>2626.180521239231</v>
       </c>
       <c r="H79" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="I79" t="n">
-        <v>385489</v>
+        <v>385570</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10454941</v>
+        <v>10437391</v>
       </c>
       <c r="E80" t="n">
-        <v>45438542</v>
+        <v>45361960</v>
       </c>
       <c r="F80" t="n">
-        <v>6158.842620631451</v>
+        <v>6374.622872450792</v>
       </c>
       <c r="G80" t="n">
-        <v>5424.656787485827</v>
+        <v>5426.247075015386</v>
       </c>
       <c r="H80" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>116208</v>
+        <v>116527</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15671892</v>
+        <v>15699728</v>
       </c>
       <c r="E81" t="n">
-        <v>96058180</v>
+        <v>96228795</v>
       </c>
       <c r="F81" t="n">
-        <v>4162.989436141062</v>
+        <v>4157.367745036316</v>
       </c>
       <c r="G81" t="n">
-        <v>6380.807759060631</v>
+        <v>6300.124298377059</v>
       </c>
       <c r="H81" t="n">
         <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>11501419</v>
+        <v>11496531</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1496304</v>
+        <v>1498167</v>
       </c>
       <c r="E82" t="n">
-        <v>1538394</v>
+        <v>1540309</v>
       </c>
       <c r="F82" t="n">
-        <v>6557.648752513482</v>
+        <v>6862.92496808533</v>
       </c>
       <c r="G82" t="n">
-        <v>5864.924709869081</v>
+        <v>5864.703495626442</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>140500</v>
+        <v>140635</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47345124</v>
+        <v>47492373</v>
       </c>
       <c r="E83" t="n">
-        <v>203957619</v>
+        <v>204591950</v>
       </c>
       <c r="F83" t="n">
-        <v>3367.010659193888</v>
+        <v>3361.166428550651</v>
       </c>
       <c r="G83" t="n">
-        <v>3606.955248885493</v>
+        <v>4640.813811999285</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I83" t="n">
-        <v>8842990</v>
+        <v>8791733</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1735203</v>
+        <v>1737697</v>
       </c>
       <c r="E84" t="n">
-        <v>6305007</v>
+        <v>6314044</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>126478</v>
+        <v>126341</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8980383</v>
+        <v>8982802</v>
       </c>
       <c r="E85" t="n">
-        <v>19941277</v>
+        <v>19946650</v>
       </c>
       <c r="F85" t="n">
-        <v>6076.659783254021</v>
+        <v>6148.596402277738</v>
       </c>
       <c r="G85" t="n">
-        <v>6568.288718493013</v>
+        <v>6563.21511933357</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I85" t="n">
-        <v>345426</v>
+        <v>345368</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2446814</v>
+        <v>2444196</v>
       </c>
       <c r="E86" t="n">
-        <v>18411725</v>
+        <v>18392028</v>
       </c>
       <c r="F86" t="n">
-        <v>5006.280450581369</v>
+        <v>5125.019874275546</v>
       </c>
       <c r="G86" t="n">
-        <v>12461.77761405866</v>
+        <v>12189.86216383895</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I86" t="n">
-        <v>163716</v>
+        <v>164268</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20593761</v>
+        <v>20663484</v>
       </c>
       <c r="E87" t="n">
-        <v>82375043</v>
+        <v>82653937</v>
       </c>
       <c r="F87" t="n">
-        <v>12845.89804595811</v>
+        <v>12174.87193912101</v>
       </c>
       <c r="G87" t="n">
-        <v>2369.360664292051</v>
+        <v>1138.722156346428</v>
       </c>
       <c r="H87" t="n">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="I87" t="n">
-        <v>5531077</v>
+        <v>5597714</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4275523</v>
+        <v>4235127</v>
       </c>
       <c r="E88" t="n">
-        <v>4275523</v>
+        <v>4235127</v>
       </c>
       <c r="F88" t="n">
-        <v>669.765641601709</v>
+        <v>331.2857797137513</v>
       </c>
       <c r="G88" t="n">
-        <v>1316.755078780307</v>
+        <v>495.2025800605708</v>
       </c>
       <c r="H88" t="n">
-        <v>1.77</v>
+        <v>0.8</v>
       </c>
       <c r="I88" t="n">
-        <v>2629241</v>
+        <v>2631865</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12991776</v>
+        <v>13004719</v>
       </c>
       <c r="E89" t="n">
-        <v>41101758</v>
+        <v>41142707</v>
       </c>
       <c r="F89" t="n">
-        <v>14457.50250726447</v>
+        <v>15524.41348785562</v>
       </c>
       <c r="G89" t="n">
-        <v>10742.09576925599</v>
+        <v>10703.82284982781</v>
       </c>
       <c r="H89" t="n">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="I89" t="n">
-        <v>1391201</v>
+        <v>1394522</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>26631</v>
+        <v>26346</v>
       </c>
       <c r="E90" t="n">
-        <v>209445</v>
+        <v>207205</v>
       </c>
       <c r="F90" t="n">
-        <v>5773.477591165574</v>
+        <v>5881.054721511802</v>
       </c>
       <c r="G90" t="n">
-        <v>299.996540482275</v>
+        <v>310.7282513160744</v>
       </c>
       <c r="H90" t="n">
         <v>0.38</v>
       </c>
       <c r="I90" t="n">
-        <v>100664</v>
+        <v>101365</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8312900</v>
+        <v>8331976</v>
       </c>
       <c r="E91" t="n">
-        <v>8312900</v>
+        <v>8331976</v>
       </c>
       <c r="F91" t="n">
-        <v>3726.91085746003</v>
+        <v>3710.461196581022</v>
       </c>
       <c r="G91" t="n">
-        <v>4677.897406399955</v>
+        <v>3318.716638902916</v>
       </c>
       <c r="H91" t="n">
         <v>0.47</v>
       </c>
       <c r="I91" t="n">
-        <v>3585520</v>
+        <v>3599749</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9415572</v>
+        <v>9794696</v>
       </c>
       <c r="E92" t="n">
-        <v>9415572</v>
+        <v>9794696</v>
       </c>
       <c r="F92" t="n">
-        <v>7562.367962816926</v>
+        <v>2108.337255113965</v>
       </c>
       <c r="G92" t="n">
-        <v>1859.925383104534</v>
+        <v>6346.201575005735</v>
       </c>
       <c r="H92" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="I92" t="n">
-        <v>2871846</v>
+        <v>2965596</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37248802</v>
+        <v>37307807</v>
       </c>
       <c r="E93" t="n">
-        <v>93923595</v>
+        <v>94072379</v>
       </c>
       <c r="F93" t="n">
-        <v>5393.829062772628</v>
+        <v>4724.079239887209</v>
       </c>
       <c r="G93" t="n">
-        <v>6310.024167188489</v>
+        <v>6805.718866208328</v>
       </c>
       <c r="H93" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="I93" t="n">
-        <v>3170295</v>
+        <v>3177337</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>301676298</v>
+        <v>301756362</v>
       </c>
       <c r="E94" t="n">
-        <v>306391356</v>
+        <v>306473938</v>
       </c>
       <c r="F94" t="n">
-        <v>31760.39963164648</v>
+        <v>21146.1103949078</v>
       </c>
       <c r="G94" t="n">
-        <v>44534.54875516274</v>
+        <v>45725.48107599392</v>
       </c>
       <c r="H94" t="n">
         <v>0.15</v>
       </c>
       <c r="I94" t="n">
-        <v>12487628</v>
+        <v>12496297</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>5899.452282522586</v>
+        <v>5792.597089389094</v>
       </c>
       <c r="G95" t="n">
-        <v>1368.165198776044</v>
+        <v>4111.142380431436</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>198641</v>
+        <v>198624</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>84034417</v>
+        <v>84764185</v>
       </c>
       <c r="E96" t="n">
-        <v>84034417</v>
+        <v>84764185</v>
       </c>
       <c r="F96" t="n">
-        <v>6718.099328404015</v>
+        <v>8789.959950525215</v>
       </c>
       <c r="G96" t="n">
-        <v>6426.952564156853</v>
+        <v>8210.029443686028</v>
       </c>
       <c r="H96" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="I96" t="n">
-        <v>5590786</v>
+        <v>5771830</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>309970608</v>
+        <v>310607016</v>
       </c>
       <c r="E97" t="n">
-        <v>309970608</v>
+        <v>310607016</v>
       </c>
       <c r="F97" t="n">
-        <v>357538.309264874</v>
+        <v>383434.8991652992</v>
       </c>
       <c r="G97" t="n">
-        <v>452182.1615593401</v>
+        <v>486401.6418895824</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>51246335</v>
+        <v>51201474</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4345885</v>
+        <v>4265690</v>
       </c>
       <c r="E98" t="n">
-        <v>29695125</v>
+        <v>29147161</v>
       </c>
       <c r="F98" t="n">
-        <v>4763.982004046272</v>
+        <v>22491.45611029325</v>
       </c>
       <c r="G98" t="n">
-        <v>4824.299789914139</v>
+        <v>23992.48012968718</v>
       </c>
       <c r="H98" t="n">
-        <v>0.67</v>
+        <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2626290</v>
+        <v>2615082</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90243447</v>
+        <v>90811743</v>
       </c>
       <c r="E99" t="n">
-        <v>520021663</v>
+        <v>523296434</v>
       </c>
       <c r="F99" t="n">
-        <v>143193.4903362558</v>
+        <v>160163.0905166277</v>
       </c>
       <c r="G99" t="n">
-        <v>145916.1031080996</v>
+        <v>148887.3493192516</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I99" t="n">
-        <v>16458656</v>
+        <v>11095404</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108747900</v>
+        <v>108842021</v>
       </c>
       <c r="E100" t="n">
-        <v>267562320</v>
+        <v>267793897</v>
       </c>
       <c r="F100" t="n">
-        <v>28513.10814484205</v>
+        <v>26430.3252167633</v>
       </c>
       <c r="G100" t="n">
-        <v>50739.04364731948</v>
+        <v>48644.16348538612</v>
       </c>
       <c r="H100" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2164980</v>
+        <v>2164984</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>249472071</v>
+        <v>249371467</v>
       </c>
       <c r="E101" t="n">
-        <v>249474550</v>
+        <v>249373945</v>
       </c>
       <c r="F101" t="n">
-        <v>42181.22536152315</v>
+        <v>42153.17254376349</v>
       </c>
       <c r="G101" t="n">
-        <v>8744.195271020217</v>
+        <v>8704.072641117373</v>
       </c>
       <c r="H101" t="n">
         <v>0.28</v>
       </c>
       <c r="I101" t="n">
-        <v>2660867</v>
+        <v>2660921</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30480818</v>
+        <v>30569691</v>
       </c>
       <c r="E102" t="n">
-        <v>136475126</v>
+        <v>136873048</v>
       </c>
       <c r="F102" t="n">
-        <v>96593.1519297796</v>
+        <v>106813.78318571</v>
       </c>
       <c r="G102" t="n">
-        <v>104426.2752904893</v>
+        <v>114888.3177526185</v>
       </c>
       <c r="H102" t="n">
         <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>8704213</v>
+        <v>8649935</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3069613</v>
+        <v>3063243</v>
       </c>
       <c r="E103" t="n">
-        <v>3069613</v>
+        <v>3063243</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>445138</v>
+        <v>444751</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5952699</v>
+        <v>5887318</v>
       </c>
       <c r="E104" t="n">
-        <v>15622876</v>
+        <v>15451283</v>
       </c>
       <c r="F104" t="n">
-        <v>1079.259088937691</v>
+        <v>720.5371522377596</v>
       </c>
       <c r="G104" t="n">
-        <v>30.23027880020855</v>
+        <v>3615.090121007526</v>
       </c>
       <c r="H104" t="n">
-        <v>2.43</v>
+        <v>0.33</v>
       </c>
       <c r="I104" t="n">
-        <v>73586</v>
+        <v>75649</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16591282</v>
+        <v>16654510</v>
       </c>
       <c r="E105" t="n">
-        <v>76582988</v>
+        <v>76874845</v>
       </c>
       <c r="F105" t="n">
-        <v>55715.9058173521</v>
+        <v>27428.66941972207</v>
       </c>
       <c r="G105" t="n">
-        <v>24216.79661952551</v>
+        <v>35812.30785945871</v>
       </c>
       <c r="H105" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="I105" t="n">
-        <v>974562</v>
+        <v>972863</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48990631</v>
+        <v>48969726</v>
       </c>
       <c r="E106" t="n">
-        <v>317691204</v>
+        <v>317555637</v>
       </c>
       <c r="F106" t="n">
-        <v>96463.20758842571</v>
+        <v>98092.38412735304</v>
       </c>
       <c r="G106" t="n">
-        <v>150646.0095363682</v>
+        <v>171270.0740641523</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>16983129</v>
+        <v>16933277</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2400423</v>
+        <v>2406900</v>
       </c>
       <c r="E107" t="n">
-        <v>4348818</v>
+        <v>4360552</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>117458</v>
+        <v>120600</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125872854</v>
+        <v>125804389</v>
       </c>
       <c r="E108" t="n">
-        <v>2084557551</v>
+        <v>2083423718</v>
       </c>
       <c r="F108" t="n">
-        <v>219834.8702995369</v>
+        <v>224081.7703056072</v>
       </c>
       <c r="G108" t="n">
-        <v>201866.3240648436</v>
+        <v>121462.4358837103</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>4895735</v>
+        <v>4875865</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23925791</v>
+        <v>23988699</v>
       </c>
       <c r="E109" t="n">
-        <v>143152815</v>
+        <v>143529209</v>
       </c>
       <c r="F109" t="n">
-        <v>41173.64926160488</v>
+        <v>40984.86314812776</v>
       </c>
       <c r="G109" t="n">
-        <v>40987.62004192774</v>
+        <v>41073.077213161</v>
       </c>
       <c r="H109" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I109" t="n">
-        <v>13407764</v>
+        <v>13491979</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1043754</v>
+        <v>1112881</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>69445</v>
+        <v>76501</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2229788</v>
+        <v>2228505</v>
       </c>
       <c r="F111" t="n">
-        <v>2631.977092957336</v>
+        <v>3865.121503288034</v>
       </c>
       <c r="G111" t="n">
-        <v>399.5811572869627</v>
+        <v>397.8015846673347</v>
       </c>
       <c r="H111" t="n">
         <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>194526</v>
+        <v>194060</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>142420183</v>
+        <v>142423826</v>
       </c>
       <c r="F112" t="n">
-        <v>3146.983919553243</v>
+        <v>3147.007398753529</v>
       </c>
       <c r="G112" t="n">
-        <v>909.6810991615013</v>
+        <v>909.6878861630463</v>
       </c>
       <c r="H112" t="n">
         <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>34866</v>
+        <v>33658</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6868738</v>
+        <v>6939931</v>
       </c>
       <c r="E113" t="n">
-        <v>35337570</v>
+        <v>35703837</v>
       </c>
       <c r="F113" t="n">
-        <v>1374.238131885204</v>
+        <v>1354.845210355023</v>
       </c>
       <c r="G113" t="n">
-        <v>1004.400755129445</v>
+        <v>1139.945479313898</v>
       </c>
       <c r="H113" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I113" t="n">
-        <v>917938</v>
+        <v>922382</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29164115</v>
+        <v>29183955</v>
       </c>
       <c r="E114" t="n">
-        <v>39989100</v>
+        <v>40016304</v>
       </c>
       <c r="F114" t="n">
-        <v>4759.381403883945</v>
+        <v>4752.791702473786</v>
       </c>
       <c r="G114" t="n">
-        <v>4503.03892100047</v>
+        <v>4449.018396829003</v>
       </c>
       <c r="H114" t="n">
         <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>270473</v>
+        <v>263428</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7991304</v>
+        <v>7984228</v>
       </c>
       <c r="F115" t="n">
-        <v>450.5796067600312</v>
+        <v>448.2055114060136</v>
       </c>
       <c r="G115" t="n">
-        <v>6747.914991196497</v>
+        <v>6556.961872132086</v>
       </c>
       <c r="H115" t="n">
         <v>0.35</v>
       </c>
       <c r="I115" t="n">
-        <v>593422</v>
+        <v>709146</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3373444</v>
+        <v>3371789</v>
       </c>
       <c r="E116" t="n">
-        <v>4518942</v>
+        <v>4516725</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>152550</v>
+        <v>152440</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34450686</v>
+        <v>34529992</v>
       </c>
       <c r="E117" t="n">
-        <v>171924802</v>
+        <v>172320577</v>
       </c>
       <c r="F117" t="n">
-        <v>87837.58609708818</v>
+        <v>86433.70033721946</v>
       </c>
       <c r="G117" t="n">
-        <v>74799.41369642437</v>
+        <v>76782.73978168222</v>
       </c>
       <c r="H117" t="n">
         <v>0.12</v>
       </c>
       <c r="I117" t="n">
-        <v>9931624</v>
+        <v>9977792</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3494641</v>
+        <v>3494988</v>
       </c>
       <c r="E118" t="n">
-        <v>5020389</v>
+        <v>5020888</v>
       </c>
       <c r="F118" t="n">
-        <v>583.6686946794381</v>
+        <v>583.6730493487131</v>
       </c>
       <c r="G118" t="n">
-        <v>793.4266160202937</v>
+        <v>793.4325356636432</v>
       </c>
       <c r="H118" t="n">
         <v>1.18</v>
       </c>
       <c r="I118" t="n">
-        <v>166549</v>
+        <v>166317</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>316283313</v>
+        <v>316838122</v>
       </c>
       <c r="E119" t="n">
-        <v>585196256</v>
+        <v>586222780</v>
       </c>
       <c r="F119" t="n">
-        <v>110423.3298775428</v>
+        <v>104885.4296120971</v>
       </c>
       <c r="G119" t="n">
-        <v>128530.5691274987</v>
+        <v>130760.0394528206</v>
       </c>
       <c r="H119" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>13115199</v>
+        <v>13068416</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71721229</v>
+        <v>71913198</v>
       </c>
       <c r="E120" t="n">
-        <v>684253601</v>
+        <v>686083956</v>
       </c>
       <c r="F120" t="n">
-        <v>4890.807836179108</v>
+        <v>3456.522034731355</v>
       </c>
       <c r="G120" t="n">
-        <v>43226.80082407609</v>
+        <v>42773.24220768147</v>
       </c>
       <c r="H120" t="n">
         <v>0.02</v>
       </c>
       <c r="I120" t="n">
-        <v>21456519</v>
+        <v>21558587</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38157538</v>
+        <v>38071570</v>
       </c>
       <c r="E121" t="n">
-        <v>49889852</v>
+        <v>49777272</v>
       </c>
       <c r="F121" t="n">
-        <v>212.9208709567966</v>
+        <v>5672.946492246654</v>
       </c>
       <c r="G121" t="n">
-        <v>6231.127413032264</v>
+        <v>721.1731476698334</v>
       </c>
       <c r="H121" t="n">
         <v>1.6</v>
       </c>
       <c r="I121" t="n">
-        <v>504365</v>
+        <v>561283</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9541536</v>
+        <v>9580746</v>
       </c>
       <c r="E122" t="n">
-        <v>28311940</v>
+        <v>28428287</v>
       </c>
       <c r="F122" t="n">
-        <v>532.1544745743641</v>
+        <v>561.5539097853142</v>
       </c>
       <c r="G122" t="n">
-        <v>5762.990736430876</v>
+        <v>6882.319520844079</v>
       </c>
       <c r="H122" t="n">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="I122" t="n">
-        <v>6055317</v>
+        <v>6058099</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2260831</v>
+        <v>2264515</v>
       </c>
       <c r="E123" t="n">
-        <v>7736226</v>
+        <v>7748831</v>
       </c>
       <c r="F123" t="n">
-        <v>792.6526083691438</v>
+        <v>792.6310958890689</v>
       </c>
       <c r="G123" t="n">
-        <v>1061.781068190508</v>
+        <v>1035.046096692442</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="I123" t="n">
-        <v>893865</v>
+        <v>907770</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7378505</v>
+        <v>7377957</v>
       </c>
       <c r="E124" t="n">
-        <v>7378516</v>
+        <v>7377968</v>
       </c>
       <c r="F124" t="n">
-        <v>659.6135544097773</v>
+        <v>658.5136186090969</v>
       </c>
       <c r="G124" t="n">
-        <v>684.4667808871482</v>
+        <v>1098.028125588061</v>
       </c>
       <c r="H124" t="n">
-        <v>1.68</v>
+        <v>0.97</v>
       </c>
       <c r="I124" t="n">
-        <v>331471</v>
+        <v>331808</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6143774</v>
+        <v>6141865</v>
       </c>
       <c r="E125" t="n">
-        <v>6143774</v>
+        <v>6141865</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>505382</v>
+        <v>508723</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6219840</v>
+        <v>6218250</v>
       </c>
       <c r="E126" t="n">
-        <v>22718669</v>
+        <v>22712860</v>
       </c>
       <c r="F126" t="n">
-        <v>5975.852315828825</v>
+        <v>5955.798250015611</v>
       </c>
       <c r="G126" t="n">
-        <v>1858.445714571306</v>
+        <v>7051.187595304318</v>
       </c>
       <c r="H126" t="n">
         <v>0.89</v>
       </c>
       <c r="I126" t="n">
-        <v>526608</v>
+        <v>525728</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44887500</v>
+        <v>45034799</v>
       </c>
       <c r="E127" t="n">
-        <v>44887500</v>
+        <v>45034799</v>
       </c>
       <c r="F127" t="n">
-        <v>66830.76801363805</v>
+        <v>61531.57303144412</v>
       </c>
       <c r="G127" t="n">
-        <v>89210.50157272245</v>
+        <v>87604.96202016353</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I127" t="n">
-        <v>8031487</v>
+        <v>8048918</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>149360120</v>
+        <v>149503461</v>
       </c>
       <c r="F128" t="n">
-        <v>3809.016700503755</v>
+        <v>3637.85002770959</v>
       </c>
       <c r="G128" t="n">
-        <v>495.9090229524697</v>
+        <v>596.6799772993534</v>
       </c>
       <c r="H128" t="n">
-        <v>0.13</v>
+        <v>0.4</v>
       </c>
       <c r="I128" t="n">
-        <v>1608639</v>
+        <v>1617712</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3077070</v>
+        <v>3084184</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73829</v>
+        <v>74225</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20323237</v>
+        <v>20448816</v>
       </c>
       <c r="F130" t="n">
-        <v>680.3678021389059</v>
+        <v>194.3878287178214</v>
       </c>
       <c r="G130" t="n">
-        <v>992.9922467245501</v>
+        <v>655.5630941802622</v>
       </c>
       <c r="H130" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="I130" t="n">
-        <v>2917206</v>
+        <v>2922840</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1243727</v>
+        <v>1243496</v>
       </c>
       <c r="E131" t="n">
-        <v>3761760</v>
+        <v>3760837</v>
       </c>
       <c r="F131" t="n">
-        <v>776.2161598516321</v>
+        <v>776.2219510902113</v>
       </c>
       <c r="G131" t="n">
-        <v>662.9744092288349</v>
+        <v>662.9793555867882</v>
       </c>
       <c r="H131" t="n">
         <v>1.32</v>
       </c>
       <c r="I131" t="n">
-        <v>10473.8</v>
+        <v>10479.64</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>607178084</v>
+        <v>608791442</v>
       </c>
       <c r="E132" t="n">
-        <v>2351511135</v>
+        <v>2357759434</v>
       </c>
       <c r="F132" t="n">
-        <v>460831.8600698815</v>
+        <v>475988.2013428308</v>
       </c>
       <c r="G132" t="n">
-        <v>718033.3666072714</v>
+        <v>649228.1605397508</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>33550827</v>
+        <v>33604360</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3677280</v>
+        <v>3679708</v>
       </c>
       <c r="E133" t="n">
-        <v>6268422</v>
+        <v>6272562</v>
       </c>
       <c r="F133" t="n">
-        <v>5330.439047836529</v>
+        <v>5556.316972999855</v>
       </c>
       <c r="G133" t="n">
-        <v>5400.481517946519</v>
+        <v>5669.604604364069</v>
       </c>
       <c r="H133" t="n">
-        <v>0.95</v>
+        <v>0.48</v>
       </c>
       <c r="I133" t="n">
-        <v>1287849</v>
+        <v>1288783</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>119806539</v>
+        <v>119584819</v>
       </c>
       <c r="E134" t="n">
-        <v>1041644218</v>
+        <v>1039716499</v>
       </c>
       <c r="F134" t="n">
-        <v>106028.5312754579</v>
+        <v>105122.172541549</v>
       </c>
       <c r="G134" t="n">
-        <v>104375.1417223</v>
+        <v>98566.47996997449</v>
       </c>
       <c r="H134" t="n">
         <v>0.09</v>
       </c>
       <c r="I134" t="n">
-        <v>9042270</v>
+        <v>8918681</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1052021354</v>
+        <v>1050561302</v>
       </c>
       <c r="E135" t="n">
-        <v>1155648340</v>
+        <v>1154044470</v>
       </c>
       <c r="F135" t="n">
-        <v>11939.42434302835</v>
+        <v>13735.87025591315</v>
       </c>
       <c r="G135" t="n">
-        <v>20111.82697872012</v>
+        <v>27997.62654195234</v>
       </c>
       <c r="H135" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="I135" t="n">
-        <v>10490645</v>
+        <v>10314289</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1105435</v>
+        <v>1108602</v>
       </c>
       <c r="E136" t="n">
-        <v>4280484</v>
+        <v>4292749</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>316611</v>
+        <v>397725</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>121014820</v>
+        <v>120596848</v>
       </c>
       <c r="E137" t="n">
-        <v>464232328</v>
+        <v>462628920</v>
       </c>
       <c r="F137" t="n">
-        <v>181043.5673261282</v>
+        <v>203828.4746694254</v>
       </c>
       <c r="G137" t="n">
-        <v>231219.7106162264</v>
+        <v>218480.9295022842</v>
       </c>
       <c r="H137" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I137" t="n">
-        <v>30570645</v>
+        <v>30961309</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3208480</v>
+        <v>3201456</v>
       </c>
       <c r="E138" t="n">
-        <v>30400818</v>
+        <v>30334272</v>
       </c>
       <c r="F138" t="n">
-        <v>4616.805810960866</v>
+        <v>4620.783885317006</v>
       </c>
       <c r="G138" t="n">
-        <v>3135.202355690345</v>
+        <v>5531.7125030978</v>
       </c>
       <c r="H138" t="n">
         <v>0.03</v>
       </c>
       <c r="I138" t="n">
-        <v>234203</v>
+        <v>233512</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>23215473</v>
+        <v>23173127</v>
       </c>
       <c r="E139" t="n">
-        <v>23215473</v>
+        <v>23173127</v>
       </c>
       <c r="F139" t="n">
-        <v>11059.14667697217</v>
+        <v>10588.39300291848</v>
       </c>
       <c r="G139" t="n">
-        <v>4648.065274218977</v>
+        <v>4398.709639980258</v>
       </c>
       <c r="H139" t="n">
         <v>0.65</v>
       </c>
       <c r="I139" t="n">
-        <v>596028</v>
+        <v>595446</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494866175</v>
+        <v>494392232</v>
       </c>
       <c r="E140" t="n">
-        <v>494866175</v>
+        <v>494392232</v>
       </c>
       <c r="F140" t="n">
-        <v>981265.6585583817</v>
+        <v>973239.1926542284</v>
       </c>
       <c r="G140" t="n">
-        <v>827904.5715767434</v>
+        <v>828175.1064134997</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>33477650</v>
+        <v>33470809</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>32158352</v>
+        <v>32208151</v>
       </c>
       <c r="F141" t="n">
-        <v>57895.05247245292</v>
+        <v>76594.11303082855</v>
       </c>
       <c r="G141" t="n">
-        <v>69769.08658253586</v>
+        <v>65301.53416830825</v>
       </c>
       <c r="H141" t="n">
         <v>0.43</v>
       </c>
       <c r="I141" t="n">
-        <v>5618187</v>
+        <v>5614050</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>762912</v>
+        <v>764144</v>
       </c>
       <c r="E142" t="n">
-        <v>12168172</v>
+        <v>12187824</v>
       </c>
       <c r="F142" t="n">
-        <v>75.24153445916845</v>
+        <v>35.43603306151259</v>
       </c>
       <c r="G142" t="n">
-        <v>25.66210729779336</v>
+        <v>30.16650883703674</v>
       </c>
       <c r="H142" t="n">
-        <v>0.64</v>
+        <v>1.93</v>
       </c>
       <c r="I142" t="n">
-        <v>64402</v>
+        <v>64580</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2659660494</v>
+        <v>2655727942</v>
       </c>
       <c r="E143" t="n">
-        <v>2823867393</v>
+        <v>2819692046</v>
       </c>
       <c r="F143" t="n">
-        <v>3717.446535718208</v>
+        <v>3312.845508088988</v>
       </c>
       <c r="G143" t="n">
-        <v>19063.48997480331</v>
+        <v>23072.90084204469</v>
       </c>
       <c r="H143" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I143" t="n">
-        <v>39633019</v>
+        <v>39457156</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1657471</v>
+        <v>1659739</v>
       </c>
       <c r="E144" t="n">
-        <v>1663322</v>
+        <v>1665598</v>
       </c>
       <c r="F144" t="n">
-        <v>866.7043999403232</v>
+        <v>755.6749204570376</v>
       </c>
       <c r="G144" t="n">
-        <v>551.4297961504375</v>
+        <v>697.9735696344242</v>
       </c>
       <c r="H144" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="I144" t="n">
-        <v>414742</v>
+        <v>415939</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>62035163</v>
+        <v>62091189</v>
       </c>
       <c r="E145" t="n">
-        <v>152168051</v>
+        <v>152305478</v>
       </c>
       <c r="F145" t="n">
-        <v>2994.008065979673</v>
+        <v>3185.152791905375</v>
       </c>
       <c r="G145" t="n">
-        <v>4989.826045250617</v>
+        <v>4901.838648138293</v>
       </c>
       <c r="H145" t="n">
-        <v>0.66</v>
+        <v>0.55</v>
       </c>
       <c r="I145" t="n">
-        <v>22627544</v>
+        <v>22666216</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>734305322</v>
+        <v>748227014</v>
       </c>
       <c r="E146" t="n">
-        <v>1132363639</v>
+        <v>1153832117</v>
       </c>
       <c r="F146" t="n">
-        <v>140988.9555320519</v>
+        <v>159440.2534831357</v>
       </c>
       <c r="G146" t="n">
-        <v>157752.3595289424</v>
+        <v>177166.014151786</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>178747474</v>
+        <v>218735072</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23217981</v>
+        <v>23293317</v>
       </c>
       <c r="E147" t="n">
-        <v>23217981</v>
+        <v>23293317</v>
       </c>
       <c r="F147" t="n">
-        <v>6060.06741016659</v>
+        <v>4384.112836162305</v>
       </c>
       <c r="G147" t="n">
-        <v>3576.129248132779</v>
+        <v>7347.439003543159</v>
       </c>
       <c r="H147" t="n">
         <v>0.31</v>
       </c>
       <c r="I147" t="n">
-        <v>6241434</v>
+        <v>6365361</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3790503</v>
+        <v>3793904</v>
       </c>
       <c r="E148" t="n">
-        <v>8270828</v>
+        <v>8278250</v>
       </c>
       <c r="F148" t="n">
-        <v>5695.50780638274</v>
+        <v>5695.462777080556</v>
       </c>
       <c r="G148" t="n">
-        <v>5614.00371396244</v>
+        <v>5614.045599247202</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1070514</v>
+        <v>1076550</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9347266</v>
+        <v>9350957</v>
       </c>
       <c r="E149" t="n">
-        <v>9347266</v>
+        <v>9350957</v>
       </c>
       <c r="F149" t="n">
-        <v>86695.41697458038</v>
+        <v>387718.2067665293</v>
       </c>
       <c r="G149" t="n">
-        <v>79403.4630925723</v>
+        <v>695234.396170946</v>
       </c>
       <c r="H149" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I149" t="n">
-        <v>3106247</v>
+        <v>3112756</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>494845017</v>
+        <v>496096643</v>
       </c>
       <c r="E150" t="n">
-        <v>1723388220</v>
+        <v>1727747236</v>
       </c>
       <c r="F150" t="n">
-        <v>810711.4786996439</v>
+        <v>803122.1643794212</v>
       </c>
       <c r="G150" t="n">
-        <v>909685.5496379603</v>
+        <v>888602.5258214673</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>30948324</v>
+        <v>31173667</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>48336439</v>
+        <v>48149645</v>
       </c>
       <c r="E151" t="n">
-        <v>119294787</v>
+        <v>118833778</v>
       </c>
       <c r="F151" t="n">
-        <v>8296.059012445656</v>
+        <v>8186.950781382759</v>
       </c>
       <c r="G151" t="n">
-        <v>8087.699699732023</v>
+        <v>8089.334410540053</v>
       </c>
       <c r="H151" t="n">
         <v>0.34</v>
       </c>
       <c r="I151" t="n">
-        <v>43076</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7686372</v>
+        <v>7662795</v>
       </c>
       <c r="E152" t="n">
-        <v>19968367</v>
+        <v>19907117</v>
       </c>
       <c r="F152" t="n">
-        <v>1661.916352541731</v>
+        <v>1579.500692247111</v>
       </c>
       <c r="G152" t="n">
-        <v>5307.753654934873</v>
+        <v>5307.793255331419</v>
       </c>
       <c r="H152" t="n">
         <v>1.5</v>
       </c>
       <c r="I152" t="n">
-        <v>701596</v>
+        <v>702655</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19193964948</v>
+        <v>19193281194</v>
       </c>
       <c r="F153" t="n">
-        <v>52444.10785942442</v>
+        <v>52444.49913746834</v>
       </c>
       <c r="G153" t="n">
-        <v>50107.13969778067</v>
+        <v>50160.46272554634</v>
       </c>
       <c r="H153" t="n">
         <v>0.34</v>
       </c>
       <c r="I153" t="n">
-        <v>48803513</v>
+        <v>48739680</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2648370</v>
+        <v>2645955</v>
       </c>
       <c r="E154" t="n">
-        <v>10593481</v>
+        <v>10583818</v>
       </c>
       <c r="F154" t="n">
-        <v>22136.4093291923</v>
+        <v>27717.41031542712</v>
       </c>
       <c r="G154" t="n">
-        <v>12882.10299206169</v>
+        <v>3075.280578275484</v>
       </c>
       <c r="H154" t="n">
-        <v>0.57</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I154" t="n">
-        <v>1210351</v>
+        <v>6294532</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>216504589</v>
+        <v>217199719</v>
       </c>
       <c r="E155" t="n">
-        <v>665670135</v>
+        <v>667807400</v>
       </c>
       <c r="F155" t="n">
-        <v>168538.8658134466</v>
+        <v>172379.0790966153</v>
       </c>
       <c r="G155" t="n">
-        <v>152728.7850289615</v>
+        <v>157533.8115317828</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>11656272</v>
+        <v>11680603</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>405132000</v>
+        <v>406087139</v>
       </c>
       <c r="E156" t="n">
-        <v>2315039999</v>
+        <v>2320497935</v>
       </c>
       <c r="F156" t="n">
-        <v>146802.7088746203</v>
+        <v>130984.0177853453</v>
       </c>
       <c r="G156" t="n">
-        <v>273474.0780943905</v>
+        <v>272204.4412782573</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>37163437</v>
+        <v>37110081</v>
       </c>
     </row>
   </sheetData>
